--- a/Doku/Projektmappe.xlsx
+++ b/Doku/Projektmappe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Inhalt" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="305">
   <si>
     <t>(0-100%)</t>
   </si>
@@ -730,16 +730,7 @@
     <t>Webserver, Extrafunktionen wie z.B. Patient kann Daten einsehen, Extradaten in der Datenbank, Datenbankserver.</t>
   </si>
   <si>
-    <t>Homepage mit wichtigsten Funktionen</t>
-  </si>
-  <si>
-    <t>Erstellen der Datenbank</t>
-  </si>
-  <si>
     <t>restliche Funktionen</t>
-  </si>
-  <si>
-    <t>Datenbank kann nicht gemäß der Datenschutzrichtlinien entwickelt werden.</t>
   </si>
   <si>
     <t xml:space="preserve">Jan Gutnik, Valeria Pagliaro, Shabithan Uthayakumaran
@@ -899,12 +890,6 @@
     <t xml:space="preserve">funktionierende Datenbank, Webserver, Homepage mit Einloggen, Ausloggen, Patient anlegen, Tagebuch ausfüllen und speichern sowie Änderungsmöglichkeit, Diagramm einsehen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. rer. nat. Dipl-Psych. Agnes Kroczek </t>
-  </si>
-  <si>
-    <t>Datenbank mit Daten von Patienten, Psychologe, Tagebuch; Webseite für Patient und Psychologe mit den Funktionen: Einloggen, Ausloggen, Patient anlegen(Psychologe), Tagebuch ausfüllen und speichern(Patient), Tagebuch einsehen(Psychologe), Diagramm einsehen(Psychologe), Notizen  hinzufügen(Psychologe, Patient), Mediamentenmenge ändern(Psychologe)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bei der Datenspeicherung und -übertragung muss man die Datenschutzrichtlinien beachten.</t>
   </si>
   <si>
@@ -921,15 +906,6 @@
   </si>
   <si>
     <t>Jan Gutnik</t>
-  </si>
-  <si>
-    <t>120 Std</t>
-  </si>
-  <si>
-    <t>? Tage</t>
-  </si>
-  <si>
-    <t>? Stunden</t>
   </si>
   <si>
     <t>Projektplanung, Grundgerüst der Website, Erstellen der Oberfäche, Website auf Funktionen testen, Erstellen der Dokumentation</t>
@@ -1069,6 +1045,139 @@
   <si>
     <t>Projektteam: Valeria Pagliaro, Jan Gutnik, Shabithan Uthayakumaran</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inhalt/Qualität:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Das Projekt soll die wichtigsten Funktionen beinhalten</t>
+    </r>
+  </si>
+  <si>
+    <t>Entwickler fällt krankheitsbedingt aus</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zeit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Das Projekt soll bis zu dem 21.06 abgeschlossen sein</t>
+    </r>
+  </si>
+  <si>
+    <t>48 Stunden</t>
+  </si>
+  <si>
+    <t>46 Stunden</t>
+  </si>
+  <si>
+    <t>36 Tage</t>
+  </si>
+  <si>
+    <t>35 Tage</t>
+  </si>
+  <si>
+    <t>31 Tage</t>
+  </si>
+  <si>
+    <t>43 Stunden</t>
+  </si>
+  <si>
+    <t>126 Std</t>
+  </si>
+  <si>
+    <t>Datenbank mit Daten von Patienten, Psychologe, Tagebuch; Webseite für Patient und Psychologe mit den Funktionen: Einloggen, Ausloggen, Patient anlegen(Psychologe), Tagebuch ausfüllen und speichern(Patient), Tagebuch einsehen(Psychologe), Diagramm einsehen(Psychologe), Notizen  hinzufügen(Psychologe, Patient), Mediamentenmenge ändern(Psychologe), Es wird eine Webanwendung geliefert.</t>
+  </si>
+  <si>
+    <t>Dr. rer. nat. Dipl-Psych. Agnes Kroczek  (Universitätsklinikum Tübingen)</t>
+  </si>
+  <si>
+    <t>Das Vorgehen bezieht sich auf eine agile Softwareentwicklung. Aufgaben werden durch Issues in github vergeben und mit dem jeweiligen Status "To Do", "In Progress" oder "Done" versehen. Die Software wird dementsprechend online in github verwaltet.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Daten könnten in der Datenbank oder während der Übertragung von unbefugten Personen ausgelesen werden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ausfall von Entwicklern durch Krankheit.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verschlüsselung der Datenbank und Verwendung des sicheren HTTPS Protokolls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Den Schaden des Ausfalls kann man durch Zeitpuffer bei der Planung vorbeugen.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1078,7 +1187,7 @@
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,6 +1470,18 @@
     <font>
       <b/>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3525,7 +3646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3814,50 +3935,24 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3892,16 +3987,58 @@
     <xf numFmtId="0" fontId="30" fillId="26" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3913,11 +4050,96 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3937,12 +4159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3961,89 +4177,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="134" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4073,9 +4210,41 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4210,6 +4379,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4226,74 +4396,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4346,28 +4448,48 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4437,6 +4559,9 @@
                 <c:pt idx="6">
                   <c:v>70</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4467,6 +4592,9 @@
                 <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4476,11 +4604,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="147426304"/>
-        <c:axId val="147436672"/>
+        <c:axId val="146635776"/>
+        <c:axId val="146646144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147426304"/>
+        <c:axId val="146635776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4531,13 +4659,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147436672"/>
+        <c:crossAx val="146646144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147436672"/>
+        <c:axId val="146646144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4587,7 +4715,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147426304"/>
+        <c:crossAx val="146635776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -4626,7 +4754,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -12349,7 +12477,7 @@
         <xdr:cNvPr id="7" name="Titel 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12423,7 +12551,7 @@
         <xdr:cNvPr id="8" name="Untertitel 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12747,7 +12875,7 @@
         <xdr:cNvPr id="3" name="Rechteck 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12814,7 +12942,7 @@
         <xdr:cNvPr id="10" name="Titel 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12893,7 +13021,7 @@
         <xdr:cNvPr id="11" name="Inhaltsplatzhalter 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13241,7 +13369,7 @@
         <xdr:cNvPr id="12" name="Titel 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13320,7 +13448,7 @@
         <xdr:cNvPr id="13" name="Inhaltsplatzhalter 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13631,7 +13759,7 @@
         <xdr:cNvPr id="14" name="Textplatzhalter 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13930,7 +14058,7 @@
         <xdr:cNvPr id="15" name="Titel 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14009,7 +14137,7 @@
         <xdr:cNvPr id="16" name="Inhaltsplatzhalter 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14303,7 +14431,7 @@
         <xdr:cNvPr id="17" name="Textplatzhalter 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14606,7 +14734,7 @@
         <xdr:cNvPr id="18" name="Titel 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14685,7 +14813,7 @@
         <xdr:cNvPr id="20" name="Textplatzhalter 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14984,7 +15112,7 @@
         <xdr:cNvPr id="21" name="Picture 20" descr="use_case.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15028,7 +15156,7 @@
         <xdr:cNvPr id="22" name="Picture 21" descr="01_Login.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15072,7 +15200,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="02_Startseite_Psych.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15111,7 +15239,7 @@
         <xdr:cNvPr id="24" name="TextBox 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15171,7 +15299,7 @@
         <xdr:cNvPr id="25" name="Picture 24" descr="03_dropdown_psych.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15215,7 +15343,7 @@
         <xdr:cNvPr id="26" name="Picture 25" descr="04_Patient_anlegen.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15259,7 +15387,7 @@
         <xdr:cNvPr id="27" name="Picture 26" descr="05_Patientensuche.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15303,7 +15431,7 @@
         <xdr:cNvPr id="28" name="Picture 27" descr="05_Patientensuche.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15347,7 +15475,7 @@
         <xdr:cNvPr id="29" name="Picture 28" descr="07_Diagramm.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15391,7 +15519,7 @@
         <xdr:cNvPr id="30" name="Picture 29" descr="08_Tagebuch_ausfüllen.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15435,7 +15563,7 @@
         <xdr:cNvPr id="31" name="Picture 30" descr="09_ausgefülltes_Tagebuch.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15479,7 +15607,7 @@
         <xdr:cNvPr id="32" name="Picture 31" descr="10_speichern_ändern.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15523,7 +15651,7 @@
         <xdr:cNvPr id="33" name="Picture 32" descr="11_ausgeloggt_seite.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15567,7 +15695,7 @@
         <xdr:cNvPr id="34" name="Picture 33" descr="Entwurf_Ehealth_Datenbank.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15606,8 +15734,8 @@
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>693420</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1569720</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
@@ -15616,7 +15744,7 @@
         <xdr:cNvPr id="14346" name="Grafik 1" descr="Kopfzeile">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A380000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A380000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15628,7 +15756,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15651,14 +15779,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15695,7 +15823,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15736,7 +15864,7 @@
         <xdr:cNvPr id="4" name="Gerader Verbinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15791,7 +15919,7 @@
         <xdr:cNvPr id="5" name="Gerader Verbinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15841,7 +15969,7 @@
         <xdr:cNvPr id="7" name="Gerade Verbindung mit Pfeil 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15897,7 +16025,7 @@
         <xdr:cNvPr id="8" name="Gerade Verbindung mit Pfeil 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15950,7 +16078,7 @@
         <xdr:cNvPr id="9" name="Gerade Verbindung mit Pfeil 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16003,7 +16131,7 @@
         <xdr:cNvPr id="10" name="Gerade Verbindung mit Pfeil 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16059,7 +16187,7 @@
         <xdr:cNvPr id="11" name="Gerade Verbindung mit Pfeil 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16115,7 +16243,7 @@
         <xdr:cNvPr id="12" name="Gerader Verbinder 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16170,7 +16298,7 @@
         <xdr:cNvPr id="13" name="Gerade Verbindung mit Pfeil 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16226,7 +16354,7 @@
         <xdr:cNvPr id="15" name="Gerade Verbindung mit Pfeil 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16282,7 +16410,7 @@
         <xdr:cNvPr id="17" name="Gerader Verbinder 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16337,7 +16465,7 @@
         <xdr:cNvPr id="18" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16393,7 +16521,7 @@
         <xdr:cNvPr id="19" name="Gerader Verbinder 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16448,7 +16576,7 @@
         <xdr:cNvPr id="20" name="Verbinder: gewinkelt 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16503,7 +16631,7 @@
         <xdr:cNvPr id="22" name="Gerader Verbinder 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16557,7 +16685,7 @@
         <xdr:cNvPr id="32" name="Gerader Verbinder 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16612,7 +16740,7 @@
         <xdr:cNvPr id="33" name="Gerade Verbindung mit Pfeil 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16668,7 +16796,7 @@
         <xdr:cNvPr id="34" name="Gerader Verbinder 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16723,7 +16851,7 @@
         <xdr:cNvPr id="37" name="Gerader Verbinder 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16778,7 +16906,7 @@
         <xdr:cNvPr id="38" name="Gerade Verbindung mit Pfeil 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16834,7 +16962,7 @@
         <xdr:cNvPr id="39" name="Gerader Verbinder 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16889,7 +17017,7 @@
         <xdr:cNvPr id="44" name="Gerader Verbinder 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00002C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16944,7 +17072,7 @@
         <xdr:cNvPr id="47" name="Gerade Verbindung mit Pfeil 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17000,7 +17128,7 @@
         <xdr:cNvPr id="49" name="Gerader Verbinder 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17055,7 +17183,7 @@
         <xdr:cNvPr id="54" name="Raute 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000036000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17134,7 +17262,7 @@
         <xdr:cNvPr id="55" name="Gerade Verbindung mit Pfeil 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000037000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17190,7 +17318,7 @@
         <xdr:cNvPr id="56" name="Raute 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17269,7 +17397,7 @@
         <xdr:cNvPr id="57" name="Gerade Verbindung mit Pfeil 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000039000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17330,7 +17458,7 @@
         <xdr:cNvPr id="8212" name="Picture 3" descr="04 Logo_8x1,9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000014200000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17342,7 +17470,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17365,14 +17493,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17409,7 +17537,7 @@
         <xdr:cNvPr id="41985" name="Grafik 1" descr="Kopfzeile_quer.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000001A40000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001A40000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17421,7 +17549,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17444,14 +17572,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17488,7 +17616,7 @@
         <xdr:cNvPr id="43010" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002A80000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002A80000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17526,7 +17654,7 @@
         <xdr:cNvPr id="8" name="Freihandform 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17686,7 +17814,7 @@
         <xdr:cNvPr id="9" name="Freihandform 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17830,7 +17958,7 @@
         <xdr:cNvPr id="6" name="Ellipse 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17899,7 +18027,7 @@
         <xdr:cNvPr id="43009" name="Grafik 2" descr="Kopfzeile_quer.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000001A80000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000001A80000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17911,7 +18039,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17934,14 +18062,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17973,7 +18101,7 @@
         <xdr:cNvPr id="4" name="Textfeld 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18037,7 +18165,7 @@
         <xdr:cNvPr id="5" name="Textfeld 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18096,7 +18224,7 @@
         <xdr:cNvPr id="7" name="Textfeld 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18177,7 +18305,7 @@
         <xdr:cNvPr id="10" name="Textfeld 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18249,7 +18377,7 @@
         <xdr:cNvPr id="11" name="Textfeld 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18327,7 +18455,7 @@
         <xdr:cNvPr id="12" name="Textfeld 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18690,33 +18818,33 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="204" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="198" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="174"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="200"/>
       <c r="H4" s="148"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1">
-      <c r="B5" s="175"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="177"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="203"/>
       <c r="H5" s="148"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1">
@@ -18753,11 +18881,11 @@
     <row r="9" spans="2:8" ht="15" customHeight="1">
       <c r="B9" s="150"/>
       <c r="C9" s="151"/>
-      <c r="D9" s="182" t="s">
+      <c r="D9" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="182"/>
-      <c r="F9" s="183"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="186"/>
       <c r="G9" s="155"/>
       <c r="H9" s="149"/>
     </row>
@@ -18793,11 +18921,11 @@
     <row r="13" spans="2:8">
       <c r="B13" s="152"/>
       <c r="C13" s="153"/>
-      <c r="D13" s="182" t="s">
+      <c r="D13" s="185" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="182"/>
-      <c r="F13" s="183"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="186"/>
       <c r="G13" s="142"/>
     </row>
     <row r="14" spans="2:8">
@@ -18839,11 +18967,11 @@
     <row r="18" spans="2:7">
       <c r="B18" s="152"/>
       <c r="C18" s="153"/>
-      <c r="D18" s="182" t="s">
+      <c r="D18" s="185" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="182"/>
-      <c r="F18" s="183"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="186"/>
       <c r="G18" s="142"/>
     </row>
     <row r="19" spans="2:7">
@@ -18864,22 +18992,22 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="152"/>
-      <c r="C21" s="179" t="s">
+      <c r="C21" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="181"/>
+      <c r="D21" s="206"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="207"/>
       <c r="G21" s="142"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="152"/>
       <c r="C22" s="153"/>
-      <c r="D22" s="182" t="s">
+      <c r="D22" s="185" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="182"/>
-      <c r="F22" s="183"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="186"/>
       <c r="G22" s="142"/>
     </row>
     <row r="23" spans="2:7">
@@ -18900,22 +19028,22 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="152"/>
-      <c r="C25" s="184" t="s">
+      <c r="C25" s="208" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="186"/>
+      <c r="D25" s="209"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="210"/>
       <c r="G25" s="142"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="152"/>
       <c r="C26" s="153"/>
-      <c r="D26" s="182" t="s">
+      <c r="D26" s="185" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="182"/>
-      <c r="F26" s="183"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="186"/>
       <c r="G26" s="142"/>
     </row>
     <row r="27" spans="2:7">
@@ -18928,6 +19056,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="C25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="D8:F8"/>
@@ -18938,11 +19071,6 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="C25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18966,292 +19094,254 @@
   <sheetData>
     <row r="1" spans="2:11" s="145" customFormat="1"/>
     <row r="2" spans="2:11" ht="18.75">
-      <c r="B2" s="376" t="s">
+      <c r="B2" s="388" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="376"/>
-      <c r="D2" s="376" t="s">
+      <c r="C2" s="388"/>
+      <c r="D2" s="388" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="376"/>
-      <c r="F2" s="376" t="s">
+      <c r="E2" s="388"/>
+      <c r="F2" s="388" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="376"/>
-      <c r="H2" s="376" t="s">
+      <c r="G2" s="388"/>
+      <c r="H2" s="388" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="376"/>
-      <c r="J2" s="376" t="s">
+      <c r="I2" s="388"/>
+      <c r="J2" s="388" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="376"/>
+      <c r="K2" s="388"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="374">
+      <c r="B3" s="389">
         <v>1</v>
       </c>
-      <c r="C3" s="374"/>
-      <c r="D3" s="374"/>
-      <c r="E3" s="374"/>
-      <c r="F3" s="374"/>
-      <c r="G3" s="374"/>
-      <c r="H3" s="375" t="s">
+      <c r="C3" s="389"/>
+      <c r="D3" s="389"/>
+      <c r="E3" s="389"/>
+      <c r="F3" s="389"/>
+      <c r="G3" s="389"/>
+      <c r="H3" s="390" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="375"/>
-      <c r="J3" s="374"/>
-      <c r="K3" s="374"/>
+      <c r="I3" s="390"/>
+      <c r="J3" s="389"/>
+      <c r="K3" s="389"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B4" s="374"/>
-      <c r="C4" s="374"/>
-      <c r="D4" s="374"/>
-      <c r="E4" s="374"/>
-      <c r="F4" s="374"/>
-      <c r="G4" s="374"/>
-      <c r="H4" s="375" t="s">
+      <c r="B4" s="389"/>
+      <c r="C4" s="389"/>
+      <c r="D4" s="389"/>
+      <c r="E4" s="389"/>
+      <c r="F4" s="389"/>
+      <c r="G4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="375"/>
-      <c r="J4" s="374"/>
-      <c r="K4" s="374"/>
+      <c r="I4" s="390"/>
+      <c r="J4" s="389"/>
+      <c r="K4" s="389"/>
     </row>
     <row r="5" spans="2:11" ht="15.75">
-      <c r="B5" s="374"/>
-      <c r="C5" s="374"/>
-      <c r="D5" s="374"/>
-      <c r="E5" s="374"/>
-      <c r="F5" s="374"/>
-      <c r="G5" s="374"/>
-      <c r="H5" s="375" t="s">
+      <c r="B5" s="389"/>
+      <c r="C5" s="389"/>
+      <c r="D5" s="389"/>
+      <c r="E5" s="389"/>
+      <c r="F5" s="389"/>
+      <c r="G5" s="389"/>
+      <c r="H5" s="390" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="375"/>
-      <c r="J5" s="374"/>
-      <c r="K5" s="374"/>
+      <c r="I5" s="390"/>
+      <c r="J5" s="389"/>
+      <c r="K5" s="389"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B6" s="374">
+      <c r="B6" s="389">
         <v>2</v>
       </c>
-      <c r="C6" s="374"/>
-      <c r="D6" s="374"/>
-      <c r="E6" s="374"/>
-      <c r="F6" s="374"/>
-      <c r="G6" s="374"/>
-      <c r="H6" s="375" t="s">
+      <c r="C6" s="389"/>
+      <c r="D6" s="389"/>
+      <c r="E6" s="389"/>
+      <c r="F6" s="389"/>
+      <c r="G6" s="389"/>
+      <c r="H6" s="390" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="375"/>
-      <c r="J6" s="374"/>
-      <c r="K6" s="374"/>
+      <c r="I6" s="390"/>
+      <c r="J6" s="389"/>
+      <c r="K6" s="389"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B7" s="374"/>
-      <c r="C7" s="374"/>
-      <c r="D7" s="374"/>
-      <c r="E7" s="374"/>
-      <c r="F7" s="374"/>
-      <c r="G7" s="374"/>
-      <c r="H7" s="375" t="s">
+      <c r="B7" s="389"/>
+      <c r="C7" s="389"/>
+      <c r="D7" s="389"/>
+      <c r="E7" s="389"/>
+      <c r="F7" s="389"/>
+      <c r="G7" s="389"/>
+      <c r="H7" s="390" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="375"/>
-      <c r="J7" s="374"/>
-      <c r="K7" s="374"/>
+      <c r="I7" s="390"/>
+      <c r="J7" s="389"/>
+      <c r="K7" s="389"/>
     </row>
     <row r="8" spans="2:11" ht="15.75">
-      <c r="B8" s="374"/>
-      <c r="C8" s="374"/>
-      <c r="D8" s="374"/>
-      <c r="E8" s="374"/>
-      <c r="F8" s="374"/>
-      <c r="G8" s="374"/>
-      <c r="H8" s="375" t="s">
+      <c r="B8" s="389"/>
+      <c r="C8" s="389"/>
+      <c r="D8" s="389"/>
+      <c r="E8" s="389"/>
+      <c r="F8" s="389"/>
+      <c r="G8" s="389"/>
+      <c r="H8" s="390" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="375"/>
-      <c r="J8" s="374"/>
-      <c r="K8" s="374"/>
+      <c r="I8" s="390"/>
+      <c r="J8" s="389"/>
+      <c r="K8" s="389"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B9" s="374">
+      <c r="B9" s="389">
         <v>3</v>
       </c>
-      <c r="C9" s="374"/>
-      <c r="D9" s="374"/>
-      <c r="E9" s="374"/>
-      <c r="F9" s="374"/>
-      <c r="G9" s="374"/>
-      <c r="H9" s="375" t="s">
+      <c r="C9" s="389"/>
+      <c r="D9" s="389"/>
+      <c r="E9" s="389"/>
+      <c r="F9" s="389"/>
+      <c r="G9" s="389"/>
+      <c r="H9" s="390" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="375"/>
-      <c r="J9" s="374"/>
-      <c r="K9" s="374"/>
+      <c r="I9" s="390"/>
+      <c r="J9" s="389"/>
+      <c r="K9" s="389"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B10" s="374"/>
-      <c r="C10" s="374"/>
-      <c r="D10" s="374"/>
-      <c r="E10" s="374"/>
-      <c r="F10" s="374"/>
-      <c r="G10" s="374"/>
-      <c r="H10" s="375" t="s">
+      <c r="B10" s="389"/>
+      <c r="C10" s="389"/>
+      <c r="D10" s="389"/>
+      <c r="E10" s="389"/>
+      <c r="F10" s="389"/>
+      <c r="G10" s="389"/>
+      <c r="H10" s="390" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="375"/>
-      <c r="J10" s="374"/>
-      <c r="K10" s="374"/>
+      <c r="I10" s="390"/>
+      <c r="J10" s="389"/>
+      <c r="K10" s="389"/>
     </row>
     <row r="11" spans="2:11" ht="15.75">
-      <c r="B11" s="374"/>
-      <c r="C11" s="374"/>
-      <c r="D11" s="374"/>
-      <c r="E11" s="374"/>
-      <c r="F11" s="374"/>
-      <c r="G11" s="374"/>
-      <c r="H11" s="375" t="s">
+      <c r="B11" s="389"/>
+      <c r="C11" s="389"/>
+      <c r="D11" s="389"/>
+      <c r="E11" s="389"/>
+      <c r="F11" s="389"/>
+      <c r="G11" s="389"/>
+      <c r="H11" s="390" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="375"/>
-      <c r="J11" s="374"/>
-      <c r="K11" s="374"/>
+      <c r="I11" s="390"/>
+      <c r="J11" s="389"/>
+      <c r="K11" s="389"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B12" s="374">
+      <c r="B12" s="389">
         <v>4</v>
       </c>
-      <c r="C12" s="374"/>
-      <c r="D12" s="374"/>
-      <c r="E12" s="374"/>
-      <c r="F12" s="374"/>
-      <c r="G12" s="374"/>
-      <c r="H12" s="375" t="s">
+      <c r="C12" s="389"/>
+      <c r="D12" s="389"/>
+      <c r="E12" s="389"/>
+      <c r="F12" s="389"/>
+      <c r="G12" s="389"/>
+      <c r="H12" s="390" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="375"/>
-      <c r="J12" s="374"/>
-      <c r="K12" s="374"/>
+      <c r="I12" s="390"/>
+      <c r="J12" s="389"/>
+      <c r="K12" s="389"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B13" s="374"/>
-      <c r="C13" s="374"/>
-      <c r="D13" s="374"/>
-      <c r="E13" s="374"/>
-      <c r="F13" s="374"/>
-      <c r="G13" s="374"/>
-      <c r="H13" s="375" t="s">
+      <c r="B13" s="389"/>
+      <c r="C13" s="389"/>
+      <c r="D13" s="389"/>
+      <c r="E13" s="389"/>
+      <c r="F13" s="389"/>
+      <c r="G13" s="389"/>
+      <c r="H13" s="390" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="375"/>
-      <c r="J13" s="374"/>
-      <c r="K13" s="374"/>
+      <c r="I13" s="390"/>
+      <c r="J13" s="389"/>
+      <c r="K13" s="389"/>
     </row>
     <row r="14" spans="2:11" ht="15.75">
-      <c r="B14" s="374"/>
-      <c r="C14" s="374"/>
-      <c r="D14" s="374"/>
-      <c r="E14" s="374"/>
-      <c r="F14" s="374"/>
-      <c r="G14" s="374"/>
-      <c r="H14" s="375" t="s">
+      <c r="B14" s="389"/>
+      <c r="C14" s="389"/>
+      <c r="D14" s="389"/>
+      <c r="E14" s="389"/>
+      <c r="F14" s="389"/>
+      <c r="G14" s="389"/>
+      <c r="H14" s="390" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="375"/>
-      <c r="J14" s="374"/>
-      <c r="K14" s="374"/>
+      <c r="I14" s="390"/>
+      <c r="J14" s="389"/>
+      <c r="K14" s="389"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B15" s="374">
+      <c r="B15" s="389">
         <v>5</v>
       </c>
-      <c r="C15" s="374"/>
-      <c r="D15" s="374"/>
-      <c r="E15" s="374"/>
-      <c r="F15" s="374"/>
-      <c r="G15" s="374"/>
-      <c r="H15" s="375" t="s">
+      <c r="C15" s="389"/>
+      <c r="D15" s="389"/>
+      <c r="E15" s="389"/>
+      <c r="F15" s="389"/>
+      <c r="G15" s="389"/>
+      <c r="H15" s="390" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="375"/>
-      <c r="J15" s="374"/>
-      <c r="K15" s="374"/>
+      <c r="I15" s="390"/>
+      <c r="J15" s="389"/>
+      <c r="K15" s="389"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B16" s="374"/>
-      <c r="C16" s="374"/>
-      <c r="D16" s="374"/>
-      <c r="E16" s="374"/>
-      <c r="F16" s="374"/>
-      <c r="G16" s="374"/>
-      <c r="H16" s="375" t="s">
+      <c r="B16" s="389"/>
+      <c r="C16" s="389"/>
+      <c r="D16" s="389"/>
+      <c r="E16" s="389"/>
+      <c r="F16" s="389"/>
+      <c r="G16" s="389"/>
+      <c r="H16" s="390" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="375"/>
-      <c r="J16" s="374"/>
-      <c r="K16" s="374"/>
+      <c r="I16" s="390"/>
+      <c r="J16" s="389"/>
+      <c r="K16" s="389"/>
     </row>
     <row r="17" spans="2:11" ht="15.75">
-      <c r="B17" s="374"/>
-      <c r="C17" s="374"/>
-      <c r="D17" s="374"/>
-      <c r="E17" s="374"/>
-      <c r="F17" s="374"/>
-      <c r="G17" s="374"/>
-      <c r="H17" s="375" t="s">
+      <c r="B17" s="389"/>
+      <c r="C17" s="389"/>
+      <c r="D17" s="389"/>
+      <c r="E17" s="389"/>
+      <c r="F17" s="389"/>
+      <c r="G17" s="389"/>
+      <c r="H17" s="390" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="375"/>
-      <c r="J17" s="374"/>
-      <c r="K17" s="374"/>
+      <c r="I17" s="390"/>
+      <c r="J17" s="389"/>
+      <c r="K17" s="389"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B15:C17"/>
-    <mergeCell ref="D3:E5"/>
-    <mergeCell ref="D6:E8"/>
-    <mergeCell ref="D9:E11"/>
-    <mergeCell ref="D12:E14"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J16:K16"/>
@@ -19264,11 +19354,49 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B15:C17"/>
+    <mergeCell ref="D3:E5"/>
+    <mergeCell ref="D6:E8"/>
+    <mergeCell ref="D9:E11"/>
+    <mergeCell ref="D12:E14"/>
+    <mergeCell ref="D15:E17"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19362,149 +19490,152 @@
   </sheetPr>
   <dimension ref="B7:R142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E11"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69:I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:9" ht="25.5">
-      <c r="B7" s="243" t="s">
+      <c r="B7" s="211" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="244"/>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="213"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="233" t="s">
+      <c r="B8" s="230" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="234"/>
-      <c r="D8" s="198" t="s">
+      <c r="C8" s="231"/>
+      <c r="D8" s="214" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="199"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="218"/>
+      <c r="I8" s="215"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="237"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="206"/>
-      <c r="I9" s="203"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="222"/>
+      <c r="H9" s="222"/>
+      <c r="I9" s="217"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="233" t="s">
+      <c r="B10" s="230" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="234"/>
-      <c r="D10" s="198" t="s">
+      <c r="C10" s="231"/>
+      <c r="D10" s="214" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="199"/>
-      <c r="F10" s="233" t="s">
+      <c r="E10" s="215"/>
+      <c r="F10" s="230" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="234"/>
-      <c r="H10" s="198" t="s">
+      <c r="G10" s="231"/>
+      <c r="H10" s="214" t="s">
         <v>180</v>
       </c>
-      <c r="I10" s="199"/>
+      <c r="I10" s="215"/>
     </row>
     <row r="11" spans="2:9" ht="43.9" customHeight="1">
-      <c r="B11" s="237"/>
-      <c r="C11" s="238"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="237"/>
-      <c r="G11" s="238"/>
-      <c r="H11" s="202"/>
-      <c r="I11" s="203"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="232"/>
+      <c r="G11" s="233"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="217"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1">
-      <c r="B12" s="233" t="s">
+      <c r="B12" s="230" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="234"/>
-      <c r="D12" s="198" t="s">
+      <c r="C12" s="231"/>
+      <c r="D12" s="214" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="204"/>
-      <c r="F12" s="204"/>
-      <c r="G12" s="204"/>
-      <c r="H12" s="204"/>
-      <c r="I12" s="199"/>
+      <c r="E12" s="218"/>
+      <c r="F12" s="218"/>
+      <c r="G12" s="218"/>
+      <c r="H12" s="218"/>
+      <c r="I12" s="215"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="235"/>
-      <c r="C13" s="236"/>
-      <c r="D13" s="200"/>
-      <c r="E13" s="205"/>
-      <c r="F13" s="205"/>
-      <c r="G13" s="205"/>
-      <c r="H13" s="205"/>
-      <c r="I13" s="201"/>
+      <c r="B13" s="234"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="220"/>
+      <c r="I13" s="221"/>
     </row>
     <row r="14" spans="2:9" ht="31.9" customHeight="1">
-      <c r="B14" s="237"/>
-      <c r="C14" s="238"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="206"/>
-      <c r="G14" s="206"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="203"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="233"/>
+      <c r="D14" s="216"/>
+      <c r="E14" s="222"/>
+      <c r="F14" s="222"/>
+      <c r="G14" s="222"/>
+      <c r="H14" s="222"/>
+      <c r="I14" s="217"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="213" t="s">
+      <c r="B15" s="225" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="214"/>
-      <c r="D15" s="229">
+      <c r="C15" s="226"/>
+      <c r="D15" s="223">
         <v>43560</v>
       </c>
-      <c r="E15" s="230"/>
-      <c r="F15" s="213" t="s">
+      <c r="E15" s="224"/>
+      <c r="F15" s="225" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="214"/>
-      <c r="H15" s="246" t="s">
-        <v>249</v>
-      </c>
-      <c r="I15" s="247"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="227" t="s">
+        <v>299</v>
+      </c>
+      <c r="I15" s="228"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="213" t="s">
+      <c r="B16" s="225" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="214"/>
-      <c r="D16" s="229">
+      <c r="C16" s="226"/>
+      <c r="D16" s="223">
         <v>43630</v>
       </c>
-      <c r="E16" s="230"/>
-      <c r="F16" s="213" t="s">
+      <c r="E16" s="224"/>
+      <c r="F16" s="225" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="214"/>
-      <c r="H16" s="248">
+      <c r="G16" s="226"/>
+      <c r="H16" s="229">
         <v>0</v>
       </c>
-      <c r="I16" s="247"/>
+      <c r="I16" s="228"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="131"/>
@@ -19515,98 +19646,98 @@
       <c r="C18" s="131"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B19" s="221" t="s">
+      <c r="B19" s="239" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="222"/>
-      <c r="D19" s="222"/>
-      <c r="E19" s="222"/>
-      <c r="F19" s="222"/>
-      <c r="G19" s="222"/>
-      <c r="H19" s="222"/>
-      <c r="I19" s="223"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="240"/>
+      <c r="E19" s="240"/>
+      <c r="F19" s="240"/>
+      <c r="G19" s="240"/>
+      <c r="H19" s="240"/>
+      <c r="I19" s="241"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="214" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="204"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="204"/>
-      <c r="I20" s="199"/>
+      <c r="C20" s="218"/>
+      <c r="D20" s="218"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="215"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="200"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="205"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="205"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="201"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="220"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="220"/>
+      <c r="H21" s="220"/>
+      <c r="I21" s="221"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="200"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="205"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="201"/>
+      <c r="B22" s="219"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="220"/>
+      <c r="E22" s="220"/>
+      <c r="F22" s="220"/>
+      <c r="G22" s="220"/>
+      <c r="H22" s="220"/>
+      <c r="I22" s="221"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="200"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="205"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="205"/>
-      <c r="H23" s="205"/>
-      <c r="I23" s="201"/>
+      <c r="B23" s="219"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="220"/>
+      <c r="E23" s="220"/>
+      <c r="F23" s="220"/>
+      <c r="G23" s="220"/>
+      <c r="H23" s="220"/>
+      <c r="I23" s="221"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="200"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="205"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="201"/>
+      <c r="B24" s="219"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="220"/>
+      <c r="E24" s="220"/>
+      <c r="F24" s="220"/>
+      <c r="G24" s="220"/>
+      <c r="H24" s="220"/>
+      <c r="I24" s="221"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="200"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="205"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="201"/>
+      <c r="B25" s="219"/>
+      <c r="C25" s="220"/>
+      <c r="D25" s="220"/>
+      <c r="E25" s="220"/>
+      <c r="F25" s="220"/>
+      <c r="G25" s="220"/>
+      <c r="H25" s="220"/>
+      <c r="I25" s="221"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="200"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="205"/>
-      <c r="E26" s="205"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="201"/>
+      <c r="B26" s="219"/>
+      <c r="C26" s="220"/>
+      <c r="D26" s="220"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="220"/>
+      <c r="G26" s="220"/>
+      <c r="H26" s="220"/>
+      <c r="I26" s="221"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="202"/>
-      <c r="C27" s="206"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="206"/>
-      <c r="G27" s="206"/>
-      <c r="H27" s="206"/>
-      <c r="I27" s="203"/>
+      <c r="B27" s="216"/>
+      <c r="C27" s="222"/>
+      <c r="D27" s="222"/>
+      <c r="E27" s="222"/>
+      <c r="F27" s="222"/>
+      <c r="G27" s="222"/>
+      <c r="H27" s="222"/>
+      <c r="I27" s="217"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="138"/>
@@ -19617,170 +19748,170 @@
       <c r="C29" s="138"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B30" s="221" t="s">
+      <c r="B30" s="239" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="222"/>
-      <c r="D30" s="222"/>
-      <c r="E30" s="222"/>
-      <c r="F30" s="222"/>
-      <c r="G30" s="222"/>
-      <c r="H30" s="222"/>
-      <c r="I30" s="223"/>
+      <c r="C30" s="240"/>
+      <c r="D30" s="240"/>
+      <c r="E30" s="240"/>
+      <c r="F30" s="240"/>
+      <c r="G30" s="240"/>
+      <c r="H30" s="240"/>
+      <c r="I30" s="241"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="213" t="s">
+      <c r="B31" s="225" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="228"/>
-      <c r="D31" s="228"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="213" t="s">
+      <c r="C31" s="238"/>
+      <c r="D31" s="238"/>
+      <c r="E31" s="226"/>
+      <c r="F31" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="228"/>
-      <c r="H31" s="228"/>
-      <c r="I31" s="214"/>
+      <c r="G31" s="238"/>
+      <c r="H31" s="238"/>
+      <c r="I31" s="226"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="198" t="s">
+      <c r="B32" s="214" t="s">
         <v>183</v>
       </c>
-      <c r="C32" s="204"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="199"/>
-      <c r="F32" s="198" t="s">
-        <v>241</v>
-      </c>
-      <c r="G32" s="204"/>
-      <c r="H32" s="204"/>
-      <c r="I32" s="199"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="214" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="215"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="200"/>
-      <c r="C33" s="205"/>
-      <c r="D33" s="205"/>
-      <c r="E33" s="201"/>
-      <c r="F33" s="200"/>
-      <c r="G33" s="205"/>
-      <c r="H33" s="205"/>
-      <c r="I33" s="201"/>
+      <c r="B33" s="219"/>
+      <c r="C33" s="220"/>
+      <c r="D33" s="220"/>
+      <c r="E33" s="221"/>
+      <c r="F33" s="219"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="221"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="200"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="205"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="200"/>
-      <c r="G34" s="205"/>
-      <c r="H34" s="205"/>
-      <c r="I34" s="201"/>
+      <c r="B34" s="219"/>
+      <c r="C34" s="220"/>
+      <c r="D34" s="220"/>
+      <c r="E34" s="221"/>
+      <c r="F34" s="219"/>
+      <c r="G34" s="220"/>
+      <c r="H34" s="220"/>
+      <c r="I34" s="221"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="202"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="206"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="202"/>
-      <c r="G35" s="206"/>
-      <c r="H35" s="206"/>
-      <c r="I35" s="203"/>
+      <c r="B35" s="216"/>
+      <c r="C35" s="222"/>
+      <c r="D35" s="222"/>
+      <c r="E35" s="217"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="222"/>
+      <c r="H35" s="222"/>
+      <c r="I35" s="217"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="213" t="s">
+      <c r="B36" s="225" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="228"/>
-      <c r="D36" s="228"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="213" t="s">
+      <c r="C36" s="238"/>
+      <c r="D36" s="238"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="225" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="228"/>
-      <c r="H36" s="228"/>
-      <c r="I36" s="214"/>
+      <c r="G36" s="238"/>
+      <c r="H36" s="238"/>
+      <c r="I36" s="226"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="198" t="s">
-        <v>242</v>
-      </c>
-      <c r="C37" s="204"/>
-      <c r="D37" s="204"/>
-      <c r="E37" s="199"/>
-      <c r="F37" s="198" t="s">
-        <v>240</v>
-      </c>
-      <c r="G37" s="204"/>
-      <c r="H37" s="204"/>
-      <c r="I37" s="199"/>
+      <c r="B37" s="214" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" s="218"/>
+      <c r="D37" s="218"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="214" t="s">
+        <v>237</v>
+      </c>
+      <c r="G37" s="218"/>
+      <c r="H37" s="218"/>
+      <c r="I37" s="215"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="200"/>
-      <c r="C38" s="205"/>
-      <c r="D38" s="205"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="200"/>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="201"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="220"/>
+      <c r="D38" s="220"/>
+      <c r="E38" s="221"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="220"/>
+      <c r="H38" s="220"/>
+      <c r="I38" s="221"/>
     </row>
     <row r="39" spans="2:9" ht="100.9" customHeight="1">
-      <c r="B39" s="202"/>
-      <c r="C39" s="206"/>
-      <c r="D39" s="206"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="206"/>
-      <c r="H39" s="206"/>
-      <c r="I39" s="203"/>
+      <c r="B39" s="216"/>
+      <c r="C39" s="222"/>
+      <c r="D39" s="222"/>
+      <c r="E39" s="217"/>
+      <c r="F39" s="216"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="222"/>
+      <c r="I39" s="217"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="213" t="s">
+      <c r="B40" s="225" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="228"/>
-      <c r="D40" s="228"/>
-      <c r="E40" s="214"/>
-      <c r="F40" s="213" t="s">
+      <c r="C40" s="238"/>
+      <c r="D40" s="238"/>
+      <c r="E40" s="226"/>
+      <c r="F40" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="228"/>
-      <c r="H40" s="228"/>
-      <c r="I40" s="214"/>
+      <c r="G40" s="238"/>
+      <c r="H40" s="238"/>
+      <c r="I40" s="226"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="198" t="s">
+      <c r="B41" s="214" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="204"/>
-      <c r="D41" s="204"/>
-      <c r="E41" s="199"/>
-      <c r="F41" s="198" t="s">
-        <v>245</v>
-      </c>
-      <c r="G41" s="204"/>
-      <c r="H41" s="204"/>
-      <c r="I41" s="199"/>
+      <c r="C41" s="218"/>
+      <c r="D41" s="218"/>
+      <c r="E41" s="215"/>
+      <c r="F41" s="214" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="218"/>
+      <c r="H41" s="218"/>
+      <c r="I41" s="215"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="200"/>
-      <c r="C42" s="205"/>
-      <c r="D42" s="205"/>
-      <c r="E42" s="201"/>
-      <c r="F42" s="200"/>
-      <c r="G42" s="205"/>
-      <c r="H42" s="205"/>
-      <c r="I42" s="201"/>
+      <c r="B42" s="219"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="220"/>
+      <c r="E42" s="221"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="220"/>
+      <c r="H42" s="220"/>
+      <c r="I42" s="221"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="202"/>
-      <c r="C43" s="206"/>
-      <c r="D43" s="206"/>
-      <c r="E43" s="203"/>
-      <c r="F43" s="202"/>
-      <c r="G43" s="206"/>
-      <c r="H43" s="206"/>
-      <c r="I43" s="203"/>
+      <c r="B43" s="216"/>
+      <c r="C43" s="222"/>
+      <c r="D43" s="222"/>
+      <c r="E43" s="217"/>
+      <c r="F43" s="216"/>
+      <c r="G43" s="222"/>
+      <c r="H43" s="222"/>
+      <c r="I43" s="217"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="131"/>
@@ -19791,208 +19922,212 @@
       <c r="C45" s="131"/>
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B46" s="221" t="s">
+      <c r="B46" s="239" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="222"/>
-      <c r="D46" s="222"/>
-      <c r="E46" s="222"/>
-      <c r="F46" s="222"/>
-      <c r="G46" s="222"/>
-      <c r="H46" s="222"/>
-      <c r="I46" s="223"/>
+      <c r="C46" s="240"/>
+      <c r="D46" s="240"/>
+      <c r="E46" s="240"/>
+      <c r="F46" s="240"/>
+      <c r="G46" s="240"/>
+      <c r="H46" s="240"/>
+      <c r="I46" s="241"/>
     </row>
     <row r="47" spans="2:9" ht="15" customHeight="1">
-      <c r="B47" s="233" t="s">
+      <c r="B47" s="230" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="234"/>
-      <c r="D47" s="198" t="s">
-        <v>244</v>
-      </c>
-      <c r="E47" s="204"/>
-      <c r="F47" s="204"/>
-      <c r="G47" s="204"/>
-      <c r="H47" s="204"/>
-      <c r="I47" s="199"/>
+      <c r="C47" s="231"/>
+      <c r="D47" s="214" t="s">
+        <v>239</v>
+      </c>
+      <c r="E47" s="218"/>
+      <c r="F47" s="218"/>
+      <c r="G47" s="218"/>
+      <c r="H47" s="218"/>
+      <c r="I47" s="215"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="235"/>
-      <c r="C48" s="236"/>
-      <c r="D48" s="200"/>
-      <c r="E48" s="205"/>
-      <c r="F48" s="205"/>
-      <c r="G48" s="205"/>
-      <c r="H48" s="205"/>
-      <c r="I48" s="201"/>
+      <c r="B48" s="234"/>
+      <c r="C48" s="235"/>
+      <c r="D48" s="219"/>
+      <c r="E48" s="220"/>
+      <c r="F48" s="220"/>
+      <c r="G48" s="220"/>
+      <c r="H48" s="220"/>
+      <c r="I48" s="221"/>
     </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="237"/>
-      <c r="C49" s="238"/>
-      <c r="D49" s="202"/>
-      <c r="E49" s="206"/>
-      <c r="F49" s="206"/>
-      <c r="G49" s="206"/>
-      <c r="H49" s="206"/>
-      <c r="I49" s="203"/>
+    <row r="49" spans="2:17">
+      <c r="B49" s="232"/>
+      <c r="C49" s="233"/>
+      <c r="D49" s="216"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="222"/>
+      <c r="G49" s="222"/>
+      <c r="H49" s="222"/>
+      <c r="I49" s="217"/>
     </row>
-    <row r="50" spans="2:9" ht="15" customHeight="1">
-      <c r="B50" s="233" t="s">
+    <row r="50" spans="2:17" ht="15" customHeight="1">
+      <c r="B50" s="230" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="234"/>
-      <c r="D50" s="198" t="s">
-        <v>243</v>
-      </c>
-      <c r="E50" s="204"/>
-      <c r="F50" s="204"/>
-      <c r="G50" s="204"/>
-      <c r="H50" s="204"/>
-      <c r="I50" s="199"/>
+      <c r="C50" s="231"/>
+      <c r="D50" s="214" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50" s="218"/>
+      <c r="F50" s="218"/>
+      <c r="G50" s="218"/>
+      <c r="H50" s="218"/>
+      <c r="I50" s="215"/>
     </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="235"/>
-      <c r="C51" s="236"/>
-      <c r="D51" s="200"/>
-      <c r="E51" s="205"/>
-      <c r="F51" s="205"/>
-      <c r="G51" s="205"/>
-      <c r="H51" s="205"/>
-      <c r="I51" s="201"/>
+    <row r="51" spans="2:17">
+      <c r="B51" s="234"/>
+      <c r="C51" s="235"/>
+      <c r="D51" s="219"/>
+      <c r="E51" s="220"/>
+      <c r="F51" s="220"/>
+      <c r="G51" s="220"/>
+      <c r="H51" s="220"/>
+      <c r="I51" s="221"/>
     </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="237"/>
-      <c r="C52" s="238"/>
-      <c r="D52" s="202"/>
-      <c r="E52" s="206"/>
-      <c r="F52" s="206"/>
-      <c r="G52" s="206"/>
-      <c r="H52" s="206"/>
-      <c r="I52" s="203"/>
+    <row r="52" spans="2:17">
+      <c r="B52" s="232"/>
+      <c r="C52" s="233"/>
+      <c r="D52" s="216"/>
+      <c r="E52" s="222"/>
+      <c r="F52" s="222"/>
+      <c r="G52" s="222"/>
+      <c r="H52" s="222"/>
+      <c r="I52" s="217"/>
     </row>
-    <row r="53" spans="2:9" ht="15" customHeight="1">
-      <c r="B53" s="239" t="s">
+    <row r="53" spans="2:17" ht="15" customHeight="1">
+      <c r="B53" s="242" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="240"/>
-      <c r="D53" s="231" t="s">
+      <c r="C53" s="243"/>
+      <c r="D53" s="236" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="231" t="s">
+      <c r="E53" s="236" t="s">
+        <v>292</v>
+      </c>
+      <c r="F53" s="236" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" s="236" t="s">
+        <v>290</v>
+      </c>
+      <c r="H53" s="236" t="s">
+        <v>97</v>
+      </c>
+      <c r="I53" s="236" t="s">
         <v>185</v>
       </c>
-      <c r="F53" s="231" t="s">
-        <v>96</v>
-      </c>
-      <c r="G53" s="231" t="s">
-        <v>186</v>
-      </c>
-      <c r="H53" s="231" t="s">
-        <v>97</v>
-      </c>
-      <c r="I53" s="231" t="s">
-        <v>187</v>
-      </c>
+      <c r="O53" s="172"/>
+      <c r="Q53" s="172"/>
     </row>
-    <row r="54" spans="2:9" ht="43.15" customHeight="1">
-      <c r="B54" s="241"/>
-      <c r="C54" s="242"/>
-      <c r="D54" s="232"/>
-      <c r="E54" s="232"/>
-      <c r="F54" s="232"/>
-      <c r="G54" s="232"/>
-      <c r="H54" s="232"/>
-      <c r="I54" s="232"/>
+    <row r="54" spans="2:17" ht="43.15" customHeight="1">
+      <c r="B54" s="244"/>
+      <c r="C54" s="245"/>
+      <c r="D54" s="237"/>
+      <c r="E54" s="237"/>
+      <c r="F54" s="237"/>
+      <c r="G54" s="237"/>
+      <c r="H54" s="237"/>
+      <c r="I54" s="237"/>
     </row>
-    <row r="55" spans="2:9" ht="15.75">
+    <row r="55" spans="2:17" ht="15.75">
       <c r="B55" s="139"/>
       <c r="C55" s="139"/>
     </row>
-    <row r="56" spans="2:9" ht="15.75">
+    <row r="56" spans="2:17" ht="15.75">
       <c r="B56" s="139"/>
       <c r="C56" s="139"/>
     </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="221" t="s">
+    <row r="57" spans="2:17">
+      <c r="B57" s="239" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="222"/>
-      <c r="D57" s="222"/>
-      <c r="E57" s="222"/>
-      <c r="F57" s="222"/>
-      <c r="G57" s="222"/>
-      <c r="H57" s="222"/>
-      <c r="I57" s="223"/>
+      <c r="C57" s="240"/>
+      <c r="D57" s="240"/>
+      <c r="E57" s="240"/>
+      <c r="F57" s="240"/>
+      <c r="G57" s="240"/>
+      <c r="H57" s="240"/>
+      <c r="I57" s="241"/>
     </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="198"/>
-      <c r="C58" s="204"/>
-      <c r="D58" s="204"/>
-      <c r="E58" s="204"/>
-      <c r="F58" s="204"/>
-      <c r="G58" s="204"/>
-      <c r="H58" s="204"/>
-      <c r="I58" s="199"/>
+    <row r="58" spans="2:17">
+      <c r="B58" s="214" t="s">
+        <v>302</v>
+      </c>
+      <c r="C58" s="218"/>
+      <c r="D58" s="218"/>
+      <c r="E58" s="218"/>
+      <c r="F58" s="218"/>
+      <c r="G58" s="218"/>
+      <c r="H58" s="218"/>
+      <c r="I58" s="215"/>
     </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="200"/>
-      <c r="C59" s="205"/>
-      <c r="D59" s="205"/>
-      <c r="E59" s="205"/>
-      <c r="F59" s="205"/>
-      <c r="G59" s="205"/>
-      <c r="H59" s="205"/>
-      <c r="I59" s="201"/>
+    <row r="59" spans="2:17">
+      <c r="B59" s="219"/>
+      <c r="C59" s="220"/>
+      <c r="D59" s="220"/>
+      <c r="E59" s="220"/>
+      <c r="F59" s="220"/>
+      <c r="G59" s="220"/>
+      <c r="H59" s="220"/>
+      <c r="I59" s="221"/>
     </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="200"/>
-      <c r="C60" s="205"/>
-      <c r="D60" s="205"/>
-      <c r="E60" s="205"/>
-      <c r="F60" s="205"/>
-      <c r="G60" s="205"/>
-      <c r="H60" s="205"/>
-      <c r="I60" s="201"/>
+    <row r="60" spans="2:17">
+      <c r="B60" s="219"/>
+      <c r="C60" s="220"/>
+      <c r="D60" s="220"/>
+      <c r="E60" s="220"/>
+      <c r="F60" s="220"/>
+      <c r="G60" s="220"/>
+      <c r="H60" s="220"/>
+      <c r="I60" s="221"/>
     </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="200"/>
-      <c r="C61" s="205"/>
-      <c r="D61" s="205"/>
-      <c r="E61" s="205"/>
-      <c r="F61" s="205"/>
-      <c r="G61" s="205"/>
-      <c r="H61" s="205"/>
-      <c r="I61" s="201"/>
+    <row r="61" spans="2:17">
+      <c r="B61" s="219"/>
+      <c r="C61" s="220"/>
+      <c r="D61" s="220"/>
+      <c r="E61" s="220"/>
+      <c r="F61" s="220"/>
+      <c r="G61" s="220"/>
+      <c r="H61" s="220"/>
+      <c r="I61" s="221"/>
     </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="200"/>
-      <c r="C62" s="205"/>
-      <c r="D62" s="205"/>
-      <c r="E62" s="205"/>
-      <c r="F62" s="205"/>
-      <c r="G62" s="205"/>
-      <c r="H62" s="205"/>
-      <c r="I62" s="201"/>
+    <row r="62" spans="2:17">
+      <c r="B62" s="219"/>
+      <c r="C62" s="220"/>
+      <c r="D62" s="220"/>
+      <c r="E62" s="220"/>
+      <c r="F62" s="220"/>
+      <c r="G62" s="220"/>
+      <c r="H62" s="220"/>
+      <c r="I62" s="221"/>
     </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="200"/>
-      <c r="C63" s="205"/>
-      <c r="D63" s="205"/>
-      <c r="E63" s="205"/>
-      <c r="F63" s="205"/>
-      <c r="G63" s="205"/>
-      <c r="H63" s="205"/>
-      <c r="I63" s="201"/>
+    <row r="63" spans="2:17">
+      <c r="B63" s="219"/>
+      <c r="C63" s="220"/>
+      <c r="D63" s="220"/>
+      <c r="E63" s="220"/>
+      <c r="F63" s="220"/>
+      <c r="G63" s="220"/>
+      <c r="H63" s="220"/>
+      <c r="I63" s="221"/>
     </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="202"/>
-      <c r="C64" s="206"/>
-      <c r="D64" s="206"/>
-      <c r="E64" s="206"/>
-      <c r="F64" s="206"/>
-      <c r="G64" s="206"/>
-      <c r="H64" s="206"/>
-      <c r="I64" s="203"/>
+    <row r="64" spans="2:17">
+      <c r="B64" s="216"/>
+      <c r="C64" s="222"/>
+      <c r="D64" s="222"/>
+      <c r="E64" s="222"/>
+      <c r="F64" s="222"/>
+      <c r="G64" s="222"/>
+      <c r="H64" s="222"/>
+      <c r="I64" s="217"/>
     </row>
     <row r="65" spans="2:18">
       <c r="B65" s="131"/>
@@ -20003,134 +20138,136 @@
       <c r="C66" s="131"/>
     </row>
     <row r="67" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B67" s="221" t="s">
+      <c r="B67" s="239" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="222"/>
-      <c r="D67" s="222"/>
-      <c r="E67" s="222"/>
-      <c r="F67" s="222"/>
-      <c r="G67" s="222"/>
-      <c r="H67" s="222"/>
-      <c r="I67" s="223"/>
+      <c r="C67" s="240"/>
+      <c r="D67" s="240"/>
+      <c r="E67" s="240"/>
+      <c r="F67" s="240"/>
+      <c r="G67" s="240"/>
+      <c r="H67" s="240"/>
+      <c r="I67" s="241"/>
     </row>
     <row r="68" spans="2:18">
-      <c r="B68" s="213" t="s">
+      <c r="B68" s="225" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="228"/>
-      <c r="D68" s="228"/>
-      <c r="E68" s="214"/>
-      <c r="F68" s="213" t="s">
+      <c r="C68" s="238"/>
+      <c r="D68" s="238"/>
+      <c r="E68" s="226"/>
+      <c r="F68" s="225" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="228"/>
-      <c r="H68" s="228"/>
-      <c r="I68" s="214"/>
+      <c r="G68" s="238"/>
+      <c r="H68" s="238"/>
+      <c r="I68" s="226"/>
     </row>
     <row r="69" spans="2:18">
-      <c r="B69" s="198" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" s="204"/>
-      <c r="D69" s="204"/>
-      <c r="E69" s="199"/>
-      <c r="F69" s="198"/>
-      <c r="G69" s="204"/>
-      <c r="H69" s="204"/>
-      <c r="I69" s="199"/>
+      <c r="B69" s="214" t="s">
+        <v>303</v>
+      </c>
+      <c r="C69" s="218"/>
+      <c r="D69" s="218"/>
+      <c r="E69" s="215"/>
+      <c r="F69" s="214" t="s">
+        <v>304</v>
+      </c>
+      <c r="G69" s="218"/>
+      <c r="H69" s="218"/>
+      <c r="I69" s="215"/>
     </row>
     <row r="70" spans="2:18">
-      <c r="B70" s="200"/>
-      <c r="C70" s="205"/>
-      <c r="D70" s="205"/>
-      <c r="E70" s="201"/>
-      <c r="F70" s="200"/>
-      <c r="G70" s="205"/>
-      <c r="H70" s="205"/>
-      <c r="I70" s="201"/>
+      <c r="B70" s="219"/>
+      <c r="C70" s="220"/>
+      <c r="D70" s="220"/>
+      <c r="E70" s="221"/>
+      <c r="F70" s="219"/>
+      <c r="G70" s="220"/>
+      <c r="H70" s="220"/>
+      <c r="I70" s="221"/>
     </row>
     <row r="71" spans="2:18">
-      <c r="B71" s="200"/>
-      <c r="C71" s="205"/>
-      <c r="D71" s="205"/>
-      <c r="E71" s="201"/>
-      <c r="F71" s="200"/>
-      <c r="G71" s="205"/>
-      <c r="H71" s="205"/>
-      <c r="I71" s="201"/>
+      <c r="B71" s="219"/>
+      <c r="C71" s="220"/>
+      <c r="D71" s="220"/>
+      <c r="E71" s="221"/>
+      <c r="F71" s="219"/>
+      <c r="G71" s="220"/>
+      <c r="H71" s="220"/>
+      <c r="I71" s="221"/>
     </row>
     <row r="72" spans="2:18">
-      <c r="B72" s="200"/>
-      <c r="C72" s="205"/>
-      <c r="D72" s="205"/>
-      <c r="E72" s="201"/>
-      <c r="F72" s="200"/>
-      <c r="G72" s="205"/>
-      <c r="H72" s="205"/>
-      <c r="I72" s="201"/>
+      <c r="B72" s="219"/>
+      <c r="C72" s="220"/>
+      <c r="D72" s="220"/>
+      <c r="E72" s="221"/>
+      <c r="F72" s="219"/>
+      <c r="G72" s="220"/>
+      <c r="H72" s="220"/>
+      <c r="I72" s="221"/>
     </row>
     <row r="73" spans="2:18">
-      <c r="B73" s="202"/>
-      <c r="C73" s="206"/>
-      <c r="D73" s="206"/>
-      <c r="E73" s="203"/>
-      <c r="F73" s="202"/>
-      <c r="G73" s="206"/>
-      <c r="H73" s="206"/>
-      <c r="I73" s="203"/>
+      <c r="B73" s="216"/>
+      <c r="C73" s="222"/>
+      <c r="D73" s="222"/>
+      <c r="E73" s="217"/>
+      <c r="F73" s="216"/>
+      <c r="G73" s="222"/>
+      <c r="H73" s="222"/>
+      <c r="I73" s="217"/>
     </row>
     <row r="74" spans="2:18">
       <c r="B74" s="131"/>
       <c r="C74" s="131"/>
     </row>
     <row r="75" spans="2:18" ht="15" customHeight="1">
-      <c r="B75" s="221" t="s">
+      <c r="B75" s="239" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="222"/>
-      <c r="D75" s="222"/>
-      <c r="E75" s="222"/>
-      <c r="F75" s="222"/>
-      <c r="G75" s="222"/>
-      <c r="H75" s="222"/>
-      <c r="I75" s="223"/>
+      <c r="C75" s="240"/>
+      <c r="D75" s="240"/>
+      <c r="E75" s="240"/>
+      <c r="F75" s="240"/>
+      <c r="G75" s="240"/>
+      <c r="H75" s="240"/>
+      <c r="I75" s="241"/>
     </row>
     <row r="76" spans="2:18" ht="29.25" customHeight="1">
-      <c r="B76" s="213" t="s">
+      <c r="B76" s="225" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="214"/>
-      <c r="D76" s="213" t="s">
+      <c r="C76" s="226"/>
+      <c r="D76" s="225" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="214"/>
-      <c r="F76" s="213" t="s">
+      <c r="E76" s="226"/>
+      <c r="F76" s="225" t="s">
         <v>69</v>
       </c>
-      <c r="G76" s="214"/>
-      <c r="H76" s="213" t="s">
+      <c r="G76" s="226"/>
+      <c r="H76" s="225" t="s">
         <v>70</v>
       </c>
-      <c r="I76" s="214"/>
+      <c r="I76" s="226"/>
     </row>
     <row r="77" spans="2:18" ht="15" customHeight="1">
-      <c r="B77" s="215" t="s">
-        <v>248</v>
-      </c>
-      <c r="C77" s="216"/>
-      <c r="D77" s="198" t="s">
-        <v>254</v>
-      </c>
-      <c r="E77" s="199"/>
-      <c r="F77" s="198" t="s">
-        <v>251</v>
-      </c>
-      <c r="G77" s="199"/>
-      <c r="H77" s="198" t="s">
-        <v>250</v>
-      </c>
-      <c r="I77" s="199"/>
+      <c r="B77" s="256" t="s">
+        <v>243</v>
+      </c>
+      <c r="C77" s="257"/>
+      <c r="D77" s="214" t="s">
+        <v>246</v>
+      </c>
+      <c r="E77" s="215"/>
+      <c r="F77" s="214" t="s">
+        <v>298</v>
+      </c>
+      <c r="G77" s="215"/>
+      <c r="H77" s="214" t="s">
+        <v>297</v>
+      </c>
+      <c r="I77" s="215"/>
       <c r="K77" s="169"/>
       <c r="L77" s="169"/>
       <c r="M77" s="169"/>
@@ -20141,14 +20278,14 @@
       <c r="R77" s="169"/>
     </row>
     <row r="78" spans="2:18">
-      <c r="B78" s="217"/>
-      <c r="C78" s="218"/>
-      <c r="D78" s="200"/>
-      <c r="E78" s="201"/>
-      <c r="F78" s="200"/>
-      <c r="G78" s="201"/>
-      <c r="H78" s="200"/>
-      <c r="I78" s="201"/>
+      <c r="B78" s="258"/>
+      <c r="C78" s="259"/>
+      <c r="D78" s="219"/>
+      <c r="E78" s="221"/>
+      <c r="F78" s="219"/>
+      <c r="G78" s="221"/>
+      <c r="H78" s="219"/>
+      <c r="I78" s="221"/>
       <c r="K78" s="169"/>
       <c r="L78" s="169"/>
       <c r="M78" s="169"/>
@@ -20159,14 +20296,14 @@
       <c r="R78" s="169"/>
     </row>
     <row r="79" spans="2:18">
-      <c r="B79" s="217"/>
-      <c r="C79" s="218"/>
-      <c r="D79" s="200"/>
-      <c r="E79" s="201"/>
-      <c r="F79" s="200"/>
-      <c r="G79" s="201"/>
-      <c r="H79" s="200"/>
-      <c r="I79" s="201"/>
+      <c r="B79" s="258"/>
+      <c r="C79" s="259"/>
+      <c r="D79" s="219"/>
+      <c r="E79" s="221"/>
+      <c r="F79" s="219"/>
+      <c r="G79" s="221"/>
+      <c r="H79" s="219"/>
+      <c r="I79" s="221"/>
       <c r="K79" s="169"/>
       <c r="L79" s="169"/>
       <c r="M79" s="169"/>
@@ -20177,14 +20314,14 @@
       <c r="R79" s="169"/>
     </row>
     <row r="80" spans="2:18" ht="15" customHeight="1">
-      <c r="B80" s="217"/>
-      <c r="C80" s="218"/>
-      <c r="D80" s="200"/>
-      <c r="E80" s="201"/>
-      <c r="F80" s="200"/>
-      <c r="G80" s="201"/>
-      <c r="H80" s="200"/>
-      <c r="I80" s="201"/>
+      <c r="B80" s="258"/>
+      <c r="C80" s="259"/>
+      <c r="D80" s="219"/>
+      <c r="E80" s="221"/>
+      <c r="F80" s="219"/>
+      <c r="G80" s="221"/>
+      <c r="H80" s="219"/>
+      <c r="I80" s="221"/>
       <c r="K80" s="140"/>
       <c r="L80" s="140"/>
       <c r="M80" s="169"/>
@@ -20195,14 +20332,14 @@
       <c r="R80" s="169"/>
     </row>
     <row r="81" spans="2:18">
-      <c r="B81" s="217"/>
-      <c r="C81" s="218"/>
-      <c r="D81" s="200"/>
-      <c r="E81" s="201"/>
-      <c r="F81" s="200"/>
-      <c r="G81" s="201"/>
-      <c r="H81" s="200"/>
-      <c r="I81" s="201"/>
+      <c r="B81" s="258"/>
+      <c r="C81" s="259"/>
+      <c r="D81" s="219"/>
+      <c r="E81" s="221"/>
+      <c r="F81" s="219"/>
+      <c r="G81" s="221"/>
+      <c r="H81" s="219"/>
+      <c r="I81" s="221"/>
       <c r="K81" s="140"/>
       <c r="L81" s="140"/>
       <c r="M81" s="169"/>
@@ -20213,14 +20350,14 @@
       <c r="R81" s="169"/>
     </row>
     <row r="82" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B82" s="217"/>
-      <c r="C82" s="218"/>
-      <c r="D82" s="200"/>
-      <c r="E82" s="201"/>
-      <c r="F82" s="200"/>
-      <c r="G82" s="201"/>
-      <c r="H82" s="200"/>
-      <c r="I82" s="201"/>
+      <c r="B82" s="258"/>
+      <c r="C82" s="259"/>
+      <c r="D82" s="219"/>
+      <c r="E82" s="221"/>
+      <c r="F82" s="219"/>
+      <c r="G82" s="221"/>
+      <c r="H82" s="219"/>
+      <c r="I82" s="221"/>
       <c r="K82" s="140"/>
       <c r="L82" s="140"/>
       <c r="M82" s="169"/>
@@ -20231,14 +20368,14 @@
       <c r="R82" s="169"/>
     </row>
     <row r="83" spans="2:18" ht="15" customHeight="1">
-      <c r="B83" s="217"/>
-      <c r="C83" s="218"/>
-      <c r="D83" s="200"/>
-      <c r="E83" s="201"/>
-      <c r="F83" s="200"/>
-      <c r="G83" s="201"/>
-      <c r="H83" s="200"/>
-      <c r="I83" s="201"/>
+      <c r="B83" s="258"/>
+      <c r="C83" s="259"/>
+      <c r="D83" s="219"/>
+      <c r="E83" s="221"/>
+      <c r="F83" s="219"/>
+      <c r="G83" s="221"/>
+      <c r="H83" s="219"/>
+      <c r="I83" s="221"/>
       <c r="K83" s="140"/>
       <c r="L83" s="140"/>
       <c r="M83" s="169"/>
@@ -20249,14 +20386,14 @@
       <c r="R83" s="169"/>
     </row>
     <row r="84" spans="2:18">
-      <c r="B84" s="217"/>
-      <c r="C84" s="218"/>
-      <c r="D84" s="200"/>
-      <c r="E84" s="201"/>
-      <c r="F84" s="200"/>
-      <c r="G84" s="201"/>
-      <c r="H84" s="200"/>
-      <c r="I84" s="201"/>
+      <c r="B84" s="258"/>
+      <c r="C84" s="259"/>
+      <c r="D84" s="219"/>
+      <c r="E84" s="221"/>
+      <c r="F84" s="219"/>
+      <c r="G84" s="221"/>
+      <c r="H84" s="219"/>
+      <c r="I84" s="221"/>
       <c r="K84" s="140"/>
       <c r="L84" s="140"/>
       <c r="M84" s="169"/>
@@ -20267,14 +20404,14 @@
       <c r="R84" s="169"/>
     </row>
     <row r="85" spans="2:18">
-      <c r="B85" s="219"/>
-      <c r="C85" s="220"/>
-      <c r="D85" s="202"/>
-      <c r="E85" s="203"/>
-      <c r="F85" s="202"/>
-      <c r="G85" s="203"/>
-      <c r="H85" s="202"/>
-      <c r="I85" s="203"/>
+      <c r="B85" s="260"/>
+      <c r="C85" s="261"/>
+      <c r="D85" s="216"/>
+      <c r="E85" s="217"/>
+      <c r="F85" s="216"/>
+      <c r="G85" s="217"/>
+      <c r="H85" s="216"/>
+      <c r="I85" s="217"/>
       <c r="K85" s="140"/>
       <c r="L85" s="140"/>
       <c r="M85" s="169"/>
@@ -20285,22 +20422,22 @@
       <c r="R85" s="169"/>
     </row>
     <row r="86" spans="2:18">
-      <c r="B86" s="215" t="s">
-        <v>246</v>
-      </c>
-      <c r="C86" s="216"/>
-      <c r="D86" s="198" t="s">
-        <v>252</v>
-      </c>
-      <c r="E86" s="199"/>
-      <c r="F86" s="198" t="s">
-        <v>251</v>
-      </c>
-      <c r="G86" s="199"/>
-      <c r="H86" s="198" t="s">
-        <v>250</v>
-      </c>
-      <c r="I86" s="199"/>
+      <c r="B86" s="256" t="s">
+        <v>241</v>
+      </c>
+      <c r="C86" s="257"/>
+      <c r="D86" s="214" t="s">
+        <v>244</v>
+      </c>
+      <c r="E86" s="215"/>
+      <c r="F86" s="214" t="s">
+        <v>294</v>
+      </c>
+      <c r="G86" s="215"/>
+      <c r="H86" s="214" t="s">
+        <v>295</v>
+      </c>
+      <c r="I86" s="215"/>
       <c r="K86" s="140"/>
       <c r="L86" s="140"/>
       <c r="M86" s="169"/>
@@ -20311,14 +20448,14 @@
       <c r="R86" s="169"/>
     </row>
     <row r="87" spans="2:18">
-      <c r="B87" s="217"/>
-      <c r="C87" s="218"/>
-      <c r="D87" s="200"/>
-      <c r="E87" s="201"/>
-      <c r="F87" s="200"/>
-      <c r="G87" s="201"/>
-      <c r="H87" s="200"/>
-      <c r="I87" s="201"/>
+      <c r="B87" s="258"/>
+      <c r="C87" s="259"/>
+      <c r="D87" s="219"/>
+      <c r="E87" s="221"/>
+      <c r="F87" s="219"/>
+      <c r="G87" s="221"/>
+      <c r="H87" s="219"/>
+      <c r="I87" s="221"/>
       <c r="K87" s="140"/>
       <c r="L87" s="140"/>
       <c r="M87" s="169"/>
@@ -20329,14 +20466,14 @@
       <c r="R87" s="169"/>
     </row>
     <row r="88" spans="2:18">
-      <c r="B88" s="217"/>
-      <c r="C88" s="218"/>
-      <c r="D88" s="200"/>
-      <c r="E88" s="201"/>
-      <c r="F88" s="200"/>
-      <c r="G88" s="201"/>
-      <c r="H88" s="200"/>
-      <c r="I88" s="201"/>
+      <c r="B88" s="258"/>
+      <c r="C88" s="259"/>
+      <c r="D88" s="219"/>
+      <c r="E88" s="221"/>
+      <c r="F88" s="219"/>
+      <c r="G88" s="221"/>
+      <c r="H88" s="219"/>
+      <c r="I88" s="221"/>
       <c r="K88" s="140"/>
       <c r="L88" s="140"/>
       <c r="M88" s="169"/>
@@ -20347,14 +20484,14 @@
       <c r="R88" s="169"/>
     </row>
     <row r="89" spans="2:18" ht="15" customHeight="1">
-      <c r="B89" s="217"/>
-      <c r="C89" s="218"/>
-      <c r="D89" s="200"/>
-      <c r="E89" s="201"/>
-      <c r="F89" s="200"/>
-      <c r="G89" s="201"/>
-      <c r="H89" s="200"/>
-      <c r="I89" s="201"/>
+      <c r="B89" s="258"/>
+      <c r="C89" s="259"/>
+      <c r="D89" s="219"/>
+      <c r="E89" s="221"/>
+      <c r="F89" s="219"/>
+      <c r="G89" s="221"/>
+      <c r="H89" s="219"/>
+      <c r="I89" s="221"/>
       <c r="K89" s="169"/>
       <c r="L89" s="169"/>
       <c r="M89" s="169"/>
@@ -20365,14 +20502,14 @@
       <c r="R89" s="169"/>
     </row>
     <row r="90" spans="2:18">
-      <c r="B90" s="217"/>
-      <c r="C90" s="218"/>
-      <c r="D90" s="200"/>
-      <c r="E90" s="201"/>
-      <c r="F90" s="200"/>
-      <c r="G90" s="201"/>
-      <c r="H90" s="200"/>
-      <c r="I90" s="201"/>
+      <c r="B90" s="258"/>
+      <c r="C90" s="259"/>
+      <c r="D90" s="219"/>
+      <c r="E90" s="221"/>
+      <c r="F90" s="219"/>
+      <c r="G90" s="221"/>
+      <c r="H90" s="219"/>
+      <c r="I90" s="221"/>
       <c r="K90" s="169"/>
       <c r="L90" s="169"/>
       <c r="M90" s="169"/>
@@ -20383,14 +20520,14 @@
       <c r="R90" s="169"/>
     </row>
     <row r="91" spans="2:18">
-      <c r="B91" s="217"/>
-      <c r="C91" s="218"/>
-      <c r="D91" s="200"/>
-      <c r="E91" s="201"/>
-      <c r="F91" s="200"/>
-      <c r="G91" s="201"/>
-      <c r="H91" s="200"/>
-      <c r="I91" s="201"/>
+      <c r="B91" s="258"/>
+      <c r="C91" s="259"/>
+      <c r="D91" s="219"/>
+      <c r="E91" s="221"/>
+      <c r="F91" s="219"/>
+      <c r="G91" s="221"/>
+      <c r="H91" s="219"/>
+      <c r="I91" s="221"/>
       <c r="K91" s="169"/>
       <c r="L91" s="169"/>
       <c r="M91" s="169"/>
@@ -20401,140 +20538,140 @@
       <c r="R91" s="169"/>
     </row>
     <row r="92" spans="2:18">
-      <c r="B92" s="217"/>
-      <c r="C92" s="218"/>
-      <c r="D92" s="200"/>
-      <c r="E92" s="201"/>
-      <c r="F92" s="200"/>
-      <c r="G92" s="201"/>
-      <c r="H92" s="200"/>
-      <c r="I92" s="201"/>
+      <c r="B92" s="258"/>
+      <c r="C92" s="259"/>
+      <c r="D92" s="219"/>
+      <c r="E92" s="221"/>
+      <c r="F92" s="219"/>
+      <c r="G92" s="221"/>
+      <c r="H92" s="219"/>
+      <c r="I92" s="221"/>
     </row>
     <row r="93" spans="2:18" ht="15" customHeight="1">
-      <c r="B93" s="217"/>
-      <c r="C93" s="218"/>
-      <c r="D93" s="200"/>
-      <c r="E93" s="201"/>
-      <c r="F93" s="200"/>
-      <c r="G93" s="201"/>
-      <c r="H93" s="200"/>
-      <c r="I93" s="201"/>
+      <c r="B93" s="258"/>
+      <c r="C93" s="259"/>
+      <c r="D93" s="219"/>
+      <c r="E93" s="221"/>
+      <c r="F93" s="219"/>
+      <c r="G93" s="221"/>
+      <c r="H93" s="219"/>
+      <c r="I93" s="221"/>
       <c r="J93" s="168"/>
     </row>
     <row r="94" spans="2:18" ht="15" customHeight="1">
-      <c r="B94" s="219"/>
-      <c r="C94" s="220"/>
-      <c r="D94" s="202"/>
-      <c r="E94" s="203"/>
-      <c r="F94" s="202"/>
-      <c r="G94" s="203"/>
-      <c r="H94" s="202"/>
-      <c r="I94" s="203"/>
+      <c r="B94" s="260"/>
+      <c r="C94" s="261"/>
+      <c r="D94" s="216"/>
+      <c r="E94" s="217"/>
+      <c r="F94" s="216"/>
+      <c r="G94" s="217"/>
+      <c r="H94" s="216"/>
+      <c r="I94" s="217"/>
       <c r="J94" s="168"/>
     </row>
     <row r="95" spans="2:18" ht="15" customHeight="1">
-      <c r="B95" s="215" t="s">
+      <c r="B95" s="256" t="s">
+        <v>242</v>
+      </c>
+      <c r="C95" s="257"/>
+      <c r="D95" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="C95" s="216"/>
-      <c r="D95" s="198" t="s">
-        <v>255</v>
-      </c>
-      <c r="E95" s="199"/>
-      <c r="F95" s="198" t="s">
-        <v>251</v>
-      </c>
-      <c r="G95" s="199"/>
-      <c r="H95" s="198" t="s">
-        <v>250</v>
-      </c>
-      <c r="I95" s="199"/>
+      <c r="E95" s="215"/>
+      <c r="F95" s="214" t="s">
+        <v>293</v>
+      </c>
+      <c r="G95" s="215"/>
+      <c r="H95" s="214" t="s">
+        <v>296</v>
+      </c>
+      <c r="I95" s="215"/>
       <c r="J95" s="168"/>
     </row>
     <row r="96" spans="2:18">
-      <c r="B96" s="217"/>
-      <c r="C96" s="218"/>
-      <c r="D96" s="200"/>
-      <c r="E96" s="201"/>
-      <c r="F96" s="200"/>
-      <c r="G96" s="201"/>
-      <c r="H96" s="200"/>
-      <c r="I96" s="201"/>
+      <c r="B96" s="258"/>
+      <c r="C96" s="259"/>
+      <c r="D96" s="219"/>
+      <c r="E96" s="221"/>
+      <c r="F96" s="219"/>
+      <c r="G96" s="221"/>
+      <c r="H96" s="219"/>
+      <c r="I96" s="221"/>
       <c r="J96" s="168"/>
     </row>
     <row r="97" spans="2:16" ht="15" customHeight="1">
-      <c r="B97" s="217"/>
-      <c r="C97" s="218"/>
-      <c r="D97" s="200"/>
-      <c r="E97" s="201"/>
-      <c r="F97" s="200"/>
-      <c r="G97" s="201"/>
-      <c r="H97" s="200"/>
-      <c r="I97" s="201"/>
+      <c r="B97" s="258"/>
+      <c r="C97" s="259"/>
+      <c r="D97" s="219"/>
+      <c r="E97" s="221"/>
+      <c r="F97" s="219"/>
+      <c r="G97" s="221"/>
+      <c r="H97" s="219"/>
+      <c r="I97" s="221"/>
       <c r="J97" s="168"/>
     </row>
     <row r="98" spans="2:16">
-      <c r="B98" s="217"/>
-      <c r="C98" s="218"/>
-      <c r="D98" s="200"/>
-      <c r="E98" s="201"/>
-      <c r="F98" s="200"/>
-      <c r="G98" s="201"/>
-      <c r="H98" s="200"/>
-      <c r="I98" s="201"/>
+      <c r="B98" s="258"/>
+      <c r="C98" s="259"/>
+      <c r="D98" s="219"/>
+      <c r="E98" s="221"/>
+      <c r="F98" s="219"/>
+      <c r="G98" s="221"/>
+      <c r="H98" s="219"/>
+      <c r="I98" s="221"/>
       <c r="J98" s="168"/>
     </row>
     <row r="99" spans="2:16">
-      <c r="B99" s="217"/>
-      <c r="C99" s="218"/>
-      <c r="D99" s="200"/>
-      <c r="E99" s="201"/>
-      <c r="F99" s="200"/>
-      <c r="G99" s="201"/>
-      <c r="H99" s="200"/>
-      <c r="I99" s="201"/>
+      <c r="B99" s="258"/>
+      <c r="C99" s="259"/>
+      <c r="D99" s="219"/>
+      <c r="E99" s="221"/>
+      <c r="F99" s="219"/>
+      <c r="G99" s="221"/>
+      <c r="H99" s="219"/>
+      <c r="I99" s="221"/>
       <c r="J99" s="168"/>
     </row>
     <row r="100" spans="2:16">
-      <c r="B100" s="217"/>
-      <c r="C100" s="218"/>
-      <c r="D100" s="200"/>
-      <c r="E100" s="201"/>
-      <c r="F100" s="200"/>
-      <c r="G100" s="201"/>
-      <c r="H100" s="200"/>
-      <c r="I100" s="201"/>
+      <c r="B100" s="258"/>
+      <c r="C100" s="259"/>
+      <c r="D100" s="219"/>
+      <c r="E100" s="221"/>
+      <c r="F100" s="219"/>
+      <c r="G100" s="221"/>
+      <c r="H100" s="219"/>
+      <c r="I100" s="221"/>
       <c r="J100" s="168"/>
     </row>
     <row r="101" spans="2:16">
-      <c r="B101" s="217"/>
-      <c r="C101" s="218"/>
-      <c r="D101" s="200"/>
-      <c r="E101" s="201"/>
-      <c r="F101" s="200"/>
-      <c r="G101" s="201"/>
-      <c r="H101" s="200"/>
-      <c r="I101" s="201"/>
+      <c r="B101" s="258"/>
+      <c r="C101" s="259"/>
+      <c r="D101" s="219"/>
+      <c r="E101" s="221"/>
+      <c r="F101" s="219"/>
+      <c r="G101" s="221"/>
+      <c r="H101" s="219"/>
+      <c r="I101" s="221"/>
     </row>
     <row r="102" spans="2:16">
-      <c r="B102" s="217"/>
-      <c r="C102" s="218"/>
-      <c r="D102" s="200"/>
-      <c r="E102" s="201"/>
-      <c r="F102" s="200"/>
-      <c r="G102" s="201"/>
-      <c r="H102" s="200"/>
-      <c r="I102" s="201"/>
+      <c r="B102" s="258"/>
+      <c r="C102" s="259"/>
+      <c r="D102" s="219"/>
+      <c r="E102" s="221"/>
+      <c r="F102" s="219"/>
+      <c r="G102" s="221"/>
+      <c r="H102" s="219"/>
+      <c r="I102" s="221"/>
     </row>
     <row r="103" spans="2:16">
-      <c r="B103" s="219"/>
-      <c r="C103" s="220"/>
-      <c r="D103" s="202"/>
-      <c r="E103" s="203"/>
-      <c r="F103" s="202"/>
-      <c r="G103" s="203"/>
-      <c r="H103" s="202"/>
-      <c r="I103" s="203"/>
+      <c r="B103" s="260"/>
+      <c r="C103" s="261"/>
+      <c r="D103" s="216"/>
+      <c r="E103" s="217"/>
+      <c r="F103" s="216"/>
+      <c r="G103" s="217"/>
+      <c r="H103" s="216"/>
+      <c r="I103" s="217"/>
       <c r="K103" s="140"/>
       <c r="L103" s="140"/>
       <c r="M103" s="137"/>
@@ -20542,334 +20679,335 @@
       <c r="P103" s="140"/>
     </row>
     <row r="106" spans="2:16">
-      <c r="B106" s="221" t="s">
+      <c r="B106" s="239" t="s">
         <v>71</v>
       </c>
-      <c r="C106" s="222"/>
-      <c r="D106" s="222"/>
-      <c r="E106" s="222"/>
-      <c r="F106" s="222"/>
-      <c r="G106" s="222"/>
-      <c r="H106" s="222"/>
-      <c r="I106" s="223"/>
+      <c r="C106" s="240"/>
+      <c r="D106" s="240"/>
+      <c r="E106" s="240"/>
+      <c r="F106" s="240"/>
+      <c r="G106" s="240"/>
+      <c r="H106" s="240"/>
+      <c r="I106" s="241"/>
     </row>
     <row r="107" spans="2:16">
-      <c r="B107" s="213" t="s">
+      <c r="B107" s="225" t="s">
         <v>72</v>
       </c>
-      <c r="C107" s="214"/>
-      <c r="D107" s="213" t="s">
+      <c r="C107" s="226"/>
+      <c r="D107" s="225" t="s">
         <v>73</v>
       </c>
-      <c r="E107" s="228"/>
-      <c r="F107" s="228"/>
-      <c r="G107" s="214"/>
-      <c r="H107" s="213" t="s">
+      <c r="E107" s="238"/>
+      <c r="F107" s="238"/>
+      <c r="G107" s="226"/>
+      <c r="H107" s="225" t="s">
         <v>74</v>
       </c>
-      <c r="I107" s="214"/>
+      <c r="I107" s="226"/>
     </row>
     <row r="108" spans="2:16">
-      <c r="B108" s="198" t="s">
-        <v>227</v>
-      </c>
-      <c r="C108" s="199"/>
-      <c r="D108" s="198" t="s">
-        <v>256</v>
-      </c>
-      <c r="E108" s="204"/>
-      <c r="F108" s="204"/>
-      <c r="G108" s="199"/>
-      <c r="H108" s="207">
+      <c r="B108" s="214" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" s="215"/>
+      <c r="D108" s="214" t="s">
+        <v>248</v>
+      </c>
+      <c r="E108" s="218"/>
+      <c r="F108" s="218"/>
+      <c r="G108" s="215"/>
+      <c r="H108" s="250">
         <v>43595</v>
       </c>
-      <c r="I108" s="208"/>
+      <c r="I108" s="251"/>
+      <c r="N108" s="172"/>
     </row>
     <row r="109" spans="2:16">
-      <c r="B109" s="200"/>
-      <c r="C109" s="201"/>
-      <c r="D109" s="200"/>
-      <c r="E109" s="205"/>
-      <c r="F109" s="205"/>
-      <c r="G109" s="201"/>
-      <c r="H109" s="209"/>
-      <c r="I109" s="210"/>
+      <c r="B109" s="219"/>
+      <c r="C109" s="221"/>
+      <c r="D109" s="219"/>
+      <c r="E109" s="220"/>
+      <c r="F109" s="220"/>
+      <c r="G109" s="221"/>
+      <c r="H109" s="252"/>
+      <c r="I109" s="253"/>
     </row>
     <row r="110" spans="2:16">
-      <c r="B110" s="200"/>
-      <c r="C110" s="201"/>
-      <c r="D110" s="200"/>
-      <c r="E110" s="205"/>
-      <c r="F110" s="205"/>
-      <c r="G110" s="201"/>
-      <c r="H110" s="209"/>
-      <c r="I110" s="210"/>
+      <c r="B110" s="219"/>
+      <c r="C110" s="221"/>
+      <c r="D110" s="219"/>
+      <c r="E110" s="220"/>
+      <c r="F110" s="220"/>
+      <c r="G110" s="221"/>
+      <c r="H110" s="252"/>
+      <c r="I110" s="253"/>
     </row>
     <row r="111" spans="2:16">
-      <c r="B111" s="200"/>
-      <c r="C111" s="201"/>
-      <c r="D111" s="200"/>
-      <c r="E111" s="205"/>
-      <c r="F111" s="205"/>
-      <c r="G111" s="201"/>
-      <c r="H111" s="209"/>
-      <c r="I111" s="210"/>
+      <c r="B111" s="219"/>
+      <c r="C111" s="221"/>
+      <c r="D111" s="219"/>
+      <c r="E111" s="220"/>
+      <c r="F111" s="220"/>
+      <c r="G111" s="221"/>
+      <c r="H111" s="252"/>
+      <c r="I111" s="253"/>
     </row>
     <row r="112" spans="2:16">
-      <c r="B112" s="200"/>
-      <c r="C112" s="201"/>
-      <c r="D112" s="200"/>
-      <c r="E112" s="205"/>
-      <c r="F112" s="205"/>
-      <c r="G112" s="201"/>
-      <c r="H112" s="209"/>
-      <c r="I112" s="210"/>
+      <c r="B112" s="219"/>
+      <c r="C112" s="221"/>
+      <c r="D112" s="219"/>
+      <c r="E112" s="220"/>
+      <c r="F112" s="220"/>
+      <c r="G112" s="221"/>
+      <c r="H112" s="252"/>
+      <c r="I112" s="253"/>
     </row>
     <row r="113" spans="2:9">
-      <c r="B113" s="202"/>
-      <c r="C113" s="203"/>
-      <c r="D113" s="202"/>
-      <c r="E113" s="206"/>
-      <c r="F113" s="206"/>
-      <c r="G113" s="203"/>
-      <c r="H113" s="211"/>
-      <c r="I113" s="212"/>
+      <c r="B113" s="216"/>
+      <c r="C113" s="217"/>
+      <c r="D113" s="216"/>
+      <c r="E113" s="222"/>
+      <c r="F113" s="222"/>
+      <c r="G113" s="217"/>
+      <c r="H113" s="254"/>
+      <c r="I113" s="255"/>
     </row>
     <row r="114" spans="2:9">
-      <c r="B114" s="198" t="s">
-        <v>257</v>
-      </c>
-      <c r="C114" s="199"/>
-      <c r="D114" s="198" t="s">
-        <v>259</v>
-      </c>
-      <c r="E114" s="204"/>
-      <c r="F114" s="204"/>
-      <c r="G114" s="199"/>
-      <c r="H114" s="207">
+      <c r="B114" s="214" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" s="215"/>
+      <c r="D114" s="214" t="s">
+        <v>251</v>
+      </c>
+      <c r="E114" s="218"/>
+      <c r="F114" s="218"/>
+      <c r="G114" s="215"/>
+      <c r="H114" s="250">
         <v>43596</v>
       </c>
-      <c r="I114" s="208"/>
+      <c r="I114" s="251"/>
     </row>
     <row r="115" spans="2:9">
-      <c r="B115" s="200"/>
-      <c r="C115" s="201"/>
-      <c r="D115" s="200"/>
-      <c r="E115" s="205"/>
-      <c r="F115" s="205"/>
-      <c r="G115" s="201"/>
-      <c r="H115" s="209"/>
-      <c r="I115" s="210"/>
+      <c r="B115" s="219"/>
+      <c r="C115" s="221"/>
+      <c r="D115" s="219"/>
+      <c r="E115" s="220"/>
+      <c r="F115" s="220"/>
+      <c r="G115" s="221"/>
+      <c r="H115" s="252"/>
+      <c r="I115" s="253"/>
     </row>
     <row r="116" spans="2:9">
-      <c r="B116" s="200"/>
-      <c r="C116" s="201"/>
-      <c r="D116" s="200"/>
-      <c r="E116" s="205"/>
-      <c r="F116" s="205"/>
-      <c r="G116" s="201"/>
-      <c r="H116" s="209"/>
-      <c r="I116" s="210"/>
+      <c r="B116" s="219"/>
+      <c r="C116" s="221"/>
+      <c r="D116" s="219"/>
+      <c r="E116" s="220"/>
+      <c r="F116" s="220"/>
+      <c r="G116" s="221"/>
+      <c r="H116" s="252"/>
+      <c r="I116" s="253"/>
     </row>
     <row r="117" spans="2:9">
-      <c r="B117" s="200"/>
-      <c r="C117" s="201"/>
-      <c r="D117" s="200"/>
-      <c r="E117" s="205"/>
-      <c r="F117" s="205"/>
-      <c r="G117" s="201"/>
-      <c r="H117" s="209"/>
-      <c r="I117" s="210"/>
+      <c r="B117" s="219"/>
+      <c r="C117" s="221"/>
+      <c r="D117" s="219"/>
+      <c r="E117" s="220"/>
+      <c r="F117" s="220"/>
+      <c r="G117" s="221"/>
+      <c r="H117" s="252"/>
+      <c r="I117" s="253"/>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="200"/>
-      <c r="C118" s="201"/>
-      <c r="D118" s="200"/>
-      <c r="E118" s="205"/>
-      <c r="F118" s="205"/>
-      <c r="G118" s="201"/>
-      <c r="H118" s="209"/>
-      <c r="I118" s="210"/>
+      <c r="B118" s="219"/>
+      <c r="C118" s="221"/>
+      <c r="D118" s="219"/>
+      <c r="E118" s="220"/>
+      <c r="F118" s="220"/>
+      <c r="G118" s="221"/>
+      <c r="H118" s="252"/>
+      <c r="I118" s="253"/>
     </row>
     <row r="119" spans="2:9">
-      <c r="B119" s="202"/>
-      <c r="C119" s="203"/>
-      <c r="D119" s="202"/>
-      <c r="E119" s="206"/>
-      <c r="F119" s="206"/>
-      <c r="G119" s="203"/>
-      <c r="H119" s="211"/>
-      <c r="I119" s="212"/>
+      <c r="B119" s="216"/>
+      <c r="C119" s="217"/>
+      <c r="D119" s="216"/>
+      <c r="E119" s="222"/>
+      <c r="F119" s="222"/>
+      <c r="G119" s="217"/>
+      <c r="H119" s="254"/>
+      <c r="I119" s="255"/>
     </row>
     <row r="120" spans="2:9">
-      <c r="B120" s="198" t="s">
-        <v>194</v>
-      </c>
-      <c r="C120" s="199"/>
-      <c r="D120" s="198" t="s">
-        <v>260</v>
-      </c>
-      <c r="E120" s="204"/>
-      <c r="F120" s="204"/>
-      <c r="G120" s="199"/>
-      <c r="H120" s="207">
+      <c r="B120" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="C120" s="215"/>
+      <c r="D120" s="214" t="s">
+        <v>252</v>
+      </c>
+      <c r="E120" s="218"/>
+      <c r="F120" s="218"/>
+      <c r="G120" s="215"/>
+      <c r="H120" s="250">
         <v>43617</v>
       </c>
-      <c r="I120" s="208"/>
+      <c r="I120" s="251"/>
     </row>
     <row r="121" spans="2:9">
-      <c r="B121" s="200"/>
-      <c r="C121" s="201"/>
-      <c r="D121" s="200"/>
-      <c r="E121" s="205"/>
-      <c r="F121" s="205"/>
-      <c r="G121" s="201"/>
-      <c r="H121" s="209"/>
-      <c r="I121" s="210"/>
+      <c r="B121" s="219"/>
+      <c r="C121" s="221"/>
+      <c r="D121" s="219"/>
+      <c r="E121" s="220"/>
+      <c r="F121" s="220"/>
+      <c r="G121" s="221"/>
+      <c r="H121" s="252"/>
+      <c r="I121" s="253"/>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="200"/>
-      <c r="C122" s="201"/>
-      <c r="D122" s="200"/>
-      <c r="E122" s="205"/>
-      <c r="F122" s="205"/>
-      <c r="G122" s="201"/>
-      <c r="H122" s="209"/>
-      <c r="I122" s="210"/>
+      <c r="B122" s="219"/>
+      <c r="C122" s="221"/>
+      <c r="D122" s="219"/>
+      <c r="E122" s="220"/>
+      <c r="F122" s="220"/>
+      <c r="G122" s="221"/>
+      <c r="H122" s="252"/>
+      <c r="I122" s="253"/>
     </row>
     <row r="123" spans="2:9">
-      <c r="B123" s="200"/>
-      <c r="C123" s="201"/>
-      <c r="D123" s="200"/>
-      <c r="E123" s="205"/>
-      <c r="F123" s="205"/>
-      <c r="G123" s="201"/>
-      <c r="H123" s="209"/>
-      <c r="I123" s="210"/>
+      <c r="B123" s="219"/>
+      <c r="C123" s="221"/>
+      <c r="D123" s="219"/>
+      <c r="E123" s="220"/>
+      <c r="F123" s="220"/>
+      <c r="G123" s="221"/>
+      <c r="H123" s="252"/>
+      <c r="I123" s="253"/>
     </row>
     <row r="124" spans="2:9">
-      <c r="B124" s="200"/>
-      <c r="C124" s="201"/>
-      <c r="D124" s="200"/>
-      <c r="E124" s="205"/>
-      <c r="F124" s="205"/>
-      <c r="G124" s="201"/>
-      <c r="H124" s="209"/>
-      <c r="I124" s="210"/>
+      <c r="B124" s="219"/>
+      <c r="C124" s="221"/>
+      <c r="D124" s="219"/>
+      <c r="E124" s="220"/>
+      <c r="F124" s="220"/>
+      <c r="G124" s="221"/>
+      <c r="H124" s="252"/>
+      <c r="I124" s="253"/>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="202"/>
-      <c r="C125" s="203"/>
-      <c r="D125" s="202"/>
-      <c r="E125" s="206"/>
-      <c r="F125" s="206"/>
-      <c r="G125" s="203"/>
-      <c r="H125" s="211"/>
-      <c r="I125" s="212"/>
+      <c r="B125" s="216"/>
+      <c r="C125" s="217"/>
+      <c r="D125" s="216"/>
+      <c r="E125" s="222"/>
+      <c r="F125" s="222"/>
+      <c r="G125" s="217"/>
+      <c r="H125" s="254"/>
+      <c r="I125" s="255"/>
     </row>
     <row r="126" spans="2:9">
-      <c r="B126" s="198" t="s">
-        <v>258</v>
-      </c>
-      <c r="C126" s="199"/>
-      <c r="D126" s="198" t="s">
-        <v>261</v>
-      </c>
-      <c r="E126" s="204"/>
-      <c r="F126" s="204"/>
-      <c r="G126" s="199"/>
-      <c r="H126" s="207">
+      <c r="B126" s="214" t="s">
+        <v>250</v>
+      </c>
+      <c r="C126" s="215"/>
+      <c r="D126" s="214" t="s">
+        <v>253</v>
+      </c>
+      <c r="E126" s="218"/>
+      <c r="F126" s="218"/>
+      <c r="G126" s="215"/>
+      <c r="H126" s="250">
         <v>43630</v>
       </c>
-      <c r="I126" s="208"/>
+      <c r="I126" s="251"/>
     </row>
     <row r="127" spans="2:9">
-      <c r="B127" s="200"/>
-      <c r="C127" s="201"/>
-      <c r="D127" s="200"/>
-      <c r="E127" s="205"/>
-      <c r="F127" s="205"/>
-      <c r="G127" s="201"/>
-      <c r="H127" s="209"/>
-      <c r="I127" s="210"/>
+      <c r="B127" s="219"/>
+      <c r="C127" s="221"/>
+      <c r="D127" s="219"/>
+      <c r="E127" s="220"/>
+      <c r="F127" s="220"/>
+      <c r="G127" s="221"/>
+      <c r="H127" s="252"/>
+      <c r="I127" s="253"/>
     </row>
     <row r="128" spans="2:9">
-      <c r="B128" s="200"/>
-      <c r="C128" s="201"/>
-      <c r="D128" s="200"/>
-      <c r="E128" s="205"/>
-      <c r="F128" s="205"/>
-      <c r="G128" s="201"/>
-      <c r="H128" s="209"/>
-      <c r="I128" s="210"/>
+      <c r="B128" s="219"/>
+      <c r="C128" s="221"/>
+      <c r="D128" s="219"/>
+      <c r="E128" s="220"/>
+      <c r="F128" s="220"/>
+      <c r="G128" s="221"/>
+      <c r="H128" s="252"/>
+      <c r="I128" s="253"/>
     </row>
     <row r="129" spans="2:9">
-      <c r="B129" s="200"/>
-      <c r="C129" s="201"/>
-      <c r="D129" s="200"/>
-      <c r="E129" s="205"/>
-      <c r="F129" s="205"/>
-      <c r="G129" s="201"/>
-      <c r="H129" s="209"/>
-      <c r="I129" s="210"/>
+      <c r="B129" s="219"/>
+      <c r="C129" s="221"/>
+      <c r="D129" s="219"/>
+      <c r="E129" s="220"/>
+      <c r="F129" s="220"/>
+      <c r="G129" s="221"/>
+      <c r="H129" s="252"/>
+      <c r="I129" s="253"/>
     </row>
     <row r="130" spans="2:9">
-      <c r="B130" s="200"/>
-      <c r="C130" s="201"/>
-      <c r="D130" s="200"/>
-      <c r="E130" s="205"/>
-      <c r="F130" s="205"/>
-      <c r="G130" s="201"/>
-      <c r="H130" s="209"/>
-      <c r="I130" s="210"/>
+      <c r="B130" s="219"/>
+      <c r="C130" s="221"/>
+      <c r="D130" s="219"/>
+      <c r="E130" s="220"/>
+      <c r="F130" s="220"/>
+      <c r="G130" s="221"/>
+      <c r="H130" s="252"/>
+      <c r="I130" s="253"/>
     </row>
     <row r="131" spans="2:9">
-      <c r="B131" s="202"/>
-      <c r="C131" s="203"/>
-      <c r="D131" s="202"/>
-      <c r="E131" s="206"/>
-      <c r="F131" s="206"/>
-      <c r="G131" s="203"/>
-      <c r="H131" s="211"/>
-      <c r="I131" s="212"/>
+      <c r="B131" s="216"/>
+      <c r="C131" s="217"/>
+      <c r="D131" s="216"/>
+      <c r="E131" s="222"/>
+      <c r="F131" s="222"/>
+      <c r="G131" s="217"/>
+      <c r="H131" s="254"/>
+      <c r="I131" s="255"/>
     </row>
     <row r="135" spans="2:9">
-      <c r="B135" s="226" t="s">
+      <c r="B135" s="248" t="s">
         <v>75</v>
       </c>
-      <c r="C135" s="226"/>
-      <c r="D135" s="226"/>
+      <c r="C135" s="248"/>
+      <c r="D135" s="248"/>
       <c r="E135" s="133"/>
-      <c r="G135" s="226" t="s">
+      <c r="G135" s="248" t="s">
         <v>77</v>
       </c>
-      <c r="H135" s="226"/>
-      <c r="I135" s="226"/>
+      <c r="H135" s="248"/>
+      <c r="I135" s="248"/>
     </row>
     <row r="136" spans="2:9">
-      <c r="B136" s="224" t="s">
+      <c r="B136" s="246" t="s">
         <v>76</v>
       </c>
-      <c r="C136" s="224"/>
-      <c r="D136" s="224"/>
+      <c r="C136" s="246"/>
+      <c r="D136" s="246"/>
       <c r="E136" s="133"/>
-      <c r="G136" s="227" t="s">
+      <c r="G136" s="249" t="s">
         <v>78</v>
       </c>
-      <c r="H136" s="227"/>
-      <c r="I136" s="227"/>
+      <c r="H136" s="249"/>
+      <c r="I136" s="249"/>
     </row>
     <row r="137" spans="2:9">
       <c r="B137" s="131"/>
       <c r="C137" s="131"/>
     </row>
     <row r="139" spans="2:9">
-      <c r="B139" s="225" t="s">
+      <c r="B139" s="247" t="s">
         <v>102</v>
       </c>
-      <c r="C139" s="225"/>
-      <c r="D139" s="225"/>
-      <c r="E139" s="225"/>
+      <c r="C139" s="247"/>
+      <c r="D139" s="247"/>
+      <c r="E139" s="247"/>
     </row>
     <row r="141" spans="2:9">
       <c r="B141" s="132"/>
@@ -20888,6 +21026,79 @@
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="F86:G94"/>
+    <mergeCell ref="H86:I94"/>
+    <mergeCell ref="B126:C131"/>
+    <mergeCell ref="D126:G131"/>
+    <mergeCell ref="H126:I131"/>
+    <mergeCell ref="B114:C119"/>
+    <mergeCell ref="D114:G119"/>
+    <mergeCell ref="H114:I119"/>
+    <mergeCell ref="B120:C125"/>
+    <mergeCell ref="D120:G125"/>
+    <mergeCell ref="H120:I125"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="B77:C85"/>
+    <mergeCell ref="B75:I75"/>
+    <mergeCell ref="B106:I106"/>
+    <mergeCell ref="B86:C94"/>
+    <mergeCell ref="B95:C103"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="D95:E103"/>
+    <mergeCell ref="F95:G103"/>
+    <mergeCell ref="H95:I103"/>
+    <mergeCell ref="D77:E85"/>
+    <mergeCell ref="F77:G85"/>
+    <mergeCell ref="H77:I85"/>
+    <mergeCell ref="D86:E94"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="B108:C113"/>
+    <mergeCell ref="D108:G113"/>
+    <mergeCell ref="H108:I113"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B37:E39"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B32:E35"/>
+    <mergeCell ref="F32:I35"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:C49"/>
+    <mergeCell ref="B50:C52"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I27"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B69:E73"/>
+    <mergeCell ref="F69:I73"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I64"/>
+    <mergeCell ref="B41:E43"/>
+    <mergeCell ref="F41:I43"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="D47:I49"/>
+    <mergeCell ref="D50:I52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="I53:I54"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="H10:I11"/>
     <mergeCell ref="D12:I14"/>
@@ -20904,79 +21115,6 @@
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="F10:G11"/>
     <mergeCell ref="D8:I9"/>
-    <mergeCell ref="D47:I49"/>
-    <mergeCell ref="D50:I52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="B41:E43"/>
-    <mergeCell ref="F41:I43"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B69:E73"/>
-    <mergeCell ref="F69:I73"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I64"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:C49"/>
-    <mergeCell ref="B50:C52"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I27"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B37:E39"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B32:E35"/>
-    <mergeCell ref="F32:I35"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="B108:C113"/>
-    <mergeCell ref="D108:G113"/>
-    <mergeCell ref="H108:I113"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="B77:C85"/>
-    <mergeCell ref="B75:I75"/>
-    <mergeCell ref="B106:I106"/>
-    <mergeCell ref="B86:C94"/>
-    <mergeCell ref="B95:C103"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="D95:E103"/>
-    <mergeCell ref="F95:G103"/>
-    <mergeCell ref="H95:I103"/>
-    <mergeCell ref="D77:E85"/>
-    <mergeCell ref="F77:G85"/>
-    <mergeCell ref="H77:I85"/>
-    <mergeCell ref="D86:E94"/>
-    <mergeCell ref="F86:G94"/>
-    <mergeCell ref="H86:I94"/>
-    <mergeCell ref="B126:C131"/>
-    <mergeCell ref="D126:G131"/>
-    <mergeCell ref="H126:I131"/>
-    <mergeCell ref="B114:C119"/>
-    <mergeCell ref="D114:G119"/>
-    <mergeCell ref="H114:I119"/>
-    <mergeCell ref="B120:C125"/>
-    <mergeCell ref="D120:G125"/>
-    <mergeCell ref="H120:I125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21015,8 +21153,8 @@
   </sheetPr>
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -21036,18 +21174,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18.75">
-      <c r="B2" s="249" t="s">
+      <c r="B2" s="262" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="157" t="s">
@@ -21115,22 +21253,22 @@
         <v>1</v>
       </c>
       <c r="C7" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="E7" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="H7" s="40" t="s">
         <v>199</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>202</v>
       </c>
       <c r="I7" s="40"/>
       <c r="J7" s="40">
@@ -21143,22 +21281,22 @@
     <row r="8" spans="2:11">
       <c r="B8" s="41"/>
       <c r="C8" s="41" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D8" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="H8" s="41" t="s">
         <v>204</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>207</v>
       </c>
       <c r="I8" s="41"/>
       <c r="J8" s="41">
@@ -21171,22 +21309,22 @@
     <row r="9" spans="2:11">
       <c r="B9" s="41"/>
       <c r="C9" s="41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I9" s="41"/>
       <c r="J9" s="41">
@@ -21199,22 +21337,22 @@
     <row r="10" spans="2:11">
       <c r="B10" s="41"/>
       <c r="C10" s="41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D10" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>214</v>
-      </c>
       <c r="H10" s="40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I10" s="41"/>
       <c r="J10" s="41">
@@ -21227,50 +21365,50 @@
     <row r="11" spans="2:11">
       <c r="B11" s="41"/>
       <c r="C11" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E11" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="41" t="s">
         <v>215</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>218</v>
       </c>
       <c r="I11" s="41"/>
       <c r="J11" s="41">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K11" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="41"/>
       <c r="C12" s="41" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I12" s="41"/>
       <c r="J12" s="41">
@@ -21283,22 +21421,22 @@
     <row r="13" spans="2:11">
       <c r="B13" s="41"/>
       <c r="C13" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>237</v>
-      </c>
       <c r="H13" s="40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I13" s="41"/>
       <c r="J13" s="41">
@@ -21311,22 +21449,22 @@
     <row r="14" spans="2:11">
       <c r="B14" s="41"/>
       <c r="C14" s="41" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D14" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>226</v>
-      </c>
       <c r="H14" s="41" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I14" s="41"/>
       <c r="J14" s="41">
@@ -21339,22 +21477,22 @@
     <row r="15" spans="2:11">
       <c r="B15" s="41"/>
       <c r="C15" s="41" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="41">
@@ -21367,22 +21505,22 @@
     <row r="16" spans="2:11">
       <c r="B16" s="41"/>
       <c r="C16" s="41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E16" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" s="40" t="s">
         <v>230</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>233</v>
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="41">
@@ -21486,12 +21624,12 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:42" ht="15.75" thickBot="1">
-      <c r="B3" s="259" t="s">
+      <c r="B3" s="263" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
       <c r="G3" s="163"/>
       <c r="H3" s="164"/>
       <c r="I3" s="164"/>
@@ -21527,12 +21665,12 @@
       <c r="AM3" s="164"/>
     </row>
     <row r="4" spans="1:42">
-      <c r="B4" s="259" t="s">
+      <c r="B4" s="263" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
       <c r="F4" s="164"/>
       <c r="G4" s="164"/>
       <c r="H4" s="164"/>
@@ -21555,11 +21693,11 @@
       <c r="Y4" s="164"/>
       <c r="Z4" s="164"/>
       <c r="AA4" s="164"/>
-      <c r="AB4" s="250" t="s">
+      <c r="AB4" s="264" t="s">
         <v>137</v>
       </c>
-      <c r="AC4" s="251"/>
-      <c r="AD4" s="252"/>
+      <c r="AC4" s="265"/>
+      <c r="AD4" s="266"/>
       <c r="AE4" s="163"/>
       <c r="AF4" s="164"/>
       <c r="AG4" s="164"/>
@@ -21598,9 +21736,9 @@
       <c r="Y5" s="164"/>
       <c r="Z5" s="164"/>
       <c r="AA5" s="164"/>
-      <c r="AB5" s="253"/>
-      <c r="AC5" s="254"/>
-      <c r="AD5" s="255"/>
+      <c r="AB5" s="267"/>
+      <c r="AC5" s="268"/>
+      <c r="AD5" s="269"/>
       <c r="AE5" s="163"/>
       <c r="AF5" s="164"/>
       <c r="AG5" s="164"/>
@@ -21639,9 +21777,9 @@
       <c r="Y6" s="164"/>
       <c r="Z6" s="164"/>
       <c r="AA6" s="164"/>
-      <c r="AB6" s="256"/>
-      <c r="AC6" s="257"/>
-      <c r="AD6" s="258"/>
+      <c r="AB6" s="270"/>
+      <c r="AC6" s="271"/>
+      <c r="AD6" s="272"/>
       <c r="AE6" s="164"/>
       <c r="AF6" s="164"/>
       <c r="AG6" s="164"/>
@@ -21705,11 +21843,11 @@
       <c r="I8" s="163"/>
       <c r="J8" s="163"/>
       <c r="K8" s="164"/>
-      <c r="L8" s="250" t="s">
+      <c r="L8" s="264" t="s">
         <v>137</v>
       </c>
-      <c r="M8" s="251"/>
-      <c r="N8" s="252"/>
+      <c r="M8" s="265"/>
+      <c r="N8" s="266"/>
       <c r="O8" s="164"/>
       <c r="P8" s="164"/>
       <c r="Q8" s="164"/>
@@ -21748,9 +21886,9 @@
       <c r="I9" s="164"/>
       <c r="J9" s="164"/>
       <c r="K9" s="164"/>
-      <c r="L9" s="253"/>
-      <c r="M9" s="254"/>
-      <c r="N9" s="255"/>
+      <c r="L9" s="267"/>
+      <c r="M9" s="268"/>
+      <c r="N9" s="269"/>
       <c r="O9" s="164"/>
       <c r="P9" s="164"/>
       <c r="Q9" s="164"/>
@@ -21789,9 +21927,9 @@
       <c r="I10" s="164"/>
       <c r="J10" s="164"/>
       <c r="K10" s="164"/>
-      <c r="L10" s="256"/>
-      <c r="M10" s="257"/>
-      <c r="N10" s="258"/>
+      <c r="L10" s="270"/>
+      <c r="M10" s="271"/>
+      <c r="N10" s="272"/>
       <c r="O10" s="164"/>
       <c r="P10" s="164"/>
       <c r="Q10" s="164"/>
@@ -21822,11 +21960,11 @@
       <c r="A11" s="163"/>
       <c r="B11" s="163"/>
       <c r="C11" s="163"/>
-      <c r="D11" s="250" t="s">
+      <c r="D11" s="264" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="251"/>
-      <c r="F11" s="252"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="266"/>
       <c r="G11" s="163"/>
       <c r="H11" s="164"/>
       <c r="I11" s="164"/>
@@ -21840,17 +21978,17 @@
       <c r="Q11" s="164"/>
       <c r="R11" s="164"/>
       <c r="S11" s="164"/>
-      <c r="T11" s="250" t="s">
+      <c r="T11" s="264" t="s">
         <v>137</v>
       </c>
-      <c r="U11" s="251"/>
-      <c r="V11" s="252"/>
+      <c r="U11" s="265"/>
+      <c r="V11" s="266"/>
       <c r="W11" s="164"/>
-      <c r="X11" s="250" t="s">
+      <c r="X11" s="264" t="s">
         <v>137</v>
       </c>
-      <c r="Y11" s="251"/>
-      <c r="Z11" s="252"/>
+      <c r="Y11" s="265"/>
+      <c r="Z11" s="266"/>
       <c r="AA11" s="164"/>
       <c r="AB11" s="164"/>
       <c r="AC11" s="164"/>
@@ -21869,9 +22007,9 @@
       <c r="A12" s="163"/>
       <c r="B12" s="163"/>
       <c r="C12" s="163"/>
-      <c r="D12" s="253"/>
-      <c r="E12" s="254"/>
-      <c r="F12" s="255"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="268"/>
+      <c r="F12" s="269"/>
       <c r="G12" s="163"/>
       <c r="H12" s="164"/>
       <c r="I12" s="164"/>
@@ -21885,13 +22023,13 @@
       <c r="Q12" s="164"/>
       <c r="R12" s="164"/>
       <c r="S12" s="164"/>
-      <c r="T12" s="253"/>
-      <c r="U12" s="254"/>
-      <c r="V12" s="255"/>
+      <c r="T12" s="267"/>
+      <c r="U12" s="268"/>
+      <c r="V12" s="269"/>
       <c r="W12" s="164"/>
-      <c r="X12" s="253"/>
-      <c r="Y12" s="254"/>
-      <c r="Z12" s="255"/>
+      <c r="X12" s="267"/>
+      <c r="Y12" s="268"/>
+      <c r="Z12" s="269"/>
       <c r="AA12" s="164"/>
       <c r="AB12" s="164"/>
       <c r="AC12" s="164"/>
@@ -21910,9 +22048,9 @@
       <c r="A13" s="163"/>
       <c r="B13" s="163"/>
       <c r="C13" s="163"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="257"/>
-      <c r="F13" s="258"/>
+      <c r="D13" s="270"/>
+      <c r="E13" s="271"/>
+      <c r="F13" s="272"/>
       <c r="G13" s="163"/>
       <c r="H13" s="163"/>
       <c r="I13" s="163"/>
@@ -21926,13 +22064,13 @@
       <c r="Q13" s="164"/>
       <c r="R13" s="164"/>
       <c r="S13" s="164"/>
-      <c r="T13" s="256"/>
-      <c r="U13" s="257"/>
-      <c r="V13" s="258"/>
+      <c r="T13" s="270"/>
+      <c r="U13" s="271"/>
+      <c r="V13" s="272"/>
       <c r="W13" s="164"/>
-      <c r="X13" s="256"/>
-      <c r="Y13" s="257"/>
-      <c r="Z13" s="258"/>
+      <c r="X13" s="270"/>
+      <c r="Y13" s="271"/>
+      <c r="Z13" s="272"/>
       <c r="AA13" s="164"/>
       <c r="AB13" s="164"/>
       <c r="AC13" s="164"/>
@@ -21955,17 +22093,17 @@
       <c r="E14" s="163"/>
       <c r="F14" s="163"/>
       <c r="G14" s="163"/>
-      <c r="H14" s="250" t="s">
+      <c r="H14" s="264" t="s">
         <v>137</v>
       </c>
-      <c r="I14" s="251"/>
-      <c r="J14" s="252"/>
+      <c r="I14" s="265"/>
+      <c r="J14" s="266"/>
       <c r="K14" s="164"/>
-      <c r="L14" s="250" t="s">
+      <c r="L14" s="264" t="s">
         <v>137</v>
       </c>
-      <c r="M14" s="251"/>
-      <c r="N14" s="252"/>
+      <c r="M14" s="265"/>
+      <c r="N14" s="266"/>
       <c r="O14" s="164"/>
       <c r="P14" s="164"/>
       <c r="Q14" s="164"/>
@@ -22000,13 +22138,13 @@
       <c r="E15" s="164"/>
       <c r="F15" s="164"/>
       <c r="G15" s="163"/>
-      <c r="H15" s="253"/>
-      <c r="I15" s="254"/>
-      <c r="J15" s="255"/>
+      <c r="H15" s="267"/>
+      <c r="I15" s="268"/>
+      <c r="J15" s="269"/>
       <c r="K15" s="164"/>
-      <c r="L15" s="253"/>
-      <c r="M15" s="254"/>
-      <c r="N15" s="255"/>
+      <c r="L15" s="267"/>
+      <c r="M15" s="268"/>
+      <c r="N15" s="269"/>
       <c r="O15" s="164"/>
       <c r="P15" s="164"/>
       <c r="Q15" s="164"/>
@@ -22041,13 +22179,13 @@
       <c r="E16" s="164"/>
       <c r="F16" s="164"/>
       <c r="G16" s="163"/>
-      <c r="H16" s="256"/>
-      <c r="I16" s="257"/>
-      <c r="J16" s="258"/>
+      <c r="H16" s="270"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="272"/>
       <c r="K16" s="164"/>
-      <c r="L16" s="256"/>
-      <c r="M16" s="257"/>
-      <c r="N16" s="258"/>
+      <c r="L16" s="270"/>
+      <c r="M16" s="271"/>
+      <c r="N16" s="272"/>
       <c r="O16" s="164"/>
       <c r="P16" s="164"/>
       <c r="Q16" s="164"/>
@@ -22087,11 +22225,11 @@
       <c r="M17" s="164"/>
       <c r="N17" s="164"/>
       <c r="O17" s="164"/>
-      <c r="P17" s="250" t="s">
+      <c r="P17" s="264" t="s">
         <v>137</v>
       </c>
-      <c r="Q17" s="251"/>
-      <c r="R17" s="252"/>
+      <c r="Q17" s="265"/>
+      <c r="R17" s="266"/>
       <c r="S17" s="164"/>
       <c r="T17" s="164"/>
       <c r="U17" s="164"/>
@@ -22127,9 +22265,9 @@
       <c r="M18" s="164"/>
       <c r="N18" s="164"/>
       <c r="O18" s="164"/>
-      <c r="P18" s="253"/>
-      <c r="Q18" s="254"/>
-      <c r="R18" s="255"/>
+      <c r="P18" s="267"/>
+      <c r="Q18" s="268"/>
+      <c r="R18" s="269"/>
       <c r="S18" s="164"/>
       <c r="T18" s="164"/>
       <c r="U18" s="164"/>
@@ -22168,9 +22306,9 @@
       <c r="M19" s="164"/>
       <c r="N19" s="164"/>
       <c r="O19" s="164"/>
-      <c r="P19" s="256"/>
-      <c r="Q19" s="257"/>
-      <c r="R19" s="258"/>
+      <c r="P19" s="270"/>
+      <c r="Q19" s="271"/>
+      <c r="R19" s="272"/>
       <c r="S19" s="164"/>
       <c r="T19" s="164"/>
       <c r="U19" s="164"/>
@@ -22201,17 +22339,17 @@
       <c r="E20" s="163"/>
       <c r="F20" s="163"/>
       <c r="G20" s="163"/>
-      <c r="H20" s="250" t="s">
+      <c r="H20" s="264" t="s">
         <v>137</v>
       </c>
-      <c r="I20" s="251"/>
-      <c r="J20" s="252"/>
+      <c r="I20" s="265"/>
+      <c r="J20" s="266"/>
       <c r="K20" s="164"/>
-      <c r="L20" s="250" t="s">
+      <c r="L20" s="264" t="s">
         <v>137</v>
       </c>
-      <c r="M20" s="251"/>
-      <c r="N20" s="252"/>
+      <c r="M20" s="265"/>
+      <c r="N20" s="266"/>
       <c r="O20" s="164"/>
       <c r="P20" s="164"/>
       <c r="Q20" s="164"/>
@@ -22246,13 +22384,13 @@
       <c r="E21" s="164"/>
       <c r="F21" s="164"/>
       <c r="G21" s="163"/>
-      <c r="H21" s="253"/>
-      <c r="I21" s="254"/>
-      <c r="J21" s="255"/>
+      <c r="H21" s="267"/>
+      <c r="I21" s="268"/>
+      <c r="J21" s="269"/>
       <c r="K21" s="164"/>
-      <c r="L21" s="253"/>
-      <c r="M21" s="254"/>
-      <c r="N21" s="255"/>
+      <c r="L21" s="267"/>
+      <c r="M21" s="268"/>
+      <c r="N21" s="269"/>
       <c r="O21" s="164"/>
       <c r="P21" s="164"/>
       <c r="Q21" s="164"/>
@@ -22287,13 +22425,13 @@
       <c r="E22" s="164"/>
       <c r="F22" s="164"/>
       <c r="G22" s="163"/>
-      <c r="H22" s="256"/>
-      <c r="I22" s="257"/>
-      <c r="J22" s="258"/>
+      <c r="H22" s="270"/>
+      <c r="I22" s="271"/>
+      <c r="J22" s="272"/>
       <c r="K22" s="164"/>
-      <c r="L22" s="256"/>
-      <c r="M22" s="257"/>
-      <c r="N22" s="258"/>
+      <c r="L22" s="270"/>
+      <c r="M22" s="271"/>
+      <c r="N22" s="272"/>
       <c r="O22" s="164"/>
       <c r="P22" s="164"/>
       <c r="Q22" s="164"/>
@@ -22397,18 +22535,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AB4:AD6"/>
+    <mergeCell ref="H14:J16"/>
+    <mergeCell ref="H20:J22"/>
+    <mergeCell ref="L14:N16"/>
+    <mergeCell ref="L20:N22"/>
+    <mergeCell ref="P17:R19"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="L8:N10"/>
     <mergeCell ref="T11:V13"/>
     <mergeCell ref="X11:Z13"/>
     <mergeCell ref="D11:F13"/>
-    <mergeCell ref="AB4:AD6"/>
-    <mergeCell ref="H14:J16"/>
-    <mergeCell ref="H20:J22"/>
-    <mergeCell ref="L14:N16"/>
-    <mergeCell ref="L20:N22"/>
-    <mergeCell ref="P17:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22423,7 +22561,7 @@
   </sheetPr>
   <dimension ref="A1:EP77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -22585,476 +22723,476 @@
     </row>
     <row r="2" spans="1:146" ht="45.75" customHeight="1" thickTop="1">
       <c r="A2" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" s="308"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="309"/>
-      <c r="E2" s="309"/>
-      <c r="F2" s="309"/>
-      <c r="G2" s="309"/>
-      <c r="H2" s="309"/>
-      <c r="I2" s="309"/>
-      <c r="J2" s="309"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="309"/>
-      <c r="M2" s="309"/>
-      <c r="N2" s="309"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="309"/>
-      <c r="Q2" s="309"/>
-      <c r="R2" s="309"/>
-      <c r="S2" s="309"/>
-      <c r="T2" s="309"/>
-      <c r="U2" s="310"/>
-      <c r="V2" s="311" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="346"/>
+      <c r="C2" s="347"/>
+      <c r="D2" s="347"/>
+      <c r="E2" s="347"/>
+      <c r="F2" s="347"/>
+      <c r="G2" s="347"/>
+      <c r="H2" s="347"/>
+      <c r="I2" s="347"/>
+      <c r="J2" s="347"/>
+      <c r="K2" s="347"/>
+      <c r="L2" s="347"/>
+      <c r="M2" s="347"/>
+      <c r="N2" s="347"/>
+      <c r="O2" s="347"/>
+      <c r="P2" s="347"/>
+      <c r="Q2" s="347"/>
+      <c r="R2" s="347"/>
+      <c r="S2" s="347"/>
+      <c r="T2" s="347"/>
+      <c r="U2" s="348"/>
+      <c r="V2" s="349" t="s">
         <v>146</v>
       </c>
-      <c r="W2" s="312"/>
-      <c r="X2" s="312"/>
-      <c r="Y2" s="312"/>
-      <c r="Z2" s="312"/>
-      <c r="AA2" s="312"/>
-      <c r="AB2" s="312"/>
-      <c r="AC2" s="312"/>
-      <c r="AD2" s="312"/>
-      <c r="AE2" s="312"/>
-      <c r="AF2" s="312"/>
-      <c r="AG2" s="312"/>
-      <c r="AH2" s="312"/>
-      <c r="AI2" s="313"/>
-      <c r="AJ2" s="389">
+      <c r="W2" s="350"/>
+      <c r="X2" s="350"/>
+      <c r="Y2" s="350"/>
+      <c r="Z2" s="350"/>
+      <c r="AA2" s="350"/>
+      <c r="AB2" s="350"/>
+      <c r="AC2" s="350"/>
+      <c r="AD2" s="350"/>
+      <c r="AE2" s="350"/>
+      <c r="AF2" s="350"/>
+      <c r="AG2" s="350"/>
+      <c r="AH2" s="350"/>
+      <c r="AI2" s="351"/>
+      <c r="AJ2" s="352">
         <v>43590</v>
       </c>
-      <c r="AK2" s="314"/>
-      <c r="AL2" s="314"/>
-      <c r="AM2" s="314"/>
-      <c r="AN2" s="314"/>
-      <c r="AO2" s="314"/>
-      <c r="AP2" s="314"/>
-      <c r="AQ2" s="314"/>
-      <c r="AR2" s="314"/>
-      <c r="AS2" s="314"/>
-      <c r="AT2" s="315"/>
-      <c r="AU2" s="316"/>
-      <c r="AV2" s="317"/>
-      <c r="AW2" s="317"/>
-      <c r="AX2" s="317"/>
-      <c r="AY2" s="317"/>
-      <c r="AZ2" s="317"/>
-      <c r="BA2" s="317"/>
-      <c r="BB2" s="317"/>
-      <c r="BC2" s="317"/>
-      <c r="BD2" s="317"/>
-      <c r="BE2" s="317"/>
-      <c r="BF2" s="317"/>
-      <c r="BG2" s="318"/>
+      <c r="AK2" s="353"/>
+      <c r="AL2" s="353"/>
+      <c r="AM2" s="353"/>
+      <c r="AN2" s="353"/>
+      <c r="AO2" s="353"/>
+      <c r="AP2" s="353"/>
+      <c r="AQ2" s="353"/>
+      <c r="AR2" s="353"/>
+      <c r="AS2" s="353"/>
+      <c r="AT2" s="354"/>
+      <c r="AU2" s="355"/>
+      <c r="AV2" s="356"/>
+      <c r="AW2" s="356"/>
+      <c r="AX2" s="356"/>
+      <c r="AY2" s="356"/>
+      <c r="AZ2" s="356"/>
+      <c r="BA2" s="356"/>
+      <c r="BB2" s="356"/>
+      <c r="BC2" s="356"/>
+      <c r="BD2" s="356"/>
+      <c r="BE2" s="356"/>
+      <c r="BF2" s="356"/>
+      <c r="BG2" s="357"/>
       <c r="BH2" s="45"/>
       <c r="BI2" s="46"/>
-      <c r="BJ2" s="319" t="s">
+      <c r="BJ2" s="358" t="s">
         <v>149</v>
       </c>
-      <c r="BK2" s="312"/>
-      <c r="BL2" s="312"/>
-      <c r="BM2" s="312"/>
-      <c r="BN2" s="312"/>
-      <c r="BO2" s="312"/>
-      <c r="BP2" s="312"/>
-      <c r="BQ2" s="312"/>
-      <c r="BR2" s="312"/>
-      <c r="BS2" s="312"/>
-      <c r="BT2" s="312"/>
-      <c r="BU2" s="312"/>
-      <c r="BV2" s="312"/>
-      <c r="BW2" s="312"/>
-      <c r="BX2" s="312"/>
-      <c r="BY2" s="312"/>
-      <c r="BZ2" s="312"/>
-      <c r="CA2" s="312"/>
-      <c r="CB2" s="312"/>
-      <c r="CC2" s="312"/>
-      <c r="CD2" s="312"/>
-      <c r="CE2" s="312"/>
-      <c r="CF2" s="312"/>
-      <c r="CG2" s="320"/>
-      <c r="CH2" s="294" t="s">
+      <c r="BK2" s="350"/>
+      <c r="BL2" s="350"/>
+      <c r="BM2" s="350"/>
+      <c r="BN2" s="350"/>
+      <c r="BO2" s="350"/>
+      <c r="BP2" s="350"/>
+      <c r="BQ2" s="350"/>
+      <c r="BR2" s="350"/>
+      <c r="BS2" s="350"/>
+      <c r="BT2" s="350"/>
+      <c r="BU2" s="350"/>
+      <c r="BV2" s="350"/>
+      <c r="BW2" s="350"/>
+      <c r="BX2" s="350"/>
+      <c r="BY2" s="350"/>
+      <c r="BZ2" s="350"/>
+      <c r="CA2" s="350"/>
+      <c r="CB2" s="350"/>
+      <c r="CC2" s="350"/>
+      <c r="CD2" s="350"/>
+      <c r="CE2" s="350"/>
+      <c r="CF2" s="350"/>
+      <c r="CG2" s="359"/>
+      <c r="CH2" s="332" t="s">
         <v>158</v>
       </c>
-      <c r="CI2" s="295"/>
-      <c r="CJ2" s="295"/>
-      <c r="CK2" s="295"/>
-      <c r="CL2" s="295"/>
-      <c r="CM2" s="295"/>
-      <c r="CN2" s="295"/>
-      <c r="CO2" s="295"/>
-      <c r="CP2" s="295"/>
-      <c r="CQ2" s="295"/>
-      <c r="CR2" s="295"/>
-      <c r="CS2" s="295"/>
-      <c r="CT2" s="295"/>
-      <c r="CU2" s="295"/>
-      <c r="CV2" s="295"/>
-      <c r="CW2" s="295"/>
-      <c r="CX2" s="295"/>
-      <c r="CY2" s="295"/>
-      <c r="CZ2" s="295"/>
-      <c r="DA2" s="295"/>
-      <c r="DB2" s="295"/>
-      <c r="DC2" s="295"/>
-      <c r="DD2" s="295"/>
-      <c r="DE2" s="295"/>
-      <c r="DF2" s="296"/>
-      <c r="DG2" s="279"/>
-      <c r="DH2" s="280"/>
-      <c r="DI2" s="280"/>
-      <c r="DJ2" s="280"/>
-      <c r="DK2" s="280"/>
-      <c r="DL2" s="280"/>
-      <c r="DM2" s="280"/>
-      <c r="DN2" s="280"/>
-      <c r="DO2" s="280"/>
-      <c r="DP2" s="280"/>
-      <c r="DQ2" s="280"/>
-      <c r="DR2" s="280"/>
-      <c r="DS2" s="280"/>
-      <c r="DT2" s="280"/>
-      <c r="DU2" s="280"/>
-      <c r="DV2" s="280"/>
-      <c r="DW2" s="280"/>
-      <c r="DX2" s="280"/>
-      <c r="DY2" s="280"/>
-      <c r="DZ2" s="280"/>
-      <c r="EA2" s="280"/>
-      <c r="EB2" s="280"/>
-      <c r="EC2" s="280"/>
-      <c r="ED2" s="280"/>
-      <c r="EE2" s="280"/>
-      <c r="EF2" s="280"/>
-      <c r="EG2" s="280"/>
-      <c r="EH2" s="280"/>
-      <c r="EI2" s="280"/>
-      <c r="EJ2" s="280"/>
-      <c r="EK2" s="280"/>
-      <c r="EL2" s="280"/>
-      <c r="EM2" s="280"/>
-      <c r="EN2" s="280"/>
-      <c r="EO2" s="283"/>
+      <c r="CI2" s="333"/>
+      <c r="CJ2" s="333"/>
+      <c r="CK2" s="333"/>
+      <c r="CL2" s="333"/>
+      <c r="CM2" s="333"/>
+      <c r="CN2" s="333"/>
+      <c r="CO2" s="333"/>
+      <c r="CP2" s="333"/>
+      <c r="CQ2" s="333"/>
+      <c r="CR2" s="333"/>
+      <c r="CS2" s="333"/>
+      <c r="CT2" s="333"/>
+      <c r="CU2" s="333"/>
+      <c r="CV2" s="333"/>
+      <c r="CW2" s="333"/>
+      <c r="CX2" s="333"/>
+      <c r="CY2" s="333"/>
+      <c r="CZ2" s="333"/>
+      <c r="DA2" s="333"/>
+      <c r="DB2" s="333"/>
+      <c r="DC2" s="333"/>
+      <c r="DD2" s="333"/>
+      <c r="DE2" s="333"/>
+      <c r="DF2" s="334"/>
+      <c r="DG2" s="317"/>
+      <c r="DH2" s="318"/>
+      <c r="DI2" s="318"/>
+      <c r="DJ2" s="318"/>
+      <c r="DK2" s="318"/>
+      <c r="DL2" s="318"/>
+      <c r="DM2" s="318"/>
+      <c r="DN2" s="318"/>
+      <c r="DO2" s="318"/>
+      <c r="DP2" s="318"/>
+      <c r="DQ2" s="318"/>
+      <c r="DR2" s="318"/>
+      <c r="DS2" s="318"/>
+      <c r="DT2" s="318"/>
+      <c r="DU2" s="318"/>
+      <c r="DV2" s="318"/>
+      <c r="DW2" s="318"/>
+      <c r="DX2" s="318"/>
+      <c r="DY2" s="318"/>
+      <c r="DZ2" s="318"/>
+      <c r="EA2" s="318"/>
+      <c r="EB2" s="318"/>
+      <c r="EC2" s="318"/>
+      <c r="ED2" s="318"/>
+      <c r="EE2" s="318"/>
+      <c r="EF2" s="318"/>
+      <c r="EG2" s="318"/>
+      <c r="EH2" s="318"/>
+      <c r="EI2" s="318"/>
+      <c r="EJ2" s="318"/>
+      <c r="EK2" s="318"/>
+      <c r="EL2" s="318"/>
+      <c r="EM2" s="318"/>
+      <c r="EN2" s="318"/>
+      <c r="EO2" s="321"/>
       <c r="EP2" s="47"/>
     </row>
     <row r="3" spans="1:146" ht="45.75" customHeight="1" thickBot="1">
       <c r="A3" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" s="285"/>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="286"/>
-      <c r="K3" s="286"/>
-      <c r="L3" s="286"/>
-      <c r="M3" s="286"/>
-      <c r="N3" s="286"/>
-      <c r="O3" s="286"/>
-      <c r="P3" s="286"/>
-      <c r="Q3" s="286"/>
-      <c r="R3" s="286"/>
-      <c r="S3" s="286"/>
-      <c r="T3" s="286"/>
-      <c r="U3" s="287"/>
-      <c r="V3" s="288" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="323"/>
+      <c r="C3" s="324"/>
+      <c r="D3" s="324"/>
+      <c r="E3" s="324"/>
+      <c r="F3" s="324"/>
+      <c r="G3" s="324"/>
+      <c r="H3" s="324"/>
+      <c r="I3" s="324"/>
+      <c r="J3" s="324"/>
+      <c r="K3" s="324"/>
+      <c r="L3" s="324"/>
+      <c r="M3" s="324"/>
+      <c r="N3" s="324"/>
+      <c r="O3" s="324"/>
+      <c r="P3" s="324"/>
+      <c r="Q3" s="324"/>
+      <c r="R3" s="324"/>
+      <c r="S3" s="324"/>
+      <c r="T3" s="324"/>
+      <c r="U3" s="325"/>
+      <c r="V3" s="326" t="s">
         <v>147</v>
       </c>
-      <c r="W3" s="289"/>
-      <c r="X3" s="289"/>
-      <c r="Y3" s="289"/>
-      <c r="Z3" s="289"/>
-      <c r="AA3" s="289"/>
-      <c r="AB3" s="289"/>
-      <c r="AC3" s="289"/>
-      <c r="AD3" s="289"/>
-      <c r="AE3" s="289"/>
-      <c r="AF3" s="289"/>
-      <c r="AG3" s="289"/>
-      <c r="AH3" s="289"/>
-      <c r="AI3" s="290"/>
-      <c r="AJ3" s="291"/>
-      <c r="AK3" s="292"/>
-      <c r="AL3" s="292"/>
-      <c r="AM3" s="292"/>
-      <c r="AN3" s="292"/>
-      <c r="AO3" s="292"/>
-      <c r="AP3" s="292"/>
-      <c r="AQ3" s="292"/>
-      <c r="AR3" s="292"/>
-      <c r="AS3" s="292"/>
-      <c r="AT3" s="293"/>
-      <c r="AU3" s="300"/>
-      <c r="AV3" s="301"/>
-      <c r="AW3" s="302" t="s">
+      <c r="W3" s="327"/>
+      <c r="X3" s="327"/>
+      <c r="Y3" s="327"/>
+      <c r="Z3" s="327"/>
+      <c r="AA3" s="327"/>
+      <c r="AB3" s="327"/>
+      <c r="AC3" s="327"/>
+      <c r="AD3" s="327"/>
+      <c r="AE3" s="327"/>
+      <c r="AF3" s="327"/>
+      <c r="AG3" s="327"/>
+      <c r="AH3" s="327"/>
+      <c r="AI3" s="328"/>
+      <c r="AJ3" s="329"/>
+      <c r="AK3" s="330"/>
+      <c r="AL3" s="330"/>
+      <c r="AM3" s="330"/>
+      <c r="AN3" s="330"/>
+      <c r="AO3" s="330"/>
+      <c r="AP3" s="330"/>
+      <c r="AQ3" s="330"/>
+      <c r="AR3" s="330"/>
+      <c r="AS3" s="330"/>
+      <c r="AT3" s="331"/>
+      <c r="AU3" s="338"/>
+      <c r="AV3" s="339"/>
+      <c r="AW3" s="340" t="s">
         <v>148</v>
       </c>
-      <c r="AX3" s="303"/>
-      <c r="AY3" s="303"/>
-      <c r="AZ3" s="303"/>
-      <c r="BA3" s="303"/>
-      <c r="BB3" s="303"/>
-      <c r="BC3" s="303"/>
-      <c r="BD3" s="303"/>
-      <c r="BE3" s="303"/>
-      <c r="BF3" s="303"/>
-      <c r="BG3" s="304"/>
+      <c r="AX3" s="341"/>
+      <c r="AY3" s="341"/>
+      <c r="AZ3" s="341"/>
+      <c r="BA3" s="341"/>
+      <c r="BB3" s="341"/>
+      <c r="BC3" s="341"/>
+      <c r="BD3" s="341"/>
+      <c r="BE3" s="341"/>
+      <c r="BF3" s="341"/>
+      <c r="BG3" s="342"/>
       <c r="BH3" s="49"/>
       <c r="BI3" s="50"/>
-      <c r="BJ3" s="305" t="s">
+      <c r="BJ3" s="343" t="s">
         <v>150</v>
       </c>
-      <c r="BK3" s="306"/>
-      <c r="BL3" s="306"/>
-      <c r="BM3" s="306"/>
-      <c r="BN3" s="306"/>
-      <c r="BO3" s="306"/>
-      <c r="BP3" s="306"/>
-      <c r="BQ3" s="306"/>
-      <c r="BR3" s="306"/>
-      <c r="BS3" s="306"/>
-      <c r="BT3" s="306"/>
-      <c r="BU3" s="306"/>
-      <c r="BV3" s="306"/>
-      <c r="BW3" s="306"/>
-      <c r="BX3" s="306"/>
-      <c r="BY3" s="306"/>
-      <c r="BZ3" s="306"/>
-      <c r="CA3" s="306"/>
-      <c r="CB3" s="306"/>
-      <c r="CC3" s="306"/>
-      <c r="CD3" s="306"/>
-      <c r="CE3" s="306"/>
-      <c r="CF3" s="306"/>
-      <c r="CG3" s="307"/>
-      <c r="CH3" s="297"/>
-      <c r="CI3" s="298"/>
-      <c r="CJ3" s="298"/>
-      <c r="CK3" s="298"/>
-      <c r="CL3" s="298"/>
-      <c r="CM3" s="298"/>
-      <c r="CN3" s="298"/>
-      <c r="CO3" s="298"/>
-      <c r="CP3" s="298"/>
-      <c r="CQ3" s="298"/>
-      <c r="CR3" s="298"/>
-      <c r="CS3" s="298"/>
-      <c r="CT3" s="298"/>
-      <c r="CU3" s="298"/>
-      <c r="CV3" s="298"/>
-      <c r="CW3" s="298"/>
-      <c r="CX3" s="298"/>
-      <c r="CY3" s="298"/>
-      <c r="CZ3" s="298"/>
-      <c r="DA3" s="298"/>
-      <c r="DB3" s="298"/>
-      <c r="DC3" s="298"/>
-      <c r="DD3" s="298"/>
-      <c r="DE3" s="298"/>
-      <c r="DF3" s="299"/>
-      <c r="DG3" s="281"/>
-      <c r="DH3" s="282"/>
-      <c r="DI3" s="282"/>
-      <c r="DJ3" s="282"/>
-      <c r="DK3" s="282"/>
-      <c r="DL3" s="282"/>
-      <c r="DM3" s="282"/>
-      <c r="DN3" s="282"/>
-      <c r="DO3" s="282"/>
-      <c r="DP3" s="282"/>
-      <c r="DQ3" s="282"/>
-      <c r="DR3" s="282"/>
-      <c r="DS3" s="282"/>
-      <c r="DT3" s="282"/>
-      <c r="DU3" s="282"/>
-      <c r="DV3" s="282"/>
-      <c r="DW3" s="282"/>
-      <c r="DX3" s="282"/>
-      <c r="DY3" s="282"/>
-      <c r="DZ3" s="282"/>
-      <c r="EA3" s="282"/>
-      <c r="EB3" s="282"/>
-      <c r="EC3" s="282"/>
-      <c r="ED3" s="282"/>
-      <c r="EE3" s="282"/>
-      <c r="EF3" s="282"/>
-      <c r="EG3" s="282"/>
-      <c r="EH3" s="282"/>
-      <c r="EI3" s="282"/>
-      <c r="EJ3" s="282"/>
-      <c r="EK3" s="282"/>
-      <c r="EL3" s="282"/>
-      <c r="EM3" s="282"/>
-      <c r="EN3" s="282"/>
-      <c r="EO3" s="284"/>
+      <c r="BK3" s="344"/>
+      <c r="BL3" s="344"/>
+      <c r="BM3" s="344"/>
+      <c r="BN3" s="344"/>
+      <c r="BO3" s="344"/>
+      <c r="BP3" s="344"/>
+      <c r="BQ3" s="344"/>
+      <c r="BR3" s="344"/>
+      <c r="BS3" s="344"/>
+      <c r="BT3" s="344"/>
+      <c r="BU3" s="344"/>
+      <c r="BV3" s="344"/>
+      <c r="BW3" s="344"/>
+      <c r="BX3" s="344"/>
+      <c r="BY3" s="344"/>
+      <c r="BZ3" s="344"/>
+      <c r="CA3" s="344"/>
+      <c r="CB3" s="344"/>
+      <c r="CC3" s="344"/>
+      <c r="CD3" s="344"/>
+      <c r="CE3" s="344"/>
+      <c r="CF3" s="344"/>
+      <c r="CG3" s="345"/>
+      <c r="CH3" s="335"/>
+      <c r="CI3" s="336"/>
+      <c r="CJ3" s="336"/>
+      <c r="CK3" s="336"/>
+      <c r="CL3" s="336"/>
+      <c r="CM3" s="336"/>
+      <c r="CN3" s="336"/>
+      <c r="CO3" s="336"/>
+      <c r="CP3" s="336"/>
+      <c r="CQ3" s="336"/>
+      <c r="CR3" s="336"/>
+      <c r="CS3" s="336"/>
+      <c r="CT3" s="336"/>
+      <c r="CU3" s="336"/>
+      <c r="CV3" s="336"/>
+      <c r="CW3" s="336"/>
+      <c r="CX3" s="336"/>
+      <c r="CY3" s="336"/>
+      <c r="CZ3" s="336"/>
+      <c r="DA3" s="336"/>
+      <c r="DB3" s="336"/>
+      <c r="DC3" s="336"/>
+      <c r="DD3" s="336"/>
+      <c r="DE3" s="336"/>
+      <c r="DF3" s="337"/>
+      <c r="DG3" s="319"/>
+      <c r="DH3" s="320"/>
+      <c r="DI3" s="320"/>
+      <c r="DJ3" s="320"/>
+      <c r="DK3" s="320"/>
+      <c r="DL3" s="320"/>
+      <c r="DM3" s="320"/>
+      <c r="DN3" s="320"/>
+      <c r="DO3" s="320"/>
+      <c r="DP3" s="320"/>
+      <c r="DQ3" s="320"/>
+      <c r="DR3" s="320"/>
+      <c r="DS3" s="320"/>
+      <c r="DT3" s="320"/>
+      <c r="DU3" s="320"/>
+      <c r="DV3" s="320"/>
+      <c r="DW3" s="320"/>
+      <c r="DX3" s="320"/>
+      <c r="DY3" s="320"/>
+      <c r="DZ3" s="320"/>
+      <c r="EA3" s="320"/>
+      <c r="EB3" s="320"/>
+      <c r="EC3" s="320"/>
+      <c r="ED3" s="320"/>
+      <c r="EE3" s="320"/>
+      <c r="EF3" s="320"/>
+      <c r="EG3" s="320"/>
+      <c r="EH3" s="320"/>
+      <c r="EI3" s="320"/>
+      <c r="EJ3" s="320"/>
+      <c r="EK3" s="320"/>
+      <c r="EL3" s="320"/>
+      <c r="EM3" s="320"/>
+      <c r="EN3" s="320"/>
+      <c r="EO3" s="322"/>
       <c r="EP3" s="47"/>
     </row>
     <row r="4" spans="1:146" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="260"/>
-      <c r="B4" s="261"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="261"/>
-      <c r="V4" s="261"/>
-      <c r="W4" s="261"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="261"/>
-      <c r="Z4" s="261"/>
-      <c r="AA4" s="261"/>
-      <c r="AB4" s="261"/>
-      <c r="AC4" s="261"/>
-      <c r="AD4" s="261"/>
-      <c r="AE4" s="261"/>
-      <c r="AF4" s="261"/>
-      <c r="AG4" s="261"/>
-      <c r="AH4" s="261"/>
-      <c r="AI4" s="261"/>
-      <c r="AJ4" s="261"/>
-      <c r="AK4" s="261"/>
-      <c r="AL4" s="261"/>
-      <c r="AM4" s="261"/>
-      <c r="AN4" s="261"/>
-      <c r="AO4" s="261"/>
-      <c r="AP4" s="261"/>
-      <c r="AQ4" s="261"/>
-      <c r="AR4" s="261"/>
-      <c r="AS4" s="261"/>
-      <c r="AT4" s="261"/>
-      <c r="AU4" s="261"/>
-      <c r="AV4" s="261"/>
-      <c r="AW4" s="261"/>
-      <c r="AX4" s="261"/>
-      <c r="AY4" s="261"/>
-      <c r="AZ4" s="261"/>
-      <c r="BA4" s="261"/>
-      <c r="BB4" s="261"/>
-      <c r="BC4" s="261"/>
-      <c r="BD4" s="261"/>
-      <c r="BE4" s="261"/>
-      <c r="BF4" s="261"/>
-      <c r="BG4" s="261"/>
-      <c r="BH4" s="261"/>
-      <c r="BI4" s="261"/>
-      <c r="BJ4" s="261"/>
-      <c r="BK4" s="261"/>
-      <c r="BL4" s="261"/>
-      <c r="BM4" s="261"/>
-      <c r="BN4" s="261"/>
-      <c r="BO4" s="261"/>
-      <c r="BP4" s="261"/>
-      <c r="BQ4" s="261"/>
-      <c r="BR4" s="261"/>
-      <c r="BS4" s="261"/>
-      <c r="BT4" s="261"/>
-      <c r="BU4" s="261"/>
-      <c r="BV4" s="261"/>
-      <c r="BW4" s="261"/>
-      <c r="BX4" s="261"/>
-      <c r="BY4" s="261"/>
-      <c r="BZ4" s="261"/>
-      <c r="CA4" s="261"/>
-      <c r="CB4" s="261"/>
-      <c r="CC4" s="261"/>
-      <c r="CD4" s="261"/>
-      <c r="CE4" s="261"/>
-      <c r="CF4" s="261"/>
-      <c r="CG4" s="261"/>
-      <c r="CH4" s="261"/>
-      <c r="CI4" s="261"/>
-      <c r="CJ4" s="261"/>
-      <c r="CK4" s="261"/>
-      <c r="CL4" s="261"/>
-      <c r="CM4" s="261"/>
-      <c r="CN4" s="261"/>
-      <c r="CO4" s="261"/>
-      <c r="CP4" s="261"/>
-      <c r="CQ4" s="261"/>
-      <c r="CR4" s="261"/>
-      <c r="CS4" s="261"/>
-      <c r="CT4" s="261"/>
-      <c r="CU4" s="261"/>
-      <c r="CV4" s="261"/>
-      <c r="CW4" s="261"/>
-      <c r="CX4" s="261"/>
-      <c r="CY4" s="261"/>
-      <c r="CZ4" s="261"/>
-      <c r="DA4" s="261"/>
-      <c r="DB4" s="261"/>
-      <c r="DC4" s="261"/>
-      <c r="DD4" s="261"/>
-      <c r="DE4" s="261"/>
-      <c r="DF4" s="262"/>
-      <c r="DG4" s="263"/>
-      <c r="DH4" s="264"/>
-      <c r="DI4" s="264"/>
-      <c r="DJ4" s="264"/>
-      <c r="DK4" s="264"/>
-      <c r="DL4" s="264"/>
-      <c r="DM4" s="264"/>
-      <c r="DN4" s="264"/>
-      <c r="DO4" s="264"/>
-      <c r="DP4" s="264"/>
-      <c r="DQ4" s="264"/>
-      <c r="DR4" s="264"/>
-      <c r="DS4" s="264"/>
-      <c r="DT4" s="264"/>
-      <c r="DU4" s="264"/>
-      <c r="DV4" s="264"/>
-      <c r="DW4" s="264"/>
-      <c r="DX4" s="264"/>
-      <c r="DY4" s="264"/>
-      <c r="DZ4" s="264"/>
-      <c r="EA4" s="264"/>
-      <c r="EB4" s="264"/>
-      <c r="EC4" s="264"/>
-      <c r="ED4" s="264"/>
-      <c r="EE4" s="264"/>
-      <c r="EF4" s="264"/>
-      <c r="EG4" s="264"/>
-      <c r="EH4" s="264"/>
-      <c r="EI4" s="264"/>
-      <c r="EJ4" s="264"/>
-      <c r="EK4" s="264"/>
-      <c r="EL4" s="264"/>
-      <c r="EM4" s="264"/>
-      <c r="EN4" s="264"/>
-      <c r="EO4" s="265"/>
+      <c r="A4" s="298"/>
+      <c r="B4" s="299"/>
+      <c r="C4" s="299"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="299"/>
+      <c r="J4" s="299"/>
+      <c r="K4" s="299"/>
+      <c r="L4" s="299"/>
+      <c r="M4" s="299"/>
+      <c r="N4" s="299"/>
+      <c r="O4" s="299"/>
+      <c r="P4" s="299"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="299"/>
+      <c r="S4" s="299"/>
+      <c r="T4" s="299"/>
+      <c r="U4" s="299"/>
+      <c r="V4" s="299"/>
+      <c r="W4" s="299"/>
+      <c r="X4" s="299"/>
+      <c r="Y4" s="299"/>
+      <c r="Z4" s="299"/>
+      <c r="AA4" s="299"/>
+      <c r="AB4" s="299"/>
+      <c r="AC4" s="299"/>
+      <c r="AD4" s="299"/>
+      <c r="AE4" s="299"/>
+      <c r="AF4" s="299"/>
+      <c r="AG4" s="299"/>
+      <c r="AH4" s="299"/>
+      <c r="AI4" s="299"/>
+      <c r="AJ4" s="299"/>
+      <c r="AK4" s="299"/>
+      <c r="AL4" s="299"/>
+      <c r="AM4" s="299"/>
+      <c r="AN4" s="299"/>
+      <c r="AO4" s="299"/>
+      <c r="AP4" s="299"/>
+      <c r="AQ4" s="299"/>
+      <c r="AR4" s="299"/>
+      <c r="AS4" s="299"/>
+      <c r="AT4" s="299"/>
+      <c r="AU4" s="299"/>
+      <c r="AV4" s="299"/>
+      <c r="AW4" s="299"/>
+      <c r="AX4" s="299"/>
+      <c r="AY4" s="299"/>
+      <c r="AZ4" s="299"/>
+      <c r="BA4" s="299"/>
+      <c r="BB4" s="299"/>
+      <c r="BC4" s="299"/>
+      <c r="BD4" s="299"/>
+      <c r="BE4" s="299"/>
+      <c r="BF4" s="299"/>
+      <c r="BG4" s="299"/>
+      <c r="BH4" s="299"/>
+      <c r="BI4" s="299"/>
+      <c r="BJ4" s="299"/>
+      <c r="BK4" s="299"/>
+      <c r="BL4" s="299"/>
+      <c r="BM4" s="299"/>
+      <c r="BN4" s="299"/>
+      <c r="BO4" s="299"/>
+      <c r="BP4" s="299"/>
+      <c r="BQ4" s="299"/>
+      <c r="BR4" s="299"/>
+      <c r="BS4" s="299"/>
+      <c r="BT4" s="299"/>
+      <c r="BU4" s="299"/>
+      <c r="BV4" s="299"/>
+      <c r="BW4" s="299"/>
+      <c r="BX4" s="299"/>
+      <c r="BY4" s="299"/>
+      <c r="BZ4" s="299"/>
+      <c r="CA4" s="299"/>
+      <c r="CB4" s="299"/>
+      <c r="CC4" s="299"/>
+      <c r="CD4" s="299"/>
+      <c r="CE4" s="299"/>
+      <c r="CF4" s="299"/>
+      <c r="CG4" s="299"/>
+      <c r="CH4" s="299"/>
+      <c r="CI4" s="299"/>
+      <c r="CJ4" s="299"/>
+      <c r="CK4" s="299"/>
+      <c r="CL4" s="299"/>
+      <c r="CM4" s="299"/>
+      <c r="CN4" s="299"/>
+      <c r="CO4" s="299"/>
+      <c r="CP4" s="299"/>
+      <c r="CQ4" s="299"/>
+      <c r="CR4" s="299"/>
+      <c r="CS4" s="299"/>
+      <c r="CT4" s="299"/>
+      <c r="CU4" s="299"/>
+      <c r="CV4" s="299"/>
+      <c r="CW4" s="299"/>
+      <c r="CX4" s="299"/>
+      <c r="CY4" s="299"/>
+      <c r="CZ4" s="299"/>
+      <c r="DA4" s="299"/>
+      <c r="DB4" s="299"/>
+      <c r="DC4" s="299"/>
+      <c r="DD4" s="299"/>
+      <c r="DE4" s="299"/>
+      <c r="DF4" s="300"/>
+      <c r="DG4" s="301"/>
+      <c r="DH4" s="302"/>
+      <c r="DI4" s="302"/>
+      <c r="DJ4" s="302"/>
+      <c r="DK4" s="302"/>
+      <c r="DL4" s="302"/>
+      <c r="DM4" s="302"/>
+      <c r="DN4" s="302"/>
+      <c r="DO4" s="302"/>
+      <c r="DP4" s="302"/>
+      <c r="DQ4" s="302"/>
+      <c r="DR4" s="302"/>
+      <c r="DS4" s="302"/>
+      <c r="DT4" s="302"/>
+      <c r="DU4" s="302"/>
+      <c r="DV4" s="302"/>
+      <c r="DW4" s="302"/>
+      <c r="DX4" s="302"/>
+      <c r="DY4" s="302"/>
+      <c r="DZ4" s="302"/>
+      <c r="EA4" s="302"/>
+      <c r="EB4" s="302"/>
+      <c r="EC4" s="302"/>
+      <c r="ED4" s="302"/>
+      <c r="EE4" s="302"/>
+      <c r="EF4" s="302"/>
+      <c r="EG4" s="302"/>
+      <c r="EH4" s="302"/>
+      <c r="EI4" s="302"/>
+      <c r="EJ4" s="302"/>
+      <c r="EK4" s="302"/>
+      <c r="EL4" s="302"/>
+      <c r="EM4" s="302"/>
+      <c r="EN4" s="302"/>
+      <c r="EO4" s="303"/>
       <c r="EP4" s="51"/>
     </row>
     <row r="5" spans="1:146" ht="16.5" thickTop="1">
-      <c r="A5" s="266" t="s">
+      <c r="A5" s="304" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="270" t="s">
+      <c r="B5" s="308" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="271"/>
-      <c r="D5" s="271"/>
-      <c r="E5" s="272"/>
+      <c r="C5" s="309"/>
+      <c r="D5" s="309"/>
+      <c r="E5" s="310"/>
       <c r="F5" s="52"/>
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
@@ -23198,13 +23336,13 @@
       <c r="EP5" s="60"/>
     </row>
     <row r="6" spans="1:146" ht="15.75">
-      <c r="A6" s="267"/>
-      <c r="B6" s="273" t="s">
+      <c r="A6" s="305"/>
+      <c r="B6" s="311" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="274"/>
-      <c r="D6" s="274"/>
-      <c r="E6" s="275"/>
+      <c r="C6" s="312"/>
+      <c r="D6" s="312"/>
+      <c r="E6" s="313"/>
       <c r="F6" s="61"/>
       <c r="G6" s="61"/>
       <c r="H6" s="61"/>
@@ -23348,13 +23486,13 @@
       <c r="EP6" s="60"/>
     </row>
     <row r="7" spans="1:146" ht="16.5" thickBot="1">
-      <c r="A7" s="268"/>
-      <c r="B7" s="276" t="s">
+      <c r="A7" s="306"/>
+      <c r="B7" s="314" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="277"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="278"/>
+      <c r="C7" s="315"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="316"/>
       <c r="F7" s="68" t="s">
         <v>45</v>
       </c>
@@ -23778,7 +23916,7 @@
       <c r="EP7" s="60"/>
     </row>
     <row r="8" spans="1:146" ht="16.5" thickBot="1">
-      <c r="A8" s="269"/>
+      <c r="A8" s="307"/>
       <c r="B8" s="71" t="s">
         <v>49</v>
       </c>
@@ -23934,57 +24072,57 @@
       <c r="EP8" s="60"/>
     </row>
     <row r="9" spans="1:146" ht="15" customHeight="1">
-      <c r="A9" s="321" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="323"/>
-      <c r="C9" s="325"/>
-      <c r="D9" s="327">
+      <c r="A9" s="289" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="291"/>
+      <c r="C9" s="293"/>
+      <c r="D9" s="295">
         <v>20</v>
       </c>
-      <c r="E9" s="329">
+      <c r="E9" s="297">
         <v>35</v>
       </c>
       <c r="F9" s="79"/>
       <c r="G9" s="80"/>
       <c r="H9" s="80"/>
       <c r="I9" s="80"/>
-      <c r="J9" s="377"/>
-      <c r="K9" s="378"/>
-      <c r="L9" s="378"/>
-      <c r="M9" s="379"/>
-      <c r="N9" s="380"/>
-      <c r="O9" s="380"/>
-      <c r="P9" s="380"/>
-      <c r="Q9" s="380"/>
-      <c r="R9" s="378"/>
-      <c r="S9" s="378"/>
-      <c r="T9" s="380"/>
-      <c r="U9" s="380"/>
-      <c r="V9" s="380"/>
-      <c r="W9" s="380"/>
-      <c r="X9" s="380"/>
-      <c r="Y9" s="378"/>
-      <c r="Z9" s="378"/>
-      <c r="AA9" s="380"/>
-      <c r="AB9" s="380"/>
-      <c r="AC9" s="380"/>
-      <c r="AD9" s="380"/>
-      <c r="AE9" s="380"/>
-      <c r="AF9" s="378"/>
-      <c r="AG9" s="378"/>
-      <c r="AH9" s="380"/>
-      <c r="AI9" s="380"/>
-      <c r="AJ9" s="380"/>
-      <c r="AK9" s="380"/>
-      <c r="AL9" s="380"/>
-      <c r="AM9" s="378"/>
-      <c r="AN9" s="378"/>
-      <c r="AO9" s="380"/>
-      <c r="AP9" s="380"/>
-      <c r="AQ9" s="380"/>
-      <c r="AR9" s="380"/>
-      <c r="AS9" s="380"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="174"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="176"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="174"/>
+      <c r="S9" s="174"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="176"/>
+      <c r="X9" s="176"/>
+      <c r="Y9" s="174"/>
+      <c r="Z9" s="174"/>
+      <c r="AA9" s="176"/>
+      <c r="AB9" s="176"/>
+      <c r="AC9" s="176"/>
+      <c r="AD9" s="176"/>
+      <c r="AE9" s="176"/>
+      <c r="AF9" s="174"/>
+      <c r="AG9" s="174"/>
+      <c r="AH9" s="176"/>
+      <c r="AI9" s="176"/>
+      <c r="AJ9" s="176"/>
+      <c r="AK9" s="176"/>
+      <c r="AL9" s="176"/>
+      <c r="AM9" s="174"/>
+      <c r="AN9" s="174"/>
+      <c r="AO9" s="176"/>
+      <c r="AP9" s="176"/>
+      <c r="AQ9" s="176"/>
+      <c r="AR9" s="176"/>
+      <c r="AS9" s="176"/>
       <c r="AT9" s="82"/>
       <c r="AU9" s="82"/>
       <c r="AV9" s="80"/>
@@ -24088,51 +24226,51 @@
       <c r="EP9" s="43"/>
     </row>
     <row r="10" spans="1:146" ht="15" customHeight="1">
-      <c r="A10" s="322"/>
-      <c r="B10" s="324"/>
-      <c r="C10" s="326"/>
-      <c r="D10" s="328"/>
-      <c r="E10" s="330"/>
+      <c r="A10" s="283"/>
+      <c r="B10" s="284"/>
+      <c r="C10" s="285"/>
+      <c r="D10" s="286"/>
+      <c r="E10" s="287"/>
       <c r="F10" s="85"/>
       <c r="G10" s="86"/>
       <c r="H10" s="86"/>
       <c r="I10" s="86"/>
-      <c r="J10" s="381"/>
-      <c r="K10" s="382"/>
-      <c r="L10" s="382"/>
-      <c r="M10" s="383"/>
-      <c r="N10" s="384"/>
-      <c r="O10" s="384"/>
-      <c r="P10" s="384"/>
-      <c r="Q10" s="384"/>
-      <c r="R10" s="382"/>
-      <c r="S10" s="382"/>
-      <c r="T10" s="384"/>
-      <c r="U10" s="384"/>
-      <c r="V10" s="384"/>
-      <c r="W10" s="384"/>
-      <c r="X10" s="384"/>
-      <c r="Y10" s="382"/>
-      <c r="Z10" s="382"/>
-      <c r="AA10" s="384"/>
-      <c r="AB10" s="384"/>
-      <c r="AC10" s="384"/>
-      <c r="AD10" s="384"/>
-      <c r="AE10" s="384"/>
-      <c r="AF10" s="382"/>
-      <c r="AG10" s="382"/>
-      <c r="AH10" s="384"/>
-      <c r="AI10" s="384"/>
-      <c r="AJ10" s="384"/>
-      <c r="AK10" s="384"/>
-      <c r="AL10" s="384"/>
-      <c r="AM10" s="382"/>
-      <c r="AN10" s="382"/>
-      <c r="AO10" s="384"/>
-      <c r="AP10" s="384"/>
-      <c r="AQ10" s="384"/>
-      <c r="AR10" s="384"/>
-      <c r="AS10" s="384"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="180"/>
+      <c r="P10" s="180"/>
+      <c r="Q10" s="180"/>
+      <c r="R10" s="178"/>
+      <c r="S10" s="178"/>
+      <c r="T10" s="180"/>
+      <c r="U10" s="180"/>
+      <c r="V10" s="180"/>
+      <c r="W10" s="180"/>
+      <c r="X10" s="180"/>
+      <c r="Y10" s="178"/>
+      <c r="Z10" s="178"/>
+      <c r="AA10" s="180"/>
+      <c r="AB10" s="180"/>
+      <c r="AC10" s="180"/>
+      <c r="AD10" s="180"/>
+      <c r="AE10" s="180"/>
+      <c r="AF10" s="178"/>
+      <c r="AG10" s="178"/>
+      <c r="AH10" s="180"/>
+      <c r="AI10" s="180"/>
+      <c r="AJ10" s="180"/>
+      <c r="AK10" s="180"/>
+      <c r="AL10" s="180"/>
+      <c r="AM10" s="178"/>
+      <c r="AN10" s="178"/>
+      <c r="AO10" s="180"/>
+      <c r="AP10" s="180"/>
+      <c r="AQ10" s="180"/>
+      <c r="AR10" s="180"/>
+      <c r="AS10" s="180"/>
       <c r="AT10" s="88"/>
       <c r="AU10" s="88"/>
       <c r="AV10" s="86"/>
@@ -24236,15 +24374,15 @@
       <c r="EP10" s="43"/>
     </row>
     <row r="11" spans="1:146" ht="15" customHeight="1">
-      <c r="A11" s="331" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" s="323"/>
-      <c r="C11" s="325"/>
-      <c r="D11" s="327">
+      <c r="A11" s="288" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="291"/>
+      <c r="C11" s="293"/>
+      <c r="D11" s="295">
         <v>5</v>
       </c>
-      <c r="E11" s="329">
+      <c r="E11" s="297">
         <v>5</v>
       </c>
       <c r="F11" s="79"/>
@@ -24287,13 +24425,13 @@
       <c r="AQ11" s="80"/>
       <c r="AR11" s="80"/>
       <c r="AS11" s="80"/>
-      <c r="AT11" s="378"/>
-      <c r="AU11" s="378"/>
-      <c r="AV11" s="380"/>
-      <c r="AW11" s="380"/>
-      <c r="AX11" s="380"/>
-      <c r="AY11" s="380"/>
-      <c r="AZ11" s="380"/>
+      <c r="AT11" s="174"/>
+      <c r="AU11" s="174"/>
+      <c r="AV11" s="176"/>
+      <c r="AW11" s="176"/>
+      <c r="AX11" s="176"/>
+      <c r="AY11" s="176"/>
+      <c r="AZ11" s="176"/>
       <c r="BA11" s="82"/>
       <c r="BB11" s="82"/>
       <c r="BC11" s="80"/>
@@ -24390,11 +24528,11 @@
       <c r="EP11" s="43"/>
     </row>
     <row r="12" spans="1:146" ht="15" customHeight="1">
-      <c r="A12" s="321"/>
-      <c r="B12" s="324"/>
-      <c r="C12" s="326"/>
-      <c r="D12" s="328"/>
-      <c r="E12" s="330"/>
+      <c r="A12" s="289"/>
+      <c r="B12" s="284"/>
+      <c r="C12" s="285"/>
+      <c r="D12" s="286"/>
+      <c r="E12" s="287"/>
       <c r="F12" s="85"/>
       <c r="G12" s="86"/>
       <c r="H12" s="86"/>
@@ -24435,13 +24573,13 @@
       <c r="AQ12" s="86"/>
       <c r="AR12" s="86"/>
       <c r="AS12" s="86"/>
-      <c r="AT12" s="382"/>
-      <c r="AU12" s="382"/>
-      <c r="AV12" s="384"/>
-      <c r="AW12" s="384"/>
-      <c r="AX12" s="384"/>
-      <c r="AY12" s="384"/>
-      <c r="AZ12" s="384"/>
+      <c r="AT12" s="178"/>
+      <c r="AU12" s="178"/>
+      <c r="AV12" s="180"/>
+      <c r="AW12" s="180"/>
+      <c r="AX12" s="180"/>
+      <c r="AY12" s="180"/>
+      <c r="AZ12" s="180"/>
       <c r="BA12" s="88"/>
       <c r="BB12" s="88"/>
       <c r="BC12" s="86"/>
@@ -24538,15 +24676,15 @@
       <c r="EP12" s="43"/>
     </row>
     <row r="13" spans="1:146" ht="15" customHeight="1">
-      <c r="A13" s="332" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="333"/>
-      <c r="C13" s="334"/>
-      <c r="D13" s="335">
+      <c r="A13" s="273" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="275"/>
+      <c r="C13" s="277"/>
+      <c r="D13" s="279">
         <v>1</v>
       </c>
-      <c r="E13" s="336">
+      <c r="E13" s="281">
         <v>5</v>
       </c>
       <c r="F13" s="91"/>
@@ -24589,13 +24727,13 @@
       <c r="AQ13" s="92"/>
       <c r="AR13" s="92"/>
       <c r="AS13" s="92"/>
-      <c r="AT13" s="385"/>
-      <c r="AU13" s="385"/>
-      <c r="AV13" s="386"/>
-      <c r="AW13" s="386"/>
-      <c r="AX13" s="386"/>
-      <c r="AY13" s="386"/>
-      <c r="AZ13" s="386"/>
+      <c r="AT13" s="181"/>
+      <c r="AU13" s="181"/>
+      <c r="AV13" s="182"/>
+      <c r="AW13" s="182"/>
+      <c r="AX13" s="182"/>
+      <c r="AY13" s="182"/>
+      <c r="AZ13" s="182"/>
       <c r="BA13" s="94"/>
       <c r="BB13" s="94"/>
       <c r="BC13" s="92"/>
@@ -24692,11 +24830,11 @@
       <c r="EP13" s="43"/>
     </row>
     <row r="14" spans="1:146" ht="15" customHeight="1">
-      <c r="A14" s="322"/>
-      <c r="B14" s="324"/>
-      <c r="C14" s="326"/>
-      <c r="D14" s="328"/>
-      <c r="E14" s="330"/>
+      <c r="A14" s="283"/>
+      <c r="B14" s="284"/>
+      <c r="C14" s="285"/>
+      <c r="D14" s="286"/>
+      <c r="E14" s="287"/>
       <c r="F14" s="85"/>
       <c r="G14" s="86"/>
       <c r="H14" s="86"/>
@@ -24737,13 +24875,13 @@
       <c r="AQ14" s="86"/>
       <c r="AR14" s="86"/>
       <c r="AS14" s="86"/>
-      <c r="AT14" s="382"/>
-      <c r="AU14" s="382"/>
-      <c r="AV14" s="384"/>
-      <c r="AW14" s="384"/>
-      <c r="AX14" s="384"/>
-      <c r="AY14" s="384"/>
-      <c r="AZ14" s="384"/>
+      <c r="AT14" s="178"/>
+      <c r="AU14" s="178"/>
+      <c r="AV14" s="180"/>
+      <c r="AW14" s="180"/>
+      <c r="AX14" s="180"/>
+      <c r="AY14" s="180"/>
+      <c r="AZ14" s="180"/>
       <c r="BA14" s="88"/>
       <c r="BB14" s="88"/>
       <c r="BC14" s="86"/>
@@ -24840,15 +24978,15 @@
       <c r="EP14" s="43"/>
     </row>
     <row r="15" spans="1:146" ht="15" customHeight="1">
-      <c r="A15" s="332" t="s">
-        <v>291</v>
-      </c>
-      <c r="B15" s="333"/>
-      <c r="C15" s="334"/>
-      <c r="D15" s="335">
+      <c r="A15" s="273" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" s="275"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="279">
         <v>5</v>
       </c>
-      <c r="E15" s="336">
+      <c r="E15" s="281">
         <v>5</v>
       </c>
       <c r="F15" s="91"/>
@@ -24891,13 +25029,13 @@
       <c r="AQ15" s="92"/>
       <c r="AR15" s="92"/>
       <c r="AS15" s="92"/>
-      <c r="AT15" s="385"/>
-      <c r="AU15" s="385"/>
-      <c r="AV15" s="386"/>
-      <c r="AW15" s="386"/>
-      <c r="AX15" s="386"/>
-      <c r="AY15" s="386"/>
-      <c r="AZ15" s="386"/>
+      <c r="AT15" s="181"/>
+      <c r="AU15" s="181"/>
+      <c r="AV15" s="182"/>
+      <c r="AW15" s="182"/>
+      <c r="AX15" s="182"/>
+      <c r="AY15" s="182"/>
+      <c r="AZ15" s="182"/>
       <c r="BA15" s="94"/>
       <c r="BB15" s="94"/>
       <c r="BC15" s="92"/>
@@ -24994,11 +25132,11 @@
       <c r="EP15" s="43"/>
     </row>
     <row r="16" spans="1:146" ht="15" customHeight="1">
-      <c r="A16" s="322"/>
-      <c r="B16" s="324"/>
-      <c r="C16" s="326"/>
-      <c r="D16" s="328"/>
-      <c r="E16" s="330"/>
+      <c r="A16" s="283"/>
+      <c r="B16" s="284"/>
+      <c r="C16" s="285"/>
+      <c r="D16" s="286"/>
+      <c r="E16" s="287"/>
       <c r="F16" s="85"/>
       <c r="G16" s="86"/>
       <c r="H16" s="86"/>
@@ -25039,13 +25177,13 @@
       <c r="AQ16" s="86"/>
       <c r="AR16" s="86"/>
       <c r="AS16" s="86"/>
-      <c r="AT16" s="382"/>
-      <c r="AU16" s="382"/>
-      <c r="AV16" s="384"/>
-      <c r="AW16" s="384"/>
-      <c r="AX16" s="384"/>
-      <c r="AY16" s="384"/>
-      <c r="AZ16" s="384"/>
+      <c r="AT16" s="178"/>
+      <c r="AU16" s="178"/>
+      <c r="AV16" s="180"/>
+      <c r="AW16" s="180"/>
+      <c r="AX16" s="180"/>
+      <c r="AY16" s="180"/>
+      <c r="AZ16" s="180"/>
       <c r="BA16" s="88"/>
       <c r="BB16" s="88"/>
       <c r="BC16" s="86"/>
@@ -25142,15 +25280,15 @@
       <c r="EP16" s="43"/>
     </row>
     <row r="17" spans="1:146" ht="15" customHeight="1">
-      <c r="A17" s="331" t="s">
-        <v>292</v>
-      </c>
-      <c r="B17" s="337"/>
-      <c r="C17" s="338"/>
-      <c r="D17" s="339">
+      <c r="A17" s="288" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="290"/>
+      <c r="C17" s="292"/>
+      <c r="D17" s="294">
         <v>20</v>
       </c>
-      <c r="E17" s="340">
+      <c r="E17" s="296">
         <v>14</v>
       </c>
       <c r="F17" s="91"/>
@@ -25200,20 +25338,20 @@
       <c r="AX17" s="92"/>
       <c r="AY17" s="92"/>
       <c r="AZ17" s="92"/>
-      <c r="BA17" s="385"/>
-      <c r="BB17" s="385"/>
-      <c r="BC17" s="386"/>
-      <c r="BD17" s="386"/>
-      <c r="BE17" s="386"/>
-      <c r="BF17" s="386"/>
-      <c r="BG17" s="386"/>
-      <c r="BH17" s="385"/>
-      <c r="BI17" s="385"/>
-      <c r="BJ17" s="386"/>
-      <c r="BK17" s="386"/>
-      <c r="BL17" s="386"/>
-      <c r="BM17" s="386"/>
-      <c r="BN17" s="386"/>
+      <c r="BA17" s="181"/>
+      <c r="BB17" s="181"/>
+      <c r="BC17" s="182"/>
+      <c r="BD17" s="182"/>
+      <c r="BE17" s="182"/>
+      <c r="BF17" s="182"/>
+      <c r="BG17" s="182"/>
+      <c r="BH17" s="181"/>
+      <c r="BI17" s="181"/>
+      <c r="BJ17" s="182"/>
+      <c r="BK17" s="182"/>
+      <c r="BL17" s="182"/>
+      <c r="BM17" s="182"/>
+      <c r="BN17" s="182"/>
       <c r="BO17" s="94"/>
       <c r="BP17" s="94"/>
       <c r="BQ17" s="92"/>
@@ -25296,11 +25434,11 @@
       <c r="EP17" s="43"/>
     </row>
     <row r="18" spans="1:146" ht="15" customHeight="1">
-      <c r="A18" s="321"/>
-      <c r="B18" s="323"/>
-      <c r="C18" s="325"/>
-      <c r="D18" s="327"/>
-      <c r="E18" s="329"/>
+      <c r="A18" s="289"/>
+      <c r="B18" s="291"/>
+      <c r="C18" s="293"/>
+      <c r="D18" s="295"/>
+      <c r="E18" s="297"/>
       <c r="F18" s="85"/>
       <c r="G18" s="86"/>
       <c r="H18" s="86"/>
@@ -25348,20 +25486,20 @@
       <c r="AX18" s="86"/>
       <c r="AY18" s="86"/>
       <c r="AZ18" s="86"/>
-      <c r="BA18" s="382"/>
-      <c r="BB18" s="382"/>
-      <c r="BC18" s="384"/>
-      <c r="BD18" s="384"/>
-      <c r="BE18" s="384"/>
-      <c r="BF18" s="384"/>
-      <c r="BG18" s="384"/>
-      <c r="BH18" s="382"/>
-      <c r="BI18" s="382"/>
-      <c r="BJ18" s="384"/>
-      <c r="BK18" s="384"/>
-      <c r="BL18" s="384"/>
-      <c r="BM18" s="384"/>
-      <c r="BN18" s="384"/>
+      <c r="BA18" s="178"/>
+      <c r="BB18" s="178"/>
+      <c r="BC18" s="180"/>
+      <c r="BD18" s="180"/>
+      <c r="BE18" s="180"/>
+      <c r="BF18" s="180"/>
+      <c r="BG18" s="180"/>
+      <c r="BH18" s="178"/>
+      <c r="BI18" s="178"/>
+      <c r="BJ18" s="180"/>
+      <c r="BK18" s="180"/>
+      <c r="BL18" s="180"/>
+      <c r="BM18" s="180"/>
+      <c r="BN18" s="180"/>
       <c r="BO18" s="88"/>
       <c r="BP18" s="88"/>
       <c r="BQ18" s="86"/>
@@ -25444,15 +25582,15 @@
       <c r="EP18" s="43"/>
     </row>
     <row r="19" spans="1:146" ht="15" customHeight="1">
-      <c r="A19" s="332" t="s">
-        <v>293</v>
-      </c>
-      <c r="B19" s="333"/>
-      <c r="C19" s="334"/>
-      <c r="D19" s="335">
+      <c r="A19" s="273" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" s="275"/>
+      <c r="C19" s="277"/>
+      <c r="D19" s="279">
         <v>5</v>
       </c>
-      <c r="E19" s="336">
+      <c r="E19" s="281">
         <v>7</v>
       </c>
       <c r="F19" s="91"/>
@@ -25516,13 +25654,13 @@
       <c r="BL19" s="92"/>
       <c r="BM19" s="92"/>
       <c r="BN19" s="92"/>
-      <c r="BO19" s="385"/>
-      <c r="BP19" s="385"/>
-      <c r="BQ19" s="386"/>
-      <c r="BR19" s="386"/>
-      <c r="BS19" s="386"/>
-      <c r="BT19" s="386"/>
-      <c r="BU19" s="386"/>
+      <c r="BO19" s="181"/>
+      <c r="BP19" s="181"/>
+      <c r="BQ19" s="182"/>
+      <c r="BR19" s="182"/>
+      <c r="BS19" s="182"/>
+      <c r="BT19" s="182"/>
+      <c r="BU19" s="182"/>
       <c r="BV19" s="94"/>
       <c r="BW19" s="94"/>
       <c r="BX19" s="92"/>
@@ -25598,11 +25736,11 @@
       <c r="EP19" s="43"/>
     </row>
     <row r="20" spans="1:146" ht="15" customHeight="1">
-      <c r="A20" s="322"/>
-      <c r="B20" s="324"/>
-      <c r="C20" s="326"/>
-      <c r="D20" s="328"/>
-      <c r="E20" s="330"/>
+      <c r="A20" s="283"/>
+      <c r="B20" s="284"/>
+      <c r="C20" s="285"/>
+      <c r="D20" s="286"/>
+      <c r="E20" s="287"/>
       <c r="F20" s="85"/>
       <c r="G20" s="86"/>
       <c r="H20" s="86"/>
@@ -25664,13 +25802,13 @@
       <c r="BL20" s="86"/>
       <c r="BM20" s="86"/>
       <c r="BN20" s="86"/>
-      <c r="BO20" s="382"/>
-      <c r="BP20" s="382"/>
-      <c r="BQ20" s="384"/>
-      <c r="BR20" s="384"/>
-      <c r="BS20" s="384"/>
-      <c r="BT20" s="384"/>
-      <c r="BU20" s="384"/>
+      <c r="BO20" s="178"/>
+      <c r="BP20" s="178"/>
+      <c r="BQ20" s="180"/>
+      <c r="BR20" s="180"/>
+      <c r="BS20" s="180"/>
+      <c r="BT20" s="180"/>
+      <c r="BU20" s="180"/>
       <c r="BV20" s="88"/>
       <c r="BW20" s="88"/>
       <c r="BX20" s="86"/>
@@ -25746,15 +25884,15 @@
       <c r="EP20" s="43"/>
     </row>
     <row r="21" spans="1:146" ht="15" customHeight="1">
-      <c r="A21" s="332" t="s">
-        <v>294</v>
-      </c>
-      <c r="B21" s="333"/>
-      <c r="C21" s="334"/>
-      <c r="D21" s="335">
+      <c r="A21" s="273" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="275"/>
+      <c r="C21" s="277"/>
+      <c r="D21" s="279">
         <v>3</v>
       </c>
-      <c r="E21" s="336">
+      <c r="E21" s="281">
         <v>7</v>
       </c>
       <c r="F21" s="91"/>
@@ -25825,13 +25963,13 @@
       <c r="BS21" s="92"/>
       <c r="BT21" s="92"/>
       <c r="BU21" s="92"/>
-      <c r="BV21" s="385"/>
-      <c r="BW21" s="385"/>
-      <c r="BX21" s="386"/>
-      <c r="BY21" s="386"/>
-      <c r="BZ21" s="386"/>
-      <c r="CA21" s="386"/>
-      <c r="CB21" s="386"/>
+      <c r="BV21" s="181"/>
+      <c r="BW21" s="181"/>
+      <c r="BX21" s="182"/>
+      <c r="BY21" s="182"/>
+      <c r="BZ21" s="182"/>
+      <c r="CA21" s="182"/>
+      <c r="CB21" s="182"/>
       <c r="CC21" s="94"/>
       <c r="CD21" s="94"/>
       <c r="CE21" s="92"/>
@@ -25900,11 +26038,11 @@
       <c r="EP21" s="43"/>
     </row>
     <row r="22" spans="1:146" ht="15" customHeight="1">
-      <c r="A22" s="322"/>
-      <c r="B22" s="324"/>
-      <c r="C22" s="326"/>
-      <c r="D22" s="328"/>
-      <c r="E22" s="330"/>
+      <c r="A22" s="283"/>
+      <c r="B22" s="284"/>
+      <c r="C22" s="285"/>
+      <c r="D22" s="286"/>
+      <c r="E22" s="287"/>
       <c r="F22" s="85"/>
       <c r="G22" s="86"/>
       <c r="H22" s="86"/>
@@ -25973,13 +26111,13 @@
       <c r="BS22" s="86"/>
       <c r="BT22" s="86"/>
       <c r="BU22" s="86"/>
-      <c r="BV22" s="382"/>
-      <c r="BW22" s="382"/>
-      <c r="BX22" s="384"/>
-      <c r="BY22" s="384"/>
-      <c r="BZ22" s="384"/>
-      <c r="CA22" s="384"/>
-      <c r="CB22" s="384"/>
+      <c r="BV22" s="178"/>
+      <c r="BW22" s="178"/>
+      <c r="BX22" s="180"/>
+      <c r="BY22" s="180"/>
+      <c r="BZ22" s="180"/>
+      <c r="CA22" s="180"/>
+      <c r="CB22" s="180"/>
       <c r="CC22" s="88"/>
       <c r="CD22" s="88"/>
       <c r="CE22" s="86"/>
@@ -26048,106 +26186,106 @@
       <c r="EP22" s="43"/>
     </row>
     <row r="23" spans="1:146" ht="15" customHeight="1">
-      <c r="A23" s="332" t="s">
-        <v>295</v>
-      </c>
-      <c r="B23" s="333"/>
-      <c r="C23" s="334"/>
-      <c r="D23" s="335">
+      <c r="A23" s="273" t="s">
+        <v>287</v>
+      </c>
+      <c r="B23" s="275"/>
+      <c r="C23" s="277"/>
+      <c r="D23" s="279">
         <v>30</v>
       </c>
-      <c r="E23" s="336">
+      <c r="E23" s="281">
         <v>61</v>
       </c>
       <c r="F23" s="91"/>
       <c r="G23" s="92"/>
       <c r="H23" s="92"/>
       <c r="I23" s="92"/>
-      <c r="J23" s="387"/>
-      <c r="K23" s="385"/>
-      <c r="L23" s="385"/>
-      <c r="M23" s="388"/>
-      <c r="N23" s="386"/>
-      <c r="O23" s="386"/>
-      <c r="P23" s="386"/>
-      <c r="Q23" s="386"/>
-      <c r="R23" s="385"/>
-      <c r="S23" s="385"/>
-      <c r="T23" s="386"/>
-      <c r="U23" s="386"/>
-      <c r="V23" s="386"/>
-      <c r="W23" s="386"/>
-      <c r="X23" s="386"/>
-      <c r="Y23" s="385"/>
-      <c r="Z23" s="385"/>
-      <c r="AA23" s="386"/>
-      <c r="AB23" s="386"/>
-      <c r="AC23" s="386"/>
-      <c r="AD23" s="386"/>
-      <c r="AE23" s="386"/>
-      <c r="AF23" s="385"/>
-      <c r="AG23" s="385"/>
-      <c r="AH23" s="386"/>
-      <c r="AI23" s="386"/>
-      <c r="AJ23" s="386"/>
-      <c r="AK23" s="386"/>
-      <c r="AL23" s="386"/>
-      <c r="AM23" s="385"/>
-      <c r="AN23" s="385"/>
-      <c r="AO23" s="386"/>
-      <c r="AP23" s="386"/>
-      <c r="AQ23" s="386"/>
-      <c r="AR23" s="386"/>
-      <c r="AS23" s="386"/>
-      <c r="AT23" s="385"/>
-      <c r="AU23" s="385"/>
-      <c r="AV23" s="386"/>
-      <c r="AW23" s="386"/>
-      <c r="AX23" s="386"/>
-      <c r="AY23" s="386"/>
-      <c r="AZ23" s="386"/>
-      <c r="BA23" s="385"/>
-      <c r="BB23" s="385"/>
-      <c r="BC23" s="386"/>
-      <c r="BD23" s="386"/>
-      <c r="BE23" s="386"/>
-      <c r="BF23" s="386"/>
-      <c r="BG23" s="386"/>
-      <c r="BH23" s="385"/>
-      <c r="BI23" s="385"/>
-      <c r="BJ23" s="386"/>
-      <c r="BK23" s="386"/>
-      <c r="BL23" s="386"/>
-      <c r="BM23" s="386"/>
-      <c r="BN23" s="386"/>
-      <c r="BO23" s="385"/>
-      <c r="BP23" s="385"/>
-      <c r="BQ23" s="386"/>
-      <c r="BR23" s="386"/>
-      <c r="BS23" s="386"/>
-      <c r="BT23" s="386"/>
-      <c r="BU23" s="386"/>
-      <c r="BV23" s="385"/>
-      <c r="BW23" s="385"/>
-      <c r="BX23" s="386"/>
-      <c r="BY23" s="386"/>
-      <c r="BZ23" s="386"/>
-      <c r="CA23" s="386"/>
-      <c r="CB23" s="386"/>
-      <c r="CC23" s="385"/>
-      <c r="CD23" s="385"/>
-      <c r="CE23" s="386"/>
-      <c r="CF23" s="386"/>
-      <c r="CG23" s="386"/>
-      <c r="CH23" s="386"/>
-      <c r="CI23" s="386"/>
-      <c r="CJ23" s="385"/>
-      <c r="CK23" s="385"/>
-      <c r="CL23" s="386"/>
-      <c r="CM23" s="386"/>
-      <c r="CN23" s="386"/>
-      <c r="CO23" s="386"/>
-      <c r="CP23" s="386"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="184"/>
+      <c r="N23" s="182"/>
+      <c r="O23" s="182"/>
+      <c r="P23" s="182"/>
+      <c r="Q23" s="182"/>
+      <c r="R23" s="181"/>
+      <c r="S23" s="181"/>
+      <c r="T23" s="182"/>
+      <c r="U23" s="182"/>
+      <c r="V23" s="182"/>
+      <c r="W23" s="182"/>
+      <c r="X23" s="182"/>
+      <c r="Y23" s="181"/>
+      <c r="Z23" s="181"/>
+      <c r="AA23" s="182"/>
+      <c r="AB23" s="182"/>
+      <c r="AC23" s="182"/>
+      <c r="AD23" s="182"/>
+      <c r="AE23" s="182"/>
+      <c r="AF23" s="181"/>
+      <c r="AG23" s="181"/>
+      <c r="AH23" s="182"/>
+      <c r="AI23" s="182"/>
+      <c r="AJ23" s="182"/>
+      <c r="AK23" s="182"/>
+      <c r="AL23" s="182"/>
+      <c r="AM23" s="181"/>
+      <c r="AN23" s="181"/>
+      <c r="AO23" s="182"/>
+      <c r="AP23" s="182"/>
+      <c r="AQ23" s="182"/>
+      <c r="AR23" s="182"/>
+      <c r="AS23" s="182"/>
+      <c r="AT23" s="181"/>
+      <c r="AU23" s="181"/>
+      <c r="AV23" s="182"/>
+      <c r="AW23" s="182"/>
+      <c r="AX23" s="182"/>
+      <c r="AY23" s="182"/>
+      <c r="AZ23" s="182"/>
+      <c r="BA23" s="181"/>
+      <c r="BB23" s="181"/>
+      <c r="BC23" s="182"/>
+      <c r="BD23" s="182"/>
+      <c r="BE23" s="182"/>
+      <c r="BF23" s="182"/>
+      <c r="BG23" s="182"/>
+      <c r="BH23" s="181"/>
+      <c r="BI23" s="181"/>
+      <c r="BJ23" s="182"/>
+      <c r="BK23" s="182"/>
+      <c r="BL23" s="182"/>
+      <c r="BM23" s="182"/>
+      <c r="BN23" s="182"/>
+      <c r="BO23" s="181"/>
+      <c r="BP23" s="181"/>
+      <c r="BQ23" s="182"/>
+      <c r="BR23" s="182"/>
+      <c r="BS23" s="182"/>
+      <c r="BT23" s="182"/>
+      <c r="BU23" s="182"/>
+      <c r="BV23" s="181"/>
+      <c r="BW23" s="181"/>
+      <c r="BX23" s="182"/>
+      <c r="BY23" s="182"/>
+      <c r="BZ23" s="182"/>
+      <c r="CA23" s="182"/>
+      <c r="CB23" s="182"/>
+      <c r="CC23" s="181"/>
+      <c r="CD23" s="181"/>
+      <c r="CE23" s="182"/>
+      <c r="CF23" s="182"/>
+      <c r="CG23" s="182"/>
+      <c r="CH23" s="182"/>
+      <c r="CI23" s="182"/>
+      <c r="CJ23" s="181"/>
+      <c r="CK23" s="181"/>
+      <c r="CL23" s="182"/>
+      <c r="CM23" s="182"/>
+      <c r="CN23" s="182"/>
+      <c r="CO23" s="182"/>
+      <c r="CP23" s="182"/>
       <c r="CQ23" s="94"/>
       <c r="CR23" s="94"/>
       <c r="CS23" s="92"/>
@@ -26202,100 +26340,100 @@
       <c r="EP23" s="43"/>
     </row>
     <row r="24" spans="1:146" ht="15" customHeight="1">
-      <c r="A24" s="322"/>
-      <c r="B24" s="324"/>
-      <c r="C24" s="326"/>
-      <c r="D24" s="328"/>
-      <c r="E24" s="330"/>
+      <c r="A24" s="283"/>
+      <c r="B24" s="284"/>
+      <c r="C24" s="285"/>
+      <c r="D24" s="286"/>
+      <c r="E24" s="287"/>
       <c r="F24" s="85"/>
       <c r="G24" s="86"/>
       <c r="H24" s="86"/>
       <c r="I24" s="86"/>
-      <c r="J24" s="381"/>
-      <c r="K24" s="382"/>
-      <c r="L24" s="382"/>
-      <c r="M24" s="383"/>
-      <c r="N24" s="384"/>
-      <c r="O24" s="384"/>
-      <c r="P24" s="384"/>
-      <c r="Q24" s="384"/>
-      <c r="R24" s="382"/>
-      <c r="S24" s="382"/>
-      <c r="T24" s="384"/>
-      <c r="U24" s="384"/>
-      <c r="V24" s="384"/>
-      <c r="W24" s="384"/>
-      <c r="X24" s="384"/>
-      <c r="Y24" s="382"/>
-      <c r="Z24" s="382"/>
-      <c r="AA24" s="384"/>
-      <c r="AB24" s="384"/>
-      <c r="AC24" s="384"/>
-      <c r="AD24" s="384"/>
-      <c r="AE24" s="384"/>
-      <c r="AF24" s="382"/>
-      <c r="AG24" s="382"/>
-      <c r="AH24" s="384"/>
-      <c r="AI24" s="384"/>
-      <c r="AJ24" s="384"/>
-      <c r="AK24" s="384"/>
-      <c r="AL24" s="384"/>
-      <c r="AM24" s="382"/>
-      <c r="AN24" s="382"/>
-      <c r="AO24" s="384"/>
-      <c r="AP24" s="384"/>
-      <c r="AQ24" s="384"/>
-      <c r="AR24" s="384"/>
-      <c r="AS24" s="384"/>
-      <c r="AT24" s="382"/>
-      <c r="AU24" s="382"/>
-      <c r="AV24" s="384"/>
-      <c r="AW24" s="384"/>
-      <c r="AX24" s="384"/>
-      <c r="AY24" s="384"/>
-      <c r="AZ24" s="384"/>
-      <c r="BA24" s="382"/>
-      <c r="BB24" s="382"/>
-      <c r="BC24" s="384"/>
-      <c r="BD24" s="384"/>
-      <c r="BE24" s="384"/>
-      <c r="BF24" s="384"/>
-      <c r="BG24" s="384"/>
-      <c r="BH24" s="382"/>
-      <c r="BI24" s="382"/>
-      <c r="BJ24" s="384"/>
-      <c r="BK24" s="384"/>
-      <c r="BL24" s="384"/>
-      <c r="BM24" s="384"/>
-      <c r="BN24" s="384"/>
-      <c r="BO24" s="382"/>
-      <c r="BP24" s="382"/>
-      <c r="BQ24" s="384"/>
-      <c r="BR24" s="384"/>
-      <c r="BS24" s="384"/>
-      <c r="BT24" s="384"/>
-      <c r="BU24" s="384"/>
-      <c r="BV24" s="382"/>
-      <c r="BW24" s="382"/>
-      <c r="BX24" s="384"/>
-      <c r="BY24" s="384"/>
-      <c r="BZ24" s="384"/>
-      <c r="CA24" s="384"/>
-      <c r="CB24" s="384"/>
-      <c r="CC24" s="382"/>
-      <c r="CD24" s="382"/>
-      <c r="CE24" s="384"/>
-      <c r="CF24" s="384"/>
-      <c r="CG24" s="384"/>
-      <c r="CH24" s="384"/>
-      <c r="CI24" s="384"/>
-      <c r="CJ24" s="382"/>
-      <c r="CK24" s="382"/>
-      <c r="CL24" s="384"/>
-      <c r="CM24" s="384"/>
-      <c r="CN24" s="384"/>
-      <c r="CO24" s="384"/>
-      <c r="CP24" s="384"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="178"/>
+      <c r="M24" s="179"/>
+      <c r="N24" s="180"/>
+      <c r="O24" s="180"/>
+      <c r="P24" s="180"/>
+      <c r="Q24" s="180"/>
+      <c r="R24" s="178"/>
+      <c r="S24" s="178"/>
+      <c r="T24" s="180"/>
+      <c r="U24" s="180"/>
+      <c r="V24" s="180"/>
+      <c r="W24" s="180"/>
+      <c r="X24" s="180"/>
+      <c r="Y24" s="178"/>
+      <c r="Z24" s="178"/>
+      <c r="AA24" s="180"/>
+      <c r="AB24" s="180"/>
+      <c r="AC24" s="180"/>
+      <c r="AD24" s="180"/>
+      <c r="AE24" s="180"/>
+      <c r="AF24" s="178"/>
+      <c r="AG24" s="178"/>
+      <c r="AH24" s="180"/>
+      <c r="AI24" s="180"/>
+      <c r="AJ24" s="180"/>
+      <c r="AK24" s="180"/>
+      <c r="AL24" s="180"/>
+      <c r="AM24" s="178"/>
+      <c r="AN24" s="178"/>
+      <c r="AO24" s="180"/>
+      <c r="AP24" s="180"/>
+      <c r="AQ24" s="180"/>
+      <c r="AR24" s="180"/>
+      <c r="AS24" s="180"/>
+      <c r="AT24" s="178"/>
+      <c r="AU24" s="178"/>
+      <c r="AV24" s="180"/>
+      <c r="AW24" s="180"/>
+      <c r="AX24" s="180"/>
+      <c r="AY24" s="180"/>
+      <c r="AZ24" s="180"/>
+      <c r="BA24" s="178"/>
+      <c r="BB24" s="178"/>
+      <c r="BC24" s="180"/>
+      <c r="BD24" s="180"/>
+      <c r="BE24" s="180"/>
+      <c r="BF24" s="180"/>
+      <c r="BG24" s="180"/>
+      <c r="BH24" s="178"/>
+      <c r="BI24" s="178"/>
+      <c r="BJ24" s="180"/>
+      <c r="BK24" s="180"/>
+      <c r="BL24" s="180"/>
+      <c r="BM24" s="180"/>
+      <c r="BN24" s="180"/>
+      <c r="BO24" s="178"/>
+      <c r="BP24" s="178"/>
+      <c r="BQ24" s="180"/>
+      <c r="BR24" s="180"/>
+      <c r="BS24" s="180"/>
+      <c r="BT24" s="180"/>
+      <c r="BU24" s="180"/>
+      <c r="BV24" s="178"/>
+      <c r="BW24" s="178"/>
+      <c r="BX24" s="180"/>
+      <c r="BY24" s="180"/>
+      <c r="BZ24" s="180"/>
+      <c r="CA24" s="180"/>
+      <c r="CB24" s="180"/>
+      <c r="CC24" s="178"/>
+      <c r="CD24" s="178"/>
+      <c r="CE24" s="180"/>
+      <c r="CF24" s="180"/>
+      <c r="CG24" s="180"/>
+      <c r="CH24" s="180"/>
+      <c r="CI24" s="180"/>
+      <c r="CJ24" s="178"/>
+      <c r="CK24" s="178"/>
+      <c r="CL24" s="180"/>
+      <c r="CM24" s="180"/>
+      <c r="CN24" s="180"/>
+      <c r="CO24" s="180"/>
+      <c r="CP24" s="180"/>
       <c r="CQ24" s="88"/>
       <c r="CR24" s="88"/>
       <c r="CS24" s="86"/>
@@ -26350,11 +26488,11 @@
       <c r="EP24" s="43"/>
     </row>
     <row r="25" spans="1:146">
-      <c r="A25" s="332"/>
-      <c r="B25" s="333"/>
-      <c r="C25" s="334"/>
-      <c r="D25" s="335"/>
-      <c r="E25" s="336"/>
+      <c r="A25" s="273"/>
+      <c r="B25" s="275"/>
+      <c r="C25" s="277"/>
+      <c r="D25" s="279"/>
+      <c r="E25" s="281"/>
       <c r="F25" s="91"/>
       <c r="G25" s="92"/>
       <c r="H25" s="92"/>
@@ -26498,11 +26636,11 @@
       <c r="EP25" s="43"/>
     </row>
     <row r="26" spans="1:146">
-      <c r="A26" s="322"/>
-      <c r="B26" s="324"/>
-      <c r="C26" s="326"/>
-      <c r="D26" s="328"/>
-      <c r="E26" s="330"/>
+      <c r="A26" s="283"/>
+      <c r="B26" s="284"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="286"/>
+      <c r="E26" s="287"/>
       <c r="F26" s="85"/>
       <c r="G26" s="86"/>
       <c r="H26" s="86"/>
@@ -26646,11 +26784,11 @@
       <c r="EP26" s="43"/>
     </row>
     <row r="27" spans="1:146">
-      <c r="A27" s="332"/>
-      <c r="B27" s="333"/>
-      <c r="C27" s="334"/>
-      <c r="D27" s="335"/>
-      <c r="E27" s="336"/>
+      <c r="A27" s="273"/>
+      <c r="B27" s="275"/>
+      <c r="C27" s="277"/>
+      <c r="D27" s="279"/>
+      <c r="E27" s="281"/>
       <c r="F27" s="91"/>
       <c r="G27" s="92"/>
       <c r="H27" s="92"/>
@@ -26794,11 +26932,11 @@
       <c r="EP27" s="43"/>
     </row>
     <row r="28" spans="1:146">
-      <c r="A28" s="322"/>
-      <c r="B28" s="324"/>
-      <c r="C28" s="326"/>
-      <c r="D28" s="328"/>
-      <c r="E28" s="330"/>
+      <c r="A28" s="283"/>
+      <c r="B28" s="284"/>
+      <c r="C28" s="285"/>
+      <c r="D28" s="286"/>
+      <c r="E28" s="287"/>
       <c r="F28" s="85"/>
       <c r="G28" s="86"/>
       <c r="H28" s="86"/>
@@ -26942,11 +27080,11 @@
       <c r="EP28" s="43"/>
     </row>
     <row r="29" spans="1:146">
-      <c r="A29" s="332"/>
-      <c r="B29" s="333"/>
-      <c r="C29" s="334"/>
-      <c r="D29" s="335"/>
-      <c r="E29" s="336"/>
+      <c r="A29" s="273"/>
+      <c r="B29" s="275"/>
+      <c r="C29" s="277"/>
+      <c r="D29" s="279"/>
+      <c r="E29" s="281"/>
       <c r="F29" s="91"/>
       <c r="G29" s="92"/>
       <c r="H29" s="92"/>
@@ -27090,11 +27228,11 @@
       <c r="EP29" s="43"/>
     </row>
     <row r="30" spans="1:146">
-      <c r="A30" s="322"/>
-      <c r="B30" s="324"/>
-      <c r="C30" s="326"/>
-      <c r="D30" s="328"/>
-      <c r="E30" s="330"/>
+      <c r="A30" s="283"/>
+      <c r="B30" s="284"/>
+      <c r="C30" s="285"/>
+      <c r="D30" s="286"/>
+      <c r="E30" s="287"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
       <c r="H30" s="86"/>
@@ -27238,11 +27376,11 @@
       <c r="EP30" s="43"/>
     </row>
     <row r="31" spans="1:146">
-      <c r="A31" s="332"/>
-      <c r="B31" s="333"/>
-      <c r="C31" s="334"/>
-      <c r="D31" s="335"/>
-      <c r="E31" s="336"/>
+      <c r="A31" s="273"/>
+      <c r="B31" s="275"/>
+      <c r="C31" s="277"/>
+      <c r="D31" s="279"/>
+      <c r="E31" s="281"/>
       <c r="F31" s="91"/>
       <c r="G31" s="92"/>
       <c r="H31" s="92"/>
@@ -27386,11 +27524,11 @@
       <c r="EP31" s="43"/>
     </row>
     <row r="32" spans="1:146">
-      <c r="A32" s="322"/>
-      <c r="B32" s="324"/>
-      <c r="C32" s="326"/>
-      <c r="D32" s="328"/>
-      <c r="E32" s="330"/>
+      <c r="A32" s="283"/>
+      <c r="B32" s="284"/>
+      <c r="C32" s="285"/>
+      <c r="D32" s="286"/>
+      <c r="E32" s="287"/>
       <c r="F32" s="85"/>
       <c r="G32" s="86"/>
       <c r="H32" s="86"/>
@@ -27534,11 +27672,11 @@
       <c r="EP32" s="43"/>
     </row>
     <row r="33" spans="1:146">
-      <c r="A33" s="332"/>
-      <c r="B33" s="333"/>
-      <c r="C33" s="334"/>
-      <c r="D33" s="335"/>
-      <c r="E33" s="336"/>
+      <c r="A33" s="273"/>
+      <c r="B33" s="275"/>
+      <c r="C33" s="277"/>
+      <c r="D33" s="279"/>
+      <c r="E33" s="281"/>
       <c r="F33" s="91"/>
       <c r="G33" s="92"/>
       <c r="H33" s="92"/>
@@ -27682,11 +27820,11 @@
       <c r="EP33" s="43"/>
     </row>
     <row r="34" spans="1:146">
-      <c r="A34" s="322"/>
-      <c r="B34" s="324"/>
-      <c r="C34" s="326"/>
-      <c r="D34" s="328"/>
-      <c r="E34" s="330"/>
+      <c r="A34" s="283"/>
+      <c r="B34" s="284"/>
+      <c r="C34" s="285"/>
+      <c r="D34" s="286"/>
+      <c r="E34" s="287"/>
       <c r="F34" s="85"/>
       <c r="G34" s="86"/>
       <c r="H34" s="86"/>
@@ -27830,11 +27968,11 @@
       <c r="EP34" s="43"/>
     </row>
     <row r="35" spans="1:146">
-      <c r="A35" s="332"/>
-      <c r="B35" s="333"/>
-      <c r="C35" s="334"/>
-      <c r="D35" s="335"/>
-      <c r="E35" s="336"/>
+      <c r="A35" s="273"/>
+      <c r="B35" s="275"/>
+      <c r="C35" s="277"/>
+      <c r="D35" s="279"/>
+      <c r="E35" s="281"/>
       <c r="F35" s="91"/>
       <c r="G35" s="92"/>
       <c r="H35" s="92"/>
@@ -27978,11 +28116,11 @@
       <c r="EP35" s="43"/>
     </row>
     <row r="36" spans="1:146">
-      <c r="A36" s="322"/>
-      <c r="B36" s="324"/>
-      <c r="C36" s="326"/>
-      <c r="D36" s="328"/>
-      <c r="E36" s="330"/>
+      <c r="A36" s="283"/>
+      <c r="B36" s="284"/>
+      <c r="C36" s="285"/>
+      <c r="D36" s="286"/>
+      <c r="E36" s="287"/>
       <c r="F36" s="85"/>
       <c r="G36" s="86"/>
       <c r="H36" s="86"/>
@@ -28126,11 +28264,11 @@
       <c r="EP36" s="43"/>
     </row>
     <row r="37" spans="1:146">
-      <c r="A37" s="332"/>
-      <c r="B37" s="333"/>
-      <c r="C37" s="334"/>
-      <c r="D37" s="335"/>
-      <c r="E37" s="336"/>
+      <c r="A37" s="273"/>
+      <c r="B37" s="275"/>
+      <c r="C37" s="277"/>
+      <c r="D37" s="279"/>
+      <c r="E37" s="281"/>
       <c r="F37" s="91"/>
       <c r="G37" s="92"/>
       <c r="H37" s="92"/>
@@ -28274,11 +28412,11 @@
       <c r="EP37" s="43"/>
     </row>
     <row r="38" spans="1:146">
-      <c r="A38" s="322"/>
-      <c r="B38" s="324"/>
-      <c r="C38" s="326"/>
-      <c r="D38" s="328"/>
-      <c r="E38" s="330"/>
+      <c r="A38" s="283"/>
+      <c r="B38" s="284"/>
+      <c r="C38" s="285"/>
+      <c r="D38" s="286"/>
+      <c r="E38" s="287"/>
       <c r="F38" s="85"/>
       <c r="G38" s="86"/>
       <c r="H38" s="86"/>
@@ -28422,11 +28560,11 @@
       <c r="EP38" s="43"/>
     </row>
     <row r="39" spans="1:146">
-      <c r="A39" s="332"/>
-      <c r="B39" s="333"/>
-      <c r="C39" s="334"/>
-      <c r="D39" s="335"/>
-      <c r="E39" s="336"/>
+      <c r="A39" s="273"/>
+      <c r="B39" s="275"/>
+      <c r="C39" s="277"/>
+      <c r="D39" s="279"/>
+      <c r="E39" s="281"/>
       <c r="F39" s="91"/>
       <c r="G39" s="92"/>
       <c r="H39" s="92"/>
@@ -28570,11 +28708,11 @@
       <c r="EP39" s="43"/>
     </row>
     <row r="40" spans="1:146">
-      <c r="A40" s="322"/>
-      <c r="B40" s="324"/>
-      <c r="C40" s="326"/>
-      <c r="D40" s="328"/>
-      <c r="E40" s="330"/>
+      <c r="A40" s="283"/>
+      <c r="B40" s="284"/>
+      <c r="C40" s="285"/>
+      <c r="D40" s="286"/>
+      <c r="E40" s="287"/>
       <c r="F40" s="85"/>
       <c r="G40" s="86"/>
       <c r="H40" s="86"/>
@@ -28718,11 +28856,11 @@
       <c r="EP40" s="43"/>
     </row>
     <row r="41" spans="1:146">
-      <c r="A41" s="332"/>
-      <c r="B41" s="333"/>
-      <c r="C41" s="334"/>
-      <c r="D41" s="335"/>
-      <c r="E41" s="336"/>
+      <c r="A41" s="273"/>
+      <c r="B41" s="275"/>
+      <c r="C41" s="277"/>
+      <c r="D41" s="279"/>
+      <c r="E41" s="281"/>
       <c r="F41" s="91"/>
       <c r="G41" s="92"/>
       <c r="H41" s="92"/>
@@ -28866,11 +29004,11 @@
       <c r="EP41" s="43"/>
     </row>
     <row r="42" spans="1:146">
-      <c r="A42" s="322"/>
-      <c r="B42" s="324"/>
-      <c r="C42" s="326"/>
-      <c r="D42" s="328"/>
-      <c r="E42" s="330"/>
+      <c r="A42" s="283"/>
+      <c r="B42" s="284"/>
+      <c r="C42" s="285"/>
+      <c r="D42" s="286"/>
+      <c r="E42" s="287"/>
       <c r="F42" s="85"/>
       <c r="G42" s="86"/>
       <c r="H42" s="86"/>
@@ -29014,11 +29152,11 @@
       <c r="EP42" s="43"/>
     </row>
     <row r="43" spans="1:146">
-      <c r="A43" s="332"/>
-      <c r="B43" s="333"/>
-      <c r="C43" s="334"/>
-      <c r="D43" s="335"/>
-      <c r="E43" s="336"/>
+      <c r="A43" s="273"/>
+      <c r="B43" s="275"/>
+      <c r="C43" s="277"/>
+      <c r="D43" s="279"/>
+      <c r="E43" s="281"/>
       <c r="F43" s="91"/>
       <c r="G43" s="92"/>
       <c r="H43" s="92"/>
@@ -29162,11 +29300,11 @@
       <c r="EP43" s="43"/>
     </row>
     <row r="44" spans="1:146">
-      <c r="A44" s="322"/>
-      <c r="B44" s="324"/>
-      <c r="C44" s="326"/>
-      <c r="D44" s="328"/>
-      <c r="E44" s="330"/>
+      <c r="A44" s="283"/>
+      <c r="B44" s="284"/>
+      <c r="C44" s="285"/>
+      <c r="D44" s="286"/>
+      <c r="E44" s="287"/>
       <c r="F44" s="85"/>
       <c r="G44" s="86"/>
       <c r="H44" s="86"/>
@@ -29310,11 +29448,11 @@
       <c r="EP44" s="43"/>
     </row>
     <row r="45" spans="1:146">
-      <c r="A45" s="332"/>
-      <c r="B45" s="333"/>
-      <c r="C45" s="334"/>
-      <c r="D45" s="335"/>
-      <c r="E45" s="336"/>
+      <c r="A45" s="273"/>
+      <c r="B45" s="275"/>
+      <c r="C45" s="277"/>
+      <c r="D45" s="279"/>
+      <c r="E45" s="281"/>
       <c r="F45" s="91"/>
       <c r="G45" s="92"/>
       <c r="H45" s="92"/>
@@ -29458,11 +29596,11 @@
       <c r="EP45" s="43"/>
     </row>
     <row r="46" spans="1:146">
-      <c r="A46" s="322"/>
-      <c r="B46" s="324"/>
-      <c r="C46" s="326"/>
-      <c r="D46" s="328"/>
-      <c r="E46" s="330"/>
+      <c r="A46" s="283"/>
+      <c r="B46" s="284"/>
+      <c r="C46" s="285"/>
+      <c r="D46" s="286"/>
+      <c r="E46" s="287"/>
       <c r="F46" s="85"/>
       <c r="G46" s="86"/>
       <c r="H46" s="86"/>
@@ -29606,11 +29744,11 @@
       <c r="EP46" s="43"/>
     </row>
     <row r="47" spans="1:146">
-      <c r="A47" s="332"/>
-      <c r="B47" s="333"/>
-      <c r="C47" s="334"/>
-      <c r="D47" s="335"/>
-      <c r="E47" s="336"/>
+      <c r="A47" s="273"/>
+      <c r="B47" s="275"/>
+      <c r="C47" s="277"/>
+      <c r="D47" s="279"/>
+      <c r="E47" s="281"/>
       <c r="F47" s="91"/>
       <c r="G47" s="92"/>
       <c r="H47" s="92"/>
@@ -29754,11 +29892,11 @@
       <c r="EP47" s="43"/>
     </row>
     <row r="48" spans="1:146">
-      <c r="A48" s="322"/>
-      <c r="B48" s="324"/>
-      <c r="C48" s="326"/>
-      <c r="D48" s="328"/>
-      <c r="E48" s="330"/>
+      <c r="A48" s="283"/>
+      <c r="B48" s="284"/>
+      <c r="C48" s="285"/>
+      <c r="D48" s="286"/>
+      <c r="E48" s="287"/>
       <c r="F48" s="85"/>
       <c r="G48" s="86"/>
       <c r="H48" s="86"/>
@@ -29902,11 +30040,11 @@
       <c r="EP48" s="43"/>
     </row>
     <row r="49" spans="1:146">
-      <c r="A49" s="332"/>
-      <c r="B49" s="333"/>
-      <c r="C49" s="334"/>
-      <c r="D49" s="335"/>
-      <c r="E49" s="336"/>
+      <c r="A49" s="273"/>
+      <c r="B49" s="275"/>
+      <c r="C49" s="277"/>
+      <c r="D49" s="279"/>
+      <c r="E49" s="281"/>
       <c r="F49" s="91"/>
       <c r="G49" s="92"/>
       <c r="H49" s="92"/>
@@ -30050,11 +30188,11 @@
       <c r="EP49" s="43"/>
     </row>
     <row r="50" spans="1:146">
-      <c r="A50" s="322"/>
-      <c r="B50" s="324"/>
-      <c r="C50" s="326"/>
-      <c r="D50" s="328"/>
-      <c r="E50" s="330"/>
+      <c r="A50" s="283"/>
+      <c r="B50" s="284"/>
+      <c r="C50" s="285"/>
+      <c r="D50" s="286"/>
+      <c r="E50" s="287"/>
       <c r="F50" s="85"/>
       <c r="G50" s="86"/>
       <c r="H50" s="86"/>
@@ -30198,11 +30336,11 @@
       <c r="EP50" s="43"/>
     </row>
     <row r="51" spans="1:146">
-      <c r="A51" s="332"/>
-      <c r="B51" s="333"/>
-      <c r="C51" s="334"/>
-      <c r="D51" s="335"/>
-      <c r="E51" s="336"/>
+      <c r="A51" s="273"/>
+      <c r="B51" s="275"/>
+      <c r="C51" s="277"/>
+      <c r="D51" s="279"/>
+      <c r="E51" s="281"/>
       <c r="F51" s="91"/>
       <c r="G51" s="92"/>
       <c r="H51" s="92"/>
@@ -30346,11 +30484,11 @@
       <c r="EP51" s="43"/>
     </row>
     <row r="52" spans="1:146">
-      <c r="A52" s="322"/>
-      <c r="B52" s="324"/>
-      <c r="C52" s="326"/>
-      <c r="D52" s="328"/>
-      <c r="E52" s="330"/>
+      <c r="A52" s="283"/>
+      <c r="B52" s="284"/>
+      <c r="C52" s="285"/>
+      <c r="D52" s="286"/>
+      <c r="E52" s="287"/>
       <c r="F52" s="85"/>
       <c r="G52" s="86"/>
       <c r="H52" s="86"/>
@@ -30494,11 +30632,11 @@
       <c r="EP52" s="43"/>
     </row>
     <row r="53" spans="1:146">
-      <c r="A53" s="332"/>
-      <c r="B53" s="333"/>
-      <c r="C53" s="334"/>
-      <c r="D53" s="335"/>
-      <c r="E53" s="336"/>
+      <c r="A53" s="273"/>
+      <c r="B53" s="275"/>
+      <c r="C53" s="277"/>
+      <c r="D53" s="279"/>
+      <c r="E53" s="281"/>
       <c r="F53" s="91"/>
       <c r="G53" s="92"/>
       <c r="H53" s="92"/>
@@ -30642,11 +30780,11 @@
       <c r="EP53" s="43"/>
     </row>
     <row r="54" spans="1:146">
-      <c r="A54" s="322"/>
-      <c r="B54" s="324"/>
-      <c r="C54" s="326"/>
-      <c r="D54" s="328"/>
-      <c r="E54" s="330"/>
+      <c r="A54" s="283"/>
+      <c r="B54" s="284"/>
+      <c r="C54" s="285"/>
+      <c r="D54" s="286"/>
+      <c r="E54" s="287"/>
       <c r="F54" s="85"/>
       <c r="G54" s="86"/>
       <c r="H54" s="86"/>
@@ -30790,11 +30928,11 @@
       <c r="EP54" s="43"/>
     </row>
     <row r="55" spans="1:146">
-      <c r="A55" s="332"/>
-      <c r="B55" s="333"/>
-      <c r="C55" s="334"/>
-      <c r="D55" s="335"/>
-      <c r="E55" s="336"/>
+      <c r="A55" s="273"/>
+      <c r="B55" s="275"/>
+      <c r="C55" s="277"/>
+      <c r="D55" s="279"/>
+      <c r="E55" s="281"/>
       <c r="F55" s="91"/>
       <c r="G55" s="92"/>
       <c r="H55" s="92"/>
@@ -30938,11 +31076,11 @@
       <c r="EP55" s="43"/>
     </row>
     <row r="56" spans="1:146">
-      <c r="A56" s="322"/>
-      <c r="B56" s="324"/>
-      <c r="C56" s="326"/>
-      <c r="D56" s="328"/>
-      <c r="E56" s="330"/>
+      <c r="A56" s="283"/>
+      <c r="B56" s="284"/>
+      <c r="C56" s="285"/>
+      <c r="D56" s="286"/>
+      <c r="E56" s="287"/>
       <c r="F56" s="85"/>
       <c r="G56" s="86"/>
       <c r="H56" s="86"/>
@@ -31086,11 +31224,11 @@
       <c r="EP56" s="43"/>
     </row>
     <row r="57" spans="1:146">
-      <c r="A57" s="332"/>
-      <c r="B57" s="333"/>
-      <c r="C57" s="334"/>
-      <c r="D57" s="335"/>
-      <c r="E57" s="336"/>
+      <c r="A57" s="273"/>
+      <c r="B57" s="275"/>
+      <c r="C57" s="277"/>
+      <c r="D57" s="279"/>
+      <c r="E57" s="281"/>
       <c r="F57" s="91"/>
       <c r="G57" s="92"/>
       <c r="H57" s="92"/>
@@ -31234,11 +31372,11 @@
       <c r="EP57" s="43"/>
     </row>
     <row r="58" spans="1:146">
-      <c r="A58" s="322"/>
-      <c r="B58" s="324"/>
-      <c r="C58" s="326"/>
-      <c r="D58" s="328"/>
-      <c r="E58" s="330"/>
+      <c r="A58" s="283"/>
+      <c r="B58" s="284"/>
+      <c r="C58" s="285"/>
+      <c r="D58" s="286"/>
+      <c r="E58" s="287"/>
       <c r="F58" s="85"/>
       <c r="G58" s="86"/>
       <c r="H58" s="86"/>
@@ -31382,11 +31520,11 @@
       <c r="EP58" s="43"/>
     </row>
     <row r="59" spans="1:146">
-      <c r="A59" s="332"/>
-      <c r="B59" s="333"/>
-      <c r="C59" s="334"/>
-      <c r="D59" s="335"/>
-      <c r="E59" s="336"/>
+      <c r="A59" s="273"/>
+      <c r="B59" s="275"/>
+      <c r="C59" s="277"/>
+      <c r="D59" s="279"/>
+      <c r="E59" s="281"/>
       <c r="F59" s="91"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
@@ -31530,11 +31668,11 @@
       <c r="EP59" s="43"/>
     </row>
     <row r="60" spans="1:146">
-      <c r="A60" s="322"/>
-      <c r="B60" s="324"/>
-      <c r="C60" s="326"/>
-      <c r="D60" s="328"/>
-      <c r="E60" s="330"/>
+      <c r="A60" s="283"/>
+      <c r="B60" s="284"/>
+      <c r="C60" s="285"/>
+      <c r="D60" s="286"/>
+      <c r="E60" s="287"/>
       <c r="F60" s="85"/>
       <c r="G60" s="86"/>
       <c r="H60" s="86"/>
@@ -31678,11 +31816,11 @@
       <c r="EP60" s="43"/>
     </row>
     <row r="61" spans="1:146">
-      <c r="A61" s="332"/>
-      <c r="B61" s="333"/>
-      <c r="C61" s="334"/>
-      <c r="D61" s="335"/>
-      <c r="E61" s="336"/>
+      <c r="A61" s="273"/>
+      <c r="B61" s="275"/>
+      <c r="C61" s="277"/>
+      <c r="D61" s="279"/>
+      <c r="E61" s="281"/>
       <c r="F61" s="91"/>
       <c r="G61" s="92"/>
       <c r="H61" s="92"/>
@@ -31826,11 +31964,11 @@
       <c r="EP61" s="43"/>
     </row>
     <row r="62" spans="1:146">
-      <c r="A62" s="322"/>
-      <c r="B62" s="324"/>
-      <c r="C62" s="326"/>
-      <c r="D62" s="328"/>
-      <c r="E62" s="330"/>
+      <c r="A62" s="283"/>
+      <c r="B62" s="284"/>
+      <c r="C62" s="285"/>
+      <c r="D62" s="286"/>
+      <c r="E62" s="287"/>
       <c r="F62" s="85"/>
       <c r="G62" s="86"/>
       <c r="H62" s="86"/>
@@ -31974,11 +32112,11 @@
       <c r="EP62" s="43"/>
     </row>
     <row r="63" spans="1:146">
-      <c r="A63" s="332"/>
-      <c r="B63" s="333"/>
-      <c r="C63" s="334"/>
-      <c r="D63" s="335"/>
-      <c r="E63" s="336"/>
+      <c r="A63" s="273"/>
+      <c r="B63" s="275"/>
+      <c r="C63" s="277"/>
+      <c r="D63" s="279"/>
+      <c r="E63" s="281"/>
       <c r="F63" s="91"/>
       <c r="G63" s="92"/>
       <c r="H63" s="92"/>
@@ -32122,11 +32260,11 @@
       <c r="EP63" s="43"/>
     </row>
     <row r="64" spans="1:146">
-      <c r="A64" s="322"/>
-      <c r="B64" s="324"/>
-      <c r="C64" s="326"/>
-      <c r="D64" s="328"/>
-      <c r="E64" s="330"/>
+      <c r="A64" s="283"/>
+      <c r="B64" s="284"/>
+      <c r="C64" s="285"/>
+      <c r="D64" s="286"/>
+      <c r="E64" s="287"/>
       <c r="F64" s="85"/>
       <c r="G64" s="86"/>
       <c r="H64" s="86"/>
@@ -32270,11 +32408,11 @@
       <c r="EP64" s="43"/>
     </row>
     <row r="65" spans="1:146">
-      <c r="A65" s="332"/>
-      <c r="B65" s="333"/>
-      <c r="C65" s="334"/>
-      <c r="D65" s="335"/>
-      <c r="E65" s="336"/>
+      <c r="A65" s="273"/>
+      <c r="B65" s="275"/>
+      <c r="C65" s="277"/>
+      <c r="D65" s="279"/>
+      <c r="E65" s="281"/>
       <c r="F65" s="91"/>
       <c r="G65" s="92"/>
       <c r="H65" s="92"/>
@@ -32418,11 +32556,11 @@
       <c r="EP65" s="43"/>
     </row>
     <row r="66" spans="1:146" ht="15.75" thickBot="1">
-      <c r="A66" s="341"/>
-      <c r="B66" s="342"/>
-      <c r="C66" s="343"/>
-      <c r="D66" s="344"/>
-      <c r="E66" s="345"/>
+      <c r="A66" s="274"/>
+      <c r="B66" s="276"/>
+      <c r="C66" s="278"/>
+      <c r="D66" s="280"/>
+      <c r="E66" s="282"/>
       <c r="F66" s="98"/>
       <c r="G66" s="99"/>
       <c r="H66" s="99"/>
@@ -34217,151 +34355,6 @@
     </row>
   </sheetData>
   <mergeCells count="165">
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A4:DF4"/>
     <mergeCell ref="DG4:EO4"/>
     <mergeCell ref="A5:A8"/>
@@ -34382,6 +34375,151 @@
     <mergeCell ref="AJ2:AT2"/>
     <mergeCell ref="AU2:BG2"/>
     <mergeCell ref="BJ2:CG2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34397,8 +34535,8 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -34433,37 +34571,37 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="357" t="s">
+      <c r="A3" s="360" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="358"/>
-      <c r="C3" s="359" t="s">
+      <c r="B3" s="361"/>
+      <c r="C3" s="362" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="359"/>
-      <c r="E3" s="360"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="363"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="41.25" customHeight="1">
-      <c r="A4" s="361" t="s">
+      <c r="A4" s="364" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="362"/>
-      <c r="C4" s="363" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="364"/>
-      <c r="E4" s="365"/>
+      <c r="B4" s="365"/>
+      <c r="C4" s="366" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="367"/>
+      <c r="E4" s="368"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="372" t="s">
+      <c r="A5" s="375" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="373"/>
-      <c r="C5" s="370"/>
-      <c r="D5" s="370"/>
-      <c r="E5" s="371"/>
+      <c r="B5" s="376"/>
+      <c r="C5" s="373"/>
+      <c r="D5" s="373"/>
+      <c r="E5" s="374"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1">
@@ -34475,34 +34613,34 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A7" s="366" t="s">
+      <c r="A7" s="369" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="368" t="s">
+      <c r="B7" s="371" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="368"/>
+      <c r="C7" s="371"/>
       <c r="D7" s="135" t="s">
         <v>144</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="350" t="s">
+      <c r="F7" s="377" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="351"/>
-      <c r="H7" s="352"/>
-      <c r="I7" s="353" t="s">
+      <c r="G7" s="378"/>
+      <c r="H7" s="379"/>
+      <c r="I7" s="380" t="s">
         <v>145</v>
       </c>
-      <c r="J7" s="354"/>
-      <c r="K7" s="355"/>
+      <c r="J7" s="381"/>
+      <c r="K7" s="382"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A8" s="367"/>
-      <c r="B8" s="369"/>
-      <c r="C8" s="369"/>
+      <c r="A8" s="370"/>
+      <c r="B8" s="372"/>
+      <c r="C8" s="372"/>
       <c r="D8" s="136" t="s">
         <v>0</v>
       </c>
@@ -34532,10 +34670,10 @@
       <c r="A9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="356" t="s">
-        <v>285</v>
-      </c>
-      <c r="C9" s="356"/>
+      <c r="B9" s="386" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="386"/>
       <c r="D9" s="24">
         <v>70</v>
       </c>
@@ -34543,11 +34681,11 @@
         <v>10</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="28" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I9" s="29"/>
       <c r="J9" s="30"/>
@@ -34557,10 +34695,10 @@
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="346" t="s">
-        <v>263</v>
-      </c>
-      <c r="C10" s="346"/>
+      <c r="B10" s="385" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="385"/>
       <c r="D10" s="5">
         <v>30</v>
       </c>
@@ -34568,11 +34706,11 @@
         <v>4</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="28" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="17"/>
@@ -34582,10 +34720,10 @@
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="346" t="s">
-        <v>265</v>
-      </c>
-      <c r="C11" s="346"/>
+      <c r="B11" s="385" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="385"/>
       <c r="D11" s="5">
         <v>25</v>
       </c>
@@ -34593,11 +34731,11 @@
         <v>7</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="171" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="17"/>
@@ -34607,10 +34745,10 @@
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="346" t="s">
-        <v>266</v>
-      </c>
-      <c r="C12" s="346"/>
+      <c r="B12" s="385" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="385"/>
       <c r="D12" s="5">
         <v>50</v>
       </c>
@@ -34618,30 +34756,30 @@
         <v>6</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="171" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="346" t="s">
-        <v>274</v>
-      </c>
-      <c r="C13" s="346"/>
+      <c r="B13" s="385" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="385"/>
       <c r="D13" s="5">
         <v>25</v>
       </c>
@@ -34649,30 +34787,30 @@
         <v>7</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="171" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="346" t="s">
-        <v>276</v>
-      </c>
-      <c r="C14" s="346"/>
+      <c r="B14" s="385" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="385"/>
       <c r="D14" s="5">
         <v>20</v>
       </c>
@@ -34680,30 +34818,30 @@
         <v>8</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="15" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="346" t="s">
-        <v>281</v>
-      </c>
-      <c r="C15" s="346"/>
+      <c r="B15" s="385" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="385"/>
       <c r="D15" s="5">
         <v>70</v>
       </c>
@@ -34711,30 +34849,36 @@
         <v>8</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="15" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="346"/>
-      <c r="C16" s="346"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="134"/>
+      <c r="B16" s="385" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="385"/>
+      <c r="D16" s="5">
+        <v>85</v>
+      </c>
+      <c r="E16" s="134">
+        <v>5</v>
+      </c>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
       <c r="H16" s="15"/>
@@ -34746,8 +34890,8 @@
       <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="346"/>
-      <c r="C17" s="346"/>
+      <c r="B17" s="385"/>
+      <c r="C17" s="385"/>
       <c r="D17" s="5"/>
       <c r="E17" s="134"/>
       <c r="F17" s="12"/>
@@ -34761,8 +34905,8 @@
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="348"/>
-      <c r="C18" s="349"/>
+      <c r="B18" s="383"/>
+      <c r="C18" s="384"/>
       <c r="D18" s="5"/>
       <c r="E18" s="134"/>
       <c r="F18" s="12"/>
@@ -34776,8 +34920,8 @@
       <c r="A19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="348"/>
-      <c r="C19" s="349"/>
+      <c r="B19" s="383"/>
+      <c r="C19" s="384"/>
       <c r="D19" s="5"/>
       <c r="E19" s="134"/>
       <c r="F19" s="12"/>
@@ -34791,8 +34935,8 @@
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="348"/>
-      <c r="C20" s="349"/>
+      <c r="B20" s="383"/>
+      <c r="C20" s="384"/>
       <c r="D20" s="5"/>
       <c r="E20" s="134"/>
       <c r="F20" s="12"/>
@@ -34806,8 +34950,8 @@
       <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="348"/>
-      <c r="C21" s="349"/>
+      <c r="B21" s="383"/>
+      <c r="C21" s="384"/>
       <c r="D21" s="5"/>
       <c r="E21" s="134"/>
       <c r="F21" s="12"/>
@@ -34821,8 +34965,8 @@
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="348"/>
-      <c r="C22" s="349"/>
+      <c r="B22" s="383"/>
+      <c r="C22" s="384"/>
       <c r="D22" s="5"/>
       <c r="E22" s="134"/>
       <c r="F22" s="12"/>
@@ -34836,8 +34980,8 @@
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="346"/>
-      <c r="C23" s="346"/>
+      <c r="B23" s="385"/>
+      <c r="C23" s="385"/>
       <c r="D23" s="5"/>
       <c r="E23" s="134"/>
       <c r="F23" s="12"/>
@@ -34851,8 +34995,8 @@
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="348"/>
-      <c r="C24" s="349"/>
+      <c r="B24" s="383"/>
+      <c r="C24" s="384"/>
       <c r="D24" s="5"/>
       <c r="E24" s="134"/>
       <c r="F24" s="12"/>
@@ -34866,8 +35010,8 @@
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="348"/>
-      <c r="C25" s="349"/>
+      <c r="B25" s="383"/>
+      <c r="C25" s="384"/>
       <c r="D25" s="5"/>
       <c r="E25" s="134"/>
       <c r="F25" s="12"/>
@@ -34881,8 +35025,8 @@
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="348"/>
-      <c r="C26" s="349"/>
+      <c r="B26" s="383"/>
+      <c r="C26" s="384"/>
       <c r="D26" s="5"/>
       <c r="E26" s="134"/>
       <c r="F26" s="12"/>
@@ -34896,8 +35040,8 @@
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="348"/>
-      <c r="C27" s="349"/>
+      <c r="B27" s="383"/>
+      <c r="C27" s="384"/>
       <c r="D27" s="5"/>
       <c r="E27" s="134"/>
       <c r="F27" s="12"/>
@@ -34911,8 +35055,8 @@
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="348"/>
-      <c r="C28" s="349"/>
+      <c r="B28" s="383"/>
+      <c r="C28" s="384"/>
       <c r="D28" s="5"/>
       <c r="E28" s="134"/>
       <c r="F28" s="12"/>
@@ -34926,8 +35070,8 @@
       <c r="A29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="346"/>
-      <c r="C29" s="346"/>
+      <c r="B29" s="385"/>
+      <c r="C29" s="385"/>
       <c r="D29" s="5"/>
       <c r="E29" s="134"/>
       <c r="F29" s="12"/>
@@ -34941,8 +35085,8 @@
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="346"/>
-      <c r="C30" s="346"/>
+      <c r="B30" s="385"/>
+      <c r="C30" s="385"/>
       <c r="D30" s="5"/>
       <c r="E30" s="134"/>
       <c r="F30" s="12"/>
@@ -34956,8 +35100,8 @@
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="346"/>
-      <c r="C31" s="346"/>
+      <c r="B31" s="385"/>
+      <c r="C31" s="385"/>
       <c r="D31" s="5"/>
       <c r="E31" s="134"/>
       <c r="F31" s="12"/>
@@ -34971,8 +35115,8 @@
       <c r="A32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="346"/>
-      <c r="C32" s="346"/>
+      <c r="B32" s="385"/>
+      <c r="C32" s="385"/>
       <c r="D32" s="5"/>
       <c r="E32" s="134"/>
       <c r="F32" s="12"/>
@@ -34986,8 +35130,8 @@
       <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="346"/>
-      <c r="C33" s="346"/>
+      <c r="B33" s="385"/>
+      <c r="C33" s="385"/>
       <c r="D33" s="5"/>
       <c r="E33" s="134"/>
       <c r="F33" s="12"/>
@@ -35001,8 +35145,8 @@
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="346"/>
-      <c r="C34" s="346"/>
+      <c r="B34" s="385"/>
+      <c r="C34" s="385"/>
       <c r="D34" s="5"/>
       <c r="E34" s="134"/>
       <c r="F34" s="12"/>
@@ -35016,8 +35160,8 @@
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="346"/>
-      <c r="C35" s="346"/>
+      <c r="B35" s="385"/>
+      <c r="C35" s="385"/>
       <c r="D35" s="5"/>
       <c r="E35" s="134"/>
       <c r="F35" s="12"/>
@@ -35031,8 +35175,8 @@
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="346"/>
-      <c r="C36" s="346"/>
+      <c r="B36" s="385"/>
+      <c r="C36" s="385"/>
       <c r="D36" s="5"/>
       <c r="E36" s="134"/>
       <c r="F36" s="12"/>
@@ -35046,8 +35190,8 @@
       <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="346"/>
-      <c r="C37" s="346"/>
+      <c r="B37" s="385"/>
+      <c r="C37" s="385"/>
       <c r="D37" s="5"/>
       <c r="E37" s="134"/>
       <c r="F37" s="12"/>
@@ -35061,8 +35205,8 @@
       <c r="A38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="347"/>
-      <c r="C38" s="347"/>
+      <c r="B38" s="387"/>
+      <c r="C38" s="387"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
       <c r="F38" s="13"/>
@@ -35074,14 +35218,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="B18:C18"/>
@@ -35096,24 +35250,14 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>

--- a/Doku/Projektmappe.xlsx
+++ b/Doku/Projektmappe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Inhalt" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="310">
   <si>
     <t>(0-100%)</t>
   </si>
@@ -1178,6 +1178,21 @@
       <t>Den Schaden des Ausfalls kann man durch Zeitpuffer bei der Planung vorbeugen.</t>
     </r>
   </si>
+  <si>
+    <t>Puffer für Abgaben einbauen, Entwickler als Notfalleinsatz einplanen</t>
+  </si>
+  <si>
+    <t>Entwickler wird krank</t>
+  </si>
+  <si>
+    <t>Entwickler fällt dauerhaft aus</t>
+  </si>
+  <si>
+    <t>Anforderungen falsch umgesetzt</t>
+  </si>
+  <si>
+    <t>Kommunikationsprobleme</t>
+  </si>
 </sst>
 </file>
 
@@ -1486,7 +1501,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1681,7 +1696,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3646,7 +3685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="391">
+  <cellXfs count="435">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3936,23 +3975,50 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3987,58 +4053,16 @@
     <xf numFmtId="0" fontId="30" fillId="26" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4050,96 +4074,11 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4159,6 +4098,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4177,10 +4122,89 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="134" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4210,41 +4234,9 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4397,6 +4389,68 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4436,59 +4490,120 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="142" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="143" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="142" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="143" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4562,6 +4677,9 @@
                 <c:pt idx="7">
                   <c:v>85</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4595,6 +4713,9 @@
                 <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4604,11 +4725,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="146635776"/>
-        <c:axId val="146646144"/>
+        <c:axId val="160467968"/>
+        <c:axId val="160474240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146635776"/>
+        <c:axId val="160467968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4639,6 +4760,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -4659,13 +4781,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146646144"/>
+        <c:crossAx val="160474240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146646144"/>
+        <c:axId val="160474240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4695,6 +4817,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -4715,7 +4838,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146635776"/>
+        <c:crossAx val="160467968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -4754,7 +4877,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -12477,7 +12600,7 @@
         <xdr:cNvPr id="7" name="Titel 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12551,7 +12674,7 @@
         <xdr:cNvPr id="8" name="Untertitel 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12875,7 +12998,7 @@
         <xdr:cNvPr id="3" name="Rechteck 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12942,7 +13065,7 @@
         <xdr:cNvPr id="10" name="Titel 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13021,7 +13144,7 @@
         <xdr:cNvPr id="11" name="Inhaltsplatzhalter 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13369,7 +13492,7 @@
         <xdr:cNvPr id="12" name="Titel 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13448,7 +13571,7 @@
         <xdr:cNvPr id="13" name="Inhaltsplatzhalter 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13759,7 +13882,7 @@
         <xdr:cNvPr id="14" name="Textplatzhalter 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14058,7 +14181,7 @@
         <xdr:cNvPr id="15" name="Titel 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14137,7 +14260,7 @@
         <xdr:cNvPr id="16" name="Inhaltsplatzhalter 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14431,7 +14554,7 @@
         <xdr:cNvPr id="17" name="Textplatzhalter 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14734,7 +14857,7 @@
         <xdr:cNvPr id="18" name="Titel 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14813,7 +14936,7 @@
         <xdr:cNvPr id="20" name="Textplatzhalter 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15112,7 +15235,7 @@
         <xdr:cNvPr id="21" name="Picture 20" descr="use_case.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15156,7 +15279,7 @@
         <xdr:cNvPr id="22" name="Picture 21" descr="01_Login.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15200,7 +15323,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="02_Startseite_Psych.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15239,7 +15362,7 @@
         <xdr:cNvPr id="24" name="TextBox 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15299,7 +15422,7 @@
         <xdr:cNvPr id="25" name="Picture 24" descr="03_dropdown_psych.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15343,7 +15466,7 @@
         <xdr:cNvPr id="26" name="Picture 25" descr="04_Patient_anlegen.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15387,7 +15510,7 @@
         <xdr:cNvPr id="27" name="Picture 26" descr="05_Patientensuche.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15431,7 +15554,7 @@
         <xdr:cNvPr id="28" name="Picture 27" descr="05_Patientensuche.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15475,7 +15598,7 @@
         <xdr:cNvPr id="29" name="Picture 28" descr="07_Diagramm.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15519,7 +15642,7 @@
         <xdr:cNvPr id="30" name="Picture 29" descr="08_Tagebuch_ausfüllen.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15563,7 +15686,7 @@
         <xdr:cNvPr id="31" name="Picture 30" descr="09_ausgefülltes_Tagebuch.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15607,7 +15730,7 @@
         <xdr:cNvPr id="32" name="Picture 31" descr="10_speichern_ändern.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15651,7 +15774,7 @@
         <xdr:cNvPr id="33" name="Picture 32" descr="11_ausgeloggt_seite.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15695,7 +15818,7 @@
         <xdr:cNvPr id="34" name="Picture 33" descr="Entwurf_Ehealth_Datenbank.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15744,7 +15867,7 @@
         <xdr:cNvPr id="14346" name="Grafik 1" descr="Kopfzeile">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A380000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A380000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15756,7 +15879,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15779,14 +15902,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15823,7 +15946,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15864,7 +15987,7 @@
         <xdr:cNvPr id="4" name="Gerader Verbinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15919,7 +16042,7 @@
         <xdr:cNvPr id="5" name="Gerader Verbinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15969,7 +16092,7 @@
         <xdr:cNvPr id="7" name="Gerade Verbindung mit Pfeil 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16025,7 +16148,7 @@
         <xdr:cNvPr id="8" name="Gerade Verbindung mit Pfeil 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16078,7 +16201,7 @@
         <xdr:cNvPr id="9" name="Gerade Verbindung mit Pfeil 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16131,7 +16254,7 @@
         <xdr:cNvPr id="10" name="Gerade Verbindung mit Pfeil 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16187,7 +16310,7 @@
         <xdr:cNvPr id="11" name="Gerade Verbindung mit Pfeil 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16243,7 +16366,7 @@
         <xdr:cNvPr id="12" name="Gerader Verbinder 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16298,7 +16421,7 @@
         <xdr:cNvPr id="13" name="Gerade Verbindung mit Pfeil 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16354,7 +16477,7 @@
         <xdr:cNvPr id="15" name="Gerade Verbindung mit Pfeil 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16410,7 +16533,7 @@
         <xdr:cNvPr id="17" name="Gerader Verbinder 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16465,7 +16588,7 @@
         <xdr:cNvPr id="18" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16521,7 +16644,7 @@
         <xdr:cNvPr id="19" name="Gerader Verbinder 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16576,7 +16699,7 @@
         <xdr:cNvPr id="20" name="Verbinder: gewinkelt 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16631,7 +16754,7 @@
         <xdr:cNvPr id="22" name="Gerader Verbinder 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16685,7 +16808,7 @@
         <xdr:cNvPr id="32" name="Gerader Verbinder 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16740,7 +16863,7 @@
         <xdr:cNvPr id="33" name="Gerade Verbindung mit Pfeil 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16796,7 +16919,7 @@
         <xdr:cNvPr id="34" name="Gerader Verbinder 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16851,7 +16974,7 @@
         <xdr:cNvPr id="37" name="Gerader Verbinder 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16906,7 +17029,7 @@
         <xdr:cNvPr id="38" name="Gerade Verbindung mit Pfeil 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16962,7 +17085,7 @@
         <xdr:cNvPr id="39" name="Gerader Verbinder 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17017,7 +17140,7 @@
         <xdr:cNvPr id="44" name="Gerader Verbinder 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17072,7 +17195,7 @@
         <xdr:cNvPr id="47" name="Gerade Verbindung mit Pfeil 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17128,7 +17251,7 @@
         <xdr:cNvPr id="49" name="Gerader Verbinder 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17183,7 +17306,7 @@
         <xdr:cNvPr id="54" name="Raute 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17262,7 +17385,7 @@
         <xdr:cNvPr id="55" name="Gerade Verbindung mit Pfeil 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17318,7 +17441,7 @@
         <xdr:cNvPr id="56" name="Raute 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17397,7 +17520,7 @@
         <xdr:cNvPr id="57" name="Gerade Verbindung mit Pfeil 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17458,7 +17581,7 @@
         <xdr:cNvPr id="8212" name="Picture 3" descr="04 Logo_8x1,9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014200000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000014200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17470,7 +17593,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17493,14 +17616,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17537,7 +17660,7 @@
         <xdr:cNvPr id="41985" name="Grafik 1" descr="Kopfzeile_quer.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001A40000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000001A40000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17549,7 +17672,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17572,14 +17695,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17616,7 +17739,7 @@
         <xdr:cNvPr id="43010" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002A80000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002A80000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17654,7 +17777,7 @@
         <xdr:cNvPr id="8" name="Freihandform 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17814,7 +17937,7 @@
         <xdr:cNvPr id="9" name="Freihandform 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17958,7 +18081,7 @@
         <xdr:cNvPr id="6" name="Ellipse 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18027,7 +18150,7 @@
         <xdr:cNvPr id="43009" name="Grafik 2" descr="Kopfzeile_quer.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000001A80000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000001A80000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18039,7 +18162,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18062,14 +18185,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18101,7 +18224,7 @@
         <xdr:cNvPr id="4" name="Textfeld 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18165,7 +18288,7 @@
         <xdr:cNvPr id="5" name="Textfeld 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18224,7 +18347,7 @@
         <xdr:cNvPr id="7" name="Textfeld 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18305,7 +18428,7 @@
         <xdr:cNvPr id="10" name="Textfeld 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18377,7 +18500,7 @@
         <xdr:cNvPr id="11" name="Textfeld 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18455,7 +18578,7 @@
         <xdr:cNvPr id="12" name="Textfeld 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18818,33 +18941,33 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="179" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1">
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="200"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="175"/>
       <c r="H4" s="148"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1">
-      <c r="B5" s="201"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="203"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="178"/>
       <c r="H5" s="148"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1">
@@ -18858,34 +18981,34 @@
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1">
       <c r="B7" s="150"/>
-      <c r="C7" s="187" t="s">
+      <c r="C7" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="190"/>
       <c r="G7" s="155"/>
       <c r="H7" s="149"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1">
       <c r="B8" s="150"/>
       <c r="C8" s="150"/>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="191" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="190"/>
-      <c r="F8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="192"/>
       <c r="G8" s="155"/>
       <c r="H8" s="149"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1">
       <c r="B9" s="150"/>
       <c r="C9" s="151"/>
-      <c r="D9" s="185" t="s">
+      <c r="D9" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="185"/>
-      <c r="F9" s="186"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="184"/>
       <c r="G9" s="155"/>
       <c r="H9" s="149"/>
     </row>
@@ -18900,32 +19023,32 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="152"/>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="193" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="194"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="195"/>
       <c r="G11" s="142"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="152"/>
       <c r="C12" s="152"/>
-      <c r="D12" s="190" t="s">
+      <c r="D12" s="191" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="190"/>
-      <c r="F12" s="191"/>
+      <c r="E12" s="191"/>
+      <c r="F12" s="192"/>
       <c r="G12" s="142"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="152"/>
       <c r="C13" s="153"/>
-      <c r="D13" s="185" t="s">
+      <c r="D13" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="185"/>
-      <c r="F13" s="186"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="184"/>
       <c r="G13" s="142"/>
     </row>
     <row r="14" spans="2:8">
@@ -18946,32 +19069,32 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="152"/>
-      <c r="C16" s="195" t="s">
+      <c r="C16" s="196" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="196"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="197"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="198"/>
       <c r="G16" s="142"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="152"/>
       <c r="C17" s="152"/>
-      <c r="D17" s="190" t="s">
+      <c r="D17" s="191" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="190"/>
-      <c r="F17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="192"/>
       <c r="G17" s="142"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="152"/>
       <c r="C18" s="153"/>
-      <c r="D18" s="185" t="s">
+      <c r="D18" s="183" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="185"/>
-      <c r="F18" s="186"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="184"/>
       <c r="G18" s="142"/>
     </row>
     <row r="19" spans="2:7">
@@ -18992,22 +19115,22 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="152"/>
-      <c r="C21" s="205" t="s">
+      <c r="C21" s="180" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="206"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="207"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="182"/>
       <c r="G21" s="142"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="152"/>
       <c r="C22" s="153"/>
-      <c r="D22" s="185" t="s">
+      <c r="D22" s="183" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="185"/>
-      <c r="F22" s="186"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="184"/>
       <c r="G22" s="142"/>
     </row>
     <row r="23" spans="2:7">
@@ -19028,22 +19151,22 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="152"/>
-      <c r="C25" s="208" t="s">
+      <c r="C25" s="185" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="209"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="210"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="187"/>
       <c r="G25" s="142"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="152"/>
       <c r="C26" s="153"/>
-      <c r="D26" s="185" t="s">
+      <c r="D26" s="183" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="185"/>
-      <c r="F26" s="186"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="184"/>
       <c r="G26" s="142"/>
     </row>
     <row r="27" spans="2:7">
@@ -19056,11 +19179,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="C25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="D8:F8"/>
@@ -19071,6 +19189,11 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="C25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19084,7 +19207,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -19094,254 +19217,292 @@
   <sheetData>
     <row r="1" spans="2:11" s="145" customFormat="1"/>
     <row r="2" spans="2:11" ht="18.75">
-      <c r="B2" s="388" t="s">
+      <c r="B2" s="374" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388" t="s">
+      <c r="C2" s="374"/>
+      <c r="D2" s="374" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388" t="s">
+      <c r="E2" s="374"/>
+      <c r="F2" s="374" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="388"/>
-      <c r="H2" s="388" t="s">
+      <c r="G2" s="374"/>
+      <c r="H2" s="374" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="388"/>
-      <c r="J2" s="388" t="s">
+      <c r="I2" s="374"/>
+      <c r="J2" s="374" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="388"/>
+      <c r="K2" s="374"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="389">
+      <c r="B3" s="372">
         <v>1</v>
       </c>
-      <c r="C3" s="389"/>
-      <c r="D3" s="389"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="389"/>
-      <c r="G3" s="389"/>
-      <c r="H3" s="390" t="s">
+      <c r="C3" s="372"/>
+      <c r="D3" s="372"/>
+      <c r="E3" s="372"/>
+      <c r="F3" s="372"/>
+      <c r="G3" s="372"/>
+      <c r="H3" s="373" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="390"/>
-      <c r="J3" s="389"/>
-      <c r="K3" s="389"/>
+      <c r="I3" s="373"/>
+      <c r="J3" s="372"/>
+      <c r="K3" s="372"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B4" s="389"/>
-      <c r="C4" s="389"/>
-      <c r="D4" s="389"/>
-      <c r="E4" s="389"/>
-      <c r="F4" s="389"/>
-      <c r="G4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="B4" s="372"/>
+      <c r="C4" s="372"/>
+      <c r="D4" s="372"/>
+      <c r="E4" s="372"/>
+      <c r="F4" s="372"/>
+      <c r="G4" s="372"/>
+      <c r="H4" s="373" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="390"/>
-      <c r="J4" s="389"/>
-      <c r="K4" s="389"/>
+      <c r="I4" s="373"/>
+      <c r="J4" s="372"/>
+      <c r="K4" s="372"/>
     </row>
     <row r="5" spans="2:11" ht="15.75">
-      <c r="B5" s="389"/>
-      <c r="C5" s="389"/>
-      <c r="D5" s="389"/>
-      <c r="E5" s="389"/>
-      <c r="F5" s="389"/>
-      <c r="G5" s="389"/>
-      <c r="H5" s="390" t="s">
+      <c r="B5" s="372"/>
+      <c r="C5" s="372"/>
+      <c r="D5" s="372"/>
+      <c r="E5" s="372"/>
+      <c r="F5" s="372"/>
+      <c r="G5" s="372"/>
+      <c r="H5" s="373" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="390"/>
-      <c r="J5" s="389"/>
-      <c r="K5" s="389"/>
+      <c r="I5" s="373"/>
+      <c r="J5" s="372"/>
+      <c r="K5" s="372"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B6" s="389">
+      <c r="B6" s="372">
         <v>2</v>
       </c>
-      <c r="C6" s="389"/>
-      <c r="D6" s="389"/>
-      <c r="E6" s="389"/>
-      <c r="F6" s="389"/>
-      <c r="G6" s="389"/>
-      <c r="H6" s="390" t="s">
+      <c r="C6" s="372"/>
+      <c r="D6" s="372"/>
+      <c r="E6" s="372"/>
+      <c r="F6" s="372"/>
+      <c r="G6" s="372"/>
+      <c r="H6" s="373" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="390"/>
-      <c r="J6" s="389"/>
-      <c r="K6" s="389"/>
+      <c r="I6" s="373"/>
+      <c r="J6" s="372"/>
+      <c r="K6" s="372"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B7" s="389"/>
-      <c r="C7" s="389"/>
-      <c r="D7" s="389"/>
-      <c r="E7" s="389"/>
-      <c r="F7" s="389"/>
-      <c r="G7" s="389"/>
-      <c r="H7" s="390" t="s">
+      <c r="B7" s="372"/>
+      <c r="C7" s="372"/>
+      <c r="D7" s="372"/>
+      <c r="E7" s="372"/>
+      <c r="F7" s="372"/>
+      <c r="G7" s="372"/>
+      <c r="H7" s="373" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="390"/>
-      <c r="J7" s="389"/>
-      <c r="K7" s="389"/>
+      <c r="I7" s="373"/>
+      <c r="J7" s="372"/>
+      <c r="K7" s="372"/>
     </row>
     <row r="8" spans="2:11" ht="15.75">
-      <c r="B8" s="389"/>
-      <c r="C8" s="389"/>
-      <c r="D8" s="389"/>
-      <c r="E8" s="389"/>
-      <c r="F8" s="389"/>
-      <c r="G8" s="389"/>
-      <c r="H8" s="390" t="s">
+      <c r="B8" s="372"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
+      <c r="F8" s="372"/>
+      <c r="G8" s="372"/>
+      <c r="H8" s="373" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="390"/>
-      <c r="J8" s="389"/>
-      <c r="K8" s="389"/>
+      <c r="I8" s="373"/>
+      <c r="J8" s="372"/>
+      <c r="K8" s="372"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B9" s="389">
+      <c r="B9" s="372">
         <v>3</v>
       </c>
-      <c r="C9" s="389"/>
-      <c r="D9" s="389"/>
-      <c r="E9" s="389"/>
-      <c r="F9" s="389"/>
-      <c r="G9" s="389"/>
-      <c r="H9" s="390" t="s">
+      <c r="C9" s="372"/>
+      <c r="D9" s="372"/>
+      <c r="E9" s="372"/>
+      <c r="F9" s="372"/>
+      <c r="G9" s="372"/>
+      <c r="H9" s="373" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="390"/>
-      <c r="J9" s="389"/>
-      <c r="K9" s="389"/>
+      <c r="I9" s="373"/>
+      <c r="J9" s="372"/>
+      <c r="K9" s="372"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B10" s="389"/>
-      <c r="C10" s="389"/>
-      <c r="D10" s="389"/>
-      <c r="E10" s="389"/>
-      <c r="F10" s="389"/>
-      <c r="G10" s="389"/>
-      <c r="H10" s="390" t="s">
+      <c r="B10" s="372"/>
+      <c r="C10" s="372"/>
+      <c r="D10" s="372"/>
+      <c r="E10" s="372"/>
+      <c r="F10" s="372"/>
+      <c r="G10" s="372"/>
+      <c r="H10" s="373" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="390"/>
-      <c r="J10" s="389"/>
-      <c r="K10" s="389"/>
+      <c r="I10" s="373"/>
+      <c r="J10" s="372"/>
+      <c r="K10" s="372"/>
     </row>
     <row r="11" spans="2:11" ht="15.75">
-      <c r="B11" s="389"/>
-      <c r="C11" s="389"/>
-      <c r="D11" s="389"/>
-      <c r="E11" s="389"/>
-      <c r="F11" s="389"/>
-      <c r="G11" s="389"/>
-      <c r="H11" s="390" t="s">
+      <c r="B11" s="372"/>
+      <c r="C11" s="372"/>
+      <c r="D11" s="372"/>
+      <c r="E11" s="372"/>
+      <c r="F11" s="372"/>
+      <c r="G11" s="372"/>
+      <c r="H11" s="373" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="390"/>
-      <c r="J11" s="389"/>
-      <c r="K11" s="389"/>
+      <c r="I11" s="373"/>
+      <c r="J11" s="372"/>
+      <c r="K11" s="372"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B12" s="389">
+      <c r="B12" s="372">
         <v>4</v>
       </c>
-      <c r="C12" s="389"/>
-      <c r="D12" s="389"/>
-      <c r="E12" s="389"/>
-      <c r="F12" s="389"/>
-      <c r="G12" s="389"/>
-      <c r="H12" s="390" t="s">
+      <c r="C12" s="372"/>
+      <c r="D12" s="372"/>
+      <c r="E12" s="372"/>
+      <c r="F12" s="372"/>
+      <c r="G12" s="372"/>
+      <c r="H12" s="373" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="390"/>
-      <c r="J12" s="389"/>
-      <c r="K12" s="389"/>
+      <c r="I12" s="373"/>
+      <c r="J12" s="372"/>
+      <c r="K12" s="372"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B13" s="389"/>
-      <c r="C13" s="389"/>
-      <c r="D13" s="389"/>
-      <c r="E13" s="389"/>
-      <c r="F13" s="389"/>
-      <c r="G13" s="389"/>
-      <c r="H13" s="390" t="s">
+      <c r="B13" s="372"/>
+      <c r="C13" s="372"/>
+      <c r="D13" s="372"/>
+      <c r="E13" s="372"/>
+      <c r="F13" s="372"/>
+      <c r="G13" s="372"/>
+      <c r="H13" s="373" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="390"/>
-      <c r="J13" s="389"/>
-      <c r="K13" s="389"/>
+      <c r="I13" s="373"/>
+      <c r="J13" s="372"/>
+      <c r="K13" s="372"/>
     </row>
     <row r="14" spans="2:11" ht="15.75">
-      <c r="B14" s="389"/>
-      <c r="C14" s="389"/>
-      <c r="D14" s="389"/>
-      <c r="E14" s="389"/>
-      <c r="F14" s="389"/>
-      <c r="G14" s="389"/>
-      <c r="H14" s="390" t="s">
+      <c r="B14" s="372"/>
+      <c r="C14" s="372"/>
+      <c r="D14" s="372"/>
+      <c r="E14" s="372"/>
+      <c r="F14" s="372"/>
+      <c r="G14" s="372"/>
+      <c r="H14" s="373" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="390"/>
-      <c r="J14" s="389"/>
-      <c r="K14" s="389"/>
+      <c r="I14" s="373"/>
+      <c r="J14" s="372"/>
+      <c r="K14" s="372"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B15" s="389">
+      <c r="B15" s="372">
         <v>5</v>
       </c>
-      <c r="C15" s="389"/>
-      <c r="D15" s="389"/>
-      <c r="E15" s="389"/>
-      <c r="F15" s="389"/>
-      <c r="G15" s="389"/>
-      <c r="H15" s="390" t="s">
+      <c r="C15" s="372"/>
+      <c r="D15" s="372"/>
+      <c r="E15" s="372"/>
+      <c r="F15" s="372"/>
+      <c r="G15" s="372"/>
+      <c r="H15" s="373" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="390"/>
-      <c r="J15" s="389"/>
-      <c r="K15" s="389"/>
+      <c r="I15" s="373"/>
+      <c r="J15" s="372"/>
+      <c r="K15" s="372"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B16" s="389"/>
-      <c r="C16" s="389"/>
-      <c r="D16" s="389"/>
-      <c r="E16" s="389"/>
-      <c r="F16" s="389"/>
-      <c r="G16" s="389"/>
-      <c r="H16" s="390" t="s">
+      <c r="B16" s="372"/>
+      <c r="C16" s="372"/>
+      <c r="D16" s="372"/>
+      <c r="E16" s="372"/>
+      <c r="F16" s="372"/>
+      <c r="G16" s="372"/>
+      <c r="H16" s="373" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="390"/>
-      <c r="J16" s="389"/>
-      <c r="K16" s="389"/>
+      <c r="I16" s="373"/>
+      <c r="J16" s="372"/>
+      <c r="K16" s="372"/>
     </row>
     <row r="17" spans="2:11" ht="15.75">
-      <c r="B17" s="389"/>
-      <c r="C17" s="389"/>
-      <c r="D17" s="389"/>
-      <c r="E17" s="389"/>
-      <c r="F17" s="389"/>
-      <c r="G17" s="389"/>
-      <c r="H17" s="390" t="s">
+      <c r="B17" s="372"/>
+      <c r="C17" s="372"/>
+      <c r="D17" s="372"/>
+      <c r="E17" s="372"/>
+      <c r="F17" s="372"/>
+      <c r="G17" s="372"/>
+      <c r="H17" s="373" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="390"/>
-      <c r="J17" s="389"/>
-      <c r="K17" s="389"/>
+      <c r="I17" s="373"/>
+      <c r="J17" s="372"/>
+      <c r="K17" s="372"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B15:C17"/>
+    <mergeCell ref="D3:E5"/>
+    <mergeCell ref="D6:E8"/>
+    <mergeCell ref="D9:E11"/>
+    <mergeCell ref="D12:E14"/>
+    <mergeCell ref="D15:E17"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J16:K16"/>
@@ -19354,49 +19515,11 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B15:C17"/>
-    <mergeCell ref="D3:E5"/>
-    <mergeCell ref="D6:E8"/>
-    <mergeCell ref="D9:E11"/>
-    <mergeCell ref="D12:E14"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19490,7 +19613,7 @@
   </sheetPr>
   <dimension ref="B7:R142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F69" sqref="F69:I73"/>
     </sheetView>
   </sheetViews>
@@ -19504,138 +19627,138 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:9" ht="25.5">
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="244" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="213"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="245"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="246"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="230" t="s">
+      <c r="B8" s="232" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="231"/>
-      <c r="D8" s="214" t="s">
+      <c r="C8" s="233"/>
+      <c r="D8" s="199" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="218"/>
-      <c r="I8" s="215"/>
+      <c r="E8" s="205"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="205"/>
+      <c r="I8" s="200"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="232"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="222"/>
-      <c r="G9" s="222"/>
-      <c r="H9" s="222"/>
-      <c r="I9" s="217"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="204"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="230" t="s">
+      <c r="B10" s="232" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="231"/>
-      <c r="D10" s="214" t="s">
+      <c r="C10" s="233"/>
+      <c r="D10" s="199" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="215"/>
-      <c r="F10" s="230" t="s">
+      <c r="E10" s="200"/>
+      <c r="F10" s="232" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="231"/>
-      <c r="H10" s="214" t="s">
+      <c r="G10" s="233"/>
+      <c r="H10" s="199" t="s">
         <v>180</v>
       </c>
-      <c r="I10" s="215"/>
+      <c r="I10" s="200"/>
     </row>
     <row r="11" spans="2:9" ht="43.9" customHeight="1">
-      <c r="B11" s="232"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="232"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="217"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="237"/>
+      <c r="H11" s="203"/>
+      <c r="I11" s="204"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1">
-      <c r="B12" s="230" t="s">
+      <c r="B12" s="232" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="231"/>
-      <c r="D12" s="214" t="s">
+      <c r="C12" s="233"/>
+      <c r="D12" s="199" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="218"/>
-      <c r="F12" s="218"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="215"/>
+      <c r="E12" s="205"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="205"/>
+      <c r="I12" s="200"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="234"/>
       <c r="C13" s="235"/>
-      <c r="D13" s="219"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="220"/>
-      <c r="I13" s="221"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="202"/>
     </row>
     <row r="14" spans="2:9" ht="31.9" customHeight="1">
-      <c r="B14" s="232"/>
-      <c r="C14" s="233"/>
-      <c r="D14" s="216"/>
-      <c r="E14" s="222"/>
-      <c r="F14" s="222"/>
-      <c r="G14" s="222"/>
-      <c r="H14" s="222"/>
-      <c r="I14" s="217"/>
+      <c r="B14" s="236"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="207"/>
+      <c r="I14" s="204"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="225" t="s">
+      <c r="B15" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="226"/>
-      <c r="D15" s="223">
+      <c r="C15" s="215"/>
+      <c r="D15" s="230">
         <v>43560</v>
       </c>
-      <c r="E15" s="224"/>
-      <c r="F15" s="225" t="s">
+      <c r="E15" s="231"/>
+      <c r="F15" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="226"/>
-      <c r="H15" s="227" t="s">
+      <c r="G15" s="215"/>
+      <c r="H15" s="247" t="s">
         <v>299</v>
       </c>
-      <c r="I15" s="228"/>
+      <c r="I15" s="248"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="225" t="s">
+      <c r="B16" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="226"/>
-      <c r="D16" s="223">
+      <c r="C16" s="215"/>
+      <c r="D16" s="230">
         <v>43630</v>
       </c>
-      <c r="E16" s="224"/>
-      <c r="F16" s="225" t="s">
+      <c r="E16" s="231"/>
+      <c r="F16" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="226"/>
-      <c r="H16" s="229">
+      <c r="G16" s="215"/>
+      <c r="H16" s="249">
         <v>0</v>
       </c>
-      <c r="I16" s="228"/>
+      <c r="I16" s="248"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="131"/>
@@ -19646,98 +19769,98 @@
       <c r="C18" s="131"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B19" s="239" t="s">
+      <c r="B19" s="222" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="240"/>
-      <c r="D19" s="240"/>
-      <c r="E19" s="240"/>
-      <c r="F19" s="240"/>
-      <c r="G19" s="240"/>
-      <c r="H19" s="240"/>
-      <c r="I19" s="241"/>
+      <c r="C19" s="223"/>
+      <c r="D19" s="223"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="223"/>
+      <c r="G19" s="223"/>
+      <c r="H19" s="223"/>
+      <c r="I19" s="224"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="214" t="s">
+      <c r="B20" s="199" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="218"/>
-      <c r="D20" s="218"/>
-      <c r="E20" s="218"/>
-      <c r="F20" s="218"/>
-      <c r="G20" s="218"/>
-      <c r="H20" s="218"/>
-      <c r="I20" s="215"/>
+      <c r="C20" s="205"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="205"/>
+      <c r="F20" s="205"/>
+      <c r="G20" s="205"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="200"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="219"/>
-      <c r="C21" s="220"/>
-      <c r="D21" s="220"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="220"/>
-      <c r="H21" s="220"/>
-      <c r="I21" s="221"/>
+      <c r="B21" s="201"/>
+      <c r="C21" s="206"/>
+      <c r="D21" s="206"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="202"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="219"/>
-      <c r="C22" s="220"/>
-      <c r="D22" s="220"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="220"/>
-      <c r="H22" s="220"/>
-      <c r="I22" s="221"/>
+      <c r="B22" s="201"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="206"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="206"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="206"/>
+      <c r="I22" s="202"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="219"/>
-      <c r="C23" s="220"/>
-      <c r="D23" s="220"/>
-      <c r="E23" s="220"/>
-      <c r="F23" s="220"/>
-      <c r="G23" s="220"/>
-      <c r="H23" s="220"/>
-      <c r="I23" s="221"/>
+      <c r="B23" s="201"/>
+      <c r="C23" s="206"/>
+      <c r="D23" s="206"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="206"/>
+      <c r="G23" s="206"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="202"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="219"/>
-      <c r="C24" s="220"/>
-      <c r="D24" s="220"/>
-      <c r="E24" s="220"/>
-      <c r="F24" s="220"/>
-      <c r="G24" s="220"/>
-      <c r="H24" s="220"/>
-      <c r="I24" s="221"/>
+      <c r="B24" s="201"/>
+      <c r="C24" s="206"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="206"/>
+      <c r="G24" s="206"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="202"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="219"/>
-      <c r="C25" s="220"/>
-      <c r="D25" s="220"/>
-      <c r="E25" s="220"/>
-      <c r="F25" s="220"/>
-      <c r="G25" s="220"/>
-      <c r="H25" s="220"/>
-      <c r="I25" s="221"/>
+      <c r="B25" s="201"/>
+      <c r="C25" s="206"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="202"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="219"/>
-      <c r="C26" s="220"/>
-      <c r="D26" s="220"/>
-      <c r="E26" s="220"/>
-      <c r="F26" s="220"/>
-      <c r="G26" s="220"/>
-      <c r="H26" s="220"/>
-      <c r="I26" s="221"/>
+      <c r="B26" s="201"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="206"/>
+      <c r="E26" s="206"/>
+      <c r="F26" s="206"/>
+      <c r="G26" s="206"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="202"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="216"/>
-      <c r="C27" s="222"/>
-      <c r="D27" s="222"/>
-      <c r="E27" s="222"/>
-      <c r="F27" s="222"/>
-      <c r="G27" s="222"/>
-      <c r="H27" s="222"/>
-      <c r="I27" s="217"/>
+      <c r="B27" s="203"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="207"/>
+      <c r="I27" s="204"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="138"/>
@@ -19748,170 +19871,170 @@
       <c r="C29" s="138"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B30" s="239" t="s">
+      <c r="B30" s="222" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="240"/>
-      <c r="D30" s="240"/>
-      <c r="E30" s="240"/>
-      <c r="F30" s="240"/>
-      <c r="G30" s="240"/>
-      <c r="H30" s="240"/>
-      <c r="I30" s="241"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="223"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="223"/>
+      <c r="G30" s="223"/>
+      <c r="H30" s="223"/>
+      <c r="I30" s="224"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="225" t="s">
+      <c r="B31" s="214" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="238"/>
-      <c r="D31" s="238"/>
-      <c r="E31" s="226"/>
-      <c r="F31" s="225" t="s">
+      <c r="C31" s="229"/>
+      <c r="D31" s="229"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="214" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="238"/>
-      <c r="H31" s="238"/>
-      <c r="I31" s="226"/>
+      <c r="G31" s="229"/>
+      <c r="H31" s="229"/>
+      <c r="I31" s="215"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="214" t="s">
+      <c r="B32" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="214" t="s">
+      <c r="C32" s="205"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="200"/>
+      <c r="F32" s="199" t="s">
         <v>301</v>
       </c>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="215"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="205"/>
+      <c r="I32" s="200"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="219"/>
-      <c r="C33" s="220"/>
-      <c r="D33" s="220"/>
-      <c r="E33" s="221"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="220"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="221"/>
+      <c r="B33" s="201"/>
+      <c r="C33" s="206"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="201"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="202"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="219"/>
-      <c r="C34" s="220"/>
-      <c r="D34" s="220"/>
-      <c r="E34" s="221"/>
-      <c r="F34" s="219"/>
-      <c r="G34" s="220"/>
-      <c r="H34" s="220"/>
-      <c r="I34" s="221"/>
+      <c r="B34" s="201"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="206"/>
+      <c r="E34" s="202"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="206"/>
+      <c r="H34" s="206"/>
+      <c r="I34" s="202"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="216"/>
-      <c r="C35" s="222"/>
-      <c r="D35" s="222"/>
-      <c r="E35" s="217"/>
-      <c r="F35" s="216"/>
-      <c r="G35" s="222"/>
-      <c r="H35" s="222"/>
-      <c r="I35" s="217"/>
+      <c r="B35" s="203"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="203"/>
+      <c r="G35" s="207"/>
+      <c r="H35" s="207"/>
+      <c r="I35" s="204"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="225" t="s">
+      <c r="B36" s="214" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="238"/>
-      <c r="D36" s="238"/>
-      <c r="E36" s="226"/>
-      <c r="F36" s="225" t="s">
+      <c r="C36" s="229"/>
+      <c r="D36" s="229"/>
+      <c r="E36" s="215"/>
+      <c r="F36" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="238"/>
-      <c r="H36" s="238"/>
-      <c r="I36" s="226"/>
+      <c r="G36" s="229"/>
+      <c r="H36" s="229"/>
+      <c r="I36" s="215"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="214" t="s">
+      <c r="B37" s="199" t="s">
         <v>300</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="218"/>
-      <c r="E37" s="215"/>
-      <c r="F37" s="214" t="s">
+      <c r="C37" s="205"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="199" t="s">
         <v>237</v>
       </c>
-      <c r="G37" s="218"/>
-      <c r="H37" s="218"/>
-      <c r="I37" s="215"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="200"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="219"/>
-      <c r="C38" s="220"/>
-      <c r="D38" s="220"/>
-      <c r="E38" s="221"/>
-      <c r="F38" s="219"/>
-      <c r="G38" s="220"/>
-      <c r="H38" s="220"/>
-      <c r="I38" s="221"/>
+      <c r="B38" s="201"/>
+      <c r="C38" s="206"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="202"/>
+      <c r="F38" s="201"/>
+      <c r="G38" s="206"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="202"/>
     </row>
     <row r="39" spans="2:9" ht="100.9" customHeight="1">
-      <c r="B39" s="216"/>
-      <c r="C39" s="222"/>
-      <c r="D39" s="222"/>
-      <c r="E39" s="217"/>
-      <c r="F39" s="216"/>
-      <c r="G39" s="222"/>
-      <c r="H39" s="222"/>
-      <c r="I39" s="217"/>
+      <c r="B39" s="203"/>
+      <c r="C39" s="207"/>
+      <c r="D39" s="207"/>
+      <c r="E39" s="204"/>
+      <c r="F39" s="203"/>
+      <c r="G39" s="207"/>
+      <c r="H39" s="207"/>
+      <c r="I39" s="204"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="225" t="s">
+      <c r="B40" s="214" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="238"/>
-      <c r="D40" s="238"/>
-      <c r="E40" s="226"/>
-      <c r="F40" s="225" t="s">
+      <c r="C40" s="229"/>
+      <c r="D40" s="229"/>
+      <c r="E40" s="215"/>
+      <c r="F40" s="214" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="238"/>
-      <c r="H40" s="238"/>
-      <c r="I40" s="226"/>
+      <c r="G40" s="229"/>
+      <c r="H40" s="229"/>
+      <c r="I40" s="215"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="214" t="s">
+      <c r="B41" s="199" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="218"/>
-      <c r="E41" s="215"/>
-      <c r="F41" s="214" t="s">
+      <c r="C41" s="205"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="200"/>
+      <c r="F41" s="199" t="s">
         <v>240</v>
       </c>
-      <c r="G41" s="218"/>
-      <c r="H41" s="218"/>
-      <c r="I41" s="215"/>
+      <c r="G41" s="205"/>
+      <c r="H41" s="205"/>
+      <c r="I41" s="200"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="219"/>
-      <c r="C42" s="220"/>
-      <c r="D42" s="220"/>
-      <c r="E42" s="221"/>
-      <c r="F42" s="219"/>
-      <c r="G42" s="220"/>
-      <c r="H42" s="220"/>
-      <c r="I42" s="221"/>
+      <c r="B42" s="201"/>
+      <c r="C42" s="206"/>
+      <c r="D42" s="206"/>
+      <c r="E42" s="202"/>
+      <c r="F42" s="201"/>
+      <c r="G42" s="206"/>
+      <c r="H42" s="206"/>
+      <c r="I42" s="202"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="216"/>
-      <c r="C43" s="222"/>
-      <c r="D43" s="222"/>
-      <c r="E43" s="217"/>
-      <c r="F43" s="216"/>
-      <c r="G43" s="222"/>
-      <c r="H43" s="222"/>
-      <c r="I43" s="217"/>
+      <c r="B43" s="203"/>
+      <c r="C43" s="207"/>
+      <c r="D43" s="207"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="203"/>
+      <c r="G43" s="207"/>
+      <c r="H43" s="207"/>
+      <c r="I43" s="204"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="131"/>
@@ -19922,120 +20045,120 @@
       <c r="C45" s="131"/>
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B46" s="239" t="s">
+      <c r="B46" s="222" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="240"/>
-      <c r="D46" s="240"/>
-      <c r="E46" s="240"/>
-      <c r="F46" s="240"/>
-      <c r="G46" s="240"/>
-      <c r="H46" s="240"/>
-      <c r="I46" s="241"/>
+      <c r="C46" s="223"/>
+      <c r="D46" s="223"/>
+      <c r="E46" s="223"/>
+      <c r="F46" s="223"/>
+      <c r="G46" s="223"/>
+      <c r="H46" s="223"/>
+      <c r="I46" s="224"/>
     </row>
     <row r="47" spans="2:9" ht="15" customHeight="1">
-      <c r="B47" s="230" t="s">
+      <c r="B47" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="231"/>
-      <c r="D47" s="214" t="s">
+      <c r="C47" s="233"/>
+      <c r="D47" s="199" t="s">
         <v>239</v>
       </c>
-      <c r="E47" s="218"/>
-      <c r="F47" s="218"/>
-      <c r="G47" s="218"/>
-      <c r="H47" s="218"/>
-      <c r="I47" s="215"/>
+      <c r="E47" s="205"/>
+      <c r="F47" s="205"/>
+      <c r="G47" s="205"/>
+      <c r="H47" s="205"/>
+      <c r="I47" s="200"/>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="234"/>
       <c r="C48" s="235"/>
-      <c r="D48" s="219"/>
-      <c r="E48" s="220"/>
-      <c r="F48" s="220"/>
-      <c r="G48" s="220"/>
-      <c r="H48" s="220"/>
-      <c r="I48" s="221"/>
+      <c r="D48" s="201"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="206"/>
+      <c r="G48" s="206"/>
+      <c r="H48" s="206"/>
+      <c r="I48" s="202"/>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="232"/>
-      <c r="C49" s="233"/>
-      <c r="D49" s="216"/>
-      <c r="E49" s="222"/>
-      <c r="F49" s="222"/>
-      <c r="G49" s="222"/>
-      <c r="H49" s="222"/>
-      <c r="I49" s="217"/>
+      <c r="B49" s="236"/>
+      <c r="C49" s="237"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="207"/>
+      <c r="F49" s="207"/>
+      <c r="G49" s="207"/>
+      <c r="H49" s="207"/>
+      <c r="I49" s="204"/>
     </row>
     <row r="50" spans="2:17" ht="15" customHeight="1">
-      <c r="B50" s="230" t="s">
+      <c r="B50" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="231"/>
-      <c r="D50" s="214" t="s">
+      <c r="C50" s="233"/>
+      <c r="D50" s="199" t="s">
         <v>238</v>
       </c>
-      <c r="E50" s="218"/>
-      <c r="F50" s="218"/>
-      <c r="G50" s="218"/>
-      <c r="H50" s="218"/>
-      <c r="I50" s="215"/>
+      <c r="E50" s="205"/>
+      <c r="F50" s="205"/>
+      <c r="G50" s="205"/>
+      <c r="H50" s="205"/>
+      <c r="I50" s="200"/>
     </row>
     <row r="51" spans="2:17">
       <c r="B51" s="234"/>
       <c r="C51" s="235"/>
-      <c r="D51" s="219"/>
-      <c r="E51" s="220"/>
-      <c r="F51" s="220"/>
-      <c r="G51" s="220"/>
-      <c r="H51" s="220"/>
-      <c r="I51" s="221"/>
+      <c r="D51" s="201"/>
+      <c r="E51" s="206"/>
+      <c r="F51" s="206"/>
+      <c r="G51" s="206"/>
+      <c r="H51" s="206"/>
+      <c r="I51" s="202"/>
     </row>
     <row r="52" spans="2:17">
-      <c r="B52" s="232"/>
-      <c r="C52" s="233"/>
-      <c r="D52" s="216"/>
-      <c r="E52" s="222"/>
-      <c r="F52" s="222"/>
-      <c r="G52" s="222"/>
-      <c r="H52" s="222"/>
-      <c r="I52" s="217"/>
+      <c r="B52" s="236"/>
+      <c r="C52" s="237"/>
+      <c r="D52" s="203"/>
+      <c r="E52" s="207"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="207"/>
+      <c r="H52" s="207"/>
+      <c r="I52" s="204"/>
     </row>
     <row r="53" spans="2:17" ht="15" customHeight="1">
-      <c r="B53" s="242" t="s">
+      <c r="B53" s="238" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="243"/>
-      <c r="D53" s="236" t="s">
+      <c r="C53" s="239"/>
+      <c r="D53" s="242" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="236" t="s">
+      <c r="E53" s="242" t="s">
         <v>292</v>
       </c>
-      <c r="F53" s="236" t="s">
+      <c r="F53" s="242" t="s">
         <v>96</v>
       </c>
-      <c r="G53" s="236" t="s">
+      <c r="G53" s="242" t="s">
         <v>290</v>
       </c>
-      <c r="H53" s="236" t="s">
+      <c r="H53" s="242" t="s">
         <v>97</v>
       </c>
-      <c r="I53" s="236" t="s">
+      <c r="I53" s="242" t="s">
         <v>185</v>
       </c>
       <c r="O53" s="172"/>
       <c r="Q53" s="172"/>
     </row>
     <row r="54" spans="2:17" ht="43.15" customHeight="1">
-      <c r="B54" s="244"/>
-      <c r="C54" s="245"/>
-      <c r="D54" s="237"/>
-      <c r="E54" s="237"/>
-      <c r="F54" s="237"/>
-      <c r="G54" s="237"/>
-      <c r="H54" s="237"/>
-      <c r="I54" s="237"/>
+      <c r="B54" s="240"/>
+      <c r="C54" s="241"/>
+      <c r="D54" s="243"/>
+      <c r="E54" s="243"/>
+      <c r="F54" s="243"/>
+      <c r="G54" s="243"/>
+      <c r="H54" s="243"/>
+      <c r="I54" s="243"/>
     </row>
     <row r="55" spans="2:17" ht="15.75">
       <c r="B55" s="139"/>
@@ -20046,88 +20169,88 @@
       <c r="C56" s="139"/>
     </row>
     <row r="57" spans="2:17">
-      <c r="B57" s="239" t="s">
+      <c r="B57" s="222" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="240"/>
-      <c r="D57" s="240"/>
-      <c r="E57" s="240"/>
-      <c r="F57" s="240"/>
-      <c r="G57" s="240"/>
-      <c r="H57" s="240"/>
-      <c r="I57" s="241"/>
+      <c r="C57" s="223"/>
+      <c r="D57" s="223"/>
+      <c r="E57" s="223"/>
+      <c r="F57" s="223"/>
+      <c r="G57" s="223"/>
+      <c r="H57" s="223"/>
+      <c r="I57" s="224"/>
     </row>
     <row r="58" spans="2:17">
-      <c r="B58" s="214" t="s">
+      <c r="B58" s="199" t="s">
         <v>302</v>
       </c>
-      <c r="C58" s="218"/>
-      <c r="D58" s="218"/>
-      <c r="E58" s="218"/>
-      <c r="F58" s="218"/>
-      <c r="G58" s="218"/>
-      <c r="H58" s="218"/>
-      <c r="I58" s="215"/>
+      <c r="C58" s="205"/>
+      <c r="D58" s="205"/>
+      <c r="E58" s="205"/>
+      <c r="F58" s="205"/>
+      <c r="G58" s="205"/>
+      <c r="H58" s="205"/>
+      <c r="I58" s="200"/>
     </row>
     <row r="59" spans="2:17">
-      <c r="B59" s="219"/>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
-      <c r="E59" s="220"/>
-      <c r="F59" s="220"/>
-      <c r="G59" s="220"/>
-      <c r="H59" s="220"/>
-      <c r="I59" s="221"/>
+      <c r="B59" s="201"/>
+      <c r="C59" s="206"/>
+      <c r="D59" s="206"/>
+      <c r="E59" s="206"/>
+      <c r="F59" s="206"/>
+      <c r="G59" s="206"/>
+      <c r="H59" s="206"/>
+      <c r="I59" s="202"/>
     </row>
     <row r="60" spans="2:17">
-      <c r="B60" s="219"/>
-      <c r="C60" s="220"/>
-      <c r="D60" s="220"/>
-      <c r="E60" s="220"/>
-      <c r="F60" s="220"/>
-      <c r="G60" s="220"/>
-      <c r="H60" s="220"/>
-      <c r="I60" s="221"/>
+      <c r="B60" s="201"/>
+      <c r="C60" s="206"/>
+      <c r="D60" s="206"/>
+      <c r="E60" s="206"/>
+      <c r="F60" s="206"/>
+      <c r="G60" s="206"/>
+      <c r="H60" s="206"/>
+      <c r="I60" s="202"/>
     </row>
     <row r="61" spans="2:17">
-      <c r="B61" s="219"/>
-      <c r="C61" s="220"/>
-      <c r="D61" s="220"/>
-      <c r="E61" s="220"/>
-      <c r="F61" s="220"/>
-      <c r="G61" s="220"/>
-      <c r="H61" s="220"/>
-      <c r="I61" s="221"/>
+      <c r="B61" s="201"/>
+      <c r="C61" s="206"/>
+      <c r="D61" s="206"/>
+      <c r="E61" s="206"/>
+      <c r="F61" s="206"/>
+      <c r="G61" s="206"/>
+      <c r="H61" s="206"/>
+      <c r="I61" s="202"/>
     </row>
     <row r="62" spans="2:17">
-      <c r="B62" s="219"/>
-      <c r="C62" s="220"/>
-      <c r="D62" s="220"/>
-      <c r="E62" s="220"/>
-      <c r="F62" s="220"/>
-      <c r="G62" s="220"/>
-      <c r="H62" s="220"/>
-      <c r="I62" s="221"/>
+      <c r="B62" s="201"/>
+      <c r="C62" s="206"/>
+      <c r="D62" s="206"/>
+      <c r="E62" s="206"/>
+      <c r="F62" s="206"/>
+      <c r="G62" s="206"/>
+      <c r="H62" s="206"/>
+      <c r="I62" s="202"/>
     </row>
     <row r="63" spans="2:17">
-      <c r="B63" s="219"/>
-      <c r="C63" s="220"/>
-      <c r="D63" s="220"/>
-      <c r="E63" s="220"/>
-      <c r="F63" s="220"/>
-      <c r="G63" s="220"/>
-      <c r="H63" s="220"/>
-      <c r="I63" s="221"/>
+      <c r="B63" s="201"/>
+      <c r="C63" s="206"/>
+      <c r="D63" s="206"/>
+      <c r="E63" s="206"/>
+      <c r="F63" s="206"/>
+      <c r="G63" s="206"/>
+      <c r="H63" s="206"/>
+      <c r="I63" s="202"/>
     </row>
     <row r="64" spans="2:17">
-      <c r="B64" s="216"/>
-      <c r="C64" s="222"/>
-      <c r="D64" s="222"/>
-      <c r="E64" s="222"/>
-      <c r="F64" s="222"/>
-      <c r="G64" s="222"/>
-      <c r="H64" s="222"/>
-      <c r="I64" s="217"/>
+      <c r="B64" s="203"/>
+      <c r="C64" s="207"/>
+      <c r="D64" s="207"/>
+      <c r="E64" s="207"/>
+      <c r="F64" s="207"/>
+      <c r="G64" s="207"/>
+      <c r="H64" s="207"/>
+      <c r="I64" s="204"/>
     </row>
     <row r="65" spans="2:18">
       <c r="B65" s="131"/>
@@ -20138,136 +20261,136 @@
       <c r="C66" s="131"/>
     </row>
     <row r="67" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B67" s="239" t="s">
+      <c r="B67" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="240"/>
-      <c r="D67" s="240"/>
-      <c r="E67" s="240"/>
-      <c r="F67" s="240"/>
-      <c r="G67" s="240"/>
-      <c r="H67" s="240"/>
-      <c r="I67" s="241"/>
+      <c r="C67" s="223"/>
+      <c r="D67" s="223"/>
+      <c r="E67" s="223"/>
+      <c r="F67" s="223"/>
+      <c r="G67" s="223"/>
+      <c r="H67" s="223"/>
+      <c r="I67" s="224"/>
     </row>
     <row r="68" spans="2:18">
-      <c r="B68" s="225" t="s">
+      <c r="B68" s="214" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="238"/>
-      <c r="D68" s="238"/>
-      <c r="E68" s="226"/>
-      <c r="F68" s="225" t="s">
+      <c r="C68" s="229"/>
+      <c r="D68" s="229"/>
+      <c r="E68" s="215"/>
+      <c r="F68" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="238"/>
-      <c r="H68" s="238"/>
-      <c r="I68" s="226"/>
+      <c r="G68" s="229"/>
+      <c r="H68" s="229"/>
+      <c r="I68" s="215"/>
     </row>
     <row r="69" spans="2:18">
-      <c r="B69" s="214" t="s">
+      <c r="B69" s="199" t="s">
         <v>303</v>
       </c>
-      <c r="C69" s="218"/>
-      <c r="D69" s="218"/>
-      <c r="E69" s="215"/>
-      <c r="F69" s="214" t="s">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="200"/>
+      <c r="F69" s="199" t="s">
         <v>304</v>
       </c>
-      <c r="G69" s="218"/>
-      <c r="H69" s="218"/>
-      <c r="I69" s="215"/>
+      <c r="G69" s="205"/>
+      <c r="H69" s="205"/>
+      <c r="I69" s="200"/>
     </row>
     <row r="70" spans="2:18">
-      <c r="B70" s="219"/>
-      <c r="C70" s="220"/>
-      <c r="D70" s="220"/>
-      <c r="E70" s="221"/>
-      <c r="F70" s="219"/>
-      <c r="G70" s="220"/>
-      <c r="H70" s="220"/>
-      <c r="I70" s="221"/>
+      <c r="B70" s="201"/>
+      <c r="C70" s="206"/>
+      <c r="D70" s="206"/>
+      <c r="E70" s="202"/>
+      <c r="F70" s="201"/>
+      <c r="G70" s="206"/>
+      <c r="H70" s="206"/>
+      <c r="I70" s="202"/>
     </row>
     <row r="71" spans="2:18">
-      <c r="B71" s="219"/>
-      <c r="C71" s="220"/>
-      <c r="D71" s="220"/>
-      <c r="E71" s="221"/>
-      <c r="F71" s="219"/>
-      <c r="G71" s="220"/>
-      <c r="H71" s="220"/>
-      <c r="I71" s="221"/>
+      <c r="B71" s="201"/>
+      <c r="C71" s="206"/>
+      <c r="D71" s="206"/>
+      <c r="E71" s="202"/>
+      <c r="F71" s="201"/>
+      <c r="G71" s="206"/>
+      <c r="H71" s="206"/>
+      <c r="I71" s="202"/>
     </row>
     <row r="72" spans="2:18">
-      <c r="B72" s="219"/>
-      <c r="C72" s="220"/>
-      <c r="D72" s="220"/>
-      <c r="E72" s="221"/>
-      <c r="F72" s="219"/>
-      <c r="G72" s="220"/>
-      <c r="H72" s="220"/>
-      <c r="I72" s="221"/>
+      <c r="B72" s="201"/>
+      <c r="C72" s="206"/>
+      <c r="D72" s="206"/>
+      <c r="E72" s="202"/>
+      <c r="F72" s="201"/>
+      <c r="G72" s="206"/>
+      <c r="H72" s="206"/>
+      <c r="I72" s="202"/>
     </row>
     <row r="73" spans="2:18">
-      <c r="B73" s="216"/>
-      <c r="C73" s="222"/>
-      <c r="D73" s="222"/>
-      <c r="E73" s="217"/>
-      <c r="F73" s="216"/>
-      <c r="G73" s="222"/>
-      <c r="H73" s="222"/>
-      <c r="I73" s="217"/>
+      <c r="B73" s="203"/>
+      <c r="C73" s="207"/>
+      <c r="D73" s="207"/>
+      <c r="E73" s="204"/>
+      <c r="F73" s="203"/>
+      <c r="G73" s="207"/>
+      <c r="H73" s="207"/>
+      <c r="I73" s="204"/>
     </row>
     <row r="74" spans="2:18">
       <c r="B74" s="131"/>
       <c r="C74" s="131"/>
     </row>
     <row r="75" spans="2:18" ht="15" customHeight="1">
-      <c r="B75" s="239" t="s">
+      <c r="B75" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="240"/>
-      <c r="D75" s="240"/>
-      <c r="E75" s="240"/>
-      <c r="F75" s="240"/>
-      <c r="G75" s="240"/>
-      <c r="H75" s="240"/>
-      <c r="I75" s="241"/>
+      <c r="C75" s="223"/>
+      <c r="D75" s="223"/>
+      <c r="E75" s="223"/>
+      <c r="F75" s="223"/>
+      <c r="G75" s="223"/>
+      <c r="H75" s="223"/>
+      <c r="I75" s="224"/>
     </row>
     <row r="76" spans="2:18" ht="29.25" customHeight="1">
-      <c r="B76" s="225" t="s">
+      <c r="B76" s="214" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="226"/>
-      <c r="D76" s="225" t="s">
+      <c r="C76" s="215"/>
+      <c r="D76" s="214" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="226"/>
-      <c r="F76" s="225" t="s">
+      <c r="E76" s="215"/>
+      <c r="F76" s="214" t="s">
         <v>69</v>
       </c>
-      <c r="G76" s="226"/>
-      <c r="H76" s="225" t="s">
+      <c r="G76" s="215"/>
+      <c r="H76" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="I76" s="226"/>
+      <c r="I76" s="215"/>
     </row>
     <row r="77" spans="2:18" ht="15" customHeight="1">
-      <c r="B77" s="256" t="s">
+      <c r="B77" s="216" t="s">
         <v>243</v>
       </c>
-      <c r="C77" s="257"/>
-      <c r="D77" s="214" t="s">
+      <c r="C77" s="217"/>
+      <c r="D77" s="199" t="s">
         <v>246</v>
       </c>
-      <c r="E77" s="215"/>
-      <c r="F77" s="214" t="s">
+      <c r="E77" s="200"/>
+      <c r="F77" s="199" t="s">
         <v>298</v>
       </c>
-      <c r="G77" s="215"/>
-      <c r="H77" s="214" t="s">
+      <c r="G77" s="200"/>
+      <c r="H77" s="199" t="s">
         <v>297</v>
       </c>
-      <c r="I77" s="215"/>
+      <c r="I77" s="200"/>
       <c r="K77" s="169"/>
       <c r="L77" s="169"/>
       <c r="M77" s="169"/>
@@ -20278,14 +20401,14 @@
       <c r="R77" s="169"/>
     </row>
     <row r="78" spans="2:18">
-      <c r="B78" s="258"/>
-      <c r="C78" s="259"/>
-      <c r="D78" s="219"/>
-      <c r="E78" s="221"/>
-      <c r="F78" s="219"/>
-      <c r="G78" s="221"/>
-      <c r="H78" s="219"/>
-      <c r="I78" s="221"/>
+      <c r="B78" s="218"/>
+      <c r="C78" s="219"/>
+      <c r="D78" s="201"/>
+      <c r="E78" s="202"/>
+      <c r="F78" s="201"/>
+      <c r="G78" s="202"/>
+      <c r="H78" s="201"/>
+      <c r="I78" s="202"/>
       <c r="K78" s="169"/>
       <c r="L78" s="169"/>
       <c r="M78" s="169"/>
@@ -20296,14 +20419,14 @@
       <c r="R78" s="169"/>
     </row>
     <row r="79" spans="2:18">
-      <c r="B79" s="258"/>
-      <c r="C79" s="259"/>
-      <c r="D79" s="219"/>
-      <c r="E79" s="221"/>
-      <c r="F79" s="219"/>
-      <c r="G79" s="221"/>
-      <c r="H79" s="219"/>
-      <c r="I79" s="221"/>
+      <c r="B79" s="218"/>
+      <c r="C79" s="219"/>
+      <c r="D79" s="201"/>
+      <c r="E79" s="202"/>
+      <c r="F79" s="201"/>
+      <c r="G79" s="202"/>
+      <c r="H79" s="201"/>
+      <c r="I79" s="202"/>
       <c r="K79" s="169"/>
       <c r="L79" s="169"/>
       <c r="M79" s="169"/>
@@ -20314,14 +20437,14 @@
       <c r="R79" s="169"/>
     </row>
     <row r="80" spans="2:18" ht="15" customHeight="1">
-      <c r="B80" s="258"/>
-      <c r="C80" s="259"/>
-      <c r="D80" s="219"/>
-      <c r="E80" s="221"/>
-      <c r="F80" s="219"/>
-      <c r="G80" s="221"/>
-      <c r="H80" s="219"/>
-      <c r="I80" s="221"/>
+      <c r="B80" s="218"/>
+      <c r="C80" s="219"/>
+      <c r="D80" s="201"/>
+      <c r="E80" s="202"/>
+      <c r="F80" s="201"/>
+      <c r="G80" s="202"/>
+      <c r="H80" s="201"/>
+      <c r="I80" s="202"/>
       <c r="K80" s="140"/>
       <c r="L80" s="140"/>
       <c r="M80" s="169"/>
@@ -20332,14 +20455,14 @@
       <c r="R80" s="169"/>
     </row>
     <row r="81" spans="2:18">
-      <c r="B81" s="258"/>
-      <c r="C81" s="259"/>
-      <c r="D81" s="219"/>
-      <c r="E81" s="221"/>
-      <c r="F81" s="219"/>
-      <c r="G81" s="221"/>
-      <c r="H81" s="219"/>
-      <c r="I81" s="221"/>
+      <c r="B81" s="218"/>
+      <c r="C81" s="219"/>
+      <c r="D81" s="201"/>
+      <c r="E81" s="202"/>
+      <c r="F81" s="201"/>
+      <c r="G81" s="202"/>
+      <c r="H81" s="201"/>
+      <c r="I81" s="202"/>
       <c r="K81" s="140"/>
       <c r="L81" s="140"/>
       <c r="M81" s="169"/>
@@ -20350,14 +20473,14 @@
       <c r="R81" s="169"/>
     </row>
     <row r="82" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B82" s="258"/>
-      <c r="C82" s="259"/>
-      <c r="D82" s="219"/>
-      <c r="E82" s="221"/>
-      <c r="F82" s="219"/>
-      <c r="G82" s="221"/>
-      <c r="H82" s="219"/>
-      <c r="I82" s="221"/>
+      <c r="B82" s="218"/>
+      <c r="C82" s="219"/>
+      <c r="D82" s="201"/>
+      <c r="E82" s="202"/>
+      <c r="F82" s="201"/>
+      <c r="G82" s="202"/>
+      <c r="H82" s="201"/>
+      <c r="I82" s="202"/>
       <c r="K82" s="140"/>
       <c r="L82" s="140"/>
       <c r="M82" s="169"/>
@@ -20368,14 +20491,14 @@
       <c r="R82" s="169"/>
     </row>
     <row r="83" spans="2:18" ht="15" customHeight="1">
-      <c r="B83" s="258"/>
-      <c r="C83" s="259"/>
-      <c r="D83" s="219"/>
-      <c r="E83" s="221"/>
-      <c r="F83" s="219"/>
-      <c r="G83" s="221"/>
-      <c r="H83" s="219"/>
-      <c r="I83" s="221"/>
+      <c r="B83" s="218"/>
+      <c r="C83" s="219"/>
+      <c r="D83" s="201"/>
+      <c r="E83" s="202"/>
+      <c r="F83" s="201"/>
+      <c r="G83" s="202"/>
+      <c r="H83" s="201"/>
+      <c r="I83" s="202"/>
       <c r="K83" s="140"/>
       <c r="L83" s="140"/>
       <c r="M83" s="169"/>
@@ -20386,14 +20509,14 @@
       <c r="R83" s="169"/>
     </row>
     <row r="84" spans="2:18">
-      <c r="B84" s="258"/>
-      <c r="C84" s="259"/>
-      <c r="D84" s="219"/>
-      <c r="E84" s="221"/>
-      <c r="F84" s="219"/>
-      <c r="G84" s="221"/>
-      <c r="H84" s="219"/>
-      <c r="I84" s="221"/>
+      <c r="B84" s="218"/>
+      <c r="C84" s="219"/>
+      <c r="D84" s="201"/>
+      <c r="E84" s="202"/>
+      <c r="F84" s="201"/>
+      <c r="G84" s="202"/>
+      <c r="H84" s="201"/>
+      <c r="I84" s="202"/>
       <c r="K84" s="140"/>
       <c r="L84" s="140"/>
       <c r="M84" s="169"/>
@@ -20404,14 +20527,14 @@
       <c r="R84" s="169"/>
     </row>
     <row r="85" spans="2:18">
-      <c r="B85" s="260"/>
-      <c r="C85" s="261"/>
-      <c r="D85" s="216"/>
-      <c r="E85" s="217"/>
-      <c r="F85" s="216"/>
-      <c r="G85" s="217"/>
-      <c r="H85" s="216"/>
-      <c r="I85" s="217"/>
+      <c r="B85" s="220"/>
+      <c r="C85" s="221"/>
+      <c r="D85" s="203"/>
+      <c r="E85" s="204"/>
+      <c r="F85" s="203"/>
+      <c r="G85" s="204"/>
+      <c r="H85" s="203"/>
+      <c r="I85" s="204"/>
       <c r="K85" s="140"/>
       <c r="L85" s="140"/>
       <c r="M85" s="169"/>
@@ -20422,22 +20545,22 @@
       <c r="R85" s="169"/>
     </row>
     <row r="86" spans="2:18">
-      <c r="B86" s="256" t="s">
+      <c r="B86" s="216" t="s">
         <v>241</v>
       </c>
-      <c r="C86" s="257"/>
-      <c r="D86" s="214" t="s">
+      <c r="C86" s="217"/>
+      <c r="D86" s="199" t="s">
         <v>244</v>
       </c>
-      <c r="E86" s="215"/>
-      <c r="F86" s="214" t="s">
+      <c r="E86" s="200"/>
+      <c r="F86" s="199" t="s">
         <v>294</v>
       </c>
-      <c r="G86" s="215"/>
-      <c r="H86" s="214" t="s">
+      <c r="G86" s="200"/>
+      <c r="H86" s="199" t="s">
         <v>295</v>
       </c>
-      <c r="I86" s="215"/>
+      <c r="I86" s="200"/>
       <c r="K86" s="140"/>
       <c r="L86" s="140"/>
       <c r="M86" s="169"/>
@@ -20448,14 +20571,14 @@
       <c r="R86" s="169"/>
     </row>
     <row r="87" spans="2:18">
-      <c r="B87" s="258"/>
-      <c r="C87" s="259"/>
-      <c r="D87" s="219"/>
-      <c r="E87" s="221"/>
-      <c r="F87" s="219"/>
-      <c r="G87" s="221"/>
-      <c r="H87" s="219"/>
-      <c r="I87" s="221"/>
+      <c r="B87" s="218"/>
+      <c r="C87" s="219"/>
+      <c r="D87" s="201"/>
+      <c r="E87" s="202"/>
+      <c r="F87" s="201"/>
+      <c r="G87" s="202"/>
+      <c r="H87" s="201"/>
+      <c r="I87" s="202"/>
       <c r="K87" s="140"/>
       <c r="L87" s="140"/>
       <c r="M87" s="169"/>
@@ -20466,14 +20589,14 @@
       <c r="R87" s="169"/>
     </row>
     <row r="88" spans="2:18">
-      <c r="B88" s="258"/>
-      <c r="C88" s="259"/>
-      <c r="D88" s="219"/>
-      <c r="E88" s="221"/>
-      <c r="F88" s="219"/>
-      <c r="G88" s="221"/>
-      <c r="H88" s="219"/>
-      <c r="I88" s="221"/>
+      <c r="B88" s="218"/>
+      <c r="C88" s="219"/>
+      <c r="D88" s="201"/>
+      <c r="E88" s="202"/>
+      <c r="F88" s="201"/>
+      <c r="G88" s="202"/>
+      <c r="H88" s="201"/>
+      <c r="I88" s="202"/>
       <c r="K88" s="140"/>
       <c r="L88" s="140"/>
       <c r="M88" s="169"/>
@@ -20484,14 +20607,14 @@
       <c r="R88" s="169"/>
     </row>
     <row r="89" spans="2:18" ht="15" customHeight="1">
-      <c r="B89" s="258"/>
-      <c r="C89" s="259"/>
-      <c r="D89" s="219"/>
-      <c r="E89" s="221"/>
-      <c r="F89" s="219"/>
-      <c r="G89" s="221"/>
-      <c r="H89" s="219"/>
-      <c r="I89" s="221"/>
+      <c r="B89" s="218"/>
+      <c r="C89" s="219"/>
+      <c r="D89" s="201"/>
+      <c r="E89" s="202"/>
+      <c r="F89" s="201"/>
+      <c r="G89" s="202"/>
+      <c r="H89" s="201"/>
+      <c r="I89" s="202"/>
       <c r="K89" s="169"/>
       <c r="L89" s="169"/>
       <c r="M89" s="169"/>
@@ -20502,14 +20625,14 @@
       <c r="R89" s="169"/>
     </row>
     <row r="90" spans="2:18">
-      <c r="B90" s="258"/>
-      <c r="C90" s="259"/>
-      <c r="D90" s="219"/>
-      <c r="E90" s="221"/>
-      <c r="F90" s="219"/>
-      <c r="G90" s="221"/>
-      <c r="H90" s="219"/>
-      <c r="I90" s="221"/>
+      <c r="B90" s="218"/>
+      <c r="C90" s="219"/>
+      <c r="D90" s="201"/>
+      <c r="E90" s="202"/>
+      <c r="F90" s="201"/>
+      <c r="G90" s="202"/>
+      <c r="H90" s="201"/>
+      <c r="I90" s="202"/>
       <c r="K90" s="169"/>
       <c r="L90" s="169"/>
       <c r="M90" s="169"/>
@@ -20520,14 +20643,14 @@
       <c r="R90" s="169"/>
     </row>
     <row r="91" spans="2:18">
-      <c r="B91" s="258"/>
-      <c r="C91" s="259"/>
-      <c r="D91" s="219"/>
-      <c r="E91" s="221"/>
-      <c r="F91" s="219"/>
-      <c r="G91" s="221"/>
-      <c r="H91" s="219"/>
-      <c r="I91" s="221"/>
+      <c r="B91" s="218"/>
+      <c r="C91" s="219"/>
+      <c r="D91" s="201"/>
+      <c r="E91" s="202"/>
+      <c r="F91" s="201"/>
+      <c r="G91" s="202"/>
+      <c r="H91" s="201"/>
+      <c r="I91" s="202"/>
       <c r="K91" s="169"/>
       <c r="L91" s="169"/>
       <c r="M91" s="169"/>
@@ -20538,140 +20661,140 @@
       <c r="R91" s="169"/>
     </row>
     <row r="92" spans="2:18">
-      <c r="B92" s="258"/>
-      <c r="C92" s="259"/>
-      <c r="D92" s="219"/>
-      <c r="E92" s="221"/>
-      <c r="F92" s="219"/>
-      <c r="G92" s="221"/>
-      <c r="H92" s="219"/>
-      <c r="I92" s="221"/>
+      <c r="B92" s="218"/>
+      <c r="C92" s="219"/>
+      <c r="D92" s="201"/>
+      <c r="E92" s="202"/>
+      <c r="F92" s="201"/>
+      <c r="G92" s="202"/>
+      <c r="H92" s="201"/>
+      <c r="I92" s="202"/>
     </row>
     <row r="93" spans="2:18" ht="15" customHeight="1">
-      <c r="B93" s="258"/>
-      <c r="C93" s="259"/>
-      <c r="D93" s="219"/>
-      <c r="E93" s="221"/>
-      <c r="F93" s="219"/>
-      <c r="G93" s="221"/>
-      <c r="H93" s="219"/>
-      <c r="I93" s="221"/>
+      <c r="B93" s="218"/>
+      <c r="C93" s="219"/>
+      <c r="D93" s="201"/>
+      <c r="E93" s="202"/>
+      <c r="F93" s="201"/>
+      <c r="G93" s="202"/>
+      <c r="H93" s="201"/>
+      <c r="I93" s="202"/>
       <c r="J93" s="168"/>
     </row>
     <row r="94" spans="2:18" ht="15" customHeight="1">
-      <c r="B94" s="260"/>
-      <c r="C94" s="261"/>
-      <c r="D94" s="216"/>
-      <c r="E94" s="217"/>
-      <c r="F94" s="216"/>
-      <c r="G94" s="217"/>
-      <c r="H94" s="216"/>
-      <c r="I94" s="217"/>
+      <c r="B94" s="220"/>
+      <c r="C94" s="221"/>
+      <c r="D94" s="203"/>
+      <c r="E94" s="204"/>
+      <c r="F94" s="203"/>
+      <c r="G94" s="204"/>
+      <c r="H94" s="203"/>
+      <c r="I94" s="204"/>
       <c r="J94" s="168"/>
     </row>
     <row r="95" spans="2:18" ht="15" customHeight="1">
-      <c r="B95" s="256" t="s">
+      <c r="B95" s="216" t="s">
         <v>242</v>
       </c>
-      <c r="C95" s="257"/>
-      <c r="D95" s="214" t="s">
+      <c r="C95" s="217"/>
+      <c r="D95" s="199" t="s">
         <v>247</v>
       </c>
-      <c r="E95" s="215"/>
-      <c r="F95" s="214" t="s">
+      <c r="E95" s="200"/>
+      <c r="F95" s="199" t="s">
         <v>293</v>
       </c>
-      <c r="G95" s="215"/>
-      <c r="H95" s="214" t="s">
+      <c r="G95" s="200"/>
+      <c r="H95" s="199" t="s">
         <v>296</v>
       </c>
-      <c r="I95" s="215"/>
+      <c r="I95" s="200"/>
       <c r="J95" s="168"/>
     </row>
     <row r="96" spans="2:18">
-      <c r="B96" s="258"/>
-      <c r="C96" s="259"/>
-      <c r="D96" s="219"/>
-      <c r="E96" s="221"/>
-      <c r="F96" s="219"/>
-      <c r="G96" s="221"/>
-      <c r="H96" s="219"/>
-      <c r="I96" s="221"/>
+      <c r="B96" s="218"/>
+      <c r="C96" s="219"/>
+      <c r="D96" s="201"/>
+      <c r="E96" s="202"/>
+      <c r="F96" s="201"/>
+      <c r="G96" s="202"/>
+      <c r="H96" s="201"/>
+      <c r="I96" s="202"/>
       <c r="J96" s="168"/>
     </row>
     <row r="97" spans="2:16" ht="15" customHeight="1">
-      <c r="B97" s="258"/>
-      <c r="C97" s="259"/>
-      <c r="D97" s="219"/>
-      <c r="E97" s="221"/>
-      <c r="F97" s="219"/>
-      <c r="G97" s="221"/>
-      <c r="H97" s="219"/>
-      <c r="I97" s="221"/>
+      <c r="B97" s="218"/>
+      <c r="C97" s="219"/>
+      <c r="D97" s="201"/>
+      <c r="E97" s="202"/>
+      <c r="F97" s="201"/>
+      <c r="G97" s="202"/>
+      <c r="H97" s="201"/>
+      <c r="I97" s="202"/>
       <c r="J97" s="168"/>
     </row>
     <row r="98" spans="2:16">
-      <c r="B98" s="258"/>
-      <c r="C98" s="259"/>
-      <c r="D98" s="219"/>
-      <c r="E98" s="221"/>
-      <c r="F98" s="219"/>
-      <c r="G98" s="221"/>
-      <c r="H98" s="219"/>
-      <c r="I98" s="221"/>
+      <c r="B98" s="218"/>
+      <c r="C98" s="219"/>
+      <c r="D98" s="201"/>
+      <c r="E98" s="202"/>
+      <c r="F98" s="201"/>
+      <c r="G98" s="202"/>
+      <c r="H98" s="201"/>
+      <c r="I98" s="202"/>
       <c r="J98" s="168"/>
     </row>
     <row r="99" spans="2:16">
-      <c r="B99" s="258"/>
-      <c r="C99" s="259"/>
-      <c r="D99" s="219"/>
-      <c r="E99" s="221"/>
-      <c r="F99" s="219"/>
-      <c r="G99" s="221"/>
-      <c r="H99" s="219"/>
-      <c r="I99" s="221"/>
+      <c r="B99" s="218"/>
+      <c r="C99" s="219"/>
+      <c r="D99" s="201"/>
+      <c r="E99" s="202"/>
+      <c r="F99" s="201"/>
+      <c r="G99" s="202"/>
+      <c r="H99" s="201"/>
+      <c r="I99" s="202"/>
       <c r="J99" s="168"/>
     </row>
     <row r="100" spans="2:16">
-      <c r="B100" s="258"/>
-      <c r="C100" s="259"/>
-      <c r="D100" s="219"/>
-      <c r="E100" s="221"/>
-      <c r="F100" s="219"/>
-      <c r="G100" s="221"/>
-      <c r="H100" s="219"/>
-      <c r="I100" s="221"/>
+      <c r="B100" s="218"/>
+      <c r="C100" s="219"/>
+      <c r="D100" s="201"/>
+      <c r="E100" s="202"/>
+      <c r="F100" s="201"/>
+      <c r="G100" s="202"/>
+      <c r="H100" s="201"/>
+      <c r="I100" s="202"/>
       <c r="J100" s="168"/>
     </row>
     <row r="101" spans="2:16">
-      <c r="B101" s="258"/>
-      <c r="C101" s="259"/>
-      <c r="D101" s="219"/>
-      <c r="E101" s="221"/>
-      <c r="F101" s="219"/>
-      <c r="G101" s="221"/>
-      <c r="H101" s="219"/>
-      <c r="I101" s="221"/>
+      <c r="B101" s="218"/>
+      <c r="C101" s="219"/>
+      <c r="D101" s="201"/>
+      <c r="E101" s="202"/>
+      <c r="F101" s="201"/>
+      <c r="G101" s="202"/>
+      <c r="H101" s="201"/>
+      <c r="I101" s="202"/>
     </row>
     <row r="102" spans="2:16">
-      <c r="B102" s="258"/>
-      <c r="C102" s="259"/>
-      <c r="D102" s="219"/>
-      <c r="E102" s="221"/>
-      <c r="F102" s="219"/>
-      <c r="G102" s="221"/>
-      <c r="H102" s="219"/>
-      <c r="I102" s="221"/>
+      <c r="B102" s="218"/>
+      <c r="C102" s="219"/>
+      <c r="D102" s="201"/>
+      <c r="E102" s="202"/>
+      <c r="F102" s="201"/>
+      <c r="G102" s="202"/>
+      <c r="H102" s="201"/>
+      <c r="I102" s="202"/>
     </row>
     <row r="103" spans="2:16">
-      <c r="B103" s="260"/>
-      <c r="C103" s="261"/>
-      <c r="D103" s="216"/>
-      <c r="E103" s="217"/>
-      <c r="F103" s="216"/>
-      <c r="G103" s="217"/>
-      <c r="H103" s="216"/>
-      <c r="I103" s="217"/>
+      <c r="B103" s="220"/>
+      <c r="C103" s="221"/>
+      <c r="D103" s="203"/>
+      <c r="E103" s="204"/>
+      <c r="F103" s="203"/>
+      <c r="G103" s="204"/>
+      <c r="H103" s="203"/>
+      <c r="I103" s="204"/>
       <c r="K103" s="140"/>
       <c r="L103" s="140"/>
       <c r="M103" s="137"/>
@@ -20679,335 +20802,335 @@
       <c r="P103" s="140"/>
     </row>
     <row r="106" spans="2:16">
-      <c r="B106" s="239" t="s">
+      <c r="B106" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="C106" s="240"/>
-      <c r="D106" s="240"/>
-      <c r="E106" s="240"/>
-      <c r="F106" s="240"/>
-      <c r="G106" s="240"/>
-      <c r="H106" s="240"/>
-      <c r="I106" s="241"/>
+      <c r="C106" s="223"/>
+      <c r="D106" s="223"/>
+      <c r="E106" s="223"/>
+      <c r="F106" s="223"/>
+      <c r="G106" s="223"/>
+      <c r="H106" s="223"/>
+      <c r="I106" s="224"/>
     </row>
     <row r="107" spans="2:16">
-      <c r="B107" s="225" t="s">
+      <c r="B107" s="214" t="s">
         <v>72</v>
       </c>
-      <c r="C107" s="226"/>
-      <c r="D107" s="225" t="s">
+      <c r="C107" s="215"/>
+      <c r="D107" s="214" t="s">
         <v>73</v>
       </c>
-      <c r="E107" s="238"/>
-      <c r="F107" s="238"/>
-      <c r="G107" s="226"/>
-      <c r="H107" s="225" t="s">
+      <c r="E107" s="229"/>
+      <c r="F107" s="229"/>
+      <c r="G107" s="215"/>
+      <c r="H107" s="214" t="s">
         <v>74</v>
       </c>
-      <c r="I107" s="226"/>
+      <c r="I107" s="215"/>
     </row>
     <row r="108" spans="2:16">
-      <c r="B108" s="214" t="s">
+      <c r="B108" s="199" t="s">
         <v>224</v>
       </c>
-      <c r="C108" s="215"/>
-      <c r="D108" s="214" t="s">
+      <c r="C108" s="200"/>
+      <c r="D108" s="199" t="s">
         <v>248</v>
       </c>
-      <c r="E108" s="218"/>
-      <c r="F108" s="218"/>
-      <c r="G108" s="215"/>
-      <c r="H108" s="250">
+      <c r="E108" s="205"/>
+      <c r="F108" s="205"/>
+      <c r="G108" s="200"/>
+      <c r="H108" s="208">
         <v>43595</v>
       </c>
-      <c r="I108" s="251"/>
+      <c r="I108" s="209"/>
       <c r="N108" s="172"/>
     </row>
     <row r="109" spans="2:16">
-      <c r="B109" s="219"/>
-      <c r="C109" s="221"/>
-      <c r="D109" s="219"/>
-      <c r="E109" s="220"/>
-      <c r="F109" s="220"/>
-      <c r="G109" s="221"/>
-      <c r="H109" s="252"/>
-      <c r="I109" s="253"/>
+      <c r="B109" s="201"/>
+      <c r="C109" s="202"/>
+      <c r="D109" s="201"/>
+      <c r="E109" s="206"/>
+      <c r="F109" s="206"/>
+      <c r="G109" s="202"/>
+      <c r="H109" s="210"/>
+      <c r="I109" s="211"/>
     </row>
     <row r="110" spans="2:16">
-      <c r="B110" s="219"/>
-      <c r="C110" s="221"/>
-      <c r="D110" s="219"/>
-      <c r="E110" s="220"/>
-      <c r="F110" s="220"/>
-      <c r="G110" s="221"/>
-      <c r="H110" s="252"/>
-      <c r="I110" s="253"/>
+      <c r="B110" s="201"/>
+      <c r="C110" s="202"/>
+      <c r="D110" s="201"/>
+      <c r="E110" s="206"/>
+      <c r="F110" s="206"/>
+      <c r="G110" s="202"/>
+      <c r="H110" s="210"/>
+      <c r="I110" s="211"/>
     </row>
     <row r="111" spans="2:16">
-      <c r="B111" s="219"/>
-      <c r="C111" s="221"/>
-      <c r="D111" s="219"/>
-      <c r="E111" s="220"/>
-      <c r="F111" s="220"/>
-      <c r="G111" s="221"/>
-      <c r="H111" s="252"/>
-      <c r="I111" s="253"/>
+      <c r="B111" s="201"/>
+      <c r="C111" s="202"/>
+      <c r="D111" s="201"/>
+      <c r="E111" s="206"/>
+      <c r="F111" s="206"/>
+      <c r="G111" s="202"/>
+      <c r="H111" s="210"/>
+      <c r="I111" s="211"/>
     </row>
     <row r="112" spans="2:16">
-      <c r="B112" s="219"/>
-      <c r="C112" s="221"/>
-      <c r="D112" s="219"/>
-      <c r="E112" s="220"/>
-      <c r="F112" s="220"/>
-      <c r="G112" s="221"/>
-      <c r="H112" s="252"/>
-      <c r="I112" s="253"/>
+      <c r="B112" s="201"/>
+      <c r="C112" s="202"/>
+      <c r="D112" s="201"/>
+      <c r="E112" s="206"/>
+      <c r="F112" s="206"/>
+      <c r="G112" s="202"/>
+      <c r="H112" s="210"/>
+      <c r="I112" s="211"/>
     </row>
     <row r="113" spans="2:9">
-      <c r="B113" s="216"/>
-      <c r="C113" s="217"/>
-      <c r="D113" s="216"/>
-      <c r="E113" s="222"/>
-      <c r="F113" s="222"/>
-      <c r="G113" s="217"/>
-      <c r="H113" s="254"/>
-      <c r="I113" s="255"/>
+      <c r="B113" s="203"/>
+      <c r="C113" s="204"/>
+      <c r="D113" s="203"/>
+      <c r="E113" s="207"/>
+      <c r="F113" s="207"/>
+      <c r="G113" s="204"/>
+      <c r="H113" s="212"/>
+      <c r="I113" s="213"/>
     </row>
     <row r="114" spans="2:9">
-      <c r="B114" s="214" t="s">
+      <c r="B114" s="199" t="s">
         <v>249</v>
       </c>
-      <c r="C114" s="215"/>
-      <c r="D114" s="214" t="s">
+      <c r="C114" s="200"/>
+      <c r="D114" s="199" t="s">
         <v>251</v>
       </c>
-      <c r="E114" s="218"/>
-      <c r="F114" s="218"/>
-      <c r="G114" s="215"/>
-      <c r="H114" s="250">
+      <c r="E114" s="205"/>
+      <c r="F114" s="205"/>
+      <c r="G114" s="200"/>
+      <c r="H114" s="208">
         <v>43596</v>
       </c>
-      <c r="I114" s="251"/>
+      <c r="I114" s="209"/>
     </row>
     <row r="115" spans="2:9">
-      <c r="B115" s="219"/>
-      <c r="C115" s="221"/>
-      <c r="D115" s="219"/>
-      <c r="E115" s="220"/>
-      <c r="F115" s="220"/>
-      <c r="G115" s="221"/>
-      <c r="H115" s="252"/>
-      <c r="I115" s="253"/>
+      <c r="B115" s="201"/>
+      <c r="C115" s="202"/>
+      <c r="D115" s="201"/>
+      <c r="E115" s="206"/>
+      <c r="F115" s="206"/>
+      <c r="G115" s="202"/>
+      <c r="H115" s="210"/>
+      <c r="I115" s="211"/>
     </row>
     <row r="116" spans="2:9">
-      <c r="B116" s="219"/>
-      <c r="C116" s="221"/>
-      <c r="D116" s="219"/>
-      <c r="E116" s="220"/>
-      <c r="F116" s="220"/>
-      <c r="G116" s="221"/>
-      <c r="H116" s="252"/>
-      <c r="I116" s="253"/>
+      <c r="B116" s="201"/>
+      <c r="C116" s="202"/>
+      <c r="D116" s="201"/>
+      <c r="E116" s="206"/>
+      <c r="F116" s="206"/>
+      <c r="G116" s="202"/>
+      <c r="H116" s="210"/>
+      <c r="I116" s="211"/>
     </row>
     <row r="117" spans="2:9">
-      <c r="B117" s="219"/>
-      <c r="C117" s="221"/>
-      <c r="D117" s="219"/>
-      <c r="E117" s="220"/>
-      <c r="F117" s="220"/>
-      <c r="G117" s="221"/>
-      <c r="H117" s="252"/>
-      <c r="I117" s="253"/>
+      <c r="B117" s="201"/>
+      <c r="C117" s="202"/>
+      <c r="D117" s="201"/>
+      <c r="E117" s="206"/>
+      <c r="F117" s="206"/>
+      <c r="G117" s="202"/>
+      <c r="H117" s="210"/>
+      <c r="I117" s="211"/>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="219"/>
-      <c r="C118" s="221"/>
-      <c r="D118" s="219"/>
-      <c r="E118" s="220"/>
-      <c r="F118" s="220"/>
-      <c r="G118" s="221"/>
-      <c r="H118" s="252"/>
-      <c r="I118" s="253"/>
+      <c r="B118" s="201"/>
+      <c r="C118" s="202"/>
+      <c r="D118" s="201"/>
+      <c r="E118" s="206"/>
+      <c r="F118" s="206"/>
+      <c r="G118" s="202"/>
+      <c r="H118" s="210"/>
+      <c r="I118" s="211"/>
     </row>
     <row r="119" spans="2:9">
-      <c r="B119" s="216"/>
-      <c r="C119" s="217"/>
-      <c r="D119" s="216"/>
-      <c r="E119" s="222"/>
-      <c r="F119" s="222"/>
-      <c r="G119" s="217"/>
-      <c r="H119" s="254"/>
-      <c r="I119" s="255"/>
+      <c r="B119" s="203"/>
+      <c r="C119" s="204"/>
+      <c r="D119" s="203"/>
+      <c r="E119" s="207"/>
+      <c r="F119" s="207"/>
+      <c r="G119" s="204"/>
+      <c r="H119" s="212"/>
+      <c r="I119" s="213"/>
     </row>
     <row r="120" spans="2:9">
-      <c r="B120" s="214" t="s">
+      <c r="B120" s="199" t="s">
         <v>191</v>
       </c>
-      <c r="C120" s="215"/>
-      <c r="D120" s="214" t="s">
+      <c r="C120" s="200"/>
+      <c r="D120" s="199" t="s">
         <v>252</v>
       </c>
-      <c r="E120" s="218"/>
-      <c r="F120" s="218"/>
-      <c r="G120" s="215"/>
-      <c r="H120" s="250">
+      <c r="E120" s="205"/>
+      <c r="F120" s="205"/>
+      <c r="G120" s="200"/>
+      <c r="H120" s="208">
         <v>43617</v>
       </c>
-      <c r="I120" s="251"/>
+      <c r="I120" s="209"/>
     </row>
     <row r="121" spans="2:9">
-      <c r="B121" s="219"/>
-      <c r="C121" s="221"/>
-      <c r="D121" s="219"/>
-      <c r="E121" s="220"/>
-      <c r="F121" s="220"/>
-      <c r="G121" s="221"/>
-      <c r="H121" s="252"/>
-      <c r="I121" s="253"/>
+      <c r="B121" s="201"/>
+      <c r="C121" s="202"/>
+      <c r="D121" s="201"/>
+      <c r="E121" s="206"/>
+      <c r="F121" s="206"/>
+      <c r="G121" s="202"/>
+      <c r="H121" s="210"/>
+      <c r="I121" s="211"/>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="219"/>
-      <c r="C122" s="221"/>
-      <c r="D122" s="219"/>
-      <c r="E122" s="220"/>
-      <c r="F122" s="220"/>
-      <c r="G122" s="221"/>
-      <c r="H122" s="252"/>
-      <c r="I122" s="253"/>
+      <c r="B122" s="201"/>
+      <c r="C122" s="202"/>
+      <c r="D122" s="201"/>
+      <c r="E122" s="206"/>
+      <c r="F122" s="206"/>
+      <c r="G122" s="202"/>
+      <c r="H122" s="210"/>
+      <c r="I122" s="211"/>
     </row>
     <row r="123" spans="2:9">
-      <c r="B123" s="219"/>
-      <c r="C123" s="221"/>
-      <c r="D123" s="219"/>
-      <c r="E123" s="220"/>
-      <c r="F123" s="220"/>
-      <c r="G123" s="221"/>
-      <c r="H123" s="252"/>
-      <c r="I123" s="253"/>
+      <c r="B123" s="201"/>
+      <c r="C123" s="202"/>
+      <c r="D123" s="201"/>
+      <c r="E123" s="206"/>
+      <c r="F123" s="206"/>
+      <c r="G123" s="202"/>
+      <c r="H123" s="210"/>
+      <c r="I123" s="211"/>
     </row>
     <row r="124" spans="2:9">
-      <c r="B124" s="219"/>
-      <c r="C124" s="221"/>
-      <c r="D124" s="219"/>
-      <c r="E124" s="220"/>
-      <c r="F124" s="220"/>
-      <c r="G124" s="221"/>
-      <c r="H124" s="252"/>
-      <c r="I124" s="253"/>
+      <c r="B124" s="201"/>
+      <c r="C124" s="202"/>
+      <c r="D124" s="201"/>
+      <c r="E124" s="206"/>
+      <c r="F124" s="206"/>
+      <c r="G124" s="202"/>
+      <c r="H124" s="210"/>
+      <c r="I124" s="211"/>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="216"/>
-      <c r="C125" s="217"/>
-      <c r="D125" s="216"/>
-      <c r="E125" s="222"/>
-      <c r="F125" s="222"/>
-      <c r="G125" s="217"/>
-      <c r="H125" s="254"/>
-      <c r="I125" s="255"/>
+      <c r="B125" s="203"/>
+      <c r="C125" s="204"/>
+      <c r="D125" s="203"/>
+      <c r="E125" s="207"/>
+      <c r="F125" s="207"/>
+      <c r="G125" s="204"/>
+      <c r="H125" s="212"/>
+      <c r="I125" s="213"/>
     </row>
     <row r="126" spans="2:9">
-      <c r="B126" s="214" t="s">
+      <c r="B126" s="199" t="s">
         <v>250</v>
       </c>
-      <c r="C126" s="215"/>
-      <c r="D126" s="214" t="s">
+      <c r="C126" s="200"/>
+      <c r="D126" s="199" t="s">
         <v>253</v>
       </c>
-      <c r="E126" s="218"/>
-      <c r="F126" s="218"/>
-      <c r="G126" s="215"/>
-      <c r="H126" s="250">
+      <c r="E126" s="205"/>
+      <c r="F126" s="205"/>
+      <c r="G126" s="200"/>
+      <c r="H126" s="208">
         <v>43630</v>
       </c>
-      <c r="I126" s="251"/>
+      <c r="I126" s="209"/>
     </row>
     <row r="127" spans="2:9">
-      <c r="B127" s="219"/>
-      <c r="C127" s="221"/>
-      <c r="D127" s="219"/>
-      <c r="E127" s="220"/>
-      <c r="F127" s="220"/>
-      <c r="G127" s="221"/>
-      <c r="H127" s="252"/>
-      <c r="I127" s="253"/>
+      <c r="B127" s="201"/>
+      <c r="C127" s="202"/>
+      <c r="D127" s="201"/>
+      <c r="E127" s="206"/>
+      <c r="F127" s="206"/>
+      <c r="G127" s="202"/>
+      <c r="H127" s="210"/>
+      <c r="I127" s="211"/>
     </row>
     <row r="128" spans="2:9">
-      <c r="B128" s="219"/>
-      <c r="C128" s="221"/>
-      <c r="D128" s="219"/>
-      <c r="E128" s="220"/>
-      <c r="F128" s="220"/>
-      <c r="G128" s="221"/>
-      <c r="H128" s="252"/>
-      <c r="I128" s="253"/>
+      <c r="B128" s="201"/>
+      <c r="C128" s="202"/>
+      <c r="D128" s="201"/>
+      <c r="E128" s="206"/>
+      <c r="F128" s="206"/>
+      <c r="G128" s="202"/>
+      <c r="H128" s="210"/>
+      <c r="I128" s="211"/>
     </row>
     <row r="129" spans="2:9">
-      <c r="B129" s="219"/>
-      <c r="C129" s="221"/>
-      <c r="D129" s="219"/>
-      <c r="E129" s="220"/>
-      <c r="F129" s="220"/>
-      <c r="G129" s="221"/>
-      <c r="H129" s="252"/>
-      <c r="I129" s="253"/>
+      <c r="B129" s="201"/>
+      <c r="C129" s="202"/>
+      <c r="D129" s="201"/>
+      <c r="E129" s="206"/>
+      <c r="F129" s="206"/>
+      <c r="G129" s="202"/>
+      <c r="H129" s="210"/>
+      <c r="I129" s="211"/>
     </row>
     <row r="130" spans="2:9">
-      <c r="B130" s="219"/>
-      <c r="C130" s="221"/>
-      <c r="D130" s="219"/>
-      <c r="E130" s="220"/>
-      <c r="F130" s="220"/>
-      <c r="G130" s="221"/>
-      <c r="H130" s="252"/>
-      <c r="I130" s="253"/>
+      <c r="B130" s="201"/>
+      <c r="C130" s="202"/>
+      <c r="D130" s="201"/>
+      <c r="E130" s="206"/>
+      <c r="F130" s="206"/>
+      <c r="G130" s="202"/>
+      <c r="H130" s="210"/>
+      <c r="I130" s="211"/>
     </row>
     <row r="131" spans="2:9">
-      <c r="B131" s="216"/>
-      <c r="C131" s="217"/>
-      <c r="D131" s="216"/>
-      <c r="E131" s="222"/>
-      <c r="F131" s="222"/>
-      <c r="G131" s="217"/>
-      <c r="H131" s="254"/>
-      <c r="I131" s="255"/>
+      <c r="B131" s="203"/>
+      <c r="C131" s="204"/>
+      <c r="D131" s="203"/>
+      <c r="E131" s="207"/>
+      <c r="F131" s="207"/>
+      <c r="G131" s="204"/>
+      <c r="H131" s="212"/>
+      <c r="I131" s="213"/>
     </row>
     <row r="135" spans="2:9">
-      <c r="B135" s="248" t="s">
+      <c r="B135" s="227" t="s">
         <v>75</v>
       </c>
-      <c r="C135" s="248"/>
-      <c r="D135" s="248"/>
+      <c r="C135" s="227"/>
+      <c r="D135" s="227"/>
       <c r="E135" s="133"/>
-      <c r="G135" s="248" t="s">
+      <c r="G135" s="227" t="s">
         <v>77</v>
       </c>
-      <c r="H135" s="248"/>
-      <c r="I135" s="248"/>
+      <c r="H135" s="227"/>
+      <c r="I135" s="227"/>
     </row>
     <row r="136" spans="2:9">
-      <c r="B136" s="246" t="s">
+      <c r="B136" s="225" t="s">
         <v>76</v>
       </c>
-      <c r="C136" s="246"/>
-      <c r="D136" s="246"/>
+      <c r="C136" s="225"/>
+      <c r="D136" s="225"/>
       <c r="E136" s="133"/>
-      <c r="G136" s="249" t="s">
+      <c r="G136" s="228" t="s">
         <v>78</v>
       </c>
-      <c r="H136" s="249"/>
-      <c r="I136" s="249"/>
+      <c r="H136" s="228"/>
+      <c r="I136" s="228"/>
     </row>
     <row r="137" spans="2:9">
       <c r="B137" s="131"/>
       <c r="C137" s="131"/>
     </row>
     <row r="139" spans="2:9">
-      <c r="B139" s="247" t="s">
+      <c r="B139" s="226" t="s">
         <v>102</v>
       </c>
-      <c r="C139" s="247"/>
-      <c r="D139" s="247"/>
-      <c r="E139" s="247"/>
+      <c r="C139" s="226"/>
+      <c r="D139" s="226"/>
+      <c r="E139" s="226"/>
     </row>
     <row r="141" spans="2:9">
       <c r="B141" s="132"/>
@@ -21026,17 +21149,68 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="F86:G94"/>
-    <mergeCell ref="H86:I94"/>
-    <mergeCell ref="B126:C131"/>
-    <mergeCell ref="D126:G131"/>
-    <mergeCell ref="H126:I131"/>
-    <mergeCell ref="B114:C119"/>
-    <mergeCell ref="D114:G119"/>
-    <mergeCell ref="H114:I119"/>
-    <mergeCell ref="B120:C125"/>
-    <mergeCell ref="D120:G125"/>
-    <mergeCell ref="H120:I125"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="D12:I14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="D8:I9"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B69:E73"/>
+    <mergeCell ref="F69:I73"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I64"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:C49"/>
+    <mergeCell ref="B50:C52"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I27"/>
+    <mergeCell ref="B41:E43"/>
+    <mergeCell ref="F41:I43"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="D47:I49"/>
+    <mergeCell ref="D50:I52"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B37:E39"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B32:E35"/>
+    <mergeCell ref="F32:I35"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="B108:C113"/>
+    <mergeCell ref="D108:G113"/>
+    <mergeCell ref="H108:I113"/>
+    <mergeCell ref="B135:D135"/>
     <mergeCell ref="H76:I76"/>
     <mergeCell ref="B77:C85"/>
     <mergeCell ref="B75:I75"/>
@@ -21053,68 +21227,17 @@
     <mergeCell ref="F77:G85"/>
     <mergeCell ref="H77:I85"/>
     <mergeCell ref="D86:E94"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="B108:C113"/>
-    <mergeCell ref="D108:G113"/>
-    <mergeCell ref="H108:I113"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B37:E39"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B32:E35"/>
-    <mergeCell ref="F32:I35"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:C49"/>
-    <mergeCell ref="B50:C52"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I27"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B69:E73"/>
-    <mergeCell ref="F69:I73"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I64"/>
-    <mergeCell ref="B41:E43"/>
-    <mergeCell ref="F41:I43"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="D47:I49"/>
-    <mergeCell ref="D50:I52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="D12:I14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="D8:I9"/>
+    <mergeCell ref="F86:G94"/>
+    <mergeCell ref="H86:I94"/>
+    <mergeCell ref="B126:C131"/>
+    <mergeCell ref="D126:G131"/>
+    <mergeCell ref="H126:I131"/>
+    <mergeCell ref="B114:C119"/>
+    <mergeCell ref="D114:G119"/>
+    <mergeCell ref="H114:I119"/>
+    <mergeCell ref="B120:C125"/>
+    <mergeCell ref="D120:G125"/>
+    <mergeCell ref="H120:I125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21153,7 +21276,7 @@
   </sheetPr>
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -21174,18 +21297,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18.75">
-      <c r="B2" s="262" t="s">
+      <c r="B2" s="250" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
-      <c r="K2" s="262"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="157" t="s">
@@ -21624,12 +21747,12 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:42" ht="15.75" thickBot="1">
-      <c r="B3" s="263" t="s">
+      <c r="B3" s="260" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
+      <c r="C3" s="260"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="260"/>
       <c r="G3" s="163"/>
       <c r="H3" s="164"/>
       <c r="I3" s="164"/>
@@ -21665,12 +21788,12 @@
       <c r="AM3" s="164"/>
     </row>
     <row r="4" spans="1:42">
-      <c r="B4" s="263" t="s">
+      <c r="B4" s="260" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
+      <c r="C4" s="260"/>
+      <c r="D4" s="260"/>
+      <c r="E4" s="260"/>
       <c r="F4" s="164"/>
       <c r="G4" s="164"/>
       <c r="H4" s="164"/>
@@ -21693,11 +21816,11 @@
       <c r="Y4" s="164"/>
       <c r="Z4" s="164"/>
       <c r="AA4" s="164"/>
-      <c r="AB4" s="264" t="s">
+      <c r="AB4" s="251" t="s">
         <v>137</v>
       </c>
-      <c r="AC4" s="265"/>
-      <c r="AD4" s="266"/>
+      <c r="AC4" s="252"/>
+      <c r="AD4" s="253"/>
       <c r="AE4" s="163"/>
       <c r="AF4" s="164"/>
       <c r="AG4" s="164"/>
@@ -21736,9 +21859,9 @@
       <c r="Y5" s="164"/>
       <c r="Z5" s="164"/>
       <c r="AA5" s="164"/>
-      <c r="AB5" s="267"/>
-      <c r="AC5" s="268"/>
-      <c r="AD5" s="269"/>
+      <c r="AB5" s="254"/>
+      <c r="AC5" s="255"/>
+      <c r="AD5" s="256"/>
       <c r="AE5" s="163"/>
       <c r="AF5" s="164"/>
       <c r="AG5" s="164"/>
@@ -21777,9 +21900,9 @@
       <c r="Y6" s="164"/>
       <c r="Z6" s="164"/>
       <c r="AA6" s="164"/>
-      <c r="AB6" s="270"/>
-      <c r="AC6" s="271"/>
-      <c r="AD6" s="272"/>
+      <c r="AB6" s="257"/>
+      <c r="AC6" s="258"/>
+      <c r="AD6" s="259"/>
       <c r="AE6" s="164"/>
       <c r="AF6" s="164"/>
       <c r="AG6" s="164"/>
@@ -21843,11 +21966,11 @@
       <c r="I8" s="163"/>
       <c r="J8" s="163"/>
       <c r="K8" s="164"/>
-      <c r="L8" s="264" t="s">
+      <c r="L8" s="251" t="s">
         <v>137</v>
       </c>
-      <c r="M8" s="265"/>
-      <c r="N8" s="266"/>
+      <c r="M8" s="252"/>
+      <c r="N8" s="253"/>
       <c r="O8" s="164"/>
       <c r="P8" s="164"/>
       <c r="Q8" s="164"/>
@@ -21886,9 +22009,9 @@
       <c r="I9" s="164"/>
       <c r="J9" s="164"/>
       <c r="K9" s="164"/>
-      <c r="L9" s="267"/>
-      <c r="M9" s="268"/>
-      <c r="N9" s="269"/>
+      <c r="L9" s="254"/>
+      <c r="M9" s="255"/>
+      <c r="N9" s="256"/>
       <c r="O9" s="164"/>
       <c r="P9" s="164"/>
       <c r="Q9" s="164"/>
@@ -21927,9 +22050,9 @@
       <c r="I10" s="164"/>
       <c r="J10" s="164"/>
       <c r="K10" s="164"/>
-      <c r="L10" s="270"/>
-      <c r="M10" s="271"/>
-      <c r="N10" s="272"/>
+      <c r="L10" s="257"/>
+      <c r="M10" s="258"/>
+      <c r="N10" s="259"/>
       <c r="O10" s="164"/>
       <c r="P10" s="164"/>
       <c r="Q10" s="164"/>
@@ -21960,11 +22083,11 @@
       <c r="A11" s="163"/>
       <c r="B11" s="163"/>
       <c r="C11" s="163"/>
-      <c r="D11" s="264" t="s">
+      <c r="D11" s="251" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="265"/>
-      <c r="F11" s="266"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="253"/>
       <c r="G11" s="163"/>
       <c r="H11" s="164"/>
       <c r="I11" s="164"/>
@@ -21978,17 +22101,17 @@
       <c r="Q11" s="164"/>
       <c r="R11" s="164"/>
       <c r="S11" s="164"/>
-      <c r="T11" s="264" t="s">
+      <c r="T11" s="251" t="s">
         <v>137</v>
       </c>
-      <c r="U11" s="265"/>
-      <c r="V11" s="266"/>
+      <c r="U11" s="252"/>
+      <c r="V11" s="253"/>
       <c r="W11" s="164"/>
-      <c r="X11" s="264" t="s">
+      <c r="X11" s="251" t="s">
         <v>137</v>
       </c>
-      <c r="Y11" s="265"/>
-      <c r="Z11" s="266"/>
+      <c r="Y11" s="252"/>
+      <c r="Z11" s="253"/>
       <c r="AA11" s="164"/>
       <c r="AB11" s="164"/>
       <c r="AC11" s="164"/>
@@ -22007,9 +22130,9 @@
       <c r="A12" s="163"/>
       <c r="B12" s="163"/>
       <c r="C12" s="163"/>
-      <c r="D12" s="267"/>
-      <c r="E12" s="268"/>
-      <c r="F12" s="269"/>
+      <c r="D12" s="254"/>
+      <c r="E12" s="255"/>
+      <c r="F12" s="256"/>
       <c r="G12" s="163"/>
       <c r="H12" s="164"/>
       <c r="I12" s="164"/>
@@ -22023,13 +22146,13 @@
       <c r="Q12" s="164"/>
       <c r="R12" s="164"/>
       <c r="S12" s="164"/>
-      <c r="T12" s="267"/>
-      <c r="U12" s="268"/>
-      <c r="V12" s="269"/>
+      <c r="T12" s="254"/>
+      <c r="U12" s="255"/>
+      <c r="V12" s="256"/>
       <c r="W12" s="164"/>
-      <c r="X12" s="267"/>
-      <c r="Y12" s="268"/>
-      <c r="Z12" s="269"/>
+      <c r="X12" s="254"/>
+      <c r="Y12" s="255"/>
+      <c r="Z12" s="256"/>
       <c r="AA12" s="164"/>
       <c r="AB12" s="164"/>
       <c r="AC12" s="164"/>
@@ -22048,9 +22171,9 @@
       <c r="A13" s="163"/>
       <c r="B13" s="163"/>
       <c r="C13" s="163"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="271"/>
-      <c r="F13" s="272"/>
+      <c r="D13" s="257"/>
+      <c r="E13" s="258"/>
+      <c r="F13" s="259"/>
       <c r="G13" s="163"/>
       <c r="H13" s="163"/>
       <c r="I13" s="163"/>
@@ -22064,13 +22187,13 @@
       <c r="Q13" s="164"/>
       <c r="R13" s="164"/>
       <c r="S13" s="164"/>
-      <c r="T13" s="270"/>
-      <c r="U13" s="271"/>
-      <c r="V13" s="272"/>
+      <c r="T13" s="257"/>
+      <c r="U13" s="258"/>
+      <c r="V13" s="259"/>
       <c r="W13" s="164"/>
-      <c r="X13" s="270"/>
-      <c r="Y13" s="271"/>
-      <c r="Z13" s="272"/>
+      <c r="X13" s="257"/>
+      <c r="Y13" s="258"/>
+      <c r="Z13" s="259"/>
       <c r="AA13" s="164"/>
       <c r="AB13" s="164"/>
       <c r="AC13" s="164"/>
@@ -22093,17 +22216,17 @@
       <c r="E14" s="163"/>
       <c r="F14" s="163"/>
       <c r="G14" s="163"/>
-      <c r="H14" s="264" t="s">
+      <c r="H14" s="251" t="s">
         <v>137</v>
       </c>
-      <c r="I14" s="265"/>
-      <c r="J14" s="266"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="253"/>
       <c r="K14" s="164"/>
-      <c r="L14" s="264" t="s">
+      <c r="L14" s="251" t="s">
         <v>137</v>
       </c>
-      <c r="M14" s="265"/>
-      <c r="N14" s="266"/>
+      <c r="M14" s="252"/>
+      <c r="N14" s="253"/>
       <c r="O14" s="164"/>
       <c r="P14" s="164"/>
       <c r="Q14" s="164"/>
@@ -22138,13 +22261,13 @@
       <c r="E15" s="164"/>
       <c r="F15" s="164"/>
       <c r="G15" s="163"/>
-      <c r="H15" s="267"/>
-      <c r="I15" s="268"/>
-      <c r="J15" s="269"/>
+      <c r="H15" s="254"/>
+      <c r="I15" s="255"/>
+      <c r="J15" s="256"/>
       <c r="K15" s="164"/>
-      <c r="L15" s="267"/>
-      <c r="M15" s="268"/>
-      <c r="N15" s="269"/>
+      <c r="L15" s="254"/>
+      <c r="M15" s="255"/>
+      <c r="N15" s="256"/>
       <c r="O15" s="164"/>
       <c r="P15" s="164"/>
       <c r="Q15" s="164"/>
@@ -22179,13 +22302,13 @@
       <c r="E16" s="164"/>
       <c r="F16" s="164"/>
       <c r="G16" s="163"/>
-      <c r="H16" s="270"/>
-      <c r="I16" s="271"/>
-      <c r="J16" s="272"/>
+      <c r="H16" s="257"/>
+      <c r="I16" s="258"/>
+      <c r="J16" s="259"/>
       <c r="K16" s="164"/>
-      <c r="L16" s="270"/>
-      <c r="M16" s="271"/>
-      <c r="N16" s="272"/>
+      <c r="L16" s="257"/>
+      <c r="M16" s="258"/>
+      <c r="N16" s="259"/>
       <c r="O16" s="164"/>
       <c r="P16" s="164"/>
       <c r="Q16" s="164"/>
@@ -22225,11 +22348,11 @@
       <c r="M17" s="164"/>
       <c r="N17" s="164"/>
       <c r="O17" s="164"/>
-      <c r="P17" s="264" t="s">
+      <c r="P17" s="251" t="s">
         <v>137</v>
       </c>
-      <c r="Q17" s="265"/>
-      <c r="R17" s="266"/>
+      <c r="Q17" s="252"/>
+      <c r="R17" s="253"/>
       <c r="S17" s="164"/>
       <c r="T17" s="164"/>
       <c r="U17" s="164"/>
@@ -22265,9 +22388,9 @@
       <c r="M18" s="164"/>
       <c r="N18" s="164"/>
       <c r="O18" s="164"/>
-      <c r="P18" s="267"/>
-      <c r="Q18" s="268"/>
-      <c r="R18" s="269"/>
+      <c r="P18" s="254"/>
+      <c r="Q18" s="255"/>
+      <c r="R18" s="256"/>
       <c r="S18" s="164"/>
       <c r="T18" s="164"/>
       <c r="U18" s="164"/>
@@ -22306,9 +22429,9 @@
       <c r="M19" s="164"/>
       <c r="N19" s="164"/>
       <c r="O19" s="164"/>
-      <c r="P19" s="270"/>
-      <c r="Q19" s="271"/>
-      <c r="R19" s="272"/>
+      <c r="P19" s="257"/>
+      <c r="Q19" s="258"/>
+      <c r="R19" s="259"/>
       <c r="S19" s="164"/>
       <c r="T19" s="164"/>
       <c r="U19" s="164"/>
@@ -22339,17 +22462,17 @@
       <c r="E20" s="163"/>
       <c r="F20" s="163"/>
       <c r="G20" s="163"/>
-      <c r="H20" s="264" t="s">
+      <c r="H20" s="251" t="s">
         <v>137</v>
       </c>
-      <c r="I20" s="265"/>
-      <c r="J20" s="266"/>
+      <c r="I20" s="252"/>
+      <c r="J20" s="253"/>
       <c r="K20" s="164"/>
-      <c r="L20" s="264" t="s">
+      <c r="L20" s="251" t="s">
         <v>137</v>
       </c>
-      <c r="M20" s="265"/>
-      <c r="N20" s="266"/>
+      <c r="M20" s="252"/>
+      <c r="N20" s="253"/>
       <c r="O20" s="164"/>
       <c r="P20" s="164"/>
       <c r="Q20" s="164"/>
@@ -22384,13 +22507,13 @@
       <c r="E21" s="164"/>
       <c r="F21" s="164"/>
       <c r="G21" s="163"/>
-      <c r="H21" s="267"/>
-      <c r="I21" s="268"/>
-      <c r="J21" s="269"/>
+      <c r="H21" s="254"/>
+      <c r="I21" s="255"/>
+      <c r="J21" s="256"/>
       <c r="K21" s="164"/>
-      <c r="L21" s="267"/>
-      <c r="M21" s="268"/>
-      <c r="N21" s="269"/>
+      <c r="L21" s="254"/>
+      <c r="M21" s="255"/>
+      <c r="N21" s="256"/>
       <c r="O21" s="164"/>
       <c r="P21" s="164"/>
       <c r="Q21" s="164"/>
@@ -22425,13 +22548,13 @@
       <c r="E22" s="164"/>
       <c r="F22" s="164"/>
       <c r="G22" s="163"/>
-      <c r="H22" s="270"/>
-      <c r="I22" s="271"/>
-      <c r="J22" s="272"/>
+      <c r="H22" s="257"/>
+      <c r="I22" s="258"/>
+      <c r="J22" s="259"/>
       <c r="K22" s="164"/>
-      <c r="L22" s="270"/>
-      <c r="M22" s="271"/>
-      <c r="N22" s="272"/>
+      <c r="L22" s="257"/>
+      <c r="M22" s="258"/>
+      <c r="N22" s="259"/>
       <c r="O22" s="164"/>
       <c r="P22" s="164"/>
       <c r="Q22" s="164"/>
@@ -22535,18 +22658,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="L8:N10"/>
+    <mergeCell ref="T11:V13"/>
+    <mergeCell ref="X11:Z13"/>
+    <mergeCell ref="D11:F13"/>
     <mergeCell ref="AB4:AD6"/>
     <mergeCell ref="H14:J16"/>
     <mergeCell ref="H20:J22"/>
     <mergeCell ref="L14:N16"/>
     <mergeCell ref="L20:N22"/>
     <mergeCell ref="P17:R19"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="L8:N10"/>
-    <mergeCell ref="T11:V13"/>
-    <mergeCell ref="X11:Z13"/>
-    <mergeCell ref="D11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22562,7 +22685,7 @@
   <dimension ref="A1:EP77"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -22725,474 +22848,474 @@
       <c r="A2" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
-      <c r="I2" s="347"/>
-      <c r="J2" s="347"/>
-      <c r="K2" s="347"/>
-      <c r="L2" s="347"/>
-      <c r="M2" s="347"/>
-      <c r="N2" s="347"/>
-      <c r="O2" s="347"/>
-      <c r="P2" s="347"/>
-      <c r="Q2" s="347"/>
-      <c r="R2" s="347"/>
-      <c r="S2" s="347"/>
-      <c r="T2" s="347"/>
-      <c r="U2" s="348"/>
-      <c r="V2" s="349" t="s">
+      <c r="B2" s="309"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="310"/>
+      <c r="G2" s="310"/>
+      <c r="H2" s="310"/>
+      <c r="I2" s="310"/>
+      <c r="J2" s="310"/>
+      <c r="K2" s="310"/>
+      <c r="L2" s="310"/>
+      <c r="M2" s="310"/>
+      <c r="N2" s="310"/>
+      <c r="O2" s="310"/>
+      <c r="P2" s="310"/>
+      <c r="Q2" s="310"/>
+      <c r="R2" s="310"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="310"/>
+      <c r="U2" s="311"/>
+      <c r="V2" s="312" t="s">
         <v>146</v>
       </c>
-      <c r="W2" s="350"/>
-      <c r="X2" s="350"/>
-      <c r="Y2" s="350"/>
-      <c r="Z2" s="350"/>
-      <c r="AA2" s="350"/>
-      <c r="AB2" s="350"/>
-      <c r="AC2" s="350"/>
-      <c r="AD2" s="350"/>
-      <c r="AE2" s="350"/>
-      <c r="AF2" s="350"/>
-      <c r="AG2" s="350"/>
-      <c r="AH2" s="350"/>
-      <c r="AI2" s="351"/>
-      <c r="AJ2" s="352">
+      <c r="W2" s="313"/>
+      <c r="X2" s="313"/>
+      <c r="Y2" s="313"/>
+      <c r="Z2" s="313"/>
+      <c r="AA2" s="313"/>
+      <c r="AB2" s="313"/>
+      <c r="AC2" s="313"/>
+      <c r="AD2" s="313"/>
+      <c r="AE2" s="313"/>
+      <c r="AF2" s="313"/>
+      <c r="AG2" s="313"/>
+      <c r="AH2" s="313"/>
+      <c r="AI2" s="314"/>
+      <c r="AJ2" s="315">
         <v>43590</v>
       </c>
-      <c r="AK2" s="353"/>
-      <c r="AL2" s="353"/>
-      <c r="AM2" s="353"/>
-      <c r="AN2" s="353"/>
-      <c r="AO2" s="353"/>
-      <c r="AP2" s="353"/>
-      <c r="AQ2" s="353"/>
-      <c r="AR2" s="353"/>
-      <c r="AS2" s="353"/>
-      <c r="AT2" s="354"/>
-      <c r="AU2" s="355"/>
-      <c r="AV2" s="356"/>
-      <c r="AW2" s="356"/>
-      <c r="AX2" s="356"/>
-      <c r="AY2" s="356"/>
-      <c r="AZ2" s="356"/>
-      <c r="BA2" s="356"/>
-      <c r="BB2" s="356"/>
-      <c r="BC2" s="356"/>
-      <c r="BD2" s="356"/>
-      <c r="BE2" s="356"/>
-      <c r="BF2" s="356"/>
-      <c r="BG2" s="357"/>
+      <c r="AK2" s="316"/>
+      <c r="AL2" s="316"/>
+      <c r="AM2" s="316"/>
+      <c r="AN2" s="316"/>
+      <c r="AO2" s="316"/>
+      <c r="AP2" s="316"/>
+      <c r="AQ2" s="316"/>
+      <c r="AR2" s="316"/>
+      <c r="AS2" s="316"/>
+      <c r="AT2" s="317"/>
+      <c r="AU2" s="318"/>
+      <c r="AV2" s="319"/>
+      <c r="AW2" s="319"/>
+      <c r="AX2" s="319"/>
+      <c r="AY2" s="319"/>
+      <c r="AZ2" s="319"/>
+      <c r="BA2" s="319"/>
+      <c r="BB2" s="319"/>
+      <c r="BC2" s="319"/>
+      <c r="BD2" s="319"/>
+      <c r="BE2" s="319"/>
+      <c r="BF2" s="319"/>
+      <c r="BG2" s="320"/>
       <c r="BH2" s="45"/>
       <c r="BI2" s="46"/>
-      <c r="BJ2" s="358" t="s">
+      <c r="BJ2" s="321" t="s">
         <v>149</v>
       </c>
-      <c r="BK2" s="350"/>
-      <c r="BL2" s="350"/>
-      <c r="BM2" s="350"/>
-      <c r="BN2" s="350"/>
-      <c r="BO2" s="350"/>
-      <c r="BP2" s="350"/>
-      <c r="BQ2" s="350"/>
-      <c r="BR2" s="350"/>
-      <c r="BS2" s="350"/>
-      <c r="BT2" s="350"/>
-      <c r="BU2" s="350"/>
-      <c r="BV2" s="350"/>
-      <c r="BW2" s="350"/>
-      <c r="BX2" s="350"/>
-      <c r="BY2" s="350"/>
-      <c r="BZ2" s="350"/>
-      <c r="CA2" s="350"/>
-      <c r="CB2" s="350"/>
-      <c r="CC2" s="350"/>
-      <c r="CD2" s="350"/>
-      <c r="CE2" s="350"/>
-      <c r="CF2" s="350"/>
-      <c r="CG2" s="359"/>
-      <c r="CH2" s="332" t="s">
+      <c r="BK2" s="313"/>
+      <c r="BL2" s="313"/>
+      <c r="BM2" s="313"/>
+      <c r="BN2" s="313"/>
+      <c r="BO2" s="313"/>
+      <c r="BP2" s="313"/>
+      <c r="BQ2" s="313"/>
+      <c r="BR2" s="313"/>
+      <c r="BS2" s="313"/>
+      <c r="BT2" s="313"/>
+      <c r="BU2" s="313"/>
+      <c r="BV2" s="313"/>
+      <c r="BW2" s="313"/>
+      <c r="BX2" s="313"/>
+      <c r="BY2" s="313"/>
+      <c r="BZ2" s="313"/>
+      <c r="CA2" s="313"/>
+      <c r="CB2" s="313"/>
+      <c r="CC2" s="313"/>
+      <c r="CD2" s="313"/>
+      <c r="CE2" s="313"/>
+      <c r="CF2" s="313"/>
+      <c r="CG2" s="322"/>
+      <c r="CH2" s="295" t="s">
         <v>158</v>
       </c>
-      <c r="CI2" s="333"/>
-      <c r="CJ2" s="333"/>
-      <c r="CK2" s="333"/>
-      <c r="CL2" s="333"/>
-      <c r="CM2" s="333"/>
-      <c r="CN2" s="333"/>
-      <c r="CO2" s="333"/>
-      <c r="CP2" s="333"/>
-      <c r="CQ2" s="333"/>
-      <c r="CR2" s="333"/>
-      <c r="CS2" s="333"/>
-      <c r="CT2" s="333"/>
-      <c r="CU2" s="333"/>
-      <c r="CV2" s="333"/>
-      <c r="CW2" s="333"/>
-      <c r="CX2" s="333"/>
-      <c r="CY2" s="333"/>
-      <c r="CZ2" s="333"/>
-      <c r="DA2" s="333"/>
-      <c r="DB2" s="333"/>
-      <c r="DC2" s="333"/>
-      <c r="DD2" s="333"/>
-      <c r="DE2" s="333"/>
-      <c r="DF2" s="334"/>
-      <c r="DG2" s="317"/>
-      <c r="DH2" s="318"/>
-      <c r="DI2" s="318"/>
-      <c r="DJ2" s="318"/>
-      <c r="DK2" s="318"/>
-      <c r="DL2" s="318"/>
-      <c r="DM2" s="318"/>
-      <c r="DN2" s="318"/>
-      <c r="DO2" s="318"/>
-      <c r="DP2" s="318"/>
-      <c r="DQ2" s="318"/>
-      <c r="DR2" s="318"/>
-      <c r="DS2" s="318"/>
-      <c r="DT2" s="318"/>
-      <c r="DU2" s="318"/>
-      <c r="DV2" s="318"/>
-      <c r="DW2" s="318"/>
-      <c r="DX2" s="318"/>
-      <c r="DY2" s="318"/>
-      <c r="DZ2" s="318"/>
-      <c r="EA2" s="318"/>
-      <c r="EB2" s="318"/>
-      <c r="EC2" s="318"/>
-      <c r="ED2" s="318"/>
-      <c r="EE2" s="318"/>
-      <c r="EF2" s="318"/>
-      <c r="EG2" s="318"/>
-      <c r="EH2" s="318"/>
-      <c r="EI2" s="318"/>
-      <c r="EJ2" s="318"/>
-      <c r="EK2" s="318"/>
-      <c r="EL2" s="318"/>
-      <c r="EM2" s="318"/>
-      <c r="EN2" s="318"/>
-      <c r="EO2" s="321"/>
+      <c r="CI2" s="296"/>
+      <c r="CJ2" s="296"/>
+      <c r="CK2" s="296"/>
+      <c r="CL2" s="296"/>
+      <c r="CM2" s="296"/>
+      <c r="CN2" s="296"/>
+      <c r="CO2" s="296"/>
+      <c r="CP2" s="296"/>
+      <c r="CQ2" s="296"/>
+      <c r="CR2" s="296"/>
+      <c r="CS2" s="296"/>
+      <c r="CT2" s="296"/>
+      <c r="CU2" s="296"/>
+      <c r="CV2" s="296"/>
+      <c r="CW2" s="296"/>
+      <c r="CX2" s="296"/>
+      <c r="CY2" s="296"/>
+      <c r="CZ2" s="296"/>
+      <c r="DA2" s="296"/>
+      <c r="DB2" s="296"/>
+      <c r="DC2" s="296"/>
+      <c r="DD2" s="296"/>
+      <c r="DE2" s="296"/>
+      <c r="DF2" s="297"/>
+      <c r="DG2" s="280"/>
+      <c r="DH2" s="281"/>
+      <c r="DI2" s="281"/>
+      <c r="DJ2" s="281"/>
+      <c r="DK2" s="281"/>
+      <c r="DL2" s="281"/>
+      <c r="DM2" s="281"/>
+      <c r="DN2" s="281"/>
+      <c r="DO2" s="281"/>
+      <c r="DP2" s="281"/>
+      <c r="DQ2" s="281"/>
+      <c r="DR2" s="281"/>
+      <c r="DS2" s="281"/>
+      <c r="DT2" s="281"/>
+      <c r="DU2" s="281"/>
+      <c r="DV2" s="281"/>
+      <c r="DW2" s="281"/>
+      <c r="DX2" s="281"/>
+      <c r="DY2" s="281"/>
+      <c r="DZ2" s="281"/>
+      <c r="EA2" s="281"/>
+      <c r="EB2" s="281"/>
+      <c r="EC2" s="281"/>
+      <c r="ED2" s="281"/>
+      <c r="EE2" s="281"/>
+      <c r="EF2" s="281"/>
+      <c r="EG2" s="281"/>
+      <c r="EH2" s="281"/>
+      <c r="EI2" s="281"/>
+      <c r="EJ2" s="281"/>
+      <c r="EK2" s="281"/>
+      <c r="EL2" s="281"/>
+      <c r="EM2" s="281"/>
+      <c r="EN2" s="281"/>
+      <c r="EO2" s="284"/>
       <c r="EP2" s="47"/>
     </row>
     <row r="3" spans="1:146" ht="45.75" customHeight="1" thickBot="1">
       <c r="A3" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="323"/>
-      <c r="C3" s="324"/>
-      <c r="D3" s="324"/>
-      <c r="E3" s="324"/>
-      <c r="F3" s="324"/>
-      <c r="G3" s="324"/>
-      <c r="H3" s="324"/>
-      <c r="I3" s="324"/>
-      <c r="J3" s="324"/>
-      <c r="K3" s="324"/>
-      <c r="L3" s="324"/>
-      <c r="M3" s="324"/>
-      <c r="N3" s="324"/>
-      <c r="O3" s="324"/>
-      <c r="P3" s="324"/>
-      <c r="Q3" s="324"/>
-      <c r="R3" s="324"/>
-      <c r="S3" s="324"/>
-      <c r="T3" s="324"/>
-      <c r="U3" s="325"/>
-      <c r="V3" s="326" t="s">
+      <c r="B3" s="286"/>
+      <c r="C3" s="287"/>
+      <c r="D3" s="287"/>
+      <c r="E3" s="287"/>
+      <c r="F3" s="287"/>
+      <c r="G3" s="287"/>
+      <c r="H3" s="287"/>
+      <c r="I3" s="287"/>
+      <c r="J3" s="287"/>
+      <c r="K3" s="287"/>
+      <c r="L3" s="287"/>
+      <c r="M3" s="287"/>
+      <c r="N3" s="287"/>
+      <c r="O3" s="287"/>
+      <c r="P3" s="287"/>
+      <c r="Q3" s="287"/>
+      <c r="R3" s="287"/>
+      <c r="S3" s="287"/>
+      <c r="T3" s="287"/>
+      <c r="U3" s="288"/>
+      <c r="V3" s="289" t="s">
         <v>147</v>
       </c>
-      <c r="W3" s="327"/>
-      <c r="X3" s="327"/>
-      <c r="Y3" s="327"/>
-      <c r="Z3" s="327"/>
-      <c r="AA3" s="327"/>
-      <c r="AB3" s="327"/>
-      <c r="AC3" s="327"/>
-      <c r="AD3" s="327"/>
-      <c r="AE3" s="327"/>
-      <c r="AF3" s="327"/>
-      <c r="AG3" s="327"/>
-      <c r="AH3" s="327"/>
-      <c r="AI3" s="328"/>
-      <c r="AJ3" s="329"/>
-      <c r="AK3" s="330"/>
-      <c r="AL3" s="330"/>
-      <c r="AM3" s="330"/>
-      <c r="AN3" s="330"/>
-      <c r="AO3" s="330"/>
-      <c r="AP3" s="330"/>
-      <c r="AQ3" s="330"/>
-      <c r="AR3" s="330"/>
-      <c r="AS3" s="330"/>
-      <c r="AT3" s="331"/>
-      <c r="AU3" s="338"/>
-      <c r="AV3" s="339"/>
-      <c r="AW3" s="340" t="s">
+      <c r="W3" s="290"/>
+      <c r="X3" s="290"/>
+      <c r="Y3" s="290"/>
+      <c r="Z3" s="290"/>
+      <c r="AA3" s="290"/>
+      <c r="AB3" s="290"/>
+      <c r="AC3" s="290"/>
+      <c r="AD3" s="290"/>
+      <c r="AE3" s="290"/>
+      <c r="AF3" s="290"/>
+      <c r="AG3" s="290"/>
+      <c r="AH3" s="290"/>
+      <c r="AI3" s="291"/>
+      <c r="AJ3" s="292"/>
+      <c r="AK3" s="293"/>
+      <c r="AL3" s="293"/>
+      <c r="AM3" s="293"/>
+      <c r="AN3" s="293"/>
+      <c r="AO3" s="293"/>
+      <c r="AP3" s="293"/>
+      <c r="AQ3" s="293"/>
+      <c r="AR3" s="293"/>
+      <c r="AS3" s="293"/>
+      <c r="AT3" s="294"/>
+      <c r="AU3" s="301"/>
+      <c r="AV3" s="302"/>
+      <c r="AW3" s="303" t="s">
         <v>148</v>
       </c>
-      <c r="AX3" s="341"/>
-      <c r="AY3" s="341"/>
-      <c r="AZ3" s="341"/>
-      <c r="BA3" s="341"/>
-      <c r="BB3" s="341"/>
-      <c r="BC3" s="341"/>
-      <c r="BD3" s="341"/>
-      <c r="BE3" s="341"/>
-      <c r="BF3" s="341"/>
-      <c r="BG3" s="342"/>
+      <c r="AX3" s="304"/>
+      <c r="AY3" s="304"/>
+      <c r="AZ3" s="304"/>
+      <c r="BA3" s="304"/>
+      <c r="BB3" s="304"/>
+      <c r="BC3" s="304"/>
+      <c r="BD3" s="304"/>
+      <c r="BE3" s="304"/>
+      <c r="BF3" s="304"/>
+      <c r="BG3" s="305"/>
       <c r="BH3" s="49"/>
       <c r="BI3" s="50"/>
-      <c r="BJ3" s="343" t="s">
+      <c r="BJ3" s="306" t="s">
         <v>150</v>
       </c>
-      <c r="BK3" s="344"/>
-      <c r="BL3" s="344"/>
-      <c r="BM3" s="344"/>
-      <c r="BN3" s="344"/>
-      <c r="BO3" s="344"/>
-      <c r="BP3" s="344"/>
-      <c r="BQ3" s="344"/>
-      <c r="BR3" s="344"/>
-      <c r="BS3" s="344"/>
-      <c r="BT3" s="344"/>
-      <c r="BU3" s="344"/>
-      <c r="BV3" s="344"/>
-      <c r="BW3" s="344"/>
-      <c r="BX3" s="344"/>
-      <c r="BY3" s="344"/>
-      <c r="BZ3" s="344"/>
-      <c r="CA3" s="344"/>
-      <c r="CB3" s="344"/>
-      <c r="CC3" s="344"/>
-      <c r="CD3" s="344"/>
-      <c r="CE3" s="344"/>
-      <c r="CF3" s="344"/>
-      <c r="CG3" s="345"/>
-      <c r="CH3" s="335"/>
-      <c r="CI3" s="336"/>
-      <c r="CJ3" s="336"/>
-      <c r="CK3" s="336"/>
-      <c r="CL3" s="336"/>
-      <c r="CM3" s="336"/>
-      <c r="CN3" s="336"/>
-      <c r="CO3" s="336"/>
-      <c r="CP3" s="336"/>
-      <c r="CQ3" s="336"/>
-      <c r="CR3" s="336"/>
-      <c r="CS3" s="336"/>
-      <c r="CT3" s="336"/>
-      <c r="CU3" s="336"/>
-      <c r="CV3" s="336"/>
-      <c r="CW3" s="336"/>
-      <c r="CX3" s="336"/>
-      <c r="CY3" s="336"/>
-      <c r="CZ3" s="336"/>
-      <c r="DA3" s="336"/>
-      <c r="DB3" s="336"/>
-      <c r="DC3" s="336"/>
-      <c r="DD3" s="336"/>
-      <c r="DE3" s="336"/>
-      <c r="DF3" s="337"/>
-      <c r="DG3" s="319"/>
-      <c r="DH3" s="320"/>
-      <c r="DI3" s="320"/>
-      <c r="DJ3" s="320"/>
-      <c r="DK3" s="320"/>
-      <c r="DL3" s="320"/>
-      <c r="DM3" s="320"/>
-      <c r="DN3" s="320"/>
-      <c r="DO3" s="320"/>
-      <c r="DP3" s="320"/>
-      <c r="DQ3" s="320"/>
-      <c r="DR3" s="320"/>
-      <c r="DS3" s="320"/>
-      <c r="DT3" s="320"/>
-      <c r="DU3" s="320"/>
-      <c r="DV3" s="320"/>
-      <c r="DW3" s="320"/>
-      <c r="DX3" s="320"/>
-      <c r="DY3" s="320"/>
-      <c r="DZ3" s="320"/>
-      <c r="EA3" s="320"/>
-      <c r="EB3" s="320"/>
-      <c r="EC3" s="320"/>
-      <c r="ED3" s="320"/>
-      <c r="EE3" s="320"/>
-      <c r="EF3" s="320"/>
-      <c r="EG3" s="320"/>
-      <c r="EH3" s="320"/>
-      <c r="EI3" s="320"/>
-      <c r="EJ3" s="320"/>
-      <c r="EK3" s="320"/>
-      <c r="EL3" s="320"/>
-      <c r="EM3" s="320"/>
-      <c r="EN3" s="320"/>
-      <c r="EO3" s="322"/>
+      <c r="BK3" s="307"/>
+      <c r="BL3" s="307"/>
+      <c r="BM3" s="307"/>
+      <c r="BN3" s="307"/>
+      <c r="BO3" s="307"/>
+      <c r="BP3" s="307"/>
+      <c r="BQ3" s="307"/>
+      <c r="BR3" s="307"/>
+      <c r="BS3" s="307"/>
+      <c r="BT3" s="307"/>
+      <c r="BU3" s="307"/>
+      <c r="BV3" s="307"/>
+      <c r="BW3" s="307"/>
+      <c r="BX3" s="307"/>
+      <c r="BY3" s="307"/>
+      <c r="BZ3" s="307"/>
+      <c r="CA3" s="307"/>
+      <c r="CB3" s="307"/>
+      <c r="CC3" s="307"/>
+      <c r="CD3" s="307"/>
+      <c r="CE3" s="307"/>
+      <c r="CF3" s="307"/>
+      <c r="CG3" s="308"/>
+      <c r="CH3" s="298"/>
+      <c r="CI3" s="299"/>
+      <c r="CJ3" s="299"/>
+      <c r="CK3" s="299"/>
+      <c r="CL3" s="299"/>
+      <c r="CM3" s="299"/>
+      <c r="CN3" s="299"/>
+      <c r="CO3" s="299"/>
+      <c r="CP3" s="299"/>
+      <c r="CQ3" s="299"/>
+      <c r="CR3" s="299"/>
+      <c r="CS3" s="299"/>
+      <c r="CT3" s="299"/>
+      <c r="CU3" s="299"/>
+      <c r="CV3" s="299"/>
+      <c r="CW3" s="299"/>
+      <c r="CX3" s="299"/>
+      <c r="CY3" s="299"/>
+      <c r="CZ3" s="299"/>
+      <c r="DA3" s="299"/>
+      <c r="DB3" s="299"/>
+      <c r="DC3" s="299"/>
+      <c r="DD3" s="299"/>
+      <c r="DE3" s="299"/>
+      <c r="DF3" s="300"/>
+      <c r="DG3" s="282"/>
+      <c r="DH3" s="283"/>
+      <c r="DI3" s="283"/>
+      <c r="DJ3" s="283"/>
+      <c r="DK3" s="283"/>
+      <c r="DL3" s="283"/>
+      <c r="DM3" s="283"/>
+      <c r="DN3" s="283"/>
+      <c r="DO3" s="283"/>
+      <c r="DP3" s="283"/>
+      <c r="DQ3" s="283"/>
+      <c r="DR3" s="283"/>
+      <c r="DS3" s="283"/>
+      <c r="DT3" s="283"/>
+      <c r="DU3" s="283"/>
+      <c r="DV3" s="283"/>
+      <c r="DW3" s="283"/>
+      <c r="DX3" s="283"/>
+      <c r="DY3" s="283"/>
+      <c r="DZ3" s="283"/>
+      <c r="EA3" s="283"/>
+      <c r="EB3" s="283"/>
+      <c r="EC3" s="283"/>
+      <c r="ED3" s="283"/>
+      <c r="EE3" s="283"/>
+      <c r="EF3" s="283"/>
+      <c r="EG3" s="283"/>
+      <c r="EH3" s="283"/>
+      <c r="EI3" s="283"/>
+      <c r="EJ3" s="283"/>
+      <c r="EK3" s="283"/>
+      <c r="EL3" s="283"/>
+      <c r="EM3" s="283"/>
+      <c r="EN3" s="283"/>
+      <c r="EO3" s="285"/>
       <c r="EP3" s="47"/>
     </row>
     <row r="4" spans="1:146" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="298"/>
-      <c r="B4" s="299"/>
-      <c r="C4" s="299"/>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="299"/>
-      <c r="J4" s="299"/>
-      <c r="K4" s="299"/>
-      <c r="L4" s="299"/>
-      <c r="M4" s="299"/>
-      <c r="N4" s="299"/>
-      <c r="O4" s="299"/>
-      <c r="P4" s="299"/>
-      <c r="Q4" s="299"/>
-      <c r="R4" s="299"/>
-      <c r="S4" s="299"/>
-      <c r="T4" s="299"/>
-      <c r="U4" s="299"/>
-      <c r="V4" s="299"/>
-      <c r="W4" s="299"/>
-      <c r="X4" s="299"/>
-      <c r="Y4" s="299"/>
-      <c r="Z4" s="299"/>
-      <c r="AA4" s="299"/>
-      <c r="AB4" s="299"/>
-      <c r="AC4" s="299"/>
-      <c r="AD4" s="299"/>
-      <c r="AE4" s="299"/>
-      <c r="AF4" s="299"/>
-      <c r="AG4" s="299"/>
-      <c r="AH4" s="299"/>
-      <c r="AI4" s="299"/>
-      <c r="AJ4" s="299"/>
-      <c r="AK4" s="299"/>
-      <c r="AL4" s="299"/>
-      <c r="AM4" s="299"/>
-      <c r="AN4" s="299"/>
-      <c r="AO4" s="299"/>
-      <c r="AP4" s="299"/>
-      <c r="AQ4" s="299"/>
-      <c r="AR4" s="299"/>
-      <c r="AS4" s="299"/>
-      <c r="AT4" s="299"/>
-      <c r="AU4" s="299"/>
-      <c r="AV4" s="299"/>
-      <c r="AW4" s="299"/>
-      <c r="AX4" s="299"/>
-      <c r="AY4" s="299"/>
-      <c r="AZ4" s="299"/>
-      <c r="BA4" s="299"/>
-      <c r="BB4" s="299"/>
-      <c r="BC4" s="299"/>
-      <c r="BD4" s="299"/>
-      <c r="BE4" s="299"/>
-      <c r="BF4" s="299"/>
-      <c r="BG4" s="299"/>
-      <c r="BH4" s="299"/>
-      <c r="BI4" s="299"/>
-      <c r="BJ4" s="299"/>
-      <c r="BK4" s="299"/>
-      <c r="BL4" s="299"/>
-      <c r="BM4" s="299"/>
-      <c r="BN4" s="299"/>
-      <c r="BO4" s="299"/>
-      <c r="BP4" s="299"/>
-      <c r="BQ4" s="299"/>
-      <c r="BR4" s="299"/>
-      <c r="BS4" s="299"/>
-      <c r="BT4" s="299"/>
-      <c r="BU4" s="299"/>
-      <c r="BV4" s="299"/>
-      <c r="BW4" s="299"/>
-      <c r="BX4" s="299"/>
-      <c r="BY4" s="299"/>
-      <c r="BZ4" s="299"/>
-      <c r="CA4" s="299"/>
-      <c r="CB4" s="299"/>
-      <c r="CC4" s="299"/>
-      <c r="CD4" s="299"/>
-      <c r="CE4" s="299"/>
-      <c r="CF4" s="299"/>
-      <c r="CG4" s="299"/>
-      <c r="CH4" s="299"/>
-      <c r="CI4" s="299"/>
-      <c r="CJ4" s="299"/>
-      <c r="CK4" s="299"/>
-      <c r="CL4" s="299"/>
-      <c r="CM4" s="299"/>
-      <c r="CN4" s="299"/>
-      <c r="CO4" s="299"/>
-      <c r="CP4" s="299"/>
-      <c r="CQ4" s="299"/>
-      <c r="CR4" s="299"/>
-      <c r="CS4" s="299"/>
-      <c r="CT4" s="299"/>
-      <c r="CU4" s="299"/>
-      <c r="CV4" s="299"/>
-      <c r="CW4" s="299"/>
-      <c r="CX4" s="299"/>
-      <c r="CY4" s="299"/>
-      <c r="CZ4" s="299"/>
-      <c r="DA4" s="299"/>
-      <c r="DB4" s="299"/>
-      <c r="DC4" s="299"/>
-      <c r="DD4" s="299"/>
-      <c r="DE4" s="299"/>
-      <c r="DF4" s="300"/>
-      <c r="DG4" s="301"/>
-      <c r="DH4" s="302"/>
-      <c r="DI4" s="302"/>
-      <c r="DJ4" s="302"/>
-      <c r="DK4" s="302"/>
-      <c r="DL4" s="302"/>
-      <c r="DM4" s="302"/>
-      <c r="DN4" s="302"/>
-      <c r="DO4" s="302"/>
-      <c r="DP4" s="302"/>
-      <c r="DQ4" s="302"/>
-      <c r="DR4" s="302"/>
-      <c r="DS4" s="302"/>
-      <c r="DT4" s="302"/>
-      <c r="DU4" s="302"/>
-      <c r="DV4" s="302"/>
-      <c r="DW4" s="302"/>
-      <c r="DX4" s="302"/>
-      <c r="DY4" s="302"/>
-      <c r="DZ4" s="302"/>
-      <c r="EA4" s="302"/>
-      <c r="EB4" s="302"/>
-      <c r="EC4" s="302"/>
-      <c r="ED4" s="302"/>
-      <c r="EE4" s="302"/>
-      <c r="EF4" s="302"/>
-      <c r="EG4" s="302"/>
-      <c r="EH4" s="302"/>
-      <c r="EI4" s="302"/>
-      <c r="EJ4" s="302"/>
-      <c r="EK4" s="302"/>
-      <c r="EL4" s="302"/>
-      <c r="EM4" s="302"/>
-      <c r="EN4" s="302"/>
-      <c r="EO4" s="303"/>
+      <c r="A4" s="261"/>
+      <c r="B4" s="262"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
+      <c r="K4" s="262"/>
+      <c r="L4" s="262"/>
+      <c r="M4" s="262"/>
+      <c r="N4" s="262"/>
+      <c r="O4" s="262"/>
+      <c r="P4" s="262"/>
+      <c r="Q4" s="262"/>
+      <c r="R4" s="262"/>
+      <c r="S4" s="262"/>
+      <c r="T4" s="262"/>
+      <c r="U4" s="262"/>
+      <c r="V4" s="262"/>
+      <c r="W4" s="262"/>
+      <c r="X4" s="262"/>
+      <c r="Y4" s="262"/>
+      <c r="Z4" s="262"/>
+      <c r="AA4" s="262"/>
+      <c r="AB4" s="262"/>
+      <c r="AC4" s="262"/>
+      <c r="AD4" s="262"/>
+      <c r="AE4" s="262"/>
+      <c r="AF4" s="262"/>
+      <c r="AG4" s="262"/>
+      <c r="AH4" s="262"/>
+      <c r="AI4" s="262"/>
+      <c r="AJ4" s="262"/>
+      <c r="AK4" s="262"/>
+      <c r="AL4" s="262"/>
+      <c r="AM4" s="262"/>
+      <c r="AN4" s="262"/>
+      <c r="AO4" s="262"/>
+      <c r="AP4" s="262"/>
+      <c r="AQ4" s="262"/>
+      <c r="AR4" s="262"/>
+      <c r="AS4" s="262"/>
+      <c r="AT4" s="262"/>
+      <c r="AU4" s="262"/>
+      <c r="AV4" s="262"/>
+      <c r="AW4" s="262"/>
+      <c r="AX4" s="262"/>
+      <c r="AY4" s="262"/>
+      <c r="AZ4" s="262"/>
+      <c r="BA4" s="262"/>
+      <c r="BB4" s="262"/>
+      <c r="BC4" s="262"/>
+      <c r="BD4" s="262"/>
+      <c r="BE4" s="262"/>
+      <c r="BF4" s="262"/>
+      <c r="BG4" s="262"/>
+      <c r="BH4" s="262"/>
+      <c r="BI4" s="262"/>
+      <c r="BJ4" s="262"/>
+      <c r="BK4" s="262"/>
+      <c r="BL4" s="262"/>
+      <c r="BM4" s="262"/>
+      <c r="BN4" s="262"/>
+      <c r="BO4" s="262"/>
+      <c r="BP4" s="262"/>
+      <c r="BQ4" s="262"/>
+      <c r="BR4" s="262"/>
+      <c r="BS4" s="262"/>
+      <c r="BT4" s="262"/>
+      <c r="BU4" s="262"/>
+      <c r="BV4" s="262"/>
+      <c r="BW4" s="262"/>
+      <c r="BX4" s="262"/>
+      <c r="BY4" s="262"/>
+      <c r="BZ4" s="262"/>
+      <c r="CA4" s="262"/>
+      <c r="CB4" s="262"/>
+      <c r="CC4" s="262"/>
+      <c r="CD4" s="262"/>
+      <c r="CE4" s="262"/>
+      <c r="CF4" s="262"/>
+      <c r="CG4" s="262"/>
+      <c r="CH4" s="262"/>
+      <c r="CI4" s="262"/>
+      <c r="CJ4" s="262"/>
+      <c r="CK4" s="262"/>
+      <c r="CL4" s="262"/>
+      <c r="CM4" s="262"/>
+      <c r="CN4" s="262"/>
+      <c r="CO4" s="262"/>
+      <c r="CP4" s="262"/>
+      <c r="CQ4" s="262"/>
+      <c r="CR4" s="262"/>
+      <c r="CS4" s="262"/>
+      <c r="CT4" s="262"/>
+      <c r="CU4" s="262"/>
+      <c r="CV4" s="262"/>
+      <c r="CW4" s="262"/>
+      <c r="CX4" s="262"/>
+      <c r="CY4" s="262"/>
+      <c r="CZ4" s="262"/>
+      <c r="DA4" s="262"/>
+      <c r="DB4" s="262"/>
+      <c r="DC4" s="262"/>
+      <c r="DD4" s="262"/>
+      <c r="DE4" s="262"/>
+      <c r="DF4" s="263"/>
+      <c r="DG4" s="264"/>
+      <c r="DH4" s="265"/>
+      <c r="DI4" s="265"/>
+      <c r="DJ4" s="265"/>
+      <c r="DK4" s="265"/>
+      <c r="DL4" s="265"/>
+      <c r="DM4" s="265"/>
+      <c r="DN4" s="265"/>
+      <c r="DO4" s="265"/>
+      <c r="DP4" s="265"/>
+      <c r="DQ4" s="265"/>
+      <c r="DR4" s="265"/>
+      <c r="DS4" s="265"/>
+      <c r="DT4" s="265"/>
+      <c r="DU4" s="265"/>
+      <c r="DV4" s="265"/>
+      <c r="DW4" s="265"/>
+      <c r="DX4" s="265"/>
+      <c r="DY4" s="265"/>
+      <c r="DZ4" s="265"/>
+      <c r="EA4" s="265"/>
+      <c r="EB4" s="265"/>
+      <c r="EC4" s="265"/>
+      <c r="ED4" s="265"/>
+      <c r="EE4" s="265"/>
+      <c r="EF4" s="265"/>
+      <c r="EG4" s="265"/>
+      <c r="EH4" s="265"/>
+      <c r="EI4" s="265"/>
+      <c r="EJ4" s="265"/>
+      <c r="EK4" s="265"/>
+      <c r="EL4" s="265"/>
+      <c r="EM4" s="265"/>
+      <c r="EN4" s="265"/>
+      <c r="EO4" s="266"/>
       <c r="EP4" s="51"/>
     </row>
     <row r="5" spans="1:146" ht="16.5" thickTop="1">
-      <c r="A5" s="304" t="s">
+      <c r="A5" s="267" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="308" t="s">
+      <c r="B5" s="271" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="309"/>
-      <c r="D5" s="309"/>
-      <c r="E5" s="310"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="273"/>
       <c r="F5" s="52"/>
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
@@ -23336,13 +23459,13 @@
       <c r="EP5" s="60"/>
     </row>
     <row r="6" spans="1:146" ht="15.75">
-      <c r="A6" s="305"/>
-      <c r="B6" s="311" t="s">
+      <c r="A6" s="268"/>
+      <c r="B6" s="274" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="312"/>
-      <c r="D6" s="312"/>
-      <c r="E6" s="313"/>
+      <c r="C6" s="275"/>
+      <c r="D6" s="275"/>
+      <c r="E6" s="276"/>
       <c r="F6" s="61"/>
       <c r="G6" s="61"/>
       <c r="H6" s="61"/>
@@ -23486,13 +23609,13 @@
       <c r="EP6" s="60"/>
     </row>
     <row r="7" spans="1:146" ht="16.5" thickBot="1">
-      <c r="A7" s="306"/>
-      <c r="B7" s="314" t="s">
+      <c r="A7" s="269"/>
+      <c r="B7" s="277" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="315"/>
-      <c r="D7" s="315"/>
-      <c r="E7" s="316"/>
+      <c r="C7" s="278"/>
+      <c r="D7" s="278"/>
+      <c r="E7" s="279"/>
       <c r="F7" s="68" t="s">
         <v>45</v>
       </c>
@@ -23916,7 +24039,7 @@
       <c r="EP7" s="60"/>
     </row>
     <row r="8" spans="1:146" ht="16.5" thickBot="1">
-      <c r="A8" s="307"/>
+      <c r="A8" s="270"/>
       <c r="B8" s="71" t="s">
         <v>49</v>
       </c>
@@ -24072,57 +24195,57 @@
       <c r="EP8" s="60"/>
     </row>
     <row r="9" spans="1:146" ht="15" customHeight="1">
-      <c r="A9" s="289" t="s">
+      <c r="A9" s="385" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="291"/>
-      <c r="C9" s="293"/>
-      <c r="D9" s="295">
+      <c r="B9" s="324"/>
+      <c r="C9" s="326"/>
+      <c r="D9" s="328">
         <v>20</v>
       </c>
-      <c r="E9" s="297">
+      <c r="E9" s="330">
         <v>35</v>
       </c>
       <c r="F9" s="79"/>
       <c r="G9" s="80"/>
       <c r="H9" s="80"/>
       <c r="I9" s="80"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="174"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="176"/>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="174"/>
-      <c r="S9" s="174"/>
-      <c r="T9" s="176"/>
-      <c r="U9" s="176"/>
-      <c r="V9" s="176"/>
-      <c r="W9" s="176"/>
-      <c r="X9" s="176"/>
-      <c r="Y9" s="174"/>
-      <c r="Z9" s="174"/>
-      <c r="AA9" s="176"/>
-      <c r="AB9" s="176"/>
-      <c r="AC9" s="176"/>
-      <c r="AD9" s="176"/>
-      <c r="AE9" s="176"/>
-      <c r="AF9" s="174"/>
-      <c r="AG9" s="174"/>
-      <c r="AH9" s="176"/>
-      <c r="AI9" s="176"/>
-      <c r="AJ9" s="176"/>
-      <c r="AK9" s="176"/>
-      <c r="AL9" s="176"/>
-      <c r="AM9" s="174"/>
-      <c r="AN9" s="174"/>
-      <c r="AO9" s="176"/>
-      <c r="AP9" s="176"/>
-      <c r="AQ9" s="176"/>
-      <c r="AR9" s="176"/>
-      <c r="AS9" s="176"/>
+      <c r="J9" s="377"/>
+      <c r="K9" s="378"/>
+      <c r="L9" s="378"/>
+      <c r="M9" s="379"/>
+      <c r="N9" s="380"/>
+      <c r="O9" s="380"/>
+      <c r="P9" s="380"/>
+      <c r="Q9" s="380"/>
+      <c r="R9" s="378"/>
+      <c r="S9" s="378"/>
+      <c r="T9" s="380"/>
+      <c r="U9" s="380"/>
+      <c r="V9" s="380"/>
+      <c r="W9" s="380"/>
+      <c r="X9" s="380"/>
+      <c r="Y9" s="378"/>
+      <c r="Z9" s="378"/>
+      <c r="AA9" s="380"/>
+      <c r="AB9" s="380"/>
+      <c r="AC9" s="380"/>
+      <c r="AD9" s="380"/>
+      <c r="AE9" s="380"/>
+      <c r="AF9" s="378"/>
+      <c r="AG9" s="378"/>
+      <c r="AH9" s="380"/>
+      <c r="AI9" s="380"/>
+      <c r="AJ9" s="380"/>
+      <c r="AK9" s="380"/>
+      <c r="AL9" s="380"/>
+      <c r="AM9" s="378"/>
+      <c r="AN9" s="378"/>
+      <c r="AO9" s="380"/>
+      <c r="AP9" s="380"/>
+      <c r="AQ9" s="380"/>
+      <c r="AR9" s="380"/>
+      <c r="AS9" s="380"/>
       <c r="AT9" s="82"/>
       <c r="AU9" s="82"/>
       <c r="AV9" s="80"/>
@@ -24226,51 +24349,51 @@
       <c r="EP9" s="43"/>
     </row>
     <row r="10" spans="1:146" ht="15" customHeight="1">
-      <c r="A10" s="283"/>
-      <c r="B10" s="284"/>
-      <c r="C10" s="285"/>
-      <c r="D10" s="286"/>
-      <c r="E10" s="287"/>
+      <c r="A10" s="386"/>
+      <c r="B10" s="325"/>
+      <c r="C10" s="327"/>
+      <c r="D10" s="329"/>
+      <c r="E10" s="331"/>
       <c r="F10" s="85"/>
       <c r="G10" s="86"/>
       <c r="H10" s="86"/>
       <c r="I10" s="86"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="180"/>
-      <c r="Q10" s="180"/>
-      <c r="R10" s="178"/>
-      <c r="S10" s="178"/>
-      <c r="T10" s="180"/>
-      <c r="U10" s="180"/>
-      <c r="V10" s="180"/>
-      <c r="W10" s="180"/>
-      <c r="X10" s="180"/>
-      <c r="Y10" s="178"/>
-      <c r="Z10" s="178"/>
-      <c r="AA10" s="180"/>
-      <c r="AB10" s="180"/>
-      <c r="AC10" s="180"/>
-      <c r="AD10" s="180"/>
-      <c r="AE10" s="180"/>
-      <c r="AF10" s="178"/>
-      <c r="AG10" s="178"/>
-      <c r="AH10" s="180"/>
-      <c r="AI10" s="180"/>
-      <c r="AJ10" s="180"/>
-      <c r="AK10" s="180"/>
-      <c r="AL10" s="180"/>
-      <c r="AM10" s="178"/>
-      <c r="AN10" s="178"/>
-      <c r="AO10" s="180"/>
-      <c r="AP10" s="180"/>
-      <c r="AQ10" s="180"/>
-      <c r="AR10" s="180"/>
-      <c r="AS10" s="180"/>
+      <c r="J10" s="381"/>
+      <c r="K10" s="382"/>
+      <c r="L10" s="382"/>
+      <c r="M10" s="383"/>
+      <c r="N10" s="384"/>
+      <c r="O10" s="384"/>
+      <c r="P10" s="384"/>
+      <c r="Q10" s="384"/>
+      <c r="R10" s="382"/>
+      <c r="S10" s="382"/>
+      <c r="T10" s="384"/>
+      <c r="U10" s="384"/>
+      <c r="V10" s="384"/>
+      <c r="W10" s="384"/>
+      <c r="X10" s="384"/>
+      <c r="Y10" s="382"/>
+      <c r="Z10" s="382"/>
+      <c r="AA10" s="384"/>
+      <c r="AB10" s="384"/>
+      <c r="AC10" s="384"/>
+      <c r="AD10" s="384"/>
+      <c r="AE10" s="384"/>
+      <c r="AF10" s="382"/>
+      <c r="AG10" s="382"/>
+      <c r="AH10" s="384"/>
+      <c r="AI10" s="384"/>
+      <c r="AJ10" s="384"/>
+      <c r="AK10" s="384"/>
+      <c r="AL10" s="384"/>
+      <c r="AM10" s="382"/>
+      <c r="AN10" s="382"/>
+      <c r="AO10" s="384"/>
+      <c r="AP10" s="384"/>
+      <c r="AQ10" s="384"/>
+      <c r="AR10" s="384"/>
+      <c r="AS10" s="384"/>
       <c r="AT10" s="88"/>
       <c r="AU10" s="88"/>
       <c r="AV10" s="86"/>
@@ -24374,15 +24497,15 @@
       <c r="EP10" s="43"/>
     </row>
     <row r="11" spans="1:146" ht="15" customHeight="1">
-      <c r="A11" s="288" t="s">
+      <c r="A11" s="393" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="291"/>
-      <c r="C11" s="293"/>
-      <c r="D11" s="295">
+      <c r="B11" s="324"/>
+      <c r="C11" s="326"/>
+      <c r="D11" s="328">
         <v>5</v>
       </c>
-      <c r="E11" s="297">
+      <c r="E11" s="330">
         <v>5</v>
       </c>
       <c r="F11" s="79"/>
@@ -24425,13 +24548,13 @@
       <c r="AQ11" s="80"/>
       <c r="AR11" s="80"/>
       <c r="AS11" s="80"/>
-      <c r="AT11" s="174"/>
-      <c r="AU11" s="174"/>
-      <c r="AV11" s="176"/>
-      <c r="AW11" s="176"/>
-      <c r="AX11" s="176"/>
-      <c r="AY11" s="176"/>
-      <c r="AZ11" s="176"/>
+      <c r="AT11" s="389"/>
+      <c r="AU11" s="389"/>
+      <c r="AV11" s="390"/>
+      <c r="AW11" s="390"/>
+      <c r="AX11" s="390"/>
+      <c r="AY11" s="390"/>
+      <c r="AZ11" s="390"/>
       <c r="BA11" s="82"/>
       <c r="BB11" s="82"/>
       <c r="BC11" s="80"/>
@@ -24528,11 +24651,11 @@
       <c r="EP11" s="43"/>
     </row>
     <row r="12" spans="1:146" ht="15" customHeight="1">
-      <c r="A12" s="289"/>
-      <c r="B12" s="284"/>
-      <c r="C12" s="285"/>
-      <c r="D12" s="286"/>
-      <c r="E12" s="287"/>
+      <c r="A12" s="394"/>
+      <c r="B12" s="325"/>
+      <c r="C12" s="327"/>
+      <c r="D12" s="329"/>
+      <c r="E12" s="331"/>
       <c r="F12" s="85"/>
       <c r="G12" s="86"/>
       <c r="H12" s="86"/>
@@ -24573,13 +24696,13 @@
       <c r="AQ12" s="86"/>
       <c r="AR12" s="86"/>
       <c r="AS12" s="86"/>
-      <c r="AT12" s="178"/>
-      <c r="AU12" s="178"/>
-      <c r="AV12" s="180"/>
-      <c r="AW12" s="180"/>
-      <c r="AX12" s="180"/>
-      <c r="AY12" s="180"/>
-      <c r="AZ12" s="180"/>
+      <c r="AT12" s="391"/>
+      <c r="AU12" s="391"/>
+      <c r="AV12" s="392"/>
+      <c r="AW12" s="392"/>
+      <c r="AX12" s="392"/>
+      <c r="AY12" s="392"/>
+      <c r="AZ12" s="392"/>
       <c r="BA12" s="88"/>
       <c r="BB12" s="88"/>
       <c r="BC12" s="86"/>
@@ -24676,15 +24799,15 @@
       <c r="EP12" s="43"/>
     </row>
     <row r="13" spans="1:146" ht="15" customHeight="1">
-      <c r="A13" s="273" t="s">
+      <c r="A13" s="395" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="275"/>
-      <c r="C13" s="277"/>
-      <c r="D13" s="279">
+      <c r="B13" s="333"/>
+      <c r="C13" s="334"/>
+      <c r="D13" s="335">
         <v>1</v>
       </c>
-      <c r="E13" s="281">
+      <c r="E13" s="336">
         <v>5</v>
       </c>
       <c r="F13" s="91"/>
@@ -24727,13 +24850,13 @@
       <c r="AQ13" s="92"/>
       <c r="AR13" s="92"/>
       <c r="AS13" s="92"/>
-      <c r="AT13" s="181"/>
-      <c r="AU13" s="181"/>
-      <c r="AV13" s="182"/>
-      <c r="AW13" s="182"/>
-      <c r="AX13" s="182"/>
-      <c r="AY13" s="182"/>
-      <c r="AZ13" s="182"/>
+      <c r="AT13" s="397"/>
+      <c r="AU13" s="397"/>
+      <c r="AV13" s="398"/>
+      <c r="AW13" s="398"/>
+      <c r="AX13" s="398"/>
+      <c r="AY13" s="398"/>
+      <c r="AZ13" s="398"/>
       <c r="BA13" s="94"/>
       <c r="BB13" s="94"/>
       <c r="BC13" s="92"/>
@@ -24830,11 +24953,11 @@
       <c r="EP13" s="43"/>
     </row>
     <row r="14" spans="1:146" ht="15" customHeight="1">
-      <c r="A14" s="283"/>
-      <c r="B14" s="284"/>
-      <c r="C14" s="285"/>
-      <c r="D14" s="286"/>
-      <c r="E14" s="287"/>
+      <c r="A14" s="396"/>
+      <c r="B14" s="325"/>
+      <c r="C14" s="327"/>
+      <c r="D14" s="329"/>
+      <c r="E14" s="331"/>
       <c r="F14" s="85"/>
       <c r="G14" s="86"/>
       <c r="H14" s="86"/>
@@ -24875,13 +24998,13 @@
       <c r="AQ14" s="86"/>
       <c r="AR14" s="86"/>
       <c r="AS14" s="86"/>
-      <c r="AT14" s="178"/>
-      <c r="AU14" s="178"/>
-      <c r="AV14" s="180"/>
-      <c r="AW14" s="180"/>
-      <c r="AX14" s="180"/>
-      <c r="AY14" s="180"/>
-      <c r="AZ14" s="180"/>
+      <c r="AT14" s="387"/>
+      <c r="AU14" s="387"/>
+      <c r="AV14" s="388"/>
+      <c r="AW14" s="388"/>
+      <c r="AX14" s="388"/>
+      <c r="AY14" s="388"/>
+      <c r="AZ14" s="388"/>
       <c r="BA14" s="88"/>
       <c r="BB14" s="88"/>
       <c r="BC14" s="86"/>
@@ -24978,15 +25101,15 @@
       <c r="EP14" s="43"/>
     </row>
     <row r="15" spans="1:146" ht="15" customHeight="1">
-      <c r="A15" s="273" t="s">
+      <c r="A15" s="403" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="275"/>
-      <c r="C15" s="277"/>
-      <c r="D15" s="279">
+      <c r="B15" s="333"/>
+      <c r="C15" s="334"/>
+      <c r="D15" s="335">
         <v>5</v>
       </c>
-      <c r="E15" s="281">
+      <c r="E15" s="336">
         <v>5</v>
       </c>
       <c r="F15" s="91"/>
@@ -25029,13 +25152,13 @@
       <c r="AQ15" s="92"/>
       <c r="AR15" s="92"/>
       <c r="AS15" s="92"/>
-      <c r="AT15" s="181"/>
-      <c r="AU15" s="181"/>
-      <c r="AV15" s="182"/>
-      <c r="AW15" s="182"/>
-      <c r="AX15" s="182"/>
-      <c r="AY15" s="182"/>
-      <c r="AZ15" s="182"/>
+      <c r="AT15" s="405"/>
+      <c r="AU15" s="405"/>
+      <c r="AV15" s="406"/>
+      <c r="AW15" s="406"/>
+      <c r="AX15" s="406"/>
+      <c r="AY15" s="406"/>
+      <c r="AZ15" s="406"/>
       <c r="BA15" s="94"/>
       <c r="BB15" s="94"/>
       <c r="BC15" s="92"/>
@@ -25132,11 +25255,11 @@
       <c r="EP15" s="43"/>
     </row>
     <row r="16" spans="1:146" ht="15" customHeight="1">
-      <c r="A16" s="283"/>
-      <c r="B16" s="284"/>
-      <c r="C16" s="285"/>
-      <c r="D16" s="286"/>
-      <c r="E16" s="287"/>
+      <c r="A16" s="404"/>
+      <c r="B16" s="325"/>
+      <c r="C16" s="327"/>
+      <c r="D16" s="329"/>
+      <c r="E16" s="331"/>
       <c r="F16" s="85"/>
       <c r="G16" s="86"/>
       <c r="H16" s="86"/>
@@ -25177,13 +25300,13 @@
       <c r="AQ16" s="86"/>
       <c r="AR16" s="86"/>
       <c r="AS16" s="86"/>
-      <c r="AT16" s="178"/>
-      <c r="AU16" s="178"/>
-      <c r="AV16" s="180"/>
-      <c r="AW16" s="180"/>
-      <c r="AX16" s="180"/>
-      <c r="AY16" s="180"/>
-      <c r="AZ16" s="180"/>
+      <c r="AT16" s="407"/>
+      <c r="AU16" s="407"/>
+      <c r="AV16" s="408"/>
+      <c r="AW16" s="408"/>
+      <c r="AX16" s="408"/>
+      <c r="AY16" s="408"/>
+      <c r="AZ16" s="408"/>
       <c r="BA16" s="88"/>
       <c r="BB16" s="88"/>
       <c r="BC16" s="86"/>
@@ -25280,15 +25403,15 @@
       <c r="EP16" s="43"/>
     </row>
     <row r="17" spans="1:146" ht="15" customHeight="1">
-      <c r="A17" s="288" t="s">
+      <c r="A17" s="409" t="s">
         <v>284</v>
       </c>
-      <c r="B17" s="290"/>
-      <c r="C17" s="292"/>
-      <c r="D17" s="294">
+      <c r="B17" s="337"/>
+      <c r="C17" s="338"/>
+      <c r="D17" s="339">
         <v>20</v>
       </c>
-      <c r="E17" s="296">
+      <c r="E17" s="340">
         <v>14</v>
       </c>
       <c r="F17" s="91"/>
@@ -25338,20 +25461,20 @@
       <c r="AX17" s="92"/>
       <c r="AY17" s="92"/>
       <c r="AZ17" s="92"/>
-      <c r="BA17" s="181"/>
-      <c r="BB17" s="181"/>
-      <c r="BC17" s="182"/>
-      <c r="BD17" s="182"/>
-      <c r="BE17" s="182"/>
-      <c r="BF17" s="182"/>
-      <c r="BG17" s="182"/>
-      <c r="BH17" s="181"/>
-      <c r="BI17" s="181"/>
-      <c r="BJ17" s="182"/>
-      <c r="BK17" s="182"/>
-      <c r="BL17" s="182"/>
-      <c r="BM17" s="182"/>
-      <c r="BN17" s="182"/>
+      <c r="BA17" s="411"/>
+      <c r="BB17" s="411"/>
+      <c r="BC17" s="412"/>
+      <c r="BD17" s="412"/>
+      <c r="BE17" s="412"/>
+      <c r="BF17" s="412"/>
+      <c r="BG17" s="412"/>
+      <c r="BH17" s="411"/>
+      <c r="BI17" s="411"/>
+      <c r="BJ17" s="412"/>
+      <c r="BK17" s="412"/>
+      <c r="BL17" s="412"/>
+      <c r="BM17" s="412"/>
+      <c r="BN17" s="412"/>
       <c r="BO17" s="94"/>
       <c r="BP17" s="94"/>
       <c r="BQ17" s="92"/>
@@ -25434,11 +25557,11 @@
       <c r="EP17" s="43"/>
     </row>
     <row r="18" spans="1:146" ht="15" customHeight="1">
-      <c r="A18" s="289"/>
-      <c r="B18" s="291"/>
-      <c r="C18" s="293"/>
-      <c r="D18" s="295"/>
-      <c r="E18" s="297"/>
+      <c r="A18" s="410"/>
+      <c r="B18" s="324"/>
+      <c r="C18" s="326"/>
+      <c r="D18" s="328"/>
+      <c r="E18" s="330"/>
       <c r="F18" s="85"/>
       <c r="G18" s="86"/>
       <c r="H18" s="86"/>
@@ -25486,20 +25609,20 @@
       <c r="AX18" s="86"/>
       <c r="AY18" s="86"/>
       <c r="AZ18" s="86"/>
-      <c r="BA18" s="178"/>
-      <c r="BB18" s="178"/>
-      <c r="BC18" s="180"/>
-      <c r="BD18" s="180"/>
-      <c r="BE18" s="180"/>
-      <c r="BF18" s="180"/>
-      <c r="BG18" s="180"/>
-      <c r="BH18" s="178"/>
-      <c r="BI18" s="178"/>
-      <c r="BJ18" s="180"/>
-      <c r="BK18" s="180"/>
-      <c r="BL18" s="180"/>
-      <c r="BM18" s="180"/>
-      <c r="BN18" s="180"/>
+      <c r="BA18" s="413"/>
+      <c r="BB18" s="413"/>
+      <c r="BC18" s="414"/>
+      <c r="BD18" s="414"/>
+      <c r="BE18" s="414"/>
+      <c r="BF18" s="414"/>
+      <c r="BG18" s="414"/>
+      <c r="BH18" s="413"/>
+      <c r="BI18" s="413"/>
+      <c r="BJ18" s="414"/>
+      <c r="BK18" s="414"/>
+      <c r="BL18" s="414"/>
+      <c r="BM18" s="414"/>
+      <c r="BN18" s="414"/>
       <c r="BO18" s="88"/>
       <c r="BP18" s="88"/>
       <c r="BQ18" s="86"/>
@@ -25582,15 +25705,15 @@
       <c r="EP18" s="43"/>
     </row>
     <row r="19" spans="1:146" ht="15" customHeight="1">
-      <c r="A19" s="273" t="s">
+      <c r="A19" s="415" t="s">
         <v>285</v>
       </c>
-      <c r="B19" s="275"/>
-      <c r="C19" s="277"/>
-      <c r="D19" s="279">
+      <c r="B19" s="333"/>
+      <c r="C19" s="334"/>
+      <c r="D19" s="335">
         <v>5</v>
       </c>
-      <c r="E19" s="281">
+      <c r="E19" s="336">
         <v>7</v>
       </c>
       <c r="F19" s="91"/>
@@ -25654,13 +25777,13 @@
       <c r="BL19" s="92"/>
       <c r="BM19" s="92"/>
       <c r="BN19" s="92"/>
-      <c r="BO19" s="181"/>
-      <c r="BP19" s="181"/>
-      <c r="BQ19" s="182"/>
-      <c r="BR19" s="182"/>
-      <c r="BS19" s="182"/>
-      <c r="BT19" s="182"/>
-      <c r="BU19" s="182"/>
+      <c r="BO19" s="417"/>
+      <c r="BP19" s="417"/>
+      <c r="BQ19" s="418"/>
+      <c r="BR19" s="418"/>
+      <c r="BS19" s="418"/>
+      <c r="BT19" s="418"/>
+      <c r="BU19" s="418"/>
       <c r="BV19" s="94"/>
       <c r="BW19" s="94"/>
       <c r="BX19" s="92"/>
@@ -25736,11 +25859,11 @@
       <c r="EP19" s="43"/>
     </row>
     <row r="20" spans="1:146" ht="15" customHeight="1">
-      <c r="A20" s="283"/>
-      <c r="B20" s="284"/>
-      <c r="C20" s="285"/>
-      <c r="D20" s="286"/>
-      <c r="E20" s="287"/>
+      <c r="A20" s="416"/>
+      <c r="B20" s="325"/>
+      <c r="C20" s="327"/>
+      <c r="D20" s="329"/>
+      <c r="E20" s="331"/>
       <c r="F20" s="85"/>
       <c r="G20" s="86"/>
       <c r="H20" s="86"/>
@@ -25802,13 +25925,13 @@
       <c r="BL20" s="86"/>
       <c r="BM20" s="86"/>
       <c r="BN20" s="86"/>
-      <c r="BO20" s="178"/>
-      <c r="BP20" s="178"/>
-      <c r="BQ20" s="180"/>
-      <c r="BR20" s="180"/>
-      <c r="BS20" s="180"/>
-      <c r="BT20" s="180"/>
-      <c r="BU20" s="180"/>
+      <c r="BO20" s="419"/>
+      <c r="BP20" s="419"/>
+      <c r="BQ20" s="420"/>
+      <c r="BR20" s="420"/>
+      <c r="BS20" s="420"/>
+      <c r="BT20" s="420"/>
+      <c r="BU20" s="420"/>
       <c r="BV20" s="88"/>
       <c r="BW20" s="88"/>
       <c r="BX20" s="86"/>
@@ -25884,15 +26007,15 @@
       <c r="EP20" s="43"/>
     </row>
     <row r="21" spans="1:146" ht="15" customHeight="1">
-      <c r="A21" s="273" t="s">
+      <c r="A21" s="399" t="s">
         <v>286</v>
       </c>
-      <c r="B21" s="275"/>
-      <c r="C21" s="277"/>
-      <c r="D21" s="279">
+      <c r="B21" s="333"/>
+      <c r="C21" s="334"/>
+      <c r="D21" s="335">
         <v>3</v>
       </c>
-      <c r="E21" s="281">
+      <c r="E21" s="336">
         <v>7</v>
       </c>
       <c r="F21" s="91"/>
@@ -25963,13 +26086,13 @@
       <c r="BS21" s="92"/>
       <c r="BT21" s="92"/>
       <c r="BU21" s="92"/>
-      <c r="BV21" s="181"/>
-      <c r="BW21" s="181"/>
-      <c r="BX21" s="182"/>
-      <c r="BY21" s="182"/>
-      <c r="BZ21" s="182"/>
-      <c r="CA21" s="182"/>
-      <c r="CB21" s="182"/>
+      <c r="BV21" s="421"/>
+      <c r="BW21" s="421"/>
+      <c r="BX21" s="422"/>
+      <c r="BY21" s="422"/>
+      <c r="BZ21" s="422"/>
+      <c r="CA21" s="422"/>
+      <c r="CB21" s="422"/>
       <c r="CC21" s="94"/>
       <c r="CD21" s="94"/>
       <c r="CE21" s="92"/>
@@ -26038,11 +26161,11 @@
       <c r="EP21" s="43"/>
     </row>
     <row r="22" spans="1:146" ht="15" customHeight="1">
-      <c r="A22" s="283"/>
-      <c r="B22" s="284"/>
-      <c r="C22" s="285"/>
-      <c r="D22" s="286"/>
-      <c r="E22" s="287"/>
+      <c r="A22" s="400"/>
+      <c r="B22" s="325"/>
+      <c r="C22" s="327"/>
+      <c r="D22" s="329"/>
+      <c r="E22" s="331"/>
       <c r="F22" s="85"/>
       <c r="G22" s="86"/>
       <c r="H22" s="86"/>
@@ -26111,13 +26234,13 @@
       <c r="BS22" s="86"/>
       <c r="BT22" s="86"/>
       <c r="BU22" s="86"/>
-      <c r="BV22" s="178"/>
-      <c r="BW22" s="178"/>
-      <c r="BX22" s="180"/>
-      <c r="BY22" s="180"/>
-      <c r="BZ22" s="180"/>
-      <c r="CA22" s="180"/>
-      <c r="CB22" s="180"/>
+      <c r="BV22" s="423"/>
+      <c r="BW22" s="423"/>
+      <c r="BX22" s="424"/>
+      <c r="BY22" s="424"/>
+      <c r="BZ22" s="424"/>
+      <c r="CA22" s="424"/>
+      <c r="CB22" s="424"/>
       <c r="CC22" s="88"/>
       <c r="CD22" s="88"/>
       <c r="CE22" s="86"/>
@@ -26186,106 +26309,106 @@
       <c r="EP22" s="43"/>
     </row>
     <row r="23" spans="1:146" ht="15" customHeight="1">
-      <c r="A23" s="273" t="s">
+      <c r="A23" s="401" t="s">
         <v>287</v>
       </c>
-      <c r="B23" s="275"/>
-      <c r="C23" s="277"/>
-      <c r="D23" s="279">
+      <c r="B23" s="333"/>
+      <c r="C23" s="334"/>
+      <c r="D23" s="335">
         <v>30</v>
       </c>
-      <c r="E23" s="281">
+      <c r="E23" s="336">
         <v>61</v>
       </c>
       <c r="F23" s="91"/>
       <c r="G23" s="92"/>
       <c r="H23" s="92"/>
       <c r="I23" s="92"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="181"/>
-      <c r="M23" s="184"/>
-      <c r="N23" s="182"/>
-      <c r="O23" s="182"/>
-      <c r="P23" s="182"/>
-      <c r="Q23" s="182"/>
-      <c r="R23" s="181"/>
-      <c r="S23" s="181"/>
-      <c r="T23" s="182"/>
-      <c r="U23" s="182"/>
-      <c r="V23" s="182"/>
-      <c r="W23" s="182"/>
-      <c r="X23" s="182"/>
-      <c r="Y23" s="181"/>
-      <c r="Z23" s="181"/>
-      <c r="AA23" s="182"/>
-      <c r="AB23" s="182"/>
-      <c r="AC23" s="182"/>
-      <c r="AD23" s="182"/>
-      <c r="AE23" s="182"/>
-      <c r="AF23" s="181"/>
-      <c r="AG23" s="181"/>
-      <c r="AH23" s="182"/>
-      <c r="AI23" s="182"/>
-      <c r="AJ23" s="182"/>
-      <c r="AK23" s="182"/>
-      <c r="AL23" s="182"/>
-      <c r="AM23" s="181"/>
-      <c r="AN23" s="181"/>
-      <c r="AO23" s="182"/>
-      <c r="AP23" s="182"/>
-      <c r="AQ23" s="182"/>
-      <c r="AR23" s="182"/>
-      <c r="AS23" s="182"/>
-      <c r="AT23" s="181"/>
-      <c r="AU23" s="181"/>
-      <c r="AV23" s="182"/>
-      <c r="AW23" s="182"/>
-      <c r="AX23" s="182"/>
-      <c r="AY23" s="182"/>
-      <c r="AZ23" s="182"/>
-      <c r="BA23" s="181"/>
-      <c r="BB23" s="181"/>
-      <c r="BC23" s="182"/>
-      <c r="BD23" s="182"/>
-      <c r="BE23" s="182"/>
-      <c r="BF23" s="182"/>
-      <c r="BG23" s="182"/>
-      <c r="BH23" s="181"/>
-      <c r="BI23" s="181"/>
-      <c r="BJ23" s="182"/>
-      <c r="BK23" s="182"/>
-      <c r="BL23" s="182"/>
-      <c r="BM23" s="182"/>
-      <c r="BN23" s="182"/>
-      <c r="BO23" s="181"/>
-      <c r="BP23" s="181"/>
-      <c r="BQ23" s="182"/>
-      <c r="BR23" s="182"/>
-      <c r="BS23" s="182"/>
-      <c r="BT23" s="182"/>
-      <c r="BU23" s="182"/>
-      <c r="BV23" s="181"/>
-      <c r="BW23" s="181"/>
-      <c r="BX23" s="182"/>
-      <c r="BY23" s="182"/>
-      <c r="BZ23" s="182"/>
-      <c r="CA23" s="182"/>
-      <c r="CB23" s="182"/>
-      <c r="CC23" s="181"/>
-      <c r="CD23" s="181"/>
-      <c r="CE23" s="182"/>
-      <c r="CF23" s="182"/>
-      <c r="CG23" s="182"/>
-      <c r="CH23" s="182"/>
-      <c r="CI23" s="182"/>
-      <c r="CJ23" s="181"/>
-      <c r="CK23" s="181"/>
-      <c r="CL23" s="182"/>
-      <c r="CM23" s="182"/>
-      <c r="CN23" s="182"/>
-      <c r="CO23" s="182"/>
-      <c r="CP23" s="182"/>
+      <c r="J23" s="425"/>
+      <c r="K23" s="426"/>
+      <c r="L23" s="426"/>
+      <c r="M23" s="427"/>
+      <c r="N23" s="428"/>
+      <c r="O23" s="428"/>
+      <c r="P23" s="428"/>
+      <c r="Q23" s="428"/>
+      <c r="R23" s="426"/>
+      <c r="S23" s="426"/>
+      <c r="T23" s="428"/>
+      <c r="U23" s="428"/>
+      <c r="V23" s="428"/>
+      <c r="W23" s="428"/>
+      <c r="X23" s="428"/>
+      <c r="Y23" s="426"/>
+      <c r="Z23" s="426"/>
+      <c r="AA23" s="428"/>
+      <c r="AB23" s="428"/>
+      <c r="AC23" s="428"/>
+      <c r="AD23" s="428"/>
+      <c r="AE23" s="428"/>
+      <c r="AF23" s="426"/>
+      <c r="AG23" s="426"/>
+      <c r="AH23" s="428"/>
+      <c r="AI23" s="428"/>
+      <c r="AJ23" s="428"/>
+      <c r="AK23" s="428"/>
+      <c r="AL23" s="428"/>
+      <c r="AM23" s="426"/>
+      <c r="AN23" s="426"/>
+      <c r="AO23" s="428"/>
+      <c r="AP23" s="428"/>
+      <c r="AQ23" s="428"/>
+      <c r="AR23" s="428"/>
+      <c r="AS23" s="428"/>
+      <c r="AT23" s="426"/>
+      <c r="AU23" s="426"/>
+      <c r="AV23" s="428"/>
+      <c r="AW23" s="428"/>
+      <c r="AX23" s="428"/>
+      <c r="AY23" s="428"/>
+      <c r="AZ23" s="428"/>
+      <c r="BA23" s="426"/>
+      <c r="BB23" s="426"/>
+      <c r="BC23" s="428"/>
+      <c r="BD23" s="428"/>
+      <c r="BE23" s="428"/>
+      <c r="BF23" s="428"/>
+      <c r="BG23" s="428"/>
+      <c r="BH23" s="426"/>
+      <c r="BI23" s="426"/>
+      <c r="BJ23" s="428"/>
+      <c r="BK23" s="428"/>
+      <c r="BL23" s="428"/>
+      <c r="BM23" s="428"/>
+      <c r="BN23" s="428"/>
+      <c r="BO23" s="426"/>
+      <c r="BP23" s="426"/>
+      <c r="BQ23" s="428"/>
+      <c r="BR23" s="428"/>
+      <c r="BS23" s="428"/>
+      <c r="BT23" s="428"/>
+      <c r="BU23" s="428"/>
+      <c r="BV23" s="426"/>
+      <c r="BW23" s="426"/>
+      <c r="BX23" s="428"/>
+      <c r="BY23" s="428"/>
+      <c r="BZ23" s="428"/>
+      <c r="CA23" s="428"/>
+      <c r="CB23" s="428"/>
+      <c r="CC23" s="426"/>
+      <c r="CD23" s="426"/>
+      <c r="CE23" s="428"/>
+      <c r="CF23" s="428"/>
+      <c r="CG23" s="428"/>
+      <c r="CH23" s="428"/>
+      <c r="CI23" s="428"/>
+      <c r="CJ23" s="426"/>
+      <c r="CK23" s="426"/>
+      <c r="CL23" s="428"/>
+      <c r="CM23" s="428"/>
+      <c r="CN23" s="428"/>
+      <c r="CO23" s="428"/>
+      <c r="CP23" s="428"/>
       <c r="CQ23" s="94"/>
       <c r="CR23" s="94"/>
       <c r="CS23" s="92"/>
@@ -26340,100 +26463,100 @@
       <c r="EP23" s="43"/>
     </row>
     <row r="24" spans="1:146" ht="15" customHeight="1">
-      <c r="A24" s="283"/>
-      <c r="B24" s="284"/>
-      <c r="C24" s="285"/>
-      <c r="D24" s="286"/>
-      <c r="E24" s="287"/>
+      <c r="A24" s="402"/>
+      <c r="B24" s="325"/>
+      <c r="C24" s="327"/>
+      <c r="D24" s="329"/>
+      <c r="E24" s="331"/>
       <c r="F24" s="85"/>
       <c r="G24" s="86"/>
       <c r="H24" s="86"/>
       <c r="I24" s="86"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="179"/>
-      <c r="N24" s="180"/>
-      <c r="O24" s="180"/>
-      <c r="P24" s="180"/>
-      <c r="Q24" s="180"/>
-      <c r="R24" s="178"/>
-      <c r="S24" s="178"/>
-      <c r="T24" s="180"/>
-      <c r="U24" s="180"/>
-      <c r="V24" s="180"/>
-      <c r="W24" s="180"/>
-      <c r="X24" s="180"/>
-      <c r="Y24" s="178"/>
-      <c r="Z24" s="178"/>
-      <c r="AA24" s="180"/>
-      <c r="AB24" s="180"/>
-      <c r="AC24" s="180"/>
-      <c r="AD24" s="180"/>
-      <c r="AE24" s="180"/>
-      <c r="AF24" s="178"/>
-      <c r="AG24" s="178"/>
-      <c r="AH24" s="180"/>
-      <c r="AI24" s="180"/>
-      <c r="AJ24" s="180"/>
-      <c r="AK24" s="180"/>
-      <c r="AL24" s="180"/>
-      <c r="AM24" s="178"/>
-      <c r="AN24" s="178"/>
-      <c r="AO24" s="180"/>
-      <c r="AP24" s="180"/>
-      <c r="AQ24" s="180"/>
-      <c r="AR24" s="180"/>
-      <c r="AS24" s="180"/>
-      <c r="AT24" s="178"/>
-      <c r="AU24" s="178"/>
-      <c r="AV24" s="180"/>
-      <c r="AW24" s="180"/>
-      <c r="AX24" s="180"/>
-      <c r="AY24" s="180"/>
-      <c r="AZ24" s="180"/>
-      <c r="BA24" s="178"/>
-      <c r="BB24" s="178"/>
-      <c r="BC24" s="180"/>
-      <c r="BD24" s="180"/>
-      <c r="BE24" s="180"/>
-      <c r="BF24" s="180"/>
-      <c r="BG24" s="180"/>
-      <c r="BH24" s="178"/>
-      <c r="BI24" s="178"/>
-      <c r="BJ24" s="180"/>
-      <c r="BK24" s="180"/>
-      <c r="BL24" s="180"/>
-      <c r="BM24" s="180"/>
-      <c r="BN24" s="180"/>
-      <c r="BO24" s="178"/>
-      <c r="BP24" s="178"/>
-      <c r="BQ24" s="180"/>
-      <c r="BR24" s="180"/>
-      <c r="BS24" s="180"/>
-      <c r="BT24" s="180"/>
-      <c r="BU24" s="180"/>
-      <c r="BV24" s="178"/>
-      <c r="BW24" s="178"/>
-      <c r="BX24" s="180"/>
-      <c r="BY24" s="180"/>
-      <c r="BZ24" s="180"/>
-      <c r="CA24" s="180"/>
-      <c r="CB24" s="180"/>
-      <c r="CC24" s="178"/>
-      <c r="CD24" s="178"/>
-      <c r="CE24" s="180"/>
-      <c r="CF24" s="180"/>
-      <c r="CG24" s="180"/>
-      <c r="CH24" s="180"/>
-      <c r="CI24" s="180"/>
-      <c r="CJ24" s="178"/>
-      <c r="CK24" s="178"/>
-      <c r="CL24" s="180"/>
-      <c r="CM24" s="180"/>
-      <c r="CN24" s="180"/>
-      <c r="CO24" s="180"/>
-      <c r="CP24" s="180"/>
+      <c r="J24" s="429"/>
+      <c r="K24" s="430"/>
+      <c r="L24" s="430"/>
+      <c r="M24" s="431"/>
+      <c r="N24" s="432"/>
+      <c r="O24" s="432"/>
+      <c r="P24" s="432"/>
+      <c r="Q24" s="432"/>
+      <c r="R24" s="430"/>
+      <c r="S24" s="430"/>
+      <c r="T24" s="432"/>
+      <c r="U24" s="432"/>
+      <c r="V24" s="432"/>
+      <c r="W24" s="432"/>
+      <c r="X24" s="432"/>
+      <c r="Y24" s="430"/>
+      <c r="Z24" s="430"/>
+      <c r="AA24" s="432"/>
+      <c r="AB24" s="432"/>
+      <c r="AC24" s="432"/>
+      <c r="AD24" s="432"/>
+      <c r="AE24" s="432"/>
+      <c r="AF24" s="430"/>
+      <c r="AG24" s="430"/>
+      <c r="AH24" s="432"/>
+      <c r="AI24" s="432"/>
+      <c r="AJ24" s="432"/>
+      <c r="AK24" s="432"/>
+      <c r="AL24" s="432"/>
+      <c r="AM24" s="430"/>
+      <c r="AN24" s="430"/>
+      <c r="AO24" s="432"/>
+      <c r="AP24" s="432"/>
+      <c r="AQ24" s="432"/>
+      <c r="AR24" s="432"/>
+      <c r="AS24" s="432"/>
+      <c r="AT24" s="430"/>
+      <c r="AU24" s="430"/>
+      <c r="AV24" s="432"/>
+      <c r="AW24" s="432"/>
+      <c r="AX24" s="432"/>
+      <c r="AY24" s="432"/>
+      <c r="AZ24" s="432"/>
+      <c r="BA24" s="430"/>
+      <c r="BB24" s="430"/>
+      <c r="BC24" s="432"/>
+      <c r="BD24" s="432"/>
+      <c r="BE24" s="432"/>
+      <c r="BF24" s="432"/>
+      <c r="BG24" s="432"/>
+      <c r="BH24" s="430"/>
+      <c r="BI24" s="430"/>
+      <c r="BJ24" s="432"/>
+      <c r="BK24" s="432"/>
+      <c r="BL24" s="432"/>
+      <c r="BM24" s="432"/>
+      <c r="BN24" s="432"/>
+      <c r="BO24" s="430"/>
+      <c r="BP24" s="430"/>
+      <c r="BQ24" s="432"/>
+      <c r="BR24" s="432"/>
+      <c r="BS24" s="432"/>
+      <c r="BT24" s="432"/>
+      <c r="BU24" s="432"/>
+      <c r="BV24" s="430"/>
+      <c r="BW24" s="430"/>
+      <c r="BX24" s="432"/>
+      <c r="BY24" s="432"/>
+      <c r="BZ24" s="432"/>
+      <c r="CA24" s="432"/>
+      <c r="CB24" s="432"/>
+      <c r="CC24" s="430"/>
+      <c r="CD24" s="430"/>
+      <c r="CE24" s="432"/>
+      <c r="CF24" s="432"/>
+      <c r="CG24" s="432"/>
+      <c r="CH24" s="432"/>
+      <c r="CI24" s="432"/>
+      <c r="CJ24" s="430"/>
+      <c r="CK24" s="430"/>
+      <c r="CL24" s="432"/>
+      <c r="CM24" s="432"/>
+      <c r="CN24" s="432"/>
+      <c r="CO24" s="432"/>
+      <c r="CP24" s="432"/>
       <c r="CQ24" s="88"/>
       <c r="CR24" s="88"/>
       <c r="CS24" s="86"/>
@@ -26488,11 +26611,11 @@
       <c r="EP24" s="43"/>
     </row>
     <row r="25" spans="1:146">
-      <c r="A25" s="273"/>
-      <c r="B25" s="275"/>
-      <c r="C25" s="277"/>
-      <c r="D25" s="279"/>
-      <c r="E25" s="281"/>
+      <c r="A25" s="332"/>
+      <c r="B25" s="333"/>
+      <c r="C25" s="334"/>
+      <c r="D25" s="335"/>
+      <c r="E25" s="336"/>
       <c r="F25" s="91"/>
       <c r="G25" s="92"/>
       <c r="H25" s="92"/>
@@ -26636,11 +26759,11 @@
       <c r="EP25" s="43"/>
     </row>
     <row r="26" spans="1:146">
-      <c r="A26" s="283"/>
-      <c r="B26" s="284"/>
-      <c r="C26" s="285"/>
-      <c r="D26" s="286"/>
-      <c r="E26" s="287"/>
+      <c r="A26" s="323"/>
+      <c r="B26" s="325"/>
+      <c r="C26" s="327"/>
+      <c r="D26" s="329"/>
+      <c r="E26" s="331"/>
       <c r="F26" s="85"/>
       <c r="G26" s="86"/>
       <c r="H26" s="86"/>
@@ -26784,11 +26907,11 @@
       <c r="EP26" s="43"/>
     </row>
     <row r="27" spans="1:146">
-      <c r="A27" s="273"/>
-      <c r="B27" s="275"/>
-      <c r="C27" s="277"/>
-      <c r="D27" s="279"/>
-      <c r="E27" s="281"/>
+      <c r="A27" s="332"/>
+      <c r="B27" s="333"/>
+      <c r="C27" s="334"/>
+      <c r="D27" s="335"/>
+      <c r="E27" s="336"/>
       <c r="F27" s="91"/>
       <c r="G27" s="92"/>
       <c r="H27" s="92"/>
@@ -26932,11 +27055,11 @@
       <c r="EP27" s="43"/>
     </row>
     <row r="28" spans="1:146">
-      <c r="A28" s="283"/>
-      <c r="B28" s="284"/>
-      <c r="C28" s="285"/>
-      <c r="D28" s="286"/>
-      <c r="E28" s="287"/>
+      <c r="A28" s="323"/>
+      <c r="B28" s="325"/>
+      <c r="C28" s="327"/>
+      <c r="D28" s="329"/>
+      <c r="E28" s="331"/>
       <c r="F28" s="85"/>
       <c r="G28" s="86"/>
       <c r="H28" s="86"/>
@@ -27080,11 +27203,11 @@
       <c r="EP28" s="43"/>
     </row>
     <row r="29" spans="1:146">
-      <c r="A29" s="273"/>
-      <c r="B29" s="275"/>
-      <c r="C29" s="277"/>
-      <c r="D29" s="279"/>
-      <c r="E29" s="281"/>
+      <c r="A29" s="332"/>
+      <c r="B29" s="333"/>
+      <c r="C29" s="334"/>
+      <c r="D29" s="335"/>
+      <c r="E29" s="336"/>
       <c r="F29" s="91"/>
       <c r="G29" s="92"/>
       <c r="H29" s="92"/>
@@ -27228,11 +27351,11 @@
       <c r="EP29" s="43"/>
     </row>
     <row r="30" spans="1:146">
-      <c r="A30" s="283"/>
-      <c r="B30" s="284"/>
-      <c r="C30" s="285"/>
-      <c r="D30" s="286"/>
-      <c r="E30" s="287"/>
+      <c r="A30" s="323"/>
+      <c r="B30" s="325"/>
+      <c r="C30" s="327"/>
+      <c r="D30" s="329"/>
+      <c r="E30" s="331"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
       <c r="H30" s="86"/>
@@ -27376,11 +27499,11 @@
       <c r="EP30" s="43"/>
     </row>
     <row r="31" spans="1:146">
-      <c r="A31" s="273"/>
-      <c r="B31" s="275"/>
-      <c r="C31" s="277"/>
-      <c r="D31" s="279"/>
-      <c r="E31" s="281"/>
+      <c r="A31" s="332"/>
+      <c r="B31" s="333"/>
+      <c r="C31" s="334"/>
+      <c r="D31" s="335"/>
+      <c r="E31" s="336"/>
       <c r="F31" s="91"/>
       <c r="G31" s="92"/>
       <c r="H31" s="92"/>
@@ -27524,11 +27647,11 @@
       <c r="EP31" s="43"/>
     </row>
     <row r="32" spans="1:146">
-      <c r="A32" s="283"/>
-      <c r="B32" s="284"/>
-      <c r="C32" s="285"/>
-      <c r="D32" s="286"/>
-      <c r="E32" s="287"/>
+      <c r="A32" s="323"/>
+      <c r="B32" s="325"/>
+      <c r="C32" s="327"/>
+      <c r="D32" s="329"/>
+      <c r="E32" s="331"/>
       <c r="F32" s="85"/>
       <c r="G32" s="86"/>
       <c r="H32" s="86"/>
@@ -27672,11 +27795,11 @@
       <c r="EP32" s="43"/>
     </row>
     <row r="33" spans="1:146">
-      <c r="A33" s="273"/>
-      <c r="B33" s="275"/>
-      <c r="C33" s="277"/>
-      <c r="D33" s="279"/>
-      <c r="E33" s="281"/>
+      <c r="A33" s="332"/>
+      <c r="B33" s="333"/>
+      <c r="C33" s="334"/>
+      <c r="D33" s="335"/>
+      <c r="E33" s="336"/>
       <c r="F33" s="91"/>
       <c r="G33" s="92"/>
       <c r="H33" s="92"/>
@@ -27820,11 +27943,11 @@
       <c r="EP33" s="43"/>
     </row>
     <row r="34" spans="1:146">
-      <c r="A34" s="283"/>
-      <c r="B34" s="284"/>
-      <c r="C34" s="285"/>
-      <c r="D34" s="286"/>
-      <c r="E34" s="287"/>
+      <c r="A34" s="323"/>
+      <c r="B34" s="325"/>
+      <c r="C34" s="327"/>
+      <c r="D34" s="329"/>
+      <c r="E34" s="331"/>
       <c r="F34" s="85"/>
       <c r="G34" s="86"/>
       <c r="H34" s="86"/>
@@ -27968,11 +28091,11 @@
       <c r="EP34" s="43"/>
     </row>
     <row r="35" spans="1:146">
-      <c r="A35" s="273"/>
-      <c r="B35" s="275"/>
-      <c r="C35" s="277"/>
-      <c r="D35" s="279"/>
-      <c r="E35" s="281"/>
+      <c r="A35" s="332"/>
+      <c r="B35" s="333"/>
+      <c r="C35" s="334"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="336"/>
       <c r="F35" s="91"/>
       <c r="G35" s="92"/>
       <c r="H35" s="92"/>
@@ -28116,11 +28239,11 @@
       <c r="EP35" s="43"/>
     </row>
     <row r="36" spans="1:146">
-      <c r="A36" s="283"/>
-      <c r="B36" s="284"/>
-      <c r="C36" s="285"/>
-      <c r="D36" s="286"/>
-      <c r="E36" s="287"/>
+      <c r="A36" s="323"/>
+      <c r="B36" s="325"/>
+      <c r="C36" s="327"/>
+      <c r="D36" s="329"/>
+      <c r="E36" s="331"/>
       <c r="F36" s="85"/>
       <c r="G36" s="86"/>
       <c r="H36" s="86"/>
@@ -28264,11 +28387,11 @@
       <c r="EP36" s="43"/>
     </row>
     <row r="37" spans="1:146">
-      <c r="A37" s="273"/>
-      <c r="B37" s="275"/>
-      <c r="C37" s="277"/>
-      <c r="D37" s="279"/>
-      <c r="E37" s="281"/>
+      <c r="A37" s="332"/>
+      <c r="B37" s="333"/>
+      <c r="C37" s="334"/>
+      <c r="D37" s="335"/>
+      <c r="E37" s="336"/>
       <c r="F37" s="91"/>
       <c r="G37" s="92"/>
       <c r="H37" s="92"/>
@@ -28412,11 +28535,11 @@
       <c r="EP37" s="43"/>
     </row>
     <row r="38" spans="1:146">
-      <c r="A38" s="283"/>
-      <c r="B38" s="284"/>
-      <c r="C38" s="285"/>
-      <c r="D38" s="286"/>
-      <c r="E38" s="287"/>
+      <c r="A38" s="323"/>
+      <c r="B38" s="325"/>
+      <c r="C38" s="327"/>
+      <c r="D38" s="329"/>
+      <c r="E38" s="331"/>
       <c r="F38" s="85"/>
       <c r="G38" s="86"/>
       <c r="H38" s="86"/>
@@ -28560,11 +28683,11 @@
       <c r="EP38" s="43"/>
     </row>
     <row r="39" spans="1:146">
-      <c r="A39" s="273"/>
-      <c r="B39" s="275"/>
-      <c r="C39" s="277"/>
-      <c r="D39" s="279"/>
-      <c r="E39" s="281"/>
+      <c r="A39" s="332"/>
+      <c r="B39" s="333"/>
+      <c r="C39" s="334"/>
+      <c r="D39" s="335"/>
+      <c r="E39" s="336"/>
       <c r="F39" s="91"/>
       <c r="G39" s="92"/>
       <c r="H39" s="92"/>
@@ -28708,11 +28831,11 @@
       <c r="EP39" s="43"/>
     </row>
     <row r="40" spans="1:146">
-      <c r="A40" s="283"/>
-      <c r="B40" s="284"/>
-      <c r="C40" s="285"/>
-      <c r="D40" s="286"/>
-      <c r="E40" s="287"/>
+      <c r="A40" s="323"/>
+      <c r="B40" s="325"/>
+      <c r="C40" s="327"/>
+      <c r="D40" s="329"/>
+      <c r="E40" s="331"/>
       <c r="F40" s="85"/>
       <c r="G40" s="86"/>
       <c r="H40" s="86"/>
@@ -28856,11 +28979,11 @@
       <c r="EP40" s="43"/>
     </row>
     <row r="41" spans="1:146">
-      <c r="A41" s="273"/>
-      <c r="B41" s="275"/>
-      <c r="C41" s="277"/>
-      <c r="D41" s="279"/>
-      <c r="E41" s="281"/>
+      <c r="A41" s="332"/>
+      <c r="B41" s="333"/>
+      <c r="C41" s="334"/>
+      <c r="D41" s="335"/>
+      <c r="E41" s="336"/>
       <c r="F41" s="91"/>
       <c r="G41" s="92"/>
       <c r="H41" s="92"/>
@@ -29004,11 +29127,11 @@
       <c r="EP41" s="43"/>
     </row>
     <row r="42" spans="1:146">
-      <c r="A42" s="283"/>
-      <c r="B42" s="284"/>
-      <c r="C42" s="285"/>
-      <c r="D42" s="286"/>
-      <c r="E42" s="287"/>
+      <c r="A42" s="323"/>
+      <c r="B42" s="325"/>
+      <c r="C42" s="327"/>
+      <c r="D42" s="329"/>
+      <c r="E42" s="331"/>
       <c r="F42" s="85"/>
       <c r="G42" s="86"/>
       <c r="H42" s="86"/>
@@ -29152,11 +29275,11 @@
       <c r="EP42" s="43"/>
     </row>
     <row r="43" spans="1:146">
-      <c r="A43" s="273"/>
-      <c r="B43" s="275"/>
-      <c r="C43" s="277"/>
-      <c r="D43" s="279"/>
-      <c r="E43" s="281"/>
+      <c r="A43" s="332"/>
+      <c r="B43" s="333"/>
+      <c r="C43" s="334"/>
+      <c r="D43" s="335"/>
+      <c r="E43" s="336"/>
       <c r="F43" s="91"/>
       <c r="G43" s="92"/>
       <c r="H43" s="92"/>
@@ -29300,11 +29423,11 @@
       <c r="EP43" s="43"/>
     </row>
     <row r="44" spans="1:146">
-      <c r="A44" s="283"/>
-      <c r="B44" s="284"/>
-      <c r="C44" s="285"/>
-      <c r="D44" s="286"/>
-      <c r="E44" s="287"/>
+      <c r="A44" s="323"/>
+      <c r="B44" s="325"/>
+      <c r="C44" s="327"/>
+      <c r="D44" s="329"/>
+      <c r="E44" s="331"/>
       <c r="F44" s="85"/>
       <c r="G44" s="86"/>
       <c r="H44" s="86"/>
@@ -29448,11 +29571,11 @@
       <c r="EP44" s="43"/>
     </row>
     <row r="45" spans="1:146">
-      <c r="A45" s="273"/>
-      <c r="B45" s="275"/>
-      <c r="C45" s="277"/>
-      <c r="D45" s="279"/>
-      <c r="E45" s="281"/>
+      <c r="A45" s="332"/>
+      <c r="B45" s="333"/>
+      <c r="C45" s="334"/>
+      <c r="D45" s="335"/>
+      <c r="E45" s="336"/>
       <c r="F45" s="91"/>
       <c r="G45" s="92"/>
       <c r="H45" s="92"/>
@@ -29596,11 +29719,11 @@
       <c r="EP45" s="43"/>
     </row>
     <row r="46" spans="1:146">
-      <c r="A46" s="283"/>
-      <c r="B46" s="284"/>
-      <c r="C46" s="285"/>
-      <c r="D46" s="286"/>
-      <c r="E46" s="287"/>
+      <c r="A46" s="323"/>
+      <c r="B46" s="325"/>
+      <c r="C46" s="327"/>
+      <c r="D46" s="329"/>
+      <c r="E46" s="331"/>
       <c r="F46" s="85"/>
       <c r="G46" s="86"/>
       <c r="H46" s="86"/>
@@ -29744,11 +29867,11 @@
       <c r="EP46" s="43"/>
     </row>
     <row r="47" spans="1:146">
-      <c r="A47" s="273"/>
-      <c r="B47" s="275"/>
-      <c r="C47" s="277"/>
-      <c r="D47" s="279"/>
-      <c r="E47" s="281"/>
+      <c r="A47" s="332"/>
+      <c r="B47" s="333"/>
+      <c r="C47" s="334"/>
+      <c r="D47" s="335"/>
+      <c r="E47" s="336"/>
       <c r="F47" s="91"/>
       <c r="G47" s="92"/>
       <c r="H47" s="92"/>
@@ -29892,11 +30015,11 @@
       <c r="EP47" s="43"/>
     </row>
     <row r="48" spans="1:146">
-      <c r="A48" s="283"/>
-      <c r="B48" s="284"/>
-      <c r="C48" s="285"/>
-      <c r="D48" s="286"/>
-      <c r="E48" s="287"/>
+      <c r="A48" s="323"/>
+      <c r="B48" s="325"/>
+      <c r="C48" s="327"/>
+      <c r="D48" s="329"/>
+      <c r="E48" s="331"/>
       <c r="F48" s="85"/>
       <c r="G48" s="86"/>
       <c r="H48" s="86"/>
@@ -30040,11 +30163,11 @@
       <c r="EP48" s="43"/>
     </row>
     <row r="49" spans="1:146">
-      <c r="A49" s="273"/>
-      <c r="B49" s="275"/>
-      <c r="C49" s="277"/>
-      <c r="D49" s="279"/>
-      <c r="E49" s="281"/>
+      <c r="A49" s="332"/>
+      <c r="B49" s="333"/>
+      <c r="C49" s="334"/>
+      <c r="D49" s="335"/>
+      <c r="E49" s="336"/>
       <c r="F49" s="91"/>
       <c r="G49" s="92"/>
       <c r="H49" s="92"/>
@@ -30188,11 +30311,11 @@
       <c r="EP49" s="43"/>
     </row>
     <row r="50" spans="1:146">
-      <c r="A50" s="283"/>
-      <c r="B50" s="284"/>
-      <c r="C50" s="285"/>
-      <c r="D50" s="286"/>
-      <c r="E50" s="287"/>
+      <c r="A50" s="323"/>
+      <c r="B50" s="325"/>
+      <c r="C50" s="327"/>
+      <c r="D50" s="329"/>
+      <c r="E50" s="331"/>
       <c r="F50" s="85"/>
       <c r="G50" s="86"/>
       <c r="H50" s="86"/>
@@ -30336,11 +30459,11 @@
       <c r="EP50" s="43"/>
     </row>
     <row r="51" spans="1:146">
-      <c r="A51" s="273"/>
-      <c r="B51" s="275"/>
-      <c r="C51" s="277"/>
-      <c r="D51" s="279"/>
-      <c r="E51" s="281"/>
+      <c r="A51" s="332"/>
+      <c r="B51" s="333"/>
+      <c r="C51" s="334"/>
+      <c r="D51" s="335"/>
+      <c r="E51" s="336"/>
       <c r="F51" s="91"/>
       <c r="G51" s="92"/>
       <c r="H51" s="92"/>
@@ -30484,11 +30607,11 @@
       <c r="EP51" s="43"/>
     </row>
     <row r="52" spans="1:146">
-      <c r="A52" s="283"/>
-      <c r="B52" s="284"/>
-      <c r="C52" s="285"/>
-      <c r="D52" s="286"/>
-      <c r="E52" s="287"/>
+      <c r="A52" s="323"/>
+      <c r="B52" s="325"/>
+      <c r="C52" s="327"/>
+      <c r="D52" s="329"/>
+      <c r="E52" s="331"/>
       <c r="F52" s="85"/>
       <c r="G52" s="86"/>
       <c r="H52" s="86"/>
@@ -30632,11 +30755,11 @@
       <c r="EP52" s="43"/>
     </row>
     <row r="53" spans="1:146">
-      <c r="A53" s="273"/>
-      <c r="B53" s="275"/>
-      <c r="C53" s="277"/>
-      <c r="D53" s="279"/>
-      <c r="E53" s="281"/>
+      <c r="A53" s="332"/>
+      <c r="B53" s="333"/>
+      <c r="C53" s="334"/>
+      <c r="D53" s="335"/>
+      <c r="E53" s="336"/>
       <c r="F53" s="91"/>
       <c r="G53" s="92"/>
       <c r="H53" s="92"/>
@@ -30780,11 +30903,11 @@
       <c r="EP53" s="43"/>
     </row>
     <row r="54" spans="1:146">
-      <c r="A54" s="283"/>
-      <c r="B54" s="284"/>
-      <c r="C54" s="285"/>
-      <c r="D54" s="286"/>
-      <c r="E54" s="287"/>
+      <c r="A54" s="323"/>
+      <c r="B54" s="325"/>
+      <c r="C54" s="327"/>
+      <c r="D54" s="329"/>
+      <c r="E54" s="331"/>
       <c r="F54" s="85"/>
       <c r="G54" s="86"/>
       <c r="H54" s="86"/>
@@ -30928,11 +31051,11 @@
       <c r="EP54" s="43"/>
     </row>
     <row r="55" spans="1:146">
-      <c r="A55" s="273"/>
-      <c r="B55" s="275"/>
-      <c r="C55" s="277"/>
-      <c r="D55" s="279"/>
-      <c r="E55" s="281"/>
+      <c r="A55" s="332"/>
+      <c r="B55" s="333"/>
+      <c r="C55" s="334"/>
+      <c r="D55" s="335"/>
+      <c r="E55" s="336"/>
       <c r="F55" s="91"/>
       <c r="G55" s="92"/>
       <c r="H55" s="92"/>
@@ -31076,11 +31199,11 @@
       <c r="EP55" s="43"/>
     </row>
     <row r="56" spans="1:146">
-      <c r="A56" s="283"/>
-      <c r="B56" s="284"/>
-      <c r="C56" s="285"/>
-      <c r="D56" s="286"/>
-      <c r="E56" s="287"/>
+      <c r="A56" s="323"/>
+      <c r="B56" s="325"/>
+      <c r="C56" s="327"/>
+      <c r="D56" s="329"/>
+      <c r="E56" s="331"/>
       <c r="F56" s="85"/>
       <c r="G56" s="86"/>
       <c r="H56" s="86"/>
@@ -31224,11 +31347,11 @@
       <c r="EP56" s="43"/>
     </row>
     <row r="57" spans="1:146">
-      <c r="A57" s="273"/>
-      <c r="B57" s="275"/>
-      <c r="C57" s="277"/>
-      <c r="D57" s="279"/>
-      <c r="E57" s="281"/>
+      <c r="A57" s="332"/>
+      <c r="B57" s="333"/>
+      <c r="C57" s="334"/>
+      <c r="D57" s="335"/>
+      <c r="E57" s="336"/>
       <c r="F57" s="91"/>
       <c r="G57" s="92"/>
       <c r="H57" s="92"/>
@@ -31372,11 +31495,11 @@
       <c r="EP57" s="43"/>
     </row>
     <row r="58" spans="1:146">
-      <c r="A58" s="283"/>
-      <c r="B58" s="284"/>
-      <c r="C58" s="285"/>
-      <c r="D58" s="286"/>
-      <c r="E58" s="287"/>
+      <c r="A58" s="323"/>
+      <c r="B58" s="325"/>
+      <c r="C58" s="327"/>
+      <c r="D58" s="329"/>
+      <c r="E58" s="331"/>
       <c r="F58" s="85"/>
       <c r="G58" s="86"/>
       <c r="H58" s="86"/>
@@ -31520,11 +31643,11 @@
       <c r="EP58" s="43"/>
     </row>
     <row r="59" spans="1:146">
-      <c r="A59" s="273"/>
-      <c r="B59" s="275"/>
-      <c r="C59" s="277"/>
-      <c r="D59" s="279"/>
-      <c r="E59" s="281"/>
+      <c r="A59" s="332"/>
+      <c r="B59" s="333"/>
+      <c r="C59" s="334"/>
+      <c r="D59" s="335"/>
+      <c r="E59" s="336"/>
       <c r="F59" s="91"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
@@ -31668,11 +31791,11 @@
       <c r="EP59" s="43"/>
     </row>
     <row r="60" spans="1:146">
-      <c r="A60" s="283"/>
-      <c r="B60" s="284"/>
-      <c r="C60" s="285"/>
-      <c r="D60" s="286"/>
-      <c r="E60" s="287"/>
+      <c r="A60" s="323"/>
+      <c r="B60" s="325"/>
+      <c r="C60" s="327"/>
+      <c r="D60" s="329"/>
+      <c r="E60" s="331"/>
       <c r="F60" s="85"/>
       <c r="G60" s="86"/>
       <c r="H60" s="86"/>
@@ -31816,11 +31939,11 @@
       <c r="EP60" s="43"/>
     </row>
     <row r="61" spans="1:146">
-      <c r="A61" s="273"/>
-      <c r="B61" s="275"/>
-      <c r="C61" s="277"/>
-      <c r="D61" s="279"/>
-      <c r="E61" s="281"/>
+      <c r="A61" s="332"/>
+      <c r="B61" s="333"/>
+      <c r="C61" s="334"/>
+      <c r="D61" s="335"/>
+      <c r="E61" s="336"/>
       <c r="F61" s="91"/>
       <c r="G61" s="92"/>
       <c r="H61" s="92"/>
@@ -31964,11 +32087,11 @@
       <c r="EP61" s="43"/>
     </row>
     <row r="62" spans="1:146">
-      <c r="A62" s="283"/>
-      <c r="B62" s="284"/>
-      <c r="C62" s="285"/>
-      <c r="D62" s="286"/>
-      <c r="E62" s="287"/>
+      <c r="A62" s="323"/>
+      <c r="B62" s="325"/>
+      <c r="C62" s="327"/>
+      <c r="D62" s="329"/>
+      <c r="E62" s="331"/>
       <c r="F62" s="85"/>
       <c r="G62" s="86"/>
       <c r="H62" s="86"/>
@@ -32112,11 +32235,11 @@
       <c r="EP62" s="43"/>
     </row>
     <row r="63" spans="1:146">
-      <c r="A63" s="273"/>
-      <c r="B63" s="275"/>
-      <c r="C63" s="277"/>
-      <c r="D63" s="279"/>
-      <c r="E63" s="281"/>
+      <c r="A63" s="332"/>
+      <c r="B63" s="333"/>
+      <c r="C63" s="334"/>
+      <c r="D63" s="335"/>
+      <c r="E63" s="336"/>
       <c r="F63" s="91"/>
       <c r="G63" s="92"/>
       <c r="H63" s="92"/>
@@ -32260,11 +32383,11 @@
       <c r="EP63" s="43"/>
     </row>
     <row r="64" spans="1:146">
-      <c r="A64" s="283"/>
-      <c r="B64" s="284"/>
-      <c r="C64" s="285"/>
-      <c r="D64" s="286"/>
-      <c r="E64" s="287"/>
+      <c r="A64" s="323"/>
+      <c r="B64" s="325"/>
+      <c r="C64" s="327"/>
+      <c r="D64" s="329"/>
+      <c r="E64" s="331"/>
       <c r="F64" s="85"/>
       <c r="G64" s="86"/>
       <c r="H64" s="86"/>
@@ -32408,11 +32531,11 @@
       <c r="EP64" s="43"/>
     </row>
     <row r="65" spans="1:146">
-      <c r="A65" s="273"/>
-      <c r="B65" s="275"/>
-      <c r="C65" s="277"/>
-      <c r="D65" s="279"/>
-      <c r="E65" s="281"/>
+      <c r="A65" s="332"/>
+      <c r="B65" s="333"/>
+      <c r="C65" s="334"/>
+      <c r="D65" s="335"/>
+      <c r="E65" s="336"/>
       <c r="F65" s="91"/>
       <c r="G65" s="92"/>
       <c r="H65" s="92"/>
@@ -32556,11 +32679,11 @@
       <c r="EP65" s="43"/>
     </row>
     <row r="66" spans="1:146" ht="15.75" thickBot="1">
-      <c r="A66" s="274"/>
-      <c r="B66" s="276"/>
-      <c r="C66" s="278"/>
-      <c r="D66" s="280"/>
-      <c r="E66" s="282"/>
+      <c r="A66" s="341"/>
+      <c r="B66" s="342"/>
+      <c r="C66" s="343"/>
+      <c r="D66" s="344"/>
+      <c r="E66" s="345"/>
       <c r="F66" s="98"/>
       <c r="G66" s="99"/>
       <c r="H66" s="99"/>
@@ -34355,6 +34478,151 @@
     </row>
   </sheetData>
   <mergeCells count="165">
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A4:DF4"/>
     <mergeCell ref="DG4:EO4"/>
     <mergeCell ref="A5:A8"/>
@@ -34375,151 +34643,6 @@
     <mergeCell ref="AJ2:AT2"/>
     <mergeCell ref="AU2:BG2"/>
     <mergeCell ref="BJ2:CG2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34535,8 +34658,8 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -34571,37 +34694,39 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="360" t="s">
+      <c r="A3" s="357" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="361"/>
-      <c r="C3" s="362" t="s">
+      <c r="B3" s="358"/>
+      <c r="C3" s="359" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="362"/>
-      <c r="E3" s="363"/>
+      <c r="D3" s="359"/>
+      <c r="E3" s="360"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="41.25" customHeight="1">
-      <c r="A4" s="364" t="s">
+      <c r="A4" s="361" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="365"/>
-      <c r="C4" s="366" t="s">
+      <c r="B4" s="362"/>
+      <c r="C4" s="363" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="367"/>
-      <c r="E4" s="368"/>
+      <c r="D4" s="364"/>
+      <c r="E4" s="365"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="375" t="s">
+      <c r="A5" s="370" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="376"/>
-      <c r="C5" s="373"/>
-      <c r="D5" s="373"/>
-      <c r="E5" s="374"/>
+      <c r="B5" s="371"/>
+      <c r="C5" s="433">
+        <v>43592</v>
+      </c>
+      <c r="D5" s="433"/>
+      <c r="E5" s="434"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1">
@@ -34613,34 +34738,34 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A7" s="369" t="s">
+      <c r="A7" s="366" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="371" t="s">
+      <c r="B7" s="368" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="371"/>
+      <c r="C7" s="368"/>
       <c r="D7" s="135" t="s">
         <v>144</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="377" t="s">
+      <c r="F7" s="350" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="378"/>
-      <c r="H7" s="379"/>
-      <c r="I7" s="380" t="s">
+      <c r="G7" s="351"/>
+      <c r="H7" s="352"/>
+      <c r="I7" s="353" t="s">
         <v>145</v>
       </c>
-      <c r="J7" s="381"/>
-      <c r="K7" s="382"/>
+      <c r="J7" s="354"/>
+      <c r="K7" s="355"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A8" s="370"/>
-      <c r="B8" s="372"/>
-      <c r="C8" s="372"/>
+      <c r="A8" s="367"/>
+      <c r="B8" s="369"/>
+      <c r="C8" s="369"/>
       <c r="D8" s="136" t="s">
         <v>0</v>
       </c>
@@ -34670,10 +34795,10 @@
       <c r="A9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="386" t="s">
+      <c r="B9" s="356" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="386"/>
+      <c r="C9" s="356"/>
       <c r="D9" s="24">
         <v>70</v>
       </c>
@@ -34695,10 +34820,10 @@
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="385" t="s">
+      <c r="B10" s="346" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="385"/>
+      <c r="C10" s="346"/>
       <c r="D10" s="5">
         <v>30</v>
       </c>
@@ -34720,10 +34845,10 @@
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="385" t="s">
+      <c r="B11" s="346" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="385"/>
+      <c r="C11" s="346"/>
       <c r="D11" s="5">
         <v>25</v>
       </c>
@@ -34745,10 +34870,10 @@
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="385" t="s">
+      <c r="B12" s="346" t="s">
         <v>258</v>
       </c>
-      <c r="C12" s="385"/>
+      <c r="C12" s="346"/>
       <c r="D12" s="5">
         <v>50</v>
       </c>
@@ -34776,10 +34901,10 @@
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="385" t="s">
+      <c r="B13" s="346" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="385"/>
+      <c r="C13" s="346"/>
       <c r="D13" s="5">
         <v>25</v>
       </c>
@@ -34807,10 +34932,10 @@
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="385" t="s">
+      <c r="B14" s="346" t="s">
         <v>268</v>
       </c>
-      <c r="C14" s="385"/>
+      <c r="C14" s="346"/>
       <c r="D14" s="5">
         <v>20</v>
       </c>
@@ -34838,10 +34963,10 @@
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="385" t="s">
+      <c r="B15" s="346" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="385"/>
+      <c r="C15" s="346"/>
       <c r="D15" s="5">
         <v>70</v>
       </c>
@@ -34869,20 +34994,26 @@
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="385" t="s">
+      <c r="B16" s="346" t="s">
         <v>291</v>
       </c>
-      <c r="C16" s="385"/>
+      <c r="C16" s="346"/>
       <c r="D16" s="5">
         <v>85</v>
       </c>
       <c r="E16" s="134">
         <v>5</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>305</v>
+      </c>
       <c r="G16" s="11"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="18"/>
+      <c r="H16" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>306</v>
+      </c>
       <c r="J16" s="17"/>
       <c r="K16" s="19"/>
     </row>
@@ -34890,10 +35021,16 @@
       <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="385"/>
-      <c r="C17" s="385"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="134"/>
+      <c r="B17" s="346" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="346"/>
+      <c r="D17" s="5">
+        <v>20</v>
+      </c>
+      <c r="E17" s="134">
+        <v>8</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="11"/>
       <c r="H17" s="15"/>
@@ -34905,8 +35042,10 @@
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="383"/>
-      <c r="C18" s="384"/>
+      <c r="B18" s="375" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="376"/>
       <c r="D18" s="5"/>
       <c r="E18" s="134"/>
       <c r="F18" s="12"/>
@@ -34920,8 +35059,10 @@
       <c r="A19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="383"/>
-      <c r="C19" s="384"/>
+      <c r="B19" s="375" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="376"/>
       <c r="D19" s="5"/>
       <c r="E19" s="134"/>
       <c r="F19" s="12"/>
@@ -34935,8 +35076,8 @@
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="383"/>
-      <c r="C20" s="384"/>
+      <c r="B20" s="348"/>
+      <c r="C20" s="349"/>
       <c r="D20" s="5"/>
       <c r="E20" s="134"/>
       <c r="F20" s="12"/>
@@ -34950,8 +35091,8 @@
       <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="383"/>
-      <c r="C21" s="384"/>
+      <c r="B21" s="348"/>
+      <c r="C21" s="349"/>
       <c r="D21" s="5"/>
       <c r="E21" s="134"/>
       <c r="F21" s="12"/>
@@ -34965,8 +35106,8 @@
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="383"/>
-      <c r="C22" s="384"/>
+      <c r="B22" s="348"/>
+      <c r="C22" s="349"/>
       <c r="D22" s="5"/>
       <c r="E22" s="134"/>
       <c r="F22" s="12"/>
@@ -34980,8 +35121,8 @@
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="385"/>
-      <c r="C23" s="385"/>
+      <c r="B23" s="346"/>
+      <c r="C23" s="346"/>
       <c r="D23" s="5"/>
       <c r="E23" s="134"/>
       <c r="F23" s="12"/>
@@ -34995,8 +35136,8 @@
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="383"/>
-      <c r="C24" s="384"/>
+      <c r="B24" s="348"/>
+      <c r="C24" s="349"/>
       <c r="D24" s="5"/>
       <c r="E24" s="134"/>
       <c r="F24" s="12"/>
@@ -35010,8 +35151,8 @@
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="383"/>
-      <c r="C25" s="384"/>
+      <c r="B25" s="348"/>
+      <c r="C25" s="349"/>
       <c r="D25" s="5"/>
       <c r="E25" s="134"/>
       <c r="F25" s="12"/>
@@ -35025,8 +35166,8 @@
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="383"/>
-      <c r="C26" s="384"/>
+      <c r="B26" s="348"/>
+      <c r="C26" s="349"/>
       <c r="D26" s="5"/>
       <c r="E26" s="134"/>
       <c r="F26" s="12"/>
@@ -35040,8 +35181,8 @@
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="383"/>
-      <c r="C27" s="384"/>
+      <c r="B27" s="348"/>
+      <c r="C27" s="349"/>
       <c r="D27" s="5"/>
       <c r="E27" s="134"/>
       <c r="F27" s="12"/>
@@ -35055,8 +35196,8 @@
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="383"/>
-      <c r="C28" s="384"/>
+      <c r="B28" s="348"/>
+      <c r="C28" s="349"/>
       <c r="D28" s="5"/>
       <c r="E28" s="134"/>
       <c r="F28" s="12"/>
@@ -35070,8 +35211,8 @@
       <c r="A29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="385"/>
-      <c r="C29" s="385"/>
+      <c r="B29" s="346"/>
+      <c r="C29" s="346"/>
       <c r="D29" s="5"/>
       <c r="E29" s="134"/>
       <c r="F29" s="12"/>
@@ -35085,8 +35226,8 @@
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="385"/>
-      <c r="C30" s="385"/>
+      <c r="B30" s="346"/>
+      <c r="C30" s="346"/>
       <c r="D30" s="5"/>
       <c r="E30" s="134"/>
       <c r="F30" s="12"/>
@@ -35100,8 +35241,8 @@
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="385"/>
-      <c r="C31" s="385"/>
+      <c r="B31" s="346"/>
+      <c r="C31" s="346"/>
       <c r="D31" s="5"/>
       <c r="E31" s="134"/>
       <c r="F31" s="12"/>
@@ -35115,8 +35256,8 @@
       <c r="A32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="385"/>
-      <c r="C32" s="385"/>
+      <c r="B32" s="346"/>
+      <c r="C32" s="346"/>
       <c r="D32" s="5"/>
       <c r="E32" s="134"/>
       <c r="F32" s="12"/>
@@ -35130,8 +35271,8 @@
       <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="385"/>
-      <c r="C33" s="385"/>
+      <c r="B33" s="346"/>
+      <c r="C33" s="346"/>
       <c r="D33" s="5"/>
       <c r="E33" s="134"/>
       <c r="F33" s="12"/>
@@ -35145,8 +35286,8 @@
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="385"/>
-      <c r="C34" s="385"/>
+      <c r="B34" s="346"/>
+      <c r="C34" s="346"/>
       <c r="D34" s="5"/>
       <c r="E34" s="134"/>
       <c r="F34" s="12"/>
@@ -35160,8 +35301,8 @@
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="385"/>
-      <c r="C35" s="385"/>
+      <c r="B35" s="346"/>
+      <c r="C35" s="346"/>
       <c r="D35" s="5"/>
       <c r="E35" s="134"/>
       <c r="F35" s="12"/>
@@ -35175,8 +35316,8 @@
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="385"/>
-      <c r="C36" s="385"/>
+      <c r="B36" s="346"/>
+      <c r="C36" s="346"/>
       <c r="D36" s="5"/>
       <c r="E36" s="134"/>
       <c r="F36" s="12"/>
@@ -35190,8 +35331,8 @@
       <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="385"/>
-      <c r="C37" s="385"/>
+      <c r="B37" s="346"/>
+      <c r="C37" s="346"/>
       <c r="D37" s="5"/>
       <c r="E37" s="134"/>
       <c r="F37" s="12"/>
@@ -35205,8 +35346,8 @@
       <c r="A38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="387"/>
-      <c r="C38" s="387"/>
+      <c r="B38" s="347"/>
+      <c r="C38" s="347"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
       <c r="F38" s="13"/>
@@ -35218,24 +35359,14 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="B18:C18"/>
@@ -35250,14 +35381,24 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>

--- a/Doku/Projektmappe.xlsx
+++ b/Doku/Projektmappe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Inhalt" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="341">
   <si>
     <t>(0-100%)</t>
   </si>
@@ -1280,6 +1280,18 @@
   </si>
   <si>
     <t>Nr.8 Webserber &amp; Datenbank verbinden (2 Tage)</t>
+  </si>
+  <si>
+    <t>Design != Anforderungen</t>
+  </si>
+  <si>
+    <t>Entwickler krank</t>
+  </si>
+  <si>
+    <t>Anforderungen nicht umgesetzt</t>
+  </si>
+  <si>
+    <t>Entwickler fällt aus</t>
   </si>
 </sst>
 </file>
@@ -3784,7 +3796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="451">
+  <cellXfs count="452">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4124,11 +4136,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4163,58 +4215,16 @@
     <xf numFmtId="0" fontId="30" fillId="26" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4226,96 +4236,11 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4335,6 +4260,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4353,10 +4284,89 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="134" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4410,82 +4420,8 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4639,6 +4575,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4690,49 +4742,10 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4741,7 +4754,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4764,268 +4777,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="10"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Risikoregister!$D$9:$D$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Risikoregister!$E$9:$E$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-45BD-47E1-B7A8-C6AA7FCC0367}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:axId val="146705408"/>
-        <c:axId val="146715776"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="146705408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface="Calibri"/>
-                    <a:cs typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Wahrscheinlichkeit (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="146715776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:minorUnit val="20"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="146715776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface="Calibri"/>
-                    <a:cs typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Auswirkung</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="146705408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
-        <c:minorUnit val="0.4"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFCC"/>
-        </a:solidFill>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Calibri"/>
-          <a:ea typeface="Calibri"/>
-          <a:cs typeface="Calibri"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
-  </c:printSettings>
-</c:chartSpace>
 </file>
 
 <file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10102,7 +9853,7 @@
         <xdr:cNvPr id="7" name="Titel 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10176,7 +9927,7 @@
         <xdr:cNvPr id="8" name="Untertitel 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10500,7 +10251,7 @@
         <xdr:cNvPr id="3" name="Rechteck 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10567,7 +10318,7 @@
         <xdr:cNvPr id="10" name="Titel 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10646,7 +10397,7 @@
         <xdr:cNvPr id="11" name="Inhaltsplatzhalter 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10994,7 +10745,7 @@
         <xdr:cNvPr id="12" name="Titel 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11073,7 +10824,7 @@
         <xdr:cNvPr id="13" name="Inhaltsplatzhalter 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11384,7 +11135,7 @@
         <xdr:cNvPr id="14" name="Textplatzhalter 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11683,7 +11434,7 @@
         <xdr:cNvPr id="15" name="Titel 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11762,7 +11513,7 @@
         <xdr:cNvPr id="16" name="Inhaltsplatzhalter 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12056,7 +11807,7 @@
         <xdr:cNvPr id="17" name="Textplatzhalter 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12359,7 +12110,7 @@
         <xdr:cNvPr id="18" name="Titel 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12438,7 +12189,7 @@
         <xdr:cNvPr id="20" name="Textplatzhalter 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12737,7 +12488,7 @@
         <xdr:cNvPr id="21" name="Picture 20" descr="use_case.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12781,7 +12532,7 @@
         <xdr:cNvPr id="22" name="Picture 21" descr="01_Login.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12825,7 +12576,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="02_Startseite_Psych.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12864,7 +12615,7 @@
         <xdr:cNvPr id="24" name="TextBox 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12924,7 +12675,7 @@
         <xdr:cNvPr id="25" name="Picture 24" descr="03_dropdown_psych.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12968,7 +12719,7 @@
         <xdr:cNvPr id="26" name="Picture 25" descr="04_Patient_anlegen.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13012,7 +12763,7 @@
         <xdr:cNvPr id="27" name="Picture 26" descr="05_Patientensuche.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13056,7 +12807,7 @@
         <xdr:cNvPr id="28" name="Picture 27" descr="05_Patientensuche.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13100,7 +12851,7 @@
         <xdr:cNvPr id="29" name="Picture 28" descr="07_Diagramm.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13144,7 +12895,7 @@
         <xdr:cNvPr id="30" name="Picture 29" descr="08_Tagebuch_ausfüllen.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13188,7 +12939,7 @@
         <xdr:cNvPr id="31" name="Picture 30" descr="09_ausgefülltes_Tagebuch.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13232,7 +12983,7 @@
         <xdr:cNvPr id="32" name="Picture 31" descr="10_speichern_ändern.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13276,7 +13027,7 @@
         <xdr:cNvPr id="33" name="Picture 32" descr="11_ausgeloggt_seite.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13320,7 +13071,7 @@
         <xdr:cNvPr id="34" name="Picture 33" descr="Entwurf_Ehealth_Datenbank.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13369,7 +13120,7 @@
         <xdr:cNvPr id="14346" name="Grafik 1" descr="Kopfzeile">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A380000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A380000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13381,7 +13132,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13404,14 +13155,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13448,7 +13199,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13489,7 +13240,7 @@
         <xdr:cNvPr id="9" name="Gerade Verbindung mit Pfeil 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13542,7 +13293,7 @@
         <xdr:cNvPr id="54" name="Raute 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13621,7 +13372,7 @@
         <xdr:cNvPr id="55" name="Gerade Verbindung mit Pfeil 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13677,7 +13428,7 @@
         <xdr:cNvPr id="56" name="Raute 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13756,7 +13507,7 @@
         <xdr:cNvPr id="57" name="Gerade Verbindung mit Pfeil 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13812,7 +13563,7 @@
         <xdr:cNvPr id="30" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13868,7 +13619,7 @@
         <xdr:cNvPr id="31" name="Gerader Verbinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13918,7 +13669,7 @@
         <xdr:cNvPr id="35" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13974,7 +13725,7 @@
         <xdr:cNvPr id="36" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14030,7 +13781,7 @@
         <xdr:cNvPr id="48" name="Gerader Verbinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14080,7 +13831,7 @@
         <xdr:cNvPr id="52" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14136,7 +13887,7 @@
         <xdr:cNvPr id="53" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14192,7 +13943,7 @@
         <xdr:cNvPr id="60" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14248,7 +13999,7 @@
         <xdr:cNvPr id="63" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14304,7 +14055,7 @@
         <xdr:cNvPr id="69" name="Gerader Verbinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14354,7 +14105,7 @@
         <xdr:cNvPr id="70" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14410,7 +14161,7 @@
         <xdr:cNvPr id="71" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14466,7 +14217,7 @@
         <xdr:cNvPr id="72" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14522,7 +14273,7 @@
         <xdr:cNvPr id="74" name="Gerader Verbinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14572,7 +14323,7 @@
         <xdr:cNvPr id="75" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14628,7 +14379,7 @@
         <xdr:cNvPr id="77" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14684,7 +14435,7 @@
         <xdr:cNvPr id="79" name="Gerader Verbinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14734,7 +14485,7 @@
         <xdr:cNvPr id="80" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14790,7 +14541,7 @@
         <xdr:cNvPr id="81" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14846,7 +14597,7 @@
         <xdr:cNvPr id="84" name="Gerader Verbinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14896,7 +14647,7 @@
         <xdr:cNvPr id="95" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14952,7 +14703,7 @@
         <xdr:cNvPr id="97" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15013,7 +14764,7 @@
         <xdr:cNvPr id="8212" name="Picture 3" descr="04 Logo_8x1,9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014200000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000014200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15025,7 +14776,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15048,14 +14799,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15092,7 +14843,7 @@
         <xdr:cNvPr id="41985" name="Grafik 1" descr="Kopfzeile_quer.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001A40000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000001A40000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15104,7 +14855,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15127,14 +14878,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15153,417 +14904,6 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>129539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="43010" name="Diagramm 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002A80000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Freihandform 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="895350" y="1411605"/>
-          <a:ext cx="3676650" cy="3465195"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 3581400 w 3590925"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 3267075"/>
-            <a:gd name="connsiteX1" fmla="*/ 3590925 w 3590925"/>
-            <a:gd name="connsiteY1" fmla="*/ 3267075 h 3267075"/>
-            <a:gd name="connsiteX2" fmla="*/ 2867025 w 3590925"/>
-            <a:gd name="connsiteY2" fmla="*/ 3086100 h 3267075"/>
-            <a:gd name="connsiteX3" fmla="*/ 2143125 w 3590925"/>
-            <a:gd name="connsiteY3" fmla="*/ 2847975 h 3267075"/>
-            <a:gd name="connsiteX4" fmla="*/ 1428750 w 3590925"/>
-            <a:gd name="connsiteY4" fmla="*/ 2619375 h 3267075"/>
-            <a:gd name="connsiteX5" fmla="*/ 714375 w 3590925"/>
-            <a:gd name="connsiteY5" fmla="*/ 1962150 h 3267075"/>
-            <a:gd name="connsiteX6" fmla="*/ 428625 w 3590925"/>
-            <a:gd name="connsiteY6" fmla="*/ 1304925 h 3267075"/>
-            <a:gd name="connsiteX7" fmla="*/ 171450 w 3590925"/>
-            <a:gd name="connsiteY7" fmla="*/ 666750 h 3267075"/>
-            <a:gd name="connsiteX8" fmla="*/ 0 w 3590925"/>
-            <a:gd name="connsiteY8" fmla="*/ 0 h 3267075"/>
-            <a:gd name="connsiteX9" fmla="*/ 3581400 w 3590925"/>
-            <a:gd name="connsiteY9" fmla="*/ 0 h 3267075"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX7" y="connsiteY7"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX8" y="connsiteY8"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX9" y="connsiteY9"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="3590925" h="3267075">
-              <a:moveTo>
-                <a:pt x="3581400" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="3590925" y="3267075"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2867025" y="3086100"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2143125" y="2847975"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1428750" y="2619375"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="714375" y="1962150"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="428625" y="1304925"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="171450" y="666750"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="3581400" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF99">
-            <a:alpha val="25000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>348615</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>763905</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Freihandform 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2806065" y="1400175"/>
-          <a:ext cx="2053590" cy="1676400"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 1828800 w 1838325"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 1666875"/>
-            <a:gd name="connsiteX1" fmla="*/ 1838325 w 1838325"/>
-            <a:gd name="connsiteY1" fmla="*/ 1666875 h 1666875"/>
-            <a:gd name="connsiteX2" fmla="*/ 1114425 w 1838325"/>
-            <a:gd name="connsiteY2" fmla="*/ 1504950 h 1666875"/>
-            <a:gd name="connsiteX3" fmla="*/ 752475 w 1838325"/>
-            <a:gd name="connsiteY3" fmla="*/ 1314450 h 1666875"/>
-            <a:gd name="connsiteX4" fmla="*/ 390525 w 1838325"/>
-            <a:gd name="connsiteY4" fmla="*/ 914400 h 1666875"/>
-            <a:gd name="connsiteX5" fmla="*/ 209550 w 1838325"/>
-            <a:gd name="connsiteY5" fmla="*/ 666750 h 1666875"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 1838325"/>
-            <a:gd name="connsiteY6" fmla="*/ 9525 h 1666875"/>
-            <a:gd name="connsiteX7" fmla="*/ 1828800 w 1838325"/>
-            <a:gd name="connsiteY7" fmla="*/ 0 h 1666875"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX7" y="connsiteY7"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="1838325" h="1666875">
-              <a:moveTo>
-                <a:pt x="1828800" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1838325" y="1666875"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1114425" y="1504950"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="752475" y="1314450"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="390525" y="914400"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="209550" y="666750"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="9525"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1828800" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF9900">
-            <a:alpha val="36000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>369570</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Ellipse 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1047750" y="1190624"/>
-          <a:ext cx="1771650" cy="495301"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00">
-            <a:alpha val="46000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -15582,7 +14922,7 @@
         <xdr:cNvPr id="43009" name="Grafik 2" descr="Kopfzeile_quer.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000001A80000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000001A80000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15591,10 +14931,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15617,14 +14957,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15636,70 +14976,6 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>312419</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Textfeld 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1131569" y="4040505"/>
-          <a:ext cx="1087755" cy="626745"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" b="1"/>
-            <a:t>Keine Maßnahmen</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -15720,7 +14996,7 @@
         <xdr:cNvPr id="5" name="Textfeld 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15766,315 +15042,444 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>603885</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1082040" cy="335107"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Textfeld 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>553833</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="ehealth_diagramm.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1423035" y="1352550"/>
-          <a:ext cx="1082040" cy="335107"/>
+          <a:off x="174625" y="928688"/>
+          <a:ext cx="6475208" cy="5548313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1833564</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2000251</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8691564" y="976313"/>
+          <a:ext cx="166687" cy="166687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Versicherung</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1841503</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>39689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>405818</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2000253</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7939</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Textfeld 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2051" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3343275" y="3400425"/>
-          <a:ext cx="1143000" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" b="1"/>
-            <a:t>Präventive</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="de-DE" sz="1200" b="1"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" b="1"/>
-            <a:t>Maßnahmen</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>245745</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>520065</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>125761</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Textfeld 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1876425" y="2124075"/>
-          <a:ext cx="1085850" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Notfallplan</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>203424</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1029769" cy="655949"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Textfeld 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3480024" y="1573530"/>
-          <a:ext cx="1029769" cy="655949"/>
+          <a:off x="8699503" y="1174752"/>
+          <a:ext cx="158750" cy="158750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" b="1"/>
-            <a:t>Sorgfältig</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="de-DE" sz="1200" b="1"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" b="1"/>
-            <a:t>planen</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" b="1" baseline="0"/>
-            <a:t> und</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="de-DE" sz="1200" b="1" baseline="0"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" b="1" baseline="0"/>
-            <a:t>überwachen!</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1200" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1841503</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2008191</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2052" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8699503" y="1373189"/>
+          <a:ext cx="166688" cy="166688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1849441</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2008191</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2053" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8707441" y="1563689"/>
+          <a:ext cx="158750" cy="158750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1849439</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2016126</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2054" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8707439" y="1730375"/>
+          <a:ext cx="166687" cy="166687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1849440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2000253</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2055" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8707440" y="1928813"/>
+          <a:ext cx="150813" cy="150813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1857380</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2000251</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2056" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8715380" y="2111377"/>
+          <a:ext cx="142871" cy="142871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1857377</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2011166</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2057" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8715377" y="2293938"/>
+          <a:ext cx="153789" cy="158750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1865317</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2026795</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>182561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2058" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8723317" y="2674937"/>
+          <a:ext cx="161478" cy="166687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1857375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2016124</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2059" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8715375" y="2476501"/>
+          <a:ext cx="158749" cy="158749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16373,33 +15778,33 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="238" t="s">
+      <c r="B2" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1">
-      <c r="B4" s="232" t="s">
+      <c r="B4" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
-      <c r="G4" s="234"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="222"/>
       <c r="H4" s="148"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1">
-      <c r="B5" s="235"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="237"/>
+      <c r="B5" s="223"/>
+      <c r="C5" s="224"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="225"/>
       <c r="H5" s="148"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1">
@@ -16413,34 +15818,34 @@
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1">
       <c r="B7" s="150"/>
-      <c r="C7" s="221" t="s">
+      <c r="C7" s="235" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="222"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="223"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="237"/>
       <c r="G7" s="155"/>
       <c r="H7" s="149"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1">
       <c r="B8" s="150"/>
       <c r="C8" s="150"/>
-      <c r="D8" s="224" t="s">
+      <c r="D8" s="238" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="224"/>
-      <c r="F8" s="225"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="239"/>
       <c r="G8" s="155"/>
       <c r="H8" s="149"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1">
       <c r="B9" s="150"/>
       <c r="C9" s="151"/>
-      <c r="D9" s="219" t="s">
+      <c r="D9" s="230" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="219"/>
-      <c r="F9" s="220"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="231"/>
       <c r="G9" s="155"/>
       <c r="H9" s="149"/>
     </row>
@@ -16455,32 +15860,32 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="152"/>
-      <c r="C11" s="226" t="s">
+      <c r="C11" s="240" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="227"/>
-      <c r="E11" s="227"/>
-      <c r="F11" s="228"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="241"/>
+      <c r="F11" s="242"/>
       <c r="G11" s="142"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="152"/>
       <c r="C12" s="152"/>
-      <c r="D12" s="224" t="s">
+      <c r="D12" s="238" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="224"/>
-      <c r="F12" s="225"/>
+      <c r="E12" s="238"/>
+      <c r="F12" s="239"/>
       <c r="G12" s="142"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="152"/>
       <c r="C13" s="153"/>
-      <c r="D13" s="219" t="s">
+      <c r="D13" s="230" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="219"/>
-      <c r="F13" s="220"/>
+      <c r="E13" s="230"/>
+      <c r="F13" s="231"/>
       <c r="G13" s="142"/>
     </row>
     <row r="14" spans="2:8">
@@ -16501,32 +15906,32 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="152"/>
-      <c r="C16" s="229" t="s">
+      <c r="C16" s="243" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="230"/>
-      <c r="E16" s="230"/>
-      <c r="F16" s="231"/>
+      <c r="D16" s="244"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="245"/>
       <c r="G16" s="142"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="152"/>
       <c r="C17" s="152"/>
-      <c r="D17" s="224" t="s">
+      <c r="D17" s="238" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="224"/>
-      <c r="F17" s="225"/>
+      <c r="E17" s="238"/>
+      <c r="F17" s="239"/>
       <c r="G17" s="142"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="152"/>
       <c r="C18" s="153"/>
-      <c r="D18" s="219" t="s">
+      <c r="D18" s="230" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="219"/>
-      <c r="F18" s="220"/>
+      <c r="E18" s="230"/>
+      <c r="F18" s="231"/>
       <c r="G18" s="142"/>
     </row>
     <row r="19" spans="2:7">
@@ -16547,22 +15952,22 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="152"/>
-      <c r="C21" s="239" t="s">
+      <c r="C21" s="227" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="240"/>
-      <c r="E21" s="240"/>
-      <c r="F21" s="241"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="229"/>
       <c r="G21" s="142"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="152"/>
       <c r="C22" s="153"/>
-      <c r="D22" s="219" t="s">
+      <c r="D22" s="230" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="219"/>
-      <c r="F22" s="220"/>
+      <c r="E22" s="230"/>
+      <c r="F22" s="231"/>
       <c r="G22" s="142"/>
     </row>
     <row r="23" spans="2:7">
@@ -16583,22 +15988,22 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="152"/>
-      <c r="C25" s="242" t="s">
+      <c r="C25" s="232" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="243"/>
-      <c r="E25" s="243"/>
-      <c r="F25" s="244"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="233"/>
+      <c r="F25" s="234"/>
       <c r="G25" s="142"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="152"/>
       <c r="C26" s="153"/>
-      <c r="D26" s="219" t="s">
+      <c r="D26" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="219"/>
-      <c r="F26" s="220"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="231"/>
       <c r="G26" s="142"/>
     </row>
     <row r="27" spans="2:7">
@@ -16611,11 +16016,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="C25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="D8:F8"/>
@@ -16626,6 +16026,11 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="C25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16651,26 +16056,26 @@
   <sheetData>
     <row r="1" spans="2:11" s="145" customFormat="1"/>
     <row r="2" spans="2:11" ht="18.75">
-      <c r="B2" s="446" t="s">
+      <c r="B2" s="451" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="446"/>
-      <c r="D2" s="446" t="s">
+      <c r="C2" s="451"/>
+      <c r="D2" s="451" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="446"/>
-      <c r="F2" s="446" t="s">
+      <c r="E2" s="451"/>
+      <c r="F2" s="451" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="446"/>
-      <c r="H2" s="446" t="s">
+      <c r="G2" s="451"/>
+      <c r="H2" s="451" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="446"/>
-      <c r="J2" s="446" t="s">
+      <c r="I2" s="451"/>
+      <c r="J2" s="451" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="446"/>
+      <c r="K2" s="451"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
       <c r="B3" s="447">
@@ -16685,10 +16090,10 @@
         <v>322</v>
       </c>
       <c r="G3" s="447"/>
-      <c r="H3" s="450" t="s">
+      <c r="H3" s="448" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="450"/>
+      <c r="I3" s="448"/>
       <c r="J3" s="447" t="s">
         <v>323</v>
       </c>
@@ -16701,10 +16106,10 @@
       <c r="E4" s="447"/>
       <c r="F4" s="447"/>
       <c r="G4" s="447"/>
-      <c r="H4" s="450" t="s">
+      <c r="H4" s="448" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="450"/>
+      <c r="I4" s="448"/>
       <c r="J4" s="447"/>
       <c r="K4" s="447"/>
     </row>
@@ -16715,10 +16120,10 @@
       <c r="E5" s="447"/>
       <c r="F5" s="447"/>
       <c r="G5" s="447"/>
-      <c r="H5" s="450" t="s">
+      <c r="H5" s="448" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="450"/>
+      <c r="I5" s="448"/>
       <c r="J5" s="447"/>
       <c r="K5" s="447"/>
     </row>
@@ -16731,14 +16136,14 @@
         <v>320</v>
       </c>
       <c r="E6" s="447"/>
-      <c r="F6" s="448" t="s">
+      <c r="F6" s="449" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="449"/>
-      <c r="H6" s="450" t="s">
+      <c r="G6" s="450"/>
+      <c r="H6" s="448" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="450"/>
+      <c r="I6" s="448"/>
       <c r="J6" s="447" t="s">
         <v>325</v>
       </c>
@@ -16751,10 +16156,10 @@
       <c r="E7" s="447"/>
       <c r="F7" s="447"/>
       <c r="G7" s="447"/>
-      <c r="H7" s="450" t="s">
+      <c r="H7" s="448" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="450"/>
+      <c r="I7" s="448"/>
       <c r="J7" s="447"/>
       <c r="K7" s="447"/>
     </row>
@@ -16765,10 +16170,10 @@
       <c r="E8" s="447"/>
       <c r="F8" s="447"/>
       <c r="G8" s="447"/>
-      <c r="H8" s="450" t="s">
+      <c r="H8" s="448" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="450"/>
+      <c r="I8" s="448"/>
       <c r="J8" s="447"/>
       <c r="K8" s="447"/>
     </row>
@@ -16785,10 +16190,10 @@
         <v>326</v>
       </c>
       <c r="G9" s="447"/>
-      <c r="H9" s="450" t="s">
+      <c r="H9" s="448" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="450"/>
+      <c r="I9" s="448"/>
       <c r="J9" s="447" t="s">
         <v>327</v>
       </c>
@@ -16801,10 +16206,10 @@
       <c r="E10" s="447"/>
       <c r="F10" s="447"/>
       <c r="G10" s="447"/>
-      <c r="H10" s="450" t="s">
+      <c r="H10" s="448" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="450"/>
+      <c r="I10" s="448"/>
       <c r="J10" s="447"/>
       <c r="K10" s="447"/>
     </row>
@@ -16815,10 +16220,10 @@
       <c r="E11" s="447"/>
       <c r="F11" s="447"/>
       <c r="G11" s="447"/>
-      <c r="H11" s="450" t="s">
+      <c r="H11" s="448" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="450"/>
+      <c r="I11" s="448"/>
       <c r="J11" s="447"/>
       <c r="K11" s="447"/>
     </row>
@@ -16831,10 +16236,10 @@
       <c r="E12" s="447"/>
       <c r="F12" s="447"/>
       <c r="G12" s="447"/>
-      <c r="H12" s="450" t="s">
+      <c r="H12" s="448" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="450"/>
+      <c r="I12" s="448"/>
       <c r="J12" s="447"/>
       <c r="K12" s="447"/>
     </row>
@@ -16845,10 +16250,10 @@
       <c r="E13" s="447"/>
       <c r="F13" s="447"/>
       <c r="G13" s="447"/>
-      <c r="H13" s="450" t="s">
+      <c r="H13" s="448" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="450"/>
+      <c r="I13" s="448"/>
       <c r="J13" s="447"/>
       <c r="K13" s="447"/>
     </row>
@@ -16859,10 +16264,10 @@
       <c r="E14" s="447"/>
       <c r="F14" s="447"/>
       <c r="G14" s="447"/>
-      <c r="H14" s="450" t="s">
+      <c r="H14" s="448" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="450"/>
+      <c r="I14" s="448"/>
       <c r="J14" s="447"/>
       <c r="K14" s="447"/>
     </row>
@@ -16875,10 +16280,10 @@
       <c r="E15" s="447"/>
       <c r="F15" s="447"/>
       <c r="G15" s="447"/>
-      <c r="H15" s="450" t="s">
+      <c r="H15" s="448" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="450"/>
+      <c r="I15" s="448"/>
       <c r="J15" s="447"/>
       <c r="K15" s="447"/>
     </row>
@@ -16889,10 +16294,10 @@
       <c r="E16" s="447"/>
       <c r="F16" s="447"/>
       <c r="G16" s="447"/>
-      <c r="H16" s="450" t="s">
+      <c r="H16" s="448" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="450"/>
+      <c r="I16" s="448"/>
       <c r="J16" s="447"/>
       <c r="K16" s="447"/>
     </row>
@@ -16903,20 +16308,58 @@
       <c r="E17" s="447"/>
       <c r="F17" s="447"/>
       <c r="G17" s="447"/>
-      <c r="H17" s="450" t="s">
+      <c r="H17" s="448" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="450"/>
+      <c r="I17" s="448"/>
       <c r="J17" s="447"/>
       <c r="K17" s="447"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B15:C17"/>
+    <mergeCell ref="D3:E5"/>
+    <mergeCell ref="D6:E8"/>
+    <mergeCell ref="D9:E11"/>
+    <mergeCell ref="D12:E14"/>
+    <mergeCell ref="D15:E17"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J16:K16"/>
@@ -16929,49 +16372,11 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B15:C17"/>
-    <mergeCell ref="D3:E5"/>
-    <mergeCell ref="D6:E8"/>
-    <mergeCell ref="D9:E11"/>
-    <mergeCell ref="D12:E14"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17079,138 +16484,138 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:9" ht="25.5">
-      <c r="B7" s="245" t="s">
+      <c r="B7" s="291" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="246"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="246"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="247"/>
+      <c r="C7" s="292"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="293"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="264" t="s">
+      <c r="B8" s="279" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="265"/>
-      <c r="D8" s="248" t="s">
+      <c r="C8" s="280"/>
+      <c r="D8" s="246" t="s">
         <v>175</v>
       </c>
       <c r="E8" s="252"/>
       <c r="F8" s="252"/>
       <c r="G8" s="252"/>
       <c r="H8" s="252"/>
-      <c r="I8" s="249"/>
+      <c r="I8" s="247"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="266"/>
-      <c r="C9" s="267"/>
+      <c r="B9" s="283"/>
+      <c r="C9" s="284"/>
       <c r="D9" s="250"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="256"/>
-      <c r="G9" s="256"/>
-      <c r="H9" s="256"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
       <c r="I9" s="251"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="264" t="s">
+      <c r="B10" s="279" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="265"/>
-      <c r="D10" s="248" t="s">
+      <c r="C10" s="280"/>
+      <c r="D10" s="246" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="249"/>
-      <c r="F10" s="264" t="s">
+      <c r="E10" s="247"/>
+      <c r="F10" s="279" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="265"/>
-      <c r="H10" s="248" t="s">
+      <c r="G10" s="280"/>
+      <c r="H10" s="246" t="s">
         <v>177</v>
       </c>
-      <c r="I10" s="249"/>
+      <c r="I10" s="247"/>
     </row>
     <row r="11" spans="2:9" ht="43.9" customHeight="1">
-      <c r="B11" s="266"/>
-      <c r="C11" s="267"/>
+      <c r="B11" s="283"/>
+      <c r="C11" s="284"/>
       <c r="D11" s="250"/>
       <c r="E11" s="251"/>
-      <c r="F11" s="266"/>
-      <c r="G11" s="267"/>
+      <c r="F11" s="283"/>
+      <c r="G11" s="284"/>
       <c r="H11" s="250"/>
       <c r="I11" s="251"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1">
-      <c r="B12" s="264" t="s">
+      <c r="B12" s="279" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="265"/>
-      <c r="D12" s="248" t="s">
+      <c r="C12" s="280"/>
+      <c r="D12" s="246" t="s">
         <v>178</v>
       </c>
       <c r="E12" s="252"/>
       <c r="F12" s="252"/>
       <c r="G12" s="252"/>
       <c r="H12" s="252"/>
-      <c r="I12" s="249"/>
+      <c r="I12" s="247"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="268"/>
-      <c r="C13" s="269"/>
-      <c r="D13" s="253"/>
-      <c r="E13" s="254"/>
-      <c r="F13" s="254"/>
-      <c r="G13" s="254"/>
-      <c r="H13" s="254"/>
-      <c r="I13" s="255"/>
+      <c r="B13" s="281"/>
+      <c r="C13" s="282"/>
+      <c r="D13" s="248"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="253"/>
+      <c r="G13" s="253"/>
+      <c r="H13" s="253"/>
+      <c r="I13" s="249"/>
     </row>
     <row r="14" spans="2:9" ht="31.9" customHeight="1">
-      <c r="B14" s="266"/>
-      <c r="C14" s="267"/>
+      <c r="B14" s="283"/>
+      <c r="C14" s="284"/>
       <c r="D14" s="250"/>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="256"/>
-      <c r="H14" s="256"/>
+      <c r="E14" s="254"/>
+      <c r="F14" s="254"/>
+      <c r="G14" s="254"/>
+      <c r="H14" s="254"/>
       <c r="I14" s="251"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="259" t="s">
+      <c r="B15" s="261" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="260"/>
-      <c r="D15" s="257">
+      <c r="C15" s="262"/>
+      <c r="D15" s="277">
         <v>43560</v>
       </c>
-      <c r="E15" s="258"/>
-      <c r="F15" s="259" t="s">
+      <c r="E15" s="278"/>
+      <c r="F15" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="260"/>
-      <c r="H15" s="261" t="s">
+      <c r="G15" s="262"/>
+      <c r="H15" s="294" t="s">
         <v>292</v>
       </c>
-      <c r="I15" s="262"/>
+      <c r="I15" s="295"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="259" t="s">
+      <c r="B16" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="260"/>
-      <c r="D16" s="257">
+      <c r="C16" s="262"/>
+      <c r="D16" s="277">
         <v>43630</v>
       </c>
-      <c r="E16" s="258"/>
-      <c r="F16" s="259" t="s">
+      <c r="E16" s="278"/>
+      <c r="F16" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="260"/>
-      <c r="H16" s="263">
+      <c r="G16" s="262"/>
+      <c r="H16" s="296">
         <v>0</v>
       </c>
-      <c r="I16" s="262"/>
+      <c r="I16" s="295"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="131"/>
@@ -17221,19 +16626,19 @@
       <c r="C18" s="131"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B19" s="270" t="s">
+      <c r="B19" s="269" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="271"/>
-      <c r="D19" s="271"/>
-      <c r="E19" s="271"/>
-      <c r="F19" s="271"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="271"/>
-      <c r="I19" s="272"/>
+      <c r="C19" s="270"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="270"/>
+      <c r="F19" s="270"/>
+      <c r="G19" s="270"/>
+      <c r="H19" s="270"/>
+      <c r="I19" s="271"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="248" t="s">
+      <c r="B20" s="246" t="s">
         <v>179</v>
       </c>
       <c r="C20" s="252"/>
@@ -17242,76 +16647,76 @@
       <c r="F20" s="252"/>
       <c r="G20" s="252"/>
       <c r="H20" s="252"/>
-      <c r="I20" s="249"/>
+      <c r="I20" s="247"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="253"/>
-      <c r="C21" s="254"/>
-      <c r="D21" s="254"/>
-      <c r="E21" s="254"/>
-      <c r="F21" s="254"/>
-      <c r="G21" s="254"/>
-      <c r="H21" s="254"/>
-      <c r="I21" s="255"/>
+      <c r="B21" s="248"/>
+      <c r="C21" s="253"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="253"/>
+      <c r="F21" s="253"/>
+      <c r="G21" s="253"/>
+      <c r="H21" s="253"/>
+      <c r="I21" s="249"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="253"/>
-      <c r="C22" s="254"/>
-      <c r="D22" s="254"/>
-      <c r="E22" s="254"/>
-      <c r="F22" s="254"/>
-      <c r="G22" s="254"/>
-      <c r="H22" s="254"/>
-      <c r="I22" s="255"/>
+      <c r="B22" s="248"/>
+      <c r="C22" s="253"/>
+      <c r="D22" s="253"/>
+      <c r="E22" s="253"/>
+      <c r="F22" s="253"/>
+      <c r="G22" s="253"/>
+      <c r="H22" s="253"/>
+      <c r="I22" s="249"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="253"/>
-      <c r="C23" s="254"/>
-      <c r="D23" s="254"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="254"/>
-      <c r="G23" s="254"/>
-      <c r="H23" s="254"/>
-      <c r="I23" s="255"/>
+      <c r="B23" s="248"/>
+      <c r="C23" s="253"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="253"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="249"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="253"/>
-      <c r="C24" s="254"/>
-      <c r="D24" s="254"/>
-      <c r="E24" s="254"/>
-      <c r="F24" s="254"/>
-      <c r="G24" s="254"/>
-      <c r="H24" s="254"/>
-      <c r="I24" s="255"/>
+      <c r="B24" s="248"/>
+      <c r="C24" s="253"/>
+      <c r="D24" s="253"/>
+      <c r="E24" s="253"/>
+      <c r="F24" s="253"/>
+      <c r="G24" s="253"/>
+      <c r="H24" s="253"/>
+      <c r="I24" s="249"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="253"/>
-      <c r="C25" s="254"/>
-      <c r="D25" s="254"/>
-      <c r="E25" s="254"/>
-      <c r="F25" s="254"/>
-      <c r="G25" s="254"/>
-      <c r="H25" s="254"/>
-      <c r="I25" s="255"/>
+      <c r="B25" s="248"/>
+      <c r="C25" s="253"/>
+      <c r="D25" s="253"/>
+      <c r="E25" s="253"/>
+      <c r="F25" s="253"/>
+      <c r="G25" s="253"/>
+      <c r="H25" s="253"/>
+      <c r="I25" s="249"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="253"/>
-      <c r="C26" s="254"/>
-      <c r="D26" s="254"/>
-      <c r="E26" s="254"/>
-      <c r="F26" s="254"/>
-      <c r="G26" s="254"/>
-      <c r="H26" s="254"/>
-      <c r="I26" s="255"/>
+      <c r="B26" s="248"/>
+      <c r="C26" s="253"/>
+      <c r="D26" s="253"/>
+      <c r="E26" s="253"/>
+      <c r="F26" s="253"/>
+      <c r="G26" s="253"/>
+      <c r="H26" s="253"/>
+      <c r="I26" s="249"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="250"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="256"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="256"/>
-      <c r="H27" s="256"/>
+      <c r="C27" s="254"/>
+      <c r="D27" s="254"/>
+      <c r="E27" s="254"/>
+      <c r="F27" s="254"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="254"/>
       <c r="I27" s="251"/>
     </row>
     <row r="28" spans="2:9">
@@ -17323,169 +16728,169 @@
       <c r="C29" s="138"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B30" s="270" t="s">
+      <c r="B30" s="269" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="271"/>
-      <c r="D30" s="271"/>
-      <c r="E30" s="271"/>
-      <c r="F30" s="271"/>
-      <c r="G30" s="271"/>
-      <c r="H30" s="271"/>
-      <c r="I30" s="272"/>
+      <c r="C30" s="270"/>
+      <c r="D30" s="270"/>
+      <c r="E30" s="270"/>
+      <c r="F30" s="270"/>
+      <c r="G30" s="270"/>
+      <c r="H30" s="270"/>
+      <c r="I30" s="271"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="259" t="s">
+      <c r="B31" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="273"/>
-      <c r="D31" s="273"/>
-      <c r="E31" s="260"/>
-      <c r="F31" s="259" t="s">
+      <c r="C31" s="276"/>
+      <c r="D31" s="276"/>
+      <c r="E31" s="262"/>
+      <c r="F31" s="261" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="273"/>
-      <c r="H31" s="273"/>
-      <c r="I31" s="260"/>
+      <c r="G31" s="276"/>
+      <c r="H31" s="276"/>
+      <c r="I31" s="262"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="248" t="s">
+      <c r="B32" s="246" t="s">
         <v>180</v>
       </c>
       <c r="C32" s="252"/>
       <c r="D32" s="252"/>
-      <c r="E32" s="249"/>
-      <c r="F32" s="248" t="s">
+      <c r="E32" s="247"/>
+      <c r="F32" s="246" t="s">
         <v>294</v>
       </c>
       <c r="G32" s="252"/>
       <c r="H32" s="252"/>
-      <c r="I32" s="249"/>
+      <c r="I32" s="247"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="253"/>
-      <c r="C33" s="254"/>
-      <c r="D33" s="254"/>
-      <c r="E33" s="255"/>
-      <c r="F33" s="253"/>
-      <c r="G33" s="254"/>
-      <c r="H33" s="254"/>
-      <c r="I33" s="255"/>
+      <c r="B33" s="248"/>
+      <c r="C33" s="253"/>
+      <c r="D33" s="253"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="248"/>
+      <c r="G33" s="253"/>
+      <c r="H33" s="253"/>
+      <c r="I33" s="249"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="253"/>
-      <c r="C34" s="254"/>
-      <c r="D34" s="254"/>
-      <c r="E34" s="255"/>
-      <c r="F34" s="253"/>
-      <c r="G34" s="254"/>
-      <c r="H34" s="254"/>
-      <c r="I34" s="255"/>
+      <c r="B34" s="248"/>
+      <c r="C34" s="253"/>
+      <c r="D34" s="253"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="248"/>
+      <c r="G34" s="253"/>
+      <c r="H34" s="253"/>
+      <c r="I34" s="249"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="250"/>
-      <c r="C35" s="256"/>
-      <c r="D35" s="256"/>
+      <c r="C35" s="254"/>
+      <c r="D35" s="254"/>
       <c r="E35" s="251"/>
       <c r="F35" s="250"/>
-      <c r="G35" s="256"/>
-      <c r="H35" s="256"/>
+      <c r="G35" s="254"/>
+      <c r="H35" s="254"/>
       <c r="I35" s="251"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="259" t="s">
+      <c r="B36" s="261" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="273"/>
-      <c r="D36" s="273"/>
-      <c r="E36" s="260"/>
-      <c r="F36" s="259" t="s">
+      <c r="C36" s="276"/>
+      <c r="D36" s="276"/>
+      <c r="E36" s="262"/>
+      <c r="F36" s="261" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="273"/>
-      <c r="H36" s="273"/>
-      <c r="I36" s="260"/>
+      <c r="G36" s="276"/>
+      <c r="H36" s="276"/>
+      <c r="I36" s="262"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="248" t="s">
+      <c r="B37" s="246" t="s">
         <v>293</v>
       </c>
       <c r="C37" s="252"/>
       <c r="D37" s="252"/>
-      <c r="E37" s="249"/>
-      <c r="F37" s="248" t="s">
+      <c r="E37" s="247"/>
+      <c r="F37" s="246" t="s">
         <v>234</v>
       </c>
       <c r="G37" s="252"/>
       <c r="H37" s="252"/>
-      <c r="I37" s="249"/>
+      <c r="I37" s="247"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="253"/>
-      <c r="C38" s="254"/>
-      <c r="D38" s="254"/>
-      <c r="E38" s="255"/>
-      <c r="F38" s="253"/>
-      <c r="G38" s="254"/>
-      <c r="H38" s="254"/>
-      <c r="I38" s="255"/>
+      <c r="B38" s="248"/>
+      <c r="C38" s="253"/>
+      <c r="D38" s="253"/>
+      <c r="E38" s="249"/>
+      <c r="F38" s="248"/>
+      <c r="G38" s="253"/>
+      <c r="H38" s="253"/>
+      <c r="I38" s="249"/>
     </row>
     <row r="39" spans="2:9" ht="100.9" customHeight="1">
       <c r="B39" s="250"/>
-      <c r="C39" s="256"/>
-      <c r="D39" s="256"/>
+      <c r="C39" s="254"/>
+      <c r="D39" s="254"/>
       <c r="E39" s="251"/>
       <c r="F39" s="250"/>
-      <c r="G39" s="256"/>
-      <c r="H39" s="256"/>
+      <c r="G39" s="254"/>
+      <c r="H39" s="254"/>
       <c r="I39" s="251"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="259" t="s">
+      <c r="B40" s="261" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="273"/>
-      <c r="D40" s="273"/>
-      <c r="E40" s="260"/>
-      <c r="F40" s="259" t="s">
+      <c r="C40" s="276"/>
+      <c r="D40" s="276"/>
+      <c r="E40" s="262"/>
+      <c r="F40" s="261" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="273"/>
-      <c r="H40" s="273"/>
-      <c r="I40" s="260"/>
+      <c r="G40" s="276"/>
+      <c r="H40" s="276"/>
+      <c r="I40" s="262"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="248" t="s">
+      <c r="B41" s="246" t="s">
         <v>181</v>
       </c>
       <c r="C41" s="252"/>
       <c r="D41" s="252"/>
-      <c r="E41" s="249"/>
-      <c r="F41" s="248" t="s">
+      <c r="E41" s="247"/>
+      <c r="F41" s="246" t="s">
         <v>237</v>
       </c>
       <c r="G41" s="252"/>
       <c r="H41" s="252"/>
-      <c r="I41" s="249"/>
+      <c r="I41" s="247"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="253"/>
-      <c r="C42" s="254"/>
-      <c r="D42" s="254"/>
-      <c r="E42" s="255"/>
-      <c r="F42" s="253"/>
-      <c r="G42" s="254"/>
-      <c r="H42" s="254"/>
-      <c r="I42" s="255"/>
+      <c r="B42" s="248"/>
+      <c r="C42" s="253"/>
+      <c r="D42" s="253"/>
+      <c r="E42" s="249"/>
+      <c r="F42" s="248"/>
+      <c r="G42" s="253"/>
+      <c r="H42" s="253"/>
+      <c r="I42" s="249"/>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="250"/>
-      <c r="C43" s="256"/>
-      <c r="D43" s="256"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="254"/>
       <c r="E43" s="251"/>
       <c r="F43" s="250"/>
-      <c r="G43" s="256"/>
-      <c r="H43" s="256"/>
+      <c r="G43" s="254"/>
+      <c r="H43" s="254"/>
       <c r="I43" s="251"/>
     </row>
     <row r="44" spans="2:9">
@@ -17497,120 +16902,120 @@
       <c r="C45" s="131"/>
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B46" s="270" t="s">
+      <c r="B46" s="269" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="271"/>
-      <c r="D46" s="271"/>
-      <c r="E46" s="271"/>
-      <c r="F46" s="271"/>
-      <c r="G46" s="271"/>
-      <c r="H46" s="271"/>
-      <c r="I46" s="272"/>
+      <c r="C46" s="270"/>
+      <c r="D46" s="270"/>
+      <c r="E46" s="270"/>
+      <c r="F46" s="270"/>
+      <c r="G46" s="270"/>
+      <c r="H46" s="270"/>
+      <c r="I46" s="271"/>
     </row>
     <row r="47" spans="2:9" ht="15" customHeight="1">
-      <c r="B47" s="264" t="s">
+      <c r="B47" s="279" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="265"/>
-      <c r="D47" s="248" t="s">
+      <c r="C47" s="280"/>
+      <c r="D47" s="246" t="s">
         <v>236</v>
       </c>
       <c r="E47" s="252"/>
       <c r="F47" s="252"/>
       <c r="G47" s="252"/>
       <c r="H47" s="252"/>
-      <c r="I47" s="249"/>
+      <c r="I47" s="247"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="268"/>
-      <c r="C48" s="269"/>
-      <c r="D48" s="253"/>
-      <c r="E48" s="254"/>
-      <c r="F48" s="254"/>
-      <c r="G48" s="254"/>
-      <c r="H48" s="254"/>
-      <c r="I48" s="255"/>
+      <c r="B48" s="281"/>
+      <c r="C48" s="282"/>
+      <c r="D48" s="248"/>
+      <c r="E48" s="253"/>
+      <c r="F48" s="253"/>
+      <c r="G48" s="253"/>
+      <c r="H48" s="253"/>
+      <c r="I48" s="249"/>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="266"/>
-      <c r="C49" s="267"/>
+      <c r="B49" s="283"/>
+      <c r="C49" s="284"/>
       <c r="D49" s="250"/>
-      <c r="E49" s="256"/>
-      <c r="F49" s="256"/>
-      <c r="G49" s="256"/>
-      <c r="H49" s="256"/>
+      <c r="E49" s="254"/>
+      <c r="F49" s="254"/>
+      <c r="G49" s="254"/>
+      <c r="H49" s="254"/>
       <c r="I49" s="251"/>
     </row>
     <row r="50" spans="2:17" ht="15" customHeight="1">
-      <c r="B50" s="264" t="s">
+      <c r="B50" s="279" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="265"/>
-      <c r="D50" s="248" t="s">
+      <c r="C50" s="280"/>
+      <c r="D50" s="246" t="s">
         <v>235</v>
       </c>
       <c r="E50" s="252"/>
       <c r="F50" s="252"/>
       <c r="G50" s="252"/>
       <c r="H50" s="252"/>
-      <c r="I50" s="249"/>
+      <c r="I50" s="247"/>
     </row>
     <row r="51" spans="2:17">
-      <c r="B51" s="268"/>
-      <c r="C51" s="269"/>
-      <c r="D51" s="253"/>
-      <c r="E51" s="254"/>
-      <c r="F51" s="254"/>
-      <c r="G51" s="254"/>
-      <c r="H51" s="254"/>
-      <c r="I51" s="255"/>
+      <c r="B51" s="281"/>
+      <c r="C51" s="282"/>
+      <c r="D51" s="248"/>
+      <c r="E51" s="253"/>
+      <c r="F51" s="253"/>
+      <c r="G51" s="253"/>
+      <c r="H51" s="253"/>
+      <c r="I51" s="249"/>
     </row>
     <row r="52" spans="2:17">
-      <c r="B52" s="266"/>
-      <c r="C52" s="267"/>
+      <c r="B52" s="283"/>
+      <c r="C52" s="284"/>
       <c r="D52" s="250"/>
-      <c r="E52" s="256"/>
-      <c r="F52" s="256"/>
-      <c r="G52" s="256"/>
-      <c r="H52" s="256"/>
+      <c r="E52" s="254"/>
+      <c r="F52" s="254"/>
+      <c r="G52" s="254"/>
+      <c r="H52" s="254"/>
       <c r="I52" s="251"/>
     </row>
     <row r="53" spans="2:17" ht="15" customHeight="1">
-      <c r="B53" s="276" t="s">
+      <c r="B53" s="285" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="277"/>
-      <c r="D53" s="274" t="s">
+      <c r="C53" s="286"/>
+      <c r="D53" s="289" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="274" t="s">
+      <c r="E53" s="289" t="s">
         <v>285</v>
       </c>
-      <c r="F53" s="274" t="s">
+      <c r="F53" s="289" t="s">
         <v>96</v>
       </c>
-      <c r="G53" s="274" t="s">
+      <c r="G53" s="289" t="s">
         <v>283</v>
       </c>
-      <c r="H53" s="274" t="s">
+      <c r="H53" s="289" t="s">
         <v>97</v>
       </c>
-      <c r="I53" s="274" t="s">
+      <c r="I53" s="289" t="s">
         <v>182</v>
       </c>
       <c r="O53" s="172"/>
       <c r="Q53" s="172"/>
     </row>
     <row r="54" spans="2:17" ht="43.15" customHeight="1">
-      <c r="B54" s="278"/>
-      <c r="C54" s="279"/>
-      <c r="D54" s="275"/>
-      <c r="E54" s="275"/>
-      <c r="F54" s="275"/>
-      <c r="G54" s="275"/>
-      <c r="H54" s="275"/>
-      <c r="I54" s="275"/>
+      <c r="B54" s="287"/>
+      <c r="C54" s="288"/>
+      <c r="D54" s="290"/>
+      <c r="E54" s="290"/>
+      <c r="F54" s="290"/>
+      <c r="G54" s="290"/>
+      <c r="H54" s="290"/>
+      <c r="I54" s="290"/>
     </row>
     <row r="55" spans="2:17" ht="15.75">
       <c r="B55" s="139"/>
@@ -17621,19 +17026,19 @@
       <c r="C56" s="139"/>
     </row>
     <row r="57" spans="2:17">
-      <c r="B57" s="270" t="s">
+      <c r="B57" s="269" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="271"/>
-      <c r="D57" s="271"/>
-      <c r="E57" s="271"/>
-      <c r="F57" s="271"/>
-      <c r="G57" s="271"/>
-      <c r="H57" s="271"/>
-      <c r="I57" s="272"/>
+      <c r="C57" s="270"/>
+      <c r="D57" s="270"/>
+      <c r="E57" s="270"/>
+      <c r="F57" s="270"/>
+      <c r="G57" s="270"/>
+      <c r="H57" s="270"/>
+      <c r="I57" s="271"/>
     </row>
     <row r="58" spans="2:17">
-      <c r="B58" s="248" t="s">
+      <c r="B58" s="246" t="s">
         <v>295</v>
       </c>
       <c r="C58" s="252"/>
@@ -17642,66 +17047,66 @@
       <c r="F58" s="252"/>
       <c r="G58" s="252"/>
       <c r="H58" s="252"/>
-      <c r="I58" s="249"/>
+      <c r="I58" s="247"/>
     </row>
     <row r="59" spans="2:17">
-      <c r="B59" s="253"/>
-      <c r="C59" s="254"/>
-      <c r="D59" s="254"/>
-      <c r="E59" s="254"/>
-      <c r="F59" s="254"/>
-      <c r="G59" s="254"/>
-      <c r="H59" s="254"/>
-      <c r="I59" s="255"/>
+      <c r="B59" s="248"/>
+      <c r="C59" s="253"/>
+      <c r="D59" s="253"/>
+      <c r="E59" s="253"/>
+      <c r="F59" s="253"/>
+      <c r="G59" s="253"/>
+      <c r="H59" s="253"/>
+      <c r="I59" s="249"/>
     </row>
     <row r="60" spans="2:17">
-      <c r="B60" s="253"/>
-      <c r="C60" s="254"/>
-      <c r="D60" s="254"/>
-      <c r="E60" s="254"/>
-      <c r="F60" s="254"/>
-      <c r="G60" s="254"/>
-      <c r="H60" s="254"/>
-      <c r="I60" s="255"/>
+      <c r="B60" s="248"/>
+      <c r="C60" s="253"/>
+      <c r="D60" s="253"/>
+      <c r="E60" s="253"/>
+      <c r="F60" s="253"/>
+      <c r="G60" s="253"/>
+      <c r="H60" s="253"/>
+      <c r="I60" s="249"/>
     </row>
     <row r="61" spans="2:17">
-      <c r="B61" s="253"/>
-      <c r="C61" s="254"/>
-      <c r="D61" s="254"/>
-      <c r="E61" s="254"/>
-      <c r="F61" s="254"/>
-      <c r="G61" s="254"/>
-      <c r="H61" s="254"/>
-      <c r="I61" s="255"/>
+      <c r="B61" s="248"/>
+      <c r="C61" s="253"/>
+      <c r="D61" s="253"/>
+      <c r="E61" s="253"/>
+      <c r="F61" s="253"/>
+      <c r="G61" s="253"/>
+      <c r="H61" s="253"/>
+      <c r="I61" s="249"/>
     </row>
     <row r="62" spans="2:17">
-      <c r="B62" s="253"/>
-      <c r="C62" s="254"/>
-      <c r="D62" s="254"/>
-      <c r="E62" s="254"/>
-      <c r="F62" s="254"/>
-      <c r="G62" s="254"/>
-      <c r="H62" s="254"/>
-      <c r="I62" s="255"/>
+      <c r="B62" s="248"/>
+      <c r="C62" s="253"/>
+      <c r="D62" s="253"/>
+      <c r="E62" s="253"/>
+      <c r="F62" s="253"/>
+      <c r="G62" s="253"/>
+      <c r="H62" s="253"/>
+      <c r="I62" s="249"/>
     </row>
     <row r="63" spans="2:17">
-      <c r="B63" s="253"/>
-      <c r="C63" s="254"/>
-      <c r="D63" s="254"/>
-      <c r="E63" s="254"/>
-      <c r="F63" s="254"/>
-      <c r="G63" s="254"/>
-      <c r="H63" s="254"/>
-      <c r="I63" s="255"/>
+      <c r="B63" s="248"/>
+      <c r="C63" s="253"/>
+      <c r="D63" s="253"/>
+      <c r="E63" s="253"/>
+      <c r="F63" s="253"/>
+      <c r="G63" s="253"/>
+      <c r="H63" s="253"/>
+      <c r="I63" s="249"/>
     </row>
     <row r="64" spans="2:17">
       <c r="B64" s="250"/>
-      <c r="C64" s="256"/>
-      <c r="D64" s="256"/>
-      <c r="E64" s="256"/>
-      <c r="F64" s="256"/>
-      <c r="G64" s="256"/>
-      <c r="H64" s="256"/>
+      <c r="C64" s="254"/>
+      <c r="D64" s="254"/>
+      <c r="E64" s="254"/>
+      <c r="F64" s="254"/>
+      <c r="G64" s="254"/>
+      <c r="H64" s="254"/>
       <c r="I64" s="251"/>
     </row>
     <row r="65" spans="2:18">
@@ -17713,83 +17118,83 @@
       <c r="C66" s="131"/>
     </row>
     <row r="67" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B67" s="270" t="s">
+      <c r="B67" s="269" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="271"/>
-      <c r="D67" s="271"/>
-      <c r="E67" s="271"/>
-      <c r="F67" s="271"/>
-      <c r="G67" s="271"/>
-      <c r="H67" s="271"/>
-      <c r="I67" s="272"/>
+      <c r="C67" s="270"/>
+      <c r="D67" s="270"/>
+      <c r="E67" s="270"/>
+      <c r="F67" s="270"/>
+      <c r="G67" s="270"/>
+      <c r="H67" s="270"/>
+      <c r="I67" s="271"/>
     </row>
     <row r="68" spans="2:18">
-      <c r="B68" s="259" t="s">
+      <c r="B68" s="261" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="273"/>
-      <c r="D68" s="273"/>
-      <c r="E68" s="260"/>
-      <c r="F68" s="259" t="s">
+      <c r="C68" s="276"/>
+      <c r="D68" s="276"/>
+      <c r="E68" s="262"/>
+      <c r="F68" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="273"/>
-      <c r="H68" s="273"/>
-      <c r="I68" s="260"/>
+      <c r="G68" s="276"/>
+      <c r="H68" s="276"/>
+      <c r="I68" s="262"/>
     </row>
     <row r="69" spans="2:18">
-      <c r="B69" s="248" t="s">
+      <c r="B69" s="246" t="s">
         <v>296</v>
       </c>
       <c r="C69" s="252"/>
       <c r="D69" s="252"/>
-      <c r="E69" s="249"/>
-      <c r="F69" s="248" t="s">
+      <c r="E69" s="247"/>
+      <c r="F69" s="246" t="s">
         <v>297</v>
       </c>
       <c r="G69" s="252"/>
       <c r="H69" s="252"/>
-      <c r="I69" s="249"/>
+      <c r="I69" s="247"/>
     </row>
     <row r="70" spans="2:18">
-      <c r="B70" s="253"/>
-      <c r="C70" s="254"/>
-      <c r="D70" s="254"/>
-      <c r="E70" s="255"/>
-      <c r="F70" s="253"/>
-      <c r="G70" s="254"/>
-      <c r="H70" s="254"/>
-      <c r="I70" s="255"/>
+      <c r="B70" s="248"/>
+      <c r="C70" s="253"/>
+      <c r="D70" s="253"/>
+      <c r="E70" s="249"/>
+      <c r="F70" s="248"/>
+      <c r="G70" s="253"/>
+      <c r="H70" s="253"/>
+      <c r="I70" s="249"/>
     </row>
     <row r="71" spans="2:18">
-      <c r="B71" s="253"/>
-      <c r="C71" s="254"/>
-      <c r="D71" s="254"/>
-      <c r="E71" s="255"/>
-      <c r="F71" s="253"/>
-      <c r="G71" s="254"/>
-      <c r="H71" s="254"/>
-      <c r="I71" s="255"/>
+      <c r="B71" s="248"/>
+      <c r="C71" s="253"/>
+      <c r="D71" s="253"/>
+      <c r="E71" s="249"/>
+      <c r="F71" s="248"/>
+      <c r="G71" s="253"/>
+      <c r="H71" s="253"/>
+      <c r="I71" s="249"/>
     </row>
     <row r="72" spans="2:18">
-      <c r="B72" s="253"/>
-      <c r="C72" s="254"/>
-      <c r="D72" s="254"/>
-      <c r="E72" s="255"/>
-      <c r="F72" s="253"/>
-      <c r="G72" s="254"/>
-      <c r="H72" s="254"/>
-      <c r="I72" s="255"/>
+      <c r="B72" s="248"/>
+      <c r="C72" s="253"/>
+      <c r="D72" s="253"/>
+      <c r="E72" s="249"/>
+      <c r="F72" s="248"/>
+      <c r="G72" s="253"/>
+      <c r="H72" s="253"/>
+      <c r="I72" s="249"/>
     </row>
     <row r="73" spans="2:18">
       <c r="B73" s="250"/>
-      <c r="C73" s="256"/>
-      <c r="D73" s="256"/>
+      <c r="C73" s="254"/>
+      <c r="D73" s="254"/>
       <c r="E73" s="251"/>
       <c r="F73" s="250"/>
-      <c r="G73" s="256"/>
-      <c r="H73" s="256"/>
+      <c r="G73" s="254"/>
+      <c r="H73" s="254"/>
       <c r="I73" s="251"/>
     </row>
     <row r="74" spans="2:18">
@@ -17797,52 +17202,52 @@
       <c r="C74" s="131"/>
     </row>
     <row r="75" spans="2:18" ht="15" customHeight="1">
-      <c r="B75" s="270" t="s">
+      <c r="B75" s="269" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="271"/>
-      <c r="D75" s="271"/>
-      <c r="E75" s="271"/>
-      <c r="F75" s="271"/>
-      <c r="G75" s="271"/>
-      <c r="H75" s="271"/>
-      <c r="I75" s="272"/>
+      <c r="C75" s="270"/>
+      <c r="D75" s="270"/>
+      <c r="E75" s="270"/>
+      <c r="F75" s="270"/>
+      <c r="G75" s="270"/>
+      <c r="H75" s="270"/>
+      <c r="I75" s="271"/>
     </row>
     <row r="76" spans="2:18" ht="29.25" customHeight="1">
-      <c r="B76" s="259" t="s">
+      <c r="B76" s="261" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="260"/>
-      <c r="D76" s="259" t="s">
+      <c r="C76" s="262"/>
+      <c r="D76" s="261" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="260"/>
-      <c r="F76" s="259" t="s">
+      <c r="E76" s="262"/>
+      <c r="F76" s="261" t="s">
         <v>69</v>
       </c>
-      <c r="G76" s="260"/>
-      <c r="H76" s="259" t="s">
+      <c r="G76" s="262"/>
+      <c r="H76" s="261" t="s">
         <v>70</v>
       </c>
-      <c r="I76" s="260"/>
+      <c r="I76" s="262"/>
     </row>
     <row r="77" spans="2:18" ht="15" customHeight="1">
-      <c r="B77" s="290" t="s">
+      <c r="B77" s="263" t="s">
         <v>240</v>
       </c>
-      <c r="C77" s="291"/>
-      <c r="D77" s="248" t="s">
+      <c r="C77" s="264"/>
+      <c r="D77" s="246" t="s">
         <v>243</v>
       </c>
-      <c r="E77" s="249"/>
-      <c r="F77" s="248" t="s">
+      <c r="E77" s="247"/>
+      <c r="F77" s="246" t="s">
         <v>291</v>
       </c>
-      <c r="G77" s="249"/>
-      <c r="H77" s="248" t="s">
+      <c r="G77" s="247"/>
+      <c r="H77" s="246" t="s">
         <v>290</v>
       </c>
-      <c r="I77" s="249"/>
+      <c r="I77" s="247"/>
       <c r="K77" s="169"/>
       <c r="L77" s="169"/>
       <c r="M77" s="169"/>
@@ -17853,14 +17258,14 @@
       <c r="R77" s="169"/>
     </row>
     <row r="78" spans="2:18">
-      <c r="B78" s="292"/>
-      <c r="C78" s="293"/>
-      <c r="D78" s="253"/>
-      <c r="E78" s="255"/>
-      <c r="F78" s="253"/>
-      <c r="G78" s="255"/>
-      <c r="H78" s="253"/>
-      <c r="I78" s="255"/>
+      <c r="B78" s="265"/>
+      <c r="C78" s="266"/>
+      <c r="D78" s="248"/>
+      <c r="E78" s="249"/>
+      <c r="F78" s="248"/>
+      <c r="G78" s="249"/>
+      <c r="H78" s="248"/>
+      <c r="I78" s="249"/>
       <c r="K78" s="169"/>
       <c r="L78" s="169"/>
       <c r="M78" s="169"/>
@@ -17871,14 +17276,14 @@
       <c r="R78" s="169"/>
     </row>
     <row r="79" spans="2:18">
-      <c r="B79" s="292"/>
-      <c r="C79" s="293"/>
-      <c r="D79" s="253"/>
-      <c r="E79" s="255"/>
-      <c r="F79" s="253"/>
-      <c r="G79" s="255"/>
-      <c r="H79" s="253"/>
-      <c r="I79" s="255"/>
+      <c r="B79" s="265"/>
+      <c r="C79" s="266"/>
+      <c r="D79" s="248"/>
+      <c r="E79" s="249"/>
+      <c r="F79" s="248"/>
+      <c r="G79" s="249"/>
+      <c r="H79" s="248"/>
+      <c r="I79" s="249"/>
       <c r="K79" s="169"/>
       <c r="L79" s="169"/>
       <c r="M79" s="169"/>
@@ -17889,14 +17294,14 @@
       <c r="R79" s="169"/>
     </row>
     <row r="80" spans="2:18" ht="15" customHeight="1">
-      <c r="B80" s="292"/>
-      <c r="C80" s="293"/>
-      <c r="D80" s="253"/>
-      <c r="E80" s="255"/>
-      <c r="F80" s="253"/>
-      <c r="G80" s="255"/>
-      <c r="H80" s="253"/>
-      <c r="I80" s="255"/>
+      <c r="B80" s="265"/>
+      <c r="C80" s="266"/>
+      <c r="D80" s="248"/>
+      <c r="E80" s="249"/>
+      <c r="F80" s="248"/>
+      <c r="G80" s="249"/>
+      <c r="H80" s="248"/>
+      <c r="I80" s="249"/>
       <c r="K80" s="140"/>
       <c r="L80" s="140"/>
       <c r="M80" s="169"/>
@@ -17907,14 +17312,14 @@
       <c r="R80" s="169"/>
     </row>
     <row r="81" spans="2:18">
-      <c r="B81" s="292"/>
-      <c r="C81" s="293"/>
-      <c r="D81" s="253"/>
-      <c r="E81" s="255"/>
-      <c r="F81" s="253"/>
-      <c r="G81" s="255"/>
-      <c r="H81" s="253"/>
-      <c r="I81" s="255"/>
+      <c r="B81" s="265"/>
+      <c r="C81" s="266"/>
+      <c r="D81" s="248"/>
+      <c r="E81" s="249"/>
+      <c r="F81" s="248"/>
+      <c r="G81" s="249"/>
+      <c r="H81" s="248"/>
+      <c r="I81" s="249"/>
       <c r="K81" s="140"/>
       <c r="L81" s="140"/>
       <c r="M81" s="169"/>
@@ -17925,14 +17330,14 @@
       <c r="R81" s="169"/>
     </row>
     <row r="82" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B82" s="292"/>
-      <c r="C82" s="293"/>
-      <c r="D82" s="253"/>
-      <c r="E82" s="255"/>
-      <c r="F82" s="253"/>
-      <c r="G82" s="255"/>
-      <c r="H82" s="253"/>
-      <c r="I82" s="255"/>
+      <c r="B82" s="265"/>
+      <c r="C82" s="266"/>
+      <c r="D82" s="248"/>
+      <c r="E82" s="249"/>
+      <c r="F82" s="248"/>
+      <c r="G82" s="249"/>
+      <c r="H82" s="248"/>
+      <c r="I82" s="249"/>
       <c r="K82" s="140"/>
       <c r="L82" s="140"/>
       <c r="M82" s="169"/>
@@ -17943,14 +17348,14 @@
       <c r="R82" s="169"/>
     </row>
     <row r="83" spans="2:18" ht="15" customHeight="1">
-      <c r="B83" s="292"/>
-      <c r="C83" s="293"/>
-      <c r="D83" s="253"/>
-      <c r="E83" s="255"/>
-      <c r="F83" s="253"/>
-      <c r="G83" s="255"/>
-      <c r="H83" s="253"/>
-      <c r="I83" s="255"/>
+      <c r="B83" s="265"/>
+      <c r="C83" s="266"/>
+      <c r="D83" s="248"/>
+      <c r="E83" s="249"/>
+      <c r="F83" s="248"/>
+      <c r="G83" s="249"/>
+      <c r="H83" s="248"/>
+      <c r="I83" s="249"/>
       <c r="K83" s="140"/>
       <c r="L83" s="140"/>
       <c r="M83" s="169"/>
@@ -17961,14 +17366,14 @@
       <c r="R83" s="169"/>
     </row>
     <row r="84" spans="2:18">
-      <c r="B84" s="292"/>
-      <c r="C84" s="293"/>
-      <c r="D84" s="253"/>
-      <c r="E84" s="255"/>
-      <c r="F84" s="253"/>
-      <c r="G84" s="255"/>
-      <c r="H84" s="253"/>
-      <c r="I84" s="255"/>
+      <c r="B84" s="265"/>
+      <c r="C84" s="266"/>
+      <c r="D84" s="248"/>
+      <c r="E84" s="249"/>
+      <c r="F84" s="248"/>
+      <c r="G84" s="249"/>
+      <c r="H84" s="248"/>
+      <c r="I84" s="249"/>
       <c r="K84" s="140"/>
       <c r="L84" s="140"/>
       <c r="M84" s="169"/>
@@ -17979,8 +17384,8 @@
       <c r="R84" s="169"/>
     </row>
     <row r="85" spans="2:18">
-      <c r="B85" s="294"/>
-      <c r="C85" s="295"/>
+      <c r="B85" s="267"/>
+      <c r="C85" s="268"/>
       <c r="D85" s="250"/>
       <c r="E85" s="251"/>
       <c r="F85" s="250"/>
@@ -17997,22 +17402,22 @@
       <c r="R85" s="169"/>
     </row>
     <row r="86" spans="2:18">
-      <c r="B86" s="290" t="s">
+      <c r="B86" s="263" t="s">
         <v>238</v>
       </c>
-      <c r="C86" s="291"/>
-      <c r="D86" s="248" t="s">
+      <c r="C86" s="264"/>
+      <c r="D86" s="246" t="s">
         <v>241</v>
       </c>
-      <c r="E86" s="249"/>
-      <c r="F86" s="248" t="s">
+      <c r="E86" s="247"/>
+      <c r="F86" s="246" t="s">
         <v>287</v>
       </c>
-      <c r="G86" s="249"/>
-      <c r="H86" s="248" t="s">
+      <c r="G86" s="247"/>
+      <c r="H86" s="246" t="s">
         <v>288</v>
       </c>
-      <c r="I86" s="249"/>
+      <c r="I86" s="247"/>
       <c r="K86" s="140"/>
       <c r="L86" s="140"/>
       <c r="M86" s="169"/>
@@ -18023,14 +17428,14 @@
       <c r="R86" s="169"/>
     </row>
     <row r="87" spans="2:18">
-      <c r="B87" s="292"/>
-      <c r="C87" s="293"/>
-      <c r="D87" s="253"/>
-      <c r="E87" s="255"/>
-      <c r="F87" s="253"/>
-      <c r="G87" s="255"/>
-      <c r="H87" s="253"/>
-      <c r="I87" s="255"/>
+      <c r="B87" s="265"/>
+      <c r="C87" s="266"/>
+      <c r="D87" s="248"/>
+      <c r="E87" s="249"/>
+      <c r="F87" s="248"/>
+      <c r="G87" s="249"/>
+      <c r="H87" s="248"/>
+      <c r="I87" s="249"/>
       <c r="K87" s="140"/>
       <c r="L87" s="140"/>
       <c r="M87" s="169"/>
@@ -18041,14 +17446,14 @@
       <c r="R87" s="169"/>
     </row>
     <row r="88" spans="2:18">
-      <c r="B88" s="292"/>
-      <c r="C88" s="293"/>
-      <c r="D88" s="253"/>
-      <c r="E88" s="255"/>
-      <c r="F88" s="253"/>
-      <c r="G88" s="255"/>
-      <c r="H88" s="253"/>
-      <c r="I88" s="255"/>
+      <c r="B88" s="265"/>
+      <c r="C88" s="266"/>
+      <c r="D88" s="248"/>
+      <c r="E88" s="249"/>
+      <c r="F88" s="248"/>
+      <c r="G88" s="249"/>
+      <c r="H88" s="248"/>
+      <c r="I88" s="249"/>
       <c r="K88" s="140"/>
       <c r="L88" s="140"/>
       <c r="M88" s="169"/>
@@ -18059,14 +17464,14 @@
       <c r="R88" s="169"/>
     </row>
     <row r="89" spans="2:18" ht="15" customHeight="1">
-      <c r="B89" s="292"/>
-      <c r="C89" s="293"/>
-      <c r="D89" s="253"/>
-      <c r="E89" s="255"/>
-      <c r="F89" s="253"/>
-      <c r="G89" s="255"/>
-      <c r="H89" s="253"/>
-      <c r="I89" s="255"/>
+      <c r="B89" s="265"/>
+      <c r="C89" s="266"/>
+      <c r="D89" s="248"/>
+      <c r="E89" s="249"/>
+      <c r="F89" s="248"/>
+      <c r="G89" s="249"/>
+      <c r="H89" s="248"/>
+      <c r="I89" s="249"/>
       <c r="K89" s="169"/>
       <c r="L89" s="169"/>
       <c r="M89" s="169"/>
@@ -18077,14 +17482,14 @@
       <c r="R89" s="169"/>
     </row>
     <row r="90" spans="2:18">
-      <c r="B90" s="292"/>
-      <c r="C90" s="293"/>
-      <c r="D90" s="253"/>
-      <c r="E90" s="255"/>
-      <c r="F90" s="253"/>
-      <c r="G90" s="255"/>
-      <c r="H90" s="253"/>
-      <c r="I90" s="255"/>
+      <c r="B90" s="265"/>
+      <c r="C90" s="266"/>
+      <c r="D90" s="248"/>
+      <c r="E90" s="249"/>
+      <c r="F90" s="248"/>
+      <c r="G90" s="249"/>
+      <c r="H90" s="248"/>
+      <c r="I90" s="249"/>
       <c r="K90" s="169"/>
       <c r="L90" s="169"/>
       <c r="M90" s="169"/>
@@ -18095,14 +17500,14 @@
       <c r="R90" s="169"/>
     </row>
     <row r="91" spans="2:18">
-      <c r="B91" s="292"/>
-      <c r="C91" s="293"/>
-      <c r="D91" s="253"/>
-      <c r="E91" s="255"/>
-      <c r="F91" s="253"/>
-      <c r="G91" s="255"/>
-      <c r="H91" s="253"/>
-      <c r="I91" s="255"/>
+      <c r="B91" s="265"/>
+      <c r="C91" s="266"/>
+      <c r="D91" s="248"/>
+      <c r="E91" s="249"/>
+      <c r="F91" s="248"/>
+      <c r="G91" s="249"/>
+      <c r="H91" s="248"/>
+      <c r="I91" s="249"/>
       <c r="K91" s="169"/>
       <c r="L91" s="169"/>
       <c r="M91" s="169"/>
@@ -18113,29 +17518,29 @@
       <c r="R91" s="169"/>
     </row>
     <row r="92" spans="2:18">
-      <c r="B92" s="292"/>
-      <c r="C92" s="293"/>
-      <c r="D92" s="253"/>
-      <c r="E92" s="255"/>
-      <c r="F92" s="253"/>
-      <c r="G92" s="255"/>
-      <c r="H92" s="253"/>
-      <c r="I92" s="255"/>
+      <c r="B92" s="265"/>
+      <c r="C92" s="266"/>
+      <c r="D92" s="248"/>
+      <c r="E92" s="249"/>
+      <c r="F92" s="248"/>
+      <c r="G92" s="249"/>
+      <c r="H92" s="248"/>
+      <c r="I92" s="249"/>
     </row>
     <row r="93" spans="2:18" ht="15" customHeight="1">
-      <c r="B93" s="292"/>
-      <c r="C93" s="293"/>
-      <c r="D93" s="253"/>
-      <c r="E93" s="255"/>
-      <c r="F93" s="253"/>
-      <c r="G93" s="255"/>
-      <c r="H93" s="253"/>
-      <c r="I93" s="255"/>
+      <c r="B93" s="265"/>
+      <c r="C93" s="266"/>
+      <c r="D93" s="248"/>
+      <c r="E93" s="249"/>
+      <c r="F93" s="248"/>
+      <c r="G93" s="249"/>
+      <c r="H93" s="248"/>
+      <c r="I93" s="249"/>
       <c r="J93" s="168"/>
     </row>
     <row r="94" spans="2:18" ht="15" customHeight="1">
-      <c r="B94" s="294"/>
-      <c r="C94" s="295"/>
+      <c r="B94" s="267"/>
+      <c r="C94" s="268"/>
       <c r="D94" s="250"/>
       <c r="E94" s="251"/>
       <c r="F94" s="250"/>
@@ -18145,102 +17550,102 @@
       <c r="J94" s="168"/>
     </row>
     <row r="95" spans="2:18" ht="15" customHeight="1">
-      <c r="B95" s="290" t="s">
+      <c r="B95" s="263" t="s">
         <v>239</v>
       </c>
-      <c r="C95" s="291"/>
-      <c r="D95" s="248" t="s">
+      <c r="C95" s="264"/>
+      <c r="D95" s="246" t="s">
         <v>244</v>
       </c>
-      <c r="E95" s="249"/>
-      <c r="F95" s="248" t="s">
+      <c r="E95" s="247"/>
+      <c r="F95" s="246" t="s">
         <v>286</v>
       </c>
-      <c r="G95" s="249"/>
-      <c r="H95" s="248" t="s">
+      <c r="G95" s="247"/>
+      <c r="H95" s="246" t="s">
         <v>289</v>
       </c>
-      <c r="I95" s="249"/>
+      <c r="I95" s="247"/>
       <c r="J95" s="168"/>
     </row>
     <row r="96" spans="2:18">
-      <c r="B96" s="292"/>
-      <c r="C96" s="293"/>
-      <c r="D96" s="253"/>
-      <c r="E96" s="255"/>
-      <c r="F96" s="253"/>
-      <c r="G96" s="255"/>
-      <c r="H96" s="253"/>
-      <c r="I96" s="255"/>
+      <c r="B96" s="265"/>
+      <c r="C96" s="266"/>
+      <c r="D96" s="248"/>
+      <c r="E96" s="249"/>
+      <c r="F96" s="248"/>
+      <c r="G96" s="249"/>
+      <c r="H96" s="248"/>
+      <c r="I96" s="249"/>
       <c r="J96" s="168"/>
     </row>
     <row r="97" spans="2:16" ht="15" customHeight="1">
-      <c r="B97" s="292"/>
-      <c r="C97" s="293"/>
-      <c r="D97" s="253"/>
-      <c r="E97" s="255"/>
-      <c r="F97" s="253"/>
-      <c r="G97" s="255"/>
-      <c r="H97" s="253"/>
-      <c r="I97" s="255"/>
+      <c r="B97" s="265"/>
+      <c r="C97" s="266"/>
+      <c r="D97" s="248"/>
+      <c r="E97" s="249"/>
+      <c r="F97" s="248"/>
+      <c r="G97" s="249"/>
+      <c r="H97" s="248"/>
+      <c r="I97" s="249"/>
       <c r="J97" s="168"/>
     </row>
     <row r="98" spans="2:16">
-      <c r="B98" s="292"/>
-      <c r="C98" s="293"/>
-      <c r="D98" s="253"/>
-      <c r="E98" s="255"/>
-      <c r="F98" s="253"/>
-      <c r="G98" s="255"/>
-      <c r="H98" s="253"/>
-      <c r="I98" s="255"/>
+      <c r="B98" s="265"/>
+      <c r="C98" s="266"/>
+      <c r="D98" s="248"/>
+      <c r="E98" s="249"/>
+      <c r="F98" s="248"/>
+      <c r="G98" s="249"/>
+      <c r="H98" s="248"/>
+      <c r="I98" s="249"/>
       <c r="J98" s="168"/>
     </row>
     <row r="99" spans="2:16">
-      <c r="B99" s="292"/>
-      <c r="C99" s="293"/>
-      <c r="D99" s="253"/>
-      <c r="E99" s="255"/>
-      <c r="F99" s="253"/>
-      <c r="G99" s="255"/>
-      <c r="H99" s="253"/>
-      <c r="I99" s="255"/>
+      <c r="B99" s="265"/>
+      <c r="C99" s="266"/>
+      <c r="D99" s="248"/>
+      <c r="E99" s="249"/>
+      <c r="F99" s="248"/>
+      <c r="G99" s="249"/>
+      <c r="H99" s="248"/>
+      <c r="I99" s="249"/>
       <c r="J99" s="168"/>
     </row>
     <row r="100" spans="2:16">
-      <c r="B100" s="292"/>
-      <c r="C100" s="293"/>
-      <c r="D100" s="253"/>
-      <c r="E100" s="255"/>
-      <c r="F100" s="253"/>
-      <c r="G100" s="255"/>
-      <c r="H100" s="253"/>
-      <c r="I100" s="255"/>
+      <c r="B100" s="265"/>
+      <c r="C100" s="266"/>
+      <c r="D100" s="248"/>
+      <c r="E100" s="249"/>
+      <c r="F100" s="248"/>
+      <c r="G100" s="249"/>
+      <c r="H100" s="248"/>
+      <c r="I100" s="249"/>
       <c r="J100" s="168"/>
     </row>
     <row r="101" spans="2:16">
-      <c r="B101" s="292"/>
-      <c r="C101" s="293"/>
-      <c r="D101" s="253"/>
-      <c r="E101" s="255"/>
-      <c r="F101" s="253"/>
-      <c r="G101" s="255"/>
-      <c r="H101" s="253"/>
-      <c r="I101" s="255"/>
+      <c r="B101" s="265"/>
+      <c r="C101" s="266"/>
+      <c r="D101" s="248"/>
+      <c r="E101" s="249"/>
+      <c r="F101" s="248"/>
+      <c r="G101" s="249"/>
+      <c r="H101" s="248"/>
+      <c r="I101" s="249"/>
     </row>
     <row r="102" spans="2:16">
-      <c r="B102" s="292"/>
-      <c r="C102" s="293"/>
-      <c r="D102" s="253"/>
-      <c r="E102" s="255"/>
-      <c r="F102" s="253"/>
-      <c r="G102" s="255"/>
-      <c r="H102" s="253"/>
-      <c r="I102" s="255"/>
+      <c r="B102" s="265"/>
+      <c r="C102" s="266"/>
+      <c r="D102" s="248"/>
+      <c r="E102" s="249"/>
+      <c r="F102" s="248"/>
+      <c r="G102" s="249"/>
+      <c r="H102" s="248"/>
+      <c r="I102" s="249"/>
     </row>
     <row r="103" spans="2:16">
-      <c r="B103" s="294"/>
-      <c r="C103" s="295"/>
+      <c r="B103" s="267"/>
+      <c r="C103" s="268"/>
       <c r="D103" s="250"/>
       <c r="E103" s="251"/>
       <c r="F103" s="250"/>
@@ -18254,335 +17659,335 @@
       <c r="P103" s="140"/>
     </row>
     <row r="106" spans="2:16">
-      <c r="B106" s="270" t="s">
+      <c r="B106" s="269" t="s">
         <v>71</v>
       </c>
-      <c r="C106" s="271"/>
-      <c r="D106" s="271"/>
-      <c r="E106" s="271"/>
-      <c r="F106" s="271"/>
-      <c r="G106" s="271"/>
-      <c r="H106" s="271"/>
-      <c r="I106" s="272"/>
+      <c r="C106" s="270"/>
+      <c r="D106" s="270"/>
+      <c r="E106" s="270"/>
+      <c r="F106" s="270"/>
+      <c r="G106" s="270"/>
+      <c r="H106" s="270"/>
+      <c r="I106" s="271"/>
     </row>
     <row r="107" spans="2:16">
-      <c r="B107" s="259" t="s">
+      <c r="B107" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="C107" s="260"/>
-      <c r="D107" s="259" t="s">
+      <c r="C107" s="262"/>
+      <c r="D107" s="261" t="s">
         <v>73</v>
       </c>
-      <c r="E107" s="273"/>
-      <c r="F107" s="273"/>
-      <c r="G107" s="260"/>
-      <c r="H107" s="259" t="s">
+      <c r="E107" s="276"/>
+      <c r="F107" s="276"/>
+      <c r="G107" s="262"/>
+      <c r="H107" s="261" t="s">
         <v>74</v>
       </c>
-      <c r="I107" s="260"/>
+      <c r="I107" s="262"/>
     </row>
     <row r="108" spans="2:16">
-      <c r="B108" s="248" t="s">
+      <c r="B108" s="246" t="s">
         <v>221</v>
       </c>
-      <c r="C108" s="249"/>
-      <c r="D108" s="248" t="s">
+      <c r="C108" s="247"/>
+      <c r="D108" s="246" t="s">
         <v>245</v>
       </c>
       <c r="E108" s="252"/>
       <c r="F108" s="252"/>
-      <c r="G108" s="249"/>
-      <c r="H108" s="284">
+      <c r="G108" s="247"/>
+      <c r="H108" s="255">
         <v>43595</v>
       </c>
-      <c r="I108" s="285"/>
+      <c r="I108" s="256"/>
       <c r="N108" s="172"/>
     </row>
     <row r="109" spans="2:16">
-      <c r="B109" s="253"/>
-      <c r="C109" s="255"/>
-      <c r="D109" s="253"/>
-      <c r="E109" s="254"/>
-      <c r="F109" s="254"/>
-      <c r="G109" s="255"/>
-      <c r="H109" s="286"/>
-      <c r="I109" s="287"/>
+      <c r="B109" s="248"/>
+      <c r="C109" s="249"/>
+      <c r="D109" s="248"/>
+      <c r="E109" s="253"/>
+      <c r="F109" s="253"/>
+      <c r="G109" s="249"/>
+      <c r="H109" s="257"/>
+      <c r="I109" s="258"/>
     </row>
     <row r="110" spans="2:16">
-      <c r="B110" s="253"/>
-      <c r="C110" s="255"/>
-      <c r="D110" s="253"/>
-      <c r="E110" s="254"/>
-      <c r="F110" s="254"/>
-      <c r="G110" s="255"/>
-      <c r="H110" s="286"/>
-      <c r="I110" s="287"/>
+      <c r="B110" s="248"/>
+      <c r="C110" s="249"/>
+      <c r="D110" s="248"/>
+      <c r="E110" s="253"/>
+      <c r="F110" s="253"/>
+      <c r="G110" s="249"/>
+      <c r="H110" s="257"/>
+      <c r="I110" s="258"/>
     </row>
     <row r="111" spans="2:16">
-      <c r="B111" s="253"/>
-      <c r="C111" s="255"/>
-      <c r="D111" s="253"/>
-      <c r="E111" s="254"/>
-      <c r="F111" s="254"/>
-      <c r="G111" s="255"/>
-      <c r="H111" s="286"/>
-      <c r="I111" s="287"/>
+      <c r="B111" s="248"/>
+      <c r="C111" s="249"/>
+      <c r="D111" s="248"/>
+      <c r="E111" s="253"/>
+      <c r="F111" s="253"/>
+      <c r="G111" s="249"/>
+      <c r="H111" s="257"/>
+      <c r="I111" s="258"/>
     </row>
     <row r="112" spans="2:16">
-      <c r="B112" s="253"/>
-      <c r="C112" s="255"/>
-      <c r="D112" s="253"/>
-      <c r="E112" s="254"/>
-      <c r="F112" s="254"/>
-      <c r="G112" s="255"/>
-      <c r="H112" s="286"/>
-      <c r="I112" s="287"/>
+      <c r="B112" s="248"/>
+      <c r="C112" s="249"/>
+      <c r="D112" s="248"/>
+      <c r="E112" s="253"/>
+      <c r="F112" s="253"/>
+      <c r="G112" s="249"/>
+      <c r="H112" s="257"/>
+      <c r="I112" s="258"/>
     </row>
     <row r="113" spans="2:9">
       <c r="B113" s="250"/>
       <c r="C113" s="251"/>
       <c r="D113" s="250"/>
-      <c r="E113" s="256"/>
-      <c r="F113" s="256"/>
+      <c r="E113" s="254"/>
+      <c r="F113" s="254"/>
       <c r="G113" s="251"/>
-      <c r="H113" s="288"/>
-      <c r="I113" s="289"/>
+      <c r="H113" s="259"/>
+      <c r="I113" s="260"/>
     </row>
     <row r="114" spans="2:9">
-      <c r="B114" s="248" t="s">
+      <c r="B114" s="246" t="s">
         <v>246</v>
       </c>
-      <c r="C114" s="249"/>
-      <c r="D114" s="248" t="s">
+      <c r="C114" s="247"/>
+      <c r="D114" s="246" t="s">
         <v>248</v>
       </c>
       <c r="E114" s="252"/>
       <c r="F114" s="252"/>
-      <c r="G114" s="249"/>
-      <c r="H114" s="284">
+      <c r="G114" s="247"/>
+      <c r="H114" s="255">
         <v>43596</v>
       </c>
-      <c r="I114" s="285"/>
+      <c r="I114" s="256"/>
     </row>
     <row r="115" spans="2:9">
-      <c r="B115" s="253"/>
-      <c r="C115" s="255"/>
-      <c r="D115" s="253"/>
-      <c r="E115" s="254"/>
-      <c r="F115" s="254"/>
-      <c r="G115" s="255"/>
-      <c r="H115" s="286"/>
-      <c r="I115" s="287"/>
+      <c r="B115" s="248"/>
+      <c r="C115" s="249"/>
+      <c r="D115" s="248"/>
+      <c r="E115" s="253"/>
+      <c r="F115" s="253"/>
+      <c r="G115" s="249"/>
+      <c r="H115" s="257"/>
+      <c r="I115" s="258"/>
     </row>
     <row r="116" spans="2:9">
-      <c r="B116" s="253"/>
-      <c r="C116" s="255"/>
-      <c r="D116" s="253"/>
-      <c r="E116" s="254"/>
-      <c r="F116" s="254"/>
-      <c r="G116" s="255"/>
-      <c r="H116" s="286"/>
-      <c r="I116" s="287"/>
+      <c r="B116" s="248"/>
+      <c r="C116" s="249"/>
+      <c r="D116" s="248"/>
+      <c r="E116" s="253"/>
+      <c r="F116" s="253"/>
+      <c r="G116" s="249"/>
+      <c r="H116" s="257"/>
+      <c r="I116" s="258"/>
     </row>
     <row r="117" spans="2:9">
-      <c r="B117" s="253"/>
-      <c r="C117" s="255"/>
-      <c r="D117" s="253"/>
-      <c r="E117" s="254"/>
-      <c r="F117" s="254"/>
-      <c r="G117" s="255"/>
-      <c r="H117" s="286"/>
-      <c r="I117" s="287"/>
+      <c r="B117" s="248"/>
+      <c r="C117" s="249"/>
+      <c r="D117" s="248"/>
+      <c r="E117" s="253"/>
+      <c r="F117" s="253"/>
+      <c r="G117" s="249"/>
+      <c r="H117" s="257"/>
+      <c r="I117" s="258"/>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="253"/>
-      <c r="C118" s="255"/>
-      <c r="D118" s="253"/>
-      <c r="E118" s="254"/>
-      <c r="F118" s="254"/>
-      <c r="G118" s="255"/>
-      <c r="H118" s="286"/>
-      <c r="I118" s="287"/>
+      <c r="B118" s="248"/>
+      <c r="C118" s="249"/>
+      <c r="D118" s="248"/>
+      <c r="E118" s="253"/>
+      <c r="F118" s="253"/>
+      <c r="G118" s="249"/>
+      <c r="H118" s="257"/>
+      <c r="I118" s="258"/>
     </row>
     <row r="119" spans="2:9">
       <c r="B119" s="250"/>
       <c r="C119" s="251"/>
       <c r="D119" s="250"/>
-      <c r="E119" s="256"/>
-      <c r="F119" s="256"/>
+      <c r="E119" s="254"/>
+      <c r="F119" s="254"/>
       <c r="G119" s="251"/>
-      <c r="H119" s="288"/>
-      <c r="I119" s="289"/>
+      <c r="H119" s="259"/>
+      <c r="I119" s="260"/>
     </row>
     <row r="120" spans="2:9">
-      <c r="B120" s="248" t="s">
+      <c r="B120" s="246" t="s">
         <v>188</v>
       </c>
-      <c r="C120" s="249"/>
-      <c r="D120" s="248" t="s">
+      <c r="C120" s="247"/>
+      <c r="D120" s="246" t="s">
         <v>249</v>
       </c>
       <c r="E120" s="252"/>
       <c r="F120" s="252"/>
-      <c r="G120" s="249"/>
-      <c r="H120" s="284">
+      <c r="G120" s="247"/>
+      <c r="H120" s="255">
         <v>43617</v>
       </c>
-      <c r="I120" s="285"/>
+      <c r="I120" s="256"/>
     </row>
     <row r="121" spans="2:9">
-      <c r="B121" s="253"/>
-      <c r="C121" s="255"/>
-      <c r="D121" s="253"/>
-      <c r="E121" s="254"/>
-      <c r="F121" s="254"/>
-      <c r="G121" s="255"/>
-      <c r="H121" s="286"/>
-      <c r="I121" s="287"/>
+      <c r="B121" s="248"/>
+      <c r="C121" s="249"/>
+      <c r="D121" s="248"/>
+      <c r="E121" s="253"/>
+      <c r="F121" s="253"/>
+      <c r="G121" s="249"/>
+      <c r="H121" s="257"/>
+      <c r="I121" s="258"/>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="253"/>
-      <c r="C122" s="255"/>
-      <c r="D122" s="253"/>
-      <c r="E122" s="254"/>
-      <c r="F122" s="254"/>
-      <c r="G122" s="255"/>
-      <c r="H122" s="286"/>
-      <c r="I122" s="287"/>
+      <c r="B122" s="248"/>
+      <c r="C122" s="249"/>
+      <c r="D122" s="248"/>
+      <c r="E122" s="253"/>
+      <c r="F122" s="253"/>
+      <c r="G122" s="249"/>
+      <c r="H122" s="257"/>
+      <c r="I122" s="258"/>
     </row>
     <row r="123" spans="2:9">
-      <c r="B123" s="253"/>
-      <c r="C123" s="255"/>
-      <c r="D123" s="253"/>
-      <c r="E123" s="254"/>
-      <c r="F123" s="254"/>
-      <c r="G123" s="255"/>
-      <c r="H123" s="286"/>
-      <c r="I123" s="287"/>
+      <c r="B123" s="248"/>
+      <c r="C123" s="249"/>
+      <c r="D123" s="248"/>
+      <c r="E123" s="253"/>
+      <c r="F123" s="253"/>
+      <c r="G123" s="249"/>
+      <c r="H123" s="257"/>
+      <c r="I123" s="258"/>
     </row>
     <row r="124" spans="2:9">
-      <c r="B124" s="253"/>
-      <c r="C124" s="255"/>
-      <c r="D124" s="253"/>
-      <c r="E124" s="254"/>
-      <c r="F124" s="254"/>
-      <c r="G124" s="255"/>
-      <c r="H124" s="286"/>
-      <c r="I124" s="287"/>
+      <c r="B124" s="248"/>
+      <c r="C124" s="249"/>
+      <c r="D124" s="248"/>
+      <c r="E124" s="253"/>
+      <c r="F124" s="253"/>
+      <c r="G124" s="249"/>
+      <c r="H124" s="257"/>
+      <c r="I124" s="258"/>
     </row>
     <row r="125" spans="2:9">
       <c r="B125" s="250"/>
       <c r="C125" s="251"/>
       <c r="D125" s="250"/>
-      <c r="E125" s="256"/>
-      <c r="F125" s="256"/>
+      <c r="E125" s="254"/>
+      <c r="F125" s="254"/>
       <c r="G125" s="251"/>
-      <c r="H125" s="288"/>
-      <c r="I125" s="289"/>
+      <c r="H125" s="259"/>
+      <c r="I125" s="260"/>
     </row>
     <row r="126" spans="2:9">
-      <c r="B126" s="248" t="s">
+      <c r="B126" s="246" t="s">
         <v>247</v>
       </c>
-      <c r="C126" s="249"/>
-      <c r="D126" s="248" t="s">
+      <c r="C126" s="247"/>
+      <c r="D126" s="246" t="s">
         <v>250</v>
       </c>
       <c r="E126" s="252"/>
       <c r="F126" s="252"/>
-      <c r="G126" s="249"/>
-      <c r="H126" s="284">
+      <c r="G126" s="247"/>
+      <c r="H126" s="255">
         <v>43630</v>
       </c>
-      <c r="I126" s="285"/>
+      <c r="I126" s="256"/>
     </row>
     <row r="127" spans="2:9">
-      <c r="B127" s="253"/>
-      <c r="C127" s="255"/>
-      <c r="D127" s="253"/>
-      <c r="E127" s="254"/>
-      <c r="F127" s="254"/>
-      <c r="G127" s="255"/>
-      <c r="H127" s="286"/>
-      <c r="I127" s="287"/>
+      <c r="B127" s="248"/>
+      <c r="C127" s="249"/>
+      <c r="D127" s="248"/>
+      <c r="E127" s="253"/>
+      <c r="F127" s="253"/>
+      <c r="G127" s="249"/>
+      <c r="H127" s="257"/>
+      <c r="I127" s="258"/>
     </row>
     <row r="128" spans="2:9">
-      <c r="B128" s="253"/>
-      <c r="C128" s="255"/>
-      <c r="D128" s="253"/>
-      <c r="E128" s="254"/>
-      <c r="F128" s="254"/>
-      <c r="G128" s="255"/>
-      <c r="H128" s="286"/>
-      <c r="I128" s="287"/>
+      <c r="B128" s="248"/>
+      <c r="C128" s="249"/>
+      <c r="D128" s="248"/>
+      <c r="E128" s="253"/>
+      <c r="F128" s="253"/>
+      <c r="G128" s="249"/>
+      <c r="H128" s="257"/>
+      <c r="I128" s="258"/>
     </row>
     <row r="129" spans="2:9">
-      <c r="B129" s="253"/>
-      <c r="C129" s="255"/>
-      <c r="D129" s="253"/>
-      <c r="E129" s="254"/>
-      <c r="F129" s="254"/>
-      <c r="G129" s="255"/>
-      <c r="H129" s="286"/>
-      <c r="I129" s="287"/>
+      <c r="B129" s="248"/>
+      <c r="C129" s="249"/>
+      <c r="D129" s="248"/>
+      <c r="E129" s="253"/>
+      <c r="F129" s="253"/>
+      <c r="G129" s="249"/>
+      <c r="H129" s="257"/>
+      <c r="I129" s="258"/>
     </row>
     <row r="130" spans="2:9">
-      <c r="B130" s="253"/>
-      <c r="C130" s="255"/>
-      <c r="D130" s="253"/>
-      <c r="E130" s="254"/>
-      <c r="F130" s="254"/>
-      <c r="G130" s="255"/>
-      <c r="H130" s="286"/>
-      <c r="I130" s="287"/>
+      <c r="B130" s="248"/>
+      <c r="C130" s="249"/>
+      <c r="D130" s="248"/>
+      <c r="E130" s="253"/>
+      <c r="F130" s="253"/>
+      <c r="G130" s="249"/>
+      <c r="H130" s="257"/>
+      <c r="I130" s="258"/>
     </row>
     <row r="131" spans="2:9">
       <c r="B131" s="250"/>
       <c r="C131" s="251"/>
       <c r="D131" s="250"/>
-      <c r="E131" s="256"/>
-      <c r="F131" s="256"/>
+      <c r="E131" s="254"/>
+      <c r="F131" s="254"/>
       <c r="G131" s="251"/>
-      <c r="H131" s="288"/>
-      <c r="I131" s="289"/>
+      <c r="H131" s="259"/>
+      <c r="I131" s="260"/>
     </row>
     <row r="135" spans="2:9">
-      <c r="B135" s="282" t="s">
+      <c r="B135" s="274" t="s">
         <v>75</v>
       </c>
-      <c r="C135" s="282"/>
-      <c r="D135" s="282"/>
+      <c r="C135" s="274"/>
+      <c r="D135" s="274"/>
       <c r="E135" s="133"/>
-      <c r="G135" s="282" t="s">
+      <c r="G135" s="274" t="s">
         <v>77</v>
       </c>
-      <c r="H135" s="282"/>
-      <c r="I135" s="282"/>
+      <c r="H135" s="274"/>
+      <c r="I135" s="274"/>
     </row>
     <row r="136" spans="2:9">
-      <c r="B136" s="280" t="s">
+      <c r="B136" s="272" t="s">
         <v>76</v>
       </c>
-      <c r="C136" s="280"/>
-      <c r="D136" s="280"/>
+      <c r="C136" s="272"/>
+      <c r="D136" s="272"/>
       <c r="E136" s="133"/>
-      <c r="G136" s="283" t="s">
+      <c r="G136" s="275" t="s">
         <v>78</v>
       </c>
-      <c r="H136" s="283"/>
-      <c r="I136" s="283"/>
+      <c r="H136" s="275"/>
+      <c r="I136" s="275"/>
     </row>
     <row r="137" spans="2:9">
       <c r="B137" s="131"/>
       <c r="C137" s="131"/>
     </row>
     <row r="139" spans="2:9">
-      <c r="B139" s="281" t="s">
+      <c r="B139" s="273" t="s">
         <v>102</v>
       </c>
-      <c r="C139" s="281"/>
-      <c r="D139" s="281"/>
-      <c r="E139" s="281"/>
+      <c r="C139" s="273"/>
+      <c r="D139" s="273"/>
+      <c r="E139" s="273"/>
     </row>
     <row r="141" spans="2:9">
       <c r="B141" s="132"/>
@@ -18601,17 +18006,68 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="F86:G94"/>
-    <mergeCell ref="H86:I94"/>
-    <mergeCell ref="B126:C131"/>
-    <mergeCell ref="D126:G131"/>
-    <mergeCell ref="H126:I131"/>
-    <mergeCell ref="B114:C119"/>
-    <mergeCell ref="D114:G119"/>
-    <mergeCell ref="H114:I119"/>
-    <mergeCell ref="B120:C125"/>
-    <mergeCell ref="D120:G125"/>
-    <mergeCell ref="H120:I125"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="D12:I14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="D8:I9"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B69:E73"/>
+    <mergeCell ref="F69:I73"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I64"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:C49"/>
+    <mergeCell ref="B50:C52"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I27"/>
+    <mergeCell ref="B41:E43"/>
+    <mergeCell ref="F41:I43"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="D47:I49"/>
+    <mergeCell ref="D50:I52"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B37:E39"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B32:E35"/>
+    <mergeCell ref="F32:I35"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="B108:C113"/>
+    <mergeCell ref="D108:G113"/>
+    <mergeCell ref="H108:I113"/>
+    <mergeCell ref="B135:D135"/>
     <mergeCell ref="H76:I76"/>
     <mergeCell ref="B77:C85"/>
     <mergeCell ref="B75:I75"/>
@@ -18628,68 +18084,17 @@
     <mergeCell ref="F77:G85"/>
     <mergeCell ref="H77:I85"/>
     <mergeCell ref="D86:E94"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="B108:C113"/>
-    <mergeCell ref="D108:G113"/>
-    <mergeCell ref="H108:I113"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B37:E39"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B32:E35"/>
-    <mergeCell ref="F32:I35"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:C49"/>
-    <mergeCell ref="B50:C52"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I27"/>
-    <mergeCell ref="B41:E43"/>
-    <mergeCell ref="F41:I43"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="D47:I49"/>
-    <mergeCell ref="D50:I52"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B69:E73"/>
-    <mergeCell ref="F69:I73"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I64"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="D12:I14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="D8:I9"/>
+    <mergeCell ref="F86:G94"/>
+    <mergeCell ref="H86:I94"/>
+    <mergeCell ref="B126:C131"/>
+    <mergeCell ref="D126:G131"/>
+    <mergeCell ref="H126:I131"/>
+    <mergeCell ref="B114:C119"/>
+    <mergeCell ref="D114:G119"/>
+    <mergeCell ref="H114:I119"/>
+    <mergeCell ref="B120:C125"/>
+    <mergeCell ref="D120:G125"/>
+    <mergeCell ref="H120:I125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18749,18 +18154,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18.75">
-      <c r="B2" s="296" t="s">
+      <c r="B2" s="297" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296"/>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
-      <c r="J2" s="296"/>
-      <c r="K2" s="296"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="297"/>
+      <c r="H2" s="297"/>
+      <c r="I2" s="297"/>
+      <c r="J2" s="297"/>
+      <c r="K2" s="297"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="157" t="s">
@@ -19201,17 +18606,17 @@
   </sheetPr>
   <dimension ref="A3:AP68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AF33" sqref="AF33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:42" ht="15.75" thickBot="1">
-      <c r="B3" s="297"/>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
+      <c r="B3" s="315"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="315"/>
       <c r="G3" s="163"/>
       <c r="H3" s="164"/>
       <c r="I3" s="164"/>
@@ -19247,10 +18652,10 @@
       <c r="AM3" s="164"/>
     </row>
     <row r="4" spans="1:42" ht="15" customHeight="1">
-      <c r="B4" s="297"/>
-      <c r="C4" s="297"/>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
+      <c r="B4" s="315"/>
+      <c r="C4" s="315"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
       <c r="F4" s="164"/>
       <c r="G4" s="164"/>
       <c r="H4" s="164"/>
@@ -20197,17 +19602,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB4:AD6"/>
-    <mergeCell ref="W12:Y14"/>
-    <mergeCell ref="R7:T9"/>
-    <mergeCell ref="R15:T17"/>
-    <mergeCell ref="AB13:AD15"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="H10:J12"/>
     <mergeCell ref="M8:O10"/>
     <mergeCell ref="M13:O15"/>
     <mergeCell ref="D11:F13"/>
+    <mergeCell ref="AB4:AD6"/>
+    <mergeCell ref="W12:Y14"/>
+    <mergeCell ref="R7:T9"/>
+    <mergeCell ref="R15:T17"/>
+    <mergeCell ref="AB13:AD15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20386,474 +19791,474 @@
       <c r="A2" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="402"/>
-      <c r="C2" s="403"/>
-      <c r="D2" s="403"/>
-      <c r="E2" s="403"/>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="403"/>
-      <c r="J2" s="403"/>
-      <c r="K2" s="403"/>
-      <c r="L2" s="403"/>
-      <c r="M2" s="403"/>
-      <c r="N2" s="403"/>
-      <c r="O2" s="403"/>
-      <c r="P2" s="403"/>
-      <c r="Q2" s="403"/>
-      <c r="R2" s="403"/>
-      <c r="S2" s="403"/>
-      <c r="T2" s="403"/>
-      <c r="U2" s="404"/>
-      <c r="V2" s="405" t="s">
+      <c r="B2" s="364"/>
+      <c r="C2" s="365"/>
+      <c r="D2" s="365"/>
+      <c r="E2" s="365"/>
+      <c r="F2" s="365"/>
+      <c r="G2" s="365"/>
+      <c r="H2" s="365"/>
+      <c r="I2" s="365"/>
+      <c r="J2" s="365"/>
+      <c r="K2" s="365"/>
+      <c r="L2" s="365"/>
+      <c r="M2" s="365"/>
+      <c r="N2" s="365"/>
+      <c r="O2" s="365"/>
+      <c r="P2" s="365"/>
+      <c r="Q2" s="365"/>
+      <c r="R2" s="365"/>
+      <c r="S2" s="365"/>
+      <c r="T2" s="365"/>
+      <c r="U2" s="366"/>
+      <c r="V2" s="367" t="s">
         <v>143</v>
       </c>
-      <c r="W2" s="406"/>
-      <c r="X2" s="406"/>
-      <c r="Y2" s="406"/>
-      <c r="Z2" s="406"/>
-      <c r="AA2" s="406"/>
-      <c r="AB2" s="406"/>
-      <c r="AC2" s="406"/>
-      <c r="AD2" s="406"/>
-      <c r="AE2" s="406"/>
-      <c r="AF2" s="406"/>
-      <c r="AG2" s="406"/>
-      <c r="AH2" s="406"/>
-      <c r="AI2" s="407"/>
-      <c r="AJ2" s="408">
+      <c r="W2" s="368"/>
+      <c r="X2" s="368"/>
+      <c r="Y2" s="368"/>
+      <c r="Z2" s="368"/>
+      <c r="AA2" s="368"/>
+      <c r="AB2" s="368"/>
+      <c r="AC2" s="368"/>
+      <c r="AD2" s="368"/>
+      <c r="AE2" s="368"/>
+      <c r="AF2" s="368"/>
+      <c r="AG2" s="368"/>
+      <c r="AH2" s="368"/>
+      <c r="AI2" s="369"/>
+      <c r="AJ2" s="370">
         <v>43590</v>
       </c>
-      <c r="AK2" s="409"/>
-      <c r="AL2" s="409"/>
-      <c r="AM2" s="409"/>
-      <c r="AN2" s="409"/>
-      <c r="AO2" s="409"/>
-      <c r="AP2" s="409"/>
-      <c r="AQ2" s="409"/>
-      <c r="AR2" s="409"/>
-      <c r="AS2" s="409"/>
-      <c r="AT2" s="410"/>
-      <c r="AU2" s="411"/>
-      <c r="AV2" s="412"/>
-      <c r="AW2" s="412"/>
-      <c r="AX2" s="412"/>
-      <c r="AY2" s="412"/>
-      <c r="AZ2" s="412"/>
-      <c r="BA2" s="412"/>
-      <c r="BB2" s="412"/>
-      <c r="BC2" s="412"/>
-      <c r="BD2" s="412"/>
-      <c r="BE2" s="412"/>
-      <c r="BF2" s="412"/>
-      <c r="BG2" s="413"/>
+      <c r="AK2" s="371"/>
+      <c r="AL2" s="371"/>
+      <c r="AM2" s="371"/>
+      <c r="AN2" s="371"/>
+      <c r="AO2" s="371"/>
+      <c r="AP2" s="371"/>
+      <c r="AQ2" s="371"/>
+      <c r="AR2" s="371"/>
+      <c r="AS2" s="371"/>
+      <c r="AT2" s="372"/>
+      <c r="AU2" s="373"/>
+      <c r="AV2" s="374"/>
+      <c r="AW2" s="374"/>
+      <c r="AX2" s="374"/>
+      <c r="AY2" s="374"/>
+      <c r="AZ2" s="374"/>
+      <c r="BA2" s="374"/>
+      <c r="BB2" s="374"/>
+      <c r="BC2" s="374"/>
+      <c r="BD2" s="374"/>
+      <c r="BE2" s="374"/>
+      <c r="BF2" s="374"/>
+      <c r="BG2" s="375"/>
       <c r="BH2" s="45"/>
       <c r="BI2" s="46"/>
-      <c r="BJ2" s="414" t="s">
+      <c r="BJ2" s="376" t="s">
         <v>146</v>
       </c>
-      <c r="BK2" s="406"/>
-      <c r="BL2" s="406"/>
-      <c r="BM2" s="406"/>
-      <c r="BN2" s="406"/>
-      <c r="BO2" s="406"/>
-      <c r="BP2" s="406"/>
-      <c r="BQ2" s="406"/>
-      <c r="BR2" s="406"/>
-      <c r="BS2" s="406"/>
-      <c r="BT2" s="406"/>
-      <c r="BU2" s="406"/>
-      <c r="BV2" s="406"/>
-      <c r="BW2" s="406"/>
-      <c r="BX2" s="406"/>
-      <c r="BY2" s="406"/>
-      <c r="BZ2" s="406"/>
-      <c r="CA2" s="406"/>
-      <c r="CB2" s="406"/>
-      <c r="CC2" s="406"/>
-      <c r="CD2" s="406"/>
-      <c r="CE2" s="406"/>
-      <c r="CF2" s="406"/>
-      <c r="CG2" s="415"/>
-      <c r="CH2" s="388" t="s">
+      <c r="BK2" s="368"/>
+      <c r="BL2" s="368"/>
+      <c r="BM2" s="368"/>
+      <c r="BN2" s="368"/>
+      <c r="BO2" s="368"/>
+      <c r="BP2" s="368"/>
+      <c r="BQ2" s="368"/>
+      <c r="BR2" s="368"/>
+      <c r="BS2" s="368"/>
+      <c r="BT2" s="368"/>
+      <c r="BU2" s="368"/>
+      <c r="BV2" s="368"/>
+      <c r="BW2" s="368"/>
+      <c r="BX2" s="368"/>
+      <c r="BY2" s="368"/>
+      <c r="BZ2" s="368"/>
+      <c r="CA2" s="368"/>
+      <c r="CB2" s="368"/>
+      <c r="CC2" s="368"/>
+      <c r="CD2" s="368"/>
+      <c r="CE2" s="368"/>
+      <c r="CF2" s="368"/>
+      <c r="CG2" s="377"/>
+      <c r="CH2" s="350" t="s">
         <v>155</v>
       </c>
-      <c r="CI2" s="389"/>
-      <c r="CJ2" s="389"/>
-      <c r="CK2" s="389"/>
-      <c r="CL2" s="389"/>
-      <c r="CM2" s="389"/>
-      <c r="CN2" s="389"/>
-      <c r="CO2" s="389"/>
-      <c r="CP2" s="389"/>
-      <c r="CQ2" s="389"/>
-      <c r="CR2" s="389"/>
-      <c r="CS2" s="389"/>
-      <c r="CT2" s="389"/>
-      <c r="CU2" s="389"/>
-      <c r="CV2" s="389"/>
-      <c r="CW2" s="389"/>
-      <c r="CX2" s="389"/>
-      <c r="CY2" s="389"/>
-      <c r="CZ2" s="389"/>
-      <c r="DA2" s="389"/>
-      <c r="DB2" s="389"/>
-      <c r="DC2" s="389"/>
-      <c r="DD2" s="389"/>
-      <c r="DE2" s="389"/>
-      <c r="DF2" s="390"/>
-      <c r="DG2" s="373"/>
-      <c r="DH2" s="374"/>
-      <c r="DI2" s="374"/>
-      <c r="DJ2" s="374"/>
-      <c r="DK2" s="374"/>
-      <c r="DL2" s="374"/>
-      <c r="DM2" s="374"/>
-      <c r="DN2" s="374"/>
-      <c r="DO2" s="374"/>
-      <c r="DP2" s="374"/>
-      <c r="DQ2" s="374"/>
-      <c r="DR2" s="374"/>
-      <c r="DS2" s="374"/>
-      <c r="DT2" s="374"/>
-      <c r="DU2" s="374"/>
-      <c r="DV2" s="374"/>
-      <c r="DW2" s="374"/>
-      <c r="DX2" s="374"/>
-      <c r="DY2" s="374"/>
-      <c r="DZ2" s="374"/>
-      <c r="EA2" s="374"/>
-      <c r="EB2" s="374"/>
-      <c r="EC2" s="374"/>
-      <c r="ED2" s="374"/>
-      <c r="EE2" s="374"/>
-      <c r="EF2" s="374"/>
-      <c r="EG2" s="374"/>
-      <c r="EH2" s="374"/>
-      <c r="EI2" s="374"/>
-      <c r="EJ2" s="374"/>
-      <c r="EK2" s="374"/>
-      <c r="EL2" s="374"/>
-      <c r="EM2" s="374"/>
-      <c r="EN2" s="374"/>
-      <c r="EO2" s="377"/>
+      <c r="CI2" s="351"/>
+      <c r="CJ2" s="351"/>
+      <c r="CK2" s="351"/>
+      <c r="CL2" s="351"/>
+      <c r="CM2" s="351"/>
+      <c r="CN2" s="351"/>
+      <c r="CO2" s="351"/>
+      <c r="CP2" s="351"/>
+      <c r="CQ2" s="351"/>
+      <c r="CR2" s="351"/>
+      <c r="CS2" s="351"/>
+      <c r="CT2" s="351"/>
+      <c r="CU2" s="351"/>
+      <c r="CV2" s="351"/>
+      <c r="CW2" s="351"/>
+      <c r="CX2" s="351"/>
+      <c r="CY2" s="351"/>
+      <c r="CZ2" s="351"/>
+      <c r="DA2" s="351"/>
+      <c r="DB2" s="351"/>
+      <c r="DC2" s="351"/>
+      <c r="DD2" s="351"/>
+      <c r="DE2" s="351"/>
+      <c r="DF2" s="352"/>
+      <c r="DG2" s="335"/>
+      <c r="DH2" s="336"/>
+      <c r="DI2" s="336"/>
+      <c r="DJ2" s="336"/>
+      <c r="DK2" s="336"/>
+      <c r="DL2" s="336"/>
+      <c r="DM2" s="336"/>
+      <c r="DN2" s="336"/>
+      <c r="DO2" s="336"/>
+      <c r="DP2" s="336"/>
+      <c r="DQ2" s="336"/>
+      <c r="DR2" s="336"/>
+      <c r="DS2" s="336"/>
+      <c r="DT2" s="336"/>
+      <c r="DU2" s="336"/>
+      <c r="DV2" s="336"/>
+      <c r="DW2" s="336"/>
+      <c r="DX2" s="336"/>
+      <c r="DY2" s="336"/>
+      <c r="DZ2" s="336"/>
+      <c r="EA2" s="336"/>
+      <c r="EB2" s="336"/>
+      <c r="EC2" s="336"/>
+      <c r="ED2" s="336"/>
+      <c r="EE2" s="336"/>
+      <c r="EF2" s="336"/>
+      <c r="EG2" s="336"/>
+      <c r="EH2" s="336"/>
+      <c r="EI2" s="336"/>
+      <c r="EJ2" s="336"/>
+      <c r="EK2" s="336"/>
+      <c r="EL2" s="336"/>
+      <c r="EM2" s="336"/>
+      <c r="EN2" s="336"/>
+      <c r="EO2" s="339"/>
       <c r="EP2" s="47"/>
     </row>
     <row r="3" spans="1:146" ht="45.75" customHeight="1" thickBot="1">
       <c r="A3" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="379"/>
-      <c r="C3" s="380"/>
-      <c r="D3" s="380"/>
-      <c r="E3" s="380"/>
-      <c r="F3" s="380"/>
-      <c r="G3" s="380"/>
-      <c r="H3" s="380"/>
-      <c r="I3" s="380"/>
-      <c r="J3" s="380"/>
-      <c r="K3" s="380"/>
-      <c r="L3" s="380"/>
-      <c r="M3" s="380"/>
-      <c r="N3" s="380"/>
-      <c r="O3" s="380"/>
-      <c r="P3" s="380"/>
-      <c r="Q3" s="380"/>
-      <c r="R3" s="380"/>
-      <c r="S3" s="380"/>
-      <c r="T3" s="380"/>
-      <c r="U3" s="381"/>
-      <c r="V3" s="382" t="s">
+      <c r="B3" s="341"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
+      <c r="G3" s="342"/>
+      <c r="H3" s="342"/>
+      <c r="I3" s="342"/>
+      <c r="J3" s="342"/>
+      <c r="K3" s="342"/>
+      <c r="L3" s="342"/>
+      <c r="M3" s="342"/>
+      <c r="N3" s="342"/>
+      <c r="O3" s="342"/>
+      <c r="P3" s="342"/>
+      <c r="Q3" s="342"/>
+      <c r="R3" s="342"/>
+      <c r="S3" s="342"/>
+      <c r="T3" s="342"/>
+      <c r="U3" s="343"/>
+      <c r="V3" s="344" t="s">
         <v>144</v>
       </c>
-      <c r="W3" s="383"/>
-      <c r="X3" s="383"/>
-      <c r="Y3" s="383"/>
-      <c r="Z3" s="383"/>
-      <c r="AA3" s="383"/>
-      <c r="AB3" s="383"/>
-      <c r="AC3" s="383"/>
-      <c r="AD3" s="383"/>
-      <c r="AE3" s="383"/>
-      <c r="AF3" s="383"/>
-      <c r="AG3" s="383"/>
-      <c r="AH3" s="383"/>
-      <c r="AI3" s="384"/>
-      <c r="AJ3" s="385"/>
-      <c r="AK3" s="386"/>
-      <c r="AL3" s="386"/>
-      <c r="AM3" s="386"/>
-      <c r="AN3" s="386"/>
-      <c r="AO3" s="386"/>
-      <c r="AP3" s="386"/>
-      <c r="AQ3" s="386"/>
-      <c r="AR3" s="386"/>
-      <c r="AS3" s="386"/>
-      <c r="AT3" s="387"/>
-      <c r="AU3" s="394"/>
-      <c r="AV3" s="395"/>
-      <c r="AW3" s="396" t="s">
+      <c r="W3" s="345"/>
+      <c r="X3" s="345"/>
+      <c r="Y3" s="345"/>
+      <c r="Z3" s="345"/>
+      <c r="AA3" s="345"/>
+      <c r="AB3" s="345"/>
+      <c r="AC3" s="345"/>
+      <c r="AD3" s="345"/>
+      <c r="AE3" s="345"/>
+      <c r="AF3" s="345"/>
+      <c r="AG3" s="345"/>
+      <c r="AH3" s="345"/>
+      <c r="AI3" s="346"/>
+      <c r="AJ3" s="347"/>
+      <c r="AK3" s="348"/>
+      <c r="AL3" s="348"/>
+      <c r="AM3" s="348"/>
+      <c r="AN3" s="348"/>
+      <c r="AO3" s="348"/>
+      <c r="AP3" s="348"/>
+      <c r="AQ3" s="348"/>
+      <c r="AR3" s="348"/>
+      <c r="AS3" s="348"/>
+      <c r="AT3" s="349"/>
+      <c r="AU3" s="356"/>
+      <c r="AV3" s="357"/>
+      <c r="AW3" s="358" t="s">
         <v>145</v>
       </c>
-      <c r="AX3" s="397"/>
-      <c r="AY3" s="397"/>
-      <c r="AZ3" s="397"/>
-      <c r="BA3" s="397"/>
-      <c r="BB3" s="397"/>
-      <c r="BC3" s="397"/>
-      <c r="BD3" s="397"/>
-      <c r="BE3" s="397"/>
-      <c r="BF3" s="397"/>
-      <c r="BG3" s="398"/>
+      <c r="AX3" s="359"/>
+      <c r="AY3" s="359"/>
+      <c r="AZ3" s="359"/>
+      <c r="BA3" s="359"/>
+      <c r="BB3" s="359"/>
+      <c r="BC3" s="359"/>
+      <c r="BD3" s="359"/>
+      <c r="BE3" s="359"/>
+      <c r="BF3" s="359"/>
+      <c r="BG3" s="360"/>
       <c r="BH3" s="49"/>
       <c r="BI3" s="50"/>
-      <c r="BJ3" s="399" t="s">
+      <c r="BJ3" s="361" t="s">
         <v>147</v>
       </c>
-      <c r="BK3" s="400"/>
-      <c r="BL3" s="400"/>
-      <c r="BM3" s="400"/>
-      <c r="BN3" s="400"/>
-      <c r="BO3" s="400"/>
-      <c r="BP3" s="400"/>
-      <c r="BQ3" s="400"/>
-      <c r="BR3" s="400"/>
-      <c r="BS3" s="400"/>
-      <c r="BT3" s="400"/>
-      <c r="BU3" s="400"/>
-      <c r="BV3" s="400"/>
-      <c r="BW3" s="400"/>
-      <c r="BX3" s="400"/>
-      <c r="BY3" s="400"/>
-      <c r="BZ3" s="400"/>
-      <c r="CA3" s="400"/>
-      <c r="CB3" s="400"/>
-      <c r="CC3" s="400"/>
-      <c r="CD3" s="400"/>
-      <c r="CE3" s="400"/>
-      <c r="CF3" s="400"/>
-      <c r="CG3" s="401"/>
-      <c r="CH3" s="391"/>
-      <c r="CI3" s="392"/>
-      <c r="CJ3" s="392"/>
-      <c r="CK3" s="392"/>
-      <c r="CL3" s="392"/>
-      <c r="CM3" s="392"/>
-      <c r="CN3" s="392"/>
-      <c r="CO3" s="392"/>
-      <c r="CP3" s="392"/>
-      <c r="CQ3" s="392"/>
-      <c r="CR3" s="392"/>
-      <c r="CS3" s="392"/>
-      <c r="CT3" s="392"/>
-      <c r="CU3" s="392"/>
-      <c r="CV3" s="392"/>
-      <c r="CW3" s="392"/>
-      <c r="CX3" s="392"/>
-      <c r="CY3" s="392"/>
-      <c r="CZ3" s="392"/>
-      <c r="DA3" s="392"/>
-      <c r="DB3" s="392"/>
-      <c r="DC3" s="392"/>
-      <c r="DD3" s="392"/>
-      <c r="DE3" s="392"/>
-      <c r="DF3" s="393"/>
-      <c r="DG3" s="375"/>
-      <c r="DH3" s="376"/>
-      <c r="DI3" s="376"/>
-      <c r="DJ3" s="376"/>
-      <c r="DK3" s="376"/>
-      <c r="DL3" s="376"/>
-      <c r="DM3" s="376"/>
-      <c r="DN3" s="376"/>
-      <c r="DO3" s="376"/>
-      <c r="DP3" s="376"/>
-      <c r="DQ3" s="376"/>
-      <c r="DR3" s="376"/>
-      <c r="DS3" s="376"/>
-      <c r="DT3" s="376"/>
-      <c r="DU3" s="376"/>
-      <c r="DV3" s="376"/>
-      <c r="DW3" s="376"/>
-      <c r="DX3" s="376"/>
-      <c r="DY3" s="376"/>
-      <c r="DZ3" s="376"/>
-      <c r="EA3" s="376"/>
-      <c r="EB3" s="376"/>
-      <c r="EC3" s="376"/>
-      <c r="ED3" s="376"/>
-      <c r="EE3" s="376"/>
-      <c r="EF3" s="376"/>
-      <c r="EG3" s="376"/>
-      <c r="EH3" s="376"/>
-      <c r="EI3" s="376"/>
-      <c r="EJ3" s="376"/>
-      <c r="EK3" s="376"/>
-      <c r="EL3" s="376"/>
-      <c r="EM3" s="376"/>
-      <c r="EN3" s="376"/>
-      <c r="EO3" s="378"/>
+      <c r="BK3" s="362"/>
+      <c r="BL3" s="362"/>
+      <c r="BM3" s="362"/>
+      <c r="BN3" s="362"/>
+      <c r="BO3" s="362"/>
+      <c r="BP3" s="362"/>
+      <c r="BQ3" s="362"/>
+      <c r="BR3" s="362"/>
+      <c r="BS3" s="362"/>
+      <c r="BT3" s="362"/>
+      <c r="BU3" s="362"/>
+      <c r="BV3" s="362"/>
+      <c r="BW3" s="362"/>
+      <c r="BX3" s="362"/>
+      <c r="BY3" s="362"/>
+      <c r="BZ3" s="362"/>
+      <c r="CA3" s="362"/>
+      <c r="CB3" s="362"/>
+      <c r="CC3" s="362"/>
+      <c r="CD3" s="362"/>
+      <c r="CE3" s="362"/>
+      <c r="CF3" s="362"/>
+      <c r="CG3" s="363"/>
+      <c r="CH3" s="353"/>
+      <c r="CI3" s="354"/>
+      <c r="CJ3" s="354"/>
+      <c r="CK3" s="354"/>
+      <c r="CL3" s="354"/>
+      <c r="CM3" s="354"/>
+      <c r="CN3" s="354"/>
+      <c r="CO3" s="354"/>
+      <c r="CP3" s="354"/>
+      <c r="CQ3" s="354"/>
+      <c r="CR3" s="354"/>
+      <c r="CS3" s="354"/>
+      <c r="CT3" s="354"/>
+      <c r="CU3" s="354"/>
+      <c r="CV3" s="354"/>
+      <c r="CW3" s="354"/>
+      <c r="CX3" s="354"/>
+      <c r="CY3" s="354"/>
+      <c r="CZ3" s="354"/>
+      <c r="DA3" s="354"/>
+      <c r="DB3" s="354"/>
+      <c r="DC3" s="354"/>
+      <c r="DD3" s="354"/>
+      <c r="DE3" s="354"/>
+      <c r="DF3" s="355"/>
+      <c r="DG3" s="337"/>
+      <c r="DH3" s="338"/>
+      <c r="DI3" s="338"/>
+      <c r="DJ3" s="338"/>
+      <c r="DK3" s="338"/>
+      <c r="DL3" s="338"/>
+      <c r="DM3" s="338"/>
+      <c r="DN3" s="338"/>
+      <c r="DO3" s="338"/>
+      <c r="DP3" s="338"/>
+      <c r="DQ3" s="338"/>
+      <c r="DR3" s="338"/>
+      <c r="DS3" s="338"/>
+      <c r="DT3" s="338"/>
+      <c r="DU3" s="338"/>
+      <c r="DV3" s="338"/>
+      <c r="DW3" s="338"/>
+      <c r="DX3" s="338"/>
+      <c r="DY3" s="338"/>
+      <c r="DZ3" s="338"/>
+      <c r="EA3" s="338"/>
+      <c r="EB3" s="338"/>
+      <c r="EC3" s="338"/>
+      <c r="ED3" s="338"/>
+      <c r="EE3" s="338"/>
+      <c r="EF3" s="338"/>
+      <c r="EG3" s="338"/>
+      <c r="EH3" s="338"/>
+      <c r="EI3" s="338"/>
+      <c r="EJ3" s="338"/>
+      <c r="EK3" s="338"/>
+      <c r="EL3" s="338"/>
+      <c r="EM3" s="338"/>
+      <c r="EN3" s="338"/>
+      <c r="EO3" s="340"/>
       <c r="EP3" s="47"/>
     </row>
     <row r="4" spans="1:146" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="354"/>
-      <c r="B4" s="355"/>
-      <c r="C4" s="355"/>
-      <c r="D4" s="355"/>
-      <c r="E4" s="355"/>
-      <c r="F4" s="355"/>
-      <c r="G4" s="355"/>
-      <c r="H4" s="355"/>
-      <c r="I4" s="355"/>
-      <c r="J4" s="355"/>
-      <c r="K4" s="355"/>
-      <c r="L4" s="355"/>
-      <c r="M4" s="355"/>
-      <c r="N4" s="355"/>
-      <c r="O4" s="355"/>
-      <c r="P4" s="355"/>
-      <c r="Q4" s="355"/>
-      <c r="R4" s="355"/>
-      <c r="S4" s="355"/>
-      <c r="T4" s="355"/>
-      <c r="U4" s="355"/>
-      <c r="V4" s="355"/>
-      <c r="W4" s="355"/>
-      <c r="X4" s="355"/>
-      <c r="Y4" s="355"/>
-      <c r="Z4" s="355"/>
-      <c r="AA4" s="355"/>
-      <c r="AB4" s="355"/>
-      <c r="AC4" s="355"/>
-      <c r="AD4" s="355"/>
-      <c r="AE4" s="355"/>
-      <c r="AF4" s="355"/>
-      <c r="AG4" s="355"/>
-      <c r="AH4" s="355"/>
-      <c r="AI4" s="355"/>
-      <c r="AJ4" s="355"/>
-      <c r="AK4" s="355"/>
-      <c r="AL4" s="355"/>
-      <c r="AM4" s="355"/>
-      <c r="AN4" s="355"/>
-      <c r="AO4" s="355"/>
-      <c r="AP4" s="355"/>
-      <c r="AQ4" s="355"/>
-      <c r="AR4" s="355"/>
-      <c r="AS4" s="355"/>
-      <c r="AT4" s="355"/>
-      <c r="AU4" s="355"/>
-      <c r="AV4" s="355"/>
-      <c r="AW4" s="355"/>
-      <c r="AX4" s="355"/>
-      <c r="AY4" s="355"/>
-      <c r="AZ4" s="355"/>
-      <c r="BA4" s="355"/>
-      <c r="BB4" s="355"/>
-      <c r="BC4" s="355"/>
-      <c r="BD4" s="355"/>
-      <c r="BE4" s="355"/>
-      <c r="BF4" s="355"/>
-      <c r="BG4" s="355"/>
-      <c r="BH4" s="355"/>
-      <c r="BI4" s="355"/>
-      <c r="BJ4" s="355"/>
-      <c r="BK4" s="355"/>
-      <c r="BL4" s="355"/>
-      <c r="BM4" s="355"/>
-      <c r="BN4" s="355"/>
-      <c r="BO4" s="355"/>
-      <c r="BP4" s="355"/>
-      <c r="BQ4" s="355"/>
-      <c r="BR4" s="355"/>
-      <c r="BS4" s="355"/>
-      <c r="BT4" s="355"/>
-      <c r="BU4" s="355"/>
-      <c r="BV4" s="355"/>
-      <c r="BW4" s="355"/>
-      <c r="BX4" s="355"/>
-      <c r="BY4" s="355"/>
-      <c r="BZ4" s="355"/>
-      <c r="CA4" s="355"/>
-      <c r="CB4" s="355"/>
-      <c r="CC4" s="355"/>
-      <c r="CD4" s="355"/>
-      <c r="CE4" s="355"/>
-      <c r="CF4" s="355"/>
-      <c r="CG4" s="355"/>
-      <c r="CH4" s="355"/>
-      <c r="CI4" s="355"/>
-      <c r="CJ4" s="355"/>
-      <c r="CK4" s="355"/>
-      <c r="CL4" s="355"/>
-      <c r="CM4" s="355"/>
-      <c r="CN4" s="355"/>
-      <c r="CO4" s="355"/>
-      <c r="CP4" s="355"/>
-      <c r="CQ4" s="355"/>
-      <c r="CR4" s="355"/>
-      <c r="CS4" s="355"/>
-      <c r="CT4" s="355"/>
-      <c r="CU4" s="355"/>
-      <c r="CV4" s="355"/>
-      <c r="CW4" s="355"/>
-      <c r="CX4" s="355"/>
-      <c r="CY4" s="355"/>
-      <c r="CZ4" s="355"/>
-      <c r="DA4" s="355"/>
-      <c r="DB4" s="355"/>
-      <c r="DC4" s="355"/>
-      <c r="DD4" s="355"/>
-      <c r="DE4" s="355"/>
-      <c r="DF4" s="356"/>
-      <c r="DG4" s="357"/>
-      <c r="DH4" s="358"/>
-      <c r="DI4" s="358"/>
-      <c r="DJ4" s="358"/>
-      <c r="DK4" s="358"/>
-      <c r="DL4" s="358"/>
-      <c r="DM4" s="358"/>
-      <c r="DN4" s="358"/>
-      <c r="DO4" s="358"/>
-      <c r="DP4" s="358"/>
-      <c r="DQ4" s="358"/>
-      <c r="DR4" s="358"/>
-      <c r="DS4" s="358"/>
-      <c r="DT4" s="358"/>
-      <c r="DU4" s="358"/>
-      <c r="DV4" s="358"/>
-      <c r="DW4" s="358"/>
-      <c r="DX4" s="358"/>
-      <c r="DY4" s="358"/>
-      <c r="DZ4" s="358"/>
-      <c r="EA4" s="358"/>
-      <c r="EB4" s="358"/>
-      <c r="EC4" s="358"/>
-      <c r="ED4" s="358"/>
-      <c r="EE4" s="358"/>
-      <c r="EF4" s="358"/>
-      <c r="EG4" s="358"/>
-      <c r="EH4" s="358"/>
-      <c r="EI4" s="358"/>
-      <c r="EJ4" s="358"/>
-      <c r="EK4" s="358"/>
-      <c r="EL4" s="358"/>
-      <c r="EM4" s="358"/>
-      <c r="EN4" s="358"/>
-      <c r="EO4" s="359"/>
+      <c r="A4" s="316"/>
+      <c r="B4" s="317"/>
+      <c r="C4" s="317"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="317"/>
+      <c r="G4" s="317"/>
+      <c r="H4" s="317"/>
+      <c r="I4" s="317"/>
+      <c r="J4" s="317"/>
+      <c r="K4" s="317"/>
+      <c r="L4" s="317"/>
+      <c r="M4" s="317"/>
+      <c r="N4" s="317"/>
+      <c r="O4" s="317"/>
+      <c r="P4" s="317"/>
+      <c r="Q4" s="317"/>
+      <c r="R4" s="317"/>
+      <c r="S4" s="317"/>
+      <c r="T4" s="317"/>
+      <c r="U4" s="317"/>
+      <c r="V4" s="317"/>
+      <c r="W4" s="317"/>
+      <c r="X4" s="317"/>
+      <c r="Y4" s="317"/>
+      <c r="Z4" s="317"/>
+      <c r="AA4" s="317"/>
+      <c r="AB4" s="317"/>
+      <c r="AC4" s="317"/>
+      <c r="AD4" s="317"/>
+      <c r="AE4" s="317"/>
+      <c r="AF4" s="317"/>
+      <c r="AG4" s="317"/>
+      <c r="AH4" s="317"/>
+      <c r="AI4" s="317"/>
+      <c r="AJ4" s="317"/>
+      <c r="AK4" s="317"/>
+      <c r="AL4" s="317"/>
+      <c r="AM4" s="317"/>
+      <c r="AN4" s="317"/>
+      <c r="AO4" s="317"/>
+      <c r="AP4" s="317"/>
+      <c r="AQ4" s="317"/>
+      <c r="AR4" s="317"/>
+      <c r="AS4" s="317"/>
+      <c r="AT4" s="317"/>
+      <c r="AU4" s="317"/>
+      <c r="AV4" s="317"/>
+      <c r="AW4" s="317"/>
+      <c r="AX4" s="317"/>
+      <c r="AY4" s="317"/>
+      <c r="AZ4" s="317"/>
+      <c r="BA4" s="317"/>
+      <c r="BB4" s="317"/>
+      <c r="BC4" s="317"/>
+      <c r="BD4" s="317"/>
+      <c r="BE4" s="317"/>
+      <c r="BF4" s="317"/>
+      <c r="BG4" s="317"/>
+      <c r="BH4" s="317"/>
+      <c r="BI4" s="317"/>
+      <c r="BJ4" s="317"/>
+      <c r="BK4" s="317"/>
+      <c r="BL4" s="317"/>
+      <c r="BM4" s="317"/>
+      <c r="BN4" s="317"/>
+      <c r="BO4" s="317"/>
+      <c r="BP4" s="317"/>
+      <c r="BQ4" s="317"/>
+      <c r="BR4" s="317"/>
+      <c r="BS4" s="317"/>
+      <c r="BT4" s="317"/>
+      <c r="BU4" s="317"/>
+      <c r="BV4" s="317"/>
+      <c r="BW4" s="317"/>
+      <c r="BX4" s="317"/>
+      <c r="BY4" s="317"/>
+      <c r="BZ4" s="317"/>
+      <c r="CA4" s="317"/>
+      <c r="CB4" s="317"/>
+      <c r="CC4" s="317"/>
+      <c r="CD4" s="317"/>
+      <c r="CE4" s="317"/>
+      <c r="CF4" s="317"/>
+      <c r="CG4" s="317"/>
+      <c r="CH4" s="317"/>
+      <c r="CI4" s="317"/>
+      <c r="CJ4" s="317"/>
+      <c r="CK4" s="317"/>
+      <c r="CL4" s="317"/>
+      <c r="CM4" s="317"/>
+      <c r="CN4" s="317"/>
+      <c r="CO4" s="317"/>
+      <c r="CP4" s="317"/>
+      <c r="CQ4" s="317"/>
+      <c r="CR4" s="317"/>
+      <c r="CS4" s="317"/>
+      <c r="CT4" s="317"/>
+      <c r="CU4" s="317"/>
+      <c r="CV4" s="317"/>
+      <c r="CW4" s="317"/>
+      <c r="CX4" s="317"/>
+      <c r="CY4" s="317"/>
+      <c r="CZ4" s="317"/>
+      <c r="DA4" s="317"/>
+      <c r="DB4" s="317"/>
+      <c r="DC4" s="317"/>
+      <c r="DD4" s="317"/>
+      <c r="DE4" s="317"/>
+      <c r="DF4" s="318"/>
+      <c r="DG4" s="319"/>
+      <c r="DH4" s="320"/>
+      <c r="DI4" s="320"/>
+      <c r="DJ4" s="320"/>
+      <c r="DK4" s="320"/>
+      <c r="DL4" s="320"/>
+      <c r="DM4" s="320"/>
+      <c r="DN4" s="320"/>
+      <c r="DO4" s="320"/>
+      <c r="DP4" s="320"/>
+      <c r="DQ4" s="320"/>
+      <c r="DR4" s="320"/>
+      <c r="DS4" s="320"/>
+      <c r="DT4" s="320"/>
+      <c r="DU4" s="320"/>
+      <c r="DV4" s="320"/>
+      <c r="DW4" s="320"/>
+      <c r="DX4" s="320"/>
+      <c r="DY4" s="320"/>
+      <c r="DZ4" s="320"/>
+      <c r="EA4" s="320"/>
+      <c r="EB4" s="320"/>
+      <c r="EC4" s="320"/>
+      <c r="ED4" s="320"/>
+      <c r="EE4" s="320"/>
+      <c r="EF4" s="320"/>
+      <c r="EG4" s="320"/>
+      <c r="EH4" s="320"/>
+      <c r="EI4" s="320"/>
+      <c r="EJ4" s="320"/>
+      <c r="EK4" s="320"/>
+      <c r="EL4" s="320"/>
+      <c r="EM4" s="320"/>
+      <c r="EN4" s="320"/>
+      <c r="EO4" s="321"/>
       <c r="EP4" s="51"/>
     </row>
     <row r="5" spans="1:146" ht="16.5" thickTop="1">
-      <c r="A5" s="360" t="s">
+      <c r="A5" s="322" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="364" t="s">
+      <c r="B5" s="326" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="365"/>
-      <c r="D5" s="365"/>
-      <c r="E5" s="366"/>
+      <c r="C5" s="327"/>
+      <c r="D5" s="327"/>
+      <c r="E5" s="328"/>
       <c r="F5" s="52"/>
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
@@ -20997,13 +20402,13 @@
       <c r="EP5" s="60"/>
     </row>
     <row r="6" spans="1:146" ht="15.75">
-      <c r="A6" s="361"/>
-      <c r="B6" s="367" t="s">
+      <c r="A6" s="323"/>
+      <c r="B6" s="329" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="368"/>
-      <c r="D6" s="368"/>
-      <c r="E6" s="369"/>
+      <c r="C6" s="330"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="331"/>
       <c r="F6" s="61"/>
       <c r="G6" s="61"/>
       <c r="H6" s="61"/>
@@ -21147,13 +20552,13 @@
       <c r="EP6" s="60"/>
     </row>
     <row r="7" spans="1:146" ht="16.5" thickBot="1">
-      <c r="A7" s="362"/>
-      <c r="B7" s="370" t="s">
+      <c r="A7" s="324"/>
+      <c r="B7" s="332" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="372"/>
+      <c r="C7" s="333"/>
+      <c r="D7" s="333"/>
+      <c r="E7" s="334"/>
       <c r="F7" s="68" t="s">
         <v>45</v>
       </c>
@@ -21577,7 +20982,7 @@
       <c r="EP7" s="60"/>
     </row>
     <row r="8" spans="1:146" ht="16.5" thickBot="1">
-      <c r="A8" s="363"/>
+      <c r="A8" s="325"/>
       <c r="B8" s="71" t="s">
         <v>49</v>
       </c>
@@ -21733,15 +21138,15 @@
       <c r="EP8" s="60"/>
     </row>
     <row r="9" spans="1:146" ht="15" customHeight="1">
-      <c r="A9" s="350" t="s">
+      <c r="A9" s="378" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="337"/>
-      <c r="C9" s="339"/>
-      <c r="D9" s="341">
+      <c r="B9" s="380"/>
+      <c r="C9" s="382"/>
+      <c r="D9" s="384">
         <v>20</v>
       </c>
-      <c r="E9" s="343">
+      <c r="E9" s="386">
         <v>35</v>
       </c>
       <c r="F9" s="79"/>
@@ -21887,11 +21292,11 @@
       <c r="EP9" s="43"/>
     </row>
     <row r="10" spans="1:146" ht="15" customHeight="1">
-      <c r="A10" s="351"/>
-      <c r="B10" s="326"/>
-      <c r="C10" s="327"/>
-      <c r="D10" s="328"/>
-      <c r="E10" s="329"/>
+      <c r="A10" s="379"/>
+      <c r="B10" s="381"/>
+      <c r="C10" s="383"/>
+      <c r="D10" s="385"/>
+      <c r="E10" s="387"/>
       <c r="F10" s="85"/>
       <c r="G10" s="86"/>
       <c r="H10" s="86"/>
@@ -22035,15 +21440,15 @@
       <c r="EP10" s="43"/>
     </row>
     <row r="11" spans="1:146" ht="15" customHeight="1">
-      <c r="A11" s="352" t="s">
+      <c r="A11" s="388" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="337"/>
-      <c r="C11" s="339"/>
-      <c r="D11" s="341">
+      <c r="B11" s="380"/>
+      <c r="C11" s="382"/>
+      <c r="D11" s="384">
         <v>5</v>
       </c>
-      <c r="E11" s="343">
+      <c r="E11" s="386">
         <v>5</v>
       </c>
       <c r="F11" s="79"/>
@@ -22189,11 +21594,11 @@
       <c r="EP11" s="43"/>
     </row>
     <row r="12" spans="1:146" ht="15" customHeight="1">
-      <c r="A12" s="353"/>
-      <c r="B12" s="326"/>
-      <c r="C12" s="327"/>
-      <c r="D12" s="328"/>
-      <c r="E12" s="329"/>
+      <c r="A12" s="389"/>
+      <c r="B12" s="381"/>
+      <c r="C12" s="383"/>
+      <c r="D12" s="385"/>
+      <c r="E12" s="387"/>
       <c r="F12" s="85"/>
       <c r="G12" s="86"/>
       <c r="H12" s="86"/>
@@ -22337,15 +21742,15 @@
       <c r="EP12" s="43"/>
     </row>
     <row r="13" spans="1:146" ht="15" customHeight="1">
-      <c r="A13" s="346" t="s">
+      <c r="A13" s="390" t="s">
         <v>275</v>
       </c>
-      <c r="B13" s="317"/>
-      <c r="C13" s="319"/>
-      <c r="D13" s="321">
+      <c r="B13" s="392"/>
+      <c r="C13" s="393"/>
+      <c r="D13" s="394">
         <v>1</v>
       </c>
-      <c r="E13" s="323">
+      <c r="E13" s="395">
         <v>5</v>
       </c>
       <c r="F13" s="91"/>
@@ -22491,11 +21896,11 @@
       <c r="EP13" s="43"/>
     </row>
     <row r="14" spans="1:146" ht="15" customHeight="1">
-      <c r="A14" s="347"/>
-      <c r="B14" s="326"/>
-      <c r="C14" s="327"/>
-      <c r="D14" s="328"/>
-      <c r="E14" s="329"/>
+      <c r="A14" s="391"/>
+      <c r="B14" s="381"/>
+      <c r="C14" s="383"/>
+      <c r="D14" s="385"/>
+      <c r="E14" s="387"/>
       <c r="F14" s="85"/>
       <c r="G14" s="86"/>
       <c r="H14" s="86"/>
@@ -22639,15 +22044,15 @@
       <c r="EP14" s="43"/>
     </row>
     <row r="15" spans="1:146" ht="15" customHeight="1">
-      <c r="A15" s="348" t="s">
+      <c r="A15" s="396" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="317"/>
-      <c r="C15" s="319"/>
-      <c r="D15" s="321">
+      <c r="B15" s="392"/>
+      <c r="C15" s="393"/>
+      <c r="D15" s="394">
         <v>5</v>
       </c>
-      <c r="E15" s="323">
+      <c r="E15" s="395">
         <v>5</v>
       </c>
       <c r="F15" s="91"/>
@@ -22793,11 +22198,11 @@
       <c r="EP15" s="43"/>
     </row>
     <row r="16" spans="1:146" ht="15" customHeight="1">
-      <c r="A16" s="349"/>
-      <c r="B16" s="326"/>
-      <c r="C16" s="327"/>
-      <c r="D16" s="328"/>
-      <c r="E16" s="329"/>
+      <c r="A16" s="397"/>
+      <c r="B16" s="381"/>
+      <c r="C16" s="383"/>
+      <c r="D16" s="385"/>
+      <c r="E16" s="387"/>
       <c r="F16" s="85"/>
       <c r="G16" s="86"/>
       <c r="H16" s="86"/>
@@ -22941,15 +22346,15 @@
       <c r="EP16" s="43"/>
     </row>
     <row r="17" spans="1:146" ht="15" customHeight="1">
-      <c r="A17" s="334" t="s">
+      <c r="A17" s="398" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="336"/>
-      <c r="C17" s="338"/>
-      <c r="D17" s="340">
+      <c r="B17" s="400"/>
+      <c r="C17" s="401"/>
+      <c r="D17" s="402">
         <v>20</v>
       </c>
-      <c r="E17" s="342">
+      <c r="E17" s="403">
         <v>14</v>
       </c>
       <c r="F17" s="91"/>
@@ -23095,11 +22500,11 @@
       <c r="EP17" s="43"/>
     </row>
     <row r="18" spans="1:146" ht="15" customHeight="1">
-      <c r="A18" s="335"/>
-      <c r="B18" s="337"/>
-      <c r="C18" s="339"/>
-      <c r="D18" s="341"/>
-      <c r="E18" s="343"/>
+      <c r="A18" s="399"/>
+      <c r="B18" s="380"/>
+      <c r="C18" s="382"/>
+      <c r="D18" s="384"/>
+      <c r="E18" s="386"/>
       <c r="F18" s="85"/>
       <c r="G18" s="86"/>
       <c r="H18" s="86"/>
@@ -23243,15 +22648,15 @@
       <c r="EP18" s="43"/>
     </row>
     <row r="19" spans="1:146" ht="15" customHeight="1">
-      <c r="A19" s="344" t="s">
+      <c r="A19" s="404" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="317"/>
-      <c r="C19" s="319"/>
-      <c r="D19" s="321">
+      <c r="B19" s="392"/>
+      <c r="C19" s="393"/>
+      <c r="D19" s="394">
         <v>5</v>
       </c>
-      <c r="E19" s="323">
+      <c r="E19" s="395">
         <v>7</v>
       </c>
       <c r="F19" s="91"/>
@@ -23397,11 +22802,11 @@
       <c r="EP19" s="43"/>
     </row>
     <row r="20" spans="1:146" ht="15" customHeight="1">
-      <c r="A20" s="345"/>
-      <c r="B20" s="326"/>
-      <c r="C20" s="327"/>
-      <c r="D20" s="328"/>
-      <c r="E20" s="329"/>
+      <c r="A20" s="405"/>
+      <c r="B20" s="381"/>
+      <c r="C20" s="383"/>
+      <c r="D20" s="385"/>
+      <c r="E20" s="387"/>
       <c r="F20" s="85"/>
       <c r="G20" s="86"/>
       <c r="H20" s="86"/>
@@ -23545,15 +22950,15 @@
       <c r="EP20" s="43"/>
     </row>
     <row r="21" spans="1:146" ht="15" customHeight="1">
-      <c r="A21" s="330" t="s">
+      <c r="A21" s="406" t="s">
         <v>279</v>
       </c>
-      <c r="B21" s="317"/>
-      <c r="C21" s="319"/>
-      <c r="D21" s="321">
+      <c r="B21" s="392"/>
+      <c r="C21" s="393"/>
+      <c r="D21" s="394">
         <v>3</v>
       </c>
-      <c r="E21" s="323">
+      <c r="E21" s="395">
         <v>7</v>
       </c>
       <c r="F21" s="91"/>
@@ -23699,11 +23104,11 @@
       <c r="EP21" s="43"/>
     </row>
     <row r="22" spans="1:146" ht="15" customHeight="1">
-      <c r="A22" s="331"/>
-      <c r="B22" s="326"/>
-      <c r="C22" s="327"/>
-      <c r="D22" s="328"/>
-      <c r="E22" s="329"/>
+      <c r="A22" s="407"/>
+      <c r="B22" s="381"/>
+      <c r="C22" s="383"/>
+      <c r="D22" s="385"/>
+      <c r="E22" s="387"/>
       <c r="F22" s="85"/>
       <c r="G22" s="86"/>
       <c r="H22" s="86"/>
@@ -23847,15 +23252,15 @@
       <c r="EP22" s="43"/>
     </row>
     <row r="23" spans="1:146" ht="15" customHeight="1">
-      <c r="A23" s="332" t="s">
+      <c r="A23" s="408" t="s">
         <v>280</v>
       </c>
-      <c r="B23" s="317"/>
-      <c r="C23" s="319"/>
-      <c r="D23" s="321">
+      <c r="B23" s="392"/>
+      <c r="C23" s="393"/>
+      <c r="D23" s="394">
         <v>30</v>
       </c>
-      <c r="E23" s="323">
+      <c r="E23" s="395">
         <v>61</v>
       </c>
       <c r="F23" s="91"/>
@@ -24001,11 +23406,11 @@
       <c r="EP23" s="43"/>
     </row>
     <row r="24" spans="1:146" ht="15" customHeight="1">
-      <c r="A24" s="333"/>
-      <c r="B24" s="326"/>
-      <c r="C24" s="327"/>
-      <c r="D24" s="328"/>
-      <c r="E24" s="329"/>
+      <c r="A24" s="409"/>
+      <c r="B24" s="381"/>
+      <c r="C24" s="383"/>
+      <c r="D24" s="385"/>
+      <c r="E24" s="387"/>
       <c r="F24" s="85"/>
       <c r="G24" s="86"/>
       <c r="H24" s="86"/>
@@ -24149,11 +23554,11 @@
       <c r="EP24" s="43"/>
     </row>
     <row r="25" spans="1:146">
-      <c r="A25" s="315"/>
-      <c r="B25" s="317"/>
-      <c r="C25" s="319"/>
-      <c r="D25" s="321"/>
-      <c r="E25" s="323"/>
+      <c r="A25" s="410"/>
+      <c r="B25" s="392"/>
+      <c r="C25" s="393"/>
+      <c r="D25" s="394"/>
+      <c r="E25" s="395"/>
       <c r="F25" s="91"/>
       <c r="G25" s="92"/>
       <c r="H25" s="92"/>
@@ -24297,11 +23702,11 @@
       <c r="EP25" s="43"/>
     </row>
     <row r="26" spans="1:146">
-      <c r="A26" s="325"/>
-      <c r="B26" s="326"/>
-      <c r="C26" s="327"/>
-      <c r="D26" s="328"/>
-      <c r="E26" s="329"/>
+      <c r="A26" s="411"/>
+      <c r="B26" s="381"/>
+      <c r="C26" s="383"/>
+      <c r="D26" s="385"/>
+      <c r="E26" s="387"/>
       <c r="F26" s="85"/>
       <c r="G26" s="86"/>
       <c r="H26" s="86"/>
@@ -24445,11 +23850,11 @@
       <c r="EP26" s="43"/>
     </row>
     <row r="27" spans="1:146">
-      <c r="A27" s="315"/>
-      <c r="B27" s="317"/>
-      <c r="C27" s="319"/>
-      <c r="D27" s="321"/>
-      <c r="E27" s="323"/>
+      <c r="A27" s="410"/>
+      <c r="B27" s="392"/>
+      <c r="C27" s="393"/>
+      <c r="D27" s="394"/>
+      <c r="E27" s="395"/>
       <c r="F27" s="91"/>
       <c r="G27" s="92"/>
       <c r="H27" s="92"/>
@@ -24593,11 +23998,11 @@
       <c r="EP27" s="43"/>
     </row>
     <row r="28" spans="1:146">
-      <c r="A28" s="325"/>
-      <c r="B28" s="326"/>
-      <c r="C28" s="327"/>
-      <c r="D28" s="328"/>
-      <c r="E28" s="329"/>
+      <c r="A28" s="411"/>
+      <c r="B28" s="381"/>
+      <c r="C28" s="383"/>
+      <c r="D28" s="385"/>
+      <c r="E28" s="387"/>
       <c r="F28" s="85"/>
       <c r="G28" s="86"/>
       <c r="H28" s="86"/>
@@ -24741,11 +24146,11 @@
       <c r="EP28" s="43"/>
     </row>
     <row r="29" spans="1:146">
-      <c r="A29" s="315"/>
-      <c r="B29" s="317"/>
-      <c r="C29" s="319"/>
-      <c r="D29" s="321"/>
-      <c r="E29" s="323"/>
+      <c r="A29" s="410"/>
+      <c r="B29" s="392"/>
+      <c r="C29" s="393"/>
+      <c r="D29" s="394"/>
+      <c r="E29" s="395"/>
       <c r="F29" s="91"/>
       <c r="G29" s="92"/>
       <c r="H29" s="92"/>
@@ -24889,11 +24294,11 @@
       <c r="EP29" s="43"/>
     </row>
     <row r="30" spans="1:146">
-      <c r="A30" s="325"/>
-      <c r="B30" s="326"/>
-      <c r="C30" s="327"/>
-      <c r="D30" s="328"/>
-      <c r="E30" s="329"/>
+      <c r="A30" s="411"/>
+      <c r="B30" s="381"/>
+      <c r="C30" s="383"/>
+      <c r="D30" s="385"/>
+      <c r="E30" s="387"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
       <c r="H30" s="86"/>
@@ -25037,11 +24442,11 @@
       <c r="EP30" s="43"/>
     </row>
     <row r="31" spans="1:146">
-      <c r="A31" s="315"/>
-      <c r="B31" s="317"/>
-      <c r="C31" s="319"/>
-      <c r="D31" s="321"/>
-      <c r="E31" s="323"/>
+      <c r="A31" s="410"/>
+      <c r="B31" s="392"/>
+      <c r="C31" s="393"/>
+      <c r="D31" s="394"/>
+      <c r="E31" s="395"/>
       <c r="F31" s="91"/>
       <c r="G31" s="92"/>
       <c r="H31" s="92"/>
@@ -25185,11 +24590,11 @@
       <c r="EP31" s="43"/>
     </row>
     <row r="32" spans="1:146">
-      <c r="A32" s="325"/>
-      <c r="B32" s="326"/>
-      <c r="C32" s="327"/>
-      <c r="D32" s="328"/>
-      <c r="E32" s="329"/>
+      <c r="A32" s="411"/>
+      <c r="B32" s="381"/>
+      <c r="C32" s="383"/>
+      <c r="D32" s="385"/>
+      <c r="E32" s="387"/>
       <c r="F32" s="85"/>
       <c r="G32" s="86"/>
       <c r="H32" s="86"/>
@@ -25333,11 +24738,11 @@
       <c r="EP32" s="43"/>
     </row>
     <row r="33" spans="1:146">
-      <c r="A33" s="315"/>
-      <c r="B33" s="317"/>
-      <c r="C33" s="319"/>
-      <c r="D33" s="321"/>
-      <c r="E33" s="323"/>
+      <c r="A33" s="410"/>
+      <c r="B33" s="392"/>
+      <c r="C33" s="393"/>
+      <c r="D33" s="394"/>
+      <c r="E33" s="395"/>
       <c r="F33" s="91"/>
       <c r="G33" s="92"/>
       <c r="H33" s="92"/>
@@ -25481,11 +24886,11 @@
       <c r="EP33" s="43"/>
     </row>
     <row r="34" spans="1:146">
-      <c r="A34" s="325"/>
-      <c r="B34" s="326"/>
-      <c r="C34" s="327"/>
-      <c r="D34" s="328"/>
-      <c r="E34" s="329"/>
+      <c r="A34" s="411"/>
+      <c r="B34" s="381"/>
+      <c r="C34" s="383"/>
+      <c r="D34" s="385"/>
+      <c r="E34" s="387"/>
       <c r="F34" s="85"/>
       <c r="G34" s="86"/>
       <c r="H34" s="86"/>
@@ -25629,11 +25034,11 @@
       <c r="EP34" s="43"/>
     </row>
     <row r="35" spans="1:146">
-      <c r="A35" s="315"/>
-      <c r="B35" s="317"/>
-      <c r="C35" s="319"/>
-      <c r="D35" s="321"/>
-      <c r="E35" s="323"/>
+      <c r="A35" s="410"/>
+      <c r="B35" s="392"/>
+      <c r="C35" s="393"/>
+      <c r="D35" s="394"/>
+      <c r="E35" s="395"/>
       <c r="F35" s="91"/>
       <c r="G35" s="92"/>
       <c r="H35" s="92"/>
@@ -25777,11 +25182,11 @@
       <c r="EP35" s="43"/>
     </row>
     <row r="36" spans="1:146">
-      <c r="A36" s="325"/>
-      <c r="B36" s="326"/>
-      <c r="C36" s="327"/>
-      <c r="D36" s="328"/>
-      <c r="E36" s="329"/>
+      <c r="A36" s="411"/>
+      <c r="B36" s="381"/>
+      <c r="C36" s="383"/>
+      <c r="D36" s="385"/>
+      <c r="E36" s="387"/>
       <c r="F36" s="85"/>
       <c r="G36" s="86"/>
       <c r="H36" s="86"/>
@@ -25925,11 +25330,11 @@
       <c r="EP36" s="43"/>
     </row>
     <row r="37" spans="1:146">
-      <c r="A37" s="315"/>
-      <c r="B37" s="317"/>
-      <c r="C37" s="319"/>
-      <c r="D37" s="321"/>
-      <c r="E37" s="323"/>
+      <c r="A37" s="410"/>
+      <c r="B37" s="392"/>
+      <c r="C37" s="393"/>
+      <c r="D37" s="394"/>
+      <c r="E37" s="395"/>
       <c r="F37" s="91"/>
       <c r="G37" s="92"/>
       <c r="H37" s="92"/>
@@ -26073,11 +25478,11 @@
       <c r="EP37" s="43"/>
     </row>
     <row r="38" spans="1:146">
-      <c r="A38" s="325"/>
-      <c r="B38" s="326"/>
-      <c r="C38" s="327"/>
-      <c r="D38" s="328"/>
-      <c r="E38" s="329"/>
+      <c r="A38" s="411"/>
+      <c r="B38" s="381"/>
+      <c r="C38" s="383"/>
+      <c r="D38" s="385"/>
+      <c r="E38" s="387"/>
       <c r="F38" s="85"/>
       <c r="G38" s="86"/>
       <c r="H38" s="86"/>
@@ -26221,11 +25626,11 @@
       <c r="EP38" s="43"/>
     </row>
     <row r="39" spans="1:146">
-      <c r="A39" s="315"/>
-      <c r="B39" s="317"/>
-      <c r="C39" s="319"/>
-      <c r="D39" s="321"/>
-      <c r="E39" s="323"/>
+      <c r="A39" s="410"/>
+      <c r="B39" s="392"/>
+      <c r="C39" s="393"/>
+      <c r="D39" s="394"/>
+      <c r="E39" s="395"/>
       <c r="F39" s="91"/>
       <c r="G39" s="92"/>
       <c r="H39" s="92"/>
@@ -26369,11 +25774,11 @@
       <c r="EP39" s="43"/>
     </row>
     <row r="40" spans="1:146">
-      <c r="A40" s="325"/>
-      <c r="B40" s="326"/>
-      <c r="C40" s="327"/>
-      <c r="D40" s="328"/>
-      <c r="E40" s="329"/>
+      <c r="A40" s="411"/>
+      <c r="B40" s="381"/>
+      <c r="C40" s="383"/>
+      <c r="D40" s="385"/>
+      <c r="E40" s="387"/>
       <c r="F40" s="85"/>
       <c r="G40" s="86"/>
       <c r="H40" s="86"/>
@@ -26517,11 +25922,11 @@
       <c r="EP40" s="43"/>
     </row>
     <row r="41" spans="1:146">
-      <c r="A41" s="315"/>
-      <c r="B41" s="317"/>
-      <c r="C41" s="319"/>
-      <c r="D41" s="321"/>
-      <c r="E41" s="323"/>
+      <c r="A41" s="410"/>
+      <c r="B41" s="392"/>
+      <c r="C41" s="393"/>
+      <c r="D41" s="394"/>
+      <c r="E41" s="395"/>
       <c r="F41" s="91"/>
       <c r="G41" s="92"/>
       <c r="H41" s="92"/>
@@ -26665,11 +26070,11 @@
       <c r="EP41" s="43"/>
     </row>
     <row r="42" spans="1:146">
-      <c r="A42" s="325"/>
-      <c r="B42" s="326"/>
-      <c r="C42" s="327"/>
-      <c r="D42" s="328"/>
-      <c r="E42" s="329"/>
+      <c r="A42" s="411"/>
+      <c r="B42" s="381"/>
+      <c r="C42" s="383"/>
+      <c r="D42" s="385"/>
+      <c r="E42" s="387"/>
       <c r="F42" s="85"/>
       <c r="G42" s="86"/>
       <c r="H42" s="86"/>
@@ -26813,11 +26218,11 @@
       <c r="EP42" s="43"/>
     </row>
     <row r="43" spans="1:146">
-      <c r="A43" s="315"/>
-      <c r="B43" s="317"/>
-      <c r="C43" s="319"/>
-      <c r="D43" s="321"/>
-      <c r="E43" s="323"/>
+      <c r="A43" s="410"/>
+      <c r="B43" s="392"/>
+      <c r="C43" s="393"/>
+      <c r="D43" s="394"/>
+      <c r="E43" s="395"/>
       <c r="F43" s="91"/>
       <c r="G43" s="92"/>
       <c r="H43" s="92"/>
@@ -26961,11 +26366,11 @@
       <c r="EP43" s="43"/>
     </row>
     <row r="44" spans="1:146">
-      <c r="A44" s="325"/>
-      <c r="B44" s="326"/>
-      <c r="C44" s="327"/>
-      <c r="D44" s="328"/>
-      <c r="E44" s="329"/>
+      <c r="A44" s="411"/>
+      <c r="B44" s="381"/>
+      <c r="C44" s="383"/>
+      <c r="D44" s="385"/>
+      <c r="E44" s="387"/>
       <c r="F44" s="85"/>
       <c r="G44" s="86"/>
       <c r="H44" s="86"/>
@@ -27109,11 +26514,11 @@
       <c r="EP44" s="43"/>
     </row>
     <row r="45" spans="1:146">
-      <c r="A45" s="315"/>
-      <c r="B45" s="317"/>
-      <c r="C45" s="319"/>
-      <c r="D45" s="321"/>
-      <c r="E45" s="323"/>
+      <c r="A45" s="410"/>
+      <c r="B45" s="392"/>
+      <c r="C45" s="393"/>
+      <c r="D45" s="394"/>
+      <c r="E45" s="395"/>
       <c r="F45" s="91"/>
       <c r="G45" s="92"/>
       <c r="H45" s="92"/>
@@ -27257,11 +26662,11 @@
       <c r="EP45" s="43"/>
     </row>
     <row r="46" spans="1:146">
-      <c r="A46" s="325"/>
-      <c r="B46" s="326"/>
-      <c r="C46" s="327"/>
-      <c r="D46" s="328"/>
-      <c r="E46" s="329"/>
+      <c r="A46" s="411"/>
+      <c r="B46" s="381"/>
+      <c r="C46" s="383"/>
+      <c r="D46" s="385"/>
+      <c r="E46" s="387"/>
       <c r="F46" s="85"/>
       <c r="G46" s="86"/>
       <c r="H46" s="86"/>
@@ -27405,11 +26810,11 @@
       <c r="EP46" s="43"/>
     </row>
     <row r="47" spans="1:146">
-      <c r="A47" s="315"/>
-      <c r="B47" s="317"/>
-      <c r="C47" s="319"/>
-      <c r="D47" s="321"/>
-      <c r="E47" s="323"/>
+      <c r="A47" s="410"/>
+      <c r="B47" s="392"/>
+      <c r="C47" s="393"/>
+      <c r="D47" s="394"/>
+      <c r="E47" s="395"/>
       <c r="F47" s="91"/>
       <c r="G47" s="92"/>
       <c r="H47" s="92"/>
@@ -27553,11 +26958,11 @@
       <c r="EP47" s="43"/>
     </row>
     <row r="48" spans="1:146">
-      <c r="A48" s="325"/>
-      <c r="B48" s="326"/>
-      <c r="C48" s="327"/>
-      <c r="D48" s="328"/>
-      <c r="E48" s="329"/>
+      <c r="A48" s="411"/>
+      <c r="B48" s="381"/>
+      <c r="C48" s="383"/>
+      <c r="D48" s="385"/>
+      <c r="E48" s="387"/>
       <c r="F48" s="85"/>
       <c r="G48" s="86"/>
       <c r="H48" s="86"/>
@@ -27701,11 +27106,11 @@
       <c r="EP48" s="43"/>
     </row>
     <row r="49" spans="1:146">
-      <c r="A49" s="315"/>
-      <c r="B49" s="317"/>
-      <c r="C49" s="319"/>
-      <c r="D49" s="321"/>
-      <c r="E49" s="323"/>
+      <c r="A49" s="410"/>
+      <c r="B49" s="392"/>
+      <c r="C49" s="393"/>
+      <c r="D49" s="394"/>
+      <c r="E49" s="395"/>
       <c r="F49" s="91"/>
       <c r="G49" s="92"/>
       <c r="H49" s="92"/>
@@ -27849,11 +27254,11 @@
       <c r="EP49" s="43"/>
     </row>
     <row r="50" spans="1:146">
-      <c r="A50" s="325"/>
-      <c r="B50" s="326"/>
-      <c r="C50" s="327"/>
-      <c r="D50" s="328"/>
-      <c r="E50" s="329"/>
+      <c r="A50" s="411"/>
+      <c r="B50" s="381"/>
+      <c r="C50" s="383"/>
+      <c r="D50" s="385"/>
+      <c r="E50" s="387"/>
       <c r="F50" s="85"/>
       <c r="G50" s="86"/>
       <c r="H50" s="86"/>
@@ -27997,11 +27402,11 @@
       <c r="EP50" s="43"/>
     </row>
     <row r="51" spans="1:146">
-      <c r="A51" s="315"/>
-      <c r="B51" s="317"/>
-      <c r="C51" s="319"/>
-      <c r="D51" s="321"/>
-      <c r="E51" s="323"/>
+      <c r="A51" s="410"/>
+      <c r="B51" s="392"/>
+      <c r="C51" s="393"/>
+      <c r="D51" s="394"/>
+      <c r="E51" s="395"/>
       <c r="F51" s="91"/>
       <c r="G51" s="92"/>
       <c r="H51" s="92"/>
@@ -28145,11 +27550,11 @@
       <c r="EP51" s="43"/>
     </row>
     <row r="52" spans="1:146">
-      <c r="A52" s="325"/>
-      <c r="B52" s="326"/>
-      <c r="C52" s="327"/>
-      <c r="D52" s="328"/>
-      <c r="E52" s="329"/>
+      <c r="A52" s="411"/>
+      <c r="B52" s="381"/>
+      <c r="C52" s="383"/>
+      <c r="D52" s="385"/>
+      <c r="E52" s="387"/>
       <c r="F52" s="85"/>
       <c r="G52" s="86"/>
       <c r="H52" s="86"/>
@@ -28293,11 +27698,11 @@
       <c r="EP52" s="43"/>
     </row>
     <row r="53" spans="1:146">
-      <c r="A53" s="315"/>
-      <c r="B53" s="317"/>
-      <c r="C53" s="319"/>
-      <c r="D53" s="321"/>
-      <c r="E53" s="323"/>
+      <c r="A53" s="410"/>
+      <c r="B53" s="392"/>
+      <c r="C53" s="393"/>
+      <c r="D53" s="394"/>
+      <c r="E53" s="395"/>
       <c r="F53" s="91"/>
       <c r="G53" s="92"/>
       <c r="H53" s="92"/>
@@ -28441,11 +27846,11 @@
       <c r="EP53" s="43"/>
     </row>
     <row r="54" spans="1:146">
-      <c r="A54" s="325"/>
-      <c r="B54" s="326"/>
-      <c r="C54" s="327"/>
-      <c r="D54" s="328"/>
-      <c r="E54" s="329"/>
+      <c r="A54" s="411"/>
+      <c r="B54" s="381"/>
+      <c r="C54" s="383"/>
+      <c r="D54" s="385"/>
+      <c r="E54" s="387"/>
       <c r="F54" s="85"/>
       <c r="G54" s="86"/>
       <c r="H54" s="86"/>
@@ -28589,11 +27994,11 @@
       <c r="EP54" s="43"/>
     </row>
     <row r="55" spans="1:146">
-      <c r="A55" s="315"/>
-      <c r="B55" s="317"/>
-      <c r="C55" s="319"/>
-      <c r="D55" s="321"/>
-      <c r="E55" s="323"/>
+      <c r="A55" s="410"/>
+      <c r="B55" s="392"/>
+      <c r="C55" s="393"/>
+      <c r="D55" s="394"/>
+      <c r="E55" s="395"/>
       <c r="F55" s="91"/>
       <c r="G55" s="92"/>
       <c r="H55" s="92"/>
@@ -28737,11 +28142,11 @@
       <c r="EP55" s="43"/>
     </row>
     <row r="56" spans="1:146">
-      <c r="A56" s="325"/>
-      <c r="B56" s="326"/>
-      <c r="C56" s="327"/>
-      <c r="D56" s="328"/>
-      <c r="E56" s="329"/>
+      <c r="A56" s="411"/>
+      <c r="B56" s="381"/>
+      <c r="C56" s="383"/>
+      <c r="D56" s="385"/>
+      <c r="E56" s="387"/>
       <c r="F56" s="85"/>
       <c r="G56" s="86"/>
       <c r="H56" s="86"/>
@@ -28885,11 +28290,11 @@
       <c r="EP56" s="43"/>
     </row>
     <row r="57" spans="1:146">
-      <c r="A57" s="315"/>
-      <c r="B57" s="317"/>
-      <c r="C57" s="319"/>
-      <c r="D57" s="321"/>
-      <c r="E57" s="323"/>
+      <c r="A57" s="410"/>
+      <c r="B57" s="392"/>
+      <c r="C57" s="393"/>
+      <c r="D57" s="394"/>
+      <c r="E57" s="395"/>
       <c r="F57" s="91"/>
       <c r="G57" s="92"/>
       <c r="H57" s="92"/>
@@ -29033,11 +28438,11 @@
       <c r="EP57" s="43"/>
     </row>
     <row r="58" spans="1:146">
-      <c r="A58" s="325"/>
-      <c r="B58" s="326"/>
-      <c r="C58" s="327"/>
-      <c r="D58" s="328"/>
-      <c r="E58" s="329"/>
+      <c r="A58" s="411"/>
+      <c r="B58" s="381"/>
+      <c r="C58" s="383"/>
+      <c r="D58" s="385"/>
+      <c r="E58" s="387"/>
       <c r="F58" s="85"/>
       <c r="G58" s="86"/>
       <c r="H58" s="86"/>
@@ -29181,11 +28586,11 @@
       <c r="EP58" s="43"/>
     </row>
     <row r="59" spans="1:146">
-      <c r="A59" s="315"/>
-      <c r="B59" s="317"/>
-      <c r="C59" s="319"/>
-      <c r="D59" s="321"/>
-      <c r="E59" s="323"/>
+      <c r="A59" s="410"/>
+      <c r="B59" s="392"/>
+      <c r="C59" s="393"/>
+      <c r="D59" s="394"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="91"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
@@ -29329,11 +28734,11 @@
       <c r="EP59" s="43"/>
     </row>
     <row r="60" spans="1:146">
-      <c r="A60" s="325"/>
-      <c r="B60" s="326"/>
-      <c r="C60" s="327"/>
-      <c r="D60" s="328"/>
-      <c r="E60" s="329"/>
+      <c r="A60" s="411"/>
+      <c r="B60" s="381"/>
+      <c r="C60" s="383"/>
+      <c r="D60" s="385"/>
+      <c r="E60" s="387"/>
       <c r="F60" s="85"/>
       <c r="G60" s="86"/>
       <c r="H60" s="86"/>
@@ -29477,11 +28882,11 @@
       <c r="EP60" s="43"/>
     </row>
     <row r="61" spans="1:146">
-      <c r="A61" s="315"/>
-      <c r="B61" s="317"/>
-      <c r="C61" s="319"/>
-      <c r="D61" s="321"/>
-      <c r="E61" s="323"/>
+      <c r="A61" s="410"/>
+      <c r="B61" s="392"/>
+      <c r="C61" s="393"/>
+      <c r="D61" s="394"/>
+      <c r="E61" s="395"/>
       <c r="F61" s="91"/>
       <c r="G61" s="92"/>
       <c r="H61" s="92"/>
@@ -29625,11 +29030,11 @@
       <c r="EP61" s="43"/>
     </row>
     <row r="62" spans="1:146">
-      <c r="A62" s="325"/>
-      <c r="B62" s="326"/>
-      <c r="C62" s="327"/>
-      <c r="D62" s="328"/>
-      <c r="E62" s="329"/>
+      <c r="A62" s="411"/>
+      <c r="B62" s="381"/>
+      <c r="C62" s="383"/>
+      <c r="D62" s="385"/>
+      <c r="E62" s="387"/>
       <c r="F62" s="85"/>
       <c r="G62" s="86"/>
       <c r="H62" s="86"/>
@@ -29773,11 +29178,11 @@
       <c r="EP62" s="43"/>
     </row>
     <row r="63" spans="1:146">
-      <c r="A63" s="315"/>
-      <c r="B63" s="317"/>
-      <c r="C63" s="319"/>
-      <c r="D63" s="321"/>
-      <c r="E63" s="323"/>
+      <c r="A63" s="410"/>
+      <c r="B63" s="392"/>
+      <c r="C63" s="393"/>
+      <c r="D63" s="394"/>
+      <c r="E63" s="395"/>
       <c r="F63" s="91"/>
       <c r="G63" s="92"/>
       <c r="H63" s="92"/>
@@ -29921,11 +29326,11 @@
       <c r="EP63" s="43"/>
     </row>
     <row r="64" spans="1:146">
-      <c r="A64" s="325"/>
-      <c r="B64" s="326"/>
-      <c r="C64" s="327"/>
-      <c r="D64" s="328"/>
-      <c r="E64" s="329"/>
+      <c r="A64" s="411"/>
+      <c r="B64" s="381"/>
+      <c r="C64" s="383"/>
+      <c r="D64" s="385"/>
+      <c r="E64" s="387"/>
       <c r="F64" s="85"/>
       <c r="G64" s="86"/>
       <c r="H64" s="86"/>
@@ -30069,11 +29474,11 @@
       <c r="EP64" s="43"/>
     </row>
     <row r="65" spans="1:146">
-      <c r="A65" s="315"/>
-      <c r="B65" s="317"/>
-      <c r="C65" s="319"/>
-      <c r="D65" s="321"/>
-      <c r="E65" s="323"/>
+      <c r="A65" s="410"/>
+      <c r="B65" s="392"/>
+      <c r="C65" s="393"/>
+      <c r="D65" s="394"/>
+      <c r="E65" s="395"/>
       <c r="F65" s="91"/>
       <c r="G65" s="92"/>
       <c r="H65" s="92"/>
@@ -30217,11 +29622,11 @@
       <c r="EP65" s="43"/>
     </row>
     <row r="66" spans="1:146" ht="15.75" thickBot="1">
-      <c r="A66" s="316"/>
-      <c r="B66" s="318"/>
-      <c r="C66" s="320"/>
-      <c r="D66" s="322"/>
-      <c r="E66" s="324"/>
+      <c r="A66" s="412"/>
+      <c r="B66" s="413"/>
+      <c r="C66" s="414"/>
+      <c r="D66" s="415"/>
+      <c r="E66" s="416"/>
       <c r="F66" s="98"/>
       <c r="G66" s="99"/>
       <c r="H66" s="99"/>
@@ -32016,6 +31421,151 @@
     </row>
   </sheetData>
   <mergeCells count="165">
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A4:DF4"/>
     <mergeCell ref="DG4:EO4"/>
     <mergeCell ref="A5:A8"/>
@@ -32036,151 +31586,6 @@
     <mergeCell ref="AJ2:AT2"/>
     <mergeCell ref="AU2:BG2"/>
     <mergeCell ref="BJ2:CG2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32197,7 +31602,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -32232,39 +31637,39 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="416" t="s">
+      <c r="A3" s="430" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="417"/>
-      <c r="C3" s="418" t="s">
+      <c r="B3" s="431"/>
+      <c r="C3" s="432" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="418"/>
-      <c r="E3" s="419"/>
+      <c r="D3" s="432"/>
+      <c r="E3" s="433"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="41.25" customHeight="1">
-      <c r="A4" s="420" t="s">
+      <c r="A4" s="434" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="421"/>
-      <c r="C4" s="422" t="s">
+      <c r="B4" s="435"/>
+      <c r="C4" s="436" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="423"/>
-      <c r="E4" s="424"/>
+      <c r="D4" s="437"/>
+      <c r="E4" s="438"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="431" t="s">
+      <c r="A5" s="445" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="432"/>
-      <c r="C5" s="429">
+      <c r="B5" s="446"/>
+      <c r="C5" s="443">
         <v>43592</v>
       </c>
-      <c r="D5" s="429"/>
-      <c r="E5" s="430"/>
+      <c r="D5" s="443"/>
+      <c r="E5" s="444"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1">
@@ -32276,34 +31681,34 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A7" s="425" t="s">
+      <c r="A7" s="439" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="427" t="s">
+      <c r="B7" s="441" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="427"/>
+      <c r="C7" s="441"/>
       <c r="D7" s="135" t="s">
         <v>141</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="433" t="s">
+      <c r="F7" s="421" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="434"/>
-      <c r="H7" s="435"/>
-      <c r="I7" s="436" t="s">
+      <c r="G7" s="422"/>
+      <c r="H7" s="423"/>
+      <c r="I7" s="424" t="s">
         <v>142</v>
       </c>
-      <c r="J7" s="437"/>
-      <c r="K7" s="438"/>
+      <c r="J7" s="425"/>
+      <c r="K7" s="426"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A8" s="426"/>
-      <c r="B8" s="428"/>
-      <c r="C8" s="428"/>
+      <c r="A8" s="440"/>
+      <c r="B8" s="442"/>
+      <c r="C8" s="442"/>
       <c r="D8" s="136" t="s">
         <v>0</v>
       </c>
@@ -32333,10 +31738,10 @@
       <c r="A9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="444" t="s">
+      <c r="B9" s="429" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="444"/>
+      <c r="C9" s="429"/>
       <c r="D9" s="24">
         <v>70</v>
       </c>
@@ -32364,10 +31769,10 @@
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="443" t="s">
+      <c r="B10" s="417" t="s">
         <v>252</v>
       </c>
-      <c r="C10" s="443"/>
+      <c r="C10" s="417"/>
       <c r="D10" s="5">
         <v>2</v>
       </c>
@@ -32395,10 +31800,10 @@
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="443" t="s">
+      <c r="B11" s="417" t="s">
         <v>254</v>
       </c>
-      <c r="C11" s="443"/>
+      <c r="C11" s="417"/>
       <c r="D11" s="5">
         <v>25</v>
       </c>
@@ -32426,10 +31831,10 @@
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="443" t="s">
+      <c r="B12" s="417" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="443"/>
+      <c r="C12" s="417"/>
       <c r="D12" s="5">
         <v>50</v>
       </c>
@@ -32457,10 +31862,10 @@
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="439" t="s">
+      <c r="B13" s="427" t="s">
         <v>302</v>
       </c>
-      <c r="C13" s="440"/>
+      <c r="C13" s="428"/>
       <c r="D13" s="5">
         <v>35</v>
       </c>
@@ -32488,10 +31893,10 @@
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="443" t="s">
+      <c r="B14" s="417" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="443"/>
+      <c r="C14" s="417"/>
       <c r="D14" s="5">
         <v>20</v>
       </c>
@@ -32519,10 +31924,10 @@
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="443" t="s">
+      <c r="B15" s="417" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="443"/>
+      <c r="C15" s="417"/>
       <c r="D15" s="5">
         <v>70</v>
       </c>
@@ -32550,10 +31955,10 @@
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="443" t="s">
+      <c r="B16" s="417" t="s">
         <v>284</v>
       </c>
-      <c r="C16" s="443"/>
+      <c r="C16" s="417"/>
       <c r="D16" s="5">
         <v>85</v>
       </c>
@@ -32581,10 +31986,10 @@
       <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="443" t="s">
+      <c r="B17" s="417" t="s">
         <v>300</v>
       </c>
-      <c r="C17" s="443"/>
+      <c r="C17" s="417"/>
       <c r="D17" s="5">
         <v>20</v>
       </c>
@@ -32612,15 +32017,15 @@
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="439" t="s">
+      <c r="B18" s="427" t="s">
         <v>301</v>
       </c>
-      <c r="C18" s="440"/>
+      <c r="C18" s="428"/>
       <c r="D18" s="5">
         <v>20</v>
       </c>
       <c r="E18" s="134">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>316</v>
@@ -32643,8 +32048,8 @@
       <c r="A19" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="439"/>
-      <c r="C19" s="440"/>
+      <c r="B19" s="427"/>
+      <c r="C19" s="428"/>
       <c r="D19" s="5"/>
       <c r="E19" s="134"/>
       <c r="F19" s="12"/>
@@ -32658,8 +32063,8 @@
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="441"/>
-      <c r="C20" s="442"/>
+      <c r="B20" s="419"/>
+      <c r="C20" s="420"/>
       <c r="D20" s="5"/>
       <c r="E20" s="134"/>
       <c r="F20" s="12"/>
@@ -32673,8 +32078,8 @@
       <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="441"/>
-      <c r="C21" s="442"/>
+      <c r="B21" s="419"/>
+      <c r="C21" s="420"/>
       <c r="D21" s="5"/>
       <c r="E21" s="134"/>
       <c r="F21" s="12"/>
@@ -32688,8 +32093,8 @@
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="441"/>
-      <c r="C22" s="442"/>
+      <c r="B22" s="419"/>
+      <c r="C22" s="420"/>
       <c r="D22" s="5"/>
       <c r="E22" s="134"/>
       <c r="F22" s="12"/>
@@ -32703,8 +32108,8 @@
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="443"/>
-      <c r="C23" s="443"/>
+      <c r="B23" s="417"/>
+      <c r="C23" s="417"/>
       <c r="D23" s="5"/>
       <c r="E23" s="134"/>
       <c r="F23" s="12"/>
@@ -32718,8 +32123,8 @@
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="441"/>
-      <c r="C24" s="442"/>
+      <c r="B24" s="419"/>
+      <c r="C24" s="420"/>
       <c r="D24" s="5"/>
       <c r="E24" s="134"/>
       <c r="F24" s="12"/>
@@ -32733,8 +32138,8 @@
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="441"/>
-      <c r="C25" s="442"/>
+      <c r="B25" s="419"/>
+      <c r="C25" s="420"/>
       <c r="D25" s="5"/>
       <c r="E25" s="134"/>
       <c r="F25" s="12"/>
@@ -32748,8 +32153,8 @@
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="441"/>
-      <c r="C26" s="442"/>
+      <c r="B26" s="419"/>
+      <c r="C26" s="420"/>
       <c r="D26" s="5"/>
       <c r="E26" s="134"/>
       <c r="F26" s="12"/>
@@ -32763,8 +32168,8 @@
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="441"/>
-      <c r="C27" s="442"/>
+      <c r="B27" s="419"/>
+      <c r="C27" s="420"/>
       <c r="D27" s="5"/>
       <c r="E27" s="134"/>
       <c r="F27" s="12"/>
@@ -32778,8 +32183,8 @@
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="441"/>
-      <c r="C28" s="442"/>
+      <c r="B28" s="419"/>
+      <c r="C28" s="420"/>
       <c r="D28" s="5"/>
       <c r="E28" s="134"/>
       <c r="F28" s="12"/>
@@ -32793,8 +32198,8 @@
       <c r="A29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="443"/>
-      <c r="C29" s="443"/>
+      <c r="B29" s="417"/>
+      <c r="C29" s="417"/>
       <c r="D29" s="5"/>
       <c r="E29" s="134"/>
       <c r="F29" s="12"/>
@@ -32808,8 +32213,8 @@
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="443"/>
-      <c r="C30" s="443"/>
+      <c r="B30" s="417"/>
+      <c r="C30" s="417"/>
       <c r="D30" s="5"/>
       <c r="E30" s="134"/>
       <c r="F30" s="12"/>
@@ -32823,8 +32228,8 @@
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="443"/>
-      <c r="C31" s="443"/>
+      <c r="B31" s="417"/>
+      <c r="C31" s="417"/>
       <c r="D31" s="5"/>
       <c r="E31" s="134"/>
       <c r="F31" s="12"/>
@@ -32838,8 +32243,8 @@
       <c r="A32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="443"/>
-      <c r="C32" s="443"/>
+      <c r="B32" s="417"/>
+      <c r="C32" s="417"/>
       <c r="D32" s="5"/>
       <c r="E32" s="134"/>
       <c r="F32" s="12"/>
@@ -32853,8 +32258,8 @@
       <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="443"/>
-      <c r="C33" s="443"/>
+      <c r="B33" s="417"/>
+      <c r="C33" s="417"/>
       <c r="D33" s="5"/>
       <c r="E33" s="134"/>
       <c r="F33" s="12"/>
@@ -32868,8 +32273,8 @@
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="443"/>
-      <c r="C34" s="443"/>
+      <c r="B34" s="417"/>
+      <c r="C34" s="417"/>
       <c r="D34" s="5"/>
       <c r="E34" s="134"/>
       <c r="F34" s="12"/>
@@ -32883,8 +32288,8 @@
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="443"/>
-      <c r="C35" s="443"/>
+      <c r="B35" s="417"/>
+      <c r="C35" s="417"/>
       <c r="D35" s="5"/>
       <c r="E35" s="134"/>
       <c r="F35" s="12"/>
@@ -32898,8 +32303,8 @@
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="443"/>
-      <c r="C36" s="443"/>
+      <c r="B36" s="417"/>
+      <c r="C36" s="417"/>
       <c r="D36" s="5"/>
       <c r="E36" s="134"/>
       <c r="F36" s="12"/>
@@ -32913,8 +32318,8 @@
       <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="443"/>
-      <c r="C37" s="443"/>
+      <c r="B37" s="417"/>
+      <c r="C37" s="417"/>
       <c r="D37" s="5"/>
       <c r="E37" s="134"/>
       <c r="F37" s="12"/>
@@ -32928,8 +32333,8 @@
       <c r="A38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="445"/>
-      <c r="C38" s="445"/>
+      <c r="B38" s="418"/>
+      <c r="C38" s="418"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
       <c r="F38" s="13"/>
@@ -32941,24 +32346,14 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="B18:C18"/>
@@ -32973,14 +32368,24 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
@@ -32993,20 +32398,72 @@
   <sheetPr codeName="Tabelle12">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="J1:J15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="145"/>
     <col min="3" max="3" width="11.42578125" style="145" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="145"/>
+    <col min="4" max="9" width="11.42578125" style="145"/>
+    <col min="10" max="10" width="31" style="145" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1"/>
+    <row r="1" spans="10:10" ht="14.25" customHeight="1"/>
+    <row r="6" spans="10:10">
+      <c r="J6" s="219" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="10:10">
+      <c r="J7" s="219" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="10:10">
+      <c r="J8" s="219" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="10:10">
+      <c r="J9" s="219" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="10:10">
+      <c r="J10" s="219" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="10:10">
+      <c r="J11" s="219" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="10:10">
+      <c r="J12" s="219" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="10:10">
+      <c r="J13" s="219" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="10:10">
+      <c r="J14" s="219" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="10:10">
+      <c r="J15" s="219" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>

--- a/Doku/Projektmappe.xlsx
+++ b/Doku/Projektmappe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Inhalt" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="343">
   <si>
     <t>(0-100%)</t>
   </si>
@@ -1293,6 +1293,12 @@
   <si>
     <t>Entwickler fällt aus</t>
   </si>
+  <si>
+    <t>https://github.com/valeriapag/E-Mood-Tracker</t>
+  </si>
+  <si>
+    <t>Githublink:</t>
+  </si>
 </sst>
 </file>
 
@@ -1302,7 +1308,7 @@
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1598,6 +1604,13 @@
       <sz val="11"/>
       <color theme="6" tint="-0.499984740745262"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.8000000000000007"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3793,10 +3806,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="452">
+  <cellXfs count="454">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4137,50 +4154,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4215,16 +4193,58 @@
     <xf numFmtId="0" fontId="30" fillId="26" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4236,11 +4256,96 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4260,12 +4365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4284,89 +4383,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="134" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4420,8 +4440,82 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4575,122 +4669,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4742,10 +4720,49 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4754,11 +4771,14 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9853,7 +9873,7 @@
         <xdr:cNvPr id="7" name="Titel 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9927,7 +9947,7 @@
         <xdr:cNvPr id="8" name="Untertitel 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10251,7 +10271,7 @@
         <xdr:cNvPr id="3" name="Rechteck 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10318,7 +10338,7 @@
         <xdr:cNvPr id="10" name="Titel 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10397,7 +10417,7 @@
         <xdr:cNvPr id="11" name="Inhaltsplatzhalter 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10745,7 +10765,7 @@
         <xdr:cNvPr id="12" name="Titel 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10824,7 +10844,7 @@
         <xdr:cNvPr id="13" name="Inhaltsplatzhalter 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11135,7 +11155,7 @@
         <xdr:cNvPr id="14" name="Textplatzhalter 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11434,7 +11454,7 @@
         <xdr:cNvPr id="15" name="Titel 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11513,7 +11533,7 @@
         <xdr:cNvPr id="16" name="Inhaltsplatzhalter 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11807,7 +11827,7 @@
         <xdr:cNvPr id="17" name="Textplatzhalter 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12110,7 +12130,7 @@
         <xdr:cNvPr id="18" name="Titel 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12189,7 +12209,7 @@
         <xdr:cNvPr id="20" name="Textplatzhalter 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12488,7 +12508,7 @@
         <xdr:cNvPr id="21" name="Picture 20" descr="use_case.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12532,7 +12552,7 @@
         <xdr:cNvPr id="22" name="Picture 21" descr="01_Login.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12576,7 +12596,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="02_Startseite_Psych.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12615,7 +12635,7 @@
         <xdr:cNvPr id="24" name="TextBox 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12675,7 +12695,7 @@
         <xdr:cNvPr id="25" name="Picture 24" descr="03_dropdown_psych.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12719,7 +12739,7 @@
         <xdr:cNvPr id="26" name="Picture 25" descr="04_Patient_anlegen.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12763,7 +12783,7 @@
         <xdr:cNvPr id="27" name="Picture 26" descr="05_Patientensuche.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12807,7 +12827,7 @@
         <xdr:cNvPr id="28" name="Picture 27" descr="05_Patientensuche.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12851,7 +12871,7 @@
         <xdr:cNvPr id="29" name="Picture 28" descr="07_Diagramm.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12895,7 +12915,7 @@
         <xdr:cNvPr id="30" name="Picture 29" descr="08_Tagebuch_ausfüllen.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12939,7 +12959,7 @@
         <xdr:cNvPr id="31" name="Picture 30" descr="09_ausgefülltes_Tagebuch.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12983,7 +13003,7 @@
         <xdr:cNvPr id="32" name="Picture 31" descr="10_speichern_ändern.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13027,7 +13047,7 @@
         <xdr:cNvPr id="33" name="Picture 32" descr="11_ausgeloggt_seite.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13071,7 +13091,7 @@
         <xdr:cNvPr id="34" name="Picture 33" descr="Entwurf_Ehealth_Datenbank.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13120,7 +13140,7 @@
         <xdr:cNvPr id="14346" name="Grafik 1" descr="Kopfzeile">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A380000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A380000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13132,7 +13152,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13155,14 +13175,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13199,7 +13219,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13240,7 +13260,7 @@
         <xdr:cNvPr id="9" name="Gerade Verbindung mit Pfeil 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13293,7 +13313,7 @@
         <xdr:cNvPr id="54" name="Raute 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000036000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13372,7 +13392,7 @@
         <xdr:cNvPr id="55" name="Gerade Verbindung mit Pfeil 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000037000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13428,7 +13448,7 @@
         <xdr:cNvPr id="56" name="Raute 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13507,7 +13527,7 @@
         <xdr:cNvPr id="57" name="Gerade Verbindung mit Pfeil 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000039000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13563,7 +13583,7 @@
         <xdr:cNvPr id="30" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13619,7 +13639,7 @@
         <xdr:cNvPr id="31" name="Gerader Verbinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13669,7 +13689,7 @@
         <xdr:cNvPr id="35" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13725,7 +13745,7 @@
         <xdr:cNvPr id="36" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13781,7 +13801,7 @@
         <xdr:cNvPr id="48" name="Gerader Verbinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13831,7 +13851,7 @@
         <xdr:cNvPr id="52" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13887,7 +13907,7 @@
         <xdr:cNvPr id="53" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13943,7 +13963,7 @@
         <xdr:cNvPr id="60" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13999,7 +14019,7 @@
         <xdr:cNvPr id="63" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14055,7 +14075,7 @@
         <xdr:cNvPr id="69" name="Gerader Verbinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14105,7 +14125,7 @@
         <xdr:cNvPr id="70" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14161,7 +14181,7 @@
         <xdr:cNvPr id="71" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14217,7 +14237,7 @@
         <xdr:cNvPr id="72" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14273,7 +14293,7 @@
         <xdr:cNvPr id="74" name="Gerader Verbinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14323,7 +14343,7 @@
         <xdr:cNvPr id="75" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14379,7 +14399,7 @@
         <xdr:cNvPr id="77" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14435,7 +14455,7 @@
         <xdr:cNvPr id="79" name="Gerader Verbinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14485,7 +14505,7 @@
         <xdr:cNvPr id="80" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14541,7 +14561,7 @@
         <xdr:cNvPr id="81" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14597,7 +14617,7 @@
         <xdr:cNvPr id="84" name="Gerader Verbinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14647,7 +14667,7 @@
         <xdr:cNvPr id="95" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14703,7 +14723,7 @@
         <xdr:cNvPr id="97" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14764,7 +14784,7 @@
         <xdr:cNvPr id="8212" name="Picture 3" descr="04 Logo_8x1,9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000014200000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14776,7 +14796,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14799,14 +14819,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14843,7 +14863,7 @@
         <xdr:cNvPr id="41985" name="Grafik 1" descr="Kopfzeile_quer.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000001A40000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001A40000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14855,7 +14875,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14878,14 +14898,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14922,7 +14942,7 @@
         <xdr:cNvPr id="43009" name="Grafik 2" descr="Kopfzeile_quer.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000001A80000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000001A80000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14934,7 +14954,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14957,14 +14977,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14996,7 +15016,7 @@
         <xdr:cNvPr id="5" name="Textfeld 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15778,33 +15798,33 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="239" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1">
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="233" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="222"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="235"/>
       <c r="H4" s="148"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1">
-      <c r="B5" s="223"/>
-      <c r="C5" s="224"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="224"/>
-      <c r="F5" s="224"/>
-      <c r="G5" s="225"/>
+      <c r="B5" s="236"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="238"/>
       <c r="H5" s="148"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1">
@@ -15818,34 +15838,34 @@
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1">
       <c r="B7" s="150"/>
-      <c r="C7" s="235" t="s">
+      <c r="C7" s="222" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="237"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="224"/>
       <c r="G7" s="155"/>
       <c r="H7" s="149"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1">
       <c r="B8" s="150"/>
       <c r="C8" s="150"/>
-      <c r="D8" s="238" t="s">
+      <c r="D8" s="225" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="238"/>
-      <c r="F8" s="239"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="226"/>
       <c r="G8" s="155"/>
       <c r="H8" s="149"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1">
       <c r="B9" s="150"/>
       <c r="C9" s="151"/>
-      <c r="D9" s="230" t="s">
+      <c r="D9" s="220" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="230"/>
-      <c r="F9" s="231"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="221"/>
       <c r="G9" s="155"/>
       <c r="H9" s="149"/>
     </row>
@@ -15860,32 +15880,32 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="152"/>
-      <c r="C11" s="240" t="s">
+      <c r="C11" s="227" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="241"/>
-      <c r="E11" s="241"/>
-      <c r="F11" s="242"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="229"/>
       <c r="G11" s="142"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="152"/>
       <c r="C12" s="152"/>
-      <c r="D12" s="238" t="s">
+      <c r="D12" s="225" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="238"/>
-      <c r="F12" s="239"/>
+      <c r="E12" s="225"/>
+      <c r="F12" s="226"/>
       <c r="G12" s="142"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="152"/>
       <c r="C13" s="153"/>
-      <c r="D13" s="230" t="s">
+      <c r="D13" s="220" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="230"/>
-      <c r="F13" s="231"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="221"/>
       <c r="G13" s="142"/>
     </row>
     <row r="14" spans="2:8">
@@ -15906,32 +15926,32 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="152"/>
-      <c r="C16" s="243" t="s">
+      <c r="C16" s="230" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="244"/>
-      <c r="E16" s="244"/>
-      <c r="F16" s="245"/>
+      <c r="D16" s="231"/>
+      <c r="E16" s="231"/>
+      <c r="F16" s="232"/>
       <c r="G16" s="142"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="152"/>
       <c r="C17" s="152"/>
-      <c r="D17" s="238" t="s">
+      <c r="D17" s="225" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="238"/>
-      <c r="F17" s="239"/>
+      <c r="E17" s="225"/>
+      <c r="F17" s="226"/>
       <c r="G17" s="142"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="152"/>
       <c r="C18" s="153"/>
-      <c r="D18" s="230" t="s">
+      <c r="D18" s="220" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="230"/>
-      <c r="F18" s="231"/>
+      <c r="E18" s="220"/>
+      <c r="F18" s="221"/>
       <c r="G18" s="142"/>
     </row>
     <row r="19" spans="2:7">
@@ -15952,22 +15972,22 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="152"/>
-      <c r="C21" s="227" t="s">
+      <c r="C21" s="240" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="228"/>
-      <c r="E21" s="228"/>
-      <c r="F21" s="229"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="241"/>
+      <c r="F21" s="242"/>
       <c r="G21" s="142"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="152"/>
       <c r="C22" s="153"/>
-      <c r="D22" s="230" t="s">
+      <c r="D22" s="220" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="230"/>
-      <c r="F22" s="231"/>
+      <c r="E22" s="220"/>
+      <c r="F22" s="221"/>
       <c r="G22" s="142"/>
     </row>
     <row r="23" spans="2:7">
@@ -15988,22 +16008,22 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="152"/>
-      <c r="C25" s="232" t="s">
+      <c r="C25" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="233"/>
-      <c r="E25" s="233"/>
-      <c r="F25" s="234"/>
+      <c r="D25" s="244"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="245"/>
       <c r="G25" s="142"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="152"/>
       <c r="C26" s="153"/>
-      <c r="D26" s="230" t="s">
+      <c r="D26" s="220" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="230"/>
-      <c r="F26" s="231"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="221"/>
       <c r="G26" s="142"/>
     </row>
     <row r="27" spans="2:7">
@@ -16016,6 +16036,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="C25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="D8:F8"/>
@@ -16026,11 +16051,6 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="C25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16056,310 +16076,272 @@
   <sheetData>
     <row r="1" spans="2:11" s="145" customFormat="1"/>
     <row r="2" spans="2:11" ht="18.75">
-      <c r="B2" s="451" t="s">
+      <c r="B2" s="447" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="451"/>
-      <c r="D2" s="451" t="s">
+      <c r="C2" s="447"/>
+      <c r="D2" s="447" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="451"/>
-      <c r="F2" s="451" t="s">
+      <c r="E2" s="447"/>
+      <c r="F2" s="447" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="451"/>
-      <c r="H2" s="451" t="s">
+      <c r="G2" s="447"/>
+      <c r="H2" s="447" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="451"/>
-      <c r="J2" s="451" t="s">
+      <c r="I2" s="447"/>
+      <c r="J2" s="447" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="451"/>
+      <c r="K2" s="447"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="447">
+      <c r="B3" s="448">
         <v>1</v>
       </c>
-      <c r="C3" s="447"/>
-      <c r="D3" s="447" t="s">
+      <c r="C3" s="448"/>
+      <c r="D3" s="448" t="s">
         <v>321</v>
       </c>
-      <c r="E3" s="447"/>
-      <c r="F3" s="447" t="s">
+      <c r="E3" s="448"/>
+      <c r="F3" s="448" t="s">
         <v>322</v>
       </c>
-      <c r="G3" s="447"/>
-      <c r="H3" s="448" t="s">
+      <c r="G3" s="448"/>
+      <c r="H3" s="451" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="448"/>
-      <c r="J3" s="447" t="s">
+      <c r="I3" s="451"/>
+      <c r="J3" s="448" t="s">
         <v>323</v>
       </c>
-      <c r="K3" s="447"/>
+      <c r="K3" s="448"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B4" s="447"/>
-      <c r="C4" s="447"/>
-      <c r="D4" s="447"/>
-      <c r="E4" s="447"/>
-      <c r="F4" s="447"/>
-      <c r="G4" s="447"/>
-      <c r="H4" s="448" t="s">
+      <c r="B4" s="448"/>
+      <c r="C4" s="448"/>
+      <c r="D4" s="448"/>
+      <c r="E4" s="448"/>
+      <c r="F4" s="448"/>
+      <c r="G4" s="448"/>
+      <c r="H4" s="451" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="448"/>
-      <c r="J4" s="447"/>
-      <c r="K4" s="447"/>
+      <c r="I4" s="451"/>
+      <c r="J4" s="448"/>
+      <c r="K4" s="448"/>
     </row>
     <row r="5" spans="2:11" ht="15.75">
-      <c r="B5" s="447"/>
-      <c r="C5" s="447"/>
-      <c r="D5" s="447"/>
-      <c r="E5" s="447"/>
-      <c r="F5" s="447"/>
-      <c r="G5" s="447"/>
-      <c r="H5" s="448" t="s">
+      <c r="B5" s="448"/>
+      <c r="C5" s="448"/>
+      <c r="D5" s="448"/>
+      <c r="E5" s="448"/>
+      <c r="F5" s="448"/>
+      <c r="G5" s="448"/>
+      <c r="H5" s="451" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="448"/>
-      <c r="J5" s="447"/>
-      <c r="K5" s="447"/>
+      <c r="I5" s="451"/>
+      <c r="J5" s="448"/>
+      <c r="K5" s="448"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B6" s="447">
+      <c r="B6" s="448">
         <v>2</v>
       </c>
-      <c r="C6" s="447"/>
-      <c r="D6" s="447" t="s">
+      <c r="C6" s="448"/>
+      <c r="D6" s="448" t="s">
         <v>320</v>
       </c>
-      <c r="E6" s="447"/>
+      <c r="E6" s="448"/>
       <c r="F6" s="449" t="s">
         <v>324</v>
       </c>
       <c r="G6" s="450"/>
-      <c r="H6" s="448" t="s">
+      <c r="H6" s="451" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="448"/>
-      <c r="J6" s="447" t="s">
+      <c r="I6" s="451"/>
+      <c r="J6" s="448" t="s">
         <v>325</v>
       </c>
-      <c r="K6" s="447"/>
+      <c r="K6" s="448"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B7" s="447"/>
-      <c r="C7" s="447"/>
-      <c r="D7" s="447"/>
-      <c r="E7" s="447"/>
-      <c r="F7" s="447"/>
-      <c r="G7" s="447"/>
-      <c r="H7" s="448" t="s">
+      <c r="B7" s="448"/>
+      <c r="C7" s="448"/>
+      <c r="D7" s="448"/>
+      <c r="E7" s="448"/>
+      <c r="F7" s="448"/>
+      <c r="G7" s="448"/>
+      <c r="H7" s="451" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="448"/>
-      <c r="J7" s="447"/>
-      <c r="K7" s="447"/>
+      <c r="I7" s="451"/>
+      <c r="J7" s="448"/>
+      <c r="K7" s="448"/>
     </row>
     <row r="8" spans="2:11" ht="15.75">
-      <c r="B8" s="447"/>
-      <c r="C8" s="447"/>
-      <c r="D8" s="447"/>
-      <c r="E8" s="447"/>
-      <c r="F8" s="447"/>
-      <c r="G8" s="447"/>
-      <c r="H8" s="448" t="s">
+      <c r="B8" s="448"/>
+      <c r="C8" s="448"/>
+      <c r="D8" s="448"/>
+      <c r="E8" s="448"/>
+      <c r="F8" s="448"/>
+      <c r="G8" s="448"/>
+      <c r="H8" s="451" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="448"/>
-      <c r="J8" s="447"/>
-      <c r="K8" s="447"/>
+      <c r="I8" s="451"/>
+      <c r="J8" s="448"/>
+      <c r="K8" s="448"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B9" s="447">
+      <c r="B9" s="448">
         <v>3</v>
       </c>
-      <c r="C9" s="447"/>
-      <c r="D9" s="447" t="s">
+      <c r="C9" s="448"/>
+      <c r="D9" s="448" t="s">
         <v>319</v>
       </c>
-      <c r="E9" s="447"/>
-      <c r="F9" s="447" t="s">
+      <c r="E9" s="448"/>
+      <c r="F9" s="448" t="s">
         <v>326</v>
       </c>
-      <c r="G9" s="447"/>
-      <c r="H9" s="448" t="s">
+      <c r="G9" s="448"/>
+      <c r="H9" s="451" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="448"/>
-      <c r="J9" s="447" t="s">
+      <c r="I9" s="451"/>
+      <c r="J9" s="448" t="s">
         <v>327</v>
       </c>
-      <c r="K9" s="447"/>
+      <c r="K9" s="448"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B10" s="447"/>
-      <c r="C10" s="447"/>
-      <c r="D10" s="447"/>
-      <c r="E10" s="447"/>
-      <c r="F10" s="447"/>
-      <c r="G10" s="447"/>
-      <c r="H10" s="448" t="s">
+      <c r="B10" s="448"/>
+      <c r="C10" s="448"/>
+      <c r="D10" s="448"/>
+      <c r="E10" s="448"/>
+      <c r="F10" s="448"/>
+      <c r="G10" s="448"/>
+      <c r="H10" s="451" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="448"/>
-      <c r="J10" s="447"/>
-      <c r="K10" s="447"/>
+      <c r="I10" s="451"/>
+      <c r="J10" s="448"/>
+      <c r="K10" s="448"/>
     </row>
     <row r="11" spans="2:11" ht="15.75">
-      <c r="B11" s="447"/>
-      <c r="C11" s="447"/>
-      <c r="D11" s="447"/>
-      <c r="E11" s="447"/>
-      <c r="F11" s="447"/>
-      <c r="G11" s="447"/>
-      <c r="H11" s="448" t="s">
+      <c r="B11" s="448"/>
+      <c r="C11" s="448"/>
+      <c r="D11" s="448"/>
+      <c r="E11" s="448"/>
+      <c r="F11" s="448"/>
+      <c r="G11" s="448"/>
+      <c r="H11" s="451" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="448"/>
-      <c r="J11" s="447"/>
-      <c r="K11" s="447"/>
+      <c r="I11" s="451"/>
+      <c r="J11" s="448"/>
+      <c r="K11" s="448"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B12" s="447">
+      <c r="B12" s="448">
         <v>4</v>
       </c>
-      <c r="C12" s="447"/>
-      <c r="D12" s="447"/>
-      <c r="E12" s="447"/>
-      <c r="F12" s="447"/>
-      <c r="G12" s="447"/>
-      <c r="H12" s="448" t="s">
+      <c r="C12" s="448"/>
+      <c r="D12" s="448"/>
+      <c r="E12" s="448"/>
+      <c r="F12" s="448"/>
+      <c r="G12" s="448"/>
+      <c r="H12" s="451" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="448"/>
-      <c r="J12" s="447"/>
-      <c r="K12" s="447"/>
+      <c r="I12" s="451"/>
+      <c r="J12" s="448"/>
+      <c r="K12" s="448"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B13" s="447"/>
-      <c r="C13" s="447"/>
-      <c r="D13" s="447"/>
-      <c r="E13" s="447"/>
-      <c r="F13" s="447"/>
-      <c r="G13" s="447"/>
-      <c r="H13" s="448" t="s">
+      <c r="B13" s="448"/>
+      <c r="C13" s="448"/>
+      <c r="D13" s="448"/>
+      <c r="E13" s="448"/>
+      <c r="F13" s="448"/>
+      <c r="G13" s="448"/>
+      <c r="H13" s="451" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="448"/>
-      <c r="J13" s="447"/>
-      <c r="K13" s="447"/>
+      <c r="I13" s="451"/>
+      <c r="J13" s="448"/>
+      <c r="K13" s="448"/>
     </row>
     <row r="14" spans="2:11" ht="15.75">
-      <c r="B14" s="447"/>
-      <c r="C14" s="447"/>
-      <c r="D14" s="447"/>
-      <c r="E14" s="447"/>
-      <c r="F14" s="447"/>
-      <c r="G14" s="447"/>
-      <c r="H14" s="448" t="s">
+      <c r="B14" s="448"/>
+      <c r="C14" s="448"/>
+      <c r="D14" s="448"/>
+      <c r="E14" s="448"/>
+      <c r="F14" s="448"/>
+      <c r="G14" s="448"/>
+      <c r="H14" s="451" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="448"/>
-      <c r="J14" s="447"/>
-      <c r="K14" s="447"/>
+      <c r="I14" s="451"/>
+      <c r="J14" s="448"/>
+      <c r="K14" s="448"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B15" s="447">
+      <c r="B15" s="448">
         <v>5</v>
       </c>
-      <c r="C15" s="447"/>
-      <c r="D15" s="447"/>
-      <c r="E15" s="447"/>
-      <c r="F15" s="447"/>
-      <c r="G15" s="447"/>
-      <c r="H15" s="448" t="s">
+      <c r="C15" s="448"/>
+      <c r="D15" s="448"/>
+      <c r="E15" s="448"/>
+      <c r="F15" s="448"/>
+      <c r="G15" s="448"/>
+      <c r="H15" s="451" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="448"/>
-      <c r="J15" s="447"/>
-      <c r="K15" s="447"/>
+      <c r="I15" s="451"/>
+      <c r="J15" s="448"/>
+      <c r="K15" s="448"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B16" s="447"/>
-      <c r="C16" s="447"/>
-      <c r="D16" s="447"/>
-      <c r="E16" s="447"/>
-      <c r="F16" s="447"/>
-      <c r="G16" s="447"/>
-      <c r="H16" s="448" t="s">
+      <c r="B16" s="448"/>
+      <c r="C16" s="448"/>
+      <c r="D16" s="448"/>
+      <c r="E16" s="448"/>
+      <c r="F16" s="448"/>
+      <c r="G16" s="448"/>
+      <c r="H16" s="451" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="448"/>
-      <c r="J16" s="447"/>
-      <c r="K16" s="447"/>
+      <c r="I16" s="451"/>
+      <c r="J16" s="448"/>
+      <c r="K16" s="448"/>
     </row>
     <row r="17" spans="2:11" ht="15.75">
-      <c r="B17" s="447"/>
-      <c r="C17" s="447"/>
-      <c r="D17" s="447"/>
-      <c r="E17" s="447"/>
-      <c r="F17" s="447"/>
-      <c r="G17" s="447"/>
-      <c r="H17" s="448" t="s">
+      <c r="B17" s="448"/>
+      <c r="C17" s="448"/>
+      <c r="D17" s="448"/>
+      <c r="E17" s="448"/>
+      <c r="F17" s="448"/>
+      <c r="G17" s="448"/>
+      <c r="H17" s="451" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="448"/>
-      <c r="J17" s="447"/>
-      <c r="K17" s="447"/>
+      <c r="I17" s="451"/>
+      <c r="J17" s="448"/>
+      <c r="K17" s="448"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B15:C17"/>
-    <mergeCell ref="D3:E5"/>
-    <mergeCell ref="D6:E8"/>
-    <mergeCell ref="D9:E11"/>
-    <mergeCell ref="D12:E14"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J16:K16"/>
@@ -16372,11 +16354,49 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B15:C17"/>
+    <mergeCell ref="D3:E5"/>
+    <mergeCell ref="D6:E8"/>
+    <mergeCell ref="D9:E11"/>
+    <mergeCell ref="D12:E14"/>
+    <mergeCell ref="D15:E17"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16484,138 +16504,138 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:9" ht="25.5">
-      <c r="B7" s="291" t="s">
+      <c r="B7" s="246" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="292"/>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="293"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="247"/>
+      <c r="I7" s="248"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="279" t="s">
+      <c r="B8" s="265" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="280"/>
-      <c r="D8" s="246" t="s">
+      <c r="C8" s="266"/>
+      <c r="D8" s="249" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="252"/>
-      <c r="F8" s="252"/>
-      <c r="G8" s="252"/>
-      <c r="H8" s="252"/>
-      <c r="I8" s="247"/>
+      <c r="E8" s="253"/>
+      <c r="F8" s="253"/>
+      <c r="G8" s="253"/>
+      <c r="H8" s="253"/>
+      <c r="I8" s="250"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="283"/>
-      <c r="C9" s="284"/>
-      <c r="D9" s="250"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="251"/>
+      <c r="B9" s="267"/>
+      <c r="C9" s="268"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="257"/>
+      <c r="F9" s="257"/>
+      <c r="G9" s="257"/>
+      <c r="H9" s="257"/>
+      <c r="I9" s="252"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="279" t="s">
+      <c r="B10" s="265" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="280"/>
-      <c r="D10" s="246" t="s">
+      <c r="C10" s="266"/>
+      <c r="D10" s="249" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="247"/>
-      <c r="F10" s="279" t="s">
+      <c r="E10" s="250"/>
+      <c r="F10" s="265" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="280"/>
-      <c r="H10" s="246" t="s">
+      <c r="G10" s="266"/>
+      <c r="H10" s="249" t="s">
         <v>177</v>
       </c>
-      <c r="I10" s="247"/>
+      <c r="I10" s="250"/>
     </row>
     <row r="11" spans="2:9" ht="43.9" customHeight="1">
-      <c r="B11" s="283"/>
-      <c r="C11" s="284"/>
-      <c r="D11" s="250"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="283"/>
-      <c r="G11" s="284"/>
-      <c r="H11" s="250"/>
-      <c r="I11" s="251"/>
+      <c r="B11" s="267"/>
+      <c r="C11" s="268"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="267"/>
+      <c r="G11" s="268"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="252"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1">
-      <c r="B12" s="279" t="s">
+      <c r="B12" s="265" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="280"/>
-      <c r="D12" s="246" t="s">
+      <c r="C12" s="266"/>
+      <c r="D12" s="249" t="s">
         <v>178</v>
       </c>
-      <c r="E12" s="252"/>
-      <c r="F12" s="252"/>
-      <c r="G12" s="252"/>
-      <c r="H12" s="252"/>
-      <c r="I12" s="247"/>
+      <c r="E12" s="253"/>
+      <c r="F12" s="253"/>
+      <c r="G12" s="253"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="250"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="281"/>
-      <c r="C13" s="282"/>
-      <c r="D13" s="248"/>
-      <c r="E13" s="253"/>
-      <c r="F13" s="253"/>
-      <c r="G13" s="253"/>
-      <c r="H13" s="253"/>
-      <c r="I13" s="249"/>
+      <c r="B13" s="269"/>
+      <c r="C13" s="270"/>
+      <c r="D13" s="254"/>
+      <c r="E13" s="255"/>
+      <c r="F13" s="255"/>
+      <c r="G13" s="255"/>
+      <c r="H13" s="255"/>
+      <c r="I13" s="256"/>
     </row>
     <row r="14" spans="2:9" ht="31.9" customHeight="1">
-      <c r="B14" s="283"/>
-      <c r="C14" s="284"/>
-      <c r="D14" s="250"/>
-      <c r="E14" s="254"/>
-      <c r="F14" s="254"/>
-      <c r="G14" s="254"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="251"/>
+      <c r="B14" s="267"/>
+      <c r="C14" s="268"/>
+      <c r="D14" s="251"/>
+      <c r="E14" s="257"/>
+      <c r="F14" s="257"/>
+      <c r="G14" s="257"/>
+      <c r="H14" s="257"/>
+      <c r="I14" s="252"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="261" t="s">
+      <c r="B15" s="260" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="262"/>
-      <c r="D15" s="277">
+      <c r="C15" s="261"/>
+      <c r="D15" s="258">
         <v>43560</v>
       </c>
-      <c r="E15" s="278"/>
-      <c r="F15" s="261" t="s">
+      <c r="E15" s="259"/>
+      <c r="F15" s="260" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="262"/>
-      <c r="H15" s="294" t="s">
+      <c r="G15" s="261"/>
+      <c r="H15" s="262" t="s">
         <v>292</v>
       </c>
-      <c r="I15" s="295"/>
+      <c r="I15" s="263"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="261" t="s">
+      <c r="B16" s="260" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="262"/>
-      <c r="D16" s="277">
+      <c r="C16" s="261"/>
+      <c r="D16" s="258">
         <v>43630</v>
       </c>
-      <c r="E16" s="278"/>
-      <c r="F16" s="261" t="s">
+      <c r="E16" s="259"/>
+      <c r="F16" s="260" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="262"/>
-      <c r="H16" s="296">
+      <c r="G16" s="261"/>
+      <c r="H16" s="264">
         <v>0</v>
       </c>
-      <c r="I16" s="295"/>
+      <c r="I16" s="263"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="131"/>
@@ -16626,98 +16646,98 @@
       <c r="C18" s="131"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B19" s="269" t="s">
+      <c r="B19" s="271" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="270"/>
-      <c r="D19" s="270"/>
-      <c r="E19" s="270"/>
-      <c r="F19" s="270"/>
-      <c r="G19" s="270"/>
-      <c r="H19" s="270"/>
-      <c r="I19" s="271"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="272"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="272"/>
+      <c r="I19" s="273"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="246" t="s">
+      <c r="B20" s="249" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="252"/>
-      <c r="D20" s="252"/>
-      <c r="E20" s="252"/>
-      <c r="F20" s="252"/>
-      <c r="G20" s="252"/>
-      <c r="H20" s="252"/>
-      <c r="I20" s="247"/>
+      <c r="C20" s="253"/>
+      <c r="D20" s="253"/>
+      <c r="E20" s="253"/>
+      <c r="F20" s="253"/>
+      <c r="G20" s="253"/>
+      <c r="H20" s="253"/>
+      <c r="I20" s="250"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="248"/>
-      <c r="C21" s="253"/>
-      <c r="D21" s="253"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
-      <c r="H21" s="253"/>
-      <c r="I21" s="249"/>
+      <c r="B21" s="254"/>
+      <c r="C21" s="255"/>
+      <c r="D21" s="255"/>
+      <c r="E21" s="255"/>
+      <c r="F21" s="255"/>
+      <c r="G21" s="255"/>
+      <c r="H21" s="255"/>
+      <c r="I21" s="256"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="248"/>
-      <c r="C22" s="253"/>
-      <c r="D22" s="253"/>
-      <c r="E22" s="253"/>
-      <c r="F22" s="253"/>
-      <c r="G22" s="253"/>
-      <c r="H22" s="253"/>
-      <c r="I22" s="249"/>
+      <c r="B22" s="254"/>
+      <c r="C22" s="255"/>
+      <c r="D22" s="255"/>
+      <c r="E22" s="255"/>
+      <c r="F22" s="255"/>
+      <c r="G22" s="255"/>
+      <c r="H22" s="255"/>
+      <c r="I22" s="256"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="248"/>
-      <c r="C23" s="253"/>
-      <c r="D23" s="253"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="249"/>
+      <c r="B23" s="254"/>
+      <c r="C23" s="255"/>
+      <c r="D23" s="255"/>
+      <c r="E23" s="255"/>
+      <c r="F23" s="255"/>
+      <c r="G23" s="255"/>
+      <c r="H23" s="255"/>
+      <c r="I23" s="256"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="248"/>
-      <c r="C24" s="253"/>
-      <c r="D24" s="253"/>
-      <c r="E24" s="253"/>
-      <c r="F24" s="253"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="253"/>
-      <c r="I24" s="249"/>
+      <c r="B24" s="254"/>
+      <c r="C24" s="255"/>
+      <c r="D24" s="255"/>
+      <c r="E24" s="255"/>
+      <c r="F24" s="255"/>
+      <c r="G24" s="255"/>
+      <c r="H24" s="255"/>
+      <c r="I24" s="256"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="248"/>
-      <c r="C25" s="253"/>
-      <c r="D25" s="253"/>
-      <c r="E25" s="253"/>
-      <c r="F25" s="253"/>
-      <c r="G25" s="253"/>
-      <c r="H25" s="253"/>
-      <c r="I25" s="249"/>
+      <c r="B25" s="254"/>
+      <c r="C25" s="255"/>
+      <c r="D25" s="255"/>
+      <c r="E25" s="255"/>
+      <c r="F25" s="255"/>
+      <c r="G25" s="255"/>
+      <c r="H25" s="255"/>
+      <c r="I25" s="256"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="248"/>
-      <c r="C26" s="253"/>
-      <c r="D26" s="253"/>
-      <c r="E26" s="253"/>
-      <c r="F26" s="253"/>
-      <c r="G26" s="253"/>
-      <c r="H26" s="253"/>
-      <c r="I26" s="249"/>
+      <c r="B26" s="254"/>
+      <c r="C26" s="255"/>
+      <c r="D26" s="255"/>
+      <c r="E26" s="255"/>
+      <c r="F26" s="255"/>
+      <c r="G26" s="255"/>
+      <c r="H26" s="255"/>
+      <c r="I26" s="256"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="250"/>
-      <c r="C27" s="254"/>
-      <c r="D27" s="254"/>
-      <c r="E27" s="254"/>
-      <c r="F27" s="254"/>
-      <c r="G27" s="254"/>
-      <c r="H27" s="254"/>
-      <c r="I27" s="251"/>
+      <c r="B27" s="251"/>
+      <c r="C27" s="257"/>
+      <c r="D27" s="257"/>
+      <c r="E27" s="257"/>
+      <c r="F27" s="257"/>
+      <c r="G27" s="257"/>
+      <c r="H27" s="257"/>
+      <c r="I27" s="252"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="138"/>
@@ -16728,170 +16748,170 @@
       <c r="C29" s="138"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B30" s="269" t="s">
+      <c r="B30" s="271" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="270"/>
-      <c r="D30" s="270"/>
-      <c r="E30" s="270"/>
-      <c r="F30" s="270"/>
-      <c r="G30" s="270"/>
-      <c r="H30" s="270"/>
-      <c r="I30" s="271"/>
+      <c r="C30" s="272"/>
+      <c r="D30" s="272"/>
+      <c r="E30" s="272"/>
+      <c r="F30" s="272"/>
+      <c r="G30" s="272"/>
+      <c r="H30" s="272"/>
+      <c r="I30" s="273"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="261" t="s">
+      <c r="B31" s="260" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="276"/>
-      <c r="D31" s="276"/>
-      <c r="E31" s="262"/>
-      <c r="F31" s="261" t="s">
+      <c r="C31" s="274"/>
+      <c r="D31" s="274"/>
+      <c r="E31" s="261"/>
+      <c r="F31" s="260" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="276"/>
-      <c r="H31" s="276"/>
-      <c r="I31" s="262"/>
+      <c r="G31" s="274"/>
+      <c r="H31" s="274"/>
+      <c r="I31" s="261"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="246" t="s">
+      <c r="B32" s="249" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="252"/>
-      <c r="D32" s="252"/>
-      <c r="E32" s="247"/>
-      <c r="F32" s="246" t="s">
+      <c r="C32" s="253"/>
+      <c r="D32" s="253"/>
+      <c r="E32" s="250"/>
+      <c r="F32" s="249" t="s">
         <v>294</v>
       </c>
-      <c r="G32" s="252"/>
-      <c r="H32" s="252"/>
-      <c r="I32" s="247"/>
+      <c r="G32" s="253"/>
+      <c r="H32" s="253"/>
+      <c r="I32" s="250"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="248"/>
-      <c r="C33" s="253"/>
-      <c r="D33" s="253"/>
-      <c r="E33" s="249"/>
-      <c r="F33" s="248"/>
-      <c r="G33" s="253"/>
-      <c r="H33" s="253"/>
-      <c r="I33" s="249"/>
+      <c r="B33" s="254"/>
+      <c r="C33" s="255"/>
+      <c r="D33" s="255"/>
+      <c r="E33" s="256"/>
+      <c r="F33" s="254"/>
+      <c r="G33" s="255"/>
+      <c r="H33" s="255"/>
+      <c r="I33" s="256"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="248"/>
-      <c r="C34" s="253"/>
-      <c r="D34" s="253"/>
-      <c r="E34" s="249"/>
-      <c r="F34" s="248"/>
-      <c r="G34" s="253"/>
-      <c r="H34" s="253"/>
-      <c r="I34" s="249"/>
+      <c r="B34" s="254"/>
+      <c r="C34" s="255"/>
+      <c r="D34" s="255"/>
+      <c r="E34" s="256"/>
+      <c r="F34" s="254"/>
+      <c r="G34" s="255"/>
+      <c r="H34" s="255"/>
+      <c r="I34" s="256"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="250"/>
-      <c r="C35" s="254"/>
-      <c r="D35" s="254"/>
-      <c r="E35" s="251"/>
-      <c r="F35" s="250"/>
-      <c r="G35" s="254"/>
-      <c r="H35" s="254"/>
-      <c r="I35" s="251"/>
+      <c r="B35" s="251"/>
+      <c r="C35" s="257"/>
+      <c r="D35" s="257"/>
+      <c r="E35" s="252"/>
+      <c r="F35" s="251"/>
+      <c r="G35" s="257"/>
+      <c r="H35" s="257"/>
+      <c r="I35" s="252"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="261" t="s">
+      <c r="B36" s="260" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="276"/>
-      <c r="D36" s="276"/>
-      <c r="E36" s="262"/>
-      <c r="F36" s="261" t="s">
+      <c r="C36" s="274"/>
+      <c r="D36" s="274"/>
+      <c r="E36" s="261"/>
+      <c r="F36" s="260" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="276"/>
-      <c r="H36" s="276"/>
-      <c r="I36" s="262"/>
+      <c r="G36" s="274"/>
+      <c r="H36" s="274"/>
+      <c r="I36" s="261"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="246" t="s">
+      <c r="B37" s="249" t="s">
         <v>293</v>
       </c>
-      <c r="C37" s="252"/>
-      <c r="D37" s="252"/>
-      <c r="E37" s="247"/>
-      <c r="F37" s="246" t="s">
+      <c r="C37" s="253"/>
+      <c r="D37" s="253"/>
+      <c r="E37" s="250"/>
+      <c r="F37" s="249" t="s">
         <v>234</v>
       </c>
-      <c r="G37" s="252"/>
-      <c r="H37" s="252"/>
-      <c r="I37" s="247"/>
+      <c r="G37" s="253"/>
+      <c r="H37" s="253"/>
+      <c r="I37" s="250"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="248"/>
-      <c r="C38" s="253"/>
-      <c r="D38" s="253"/>
-      <c r="E38" s="249"/>
-      <c r="F38" s="248"/>
-      <c r="G38" s="253"/>
-      <c r="H38" s="253"/>
-      <c r="I38" s="249"/>
+      <c r="B38" s="254"/>
+      <c r="C38" s="255"/>
+      <c r="D38" s="255"/>
+      <c r="E38" s="256"/>
+      <c r="F38" s="254"/>
+      <c r="G38" s="255"/>
+      <c r="H38" s="255"/>
+      <c r="I38" s="256"/>
     </row>
     <row r="39" spans="2:9" ht="100.9" customHeight="1">
-      <c r="B39" s="250"/>
-      <c r="C39" s="254"/>
-      <c r="D39" s="254"/>
-      <c r="E39" s="251"/>
-      <c r="F39" s="250"/>
-      <c r="G39" s="254"/>
-      <c r="H39" s="254"/>
-      <c r="I39" s="251"/>
+      <c r="B39" s="251"/>
+      <c r="C39" s="257"/>
+      <c r="D39" s="257"/>
+      <c r="E39" s="252"/>
+      <c r="F39" s="251"/>
+      <c r="G39" s="257"/>
+      <c r="H39" s="257"/>
+      <c r="I39" s="252"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="261" t="s">
+      <c r="B40" s="260" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="276"/>
-      <c r="D40" s="276"/>
-      <c r="E40" s="262"/>
-      <c r="F40" s="261" t="s">
+      <c r="C40" s="274"/>
+      <c r="D40" s="274"/>
+      <c r="E40" s="261"/>
+      <c r="F40" s="260" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="276"/>
-      <c r="H40" s="276"/>
-      <c r="I40" s="262"/>
+      <c r="G40" s="274"/>
+      <c r="H40" s="274"/>
+      <c r="I40" s="261"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="246" t="s">
+      <c r="B41" s="249" t="s">
         <v>181</v>
       </c>
-      <c r="C41" s="252"/>
-      <c r="D41" s="252"/>
-      <c r="E41" s="247"/>
-      <c r="F41" s="246" t="s">
+      <c r="C41" s="253"/>
+      <c r="D41" s="253"/>
+      <c r="E41" s="250"/>
+      <c r="F41" s="249" t="s">
         <v>237</v>
       </c>
-      <c r="G41" s="252"/>
-      <c r="H41" s="252"/>
-      <c r="I41" s="247"/>
+      <c r="G41" s="253"/>
+      <c r="H41" s="253"/>
+      <c r="I41" s="250"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="248"/>
-      <c r="C42" s="253"/>
-      <c r="D42" s="253"/>
-      <c r="E42" s="249"/>
-      <c r="F42" s="248"/>
-      <c r="G42" s="253"/>
-      <c r="H42" s="253"/>
-      <c r="I42" s="249"/>
+      <c r="B42" s="254"/>
+      <c r="C42" s="255"/>
+      <c r="D42" s="255"/>
+      <c r="E42" s="256"/>
+      <c r="F42" s="254"/>
+      <c r="G42" s="255"/>
+      <c r="H42" s="255"/>
+      <c r="I42" s="256"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="250"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="254"/>
-      <c r="E43" s="251"/>
-      <c r="F43" s="250"/>
-      <c r="G43" s="254"/>
-      <c r="H43" s="254"/>
-      <c r="I43" s="251"/>
+      <c r="B43" s="251"/>
+      <c r="C43" s="257"/>
+      <c r="D43" s="257"/>
+      <c r="E43" s="252"/>
+      <c r="F43" s="251"/>
+      <c r="G43" s="257"/>
+      <c r="H43" s="257"/>
+      <c r="I43" s="252"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="131"/>
@@ -16902,120 +16922,120 @@
       <c r="C45" s="131"/>
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B46" s="269" t="s">
+      <c r="B46" s="271" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="270"/>
-      <c r="D46" s="270"/>
-      <c r="E46" s="270"/>
-      <c r="F46" s="270"/>
-      <c r="G46" s="270"/>
-      <c r="H46" s="270"/>
-      <c r="I46" s="271"/>
+      <c r="C46" s="272"/>
+      <c r="D46" s="272"/>
+      <c r="E46" s="272"/>
+      <c r="F46" s="272"/>
+      <c r="G46" s="272"/>
+      <c r="H46" s="272"/>
+      <c r="I46" s="273"/>
     </row>
     <row r="47" spans="2:9" ht="15" customHeight="1">
-      <c r="B47" s="279" t="s">
+      <c r="B47" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="280"/>
-      <c r="D47" s="246" t="s">
+      <c r="C47" s="266"/>
+      <c r="D47" s="249" t="s">
         <v>236</v>
       </c>
-      <c r="E47" s="252"/>
-      <c r="F47" s="252"/>
-      <c r="G47" s="252"/>
-      <c r="H47" s="252"/>
-      <c r="I47" s="247"/>
+      <c r="E47" s="253"/>
+      <c r="F47" s="253"/>
+      <c r="G47" s="253"/>
+      <c r="H47" s="253"/>
+      <c r="I47" s="250"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="281"/>
-      <c r="C48" s="282"/>
-      <c r="D48" s="248"/>
-      <c r="E48" s="253"/>
-      <c r="F48" s="253"/>
-      <c r="G48" s="253"/>
-      <c r="H48" s="253"/>
-      <c r="I48" s="249"/>
+      <c r="B48" s="269"/>
+      <c r="C48" s="270"/>
+      <c r="D48" s="254"/>
+      <c r="E48" s="255"/>
+      <c r="F48" s="255"/>
+      <c r="G48" s="255"/>
+      <c r="H48" s="255"/>
+      <c r="I48" s="256"/>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="283"/>
-      <c r="C49" s="284"/>
-      <c r="D49" s="250"/>
-      <c r="E49" s="254"/>
-      <c r="F49" s="254"/>
-      <c r="G49" s="254"/>
-      <c r="H49" s="254"/>
-      <c r="I49" s="251"/>
+      <c r="B49" s="267"/>
+      <c r="C49" s="268"/>
+      <c r="D49" s="251"/>
+      <c r="E49" s="257"/>
+      <c r="F49" s="257"/>
+      <c r="G49" s="257"/>
+      <c r="H49" s="257"/>
+      <c r="I49" s="252"/>
     </row>
     <row r="50" spans="2:17" ht="15" customHeight="1">
-      <c r="B50" s="279" t="s">
+      <c r="B50" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="280"/>
-      <c r="D50" s="246" t="s">
+      <c r="C50" s="266"/>
+      <c r="D50" s="249" t="s">
         <v>235</v>
       </c>
-      <c r="E50" s="252"/>
-      <c r="F50" s="252"/>
-      <c r="G50" s="252"/>
-      <c r="H50" s="252"/>
-      <c r="I50" s="247"/>
+      <c r="E50" s="253"/>
+      <c r="F50" s="253"/>
+      <c r="G50" s="253"/>
+      <c r="H50" s="253"/>
+      <c r="I50" s="250"/>
     </row>
     <row r="51" spans="2:17">
-      <c r="B51" s="281"/>
-      <c r="C51" s="282"/>
-      <c r="D51" s="248"/>
-      <c r="E51" s="253"/>
-      <c r="F51" s="253"/>
-      <c r="G51" s="253"/>
-      <c r="H51" s="253"/>
-      <c r="I51" s="249"/>
+      <c r="B51" s="269"/>
+      <c r="C51" s="270"/>
+      <c r="D51" s="254"/>
+      <c r="E51" s="255"/>
+      <c r="F51" s="255"/>
+      <c r="G51" s="255"/>
+      <c r="H51" s="255"/>
+      <c r="I51" s="256"/>
     </row>
     <row r="52" spans="2:17">
-      <c r="B52" s="283"/>
-      <c r="C52" s="284"/>
-      <c r="D52" s="250"/>
-      <c r="E52" s="254"/>
-      <c r="F52" s="254"/>
-      <c r="G52" s="254"/>
-      <c r="H52" s="254"/>
-      <c r="I52" s="251"/>
+      <c r="B52" s="267"/>
+      <c r="C52" s="268"/>
+      <c r="D52" s="251"/>
+      <c r="E52" s="257"/>
+      <c r="F52" s="257"/>
+      <c r="G52" s="257"/>
+      <c r="H52" s="257"/>
+      <c r="I52" s="252"/>
     </row>
     <row r="53" spans="2:17" ht="15" customHeight="1">
-      <c r="B53" s="285" t="s">
+      <c r="B53" s="277" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="286"/>
-      <c r="D53" s="289" t="s">
+      <c r="C53" s="278"/>
+      <c r="D53" s="275" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="289" t="s">
+      <c r="E53" s="275" t="s">
         <v>285</v>
       </c>
-      <c r="F53" s="289" t="s">
+      <c r="F53" s="275" t="s">
         <v>96</v>
       </c>
-      <c r="G53" s="289" t="s">
+      <c r="G53" s="275" t="s">
         <v>283</v>
       </c>
-      <c r="H53" s="289" t="s">
+      <c r="H53" s="275" t="s">
         <v>97</v>
       </c>
-      <c r="I53" s="289" t="s">
+      <c r="I53" s="275" t="s">
         <v>182</v>
       </c>
       <c r="O53" s="172"/>
       <c r="Q53" s="172"/>
     </row>
     <row r="54" spans="2:17" ht="43.15" customHeight="1">
-      <c r="B54" s="287"/>
-      <c r="C54" s="288"/>
-      <c r="D54" s="290"/>
-      <c r="E54" s="290"/>
-      <c r="F54" s="290"/>
-      <c r="G54" s="290"/>
-      <c r="H54" s="290"/>
-      <c r="I54" s="290"/>
+      <c r="B54" s="279"/>
+      <c r="C54" s="280"/>
+      <c r="D54" s="276"/>
+      <c r="E54" s="276"/>
+      <c r="F54" s="276"/>
+      <c r="G54" s="276"/>
+      <c r="H54" s="276"/>
+      <c r="I54" s="276"/>
     </row>
     <row r="55" spans="2:17" ht="15.75">
       <c r="B55" s="139"/>
@@ -17026,88 +17046,88 @@
       <c r="C56" s="139"/>
     </row>
     <row r="57" spans="2:17">
-      <c r="B57" s="269" t="s">
+      <c r="B57" s="271" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="270"/>
-      <c r="D57" s="270"/>
-      <c r="E57" s="270"/>
-      <c r="F57" s="270"/>
-      <c r="G57" s="270"/>
-      <c r="H57" s="270"/>
-      <c r="I57" s="271"/>
+      <c r="C57" s="272"/>
+      <c r="D57" s="272"/>
+      <c r="E57" s="272"/>
+      <c r="F57" s="272"/>
+      <c r="G57" s="272"/>
+      <c r="H57" s="272"/>
+      <c r="I57" s="273"/>
     </row>
     <row r="58" spans="2:17">
-      <c r="B58" s="246" t="s">
+      <c r="B58" s="249" t="s">
         <v>295</v>
       </c>
-      <c r="C58" s="252"/>
-      <c r="D58" s="252"/>
-      <c r="E58" s="252"/>
-      <c r="F58" s="252"/>
-      <c r="G58" s="252"/>
-      <c r="H58" s="252"/>
-      <c r="I58" s="247"/>
+      <c r="C58" s="253"/>
+      <c r="D58" s="253"/>
+      <c r="E58" s="253"/>
+      <c r="F58" s="253"/>
+      <c r="G58" s="253"/>
+      <c r="H58" s="253"/>
+      <c r="I58" s="250"/>
     </row>
     <row r="59" spans="2:17">
-      <c r="B59" s="248"/>
-      <c r="C59" s="253"/>
-      <c r="D59" s="253"/>
-      <c r="E59" s="253"/>
-      <c r="F59" s="253"/>
-      <c r="G59" s="253"/>
-      <c r="H59" s="253"/>
-      <c r="I59" s="249"/>
+      <c r="B59" s="254"/>
+      <c r="C59" s="255"/>
+      <c r="D59" s="255"/>
+      <c r="E59" s="255"/>
+      <c r="F59" s="255"/>
+      <c r="G59" s="255"/>
+      <c r="H59" s="255"/>
+      <c r="I59" s="256"/>
     </row>
     <row r="60" spans="2:17">
-      <c r="B60" s="248"/>
-      <c r="C60" s="253"/>
-      <c r="D60" s="253"/>
-      <c r="E60" s="253"/>
-      <c r="F60" s="253"/>
-      <c r="G60" s="253"/>
-      <c r="H60" s="253"/>
-      <c r="I60" s="249"/>
+      <c r="B60" s="254"/>
+      <c r="C60" s="255"/>
+      <c r="D60" s="255"/>
+      <c r="E60" s="255"/>
+      <c r="F60" s="255"/>
+      <c r="G60" s="255"/>
+      <c r="H60" s="255"/>
+      <c r="I60" s="256"/>
     </row>
     <row r="61" spans="2:17">
-      <c r="B61" s="248"/>
-      <c r="C61" s="253"/>
-      <c r="D61" s="253"/>
-      <c r="E61" s="253"/>
-      <c r="F61" s="253"/>
-      <c r="G61" s="253"/>
-      <c r="H61" s="253"/>
-      <c r="I61" s="249"/>
+      <c r="B61" s="254"/>
+      <c r="C61" s="255"/>
+      <c r="D61" s="255"/>
+      <c r="E61" s="255"/>
+      <c r="F61" s="255"/>
+      <c r="G61" s="255"/>
+      <c r="H61" s="255"/>
+      <c r="I61" s="256"/>
     </row>
     <row r="62" spans="2:17">
-      <c r="B62" s="248"/>
-      <c r="C62" s="253"/>
-      <c r="D62" s="253"/>
-      <c r="E62" s="253"/>
-      <c r="F62" s="253"/>
-      <c r="G62" s="253"/>
-      <c r="H62" s="253"/>
-      <c r="I62" s="249"/>
+      <c r="B62" s="254"/>
+      <c r="C62" s="255"/>
+      <c r="D62" s="255"/>
+      <c r="E62" s="255"/>
+      <c r="F62" s="255"/>
+      <c r="G62" s="255"/>
+      <c r="H62" s="255"/>
+      <c r="I62" s="256"/>
     </row>
     <row r="63" spans="2:17">
-      <c r="B63" s="248"/>
-      <c r="C63" s="253"/>
-      <c r="D63" s="253"/>
-      <c r="E63" s="253"/>
-      <c r="F63" s="253"/>
-      <c r="G63" s="253"/>
-      <c r="H63" s="253"/>
-      <c r="I63" s="249"/>
+      <c r="B63" s="254"/>
+      <c r="C63" s="255"/>
+      <c r="D63" s="255"/>
+      <c r="E63" s="255"/>
+      <c r="F63" s="255"/>
+      <c r="G63" s="255"/>
+      <c r="H63" s="255"/>
+      <c r="I63" s="256"/>
     </row>
     <row r="64" spans="2:17">
-      <c r="B64" s="250"/>
-      <c r="C64" s="254"/>
-      <c r="D64" s="254"/>
-      <c r="E64" s="254"/>
-      <c r="F64" s="254"/>
-      <c r="G64" s="254"/>
-      <c r="H64" s="254"/>
-      <c r="I64" s="251"/>
+      <c r="B64" s="251"/>
+      <c r="C64" s="257"/>
+      <c r="D64" s="257"/>
+      <c r="E64" s="257"/>
+      <c r="F64" s="257"/>
+      <c r="G64" s="257"/>
+      <c r="H64" s="257"/>
+      <c r="I64" s="252"/>
     </row>
     <row r="65" spans="2:18">
       <c r="B65" s="131"/>
@@ -17118,136 +17138,136 @@
       <c r="C66" s="131"/>
     </row>
     <row r="67" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B67" s="269" t="s">
+      <c r="B67" s="271" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="270"/>
-      <c r="D67" s="270"/>
-      <c r="E67" s="270"/>
-      <c r="F67" s="270"/>
-      <c r="G67" s="270"/>
-      <c r="H67" s="270"/>
-      <c r="I67" s="271"/>
+      <c r="C67" s="272"/>
+      <c r="D67" s="272"/>
+      <c r="E67" s="272"/>
+      <c r="F67" s="272"/>
+      <c r="G67" s="272"/>
+      <c r="H67" s="272"/>
+      <c r="I67" s="273"/>
     </row>
     <row r="68" spans="2:18">
-      <c r="B68" s="261" t="s">
+      <c r="B68" s="260" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="276"/>
-      <c r="D68" s="276"/>
-      <c r="E68" s="262"/>
-      <c r="F68" s="261" t="s">
+      <c r="C68" s="274"/>
+      <c r="D68" s="274"/>
+      <c r="E68" s="261"/>
+      <c r="F68" s="260" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="276"/>
-      <c r="H68" s="276"/>
-      <c r="I68" s="262"/>
+      <c r="G68" s="274"/>
+      <c r="H68" s="274"/>
+      <c r="I68" s="261"/>
     </row>
     <row r="69" spans="2:18">
-      <c r="B69" s="246" t="s">
+      <c r="B69" s="249" t="s">
         <v>296</v>
       </c>
-      <c r="C69" s="252"/>
-      <c r="D69" s="252"/>
-      <c r="E69" s="247"/>
-      <c r="F69" s="246" t="s">
+      <c r="C69" s="253"/>
+      <c r="D69" s="253"/>
+      <c r="E69" s="250"/>
+      <c r="F69" s="249" t="s">
         <v>297</v>
       </c>
-      <c r="G69" s="252"/>
-      <c r="H69" s="252"/>
-      <c r="I69" s="247"/>
+      <c r="G69" s="253"/>
+      <c r="H69" s="253"/>
+      <c r="I69" s="250"/>
     </row>
     <row r="70" spans="2:18">
-      <c r="B70" s="248"/>
-      <c r="C70" s="253"/>
-      <c r="D70" s="253"/>
-      <c r="E70" s="249"/>
-      <c r="F70" s="248"/>
-      <c r="G70" s="253"/>
-      <c r="H70" s="253"/>
-      <c r="I70" s="249"/>
+      <c r="B70" s="254"/>
+      <c r="C70" s="255"/>
+      <c r="D70" s="255"/>
+      <c r="E70" s="256"/>
+      <c r="F70" s="254"/>
+      <c r="G70" s="255"/>
+      <c r="H70" s="255"/>
+      <c r="I70" s="256"/>
     </row>
     <row r="71" spans="2:18">
-      <c r="B71" s="248"/>
-      <c r="C71" s="253"/>
-      <c r="D71" s="253"/>
-      <c r="E71" s="249"/>
-      <c r="F71" s="248"/>
-      <c r="G71" s="253"/>
-      <c r="H71" s="253"/>
-      <c r="I71" s="249"/>
+      <c r="B71" s="254"/>
+      <c r="C71" s="255"/>
+      <c r="D71" s="255"/>
+      <c r="E71" s="256"/>
+      <c r="F71" s="254"/>
+      <c r="G71" s="255"/>
+      <c r="H71" s="255"/>
+      <c r="I71" s="256"/>
     </row>
     <row r="72" spans="2:18">
-      <c r="B72" s="248"/>
-      <c r="C72" s="253"/>
-      <c r="D72" s="253"/>
-      <c r="E72" s="249"/>
-      <c r="F72" s="248"/>
-      <c r="G72" s="253"/>
-      <c r="H72" s="253"/>
-      <c r="I72" s="249"/>
+      <c r="B72" s="254"/>
+      <c r="C72" s="255"/>
+      <c r="D72" s="255"/>
+      <c r="E72" s="256"/>
+      <c r="F72" s="254"/>
+      <c r="G72" s="255"/>
+      <c r="H72" s="255"/>
+      <c r="I72" s="256"/>
     </row>
     <row r="73" spans="2:18">
-      <c r="B73" s="250"/>
-      <c r="C73" s="254"/>
-      <c r="D73" s="254"/>
-      <c r="E73" s="251"/>
-      <c r="F73" s="250"/>
-      <c r="G73" s="254"/>
-      <c r="H73" s="254"/>
-      <c r="I73" s="251"/>
+      <c r="B73" s="251"/>
+      <c r="C73" s="257"/>
+      <c r="D73" s="257"/>
+      <c r="E73" s="252"/>
+      <c r="F73" s="251"/>
+      <c r="G73" s="257"/>
+      <c r="H73" s="257"/>
+      <c r="I73" s="252"/>
     </row>
     <row r="74" spans="2:18">
       <c r="B74" s="131"/>
       <c r="C74" s="131"/>
     </row>
     <row r="75" spans="2:18" ht="15" customHeight="1">
-      <c r="B75" s="269" t="s">
+      <c r="B75" s="271" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="270"/>
-      <c r="D75" s="270"/>
-      <c r="E75" s="270"/>
-      <c r="F75" s="270"/>
-      <c r="G75" s="270"/>
-      <c r="H75" s="270"/>
-      <c r="I75" s="271"/>
+      <c r="C75" s="272"/>
+      <c r="D75" s="272"/>
+      <c r="E75" s="272"/>
+      <c r="F75" s="272"/>
+      <c r="G75" s="272"/>
+      <c r="H75" s="272"/>
+      <c r="I75" s="273"/>
     </row>
     <row r="76" spans="2:18" ht="29.25" customHeight="1">
-      <c r="B76" s="261" t="s">
+      <c r="B76" s="260" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="262"/>
-      <c r="D76" s="261" t="s">
+      <c r="C76" s="261"/>
+      <c r="D76" s="260" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="262"/>
-      <c r="F76" s="261" t="s">
+      <c r="E76" s="261"/>
+      <c r="F76" s="260" t="s">
         <v>69</v>
       </c>
-      <c r="G76" s="262"/>
-      <c r="H76" s="261" t="s">
+      <c r="G76" s="261"/>
+      <c r="H76" s="260" t="s">
         <v>70</v>
       </c>
-      <c r="I76" s="262"/>
+      <c r="I76" s="261"/>
     </row>
     <row r="77" spans="2:18" ht="15" customHeight="1">
-      <c r="B77" s="263" t="s">
+      <c r="B77" s="291" t="s">
         <v>240</v>
       </c>
-      <c r="C77" s="264"/>
-      <c r="D77" s="246" t="s">
+      <c r="C77" s="292"/>
+      <c r="D77" s="249" t="s">
         <v>243</v>
       </c>
-      <c r="E77" s="247"/>
-      <c r="F77" s="246" t="s">
+      <c r="E77" s="250"/>
+      <c r="F77" s="249" t="s">
         <v>291</v>
       </c>
-      <c r="G77" s="247"/>
-      <c r="H77" s="246" t="s">
+      <c r="G77" s="250"/>
+      <c r="H77" s="249" t="s">
         <v>290</v>
       </c>
-      <c r="I77" s="247"/>
+      <c r="I77" s="250"/>
       <c r="K77" s="169"/>
       <c r="L77" s="169"/>
       <c r="M77" s="169"/>
@@ -17258,14 +17278,14 @@
       <c r="R77" s="169"/>
     </row>
     <row r="78" spans="2:18">
-      <c r="B78" s="265"/>
-      <c r="C78" s="266"/>
-      <c r="D78" s="248"/>
-      <c r="E78" s="249"/>
-      <c r="F78" s="248"/>
-      <c r="G78" s="249"/>
-      <c r="H78" s="248"/>
-      <c r="I78" s="249"/>
+      <c r="B78" s="293"/>
+      <c r="C78" s="294"/>
+      <c r="D78" s="254"/>
+      <c r="E78" s="256"/>
+      <c r="F78" s="254"/>
+      <c r="G78" s="256"/>
+      <c r="H78" s="254"/>
+      <c r="I78" s="256"/>
       <c r="K78" s="169"/>
       <c r="L78" s="169"/>
       <c r="M78" s="169"/>
@@ -17276,14 +17296,14 @@
       <c r="R78" s="169"/>
     </row>
     <row r="79" spans="2:18">
-      <c r="B79" s="265"/>
-      <c r="C79" s="266"/>
-      <c r="D79" s="248"/>
-      <c r="E79" s="249"/>
-      <c r="F79" s="248"/>
-      <c r="G79" s="249"/>
-      <c r="H79" s="248"/>
-      <c r="I79" s="249"/>
+      <c r="B79" s="293"/>
+      <c r="C79" s="294"/>
+      <c r="D79" s="254"/>
+      <c r="E79" s="256"/>
+      <c r="F79" s="254"/>
+      <c r="G79" s="256"/>
+      <c r="H79" s="254"/>
+      <c r="I79" s="256"/>
       <c r="K79" s="169"/>
       <c r="L79" s="169"/>
       <c r="M79" s="169"/>
@@ -17294,14 +17314,14 @@
       <c r="R79" s="169"/>
     </row>
     <row r="80" spans="2:18" ht="15" customHeight="1">
-      <c r="B80" s="265"/>
-      <c r="C80" s="266"/>
-      <c r="D80" s="248"/>
-      <c r="E80" s="249"/>
-      <c r="F80" s="248"/>
-      <c r="G80" s="249"/>
-      <c r="H80" s="248"/>
-      <c r="I80" s="249"/>
+      <c r="B80" s="293"/>
+      <c r="C80" s="294"/>
+      <c r="D80" s="254"/>
+      <c r="E80" s="256"/>
+      <c r="F80" s="254"/>
+      <c r="G80" s="256"/>
+      <c r="H80" s="254"/>
+      <c r="I80" s="256"/>
       <c r="K80" s="140"/>
       <c r="L80" s="140"/>
       <c r="M80" s="169"/>
@@ -17312,14 +17332,14 @@
       <c r="R80" s="169"/>
     </row>
     <row r="81" spans="2:18">
-      <c r="B81" s="265"/>
-      <c r="C81" s="266"/>
-      <c r="D81" s="248"/>
-      <c r="E81" s="249"/>
-      <c r="F81" s="248"/>
-      <c r="G81" s="249"/>
-      <c r="H81" s="248"/>
-      <c r="I81" s="249"/>
+      <c r="B81" s="293"/>
+      <c r="C81" s="294"/>
+      <c r="D81" s="254"/>
+      <c r="E81" s="256"/>
+      <c r="F81" s="254"/>
+      <c r="G81" s="256"/>
+      <c r="H81" s="254"/>
+      <c r="I81" s="256"/>
       <c r="K81" s="140"/>
       <c r="L81" s="140"/>
       <c r="M81" s="169"/>
@@ -17330,14 +17350,14 @@
       <c r="R81" s="169"/>
     </row>
     <row r="82" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B82" s="265"/>
-      <c r="C82" s="266"/>
-      <c r="D82" s="248"/>
-      <c r="E82" s="249"/>
-      <c r="F82" s="248"/>
-      <c r="G82" s="249"/>
-      <c r="H82" s="248"/>
-      <c r="I82" s="249"/>
+      <c r="B82" s="293"/>
+      <c r="C82" s="294"/>
+      <c r="D82" s="254"/>
+      <c r="E82" s="256"/>
+      <c r="F82" s="254"/>
+      <c r="G82" s="256"/>
+      <c r="H82" s="254"/>
+      <c r="I82" s="256"/>
       <c r="K82" s="140"/>
       <c r="L82" s="140"/>
       <c r="M82" s="169"/>
@@ -17348,14 +17368,14 @@
       <c r="R82" s="169"/>
     </row>
     <row r="83" spans="2:18" ht="15" customHeight="1">
-      <c r="B83" s="265"/>
-      <c r="C83" s="266"/>
-      <c r="D83" s="248"/>
-      <c r="E83" s="249"/>
-      <c r="F83" s="248"/>
-      <c r="G83" s="249"/>
-      <c r="H83" s="248"/>
-      <c r="I83" s="249"/>
+      <c r="B83" s="293"/>
+      <c r="C83" s="294"/>
+      <c r="D83" s="254"/>
+      <c r="E83" s="256"/>
+      <c r="F83" s="254"/>
+      <c r="G83" s="256"/>
+      <c r="H83" s="254"/>
+      <c r="I83" s="256"/>
       <c r="K83" s="140"/>
       <c r="L83" s="140"/>
       <c r="M83" s="169"/>
@@ -17366,14 +17386,14 @@
       <c r="R83" s="169"/>
     </row>
     <row r="84" spans="2:18">
-      <c r="B84" s="265"/>
-      <c r="C84" s="266"/>
-      <c r="D84" s="248"/>
-      <c r="E84" s="249"/>
-      <c r="F84" s="248"/>
-      <c r="G84" s="249"/>
-      <c r="H84" s="248"/>
-      <c r="I84" s="249"/>
+      <c r="B84" s="293"/>
+      <c r="C84" s="294"/>
+      <c r="D84" s="254"/>
+      <c r="E84" s="256"/>
+      <c r="F84" s="254"/>
+      <c r="G84" s="256"/>
+      <c r="H84" s="254"/>
+      <c r="I84" s="256"/>
       <c r="K84" s="140"/>
       <c r="L84" s="140"/>
       <c r="M84" s="169"/>
@@ -17384,14 +17404,14 @@
       <c r="R84" s="169"/>
     </row>
     <row r="85" spans="2:18">
-      <c r="B85" s="267"/>
-      <c r="C85" s="268"/>
-      <c r="D85" s="250"/>
-      <c r="E85" s="251"/>
-      <c r="F85" s="250"/>
-      <c r="G85" s="251"/>
-      <c r="H85" s="250"/>
-      <c r="I85" s="251"/>
+      <c r="B85" s="295"/>
+      <c r="C85" s="296"/>
+      <c r="D85" s="251"/>
+      <c r="E85" s="252"/>
+      <c r="F85" s="251"/>
+      <c r="G85" s="252"/>
+      <c r="H85" s="251"/>
+      <c r="I85" s="252"/>
       <c r="K85" s="140"/>
       <c r="L85" s="140"/>
       <c r="M85" s="169"/>
@@ -17402,22 +17422,22 @@
       <c r="R85" s="169"/>
     </row>
     <row r="86" spans="2:18">
-      <c r="B86" s="263" t="s">
+      <c r="B86" s="291" t="s">
         <v>238</v>
       </c>
-      <c r="C86" s="264"/>
-      <c r="D86" s="246" t="s">
+      <c r="C86" s="292"/>
+      <c r="D86" s="249" t="s">
         <v>241</v>
       </c>
-      <c r="E86" s="247"/>
-      <c r="F86" s="246" t="s">
+      <c r="E86" s="250"/>
+      <c r="F86" s="249" t="s">
         <v>287</v>
       </c>
-      <c r="G86" s="247"/>
-      <c r="H86" s="246" t="s">
+      <c r="G86" s="250"/>
+      <c r="H86" s="249" t="s">
         <v>288</v>
       </c>
-      <c r="I86" s="247"/>
+      <c r="I86" s="250"/>
       <c r="K86" s="140"/>
       <c r="L86" s="140"/>
       <c r="M86" s="169"/>
@@ -17428,14 +17448,14 @@
       <c r="R86" s="169"/>
     </row>
     <row r="87" spans="2:18">
-      <c r="B87" s="265"/>
-      <c r="C87" s="266"/>
-      <c r="D87" s="248"/>
-      <c r="E87" s="249"/>
-      <c r="F87" s="248"/>
-      <c r="G87" s="249"/>
-      <c r="H87" s="248"/>
-      <c r="I87" s="249"/>
+      <c r="B87" s="293"/>
+      <c r="C87" s="294"/>
+      <c r="D87" s="254"/>
+      <c r="E87" s="256"/>
+      <c r="F87" s="254"/>
+      <c r="G87" s="256"/>
+      <c r="H87" s="254"/>
+      <c r="I87" s="256"/>
       <c r="K87" s="140"/>
       <c r="L87" s="140"/>
       <c r="M87" s="169"/>
@@ -17446,14 +17466,14 @@
       <c r="R87" s="169"/>
     </row>
     <row r="88" spans="2:18">
-      <c r="B88" s="265"/>
-      <c r="C88" s="266"/>
-      <c r="D88" s="248"/>
-      <c r="E88" s="249"/>
-      <c r="F88" s="248"/>
-      <c r="G88" s="249"/>
-      <c r="H88" s="248"/>
-      <c r="I88" s="249"/>
+      <c r="B88" s="293"/>
+      <c r="C88" s="294"/>
+      <c r="D88" s="254"/>
+      <c r="E88" s="256"/>
+      <c r="F88" s="254"/>
+      <c r="G88" s="256"/>
+      <c r="H88" s="254"/>
+      <c r="I88" s="256"/>
       <c r="K88" s="140"/>
       <c r="L88" s="140"/>
       <c r="M88" s="169"/>
@@ -17464,14 +17484,14 @@
       <c r="R88" s="169"/>
     </row>
     <row r="89" spans="2:18" ht="15" customHeight="1">
-      <c r="B89" s="265"/>
-      <c r="C89" s="266"/>
-      <c r="D89" s="248"/>
-      <c r="E89" s="249"/>
-      <c r="F89" s="248"/>
-      <c r="G89" s="249"/>
-      <c r="H89" s="248"/>
-      <c r="I89" s="249"/>
+      <c r="B89" s="293"/>
+      <c r="C89" s="294"/>
+      <c r="D89" s="254"/>
+      <c r="E89" s="256"/>
+      <c r="F89" s="254"/>
+      <c r="G89" s="256"/>
+      <c r="H89" s="254"/>
+      <c r="I89" s="256"/>
       <c r="K89" s="169"/>
       <c r="L89" s="169"/>
       <c r="M89" s="169"/>
@@ -17482,14 +17502,14 @@
       <c r="R89" s="169"/>
     </row>
     <row r="90" spans="2:18">
-      <c r="B90" s="265"/>
-      <c r="C90" s="266"/>
-      <c r="D90" s="248"/>
-      <c r="E90" s="249"/>
-      <c r="F90" s="248"/>
-      <c r="G90" s="249"/>
-      <c r="H90" s="248"/>
-      <c r="I90" s="249"/>
+      <c r="B90" s="293"/>
+      <c r="C90" s="294"/>
+      <c r="D90" s="254"/>
+      <c r="E90" s="256"/>
+      <c r="F90" s="254"/>
+      <c r="G90" s="256"/>
+      <c r="H90" s="254"/>
+      <c r="I90" s="256"/>
       <c r="K90" s="169"/>
       <c r="L90" s="169"/>
       <c r="M90" s="169"/>
@@ -17500,14 +17520,14 @@
       <c r="R90" s="169"/>
     </row>
     <row r="91" spans="2:18">
-      <c r="B91" s="265"/>
-      <c r="C91" s="266"/>
-      <c r="D91" s="248"/>
-      <c r="E91" s="249"/>
-      <c r="F91" s="248"/>
-      <c r="G91" s="249"/>
-      <c r="H91" s="248"/>
-      <c r="I91" s="249"/>
+      <c r="B91" s="293"/>
+      <c r="C91" s="294"/>
+      <c r="D91" s="254"/>
+      <c r="E91" s="256"/>
+      <c r="F91" s="254"/>
+      <c r="G91" s="256"/>
+      <c r="H91" s="254"/>
+      <c r="I91" s="256"/>
       <c r="K91" s="169"/>
       <c r="L91" s="169"/>
       <c r="M91" s="169"/>
@@ -17518,140 +17538,140 @@
       <c r="R91" s="169"/>
     </row>
     <row r="92" spans="2:18">
-      <c r="B92" s="265"/>
-      <c r="C92" s="266"/>
-      <c r="D92" s="248"/>
-      <c r="E92" s="249"/>
-      <c r="F92" s="248"/>
-      <c r="G92" s="249"/>
-      <c r="H92" s="248"/>
-      <c r="I92" s="249"/>
+      <c r="B92" s="293"/>
+      <c r="C92" s="294"/>
+      <c r="D92" s="254"/>
+      <c r="E92" s="256"/>
+      <c r="F92" s="254"/>
+      <c r="G92" s="256"/>
+      <c r="H92" s="254"/>
+      <c r="I92" s="256"/>
     </row>
     <row r="93" spans="2:18" ht="15" customHeight="1">
-      <c r="B93" s="265"/>
-      <c r="C93" s="266"/>
-      <c r="D93" s="248"/>
-      <c r="E93" s="249"/>
-      <c r="F93" s="248"/>
-      <c r="G93" s="249"/>
-      <c r="H93" s="248"/>
-      <c r="I93" s="249"/>
+      <c r="B93" s="293"/>
+      <c r="C93" s="294"/>
+      <c r="D93" s="254"/>
+      <c r="E93" s="256"/>
+      <c r="F93" s="254"/>
+      <c r="G93" s="256"/>
+      <c r="H93" s="254"/>
+      <c r="I93" s="256"/>
       <c r="J93" s="168"/>
     </row>
     <row r="94" spans="2:18" ht="15" customHeight="1">
-      <c r="B94" s="267"/>
-      <c r="C94" s="268"/>
-      <c r="D94" s="250"/>
-      <c r="E94" s="251"/>
-      <c r="F94" s="250"/>
-      <c r="G94" s="251"/>
-      <c r="H94" s="250"/>
-      <c r="I94" s="251"/>
+      <c r="B94" s="295"/>
+      <c r="C94" s="296"/>
+      <c r="D94" s="251"/>
+      <c r="E94" s="252"/>
+      <c r="F94" s="251"/>
+      <c r="G94" s="252"/>
+      <c r="H94" s="251"/>
+      <c r="I94" s="252"/>
       <c r="J94" s="168"/>
     </row>
     <row r="95" spans="2:18" ht="15" customHeight="1">
-      <c r="B95" s="263" t="s">
+      <c r="B95" s="291" t="s">
         <v>239</v>
       </c>
-      <c r="C95" s="264"/>
-      <c r="D95" s="246" t="s">
+      <c r="C95" s="292"/>
+      <c r="D95" s="249" t="s">
         <v>244</v>
       </c>
-      <c r="E95" s="247"/>
-      <c r="F95" s="246" t="s">
+      <c r="E95" s="250"/>
+      <c r="F95" s="249" t="s">
         <v>286</v>
       </c>
-      <c r="G95" s="247"/>
-      <c r="H95" s="246" t="s">
+      <c r="G95" s="250"/>
+      <c r="H95" s="249" t="s">
         <v>289</v>
       </c>
-      <c r="I95" s="247"/>
+      <c r="I95" s="250"/>
       <c r="J95" s="168"/>
     </row>
     <row r="96" spans="2:18">
-      <c r="B96" s="265"/>
-      <c r="C96" s="266"/>
-      <c r="D96" s="248"/>
-      <c r="E96" s="249"/>
-      <c r="F96" s="248"/>
-      <c r="G96" s="249"/>
-      <c r="H96" s="248"/>
-      <c r="I96" s="249"/>
+      <c r="B96" s="293"/>
+      <c r="C96" s="294"/>
+      <c r="D96" s="254"/>
+      <c r="E96" s="256"/>
+      <c r="F96" s="254"/>
+      <c r="G96" s="256"/>
+      <c r="H96" s="254"/>
+      <c r="I96" s="256"/>
       <c r="J96" s="168"/>
     </row>
     <row r="97" spans="2:16" ht="15" customHeight="1">
-      <c r="B97" s="265"/>
-      <c r="C97" s="266"/>
-      <c r="D97" s="248"/>
-      <c r="E97" s="249"/>
-      <c r="F97" s="248"/>
-      <c r="G97" s="249"/>
-      <c r="H97" s="248"/>
-      <c r="I97" s="249"/>
+      <c r="B97" s="293"/>
+      <c r="C97" s="294"/>
+      <c r="D97" s="254"/>
+      <c r="E97" s="256"/>
+      <c r="F97" s="254"/>
+      <c r="G97" s="256"/>
+      <c r="H97" s="254"/>
+      <c r="I97" s="256"/>
       <c r="J97" s="168"/>
     </row>
     <row r="98" spans="2:16">
-      <c r="B98" s="265"/>
-      <c r="C98" s="266"/>
-      <c r="D98" s="248"/>
-      <c r="E98" s="249"/>
-      <c r="F98" s="248"/>
-      <c r="G98" s="249"/>
-      <c r="H98" s="248"/>
-      <c r="I98" s="249"/>
+      <c r="B98" s="293"/>
+      <c r="C98" s="294"/>
+      <c r="D98" s="254"/>
+      <c r="E98" s="256"/>
+      <c r="F98" s="254"/>
+      <c r="G98" s="256"/>
+      <c r="H98" s="254"/>
+      <c r="I98" s="256"/>
       <c r="J98" s="168"/>
     </row>
     <row r="99" spans="2:16">
-      <c r="B99" s="265"/>
-      <c r="C99" s="266"/>
-      <c r="D99" s="248"/>
-      <c r="E99" s="249"/>
-      <c r="F99" s="248"/>
-      <c r="G99" s="249"/>
-      <c r="H99" s="248"/>
-      <c r="I99" s="249"/>
+      <c r="B99" s="293"/>
+      <c r="C99" s="294"/>
+      <c r="D99" s="254"/>
+      <c r="E99" s="256"/>
+      <c r="F99" s="254"/>
+      <c r="G99" s="256"/>
+      <c r="H99" s="254"/>
+      <c r="I99" s="256"/>
       <c r="J99" s="168"/>
     </row>
     <row r="100" spans="2:16">
-      <c r="B100" s="265"/>
-      <c r="C100" s="266"/>
-      <c r="D100" s="248"/>
-      <c r="E100" s="249"/>
-      <c r="F100" s="248"/>
-      <c r="G100" s="249"/>
-      <c r="H100" s="248"/>
-      <c r="I100" s="249"/>
+      <c r="B100" s="293"/>
+      <c r="C100" s="294"/>
+      <c r="D100" s="254"/>
+      <c r="E100" s="256"/>
+      <c r="F100" s="254"/>
+      <c r="G100" s="256"/>
+      <c r="H100" s="254"/>
+      <c r="I100" s="256"/>
       <c r="J100" s="168"/>
     </row>
     <row r="101" spans="2:16">
-      <c r="B101" s="265"/>
-      <c r="C101" s="266"/>
-      <c r="D101" s="248"/>
-      <c r="E101" s="249"/>
-      <c r="F101" s="248"/>
-      <c r="G101" s="249"/>
-      <c r="H101" s="248"/>
-      <c r="I101" s="249"/>
+      <c r="B101" s="293"/>
+      <c r="C101" s="294"/>
+      <c r="D101" s="254"/>
+      <c r="E101" s="256"/>
+      <c r="F101" s="254"/>
+      <c r="G101" s="256"/>
+      <c r="H101" s="254"/>
+      <c r="I101" s="256"/>
     </row>
     <row r="102" spans="2:16">
-      <c r="B102" s="265"/>
-      <c r="C102" s="266"/>
-      <c r="D102" s="248"/>
-      <c r="E102" s="249"/>
-      <c r="F102" s="248"/>
-      <c r="G102" s="249"/>
-      <c r="H102" s="248"/>
-      <c r="I102" s="249"/>
+      <c r="B102" s="293"/>
+      <c r="C102" s="294"/>
+      <c r="D102" s="254"/>
+      <c r="E102" s="256"/>
+      <c r="F102" s="254"/>
+      <c r="G102" s="256"/>
+      <c r="H102" s="254"/>
+      <c r="I102" s="256"/>
     </row>
     <row r="103" spans="2:16">
-      <c r="B103" s="267"/>
-      <c r="C103" s="268"/>
-      <c r="D103" s="250"/>
-      <c r="E103" s="251"/>
-      <c r="F103" s="250"/>
-      <c r="G103" s="251"/>
-      <c r="H103" s="250"/>
-      <c r="I103" s="251"/>
+      <c r="B103" s="295"/>
+      <c r="C103" s="296"/>
+      <c r="D103" s="251"/>
+      <c r="E103" s="252"/>
+      <c r="F103" s="251"/>
+      <c r="G103" s="252"/>
+      <c r="H103" s="251"/>
+      <c r="I103" s="252"/>
       <c r="K103" s="140"/>
       <c r="L103" s="140"/>
       <c r="M103" s="137"/>
@@ -17659,335 +17679,335 @@
       <c r="P103" s="140"/>
     </row>
     <row r="106" spans="2:16">
-      <c r="B106" s="269" t="s">
+      <c r="B106" s="271" t="s">
         <v>71</v>
       </c>
-      <c r="C106" s="270"/>
-      <c r="D106" s="270"/>
-      <c r="E106" s="270"/>
-      <c r="F106" s="270"/>
-      <c r="G106" s="270"/>
-      <c r="H106" s="270"/>
-      <c r="I106" s="271"/>
+      <c r="C106" s="272"/>
+      <c r="D106" s="272"/>
+      <c r="E106" s="272"/>
+      <c r="F106" s="272"/>
+      <c r="G106" s="272"/>
+      <c r="H106" s="272"/>
+      <c r="I106" s="273"/>
     </row>
     <row r="107" spans="2:16">
-      <c r="B107" s="261" t="s">
+      <c r="B107" s="260" t="s">
         <v>72</v>
       </c>
-      <c r="C107" s="262"/>
-      <c r="D107" s="261" t="s">
+      <c r="C107" s="261"/>
+      <c r="D107" s="260" t="s">
         <v>73</v>
       </c>
-      <c r="E107" s="276"/>
-      <c r="F107" s="276"/>
-      <c r="G107" s="262"/>
-      <c r="H107" s="261" t="s">
+      <c r="E107" s="274"/>
+      <c r="F107" s="274"/>
+      <c r="G107" s="261"/>
+      <c r="H107" s="260" t="s">
         <v>74</v>
       </c>
-      <c r="I107" s="262"/>
+      <c r="I107" s="261"/>
     </row>
     <row r="108" spans="2:16">
-      <c r="B108" s="246" t="s">
+      <c r="B108" s="249" t="s">
         <v>221</v>
       </c>
-      <c r="C108" s="247"/>
-      <c r="D108" s="246" t="s">
+      <c r="C108" s="250"/>
+      <c r="D108" s="249" t="s">
         <v>245</v>
       </c>
-      <c r="E108" s="252"/>
-      <c r="F108" s="252"/>
-      <c r="G108" s="247"/>
-      <c r="H108" s="255">
+      <c r="E108" s="253"/>
+      <c r="F108" s="253"/>
+      <c r="G108" s="250"/>
+      <c r="H108" s="285">
         <v>43595</v>
       </c>
-      <c r="I108" s="256"/>
+      <c r="I108" s="286"/>
       <c r="N108" s="172"/>
     </row>
     <row r="109" spans="2:16">
-      <c r="B109" s="248"/>
-      <c r="C109" s="249"/>
-      <c r="D109" s="248"/>
-      <c r="E109" s="253"/>
-      <c r="F109" s="253"/>
-      <c r="G109" s="249"/>
-      <c r="H109" s="257"/>
-      <c r="I109" s="258"/>
+      <c r="B109" s="254"/>
+      <c r="C109" s="256"/>
+      <c r="D109" s="254"/>
+      <c r="E109" s="255"/>
+      <c r="F109" s="255"/>
+      <c r="G109" s="256"/>
+      <c r="H109" s="287"/>
+      <c r="I109" s="288"/>
     </row>
     <row r="110" spans="2:16">
-      <c r="B110" s="248"/>
-      <c r="C110" s="249"/>
-      <c r="D110" s="248"/>
-      <c r="E110" s="253"/>
-      <c r="F110" s="253"/>
-      <c r="G110" s="249"/>
-      <c r="H110" s="257"/>
-      <c r="I110" s="258"/>
+      <c r="B110" s="254"/>
+      <c r="C110" s="256"/>
+      <c r="D110" s="254"/>
+      <c r="E110" s="255"/>
+      <c r="F110" s="255"/>
+      <c r="G110" s="256"/>
+      <c r="H110" s="287"/>
+      <c r="I110" s="288"/>
     </row>
     <row r="111" spans="2:16">
-      <c r="B111" s="248"/>
-      <c r="C111" s="249"/>
-      <c r="D111" s="248"/>
-      <c r="E111" s="253"/>
-      <c r="F111" s="253"/>
-      <c r="G111" s="249"/>
-      <c r="H111" s="257"/>
-      <c r="I111" s="258"/>
+      <c r="B111" s="254"/>
+      <c r="C111" s="256"/>
+      <c r="D111" s="254"/>
+      <c r="E111" s="255"/>
+      <c r="F111" s="255"/>
+      <c r="G111" s="256"/>
+      <c r="H111" s="287"/>
+      <c r="I111" s="288"/>
     </row>
     <row r="112" spans="2:16">
-      <c r="B112" s="248"/>
-      <c r="C112" s="249"/>
-      <c r="D112" s="248"/>
-      <c r="E112" s="253"/>
-      <c r="F112" s="253"/>
-      <c r="G112" s="249"/>
-      <c r="H112" s="257"/>
-      <c r="I112" s="258"/>
+      <c r="B112" s="254"/>
+      <c r="C112" s="256"/>
+      <c r="D112" s="254"/>
+      <c r="E112" s="255"/>
+      <c r="F112" s="255"/>
+      <c r="G112" s="256"/>
+      <c r="H112" s="287"/>
+      <c r="I112" s="288"/>
     </row>
     <row r="113" spans="2:9">
-      <c r="B113" s="250"/>
-      <c r="C113" s="251"/>
-      <c r="D113" s="250"/>
-      <c r="E113" s="254"/>
-      <c r="F113" s="254"/>
-      <c r="G113" s="251"/>
-      <c r="H113" s="259"/>
-      <c r="I113" s="260"/>
+      <c r="B113" s="251"/>
+      <c r="C113" s="252"/>
+      <c r="D113" s="251"/>
+      <c r="E113" s="257"/>
+      <c r="F113" s="257"/>
+      <c r="G113" s="252"/>
+      <c r="H113" s="289"/>
+      <c r="I113" s="290"/>
     </row>
     <row r="114" spans="2:9">
-      <c r="B114" s="246" t="s">
+      <c r="B114" s="249" t="s">
         <v>246</v>
       </c>
-      <c r="C114" s="247"/>
-      <c r="D114" s="246" t="s">
+      <c r="C114" s="250"/>
+      <c r="D114" s="249" t="s">
         <v>248</v>
       </c>
-      <c r="E114" s="252"/>
-      <c r="F114" s="252"/>
-      <c r="G114" s="247"/>
-      <c r="H114" s="255">
+      <c r="E114" s="253"/>
+      <c r="F114" s="253"/>
+      <c r="G114" s="250"/>
+      <c r="H114" s="285">
         <v>43596</v>
       </c>
-      <c r="I114" s="256"/>
+      <c r="I114" s="286"/>
     </row>
     <row r="115" spans="2:9">
-      <c r="B115" s="248"/>
-      <c r="C115" s="249"/>
-      <c r="D115" s="248"/>
-      <c r="E115" s="253"/>
-      <c r="F115" s="253"/>
-      <c r="G115" s="249"/>
-      <c r="H115" s="257"/>
-      <c r="I115" s="258"/>
+      <c r="B115" s="254"/>
+      <c r="C115" s="256"/>
+      <c r="D115" s="254"/>
+      <c r="E115" s="255"/>
+      <c r="F115" s="255"/>
+      <c r="G115" s="256"/>
+      <c r="H115" s="287"/>
+      <c r="I115" s="288"/>
     </row>
     <row r="116" spans="2:9">
-      <c r="B116" s="248"/>
-      <c r="C116" s="249"/>
-      <c r="D116" s="248"/>
-      <c r="E116" s="253"/>
-      <c r="F116" s="253"/>
-      <c r="G116" s="249"/>
-      <c r="H116" s="257"/>
-      <c r="I116" s="258"/>
+      <c r="B116" s="254"/>
+      <c r="C116" s="256"/>
+      <c r="D116" s="254"/>
+      <c r="E116" s="255"/>
+      <c r="F116" s="255"/>
+      <c r="G116" s="256"/>
+      <c r="H116" s="287"/>
+      <c r="I116" s="288"/>
     </row>
     <row r="117" spans="2:9">
-      <c r="B117" s="248"/>
-      <c r="C117" s="249"/>
-      <c r="D117" s="248"/>
-      <c r="E117" s="253"/>
-      <c r="F117" s="253"/>
-      <c r="G117" s="249"/>
-      <c r="H117" s="257"/>
-      <c r="I117" s="258"/>
+      <c r="B117" s="254"/>
+      <c r="C117" s="256"/>
+      <c r="D117" s="254"/>
+      <c r="E117" s="255"/>
+      <c r="F117" s="255"/>
+      <c r="G117" s="256"/>
+      <c r="H117" s="287"/>
+      <c r="I117" s="288"/>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="248"/>
-      <c r="C118" s="249"/>
-      <c r="D118" s="248"/>
-      <c r="E118" s="253"/>
-      <c r="F118" s="253"/>
-      <c r="G118" s="249"/>
-      <c r="H118" s="257"/>
-      <c r="I118" s="258"/>
+      <c r="B118" s="254"/>
+      <c r="C118" s="256"/>
+      <c r="D118" s="254"/>
+      <c r="E118" s="255"/>
+      <c r="F118" s="255"/>
+      <c r="G118" s="256"/>
+      <c r="H118" s="287"/>
+      <c r="I118" s="288"/>
     </row>
     <row r="119" spans="2:9">
-      <c r="B119" s="250"/>
-      <c r="C119" s="251"/>
-      <c r="D119" s="250"/>
-      <c r="E119" s="254"/>
-      <c r="F119" s="254"/>
-      <c r="G119" s="251"/>
-      <c r="H119" s="259"/>
-      <c r="I119" s="260"/>
+      <c r="B119" s="251"/>
+      <c r="C119" s="252"/>
+      <c r="D119" s="251"/>
+      <c r="E119" s="257"/>
+      <c r="F119" s="257"/>
+      <c r="G119" s="252"/>
+      <c r="H119" s="289"/>
+      <c r="I119" s="290"/>
     </row>
     <row r="120" spans="2:9">
-      <c r="B120" s="246" t="s">
+      <c r="B120" s="249" t="s">
         <v>188</v>
       </c>
-      <c r="C120" s="247"/>
-      <c r="D120" s="246" t="s">
+      <c r="C120" s="250"/>
+      <c r="D120" s="249" t="s">
         <v>249</v>
       </c>
-      <c r="E120" s="252"/>
-      <c r="F120" s="252"/>
-      <c r="G120" s="247"/>
-      <c r="H120" s="255">
+      <c r="E120" s="253"/>
+      <c r="F120" s="253"/>
+      <c r="G120" s="250"/>
+      <c r="H120" s="285">
         <v>43617</v>
       </c>
-      <c r="I120" s="256"/>
+      <c r="I120" s="286"/>
     </row>
     <row r="121" spans="2:9">
-      <c r="B121" s="248"/>
-      <c r="C121" s="249"/>
-      <c r="D121" s="248"/>
-      <c r="E121" s="253"/>
-      <c r="F121" s="253"/>
-      <c r="G121" s="249"/>
-      <c r="H121" s="257"/>
-      <c r="I121" s="258"/>
+      <c r="B121" s="254"/>
+      <c r="C121" s="256"/>
+      <c r="D121" s="254"/>
+      <c r="E121" s="255"/>
+      <c r="F121" s="255"/>
+      <c r="G121" s="256"/>
+      <c r="H121" s="287"/>
+      <c r="I121" s="288"/>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="248"/>
-      <c r="C122" s="249"/>
-      <c r="D122" s="248"/>
-      <c r="E122" s="253"/>
-      <c r="F122" s="253"/>
-      <c r="G122" s="249"/>
-      <c r="H122" s="257"/>
-      <c r="I122" s="258"/>
+      <c r="B122" s="254"/>
+      <c r="C122" s="256"/>
+      <c r="D122" s="254"/>
+      <c r="E122" s="255"/>
+      <c r="F122" s="255"/>
+      <c r="G122" s="256"/>
+      <c r="H122" s="287"/>
+      <c r="I122" s="288"/>
     </row>
     <row r="123" spans="2:9">
-      <c r="B123" s="248"/>
-      <c r="C123" s="249"/>
-      <c r="D123" s="248"/>
-      <c r="E123" s="253"/>
-      <c r="F123" s="253"/>
-      <c r="G123" s="249"/>
-      <c r="H123" s="257"/>
-      <c r="I123" s="258"/>
+      <c r="B123" s="254"/>
+      <c r="C123" s="256"/>
+      <c r="D123" s="254"/>
+      <c r="E123" s="255"/>
+      <c r="F123" s="255"/>
+      <c r="G123" s="256"/>
+      <c r="H123" s="287"/>
+      <c r="I123" s="288"/>
     </row>
     <row r="124" spans="2:9">
-      <c r="B124" s="248"/>
-      <c r="C124" s="249"/>
-      <c r="D124" s="248"/>
-      <c r="E124" s="253"/>
-      <c r="F124" s="253"/>
-      <c r="G124" s="249"/>
-      <c r="H124" s="257"/>
-      <c r="I124" s="258"/>
+      <c r="B124" s="254"/>
+      <c r="C124" s="256"/>
+      <c r="D124" s="254"/>
+      <c r="E124" s="255"/>
+      <c r="F124" s="255"/>
+      <c r="G124" s="256"/>
+      <c r="H124" s="287"/>
+      <c r="I124" s="288"/>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="250"/>
-      <c r="C125" s="251"/>
-      <c r="D125" s="250"/>
-      <c r="E125" s="254"/>
-      <c r="F125" s="254"/>
-      <c r="G125" s="251"/>
-      <c r="H125" s="259"/>
-      <c r="I125" s="260"/>
+      <c r="B125" s="251"/>
+      <c r="C125" s="252"/>
+      <c r="D125" s="251"/>
+      <c r="E125" s="257"/>
+      <c r="F125" s="257"/>
+      <c r="G125" s="252"/>
+      <c r="H125" s="289"/>
+      <c r="I125" s="290"/>
     </row>
     <row r="126" spans="2:9">
-      <c r="B126" s="246" t="s">
+      <c r="B126" s="249" t="s">
         <v>247</v>
       </c>
-      <c r="C126" s="247"/>
-      <c r="D126" s="246" t="s">
+      <c r="C126" s="250"/>
+      <c r="D126" s="249" t="s">
         <v>250</v>
       </c>
-      <c r="E126" s="252"/>
-      <c r="F126" s="252"/>
-      <c r="G126" s="247"/>
-      <c r="H126" s="255">
+      <c r="E126" s="253"/>
+      <c r="F126" s="253"/>
+      <c r="G126" s="250"/>
+      <c r="H126" s="285">
         <v>43630</v>
       </c>
-      <c r="I126" s="256"/>
+      <c r="I126" s="286"/>
     </row>
     <row r="127" spans="2:9">
-      <c r="B127" s="248"/>
-      <c r="C127" s="249"/>
-      <c r="D127" s="248"/>
-      <c r="E127" s="253"/>
-      <c r="F127" s="253"/>
-      <c r="G127" s="249"/>
-      <c r="H127" s="257"/>
-      <c r="I127" s="258"/>
+      <c r="B127" s="254"/>
+      <c r="C127" s="256"/>
+      <c r="D127" s="254"/>
+      <c r="E127" s="255"/>
+      <c r="F127" s="255"/>
+      <c r="G127" s="256"/>
+      <c r="H127" s="287"/>
+      <c r="I127" s="288"/>
     </row>
     <row r="128" spans="2:9">
-      <c r="B128" s="248"/>
-      <c r="C128" s="249"/>
-      <c r="D128" s="248"/>
-      <c r="E128" s="253"/>
-      <c r="F128" s="253"/>
-      <c r="G128" s="249"/>
-      <c r="H128" s="257"/>
-      <c r="I128" s="258"/>
+      <c r="B128" s="254"/>
+      <c r="C128" s="256"/>
+      <c r="D128" s="254"/>
+      <c r="E128" s="255"/>
+      <c r="F128" s="255"/>
+      <c r="G128" s="256"/>
+      <c r="H128" s="287"/>
+      <c r="I128" s="288"/>
     </row>
     <row r="129" spans="2:9">
-      <c r="B129" s="248"/>
-      <c r="C129" s="249"/>
-      <c r="D129" s="248"/>
-      <c r="E129" s="253"/>
-      <c r="F129" s="253"/>
-      <c r="G129" s="249"/>
-      <c r="H129" s="257"/>
-      <c r="I129" s="258"/>
+      <c r="B129" s="254"/>
+      <c r="C129" s="256"/>
+      <c r="D129" s="254"/>
+      <c r="E129" s="255"/>
+      <c r="F129" s="255"/>
+      <c r="G129" s="256"/>
+      <c r="H129" s="287"/>
+      <c r="I129" s="288"/>
     </row>
     <row r="130" spans="2:9">
-      <c r="B130" s="248"/>
-      <c r="C130" s="249"/>
-      <c r="D130" s="248"/>
-      <c r="E130" s="253"/>
-      <c r="F130" s="253"/>
-      <c r="G130" s="249"/>
-      <c r="H130" s="257"/>
-      <c r="I130" s="258"/>
+      <c r="B130" s="254"/>
+      <c r="C130" s="256"/>
+      <c r="D130" s="254"/>
+      <c r="E130" s="255"/>
+      <c r="F130" s="255"/>
+      <c r="G130" s="256"/>
+      <c r="H130" s="287"/>
+      <c r="I130" s="288"/>
     </row>
     <row r="131" spans="2:9">
-      <c r="B131" s="250"/>
-      <c r="C131" s="251"/>
-      <c r="D131" s="250"/>
-      <c r="E131" s="254"/>
-      <c r="F131" s="254"/>
-      <c r="G131" s="251"/>
-      <c r="H131" s="259"/>
-      <c r="I131" s="260"/>
+      <c r="B131" s="251"/>
+      <c r="C131" s="252"/>
+      <c r="D131" s="251"/>
+      <c r="E131" s="257"/>
+      <c r="F131" s="257"/>
+      <c r="G131" s="252"/>
+      <c r="H131" s="289"/>
+      <c r="I131" s="290"/>
     </row>
     <row r="135" spans="2:9">
-      <c r="B135" s="274" t="s">
+      <c r="B135" s="283" t="s">
         <v>75</v>
       </c>
-      <c r="C135" s="274"/>
-      <c r="D135" s="274"/>
+      <c r="C135" s="283"/>
+      <c r="D135" s="283"/>
       <c r="E135" s="133"/>
-      <c r="G135" s="274" t="s">
+      <c r="G135" s="283" t="s">
         <v>77</v>
       </c>
-      <c r="H135" s="274"/>
-      <c r="I135" s="274"/>
+      <c r="H135" s="283"/>
+      <c r="I135" s="283"/>
     </row>
     <row r="136" spans="2:9">
-      <c r="B136" s="272" t="s">
+      <c r="B136" s="281" t="s">
         <v>76</v>
       </c>
-      <c r="C136" s="272"/>
-      <c r="D136" s="272"/>
+      <c r="C136" s="281"/>
+      <c r="D136" s="281"/>
       <c r="E136" s="133"/>
-      <c r="G136" s="275" t="s">
+      <c r="G136" s="284" t="s">
         <v>78</v>
       </c>
-      <c r="H136" s="275"/>
-      <c r="I136" s="275"/>
+      <c r="H136" s="284"/>
+      <c r="I136" s="284"/>
     </row>
     <row r="137" spans="2:9">
       <c r="B137" s="131"/>
       <c r="C137" s="131"/>
     </row>
     <row r="139" spans="2:9">
-      <c r="B139" s="273" t="s">
+      <c r="B139" s="282" t="s">
         <v>102</v>
       </c>
-      <c r="C139" s="273"/>
-      <c r="D139" s="273"/>
-      <c r="E139" s="273"/>
+      <c r="C139" s="282"/>
+      <c r="D139" s="282"/>
+      <c r="E139" s="282"/>
     </row>
     <row r="141" spans="2:9">
       <c r="B141" s="132"/>
@@ -18006,6 +18026,79 @@
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="F86:G94"/>
+    <mergeCell ref="H86:I94"/>
+    <mergeCell ref="B126:C131"/>
+    <mergeCell ref="D126:G131"/>
+    <mergeCell ref="H126:I131"/>
+    <mergeCell ref="B114:C119"/>
+    <mergeCell ref="D114:G119"/>
+    <mergeCell ref="H114:I119"/>
+    <mergeCell ref="B120:C125"/>
+    <mergeCell ref="D120:G125"/>
+    <mergeCell ref="H120:I125"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="B77:C85"/>
+    <mergeCell ref="B75:I75"/>
+    <mergeCell ref="B106:I106"/>
+    <mergeCell ref="B86:C94"/>
+    <mergeCell ref="B95:C103"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="D95:E103"/>
+    <mergeCell ref="F95:G103"/>
+    <mergeCell ref="H95:I103"/>
+    <mergeCell ref="D77:E85"/>
+    <mergeCell ref="F77:G85"/>
+    <mergeCell ref="H77:I85"/>
+    <mergeCell ref="D86:E94"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="B108:C113"/>
+    <mergeCell ref="D108:G113"/>
+    <mergeCell ref="H108:I113"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B37:E39"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B32:E35"/>
+    <mergeCell ref="F32:I35"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:C49"/>
+    <mergeCell ref="B50:C52"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I27"/>
+    <mergeCell ref="B41:E43"/>
+    <mergeCell ref="F41:I43"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="D47:I49"/>
+    <mergeCell ref="D50:I52"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B69:E73"/>
+    <mergeCell ref="F69:I73"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I64"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="I53:I54"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="H10:I11"/>
     <mergeCell ref="D12:I14"/>
@@ -18022,79 +18115,6 @@
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="F10:G11"/>
     <mergeCell ref="D8:I9"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B69:E73"/>
-    <mergeCell ref="F69:I73"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I64"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:C49"/>
-    <mergeCell ref="B50:C52"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I27"/>
-    <mergeCell ref="B41:E43"/>
-    <mergeCell ref="F41:I43"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="D47:I49"/>
-    <mergeCell ref="D50:I52"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B37:E39"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B32:E35"/>
-    <mergeCell ref="F32:I35"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="B108:C113"/>
-    <mergeCell ref="D108:G113"/>
-    <mergeCell ref="H108:I113"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="B77:C85"/>
-    <mergeCell ref="B75:I75"/>
-    <mergeCell ref="B106:I106"/>
-    <mergeCell ref="B86:C94"/>
-    <mergeCell ref="B95:C103"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="D95:E103"/>
-    <mergeCell ref="F95:G103"/>
-    <mergeCell ref="H95:I103"/>
-    <mergeCell ref="D77:E85"/>
-    <mergeCell ref="F77:G85"/>
-    <mergeCell ref="H77:I85"/>
-    <mergeCell ref="D86:E94"/>
-    <mergeCell ref="F86:G94"/>
-    <mergeCell ref="H86:I94"/>
-    <mergeCell ref="B126:C131"/>
-    <mergeCell ref="D126:G131"/>
-    <mergeCell ref="H126:I131"/>
-    <mergeCell ref="B114:C119"/>
-    <mergeCell ref="D114:G119"/>
-    <mergeCell ref="H114:I119"/>
-    <mergeCell ref="B120:C125"/>
-    <mergeCell ref="D120:G125"/>
-    <mergeCell ref="H120:I125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18133,8 +18153,8 @@
   </sheetPr>
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -18555,8 +18575,12 @@
     <row r="19" spans="2:11">
       <c r="B19" s="141"/>
       <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
+      <c r="D19" s="452" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" s="453" t="s">
+        <v>341</v>
+      </c>
       <c r="F19" s="141"/>
       <c r="G19" s="141"/>
       <c r="H19" s="141"/>
@@ -18595,6 +18619,9 @@
   <mergeCells count="1">
     <mergeCell ref="B2:K2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E19" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18613,10 +18640,10 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:42" ht="15.75" thickBot="1">
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
       <c r="G3" s="163"/>
       <c r="H3" s="164"/>
       <c r="I3" s="164"/>
@@ -18652,10 +18679,10 @@
       <c r="AM3" s="164"/>
     </row>
     <row r="4" spans="1:42" ht="15" customHeight="1">
-      <c r="B4" s="315"/>
-      <c r="C4" s="315"/>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
+      <c r="B4" s="298"/>
+      <c r="C4" s="298"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
       <c r="F4" s="164"/>
       <c r="G4" s="164"/>
       <c r="H4" s="164"/>
@@ -18678,11 +18705,11 @@
       <c r="Y4" s="164"/>
       <c r="Z4" s="164"/>
       <c r="AA4" s="164"/>
-      <c r="AB4" s="298" t="s">
+      <c r="AB4" s="299" t="s">
         <v>329</v>
       </c>
-      <c r="AC4" s="299"/>
-      <c r="AD4" s="300"/>
+      <c r="AC4" s="300"/>
+      <c r="AD4" s="301"/>
       <c r="AE4" s="163"/>
       <c r="AF4" s="164"/>
       <c r="AG4" s="164"/>
@@ -18721,9 +18748,9 @@
       <c r="Y5" s="164"/>
       <c r="Z5" s="164"/>
       <c r="AA5" s="164"/>
-      <c r="AB5" s="301"/>
-      <c r="AC5" s="302"/>
-      <c r="AD5" s="303"/>
+      <c r="AB5" s="302"/>
+      <c r="AC5" s="303"/>
+      <c r="AD5" s="304"/>
       <c r="AE5" s="163"/>
       <c r="AF5" s="164"/>
       <c r="AG5" s="164"/>
@@ -18762,9 +18789,9 @@
       <c r="Y6" s="164"/>
       <c r="Z6" s="164"/>
       <c r="AA6" s="164"/>
-      <c r="AB6" s="304"/>
-      <c r="AC6" s="305"/>
-      <c r="AD6" s="306"/>
+      <c r="AB6" s="305"/>
+      <c r="AC6" s="306"/>
+      <c r="AD6" s="307"/>
       <c r="AE6" s="164"/>
       <c r="AF6" s="164"/>
       <c r="AG6" s="164"/>
@@ -18782,11 +18809,11 @@
       <c r="D7" s="163"/>
       <c r="E7" s="163"/>
       <c r="F7" s="163"/>
-      <c r="R7" s="298" t="s">
+      <c r="R7" s="299" t="s">
         <v>334</v>
       </c>
-      <c r="S7" s="307"/>
-      <c r="T7" s="308"/>
+      <c r="S7" s="308"/>
+      <c r="T7" s="309"/>
       <c r="AA7" s="164"/>
       <c r="AB7" s="164"/>
       <c r="AC7" s="164"/>
@@ -18808,14 +18835,14 @@
       <c r="D8" s="163"/>
       <c r="E8" s="163"/>
       <c r="F8" s="163"/>
-      <c r="M8" s="298" t="s">
+      <c r="M8" s="299" t="s">
         <v>332</v>
       </c>
-      <c r="N8" s="307"/>
-      <c r="O8" s="308"/>
-      <c r="R8" s="309"/>
-      <c r="S8" s="310"/>
-      <c r="T8" s="311"/>
+      <c r="N8" s="308"/>
+      <c r="O8" s="309"/>
+      <c r="R8" s="310"/>
+      <c r="S8" s="311"/>
+      <c r="T8" s="312"/>
       <c r="AA8" s="164"/>
       <c r="AE8" s="164"/>
       <c r="AF8" s="164"/>
@@ -18834,12 +18861,12 @@
       <c r="D9" s="163"/>
       <c r="E9" s="163"/>
       <c r="F9" s="163"/>
-      <c r="M9" s="309"/>
-      <c r="N9" s="310"/>
-      <c r="O9" s="311"/>
-      <c r="R9" s="312"/>
-      <c r="S9" s="313"/>
-      <c r="T9" s="314"/>
+      <c r="M9" s="310"/>
+      <c r="N9" s="311"/>
+      <c r="O9" s="312"/>
+      <c r="R9" s="313"/>
+      <c r="S9" s="314"/>
+      <c r="T9" s="315"/>
       <c r="AA9" s="164"/>
       <c r="AE9" s="163"/>
       <c r="AF9" s="164"/>
@@ -18858,14 +18885,14 @@
       <c r="D10" s="163"/>
       <c r="E10" s="163"/>
       <c r="F10" s="163"/>
-      <c r="H10" s="298" t="s">
+      <c r="H10" s="299" t="s">
         <v>331</v>
       </c>
-      <c r="I10" s="299"/>
-      <c r="J10" s="300"/>
-      <c r="M10" s="312"/>
-      <c r="N10" s="313"/>
-      <c r="O10" s="314"/>
+      <c r="I10" s="300"/>
+      <c r="J10" s="301"/>
+      <c r="M10" s="313"/>
+      <c r="N10" s="314"/>
+      <c r="O10" s="315"/>
       <c r="AA10" s="164"/>
       <c r="AE10" s="163"/>
       <c r="AF10" s="164"/>
@@ -18881,14 +18908,14 @@
       <c r="A11" s="163"/>
       <c r="B11" s="163"/>
       <c r="C11" s="163"/>
-      <c r="D11" s="298" t="s">
+      <c r="D11" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="E11" s="307"/>
-      <c r="F11" s="308"/>
-      <c r="H11" s="301"/>
-      <c r="I11" s="302"/>
-      <c r="J11" s="303"/>
+      <c r="E11" s="308"/>
+      <c r="F11" s="309"/>
+      <c r="H11" s="302"/>
+      <c r="I11" s="303"/>
+      <c r="J11" s="304"/>
       <c r="AA11" s="164"/>
       <c r="AE11" s="163"/>
       <c r="AF11" s="163"/>
@@ -18904,17 +18931,17 @@
       <c r="A12" s="163"/>
       <c r="B12" s="163"/>
       <c r="C12" s="163"/>
-      <c r="D12" s="309"/>
-      <c r="E12" s="310"/>
-      <c r="F12" s="311"/>
-      <c r="H12" s="304"/>
-      <c r="I12" s="305"/>
-      <c r="J12" s="306"/>
-      <c r="W12" s="298" t="s">
+      <c r="D12" s="310"/>
+      <c r="E12" s="311"/>
+      <c r="F12" s="312"/>
+      <c r="H12" s="305"/>
+      <c r="I12" s="306"/>
+      <c r="J12" s="307"/>
+      <c r="W12" s="299" t="s">
         <v>336</v>
       </c>
-      <c r="X12" s="307"/>
-      <c r="Y12" s="308"/>
+      <c r="X12" s="308"/>
+      <c r="Y12" s="309"/>
       <c r="AA12" s="164"/>
       <c r="AE12" s="163"/>
       <c r="AF12" s="163"/>
@@ -18930,23 +18957,23 @@
       <c r="A13" s="163"/>
       <c r="B13" s="163"/>
       <c r="C13" s="163"/>
-      <c r="D13" s="312"/>
-      <c r="E13" s="313"/>
-      <c r="F13" s="314"/>
-      <c r="M13" s="298" t="s">
+      <c r="D13" s="313"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="315"/>
+      <c r="M13" s="299" t="s">
         <v>333</v>
       </c>
-      <c r="N13" s="307"/>
-      <c r="O13" s="308"/>
-      <c r="W13" s="309"/>
-      <c r="X13" s="310"/>
-      <c r="Y13" s="311"/>
+      <c r="N13" s="308"/>
+      <c r="O13" s="309"/>
+      <c r="W13" s="310"/>
+      <c r="X13" s="311"/>
+      <c r="Y13" s="312"/>
       <c r="AA13" s="164"/>
-      <c r="AB13" s="298" t="s">
+      <c r="AB13" s="299" t="s">
         <v>330</v>
       </c>
-      <c r="AC13" s="299"/>
-      <c r="AD13" s="300"/>
+      <c r="AC13" s="300"/>
+      <c r="AD13" s="301"/>
       <c r="AE13" s="163"/>
       <c r="AF13" s="163"/>
       <c r="AG13" s="163"/>
@@ -18964,16 +18991,16 @@
       <c r="D14" s="163"/>
       <c r="E14" s="163"/>
       <c r="F14" s="163"/>
-      <c r="M14" s="309"/>
-      <c r="N14" s="310"/>
-      <c r="O14" s="311"/>
-      <c r="W14" s="312"/>
-      <c r="X14" s="313"/>
-      <c r="Y14" s="314"/>
+      <c r="M14" s="310"/>
+      <c r="N14" s="311"/>
+      <c r="O14" s="312"/>
+      <c r="W14" s="313"/>
+      <c r="X14" s="314"/>
+      <c r="Y14" s="315"/>
       <c r="AA14" s="164"/>
-      <c r="AB14" s="301"/>
-      <c r="AC14" s="302"/>
-      <c r="AD14" s="303"/>
+      <c r="AB14" s="302"/>
+      <c r="AC14" s="303"/>
+      <c r="AD14" s="304"/>
       <c r="AE14" s="163"/>
       <c r="AF14" s="164"/>
       <c r="AG14" s="164"/>
@@ -18991,18 +19018,18 @@
       <c r="D15" s="164"/>
       <c r="E15" s="164"/>
       <c r="F15" s="164"/>
-      <c r="M15" s="312"/>
-      <c r="N15" s="313"/>
-      <c r="O15" s="314"/>
-      <c r="R15" s="298" t="s">
+      <c r="M15" s="313"/>
+      <c r="N15" s="314"/>
+      <c r="O15" s="315"/>
+      <c r="R15" s="299" t="s">
         <v>335</v>
       </c>
-      <c r="S15" s="307"/>
-      <c r="T15" s="308"/>
+      <c r="S15" s="308"/>
+      <c r="T15" s="309"/>
       <c r="AA15" s="164"/>
-      <c r="AB15" s="304"/>
-      <c r="AC15" s="305"/>
-      <c r="AD15" s="306"/>
+      <c r="AB15" s="305"/>
+      <c r="AC15" s="306"/>
+      <c r="AD15" s="307"/>
       <c r="AE15" s="163"/>
       <c r="AF15" s="164"/>
       <c r="AG15" s="164"/>
@@ -19020,9 +19047,9 @@
       <c r="D16" s="164"/>
       <c r="E16" s="164"/>
       <c r="F16" s="164"/>
-      <c r="R16" s="309"/>
-      <c r="S16" s="310"/>
-      <c r="T16" s="311"/>
+      <c r="R16" s="310"/>
+      <c r="S16" s="311"/>
+      <c r="T16" s="312"/>
       <c r="AA16" s="164"/>
       <c r="AB16" s="164"/>
       <c r="AC16" s="164"/>
@@ -19041,9 +19068,9 @@
       <c r="D17" s="164"/>
       <c r="E17" s="164"/>
       <c r="F17" s="164"/>
-      <c r="R17" s="312"/>
-      <c r="S17" s="313"/>
-      <c r="T17" s="314"/>
+      <c r="R17" s="313"/>
+      <c r="S17" s="314"/>
+      <c r="T17" s="315"/>
       <c r="AA17" s="164"/>
       <c r="AB17" s="164"/>
       <c r="AC17" s="164"/>
@@ -19602,17 +19629,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB4:AD6"/>
+    <mergeCell ref="W12:Y14"/>
+    <mergeCell ref="R7:T9"/>
+    <mergeCell ref="R15:T17"/>
+    <mergeCell ref="AB13:AD15"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="H10:J12"/>
     <mergeCell ref="M8:O10"/>
     <mergeCell ref="M13:O15"/>
     <mergeCell ref="D11:F13"/>
-    <mergeCell ref="AB4:AD6"/>
-    <mergeCell ref="W12:Y14"/>
-    <mergeCell ref="R7:T9"/>
-    <mergeCell ref="R15:T17"/>
-    <mergeCell ref="AB13:AD15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19791,474 +19818,474 @@
       <c r="A2" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="364"/>
-      <c r="C2" s="365"/>
-      <c r="D2" s="365"/>
-      <c r="E2" s="365"/>
-      <c r="F2" s="365"/>
-      <c r="G2" s="365"/>
-      <c r="H2" s="365"/>
-      <c r="I2" s="365"/>
-      <c r="J2" s="365"/>
-      <c r="K2" s="365"/>
-      <c r="L2" s="365"/>
-      <c r="M2" s="365"/>
-      <c r="N2" s="365"/>
-      <c r="O2" s="365"/>
-      <c r="P2" s="365"/>
-      <c r="Q2" s="365"/>
-      <c r="R2" s="365"/>
-      <c r="S2" s="365"/>
-      <c r="T2" s="365"/>
-      <c r="U2" s="366"/>
-      <c r="V2" s="367" t="s">
+      <c r="B2" s="403"/>
+      <c r="C2" s="404"/>
+      <c r="D2" s="404"/>
+      <c r="E2" s="404"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
+      <c r="H2" s="404"/>
+      <c r="I2" s="404"/>
+      <c r="J2" s="404"/>
+      <c r="K2" s="404"/>
+      <c r="L2" s="404"/>
+      <c r="M2" s="404"/>
+      <c r="N2" s="404"/>
+      <c r="O2" s="404"/>
+      <c r="P2" s="404"/>
+      <c r="Q2" s="404"/>
+      <c r="R2" s="404"/>
+      <c r="S2" s="404"/>
+      <c r="T2" s="404"/>
+      <c r="U2" s="405"/>
+      <c r="V2" s="406" t="s">
         <v>143</v>
       </c>
-      <c r="W2" s="368"/>
-      <c r="X2" s="368"/>
-      <c r="Y2" s="368"/>
-      <c r="Z2" s="368"/>
-      <c r="AA2" s="368"/>
-      <c r="AB2" s="368"/>
-      <c r="AC2" s="368"/>
-      <c r="AD2" s="368"/>
-      <c r="AE2" s="368"/>
-      <c r="AF2" s="368"/>
-      <c r="AG2" s="368"/>
-      <c r="AH2" s="368"/>
-      <c r="AI2" s="369"/>
-      <c r="AJ2" s="370">
+      <c r="W2" s="407"/>
+      <c r="X2" s="407"/>
+      <c r="Y2" s="407"/>
+      <c r="Z2" s="407"/>
+      <c r="AA2" s="407"/>
+      <c r="AB2" s="407"/>
+      <c r="AC2" s="407"/>
+      <c r="AD2" s="407"/>
+      <c r="AE2" s="407"/>
+      <c r="AF2" s="407"/>
+      <c r="AG2" s="407"/>
+      <c r="AH2" s="407"/>
+      <c r="AI2" s="408"/>
+      <c r="AJ2" s="409">
         <v>43590</v>
       </c>
-      <c r="AK2" s="371"/>
-      <c r="AL2" s="371"/>
-      <c r="AM2" s="371"/>
-      <c r="AN2" s="371"/>
-      <c r="AO2" s="371"/>
-      <c r="AP2" s="371"/>
-      <c r="AQ2" s="371"/>
-      <c r="AR2" s="371"/>
-      <c r="AS2" s="371"/>
-      <c r="AT2" s="372"/>
-      <c r="AU2" s="373"/>
-      <c r="AV2" s="374"/>
-      <c r="AW2" s="374"/>
-      <c r="AX2" s="374"/>
-      <c r="AY2" s="374"/>
-      <c r="AZ2" s="374"/>
-      <c r="BA2" s="374"/>
-      <c r="BB2" s="374"/>
-      <c r="BC2" s="374"/>
-      <c r="BD2" s="374"/>
-      <c r="BE2" s="374"/>
-      <c r="BF2" s="374"/>
-      <c r="BG2" s="375"/>
+      <c r="AK2" s="410"/>
+      <c r="AL2" s="410"/>
+      <c r="AM2" s="410"/>
+      <c r="AN2" s="410"/>
+      <c r="AO2" s="410"/>
+      <c r="AP2" s="410"/>
+      <c r="AQ2" s="410"/>
+      <c r="AR2" s="410"/>
+      <c r="AS2" s="410"/>
+      <c r="AT2" s="411"/>
+      <c r="AU2" s="412"/>
+      <c r="AV2" s="413"/>
+      <c r="AW2" s="413"/>
+      <c r="AX2" s="413"/>
+      <c r="AY2" s="413"/>
+      <c r="AZ2" s="413"/>
+      <c r="BA2" s="413"/>
+      <c r="BB2" s="413"/>
+      <c r="BC2" s="413"/>
+      <c r="BD2" s="413"/>
+      <c r="BE2" s="413"/>
+      <c r="BF2" s="413"/>
+      <c r="BG2" s="414"/>
       <c r="BH2" s="45"/>
       <c r="BI2" s="46"/>
-      <c r="BJ2" s="376" t="s">
+      <c r="BJ2" s="415" t="s">
         <v>146</v>
       </c>
-      <c r="BK2" s="368"/>
-      <c r="BL2" s="368"/>
-      <c r="BM2" s="368"/>
-      <c r="BN2" s="368"/>
-      <c r="BO2" s="368"/>
-      <c r="BP2" s="368"/>
-      <c r="BQ2" s="368"/>
-      <c r="BR2" s="368"/>
-      <c r="BS2" s="368"/>
-      <c r="BT2" s="368"/>
-      <c r="BU2" s="368"/>
-      <c r="BV2" s="368"/>
-      <c r="BW2" s="368"/>
-      <c r="BX2" s="368"/>
-      <c r="BY2" s="368"/>
-      <c r="BZ2" s="368"/>
-      <c r="CA2" s="368"/>
-      <c r="CB2" s="368"/>
-      <c r="CC2" s="368"/>
-      <c r="CD2" s="368"/>
-      <c r="CE2" s="368"/>
-      <c r="CF2" s="368"/>
-      <c r="CG2" s="377"/>
-      <c r="CH2" s="350" t="s">
+      <c r="BK2" s="407"/>
+      <c r="BL2" s="407"/>
+      <c r="BM2" s="407"/>
+      <c r="BN2" s="407"/>
+      <c r="BO2" s="407"/>
+      <c r="BP2" s="407"/>
+      <c r="BQ2" s="407"/>
+      <c r="BR2" s="407"/>
+      <c r="BS2" s="407"/>
+      <c r="BT2" s="407"/>
+      <c r="BU2" s="407"/>
+      <c r="BV2" s="407"/>
+      <c r="BW2" s="407"/>
+      <c r="BX2" s="407"/>
+      <c r="BY2" s="407"/>
+      <c r="BZ2" s="407"/>
+      <c r="CA2" s="407"/>
+      <c r="CB2" s="407"/>
+      <c r="CC2" s="407"/>
+      <c r="CD2" s="407"/>
+      <c r="CE2" s="407"/>
+      <c r="CF2" s="407"/>
+      <c r="CG2" s="416"/>
+      <c r="CH2" s="389" t="s">
         <v>155</v>
       </c>
-      <c r="CI2" s="351"/>
-      <c r="CJ2" s="351"/>
-      <c r="CK2" s="351"/>
-      <c r="CL2" s="351"/>
-      <c r="CM2" s="351"/>
-      <c r="CN2" s="351"/>
-      <c r="CO2" s="351"/>
-      <c r="CP2" s="351"/>
-      <c r="CQ2" s="351"/>
-      <c r="CR2" s="351"/>
-      <c r="CS2" s="351"/>
-      <c r="CT2" s="351"/>
-      <c r="CU2" s="351"/>
-      <c r="CV2" s="351"/>
-      <c r="CW2" s="351"/>
-      <c r="CX2" s="351"/>
-      <c r="CY2" s="351"/>
-      <c r="CZ2" s="351"/>
-      <c r="DA2" s="351"/>
-      <c r="DB2" s="351"/>
-      <c r="DC2" s="351"/>
-      <c r="DD2" s="351"/>
-      <c r="DE2" s="351"/>
-      <c r="DF2" s="352"/>
-      <c r="DG2" s="335"/>
-      <c r="DH2" s="336"/>
-      <c r="DI2" s="336"/>
-      <c r="DJ2" s="336"/>
-      <c r="DK2" s="336"/>
-      <c r="DL2" s="336"/>
-      <c r="DM2" s="336"/>
-      <c r="DN2" s="336"/>
-      <c r="DO2" s="336"/>
-      <c r="DP2" s="336"/>
-      <c r="DQ2" s="336"/>
-      <c r="DR2" s="336"/>
-      <c r="DS2" s="336"/>
-      <c r="DT2" s="336"/>
-      <c r="DU2" s="336"/>
-      <c r="DV2" s="336"/>
-      <c r="DW2" s="336"/>
-      <c r="DX2" s="336"/>
-      <c r="DY2" s="336"/>
-      <c r="DZ2" s="336"/>
-      <c r="EA2" s="336"/>
-      <c r="EB2" s="336"/>
-      <c r="EC2" s="336"/>
-      <c r="ED2" s="336"/>
-      <c r="EE2" s="336"/>
-      <c r="EF2" s="336"/>
-      <c r="EG2" s="336"/>
-      <c r="EH2" s="336"/>
-      <c r="EI2" s="336"/>
-      <c r="EJ2" s="336"/>
-      <c r="EK2" s="336"/>
-      <c r="EL2" s="336"/>
-      <c r="EM2" s="336"/>
-      <c r="EN2" s="336"/>
-      <c r="EO2" s="339"/>
+      <c r="CI2" s="390"/>
+      <c r="CJ2" s="390"/>
+      <c r="CK2" s="390"/>
+      <c r="CL2" s="390"/>
+      <c r="CM2" s="390"/>
+      <c r="CN2" s="390"/>
+      <c r="CO2" s="390"/>
+      <c r="CP2" s="390"/>
+      <c r="CQ2" s="390"/>
+      <c r="CR2" s="390"/>
+      <c r="CS2" s="390"/>
+      <c r="CT2" s="390"/>
+      <c r="CU2" s="390"/>
+      <c r="CV2" s="390"/>
+      <c r="CW2" s="390"/>
+      <c r="CX2" s="390"/>
+      <c r="CY2" s="390"/>
+      <c r="CZ2" s="390"/>
+      <c r="DA2" s="390"/>
+      <c r="DB2" s="390"/>
+      <c r="DC2" s="390"/>
+      <c r="DD2" s="390"/>
+      <c r="DE2" s="390"/>
+      <c r="DF2" s="391"/>
+      <c r="DG2" s="374"/>
+      <c r="DH2" s="375"/>
+      <c r="DI2" s="375"/>
+      <c r="DJ2" s="375"/>
+      <c r="DK2" s="375"/>
+      <c r="DL2" s="375"/>
+      <c r="DM2" s="375"/>
+      <c r="DN2" s="375"/>
+      <c r="DO2" s="375"/>
+      <c r="DP2" s="375"/>
+      <c r="DQ2" s="375"/>
+      <c r="DR2" s="375"/>
+      <c r="DS2" s="375"/>
+      <c r="DT2" s="375"/>
+      <c r="DU2" s="375"/>
+      <c r="DV2" s="375"/>
+      <c r="DW2" s="375"/>
+      <c r="DX2" s="375"/>
+      <c r="DY2" s="375"/>
+      <c r="DZ2" s="375"/>
+      <c r="EA2" s="375"/>
+      <c r="EB2" s="375"/>
+      <c r="EC2" s="375"/>
+      <c r="ED2" s="375"/>
+      <c r="EE2" s="375"/>
+      <c r="EF2" s="375"/>
+      <c r="EG2" s="375"/>
+      <c r="EH2" s="375"/>
+      <c r="EI2" s="375"/>
+      <c r="EJ2" s="375"/>
+      <c r="EK2" s="375"/>
+      <c r="EL2" s="375"/>
+      <c r="EM2" s="375"/>
+      <c r="EN2" s="375"/>
+      <c r="EO2" s="378"/>
       <c r="EP2" s="47"/>
     </row>
     <row r="3" spans="1:146" ht="45.75" customHeight="1" thickBot="1">
       <c r="A3" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="341"/>
-      <c r="C3" s="342"/>
-      <c r="D3" s="342"/>
-      <c r="E3" s="342"/>
-      <c r="F3" s="342"/>
-      <c r="G3" s="342"/>
-      <c r="H3" s="342"/>
-      <c r="I3" s="342"/>
-      <c r="J3" s="342"/>
-      <c r="K3" s="342"/>
-      <c r="L3" s="342"/>
-      <c r="M3" s="342"/>
-      <c r="N3" s="342"/>
-      <c r="O3" s="342"/>
-      <c r="P3" s="342"/>
-      <c r="Q3" s="342"/>
-      <c r="R3" s="342"/>
-      <c r="S3" s="342"/>
-      <c r="T3" s="342"/>
-      <c r="U3" s="343"/>
-      <c r="V3" s="344" t="s">
+      <c r="B3" s="380"/>
+      <c r="C3" s="381"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="381"/>
+      <c r="G3" s="381"/>
+      <c r="H3" s="381"/>
+      <c r="I3" s="381"/>
+      <c r="J3" s="381"/>
+      <c r="K3" s="381"/>
+      <c r="L3" s="381"/>
+      <c r="M3" s="381"/>
+      <c r="N3" s="381"/>
+      <c r="O3" s="381"/>
+      <c r="P3" s="381"/>
+      <c r="Q3" s="381"/>
+      <c r="R3" s="381"/>
+      <c r="S3" s="381"/>
+      <c r="T3" s="381"/>
+      <c r="U3" s="382"/>
+      <c r="V3" s="383" t="s">
         <v>144</v>
       </c>
-      <c r="W3" s="345"/>
-      <c r="X3" s="345"/>
-      <c r="Y3" s="345"/>
-      <c r="Z3" s="345"/>
-      <c r="AA3" s="345"/>
-      <c r="AB3" s="345"/>
-      <c r="AC3" s="345"/>
-      <c r="AD3" s="345"/>
-      <c r="AE3" s="345"/>
-      <c r="AF3" s="345"/>
-      <c r="AG3" s="345"/>
-      <c r="AH3" s="345"/>
-      <c r="AI3" s="346"/>
-      <c r="AJ3" s="347"/>
-      <c r="AK3" s="348"/>
-      <c r="AL3" s="348"/>
-      <c r="AM3" s="348"/>
-      <c r="AN3" s="348"/>
-      <c r="AO3" s="348"/>
-      <c r="AP3" s="348"/>
-      <c r="AQ3" s="348"/>
-      <c r="AR3" s="348"/>
-      <c r="AS3" s="348"/>
-      <c r="AT3" s="349"/>
-      <c r="AU3" s="356"/>
-      <c r="AV3" s="357"/>
-      <c r="AW3" s="358" t="s">
+      <c r="W3" s="384"/>
+      <c r="X3" s="384"/>
+      <c r="Y3" s="384"/>
+      <c r="Z3" s="384"/>
+      <c r="AA3" s="384"/>
+      <c r="AB3" s="384"/>
+      <c r="AC3" s="384"/>
+      <c r="AD3" s="384"/>
+      <c r="AE3" s="384"/>
+      <c r="AF3" s="384"/>
+      <c r="AG3" s="384"/>
+      <c r="AH3" s="384"/>
+      <c r="AI3" s="385"/>
+      <c r="AJ3" s="386"/>
+      <c r="AK3" s="387"/>
+      <c r="AL3" s="387"/>
+      <c r="AM3" s="387"/>
+      <c r="AN3" s="387"/>
+      <c r="AO3" s="387"/>
+      <c r="AP3" s="387"/>
+      <c r="AQ3" s="387"/>
+      <c r="AR3" s="387"/>
+      <c r="AS3" s="387"/>
+      <c r="AT3" s="388"/>
+      <c r="AU3" s="395"/>
+      <c r="AV3" s="396"/>
+      <c r="AW3" s="397" t="s">
         <v>145</v>
       </c>
-      <c r="AX3" s="359"/>
-      <c r="AY3" s="359"/>
-      <c r="AZ3" s="359"/>
-      <c r="BA3" s="359"/>
-      <c r="BB3" s="359"/>
-      <c r="BC3" s="359"/>
-      <c r="BD3" s="359"/>
-      <c r="BE3" s="359"/>
-      <c r="BF3" s="359"/>
-      <c r="BG3" s="360"/>
+      <c r="AX3" s="398"/>
+      <c r="AY3" s="398"/>
+      <c r="AZ3" s="398"/>
+      <c r="BA3" s="398"/>
+      <c r="BB3" s="398"/>
+      <c r="BC3" s="398"/>
+      <c r="BD3" s="398"/>
+      <c r="BE3" s="398"/>
+      <c r="BF3" s="398"/>
+      <c r="BG3" s="399"/>
       <c r="BH3" s="49"/>
       <c r="BI3" s="50"/>
-      <c r="BJ3" s="361" t="s">
+      <c r="BJ3" s="400" t="s">
         <v>147</v>
       </c>
-      <c r="BK3" s="362"/>
-      <c r="BL3" s="362"/>
-      <c r="BM3" s="362"/>
-      <c r="BN3" s="362"/>
-      <c r="BO3" s="362"/>
-      <c r="BP3" s="362"/>
-      <c r="BQ3" s="362"/>
-      <c r="BR3" s="362"/>
-      <c r="BS3" s="362"/>
-      <c r="BT3" s="362"/>
-      <c r="BU3" s="362"/>
-      <c r="BV3" s="362"/>
-      <c r="BW3" s="362"/>
-      <c r="BX3" s="362"/>
-      <c r="BY3" s="362"/>
-      <c r="BZ3" s="362"/>
-      <c r="CA3" s="362"/>
-      <c r="CB3" s="362"/>
-      <c r="CC3" s="362"/>
-      <c r="CD3" s="362"/>
-      <c r="CE3" s="362"/>
-      <c r="CF3" s="362"/>
-      <c r="CG3" s="363"/>
-      <c r="CH3" s="353"/>
-      <c r="CI3" s="354"/>
-      <c r="CJ3" s="354"/>
-      <c r="CK3" s="354"/>
-      <c r="CL3" s="354"/>
-      <c r="CM3" s="354"/>
-      <c r="CN3" s="354"/>
-      <c r="CO3" s="354"/>
-      <c r="CP3" s="354"/>
-      <c r="CQ3" s="354"/>
-      <c r="CR3" s="354"/>
-      <c r="CS3" s="354"/>
-      <c r="CT3" s="354"/>
-      <c r="CU3" s="354"/>
-      <c r="CV3" s="354"/>
-      <c r="CW3" s="354"/>
-      <c r="CX3" s="354"/>
-      <c r="CY3" s="354"/>
-      <c r="CZ3" s="354"/>
-      <c r="DA3" s="354"/>
-      <c r="DB3" s="354"/>
-      <c r="DC3" s="354"/>
-      <c r="DD3" s="354"/>
-      <c r="DE3" s="354"/>
-      <c r="DF3" s="355"/>
-      <c r="DG3" s="337"/>
-      <c r="DH3" s="338"/>
-      <c r="DI3" s="338"/>
-      <c r="DJ3" s="338"/>
-      <c r="DK3" s="338"/>
-      <c r="DL3" s="338"/>
-      <c r="DM3" s="338"/>
-      <c r="DN3" s="338"/>
-      <c r="DO3" s="338"/>
-      <c r="DP3" s="338"/>
-      <c r="DQ3" s="338"/>
-      <c r="DR3" s="338"/>
-      <c r="DS3" s="338"/>
-      <c r="DT3" s="338"/>
-      <c r="DU3" s="338"/>
-      <c r="DV3" s="338"/>
-      <c r="DW3" s="338"/>
-      <c r="DX3" s="338"/>
-      <c r="DY3" s="338"/>
-      <c r="DZ3" s="338"/>
-      <c r="EA3" s="338"/>
-      <c r="EB3" s="338"/>
-      <c r="EC3" s="338"/>
-      <c r="ED3" s="338"/>
-      <c r="EE3" s="338"/>
-      <c r="EF3" s="338"/>
-      <c r="EG3" s="338"/>
-      <c r="EH3" s="338"/>
-      <c r="EI3" s="338"/>
-      <c r="EJ3" s="338"/>
-      <c r="EK3" s="338"/>
-      <c r="EL3" s="338"/>
-      <c r="EM3" s="338"/>
-      <c r="EN3" s="338"/>
-      <c r="EO3" s="340"/>
+      <c r="BK3" s="401"/>
+      <c r="BL3" s="401"/>
+      <c r="BM3" s="401"/>
+      <c r="BN3" s="401"/>
+      <c r="BO3" s="401"/>
+      <c r="BP3" s="401"/>
+      <c r="BQ3" s="401"/>
+      <c r="BR3" s="401"/>
+      <c r="BS3" s="401"/>
+      <c r="BT3" s="401"/>
+      <c r="BU3" s="401"/>
+      <c r="BV3" s="401"/>
+      <c r="BW3" s="401"/>
+      <c r="BX3" s="401"/>
+      <c r="BY3" s="401"/>
+      <c r="BZ3" s="401"/>
+      <c r="CA3" s="401"/>
+      <c r="CB3" s="401"/>
+      <c r="CC3" s="401"/>
+      <c r="CD3" s="401"/>
+      <c r="CE3" s="401"/>
+      <c r="CF3" s="401"/>
+      <c r="CG3" s="402"/>
+      <c r="CH3" s="392"/>
+      <c r="CI3" s="393"/>
+      <c r="CJ3" s="393"/>
+      <c r="CK3" s="393"/>
+      <c r="CL3" s="393"/>
+      <c r="CM3" s="393"/>
+      <c r="CN3" s="393"/>
+      <c r="CO3" s="393"/>
+      <c r="CP3" s="393"/>
+      <c r="CQ3" s="393"/>
+      <c r="CR3" s="393"/>
+      <c r="CS3" s="393"/>
+      <c r="CT3" s="393"/>
+      <c r="CU3" s="393"/>
+      <c r="CV3" s="393"/>
+      <c r="CW3" s="393"/>
+      <c r="CX3" s="393"/>
+      <c r="CY3" s="393"/>
+      <c r="CZ3" s="393"/>
+      <c r="DA3" s="393"/>
+      <c r="DB3" s="393"/>
+      <c r="DC3" s="393"/>
+      <c r="DD3" s="393"/>
+      <c r="DE3" s="393"/>
+      <c r="DF3" s="394"/>
+      <c r="DG3" s="376"/>
+      <c r="DH3" s="377"/>
+      <c r="DI3" s="377"/>
+      <c r="DJ3" s="377"/>
+      <c r="DK3" s="377"/>
+      <c r="DL3" s="377"/>
+      <c r="DM3" s="377"/>
+      <c r="DN3" s="377"/>
+      <c r="DO3" s="377"/>
+      <c r="DP3" s="377"/>
+      <c r="DQ3" s="377"/>
+      <c r="DR3" s="377"/>
+      <c r="DS3" s="377"/>
+      <c r="DT3" s="377"/>
+      <c r="DU3" s="377"/>
+      <c r="DV3" s="377"/>
+      <c r="DW3" s="377"/>
+      <c r="DX3" s="377"/>
+      <c r="DY3" s="377"/>
+      <c r="DZ3" s="377"/>
+      <c r="EA3" s="377"/>
+      <c r="EB3" s="377"/>
+      <c r="EC3" s="377"/>
+      <c r="ED3" s="377"/>
+      <c r="EE3" s="377"/>
+      <c r="EF3" s="377"/>
+      <c r="EG3" s="377"/>
+      <c r="EH3" s="377"/>
+      <c r="EI3" s="377"/>
+      <c r="EJ3" s="377"/>
+      <c r="EK3" s="377"/>
+      <c r="EL3" s="377"/>
+      <c r="EM3" s="377"/>
+      <c r="EN3" s="377"/>
+      <c r="EO3" s="379"/>
       <c r="EP3" s="47"/>
     </row>
     <row r="4" spans="1:146" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="316"/>
-      <c r="B4" s="317"/>
-      <c r="C4" s="317"/>
-      <c r="D4" s="317"/>
-      <c r="E4" s="317"/>
-      <c r="F4" s="317"/>
-      <c r="G4" s="317"/>
-      <c r="H4" s="317"/>
-      <c r="I4" s="317"/>
-      <c r="J4" s="317"/>
-      <c r="K4" s="317"/>
-      <c r="L4" s="317"/>
-      <c r="M4" s="317"/>
-      <c r="N4" s="317"/>
-      <c r="O4" s="317"/>
-      <c r="P4" s="317"/>
-      <c r="Q4" s="317"/>
-      <c r="R4" s="317"/>
-      <c r="S4" s="317"/>
-      <c r="T4" s="317"/>
-      <c r="U4" s="317"/>
-      <c r="V4" s="317"/>
-      <c r="W4" s="317"/>
-      <c r="X4" s="317"/>
-      <c r="Y4" s="317"/>
-      <c r="Z4" s="317"/>
-      <c r="AA4" s="317"/>
-      <c r="AB4" s="317"/>
-      <c r="AC4" s="317"/>
-      <c r="AD4" s="317"/>
-      <c r="AE4" s="317"/>
-      <c r="AF4" s="317"/>
-      <c r="AG4" s="317"/>
-      <c r="AH4" s="317"/>
-      <c r="AI4" s="317"/>
-      <c r="AJ4" s="317"/>
-      <c r="AK4" s="317"/>
-      <c r="AL4" s="317"/>
-      <c r="AM4" s="317"/>
-      <c r="AN4" s="317"/>
-      <c r="AO4" s="317"/>
-      <c r="AP4" s="317"/>
-      <c r="AQ4" s="317"/>
-      <c r="AR4" s="317"/>
-      <c r="AS4" s="317"/>
-      <c r="AT4" s="317"/>
-      <c r="AU4" s="317"/>
-      <c r="AV4" s="317"/>
-      <c r="AW4" s="317"/>
-      <c r="AX4" s="317"/>
-      <c r="AY4" s="317"/>
-      <c r="AZ4" s="317"/>
-      <c r="BA4" s="317"/>
-      <c r="BB4" s="317"/>
-      <c r="BC4" s="317"/>
-      <c r="BD4" s="317"/>
-      <c r="BE4" s="317"/>
-      <c r="BF4" s="317"/>
-      <c r="BG4" s="317"/>
-      <c r="BH4" s="317"/>
-      <c r="BI4" s="317"/>
-      <c r="BJ4" s="317"/>
-      <c r="BK4" s="317"/>
-      <c r="BL4" s="317"/>
-      <c r="BM4" s="317"/>
-      <c r="BN4" s="317"/>
-      <c r="BO4" s="317"/>
-      <c r="BP4" s="317"/>
-      <c r="BQ4" s="317"/>
-      <c r="BR4" s="317"/>
-      <c r="BS4" s="317"/>
-      <c r="BT4" s="317"/>
-      <c r="BU4" s="317"/>
-      <c r="BV4" s="317"/>
-      <c r="BW4" s="317"/>
-      <c r="BX4" s="317"/>
-      <c r="BY4" s="317"/>
-      <c r="BZ4" s="317"/>
-      <c r="CA4" s="317"/>
-      <c r="CB4" s="317"/>
-      <c r="CC4" s="317"/>
-      <c r="CD4" s="317"/>
-      <c r="CE4" s="317"/>
-      <c r="CF4" s="317"/>
-      <c r="CG4" s="317"/>
-      <c r="CH4" s="317"/>
-      <c r="CI4" s="317"/>
-      <c r="CJ4" s="317"/>
-      <c r="CK4" s="317"/>
-      <c r="CL4" s="317"/>
-      <c r="CM4" s="317"/>
-      <c r="CN4" s="317"/>
-      <c r="CO4" s="317"/>
-      <c r="CP4" s="317"/>
-      <c r="CQ4" s="317"/>
-      <c r="CR4" s="317"/>
-      <c r="CS4" s="317"/>
-      <c r="CT4" s="317"/>
-      <c r="CU4" s="317"/>
-      <c r="CV4" s="317"/>
-      <c r="CW4" s="317"/>
-      <c r="CX4" s="317"/>
-      <c r="CY4" s="317"/>
-      <c r="CZ4" s="317"/>
-      <c r="DA4" s="317"/>
-      <c r="DB4" s="317"/>
-      <c r="DC4" s="317"/>
-      <c r="DD4" s="317"/>
-      <c r="DE4" s="317"/>
-      <c r="DF4" s="318"/>
-      <c r="DG4" s="319"/>
-      <c r="DH4" s="320"/>
-      <c r="DI4" s="320"/>
-      <c r="DJ4" s="320"/>
-      <c r="DK4" s="320"/>
-      <c r="DL4" s="320"/>
-      <c r="DM4" s="320"/>
-      <c r="DN4" s="320"/>
-      <c r="DO4" s="320"/>
-      <c r="DP4" s="320"/>
-      <c r="DQ4" s="320"/>
-      <c r="DR4" s="320"/>
-      <c r="DS4" s="320"/>
-      <c r="DT4" s="320"/>
-      <c r="DU4" s="320"/>
-      <c r="DV4" s="320"/>
-      <c r="DW4" s="320"/>
-      <c r="DX4" s="320"/>
-      <c r="DY4" s="320"/>
-      <c r="DZ4" s="320"/>
-      <c r="EA4" s="320"/>
-      <c r="EB4" s="320"/>
-      <c r="EC4" s="320"/>
-      <c r="ED4" s="320"/>
-      <c r="EE4" s="320"/>
-      <c r="EF4" s="320"/>
-      <c r="EG4" s="320"/>
-      <c r="EH4" s="320"/>
-      <c r="EI4" s="320"/>
-      <c r="EJ4" s="320"/>
-      <c r="EK4" s="320"/>
-      <c r="EL4" s="320"/>
-      <c r="EM4" s="320"/>
-      <c r="EN4" s="320"/>
-      <c r="EO4" s="321"/>
+      <c r="A4" s="355"/>
+      <c r="B4" s="356"/>
+      <c r="C4" s="356"/>
+      <c r="D4" s="356"/>
+      <c r="E4" s="356"/>
+      <c r="F4" s="356"/>
+      <c r="G4" s="356"/>
+      <c r="H4" s="356"/>
+      <c r="I4" s="356"/>
+      <c r="J4" s="356"/>
+      <c r="K4" s="356"/>
+      <c r="L4" s="356"/>
+      <c r="M4" s="356"/>
+      <c r="N4" s="356"/>
+      <c r="O4" s="356"/>
+      <c r="P4" s="356"/>
+      <c r="Q4" s="356"/>
+      <c r="R4" s="356"/>
+      <c r="S4" s="356"/>
+      <c r="T4" s="356"/>
+      <c r="U4" s="356"/>
+      <c r="V4" s="356"/>
+      <c r="W4" s="356"/>
+      <c r="X4" s="356"/>
+      <c r="Y4" s="356"/>
+      <c r="Z4" s="356"/>
+      <c r="AA4" s="356"/>
+      <c r="AB4" s="356"/>
+      <c r="AC4" s="356"/>
+      <c r="AD4" s="356"/>
+      <c r="AE4" s="356"/>
+      <c r="AF4" s="356"/>
+      <c r="AG4" s="356"/>
+      <c r="AH4" s="356"/>
+      <c r="AI4" s="356"/>
+      <c r="AJ4" s="356"/>
+      <c r="AK4" s="356"/>
+      <c r="AL4" s="356"/>
+      <c r="AM4" s="356"/>
+      <c r="AN4" s="356"/>
+      <c r="AO4" s="356"/>
+      <c r="AP4" s="356"/>
+      <c r="AQ4" s="356"/>
+      <c r="AR4" s="356"/>
+      <c r="AS4" s="356"/>
+      <c r="AT4" s="356"/>
+      <c r="AU4" s="356"/>
+      <c r="AV4" s="356"/>
+      <c r="AW4" s="356"/>
+      <c r="AX4" s="356"/>
+      <c r="AY4" s="356"/>
+      <c r="AZ4" s="356"/>
+      <c r="BA4" s="356"/>
+      <c r="BB4" s="356"/>
+      <c r="BC4" s="356"/>
+      <c r="BD4" s="356"/>
+      <c r="BE4" s="356"/>
+      <c r="BF4" s="356"/>
+      <c r="BG4" s="356"/>
+      <c r="BH4" s="356"/>
+      <c r="BI4" s="356"/>
+      <c r="BJ4" s="356"/>
+      <c r="BK4" s="356"/>
+      <c r="BL4" s="356"/>
+      <c r="BM4" s="356"/>
+      <c r="BN4" s="356"/>
+      <c r="BO4" s="356"/>
+      <c r="BP4" s="356"/>
+      <c r="BQ4" s="356"/>
+      <c r="BR4" s="356"/>
+      <c r="BS4" s="356"/>
+      <c r="BT4" s="356"/>
+      <c r="BU4" s="356"/>
+      <c r="BV4" s="356"/>
+      <c r="BW4" s="356"/>
+      <c r="BX4" s="356"/>
+      <c r="BY4" s="356"/>
+      <c r="BZ4" s="356"/>
+      <c r="CA4" s="356"/>
+      <c r="CB4" s="356"/>
+      <c r="CC4" s="356"/>
+      <c r="CD4" s="356"/>
+      <c r="CE4" s="356"/>
+      <c r="CF4" s="356"/>
+      <c r="CG4" s="356"/>
+      <c r="CH4" s="356"/>
+      <c r="CI4" s="356"/>
+      <c r="CJ4" s="356"/>
+      <c r="CK4" s="356"/>
+      <c r="CL4" s="356"/>
+      <c r="CM4" s="356"/>
+      <c r="CN4" s="356"/>
+      <c r="CO4" s="356"/>
+      <c r="CP4" s="356"/>
+      <c r="CQ4" s="356"/>
+      <c r="CR4" s="356"/>
+      <c r="CS4" s="356"/>
+      <c r="CT4" s="356"/>
+      <c r="CU4" s="356"/>
+      <c r="CV4" s="356"/>
+      <c r="CW4" s="356"/>
+      <c r="CX4" s="356"/>
+      <c r="CY4" s="356"/>
+      <c r="CZ4" s="356"/>
+      <c r="DA4" s="356"/>
+      <c r="DB4" s="356"/>
+      <c r="DC4" s="356"/>
+      <c r="DD4" s="356"/>
+      <c r="DE4" s="356"/>
+      <c r="DF4" s="357"/>
+      <c r="DG4" s="358"/>
+      <c r="DH4" s="359"/>
+      <c r="DI4" s="359"/>
+      <c r="DJ4" s="359"/>
+      <c r="DK4" s="359"/>
+      <c r="DL4" s="359"/>
+      <c r="DM4" s="359"/>
+      <c r="DN4" s="359"/>
+      <c r="DO4" s="359"/>
+      <c r="DP4" s="359"/>
+      <c r="DQ4" s="359"/>
+      <c r="DR4" s="359"/>
+      <c r="DS4" s="359"/>
+      <c r="DT4" s="359"/>
+      <c r="DU4" s="359"/>
+      <c r="DV4" s="359"/>
+      <c r="DW4" s="359"/>
+      <c r="DX4" s="359"/>
+      <c r="DY4" s="359"/>
+      <c r="DZ4" s="359"/>
+      <c r="EA4" s="359"/>
+      <c r="EB4" s="359"/>
+      <c r="EC4" s="359"/>
+      <c r="ED4" s="359"/>
+      <c r="EE4" s="359"/>
+      <c r="EF4" s="359"/>
+      <c r="EG4" s="359"/>
+      <c r="EH4" s="359"/>
+      <c r="EI4" s="359"/>
+      <c r="EJ4" s="359"/>
+      <c r="EK4" s="359"/>
+      <c r="EL4" s="359"/>
+      <c r="EM4" s="359"/>
+      <c r="EN4" s="359"/>
+      <c r="EO4" s="360"/>
       <c r="EP4" s="51"/>
     </row>
     <row r="5" spans="1:146" ht="16.5" thickTop="1">
-      <c r="A5" s="322" t="s">
+      <c r="A5" s="361" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="326" t="s">
+      <c r="B5" s="365" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="327"/>
-      <c r="D5" s="327"/>
-      <c r="E5" s="328"/>
+      <c r="C5" s="366"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="367"/>
       <c r="F5" s="52"/>
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
@@ -20402,13 +20429,13 @@
       <c r="EP5" s="60"/>
     </row>
     <row r="6" spans="1:146" ht="15.75">
-      <c r="A6" s="323"/>
-      <c r="B6" s="329" t="s">
+      <c r="A6" s="362"/>
+      <c r="B6" s="368" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="330"/>
-      <c r="D6" s="330"/>
-      <c r="E6" s="331"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="369"/>
+      <c r="E6" s="370"/>
       <c r="F6" s="61"/>
       <c r="G6" s="61"/>
       <c r="H6" s="61"/>
@@ -20552,13 +20579,13 @@
       <c r="EP6" s="60"/>
     </row>
     <row r="7" spans="1:146" ht="16.5" thickBot="1">
-      <c r="A7" s="324"/>
-      <c r="B7" s="332" t="s">
+      <c r="A7" s="363"/>
+      <c r="B7" s="371" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="333"/>
-      <c r="D7" s="333"/>
-      <c r="E7" s="334"/>
+      <c r="C7" s="372"/>
+      <c r="D7" s="372"/>
+      <c r="E7" s="373"/>
       <c r="F7" s="68" t="s">
         <v>45</v>
       </c>
@@ -20982,7 +21009,7 @@
       <c r="EP7" s="60"/>
     </row>
     <row r="8" spans="1:146" ht="16.5" thickBot="1">
-      <c r="A8" s="325"/>
+      <c r="A8" s="364"/>
       <c r="B8" s="71" t="s">
         <v>49</v>
       </c>
@@ -21138,15 +21165,15 @@
       <c r="EP8" s="60"/>
     </row>
     <row r="9" spans="1:146" ht="15" customHeight="1">
-      <c r="A9" s="378" t="s">
+      <c r="A9" s="351" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="380"/>
-      <c r="C9" s="382"/>
-      <c r="D9" s="384">
+      <c r="B9" s="338"/>
+      <c r="C9" s="340"/>
+      <c r="D9" s="342">
         <v>20</v>
       </c>
-      <c r="E9" s="386">
+      <c r="E9" s="344">
         <v>35</v>
       </c>
       <c r="F9" s="79"/>
@@ -21292,11 +21319,11 @@
       <c r="EP9" s="43"/>
     </row>
     <row r="10" spans="1:146" ht="15" customHeight="1">
-      <c r="A10" s="379"/>
-      <c r="B10" s="381"/>
-      <c r="C10" s="383"/>
-      <c r="D10" s="385"/>
-      <c r="E10" s="387"/>
+      <c r="A10" s="352"/>
+      <c r="B10" s="327"/>
+      <c r="C10" s="328"/>
+      <c r="D10" s="329"/>
+      <c r="E10" s="330"/>
       <c r="F10" s="85"/>
       <c r="G10" s="86"/>
       <c r="H10" s="86"/>
@@ -21440,15 +21467,15 @@
       <c r="EP10" s="43"/>
     </row>
     <row r="11" spans="1:146" ht="15" customHeight="1">
-      <c r="A11" s="388" t="s">
+      <c r="A11" s="353" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="380"/>
-      <c r="C11" s="382"/>
-      <c r="D11" s="384">
+      <c r="B11" s="338"/>
+      <c r="C11" s="340"/>
+      <c r="D11" s="342">
         <v>5</v>
       </c>
-      <c r="E11" s="386">
+      <c r="E11" s="344">
         <v>5</v>
       </c>
       <c r="F11" s="79"/>
@@ -21594,11 +21621,11 @@
       <c r="EP11" s="43"/>
     </row>
     <row r="12" spans="1:146" ht="15" customHeight="1">
-      <c r="A12" s="389"/>
-      <c r="B12" s="381"/>
-      <c r="C12" s="383"/>
-      <c r="D12" s="385"/>
-      <c r="E12" s="387"/>
+      <c r="A12" s="354"/>
+      <c r="B12" s="327"/>
+      <c r="C12" s="328"/>
+      <c r="D12" s="329"/>
+      <c r="E12" s="330"/>
       <c r="F12" s="85"/>
       <c r="G12" s="86"/>
       <c r="H12" s="86"/>
@@ -21742,15 +21769,15 @@
       <c r="EP12" s="43"/>
     </row>
     <row r="13" spans="1:146" ht="15" customHeight="1">
-      <c r="A13" s="390" t="s">
+      <c r="A13" s="347" t="s">
         <v>275</v>
       </c>
-      <c r="B13" s="392"/>
-      <c r="C13" s="393"/>
-      <c r="D13" s="394">
+      <c r="B13" s="318"/>
+      <c r="C13" s="320"/>
+      <c r="D13" s="322">
         <v>1</v>
       </c>
-      <c r="E13" s="395">
+      <c r="E13" s="324">
         <v>5</v>
       </c>
       <c r="F13" s="91"/>
@@ -21896,11 +21923,11 @@
       <c r="EP13" s="43"/>
     </row>
     <row r="14" spans="1:146" ht="15" customHeight="1">
-      <c r="A14" s="391"/>
-      <c r="B14" s="381"/>
-      <c r="C14" s="383"/>
-      <c r="D14" s="385"/>
-      <c r="E14" s="387"/>
+      <c r="A14" s="348"/>
+      <c r="B14" s="327"/>
+      <c r="C14" s="328"/>
+      <c r="D14" s="329"/>
+      <c r="E14" s="330"/>
       <c r="F14" s="85"/>
       <c r="G14" s="86"/>
       <c r="H14" s="86"/>
@@ -22044,15 +22071,15 @@
       <c r="EP14" s="43"/>
     </row>
     <row r="15" spans="1:146" ht="15" customHeight="1">
-      <c r="A15" s="396" t="s">
+      <c r="A15" s="349" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="392"/>
-      <c r="C15" s="393"/>
-      <c r="D15" s="394">
+      <c r="B15" s="318"/>
+      <c r="C15" s="320"/>
+      <c r="D15" s="322">
         <v>5</v>
       </c>
-      <c r="E15" s="395">
+      <c r="E15" s="324">
         <v>5</v>
       </c>
       <c r="F15" s="91"/>
@@ -22198,11 +22225,11 @@
       <c r="EP15" s="43"/>
     </row>
     <row r="16" spans="1:146" ht="15" customHeight="1">
-      <c r="A16" s="397"/>
-      <c r="B16" s="381"/>
-      <c r="C16" s="383"/>
-      <c r="D16" s="385"/>
-      <c r="E16" s="387"/>
+      <c r="A16" s="350"/>
+      <c r="B16" s="327"/>
+      <c r="C16" s="328"/>
+      <c r="D16" s="329"/>
+      <c r="E16" s="330"/>
       <c r="F16" s="85"/>
       <c r="G16" s="86"/>
       <c r="H16" s="86"/>
@@ -22346,15 +22373,15 @@
       <c r="EP16" s="43"/>
     </row>
     <row r="17" spans="1:146" ht="15" customHeight="1">
-      <c r="A17" s="398" t="s">
+      <c r="A17" s="335" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="400"/>
-      <c r="C17" s="401"/>
-      <c r="D17" s="402">
+      <c r="B17" s="337"/>
+      <c r="C17" s="339"/>
+      <c r="D17" s="341">
         <v>20</v>
       </c>
-      <c r="E17" s="403">
+      <c r="E17" s="343">
         <v>14</v>
       </c>
       <c r="F17" s="91"/>
@@ -22500,11 +22527,11 @@
       <c r="EP17" s="43"/>
     </row>
     <row r="18" spans="1:146" ht="15" customHeight="1">
-      <c r="A18" s="399"/>
-      <c r="B18" s="380"/>
-      <c r="C18" s="382"/>
-      <c r="D18" s="384"/>
-      <c r="E18" s="386"/>
+      <c r="A18" s="336"/>
+      <c r="B18" s="338"/>
+      <c r="C18" s="340"/>
+      <c r="D18" s="342"/>
+      <c r="E18" s="344"/>
       <c r="F18" s="85"/>
       <c r="G18" s="86"/>
       <c r="H18" s="86"/>
@@ -22648,15 +22675,15 @@
       <c r="EP18" s="43"/>
     </row>
     <row r="19" spans="1:146" ht="15" customHeight="1">
-      <c r="A19" s="404" t="s">
+      <c r="A19" s="345" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="392"/>
-      <c r="C19" s="393"/>
-      <c r="D19" s="394">
+      <c r="B19" s="318"/>
+      <c r="C19" s="320"/>
+      <c r="D19" s="322">
         <v>5</v>
       </c>
-      <c r="E19" s="395">
+      <c r="E19" s="324">
         <v>7</v>
       </c>
       <c r="F19" s="91"/>
@@ -22802,11 +22829,11 @@
       <c r="EP19" s="43"/>
     </row>
     <row r="20" spans="1:146" ht="15" customHeight="1">
-      <c r="A20" s="405"/>
-      <c r="B20" s="381"/>
-      <c r="C20" s="383"/>
-      <c r="D20" s="385"/>
-      <c r="E20" s="387"/>
+      <c r="A20" s="346"/>
+      <c r="B20" s="327"/>
+      <c r="C20" s="328"/>
+      <c r="D20" s="329"/>
+      <c r="E20" s="330"/>
       <c r="F20" s="85"/>
       <c r="G20" s="86"/>
       <c r="H20" s="86"/>
@@ -22950,15 +22977,15 @@
       <c r="EP20" s="43"/>
     </row>
     <row r="21" spans="1:146" ht="15" customHeight="1">
-      <c r="A21" s="406" t="s">
+      <c r="A21" s="331" t="s">
         <v>279</v>
       </c>
-      <c r="B21" s="392"/>
-      <c r="C21" s="393"/>
-      <c r="D21" s="394">
+      <c r="B21" s="318"/>
+      <c r="C21" s="320"/>
+      <c r="D21" s="322">
         <v>3</v>
       </c>
-      <c r="E21" s="395">
+      <c r="E21" s="324">
         <v>7</v>
       </c>
       <c r="F21" s="91"/>
@@ -23104,11 +23131,11 @@
       <c r="EP21" s="43"/>
     </row>
     <row r="22" spans="1:146" ht="15" customHeight="1">
-      <c r="A22" s="407"/>
-      <c r="B22" s="381"/>
-      <c r="C22" s="383"/>
-      <c r="D22" s="385"/>
-      <c r="E22" s="387"/>
+      <c r="A22" s="332"/>
+      <c r="B22" s="327"/>
+      <c r="C22" s="328"/>
+      <c r="D22" s="329"/>
+      <c r="E22" s="330"/>
       <c r="F22" s="85"/>
       <c r="G22" s="86"/>
       <c r="H22" s="86"/>
@@ -23252,15 +23279,15 @@
       <c r="EP22" s="43"/>
     </row>
     <row r="23" spans="1:146" ht="15" customHeight="1">
-      <c r="A23" s="408" t="s">
+      <c r="A23" s="333" t="s">
         <v>280</v>
       </c>
-      <c r="B23" s="392"/>
-      <c r="C23" s="393"/>
-      <c r="D23" s="394">
+      <c r="B23" s="318"/>
+      <c r="C23" s="320"/>
+      <c r="D23" s="322">
         <v>30</v>
       </c>
-      <c r="E23" s="395">
+      <c r="E23" s="324">
         <v>61</v>
       </c>
       <c r="F23" s="91"/>
@@ -23406,11 +23433,11 @@
       <c r="EP23" s="43"/>
     </row>
     <row r="24" spans="1:146" ht="15" customHeight="1">
-      <c r="A24" s="409"/>
-      <c r="B24" s="381"/>
-      <c r="C24" s="383"/>
-      <c r="D24" s="385"/>
-      <c r="E24" s="387"/>
+      <c r="A24" s="334"/>
+      <c r="B24" s="327"/>
+      <c r="C24" s="328"/>
+      <c r="D24" s="329"/>
+      <c r="E24" s="330"/>
       <c r="F24" s="85"/>
       <c r="G24" s="86"/>
       <c r="H24" s="86"/>
@@ -23554,11 +23581,11 @@
       <c r="EP24" s="43"/>
     </row>
     <row r="25" spans="1:146">
-      <c r="A25" s="410"/>
-      <c r="B25" s="392"/>
-      <c r="C25" s="393"/>
-      <c r="D25" s="394"/>
-      <c r="E25" s="395"/>
+      <c r="A25" s="316"/>
+      <c r="B25" s="318"/>
+      <c r="C25" s="320"/>
+      <c r="D25" s="322"/>
+      <c r="E25" s="324"/>
       <c r="F25" s="91"/>
       <c r="G25" s="92"/>
       <c r="H25" s="92"/>
@@ -23702,11 +23729,11 @@
       <c r="EP25" s="43"/>
     </row>
     <row r="26" spans="1:146">
-      <c r="A26" s="411"/>
-      <c r="B26" s="381"/>
-      <c r="C26" s="383"/>
-      <c r="D26" s="385"/>
-      <c r="E26" s="387"/>
+      <c r="A26" s="326"/>
+      <c r="B26" s="327"/>
+      <c r="C26" s="328"/>
+      <c r="D26" s="329"/>
+      <c r="E26" s="330"/>
       <c r="F26" s="85"/>
       <c r="G26" s="86"/>
       <c r="H26" s="86"/>
@@ -23850,11 +23877,11 @@
       <c r="EP26" s="43"/>
     </row>
     <row r="27" spans="1:146">
-      <c r="A27" s="410"/>
-      <c r="B27" s="392"/>
-      <c r="C27" s="393"/>
-      <c r="D27" s="394"/>
-      <c r="E27" s="395"/>
+      <c r="A27" s="316"/>
+      <c r="B27" s="318"/>
+      <c r="C27" s="320"/>
+      <c r="D27" s="322"/>
+      <c r="E27" s="324"/>
       <c r="F27" s="91"/>
       <c r="G27" s="92"/>
       <c r="H27" s="92"/>
@@ -23998,11 +24025,11 @@
       <c r="EP27" s="43"/>
     </row>
     <row r="28" spans="1:146">
-      <c r="A28" s="411"/>
-      <c r="B28" s="381"/>
-      <c r="C28" s="383"/>
-      <c r="D28" s="385"/>
-      <c r="E28" s="387"/>
+      <c r="A28" s="326"/>
+      <c r="B28" s="327"/>
+      <c r="C28" s="328"/>
+      <c r="D28" s="329"/>
+      <c r="E28" s="330"/>
       <c r="F28" s="85"/>
       <c r="G28" s="86"/>
       <c r="H28" s="86"/>
@@ -24146,11 +24173,11 @@
       <c r="EP28" s="43"/>
     </row>
     <row r="29" spans="1:146">
-      <c r="A29" s="410"/>
-      <c r="B29" s="392"/>
-      <c r="C29" s="393"/>
-      <c r="D29" s="394"/>
-      <c r="E29" s="395"/>
+      <c r="A29" s="316"/>
+      <c r="B29" s="318"/>
+      <c r="C29" s="320"/>
+      <c r="D29" s="322"/>
+      <c r="E29" s="324"/>
       <c r="F29" s="91"/>
       <c r="G29" s="92"/>
       <c r="H29" s="92"/>
@@ -24294,11 +24321,11 @@
       <c r="EP29" s="43"/>
     </row>
     <row r="30" spans="1:146">
-      <c r="A30" s="411"/>
-      <c r="B30" s="381"/>
-      <c r="C30" s="383"/>
-      <c r="D30" s="385"/>
-      <c r="E30" s="387"/>
+      <c r="A30" s="326"/>
+      <c r="B30" s="327"/>
+      <c r="C30" s="328"/>
+      <c r="D30" s="329"/>
+      <c r="E30" s="330"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
       <c r="H30" s="86"/>
@@ -24442,11 +24469,11 @@
       <c r="EP30" s="43"/>
     </row>
     <row r="31" spans="1:146">
-      <c r="A31" s="410"/>
-      <c r="B31" s="392"/>
-      <c r="C31" s="393"/>
-      <c r="D31" s="394"/>
-      <c r="E31" s="395"/>
+      <c r="A31" s="316"/>
+      <c r="B31" s="318"/>
+      <c r="C31" s="320"/>
+      <c r="D31" s="322"/>
+      <c r="E31" s="324"/>
       <c r="F31" s="91"/>
       <c r="G31" s="92"/>
       <c r="H31" s="92"/>
@@ -24590,11 +24617,11 @@
       <c r="EP31" s="43"/>
     </row>
     <row r="32" spans="1:146">
-      <c r="A32" s="411"/>
-      <c r="B32" s="381"/>
-      <c r="C32" s="383"/>
-      <c r="D32" s="385"/>
-      <c r="E32" s="387"/>
+      <c r="A32" s="326"/>
+      <c r="B32" s="327"/>
+      <c r="C32" s="328"/>
+      <c r="D32" s="329"/>
+      <c r="E32" s="330"/>
       <c r="F32" s="85"/>
       <c r="G32" s="86"/>
       <c r="H32" s="86"/>
@@ -24738,11 +24765,11 @@
       <c r="EP32" s="43"/>
     </row>
     <row r="33" spans="1:146">
-      <c r="A33" s="410"/>
-      <c r="B33" s="392"/>
-      <c r="C33" s="393"/>
-      <c r="D33" s="394"/>
-      <c r="E33" s="395"/>
+      <c r="A33" s="316"/>
+      <c r="B33" s="318"/>
+      <c r="C33" s="320"/>
+      <c r="D33" s="322"/>
+      <c r="E33" s="324"/>
       <c r="F33" s="91"/>
       <c r="G33" s="92"/>
       <c r="H33" s="92"/>
@@ -24886,11 +24913,11 @@
       <c r="EP33" s="43"/>
     </row>
     <row r="34" spans="1:146">
-      <c r="A34" s="411"/>
-      <c r="B34" s="381"/>
-      <c r="C34" s="383"/>
-      <c r="D34" s="385"/>
-      <c r="E34" s="387"/>
+      <c r="A34" s="326"/>
+      <c r="B34" s="327"/>
+      <c r="C34" s="328"/>
+      <c r="D34" s="329"/>
+      <c r="E34" s="330"/>
       <c r="F34" s="85"/>
       <c r="G34" s="86"/>
       <c r="H34" s="86"/>
@@ -25034,11 +25061,11 @@
       <c r="EP34" s="43"/>
     </row>
     <row r="35" spans="1:146">
-      <c r="A35" s="410"/>
-      <c r="B35" s="392"/>
-      <c r="C35" s="393"/>
-      <c r="D35" s="394"/>
-      <c r="E35" s="395"/>
+      <c r="A35" s="316"/>
+      <c r="B35" s="318"/>
+      <c r="C35" s="320"/>
+      <c r="D35" s="322"/>
+      <c r="E35" s="324"/>
       <c r="F35" s="91"/>
       <c r="G35" s="92"/>
       <c r="H35" s="92"/>
@@ -25182,11 +25209,11 @@
       <c r="EP35" s="43"/>
     </row>
     <row r="36" spans="1:146">
-      <c r="A36" s="411"/>
-      <c r="B36" s="381"/>
-      <c r="C36" s="383"/>
-      <c r="D36" s="385"/>
-      <c r="E36" s="387"/>
+      <c r="A36" s="326"/>
+      <c r="B36" s="327"/>
+      <c r="C36" s="328"/>
+      <c r="D36" s="329"/>
+      <c r="E36" s="330"/>
       <c r="F36" s="85"/>
       <c r="G36" s="86"/>
       <c r="H36" s="86"/>
@@ -25330,11 +25357,11 @@
       <c r="EP36" s="43"/>
     </row>
     <row r="37" spans="1:146">
-      <c r="A37" s="410"/>
-      <c r="B37" s="392"/>
-      <c r="C37" s="393"/>
-      <c r="D37" s="394"/>
-      <c r="E37" s="395"/>
+      <c r="A37" s="316"/>
+      <c r="B37" s="318"/>
+      <c r="C37" s="320"/>
+      <c r="D37" s="322"/>
+      <c r="E37" s="324"/>
       <c r="F37" s="91"/>
       <c r="G37" s="92"/>
       <c r="H37" s="92"/>
@@ -25478,11 +25505,11 @@
       <c r="EP37" s="43"/>
     </row>
     <row r="38" spans="1:146">
-      <c r="A38" s="411"/>
-      <c r="B38" s="381"/>
-      <c r="C38" s="383"/>
-      <c r="D38" s="385"/>
-      <c r="E38" s="387"/>
+      <c r="A38" s="326"/>
+      <c r="B38" s="327"/>
+      <c r="C38" s="328"/>
+      <c r="D38" s="329"/>
+      <c r="E38" s="330"/>
       <c r="F38" s="85"/>
       <c r="G38" s="86"/>
       <c r="H38" s="86"/>
@@ -25626,11 +25653,11 @@
       <c r="EP38" s="43"/>
     </row>
     <row r="39" spans="1:146">
-      <c r="A39" s="410"/>
-      <c r="B39" s="392"/>
-      <c r="C39" s="393"/>
-      <c r="D39" s="394"/>
-      <c r="E39" s="395"/>
+      <c r="A39" s="316"/>
+      <c r="B39" s="318"/>
+      <c r="C39" s="320"/>
+      <c r="D39" s="322"/>
+      <c r="E39" s="324"/>
       <c r="F39" s="91"/>
       <c r="G39" s="92"/>
       <c r="H39" s="92"/>
@@ -25774,11 +25801,11 @@
       <c r="EP39" s="43"/>
     </row>
     <row r="40" spans="1:146">
-      <c r="A40" s="411"/>
-      <c r="B40" s="381"/>
-      <c r="C40" s="383"/>
-      <c r="D40" s="385"/>
-      <c r="E40" s="387"/>
+      <c r="A40" s="326"/>
+      <c r="B40" s="327"/>
+      <c r="C40" s="328"/>
+      <c r="D40" s="329"/>
+      <c r="E40" s="330"/>
       <c r="F40" s="85"/>
       <c r="G40" s="86"/>
       <c r="H40" s="86"/>
@@ -25922,11 +25949,11 @@
       <c r="EP40" s="43"/>
     </row>
     <row r="41" spans="1:146">
-      <c r="A41" s="410"/>
-      <c r="B41" s="392"/>
-      <c r="C41" s="393"/>
-      <c r="D41" s="394"/>
-      <c r="E41" s="395"/>
+      <c r="A41" s="316"/>
+      <c r="B41" s="318"/>
+      <c r="C41" s="320"/>
+      <c r="D41" s="322"/>
+      <c r="E41" s="324"/>
       <c r="F41" s="91"/>
       <c r="G41" s="92"/>
       <c r="H41" s="92"/>
@@ -26070,11 +26097,11 @@
       <c r="EP41" s="43"/>
     </row>
     <row r="42" spans="1:146">
-      <c r="A42" s="411"/>
-      <c r="B42" s="381"/>
-      <c r="C42" s="383"/>
-      <c r="D42" s="385"/>
-      <c r="E42" s="387"/>
+      <c r="A42" s="326"/>
+      <c r="B42" s="327"/>
+      <c r="C42" s="328"/>
+      <c r="D42" s="329"/>
+      <c r="E42" s="330"/>
       <c r="F42" s="85"/>
       <c r="G42" s="86"/>
       <c r="H42" s="86"/>
@@ -26218,11 +26245,11 @@
       <c r="EP42" s="43"/>
     </row>
     <row r="43" spans="1:146">
-      <c r="A43" s="410"/>
-      <c r="B43" s="392"/>
-      <c r="C43" s="393"/>
-      <c r="D43" s="394"/>
-      <c r="E43" s="395"/>
+      <c r="A43" s="316"/>
+      <c r="B43" s="318"/>
+      <c r="C43" s="320"/>
+      <c r="D43" s="322"/>
+      <c r="E43" s="324"/>
       <c r="F43" s="91"/>
       <c r="G43" s="92"/>
       <c r="H43" s="92"/>
@@ -26366,11 +26393,11 @@
       <c r="EP43" s="43"/>
     </row>
     <row r="44" spans="1:146">
-      <c r="A44" s="411"/>
-      <c r="B44" s="381"/>
-      <c r="C44" s="383"/>
-      <c r="D44" s="385"/>
-      <c r="E44" s="387"/>
+      <c r="A44" s="326"/>
+      <c r="B44" s="327"/>
+      <c r="C44" s="328"/>
+      <c r="D44" s="329"/>
+      <c r="E44" s="330"/>
       <c r="F44" s="85"/>
       <c r="G44" s="86"/>
       <c r="H44" s="86"/>
@@ -26514,11 +26541,11 @@
       <c r="EP44" s="43"/>
     </row>
     <row r="45" spans="1:146">
-      <c r="A45" s="410"/>
-      <c r="B45" s="392"/>
-      <c r="C45" s="393"/>
-      <c r="D45" s="394"/>
-      <c r="E45" s="395"/>
+      <c r="A45" s="316"/>
+      <c r="B45" s="318"/>
+      <c r="C45" s="320"/>
+      <c r="D45" s="322"/>
+      <c r="E45" s="324"/>
       <c r="F45" s="91"/>
       <c r="G45" s="92"/>
       <c r="H45" s="92"/>
@@ -26662,11 +26689,11 @@
       <c r="EP45" s="43"/>
     </row>
     <row r="46" spans="1:146">
-      <c r="A46" s="411"/>
-      <c r="B46" s="381"/>
-      <c r="C46" s="383"/>
-      <c r="D46" s="385"/>
-      <c r="E46" s="387"/>
+      <c r="A46" s="326"/>
+      <c r="B46" s="327"/>
+      <c r="C46" s="328"/>
+      <c r="D46" s="329"/>
+      <c r="E46" s="330"/>
       <c r="F46" s="85"/>
       <c r="G46" s="86"/>
       <c r="H46" s="86"/>
@@ -26810,11 +26837,11 @@
       <c r="EP46" s="43"/>
     </row>
     <row r="47" spans="1:146">
-      <c r="A47" s="410"/>
-      <c r="B47" s="392"/>
-      <c r="C47" s="393"/>
-      <c r="D47" s="394"/>
-      <c r="E47" s="395"/>
+      <c r="A47" s="316"/>
+      <c r="B47" s="318"/>
+      <c r="C47" s="320"/>
+      <c r="D47" s="322"/>
+      <c r="E47" s="324"/>
       <c r="F47" s="91"/>
       <c r="G47" s="92"/>
       <c r="H47" s="92"/>
@@ -26958,11 +26985,11 @@
       <c r="EP47" s="43"/>
     </row>
     <row r="48" spans="1:146">
-      <c r="A48" s="411"/>
-      <c r="B48" s="381"/>
-      <c r="C48" s="383"/>
-      <c r="D48" s="385"/>
-      <c r="E48" s="387"/>
+      <c r="A48" s="326"/>
+      <c r="B48" s="327"/>
+      <c r="C48" s="328"/>
+      <c r="D48" s="329"/>
+      <c r="E48" s="330"/>
       <c r="F48" s="85"/>
       <c r="G48" s="86"/>
       <c r="H48" s="86"/>
@@ -27106,11 +27133,11 @@
       <c r="EP48" s="43"/>
     </row>
     <row r="49" spans="1:146">
-      <c r="A49" s="410"/>
-      <c r="B49" s="392"/>
-      <c r="C49" s="393"/>
-      <c r="D49" s="394"/>
-      <c r="E49" s="395"/>
+      <c r="A49" s="316"/>
+      <c r="B49" s="318"/>
+      <c r="C49" s="320"/>
+      <c r="D49" s="322"/>
+      <c r="E49" s="324"/>
       <c r="F49" s="91"/>
       <c r="G49" s="92"/>
       <c r="H49" s="92"/>
@@ -27254,11 +27281,11 @@
       <c r="EP49" s="43"/>
     </row>
     <row r="50" spans="1:146">
-      <c r="A50" s="411"/>
-      <c r="B50" s="381"/>
-      <c r="C50" s="383"/>
-      <c r="D50" s="385"/>
-      <c r="E50" s="387"/>
+      <c r="A50" s="326"/>
+      <c r="B50" s="327"/>
+      <c r="C50" s="328"/>
+      <c r="D50" s="329"/>
+      <c r="E50" s="330"/>
       <c r="F50" s="85"/>
       <c r="G50" s="86"/>
       <c r="H50" s="86"/>
@@ -27402,11 +27429,11 @@
       <c r="EP50" s="43"/>
     </row>
     <row r="51" spans="1:146">
-      <c r="A51" s="410"/>
-      <c r="B51" s="392"/>
-      <c r="C51" s="393"/>
-      <c r="D51" s="394"/>
-      <c r="E51" s="395"/>
+      <c r="A51" s="316"/>
+      <c r="B51" s="318"/>
+      <c r="C51" s="320"/>
+      <c r="D51" s="322"/>
+      <c r="E51" s="324"/>
       <c r="F51" s="91"/>
       <c r="G51" s="92"/>
       <c r="H51" s="92"/>
@@ -27550,11 +27577,11 @@
       <c r="EP51" s="43"/>
     </row>
     <row r="52" spans="1:146">
-      <c r="A52" s="411"/>
-      <c r="B52" s="381"/>
-      <c r="C52" s="383"/>
-      <c r="D52" s="385"/>
-      <c r="E52" s="387"/>
+      <c r="A52" s="326"/>
+      <c r="B52" s="327"/>
+      <c r="C52" s="328"/>
+      <c r="D52" s="329"/>
+      <c r="E52" s="330"/>
       <c r="F52" s="85"/>
       <c r="G52" s="86"/>
       <c r="H52" s="86"/>
@@ -27698,11 +27725,11 @@
       <c r="EP52" s="43"/>
     </row>
     <row r="53" spans="1:146">
-      <c r="A53" s="410"/>
-      <c r="B53" s="392"/>
-      <c r="C53" s="393"/>
-      <c r="D53" s="394"/>
-      <c r="E53" s="395"/>
+      <c r="A53" s="316"/>
+      <c r="B53" s="318"/>
+      <c r="C53" s="320"/>
+      <c r="D53" s="322"/>
+      <c r="E53" s="324"/>
       <c r="F53" s="91"/>
       <c r="G53" s="92"/>
       <c r="H53" s="92"/>
@@ -27846,11 +27873,11 @@
       <c r="EP53" s="43"/>
     </row>
     <row r="54" spans="1:146">
-      <c r="A54" s="411"/>
-      <c r="B54" s="381"/>
-      <c r="C54" s="383"/>
-      <c r="D54" s="385"/>
-      <c r="E54" s="387"/>
+      <c r="A54" s="326"/>
+      <c r="B54" s="327"/>
+      <c r="C54" s="328"/>
+      <c r="D54" s="329"/>
+      <c r="E54" s="330"/>
       <c r="F54" s="85"/>
       <c r="G54" s="86"/>
       <c r="H54" s="86"/>
@@ -27994,11 +28021,11 @@
       <c r="EP54" s="43"/>
     </row>
     <row r="55" spans="1:146">
-      <c r="A55" s="410"/>
-      <c r="B55" s="392"/>
-      <c r="C55" s="393"/>
-      <c r="D55" s="394"/>
-      <c r="E55" s="395"/>
+      <c r="A55" s="316"/>
+      <c r="B55" s="318"/>
+      <c r="C55" s="320"/>
+      <c r="D55" s="322"/>
+      <c r="E55" s="324"/>
       <c r="F55" s="91"/>
       <c r="G55" s="92"/>
       <c r="H55" s="92"/>
@@ -28142,11 +28169,11 @@
       <c r="EP55" s="43"/>
     </row>
     <row r="56" spans="1:146">
-      <c r="A56" s="411"/>
-      <c r="B56" s="381"/>
-      <c r="C56" s="383"/>
-      <c r="D56" s="385"/>
-      <c r="E56" s="387"/>
+      <c r="A56" s="326"/>
+      <c r="B56" s="327"/>
+      <c r="C56" s="328"/>
+      <c r="D56" s="329"/>
+      <c r="E56" s="330"/>
       <c r="F56" s="85"/>
       <c r="G56" s="86"/>
       <c r="H56" s="86"/>
@@ -28290,11 +28317,11 @@
       <c r="EP56" s="43"/>
     </row>
     <row r="57" spans="1:146">
-      <c r="A57" s="410"/>
-      <c r="B57" s="392"/>
-      <c r="C57" s="393"/>
-      <c r="D57" s="394"/>
-      <c r="E57" s="395"/>
+      <c r="A57" s="316"/>
+      <c r="B57" s="318"/>
+      <c r="C57" s="320"/>
+      <c r="D57" s="322"/>
+      <c r="E57" s="324"/>
       <c r="F57" s="91"/>
       <c r="G57" s="92"/>
       <c r="H57" s="92"/>
@@ -28438,11 +28465,11 @@
       <c r="EP57" s="43"/>
     </row>
     <row r="58" spans="1:146">
-      <c r="A58" s="411"/>
-      <c r="B58" s="381"/>
-      <c r="C58" s="383"/>
-      <c r="D58" s="385"/>
-      <c r="E58" s="387"/>
+      <c r="A58" s="326"/>
+      <c r="B58" s="327"/>
+      <c r="C58" s="328"/>
+      <c r="D58" s="329"/>
+      <c r="E58" s="330"/>
       <c r="F58" s="85"/>
       <c r="G58" s="86"/>
       <c r="H58" s="86"/>
@@ -28586,11 +28613,11 @@
       <c r="EP58" s="43"/>
     </row>
     <row r="59" spans="1:146">
-      <c r="A59" s="410"/>
-      <c r="B59" s="392"/>
-      <c r="C59" s="393"/>
-      <c r="D59" s="394"/>
-      <c r="E59" s="395"/>
+      <c r="A59" s="316"/>
+      <c r="B59" s="318"/>
+      <c r="C59" s="320"/>
+      <c r="D59" s="322"/>
+      <c r="E59" s="324"/>
       <c r="F59" s="91"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
@@ -28734,11 +28761,11 @@
       <c r="EP59" s="43"/>
     </row>
     <row r="60" spans="1:146">
-      <c r="A60" s="411"/>
-      <c r="B60" s="381"/>
-      <c r="C60" s="383"/>
-      <c r="D60" s="385"/>
-      <c r="E60" s="387"/>
+      <c r="A60" s="326"/>
+      <c r="B60" s="327"/>
+      <c r="C60" s="328"/>
+      <c r="D60" s="329"/>
+      <c r="E60" s="330"/>
       <c r="F60" s="85"/>
       <c r="G60" s="86"/>
       <c r="H60" s="86"/>
@@ -28882,11 +28909,11 @@
       <c r="EP60" s="43"/>
     </row>
     <row r="61" spans="1:146">
-      <c r="A61" s="410"/>
-      <c r="B61" s="392"/>
-      <c r="C61" s="393"/>
-      <c r="D61" s="394"/>
-      <c r="E61" s="395"/>
+      <c r="A61" s="316"/>
+      <c r="B61" s="318"/>
+      <c r="C61" s="320"/>
+      <c r="D61" s="322"/>
+      <c r="E61" s="324"/>
       <c r="F61" s="91"/>
       <c r="G61" s="92"/>
       <c r="H61" s="92"/>
@@ -29030,11 +29057,11 @@
       <c r="EP61" s="43"/>
     </row>
     <row r="62" spans="1:146">
-      <c r="A62" s="411"/>
-      <c r="B62" s="381"/>
-      <c r="C62" s="383"/>
-      <c r="D62" s="385"/>
-      <c r="E62" s="387"/>
+      <c r="A62" s="326"/>
+      <c r="B62" s="327"/>
+      <c r="C62" s="328"/>
+      <c r="D62" s="329"/>
+      <c r="E62" s="330"/>
       <c r="F62" s="85"/>
       <c r="G62" s="86"/>
       <c r="H62" s="86"/>
@@ -29178,11 +29205,11 @@
       <c r="EP62" s="43"/>
     </row>
     <row r="63" spans="1:146">
-      <c r="A63" s="410"/>
-      <c r="B63" s="392"/>
-      <c r="C63" s="393"/>
-      <c r="D63" s="394"/>
-      <c r="E63" s="395"/>
+      <c r="A63" s="316"/>
+      <c r="B63" s="318"/>
+      <c r="C63" s="320"/>
+      <c r="D63" s="322"/>
+      <c r="E63" s="324"/>
       <c r="F63" s="91"/>
       <c r="G63" s="92"/>
       <c r="H63" s="92"/>
@@ -29326,11 +29353,11 @@
       <c r="EP63" s="43"/>
     </row>
     <row r="64" spans="1:146">
-      <c r="A64" s="411"/>
-      <c r="B64" s="381"/>
-      <c r="C64" s="383"/>
-      <c r="D64" s="385"/>
-      <c r="E64" s="387"/>
+      <c r="A64" s="326"/>
+      <c r="B64" s="327"/>
+      <c r="C64" s="328"/>
+      <c r="D64" s="329"/>
+      <c r="E64" s="330"/>
       <c r="F64" s="85"/>
       <c r="G64" s="86"/>
       <c r="H64" s="86"/>
@@ -29474,11 +29501,11 @@
       <c r="EP64" s="43"/>
     </row>
     <row r="65" spans="1:146">
-      <c r="A65" s="410"/>
-      <c r="B65" s="392"/>
-      <c r="C65" s="393"/>
-      <c r="D65" s="394"/>
-      <c r="E65" s="395"/>
+      <c r="A65" s="316"/>
+      <c r="B65" s="318"/>
+      <c r="C65" s="320"/>
+      <c r="D65" s="322"/>
+      <c r="E65" s="324"/>
       <c r="F65" s="91"/>
       <c r="G65" s="92"/>
       <c r="H65" s="92"/>
@@ -29622,11 +29649,11 @@
       <c r="EP65" s="43"/>
     </row>
     <row r="66" spans="1:146" ht="15.75" thickBot="1">
-      <c r="A66" s="412"/>
-      <c r="B66" s="413"/>
-      <c r="C66" s="414"/>
-      <c r="D66" s="415"/>
-      <c r="E66" s="416"/>
+      <c r="A66" s="317"/>
+      <c r="B66" s="319"/>
+      <c r="C66" s="321"/>
+      <c r="D66" s="323"/>
+      <c r="E66" s="325"/>
       <c r="F66" s="98"/>
       <c r="G66" s="99"/>
       <c r="H66" s="99"/>
@@ -31421,151 +31448,6 @@
     </row>
   </sheetData>
   <mergeCells count="165">
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A4:DF4"/>
     <mergeCell ref="DG4:EO4"/>
     <mergeCell ref="A5:A8"/>
@@ -31586,6 +31468,151 @@
     <mergeCell ref="AJ2:AT2"/>
     <mergeCell ref="AU2:BG2"/>
     <mergeCell ref="BJ2:CG2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31602,7 +31629,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -31637,39 +31664,39 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="430" t="s">
+      <c r="A3" s="417" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="431"/>
-      <c r="C3" s="432" t="s">
+      <c r="B3" s="418"/>
+      <c r="C3" s="419" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="432"/>
-      <c r="E3" s="433"/>
+      <c r="D3" s="419"/>
+      <c r="E3" s="420"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="41.25" customHeight="1">
-      <c r="A4" s="434" t="s">
+      <c r="A4" s="421" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="435"/>
-      <c r="C4" s="436" t="s">
+      <c r="B4" s="422"/>
+      <c r="C4" s="423" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="437"/>
-      <c r="E4" s="438"/>
+      <c r="D4" s="424"/>
+      <c r="E4" s="425"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="445" t="s">
+      <c r="A5" s="432" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="446"/>
-      <c r="C5" s="443">
+      <c r="B5" s="433"/>
+      <c r="C5" s="430">
         <v>43592</v>
       </c>
-      <c r="D5" s="443"/>
-      <c r="E5" s="444"/>
+      <c r="D5" s="430"/>
+      <c r="E5" s="431"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1">
@@ -31681,34 +31708,34 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A7" s="439" t="s">
+      <c r="A7" s="426" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="441" t="s">
+      <c r="B7" s="428" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="441"/>
+      <c r="C7" s="428"/>
       <c r="D7" s="135" t="s">
         <v>141</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="421" t="s">
+      <c r="F7" s="434" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="422"/>
-      <c r="H7" s="423"/>
-      <c r="I7" s="424" t="s">
+      <c r="G7" s="435"/>
+      <c r="H7" s="436"/>
+      <c r="I7" s="437" t="s">
         <v>142</v>
       </c>
-      <c r="J7" s="425"/>
-      <c r="K7" s="426"/>
+      <c r="J7" s="438"/>
+      <c r="K7" s="439"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A8" s="440"/>
-      <c r="B8" s="442"/>
-      <c r="C8" s="442"/>
+      <c r="A8" s="427"/>
+      <c r="B8" s="429"/>
+      <c r="C8" s="429"/>
       <c r="D8" s="136" t="s">
         <v>0</v>
       </c>
@@ -31738,10 +31765,10 @@
       <c r="A9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="429" t="s">
+      <c r="B9" s="445" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="429"/>
+      <c r="C9" s="445"/>
       <c r="D9" s="24">
         <v>70</v>
       </c>
@@ -31769,10 +31796,10 @@
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="417" t="s">
+      <c r="B10" s="444" t="s">
         <v>252</v>
       </c>
-      <c r="C10" s="417"/>
+      <c r="C10" s="444"/>
       <c r="D10" s="5">
         <v>2</v>
       </c>
@@ -31800,10 +31827,10 @@
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="417" t="s">
+      <c r="B11" s="444" t="s">
         <v>254</v>
       </c>
-      <c r="C11" s="417"/>
+      <c r="C11" s="444"/>
       <c r="D11" s="5">
         <v>25</v>
       </c>
@@ -31831,10 +31858,10 @@
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="417" t="s">
+      <c r="B12" s="444" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="417"/>
+      <c r="C12" s="444"/>
       <c r="D12" s="5">
         <v>50</v>
       </c>
@@ -31862,10 +31889,10 @@
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="427" t="s">
+      <c r="B13" s="440" t="s">
         <v>302</v>
       </c>
-      <c r="C13" s="428"/>
+      <c r="C13" s="441"/>
       <c r="D13" s="5">
         <v>35</v>
       </c>
@@ -31893,10 +31920,10 @@
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="417" t="s">
+      <c r="B14" s="444" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="417"/>
+      <c r="C14" s="444"/>
       <c r="D14" s="5">
         <v>20</v>
       </c>
@@ -31924,10 +31951,10 @@
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="417" t="s">
+      <c r="B15" s="444" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="417"/>
+      <c r="C15" s="444"/>
       <c r="D15" s="5">
         <v>70</v>
       </c>
@@ -31955,10 +31982,10 @@
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="417" t="s">
+      <c r="B16" s="444" t="s">
         <v>284</v>
       </c>
-      <c r="C16" s="417"/>
+      <c r="C16" s="444"/>
       <c r="D16" s="5">
         <v>85</v>
       </c>
@@ -31986,10 +32013,10 @@
       <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="417" t="s">
+      <c r="B17" s="444" t="s">
         <v>300</v>
       </c>
-      <c r="C17" s="417"/>
+      <c r="C17" s="444"/>
       <c r="D17" s="5">
         <v>20</v>
       </c>
@@ -32017,10 +32044,10 @@
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="427" t="s">
+      <c r="B18" s="440" t="s">
         <v>301</v>
       </c>
-      <c r="C18" s="428"/>
+      <c r="C18" s="441"/>
       <c r="D18" s="5">
         <v>20</v>
       </c>
@@ -32048,8 +32075,8 @@
       <c r="A19" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="427"/>
-      <c r="C19" s="428"/>
+      <c r="B19" s="440"/>
+      <c r="C19" s="441"/>
       <c r="D19" s="5"/>
       <c r="E19" s="134"/>
       <c r="F19" s="12"/>
@@ -32063,8 +32090,8 @@
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="419"/>
-      <c r="C20" s="420"/>
+      <c r="B20" s="442"/>
+      <c r="C20" s="443"/>
       <c r="D20" s="5"/>
       <c r="E20" s="134"/>
       <c r="F20" s="12"/>
@@ -32078,8 +32105,8 @@
       <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="419"/>
-      <c r="C21" s="420"/>
+      <c r="B21" s="442"/>
+      <c r="C21" s="443"/>
       <c r="D21" s="5"/>
       <c r="E21" s="134"/>
       <c r="F21" s="12"/>
@@ -32093,8 +32120,8 @@
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="419"/>
-      <c r="C22" s="420"/>
+      <c r="B22" s="442"/>
+      <c r="C22" s="443"/>
       <c r="D22" s="5"/>
       <c r="E22" s="134"/>
       <c r="F22" s="12"/>
@@ -32108,8 +32135,8 @@
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="417"/>
-      <c r="C23" s="417"/>
+      <c r="B23" s="444"/>
+      <c r="C23" s="444"/>
       <c r="D23" s="5"/>
       <c r="E23" s="134"/>
       <c r="F23" s="12"/>
@@ -32123,8 +32150,8 @@
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="419"/>
-      <c r="C24" s="420"/>
+      <c r="B24" s="442"/>
+      <c r="C24" s="443"/>
       <c r="D24" s="5"/>
       <c r="E24" s="134"/>
       <c r="F24" s="12"/>
@@ -32138,8 +32165,8 @@
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="419"/>
-      <c r="C25" s="420"/>
+      <c r="B25" s="442"/>
+      <c r="C25" s="443"/>
       <c r="D25" s="5"/>
       <c r="E25" s="134"/>
       <c r="F25" s="12"/>
@@ -32153,8 +32180,8 @@
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="419"/>
-      <c r="C26" s="420"/>
+      <c r="B26" s="442"/>
+      <c r="C26" s="443"/>
       <c r="D26" s="5"/>
       <c r="E26" s="134"/>
       <c r="F26" s="12"/>
@@ -32168,8 +32195,8 @@
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="419"/>
-      <c r="C27" s="420"/>
+      <c r="B27" s="442"/>
+      <c r="C27" s="443"/>
       <c r="D27" s="5"/>
       <c r="E27" s="134"/>
       <c r="F27" s="12"/>
@@ -32183,8 +32210,8 @@
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="419"/>
-      <c r="C28" s="420"/>
+      <c r="B28" s="442"/>
+      <c r="C28" s="443"/>
       <c r="D28" s="5"/>
       <c r="E28" s="134"/>
       <c r="F28" s="12"/>
@@ -32198,8 +32225,8 @@
       <c r="A29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="417"/>
-      <c r="C29" s="417"/>
+      <c r="B29" s="444"/>
+      <c r="C29" s="444"/>
       <c r="D29" s="5"/>
       <c r="E29" s="134"/>
       <c r="F29" s="12"/>
@@ -32213,8 +32240,8 @@
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="417"/>
-      <c r="C30" s="417"/>
+      <c r="B30" s="444"/>
+      <c r="C30" s="444"/>
       <c r="D30" s="5"/>
       <c r="E30" s="134"/>
       <c r="F30" s="12"/>
@@ -32228,8 +32255,8 @@
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="417"/>
-      <c r="C31" s="417"/>
+      <c r="B31" s="444"/>
+      <c r="C31" s="444"/>
       <c r="D31" s="5"/>
       <c r="E31" s="134"/>
       <c r="F31" s="12"/>
@@ -32243,8 +32270,8 @@
       <c r="A32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="417"/>
-      <c r="C32" s="417"/>
+      <c r="B32" s="444"/>
+      <c r="C32" s="444"/>
       <c r="D32" s="5"/>
       <c r="E32" s="134"/>
       <c r="F32" s="12"/>
@@ -32258,8 +32285,8 @@
       <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="417"/>
-      <c r="C33" s="417"/>
+      <c r="B33" s="444"/>
+      <c r="C33" s="444"/>
       <c r="D33" s="5"/>
       <c r="E33" s="134"/>
       <c r="F33" s="12"/>
@@ -32273,8 +32300,8 @@
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="417"/>
-      <c r="C34" s="417"/>
+      <c r="B34" s="444"/>
+      <c r="C34" s="444"/>
       <c r="D34" s="5"/>
       <c r="E34" s="134"/>
       <c r="F34" s="12"/>
@@ -32288,8 +32315,8 @@
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="417"/>
-      <c r="C35" s="417"/>
+      <c r="B35" s="444"/>
+      <c r="C35" s="444"/>
       <c r="D35" s="5"/>
       <c r="E35" s="134"/>
       <c r="F35" s="12"/>
@@ -32303,8 +32330,8 @@
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="417"/>
-      <c r="C36" s="417"/>
+      <c r="B36" s="444"/>
+      <c r="C36" s="444"/>
       <c r="D36" s="5"/>
       <c r="E36" s="134"/>
       <c r="F36" s="12"/>
@@ -32318,8 +32345,8 @@
       <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="417"/>
-      <c r="C37" s="417"/>
+      <c r="B37" s="444"/>
+      <c r="C37" s="444"/>
       <c r="D37" s="5"/>
       <c r="E37" s="134"/>
       <c r="F37" s="12"/>
@@ -32333,8 +32360,8 @@
       <c r="A38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="418"/>
-      <c r="C38" s="418"/>
+      <c r="B38" s="446"/>
+      <c r="C38" s="446"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
       <c r="F38" s="13"/>
@@ -32346,14 +32373,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="B18:C18"/>
@@ -32368,24 +32405,14 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
@@ -32400,7 +32427,7 @@
   </sheetPr>
   <dimension ref="J1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>

--- a/Doku/Projektmappe.xlsx
+++ b/Doku/Projektmappe.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F9F6D6-17AF-4B16-B3F1-23CAD5DE8FE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{776A3FB2-185C-4872-A929-800708629F32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="832" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="832" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inhalt" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="346">
   <si>
     <t>(0-100%)</t>
   </si>
@@ -1622,7 +1622,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1872,6 +1872,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF31FF21"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3851,7 +3857,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="452">
+  <cellXfs count="456">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4158,50 +4164,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="49" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="49" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="49" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="49" fillId="42" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4236,16 +4232,58 @@
     <xf numFmtId="0" fontId="30" fillId="26" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4257,11 +4295,96 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4281,12 +4404,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4305,89 +4422,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="134" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4441,8 +4479,91 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4519,6 +4640,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4575,6 +4705,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -4589,110 +4728,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4745,10 +4780,49 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4757,81 +4831,17 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="49" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="49" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="49" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="49" fillId="42" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -4841,6 +4851,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF31FF21"/>
       <color rgb="FF95B3D7"/>
     </mruColors>
   </colors>
@@ -18199,33 +18210,33 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="232" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1">
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="226" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="228"/>
       <c r="H4" s="148"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1">
-      <c r="B5" s="189"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="191"/>
+      <c r="B5" s="229"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="231"/>
       <c r="H5" s="148"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1">
@@ -18239,34 +18250,34 @@
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1">
       <c r="B7" s="150"/>
-      <c r="C7" s="201" t="s">
+      <c r="C7" s="215" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="203"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="217"/>
       <c r="G7" s="155"/>
       <c r="H7" s="149"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1">
       <c r="B8" s="150"/>
       <c r="C8" s="150"/>
-      <c r="D8" s="204" t="s">
+      <c r="D8" s="218" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="204"/>
-      <c r="F8" s="205"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="219"/>
       <c r="G8" s="155"/>
       <c r="H8" s="149"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1">
       <c r="B9" s="150"/>
       <c r="C9" s="151"/>
-      <c r="D9" s="196" t="s">
+      <c r="D9" s="213" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="196"/>
-      <c r="F9" s="197"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="214"/>
       <c r="G9" s="155"/>
       <c r="H9" s="149"/>
     </row>
@@ -18281,32 +18292,32 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="152"/>
-      <c r="C11" s="206" t="s">
+      <c r="C11" s="220" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="207"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="208"/>
+      <c r="D11" s="221"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="222"/>
       <c r="G11" s="142"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="152"/>
       <c r="C12" s="152"/>
-      <c r="D12" s="204" t="s">
+      <c r="D12" s="218" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="204"/>
-      <c r="F12" s="205"/>
+      <c r="E12" s="218"/>
+      <c r="F12" s="219"/>
       <c r="G12" s="142"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="152"/>
       <c r="C13" s="153"/>
-      <c r="D13" s="196" t="s">
+      <c r="D13" s="213" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="196"/>
-      <c r="F13" s="197"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="214"/>
       <c r="G13" s="142"/>
     </row>
     <row r="14" spans="2:8">
@@ -18327,32 +18338,32 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="152"/>
-      <c r="C16" s="209" t="s">
+      <c r="C16" s="223" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="210"/>
-      <c r="E16" s="210"/>
-      <c r="F16" s="211"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="225"/>
       <c r="G16" s="142"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="152"/>
       <c r="C17" s="152"/>
-      <c r="D17" s="204" t="s">
+      <c r="D17" s="218" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="204"/>
-      <c r="F17" s="205"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="219"/>
       <c r="G17" s="142"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="152"/>
       <c r="C18" s="153"/>
-      <c r="D18" s="196" t="s">
+      <c r="D18" s="213" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="196"/>
-      <c r="F18" s="197"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="214"/>
       <c r="G18" s="142"/>
     </row>
     <row r="19" spans="2:7">
@@ -18373,22 +18384,22 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="152"/>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="233" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="194"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="195"/>
+      <c r="D21" s="234"/>
+      <c r="E21" s="234"/>
+      <c r="F21" s="235"/>
       <c r="G21" s="142"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="152"/>
       <c r="C22" s="153"/>
-      <c r="D22" s="196" t="s">
+      <c r="D22" s="213" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="196"/>
-      <c r="F22" s="197"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="214"/>
       <c r="G22" s="142"/>
     </row>
     <row r="23" spans="2:7">
@@ -18409,22 +18420,22 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="152"/>
-      <c r="C25" s="198" t="s">
+      <c r="C25" s="236" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="199"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="200"/>
+      <c r="D25" s="237"/>
+      <c r="E25" s="237"/>
+      <c r="F25" s="238"/>
       <c r="G25" s="142"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="152"/>
       <c r="C26" s="153"/>
-      <c r="D26" s="196" t="s">
+      <c r="D26" s="213" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="196"/>
-      <c r="F26" s="197"/>
+      <c r="E26" s="213"/>
+      <c r="F26" s="214"/>
       <c r="G26" s="142"/>
     </row>
     <row r="27" spans="2:7">
@@ -18437,6 +18448,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="C25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="D8:F8"/>
@@ -18447,11 +18463,6 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="C25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18477,310 +18488,272 @@
   <sheetData>
     <row r="1" spans="2:11" s="145" customFormat="1"/>
     <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="407" t="s">
+      <c r="B2" s="443" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="407"/>
-      <c r="D2" s="407" t="s">
+      <c r="C2" s="443"/>
+      <c r="D2" s="443" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="407"/>
-      <c r="F2" s="407" t="s">
+      <c r="E2" s="443"/>
+      <c r="F2" s="443" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="407"/>
-      <c r="H2" s="407" t="s">
+      <c r="G2" s="443"/>
+      <c r="H2" s="443" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="407"/>
-      <c r="J2" s="407" t="s">
+      <c r="I2" s="443"/>
+      <c r="J2" s="443" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="407"/>
+      <c r="K2" s="443"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="403">
+      <c r="B3" s="444">
         <v>1</v>
       </c>
-      <c r="C3" s="403"/>
-      <c r="D3" s="403" t="s">
+      <c r="C3" s="444"/>
+      <c r="D3" s="444" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="403"/>
-      <c r="F3" s="403" t="s">
+      <c r="E3" s="444"/>
+      <c r="F3" s="444" t="s">
         <v>320</v>
       </c>
-      <c r="G3" s="403"/>
-      <c r="H3" s="404" t="s">
+      <c r="G3" s="444"/>
+      <c r="H3" s="447" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="404"/>
-      <c r="J3" s="403" t="s">
+      <c r="I3" s="447"/>
+      <c r="J3" s="444" t="s">
         <v>321</v>
       </c>
-      <c r="K3" s="403"/>
+      <c r="K3" s="444"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B4" s="403"/>
-      <c r="C4" s="403"/>
-      <c r="D4" s="403"/>
-      <c r="E4" s="403"/>
-      <c r="F4" s="403"/>
-      <c r="G4" s="403"/>
-      <c r="H4" s="404" t="s">
+      <c r="B4" s="444"/>
+      <c r="C4" s="444"/>
+      <c r="D4" s="444"/>
+      <c r="E4" s="444"/>
+      <c r="F4" s="444"/>
+      <c r="G4" s="444"/>
+      <c r="H4" s="447" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="404"/>
-      <c r="J4" s="403"/>
-      <c r="K4" s="403"/>
+      <c r="I4" s="447"/>
+      <c r="J4" s="444"/>
+      <c r="K4" s="444"/>
     </row>
     <row r="5" spans="2:11" ht="15.6">
-      <c r="B5" s="403"/>
-      <c r="C5" s="403"/>
-      <c r="D5" s="403"/>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404" t="s">
+      <c r="B5" s="444"/>
+      <c r="C5" s="444"/>
+      <c r="D5" s="444"/>
+      <c r="E5" s="444"/>
+      <c r="F5" s="444"/>
+      <c r="G5" s="444"/>
+      <c r="H5" s="447" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="404"/>
-      <c r="J5" s="403"/>
-      <c r="K5" s="403"/>
+      <c r="I5" s="447"/>
+      <c r="J5" s="444"/>
+      <c r="K5" s="444"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B6" s="403">
+      <c r="B6" s="444">
         <v>2</v>
       </c>
-      <c r="C6" s="403"/>
-      <c r="D6" s="403" t="s">
+      <c r="C6" s="444"/>
+      <c r="D6" s="444" t="s">
         <v>318</v>
       </c>
-      <c r="E6" s="403"/>
-      <c r="F6" s="405" t="s">
+      <c r="E6" s="444"/>
+      <c r="F6" s="445" t="s">
         <v>322</v>
       </c>
-      <c r="G6" s="406"/>
-      <c r="H6" s="404" t="s">
+      <c r="G6" s="446"/>
+      <c r="H6" s="447" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="404"/>
-      <c r="J6" s="403" t="s">
+      <c r="I6" s="447"/>
+      <c r="J6" s="444" t="s">
         <v>323</v>
       </c>
-      <c r="K6" s="403"/>
+      <c r="K6" s="444"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B7" s="403"/>
-      <c r="C7" s="403"/>
-      <c r="D7" s="403"/>
-      <c r="E7" s="403"/>
-      <c r="F7" s="403"/>
-      <c r="G7" s="403"/>
-      <c r="H7" s="404" t="s">
+      <c r="B7" s="444"/>
+      <c r="C7" s="444"/>
+      <c r="D7" s="444"/>
+      <c r="E7" s="444"/>
+      <c r="F7" s="444"/>
+      <c r="G7" s="444"/>
+      <c r="H7" s="447" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="404"/>
-      <c r="J7" s="403"/>
-      <c r="K7" s="403"/>
+      <c r="I7" s="447"/>
+      <c r="J7" s="444"/>
+      <c r="K7" s="444"/>
     </row>
     <row r="8" spans="2:11" ht="15.6">
-      <c r="B8" s="403"/>
-      <c r="C8" s="403"/>
-      <c r="D8" s="403"/>
-      <c r="E8" s="403"/>
-      <c r="F8" s="403"/>
-      <c r="G8" s="403"/>
-      <c r="H8" s="404" t="s">
+      <c r="B8" s="444"/>
+      <c r="C8" s="444"/>
+      <c r="D8" s="444"/>
+      <c r="E8" s="444"/>
+      <c r="F8" s="444"/>
+      <c r="G8" s="444"/>
+      <c r="H8" s="447" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="404"/>
-      <c r="J8" s="403"/>
-      <c r="K8" s="403"/>
+      <c r="I8" s="447"/>
+      <c r="J8" s="444"/>
+      <c r="K8" s="444"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B9" s="403">
+      <c r="B9" s="444">
         <v>3</v>
       </c>
-      <c r="C9" s="403"/>
-      <c r="D9" s="403" t="s">
+      <c r="C9" s="444"/>
+      <c r="D9" s="444" t="s">
         <v>317</v>
       </c>
-      <c r="E9" s="403"/>
-      <c r="F9" s="403" t="s">
+      <c r="E9" s="444"/>
+      <c r="F9" s="444" t="s">
         <v>324</v>
       </c>
-      <c r="G9" s="403"/>
-      <c r="H9" s="404" t="s">
+      <c r="G9" s="444"/>
+      <c r="H9" s="447" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="404"/>
-      <c r="J9" s="403" t="s">
+      <c r="I9" s="447"/>
+      <c r="J9" s="444" t="s">
         <v>325</v>
       </c>
-      <c r="K9" s="403"/>
+      <c r="K9" s="444"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B10" s="403"/>
-      <c r="C10" s="403"/>
-      <c r="D10" s="403"/>
-      <c r="E10" s="403"/>
-      <c r="F10" s="403"/>
-      <c r="G10" s="403"/>
-      <c r="H10" s="404" t="s">
+      <c r="B10" s="444"/>
+      <c r="C10" s="444"/>
+      <c r="D10" s="444"/>
+      <c r="E10" s="444"/>
+      <c r="F10" s="444"/>
+      <c r="G10" s="444"/>
+      <c r="H10" s="447" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="404"/>
-      <c r="J10" s="403"/>
-      <c r="K10" s="403"/>
+      <c r="I10" s="447"/>
+      <c r="J10" s="444"/>
+      <c r="K10" s="444"/>
     </row>
     <row r="11" spans="2:11" ht="15.6">
-      <c r="B11" s="403"/>
-      <c r="C11" s="403"/>
-      <c r="D11" s="403"/>
-      <c r="E11" s="403"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="403"/>
-      <c r="H11" s="404" t="s">
+      <c r="B11" s="444"/>
+      <c r="C11" s="444"/>
+      <c r="D11" s="444"/>
+      <c r="E11" s="444"/>
+      <c r="F11" s="444"/>
+      <c r="G11" s="444"/>
+      <c r="H11" s="447" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="404"/>
-      <c r="J11" s="403"/>
-      <c r="K11" s="403"/>
+      <c r="I11" s="447"/>
+      <c r="J11" s="444"/>
+      <c r="K11" s="444"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B12" s="403">
+      <c r="B12" s="444">
         <v>4</v>
       </c>
-      <c r="C12" s="403"/>
-      <c r="D12" s="403"/>
-      <c r="E12" s="403"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="403"/>
-      <c r="H12" s="404" t="s">
+      <c r="C12" s="444"/>
+      <c r="D12" s="444"/>
+      <c r="E12" s="444"/>
+      <c r="F12" s="444"/>
+      <c r="G12" s="444"/>
+      <c r="H12" s="447" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="404"/>
-      <c r="J12" s="403"/>
-      <c r="K12" s="403"/>
+      <c r="I12" s="447"/>
+      <c r="J12" s="444"/>
+      <c r="K12" s="444"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B13" s="403"/>
-      <c r="C13" s="403"/>
-      <c r="D13" s="403"/>
-      <c r="E13" s="403"/>
-      <c r="F13" s="403"/>
-      <c r="G13" s="403"/>
-      <c r="H13" s="404" t="s">
+      <c r="B13" s="444"/>
+      <c r="C13" s="444"/>
+      <c r="D13" s="444"/>
+      <c r="E13" s="444"/>
+      <c r="F13" s="444"/>
+      <c r="G13" s="444"/>
+      <c r="H13" s="447" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="404"/>
-      <c r="J13" s="403"/>
-      <c r="K13" s="403"/>
+      <c r="I13" s="447"/>
+      <c r="J13" s="444"/>
+      <c r="K13" s="444"/>
     </row>
     <row r="14" spans="2:11" ht="15.6">
-      <c r="B14" s="403"/>
-      <c r="C14" s="403"/>
-      <c r="D14" s="403"/>
-      <c r="E14" s="403"/>
-      <c r="F14" s="403"/>
-      <c r="G14" s="403"/>
-      <c r="H14" s="404" t="s">
+      <c r="B14" s="444"/>
+      <c r="C14" s="444"/>
+      <c r="D14" s="444"/>
+      <c r="E14" s="444"/>
+      <c r="F14" s="444"/>
+      <c r="G14" s="444"/>
+      <c r="H14" s="447" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="404"/>
-      <c r="J14" s="403"/>
-      <c r="K14" s="403"/>
+      <c r="I14" s="447"/>
+      <c r="J14" s="444"/>
+      <c r="K14" s="444"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B15" s="403">
+      <c r="B15" s="444">
         <v>5</v>
       </c>
-      <c r="C15" s="403"/>
-      <c r="D15" s="403"/>
-      <c r="E15" s="403"/>
-      <c r="F15" s="403"/>
-      <c r="G15" s="403"/>
-      <c r="H15" s="404" t="s">
+      <c r="C15" s="444"/>
+      <c r="D15" s="444"/>
+      <c r="E15" s="444"/>
+      <c r="F15" s="444"/>
+      <c r="G15" s="444"/>
+      <c r="H15" s="447" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="404"/>
-      <c r="J15" s="403"/>
-      <c r="K15" s="403"/>
+      <c r="I15" s="447"/>
+      <c r="J15" s="444"/>
+      <c r="K15" s="444"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B16" s="403"/>
-      <c r="C16" s="403"/>
-      <c r="D16" s="403"/>
-      <c r="E16" s="403"/>
-      <c r="F16" s="403"/>
-      <c r="G16" s="403"/>
-      <c r="H16" s="404" t="s">
+      <c r="B16" s="444"/>
+      <c r="C16" s="444"/>
+      <c r="D16" s="444"/>
+      <c r="E16" s="444"/>
+      <c r="F16" s="444"/>
+      <c r="G16" s="444"/>
+      <c r="H16" s="447" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="404"/>
-      <c r="J16" s="403"/>
-      <c r="K16" s="403"/>
+      <c r="I16" s="447"/>
+      <c r="J16" s="444"/>
+      <c r="K16" s="444"/>
     </row>
     <row r="17" spans="2:11" ht="15.6">
-      <c r="B17" s="403"/>
-      <c r="C17" s="403"/>
-      <c r="D17" s="403"/>
-      <c r="E17" s="403"/>
-      <c r="F17" s="403"/>
-      <c r="G17" s="403"/>
-      <c r="H17" s="404" t="s">
+      <c r="B17" s="444"/>
+      <c r="C17" s="444"/>
+      <c r="D17" s="444"/>
+      <c r="E17" s="444"/>
+      <c r="F17" s="444"/>
+      <c r="G17" s="444"/>
+      <c r="H17" s="447" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="404"/>
-      <c r="J17" s="403"/>
-      <c r="K17" s="403"/>
+      <c r="I17" s="447"/>
+      <c r="J17" s="444"/>
+      <c r="K17" s="444"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B15:C17"/>
-    <mergeCell ref="D3:E5"/>
-    <mergeCell ref="D6:E8"/>
-    <mergeCell ref="D9:E11"/>
-    <mergeCell ref="D12:E14"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J16:K16"/>
@@ -18793,11 +18766,49 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B15:C17"/>
+    <mergeCell ref="D3:E5"/>
+    <mergeCell ref="D6:E8"/>
+    <mergeCell ref="D9:E11"/>
+    <mergeCell ref="D12:E14"/>
+    <mergeCell ref="D15:E17"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18905,138 +18916,138 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:9" ht="25.2">
-      <c r="B7" s="257" t="s">
+      <c r="B7" s="239" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="258"/>
-      <c r="D7" s="258"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="258"/>
-      <c r="G7" s="258"/>
-      <c r="H7" s="258"/>
-      <c r="I7" s="259"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="241"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="245" t="s">
+      <c r="B8" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="246"/>
-      <c r="D8" s="212" t="s">
+      <c r="C8" s="259"/>
+      <c r="D8" s="242" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="218"/>
-      <c r="I8" s="213"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
+      <c r="G8" s="246"/>
+      <c r="H8" s="246"/>
+      <c r="I8" s="243"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="249"/>
-      <c r="C9" s="250"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="220"/>
-      <c r="H9" s="220"/>
-      <c r="I9" s="217"/>
+      <c r="B9" s="260"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="250"/>
+      <c r="F9" s="250"/>
+      <c r="G9" s="250"/>
+      <c r="H9" s="250"/>
+      <c r="I9" s="245"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="245" t="s">
+      <c r="B10" s="258" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="246"/>
-      <c r="D10" s="212" t="s">
+      <c r="C10" s="259"/>
+      <c r="D10" s="242" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="213"/>
-      <c r="F10" s="245" t="s">
+      <c r="E10" s="243"/>
+      <c r="F10" s="258" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="246"/>
-      <c r="H10" s="212" t="s">
+      <c r="G10" s="259"/>
+      <c r="H10" s="242" t="s">
         <v>177</v>
       </c>
-      <c r="I10" s="213"/>
+      <c r="I10" s="243"/>
     </row>
     <row r="11" spans="2:9" ht="43.95" customHeight="1">
-      <c r="B11" s="249"/>
-      <c r="C11" s="250"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="249"/>
-      <c r="G11" s="250"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="217"/>
+      <c r="B11" s="260"/>
+      <c r="C11" s="261"/>
+      <c r="D11" s="244"/>
+      <c r="E11" s="245"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="261"/>
+      <c r="H11" s="244"/>
+      <c r="I11" s="245"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1">
-      <c r="B12" s="245" t="s">
+      <c r="B12" s="258" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="246"/>
-      <c r="D12" s="212" t="s">
+      <c r="C12" s="259"/>
+      <c r="D12" s="242" t="s">
         <v>178</v>
       </c>
-      <c r="E12" s="218"/>
-      <c r="F12" s="218"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="213"/>
+      <c r="E12" s="246"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="246"/>
+      <c r="I12" s="243"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="247"/>
-      <c r="C13" s="248"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="219"/>
-      <c r="F13" s="219"/>
-      <c r="G13" s="219"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="215"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="263"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="248"/>
+      <c r="G13" s="248"/>
+      <c r="H13" s="248"/>
+      <c r="I13" s="249"/>
     </row>
     <row r="14" spans="2:9" ht="31.95" customHeight="1">
-      <c r="B14" s="249"/>
-      <c r="C14" s="250"/>
-      <c r="D14" s="216"/>
-      <c r="E14" s="220"/>
-      <c r="F14" s="220"/>
-      <c r="G14" s="220"/>
-      <c r="H14" s="220"/>
-      <c r="I14" s="217"/>
+      <c r="B14" s="260"/>
+      <c r="C14" s="261"/>
+      <c r="D14" s="244"/>
+      <c r="E14" s="250"/>
+      <c r="F14" s="250"/>
+      <c r="G14" s="250"/>
+      <c r="H14" s="250"/>
+      <c r="I14" s="245"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="227" t="s">
+      <c r="B15" s="253" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="228"/>
-      <c r="D15" s="243">
+      <c r="C15" s="254"/>
+      <c r="D15" s="251">
         <v>43560</v>
       </c>
-      <c r="E15" s="244"/>
-      <c r="F15" s="227" t="s">
+      <c r="E15" s="252"/>
+      <c r="F15" s="253" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="228"/>
-      <c r="H15" s="260" t="s">
+      <c r="G15" s="254"/>
+      <c r="H15" s="255" t="s">
         <v>290</v>
       </c>
-      <c r="I15" s="261"/>
+      <c r="I15" s="256"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="227" t="s">
+      <c r="B16" s="253" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="228"/>
-      <c r="D16" s="243">
+      <c r="C16" s="254"/>
+      <c r="D16" s="251">
         <v>43630</v>
       </c>
-      <c r="E16" s="244"/>
-      <c r="F16" s="227" t="s">
+      <c r="E16" s="252"/>
+      <c r="F16" s="253" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="228"/>
-      <c r="H16" s="262">
+      <c r="G16" s="254"/>
+      <c r="H16" s="257">
         <v>0</v>
       </c>
-      <c r="I16" s="261"/>
+      <c r="I16" s="256"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="131"/>
@@ -19047,98 +19058,98 @@
       <c r="C18" s="131"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B19" s="235" t="s">
+      <c r="B19" s="264" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="236"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="236"/>
-      <c r="F19" s="236"/>
-      <c r="G19" s="236"/>
-      <c r="H19" s="236"/>
-      <c r="I19" s="237"/>
+      <c r="C19" s="265"/>
+      <c r="D19" s="265"/>
+      <c r="E19" s="265"/>
+      <c r="F19" s="265"/>
+      <c r="G19" s="265"/>
+      <c r="H19" s="265"/>
+      <c r="I19" s="266"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="212" t="s">
+      <c r="B20" s="242" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="218"/>
-      <c r="D20" s="218"/>
-      <c r="E20" s="218"/>
-      <c r="F20" s="218"/>
-      <c r="G20" s="218"/>
-      <c r="H20" s="218"/>
-      <c r="I20" s="213"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="246"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="246"/>
+      <c r="G20" s="246"/>
+      <c r="H20" s="246"/>
+      <c r="I20" s="243"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="214"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="215"/>
+      <c r="B21" s="247"/>
+      <c r="C21" s="248"/>
+      <c r="D21" s="248"/>
+      <c r="E21" s="248"/>
+      <c r="F21" s="248"/>
+      <c r="G21" s="248"/>
+      <c r="H21" s="248"/>
+      <c r="I21" s="249"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="214"/>
-      <c r="C22" s="219"/>
-      <c r="D22" s="219"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="219"/>
-      <c r="G22" s="219"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="215"/>
+      <c r="B22" s="247"/>
+      <c r="C22" s="248"/>
+      <c r="D22" s="248"/>
+      <c r="E22" s="248"/>
+      <c r="F22" s="248"/>
+      <c r="G22" s="248"/>
+      <c r="H22" s="248"/>
+      <c r="I22" s="249"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="214"/>
-      <c r="C23" s="219"/>
-      <c r="D23" s="219"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="219"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="215"/>
+      <c r="B23" s="247"/>
+      <c r="C23" s="248"/>
+      <c r="D23" s="248"/>
+      <c r="E23" s="248"/>
+      <c r="F23" s="248"/>
+      <c r="G23" s="248"/>
+      <c r="H23" s="248"/>
+      <c r="I23" s="249"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="214"/>
-      <c r="C24" s="219"/>
-      <c r="D24" s="219"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="219"/>
-      <c r="G24" s="219"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="215"/>
+      <c r="B24" s="247"/>
+      <c r="C24" s="248"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="248"/>
+      <c r="F24" s="248"/>
+      <c r="G24" s="248"/>
+      <c r="H24" s="248"/>
+      <c r="I24" s="249"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="214"/>
-      <c r="C25" s="219"/>
-      <c r="D25" s="219"/>
-      <c r="E25" s="219"/>
-      <c r="F25" s="219"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="215"/>
+      <c r="B25" s="247"/>
+      <c r="C25" s="248"/>
+      <c r="D25" s="248"/>
+      <c r="E25" s="248"/>
+      <c r="F25" s="248"/>
+      <c r="G25" s="248"/>
+      <c r="H25" s="248"/>
+      <c r="I25" s="249"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="214"/>
-      <c r="C26" s="219"/>
-      <c r="D26" s="219"/>
-      <c r="E26" s="219"/>
-      <c r="F26" s="219"/>
-      <c r="G26" s="219"/>
-      <c r="H26" s="219"/>
-      <c r="I26" s="215"/>
+      <c r="B26" s="247"/>
+      <c r="C26" s="248"/>
+      <c r="D26" s="248"/>
+      <c r="E26" s="248"/>
+      <c r="F26" s="248"/>
+      <c r="G26" s="248"/>
+      <c r="H26" s="248"/>
+      <c r="I26" s="249"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="216"/>
-      <c r="C27" s="220"/>
-      <c r="D27" s="220"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="220"/>
-      <c r="G27" s="220"/>
-      <c r="H27" s="220"/>
-      <c r="I27" s="217"/>
+      <c r="B27" s="244"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="250"/>
+      <c r="F27" s="250"/>
+      <c r="G27" s="250"/>
+      <c r="H27" s="250"/>
+      <c r="I27" s="245"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="138"/>
@@ -19149,170 +19160,170 @@
       <c r="C29" s="138"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B30" s="235" t="s">
+      <c r="B30" s="264" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="236"/>
-      <c r="D30" s="236"/>
-      <c r="E30" s="236"/>
-      <c r="F30" s="236"/>
-      <c r="G30" s="236"/>
-      <c r="H30" s="236"/>
-      <c r="I30" s="237"/>
+      <c r="C30" s="265"/>
+      <c r="D30" s="265"/>
+      <c r="E30" s="265"/>
+      <c r="F30" s="265"/>
+      <c r="G30" s="265"/>
+      <c r="H30" s="265"/>
+      <c r="I30" s="266"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="227" t="s">
+      <c r="B31" s="253" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="242"/>
-      <c r="D31" s="242"/>
-      <c r="E31" s="228"/>
-      <c r="F31" s="227" t="s">
+      <c r="C31" s="267"/>
+      <c r="D31" s="267"/>
+      <c r="E31" s="254"/>
+      <c r="F31" s="253" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="242"/>
-      <c r="H31" s="242"/>
-      <c r="I31" s="228"/>
+      <c r="G31" s="267"/>
+      <c r="H31" s="267"/>
+      <c r="I31" s="254"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="212" t="s">
+      <c r="B32" s="242" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="212" t="s">
+      <c r="C32" s="246"/>
+      <c r="D32" s="246"/>
+      <c r="E32" s="243"/>
+      <c r="F32" s="242" t="s">
         <v>292</v>
       </c>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="213"/>
+      <c r="G32" s="246"/>
+      <c r="H32" s="246"/>
+      <c r="I32" s="243"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="214"/>
-      <c r="C33" s="219"/>
-      <c r="D33" s="219"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="215"/>
+      <c r="B33" s="247"/>
+      <c r="C33" s="248"/>
+      <c r="D33" s="248"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="247"/>
+      <c r="G33" s="248"/>
+      <c r="H33" s="248"/>
+      <c r="I33" s="249"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="214"/>
-      <c r="C34" s="219"/>
-      <c r="D34" s="219"/>
-      <c r="E34" s="215"/>
-      <c r="F34" s="214"/>
-      <c r="G34" s="219"/>
-      <c r="H34" s="219"/>
-      <c r="I34" s="215"/>
+      <c r="B34" s="247"/>
+      <c r="C34" s="248"/>
+      <c r="D34" s="248"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="247"/>
+      <c r="G34" s="248"/>
+      <c r="H34" s="248"/>
+      <c r="I34" s="249"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="216"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="220"/>
-      <c r="E35" s="217"/>
-      <c r="F35" s="216"/>
-      <c r="G35" s="220"/>
-      <c r="H35" s="220"/>
-      <c r="I35" s="217"/>
+      <c r="B35" s="244"/>
+      <c r="C35" s="250"/>
+      <c r="D35" s="250"/>
+      <c r="E35" s="245"/>
+      <c r="F35" s="244"/>
+      <c r="G35" s="250"/>
+      <c r="H35" s="250"/>
+      <c r="I35" s="245"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="227" t="s">
+      <c r="B36" s="253" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="242"/>
-      <c r="D36" s="242"/>
-      <c r="E36" s="228"/>
-      <c r="F36" s="227" t="s">
+      <c r="C36" s="267"/>
+      <c r="D36" s="267"/>
+      <c r="E36" s="254"/>
+      <c r="F36" s="253" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="242"/>
-      <c r="H36" s="242"/>
-      <c r="I36" s="228"/>
+      <c r="G36" s="267"/>
+      <c r="H36" s="267"/>
+      <c r="I36" s="254"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="212" t="s">
+      <c r="B37" s="242" t="s">
         <v>291</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="218"/>
-      <c r="E37" s="213"/>
-      <c r="F37" s="212" t="s">
+      <c r="C37" s="246"/>
+      <c r="D37" s="246"/>
+      <c r="E37" s="243"/>
+      <c r="F37" s="242" t="s">
         <v>234</v>
       </c>
-      <c r="G37" s="218"/>
-      <c r="H37" s="218"/>
-      <c r="I37" s="213"/>
+      <c r="G37" s="246"/>
+      <c r="H37" s="246"/>
+      <c r="I37" s="243"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="214"/>
-      <c r="C38" s="219"/>
-      <c r="D38" s="219"/>
-      <c r="E38" s="215"/>
-      <c r="F38" s="214"/>
-      <c r="G38" s="219"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="215"/>
+      <c r="B38" s="247"/>
+      <c r="C38" s="248"/>
+      <c r="D38" s="248"/>
+      <c r="E38" s="249"/>
+      <c r="F38" s="247"/>
+      <c r="G38" s="248"/>
+      <c r="H38" s="248"/>
+      <c r="I38" s="249"/>
     </row>
     <row r="39" spans="2:9" ht="100.95" customHeight="1">
-      <c r="B39" s="216"/>
-      <c r="C39" s="220"/>
-      <c r="D39" s="220"/>
-      <c r="E39" s="217"/>
-      <c r="F39" s="216"/>
-      <c r="G39" s="220"/>
-      <c r="H39" s="220"/>
-      <c r="I39" s="217"/>
+      <c r="B39" s="244"/>
+      <c r="C39" s="250"/>
+      <c r="D39" s="250"/>
+      <c r="E39" s="245"/>
+      <c r="F39" s="244"/>
+      <c r="G39" s="250"/>
+      <c r="H39" s="250"/>
+      <c r="I39" s="245"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="227" t="s">
+      <c r="B40" s="253" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="242"/>
-      <c r="D40" s="242"/>
-      <c r="E40" s="228"/>
-      <c r="F40" s="227" t="s">
+      <c r="C40" s="267"/>
+      <c r="D40" s="267"/>
+      <c r="E40" s="254"/>
+      <c r="F40" s="253" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="242"/>
-      <c r="H40" s="242"/>
-      <c r="I40" s="228"/>
+      <c r="G40" s="267"/>
+      <c r="H40" s="267"/>
+      <c r="I40" s="254"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="212" t="s">
+      <c r="B41" s="242" t="s">
         <v>181</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="218"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="212" t="s">
+      <c r="C41" s="246"/>
+      <c r="D41" s="246"/>
+      <c r="E41" s="243"/>
+      <c r="F41" s="242" t="s">
         <v>237</v>
       </c>
-      <c r="G41" s="218"/>
-      <c r="H41" s="218"/>
-      <c r="I41" s="213"/>
+      <c r="G41" s="246"/>
+      <c r="H41" s="246"/>
+      <c r="I41" s="243"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="214"/>
-      <c r="C42" s="219"/>
-      <c r="D42" s="219"/>
-      <c r="E42" s="215"/>
-      <c r="F42" s="214"/>
-      <c r="G42" s="219"/>
-      <c r="H42" s="219"/>
-      <c r="I42" s="215"/>
+      <c r="B42" s="247"/>
+      <c r="C42" s="248"/>
+      <c r="D42" s="248"/>
+      <c r="E42" s="249"/>
+      <c r="F42" s="247"/>
+      <c r="G42" s="248"/>
+      <c r="H42" s="248"/>
+      <c r="I42" s="249"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="216"/>
-      <c r="C43" s="220"/>
-      <c r="D43" s="220"/>
-      <c r="E43" s="217"/>
-      <c r="F43" s="216"/>
-      <c r="G43" s="220"/>
-      <c r="H43" s="220"/>
-      <c r="I43" s="217"/>
+      <c r="B43" s="244"/>
+      <c r="C43" s="250"/>
+      <c r="D43" s="250"/>
+      <c r="E43" s="245"/>
+      <c r="F43" s="244"/>
+      <c r="G43" s="250"/>
+      <c r="H43" s="250"/>
+      <c r="I43" s="245"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="131"/>
@@ -19323,120 +19334,120 @@
       <c r="C45" s="131"/>
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B46" s="235" t="s">
+      <c r="B46" s="264" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="236"/>
-      <c r="D46" s="236"/>
-      <c r="E46" s="236"/>
-      <c r="F46" s="236"/>
-      <c r="G46" s="236"/>
-      <c r="H46" s="236"/>
-      <c r="I46" s="237"/>
+      <c r="C46" s="265"/>
+      <c r="D46" s="265"/>
+      <c r="E46" s="265"/>
+      <c r="F46" s="265"/>
+      <c r="G46" s="265"/>
+      <c r="H46" s="265"/>
+      <c r="I46" s="266"/>
     </row>
     <row r="47" spans="2:9" ht="15" customHeight="1">
-      <c r="B47" s="245" t="s">
+      <c r="B47" s="258" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="246"/>
-      <c r="D47" s="212" t="s">
+      <c r="C47" s="259"/>
+      <c r="D47" s="242" t="s">
         <v>236</v>
       </c>
-      <c r="E47" s="218"/>
-      <c r="F47" s="218"/>
-      <c r="G47" s="218"/>
-      <c r="H47" s="218"/>
-      <c r="I47" s="213"/>
+      <c r="E47" s="246"/>
+      <c r="F47" s="246"/>
+      <c r="G47" s="246"/>
+      <c r="H47" s="246"/>
+      <c r="I47" s="243"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="247"/>
-      <c r="C48" s="248"/>
-      <c r="D48" s="214"/>
-      <c r="E48" s="219"/>
-      <c r="F48" s="219"/>
-      <c r="G48" s="219"/>
-      <c r="H48" s="219"/>
-      <c r="I48" s="215"/>
+      <c r="B48" s="262"/>
+      <c r="C48" s="263"/>
+      <c r="D48" s="247"/>
+      <c r="E48" s="248"/>
+      <c r="F48" s="248"/>
+      <c r="G48" s="248"/>
+      <c r="H48" s="248"/>
+      <c r="I48" s="249"/>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="249"/>
-      <c r="C49" s="250"/>
-      <c r="D49" s="216"/>
-      <c r="E49" s="220"/>
-      <c r="F49" s="220"/>
-      <c r="G49" s="220"/>
-      <c r="H49" s="220"/>
-      <c r="I49" s="217"/>
+      <c r="B49" s="260"/>
+      <c r="C49" s="261"/>
+      <c r="D49" s="244"/>
+      <c r="E49" s="250"/>
+      <c r="F49" s="250"/>
+      <c r="G49" s="250"/>
+      <c r="H49" s="250"/>
+      <c r="I49" s="245"/>
     </row>
     <row r="50" spans="2:17" ht="15" customHeight="1">
-      <c r="B50" s="245" t="s">
+      <c r="B50" s="258" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="246"/>
-      <c r="D50" s="212" t="s">
+      <c r="C50" s="259"/>
+      <c r="D50" s="242" t="s">
         <v>235</v>
       </c>
-      <c r="E50" s="218"/>
-      <c r="F50" s="218"/>
-      <c r="G50" s="218"/>
-      <c r="H50" s="218"/>
-      <c r="I50" s="213"/>
+      <c r="E50" s="246"/>
+      <c r="F50" s="246"/>
+      <c r="G50" s="246"/>
+      <c r="H50" s="246"/>
+      <c r="I50" s="243"/>
     </row>
     <row r="51" spans="2:17">
-      <c r="B51" s="247"/>
-      <c r="C51" s="248"/>
-      <c r="D51" s="214"/>
-      <c r="E51" s="219"/>
-      <c r="F51" s="219"/>
-      <c r="G51" s="219"/>
-      <c r="H51" s="219"/>
-      <c r="I51" s="215"/>
+      <c r="B51" s="262"/>
+      <c r="C51" s="263"/>
+      <c r="D51" s="247"/>
+      <c r="E51" s="248"/>
+      <c r="F51" s="248"/>
+      <c r="G51" s="248"/>
+      <c r="H51" s="248"/>
+      <c r="I51" s="249"/>
     </row>
     <row r="52" spans="2:17">
-      <c r="B52" s="249"/>
-      <c r="C52" s="250"/>
-      <c r="D52" s="216"/>
-      <c r="E52" s="220"/>
-      <c r="F52" s="220"/>
-      <c r="G52" s="220"/>
-      <c r="H52" s="220"/>
-      <c r="I52" s="217"/>
+      <c r="B52" s="260"/>
+      <c r="C52" s="261"/>
+      <c r="D52" s="244"/>
+      <c r="E52" s="250"/>
+      <c r="F52" s="250"/>
+      <c r="G52" s="250"/>
+      <c r="H52" s="250"/>
+      <c r="I52" s="245"/>
     </row>
     <row r="53" spans="2:17" ht="15" customHeight="1">
-      <c r="B53" s="251" t="s">
+      <c r="B53" s="270" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="252"/>
-      <c r="D53" s="255" t="s">
+      <c r="C53" s="271"/>
+      <c r="D53" s="268" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="255" t="s">
+      <c r="E53" s="268" t="s">
         <v>283</v>
       </c>
-      <c r="F53" s="255" t="s">
+      <c r="F53" s="268" t="s">
         <v>96</v>
       </c>
-      <c r="G53" s="255" t="s">
+      <c r="G53" s="268" t="s">
         <v>281</v>
       </c>
-      <c r="H53" s="255" t="s">
+      <c r="H53" s="268" t="s">
         <v>97</v>
       </c>
-      <c r="I53" s="255" t="s">
+      <c r="I53" s="268" t="s">
         <v>182</v>
       </c>
       <c r="O53" s="172"/>
       <c r="Q53" s="172"/>
     </row>
     <row r="54" spans="2:17" ht="43.2" customHeight="1">
-      <c r="B54" s="253"/>
-      <c r="C54" s="254"/>
-      <c r="D54" s="256"/>
-      <c r="E54" s="256"/>
-      <c r="F54" s="256"/>
-      <c r="G54" s="256"/>
-      <c r="H54" s="256"/>
-      <c r="I54" s="256"/>
+      <c r="B54" s="272"/>
+      <c r="C54" s="273"/>
+      <c r="D54" s="269"/>
+      <c r="E54" s="269"/>
+      <c r="F54" s="269"/>
+      <c r="G54" s="269"/>
+      <c r="H54" s="269"/>
+      <c r="I54" s="269"/>
     </row>
     <row r="55" spans="2:17" ht="15.6">
       <c r="B55" s="139"/>
@@ -19447,88 +19458,88 @@
       <c r="C56" s="139"/>
     </row>
     <row r="57" spans="2:17" ht="15">
-      <c r="B57" s="235" t="s">
+      <c r="B57" s="264" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="236"/>
-      <c r="D57" s="236"/>
-      <c r="E57" s="236"/>
-      <c r="F57" s="236"/>
-      <c r="G57" s="236"/>
-      <c r="H57" s="236"/>
-      <c r="I57" s="237"/>
+      <c r="C57" s="265"/>
+      <c r="D57" s="265"/>
+      <c r="E57" s="265"/>
+      <c r="F57" s="265"/>
+      <c r="G57" s="265"/>
+      <c r="H57" s="265"/>
+      <c r="I57" s="266"/>
     </row>
     <row r="58" spans="2:17">
-      <c r="B58" s="212" t="s">
+      <c r="B58" s="242" t="s">
         <v>293</v>
       </c>
-      <c r="C58" s="218"/>
-      <c r="D58" s="218"/>
-      <c r="E58" s="218"/>
-      <c r="F58" s="218"/>
-      <c r="G58" s="218"/>
-      <c r="H58" s="218"/>
-      <c r="I58" s="213"/>
+      <c r="C58" s="246"/>
+      <c r="D58" s="246"/>
+      <c r="E58" s="246"/>
+      <c r="F58" s="246"/>
+      <c r="G58" s="246"/>
+      <c r="H58" s="246"/>
+      <c r="I58" s="243"/>
     </row>
     <row r="59" spans="2:17">
-      <c r="B59" s="214"/>
-      <c r="C59" s="219"/>
-      <c r="D59" s="219"/>
-      <c r="E59" s="219"/>
-      <c r="F59" s="219"/>
-      <c r="G59" s="219"/>
-      <c r="H59" s="219"/>
-      <c r="I59" s="215"/>
+      <c r="B59" s="247"/>
+      <c r="C59" s="248"/>
+      <c r="D59" s="248"/>
+      <c r="E59" s="248"/>
+      <c r="F59" s="248"/>
+      <c r="G59" s="248"/>
+      <c r="H59" s="248"/>
+      <c r="I59" s="249"/>
     </row>
     <row r="60" spans="2:17">
-      <c r="B60" s="214"/>
-      <c r="C60" s="219"/>
-      <c r="D60" s="219"/>
-      <c r="E60" s="219"/>
-      <c r="F60" s="219"/>
-      <c r="G60" s="219"/>
-      <c r="H60" s="219"/>
-      <c r="I60" s="215"/>
+      <c r="B60" s="247"/>
+      <c r="C60" s="248"/>
+      <c r="D60" s="248"/>
+      <c r="E60" s="248"/>
+      <c r="F60" s="248"/>
+      <c r="G60" s="248"/>
+      <c r="H60" s="248"/>
+      <c r="I60" s="249"/>
     </row>
     <row r="61" spans="2:17">
-      <c r="B61" s="214"/>
-      <c r="C61" s="219"/>
-      <c r="D61" s="219"/>
-      <c r="E61" s="219"/>
-      <c r="F61" s="219"/>
-      <c r="G61" s="219"/>
-      <c r="H61" s="219"/>
-      <c r="I61" s="215"/>
+      <c r="B61" s="247"/>
+      <c r="C61" s="248"/>
+      <c r="D61" s="248"/>
+      <c r="E61" s="248"/>
+      <c r="F61" s="248"/>
+      <c r="G61" s="248"/>
+      <c r="H61" s="248"/>
+      <c r="I61" s="249"/>
     </row>
     <row r="62" spans="2:17">
-      <c r="B62" s="214"/>
-      <c r="C62" s="219"/>
-      <c r="D62" s="219"/>
-      <c r="E62" s="219"/>
-      <c r="F62" s="219"/>
-      <c r="G62" s="219"/>
-      <c r="H62" s="219"/>
-      <c r="I62" s="215"/>
+      <c r="B62" s="247"/>
+      <c r="C62" s="248"/>
+      <c r="D62" s="248"/>
+      <c r="E62" s="248"/>
+      <c r="F62" s="248"/>
+      <c r="G62" s="248"/>
+      <c r="H62" s="248"/>
+      <c r="I62" s="249"/>
     </row>
     <row r="63" spans="2:17">
-      <c r="B63" s="214"/>
-      <c r="C63" s="219"/>
-      <c r="D63" s="219"/>
-      <c r="E63" s="219"/>
-      <c r="F63" s="219"/>
-      <c r="G63" s="219"/>
-      <c r="H63" s="219"/>
-      <c r="I63" s="215"/>
+      <c r="B63" s="247"/>
+      <c r="C63" s="248"/>
+      <c r="D63" s="248"/>
+      <c r="E63" s="248"/>
+      <c r="F63" s="248"/>
+      <c r="G63" s="248"/>
+      <c r="H63" s="248"/>
+      <c r="I63" s="249"/>
     </row>
     <row r="64" spans="2:17">
-      <c r="B64" s="216"/>
-      <c r="C64" s="220"/>
-      <c r="D64" s="220"/>
-      <c r="E64" s="220"/>
-      <c r="F64" s="220"/>
-      <c r="G64" s="220"/>
-      <c r="H64" s="220"/>
-      <c r="I64" s="217"/>
+      <c r="B64" s="244"/>
+      <c r="C64" s="250"/>
+      <c r="D64" s="250"/>
+      <c r="E64" s="250"/>
+      <c r="F64" s="250"/>
+      <c r="G64" s="250"/>
+      <c r="H64" s="250"/>
+      <c r="I64" s="245"/>
     </row>
     <row r="65" spans="2:18">
       <c r="B65" s="131"/>
@@ -19539,136 +19550,136 @@
       <c r="C66" s="131"/>
     </row>
     <row r="67" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B67" s="235" t="s">
+      <c r="B67" s="264" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="236"/>
-      <c r="D67" s="236"/>
-      <c r="E67" s="236"/>
-      <c r="F67" s="236"/>
-      <c r="G67" s="236"/>
-      <c r="H67" s="236"/>
-      <c r="I67" s="237"/>
+      <c r="C67" s="265"/>
+      <c r="D67" s="265"/>
+      <c r="E67" s="265"/>
+      <c r="F67" s="265"/>
+      <c r="G67" s="265"/>
+      <c r="H67" s="265"/>
+      <c r="I67" s="266"/>
     </row>
     <row r="68" spans="2:18">
-      <c r="B68" s="227" t="s">
+      <c r="B68" s="253" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="242"/>
-      <c r="D68" s="242"/>
-      <c r="E68" s="228"/>
-      <c r="F68" s="227" t="s">
+      <c r="C68" s="267"/>
+      <c r="D68" s="267"/>
+      <c r="E68" s="254"/>
+      <c r="F68" s="253" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="242"/>
-      <c r="H68" s="242"/>
-      <c r="I68" s="228"/>
+      <c r="G68" s="267"/>
+      <c r="H68" s="267"/>
+      <c r="I68" s="254"/>
     </row>
     <row r="69" spans="2:18">
-      <c r="B69" s="212" t="s">
+      <c r="B69" s="242" t="s">
         <v>294</v>
       </c>
-      <c r="C69" s="218"/>
-      <c r="D69" s="218"/>
-      <c r="E69" s="213"/>
-      <c r="F69" s="212" t="s">
+      <c r="C69" s="246"/>
+      <c r="D69" s="246"/>
+      <c r="E69" s="243"/>
+      <c r="F69" s="242" t="s">
         <v>295</v>
       </c>
-      <c r="G69" s="218"/>
-      <c r="H69" s="218"/>
-      <c r="I69" s="213"/>
+      <c r="G69" s="246"/>
+      <c r="H69" s="246"/>
+      <c r="I69" s="243"/>
     </row>
     <row r="70" spans="2:18">
-      <c r="B70" s="214"/>
-      <c r="C70" s="219"/>
-      <c r="D70" s="219"/>
-      <c r="E70" s="215"/>
-      <c r="F70" s="214"/>
-      <c r="G70" s="219"/>
-      <c r="H70" s="219"/>
-      <c r="I70" s="215"/>
+      <c r="B70" s="247"/>
+      <c r="C70" s="248"/>
+      <c r="D70" s="248"/>
+      <c r="E70" s="249"/>
+      <c r="F70" s="247"/>
+      <c r="G70" s="248"/>
+      <c r="H70" s="248"/>
+      <c r="I70" s="249"/>
     </row>
     <row r="71" spans="2:18">
-      <c r="B71" s="214"/>
-      <c r="C71" s="219"/>
-      <c r="D71" s="219"/>
-      <c r="E71" s="215"/>
-      <c r="F71" s="214"/>
-      <c r="G71" s="219"/>
-      <c r="H71" s="219"/>
-      <c r="I71" s="215"/>
+      <c r="B71" s="247"/>
+      <c r="C71" s="248"/>
+      <c r="D71" s="248"/>
+      <c r="E71" s="249"/>
+      <c r="F71" s="247"/>
+      <c r="G71" s="248"/>
+      <c r="H71" s="248"/>
+      <c r="I71" s="249"/>
     </row>
     <row r="72" spans="2:18">
-      <c r="B72" s="214"/>
-      <c r="C72" s="219"/>
-      <c r="D72" s="219"/>
-      <c r="E72" s="215"/>
-      <c r="F72" s="214"/>
-      <c r="G72" s="219"/>
-      <c r="H72" s="219"/>
-      <c r="I72" s="215"/>
+      <c r="B72" s="247"/>
+      <c r="C72" s="248"/>
+      <c r="D72" s="248"/>
+      <c r="E72" s="249"/>
+      <c r="F72" s="247"/>
+      <c r="G72" s="248"/>
+      <c r="H72" s="248"/>
+      <c r="I72" s="249"/>
     </row>
     <row r="73" spans="2:18">
-      <c r="B73" s="216"/>
-      <c r="C73" s="220"/>
-      <c r="D73" s="220"/>
-      <c r="E73" s="217"/>
-      <c r="F73" s="216"/>
-      <c r="G73" s="220"/>
-      <c r="H73" s="220"/>
-      <c r="I73" s="217"/>
+      <c r="B73" s="244"/>
+      <c r="C73" s="250"/>
+      <c r="D73" s="250"/>
+      <c r="E73" s="245"/>
+      <c r="F73" s="244"/>
+      <c r="G73" s="250"/>
+      <c r="H73" s="250"/>
+      <c r="I73" s="245"/>
     </row>
     <row r="74" spans="2:18">
       <c r="B74" s="131"/>
       <c r="C74" s="131"/>
     </row>
     <row r="75" spans="2:18" ht="15" customHeight="1">
-      <c r="B75" s="235" t="s">
+      <c r="B75" s="264" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="236"/>
-      <c r="D75" s="236"/>
-      <c r="E75" s="236"/>
-      <c r="F75" s="236"/>
-      <c r="G75" s="236"/>
-      <c r="H75" s="236"/>
-      <c r="I75" s="237"/>
+      <c r="C75" s="265"/>
+      <c r="D75" s="265"/>
+      <c r="E75" s="265"/>
+      <c r="F75" s="265"/>
+      <c r="G75" s="265"/>
+      <c r="H75" s="265"/>
+      <c r="I75" s="266"/>
     </row>
     <row r="76" spans="2:18" ht="29.25" customHeight="1">
-      <c r="B76" s="227" t="s">
+      <c r="B76" s="253" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="228"/>
-      <c r="D76" s="227" t="s">
+      <c r="C76" s="254"/>
+      <c r="D76" s="253" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="228"/>
-      <c r="F76" s="227" t="s">
+      <c r="E76" s="254"/>
+      <c r="F76" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="G76" s="228"/>
-      <c r="H76" s="227" t="s">
+      <c r="G76" s="254"/>
+      <c r="H76" s="253" t="s">
         <v>70</v>
       </c>
-      <c r="I76" s="228"/>
+      <c r="I76" s="254"/>
     </row>
     <row r="77" spans="2:18" ht="15" customHeight="1">
-      <c r="B77" s="229" t="s">
+      <c r="B77" s="284" t="s">
         <v>240</v>
       </c>
-      <c r="C77" s="230"/>
-      <c r="D77" s="212" t="s">
+      <c r="C77" s="285"/>
+      <c r="D77" s="242" t="s">
         <v>243</v>
       </c>
-      <c r="E77" s="213"/>
-      <c r="F77" s="212" t="s">
+      <c r="E77" s="243"/>
+      <c r="F77" s="242" t="s">
         <v>289</v>
       </c>
-      <c r="G77" s="213"/>
-      <c r="H77" s="212" t="s">
+      <c r="G77" s="243"/>
+      <c r="H77" s="242" t="s">
         <v>288</v>
       </c>
-      <c r="I77" s="213"/>
+      <c r="I77" s="243"/>
       <c r="K77" s="169"/>
       <c r="L77" s="169"/>
       <c r="M77" s="169"/>
@@ -19679,14 +19690,14 @@
       <c r="R77" s="169"/>
     </row>
     <row r="78" spans="2:18">
-      <c r="B78" s="231"/>
-      <c r="C78" s="232"/>
-      <c r="D78" s="214"/>
-      <c r="E78" s="215"/>
-      <c r="F78" s="214"/>
-      <c r="G78" s="215"/>
-      <c r="H78" s="214"/>
-      <c r="I78" s="215"/>
+      <c r="B78" s="286"/>
+      <c r="C78" s="287"/>
+      <c r="D78" s="247"/>
+      <c r="E78" s="249"/>
+      <c r="F78" s="247"/>
+      <c r="G78" s="249"/>
+      <c r="H78" s="247"/>
+      <c r="I78" s="249"/>
       <c r="K78" s="169"/>
       <c r="L78" s="169"/>
       <c r="M78" s="169"/>
@@ -19697,14 +19708,14 @@
       <c r="R78" s="169"/>
     </row>
     <row r="79" spans="2:18">
-      <c r="B79" s="231"/>
-      <c r="C79" s="232"/>
-      <c r="D79" s="214"/>
-      <c r="E79" s="215"/>
-      <c r="F79" s="214"/>
-      <c r="G79" s="215"/>
-      <c r="H79" s="214"/>
-      <c r="I79" s="215"/>
+      <c r="B79" s="286"/>
+      <c r="C79" s="287"/>
+      <c r="D79" s="247"/>
+      <c r="E79" s="249"/>
+      <c r="F79" s="247"/>
+      <c r="G79" s="249"/>
+      <c r="H79" s="247"/>
+      <c r="I79" s="249"/>
       <c r="K79" s="169"/>
       <c r="L79" s="169"/>
       <c r="M79" s="169"/>
@@ -19715,14 +19726,14 @@
       <c r="R79" s="169"/>
     </row>
     <row r="80" spans="2:18" ht="15" customHeight="1">
-      <c r="B80" s="231"/>
-      <c r="C80" s="232"/>
-      <c r="D80" s="214"/>
-      <c r="E80" s="215"/>
-      <c r="F80" s="214"/>
-      <c r="G80" s="215"/>
-      <c r="H80" s="214"/>
-      <c r="I80" s="215"/>
+      <c r="B80" s="286"/>
+      <c r="C80" s="287"/>
+      <c r="D80" s="247"/>
+      <c r="E80" s="249"/>
+      <c r="F80" s="247"/>
+      <c r="G80" s="249"/>
+      <c r="H80" s="247"/>
+      <c r="I80" s="249"/>
       <c r="K80" s="140"/>
       <c r="L80" s="140"/>
       <c r="M80" s="169"/>
@@ -19733,14 +19744,14 @@
       <c r="R80" s="169"/>
     </row>
     <row r="81" spans="2:18">
-      <c r="B81" s="231"/>
-      <c r="C81" s="232"/>
-      <c r="D81" s="214"/>
-      <c r="E81" s="215"/>
-      <c r="F81" s="214"/>
-      <c r="G81" s="215"/>
-      <c r="H81" s="214"/>
-      <c r="I81" s="215"/>
+      <c r="B81" s="286"/>
+      <c r="C81" s="287"/>
+      <c r="D81" s="247"/>
+      <c r="E81" s="249"/>
+      <c r="F81" s="247"/>
+      <c r="G81" s="249"/>
+      <c r="H81" s="247"/>
+      <c r="I81" s="249"/>
       <c r="K81" s="140"/>
       <c r="L81" s="140"/>
       <c r="M81" s="169"/>
@@ -19751,14 +19762,14 @@
       <c r="R81" s="169"/>
     </row>
     <row r="82" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B82" s="231"/>
-      <c r="C82" s="232"/>
-      <c r="D82" s="214"/>
-      <c r="E82" s="215"/>
-      <c r="F82" s="214"/>
-      <c r="G82" s="215"/>
-      <c r="H82" s="214"/>
-      <c r="I82" s="215"/>
+      <c r="B82" s="286"/>
+      <c r="C82" s="287"/>
+      <c r="D82" s="247"/>
+      <c r="E82" s="249"/>
+      <c r="F82" s="247"/>
+      <c r="G82" s="249"/>
+      <c r="H82" s="247"/>
+      <c r="I82" s="249"/>
       <c r="K82" s="140"/>
       <c r="L82" s="140"/>
       <c r="M82" s="169"/>
@@ -19769,14 +19780,14 @@
       <c r="R82" s="169"/>
     </row>
     <row r="83" spans="2:18" ht="15" customHeight="1">
-      <c r="B83" s="231"/>
-      <c r="C83" s="232"/>
-      <c r="D83" s="214"/>
-      <c r="E83" s="215"/>
-      <c r="F83" s="214"/>
-      <c r="G83" s="215"/>
-      <c r="H83" s="214"/>
-      <c r="I83" s="215"/>
+      <c r="B83" s="286"/>
+      <c r="C83" s="287"/>
+      <c r="D83" s="247"/>
+      <c r="E83" s="249"/>
+      <c r="F83" s="247"/>
+      <c r="G83" s="249"/>
+      <c r="H83" s="247"/>
+      <c r="I83" s="249"/>
       <c r="K83" s="140"/>
       <c r="L83" s="140"/>
       <c r="M83" s="169"/>
@@ -19787,14 +19798,14 @@
       <c r="R83" s="169"/>
     </row>
     <row r="84" spans="2:18">
-      <c r="B84" s="231"/>
-      <c r="C84" s="232"/>
-      <c r="D84" s="214"/>
-      <c r="E84" s="215"/>
-      <c r="F84" s="214"/>
-      <c r="G84" s="215"/>
-      <c r="H84" s="214"/>
-      <c r="I84" s="215"/>
+      <c r="B84" s="286"/>
+      <c r="C84" s="287"/>
+      <c r="D84" s="247"/>
+      <c r="E84" s="249"/>
+      <c r="F84" s="247"/>
+      <c r="G84" s="249"/>
+      <c r="H84" s="247"/>
+      <c r="I84" s="249"/>
       <c r="K84" s="140"/>
       <c r="L84" s="140"/>
       <c r="M84" s="169"/>
@@ -19805,14 +19816,14 @@
       <c r="R84" s="169"/>
     </row>
     <row r="85" spans="2:18">
-      <c r="B85" s="233"/>
-      <c r="C85" s="234"/>
-      <c r="D85" s="216"/>
-      <c r="E85" s="217"/>
-      <c r="F85" s="216"/>
-      <c r="G85" s="217"/>
-      <c r="H85" s="216"/>
-      <c r="I85" s="217"/>
+      <c r="B85" s="288"/>
+      <c r="C85" s="289"/>
+      <c r="D85" s="244"/>
+      <c r="E85" s="245"/>
+      <c r="F85" s="244"/>
+      <c r="G85" s="245"/>
+      <c r="H85" s="244"/>
+      <c r="I85" s="245"/>
       <c r="K85" s="140"/>
       <c r="L85" s="140"/>
       <c r="M85" s="169"/>
@@ -19823,22 +19834,22 @@
       <c r="R85" s="169"/>
     </row>
     <row r="86" spans="2:18">
-      <c r="B86" s="229" t="s">
+      <c r="B86" s="284" t="s">
         <v>238</v>
       </c>
-      <c r="C86" s="230"/>
-      <c r="D86" s="212" t="s">
+      <c r="C86" s="285"/>
+      <c r="D86" s="242" t="s">
         <v>241</v>
       </c>
-      <c r="E86" s="213"/>
-      <c r="F86" s="212" t="s">
+      <c r="E86" s="243"/>
+      <c r="F86" s="242" t="s">
         <v>285</v>
       </c>
-      <c r="G86" s="213"/>
-      <c r="H86" s="212" t="s">
+      <c r="G86" s="243"/>
+      <c r="H86" s="242" t="s">
         <v>286</v>
       </c>
-      <c r="I86" s="213"/>
+      <c r="I86" s="243"/>
       <c r="K86" s="140"/>
       <c r="L86" s="140"/>
       <c r="M86" s="169"/>
@@ -19849,14 +19860,14 @@
       <c r="R86" s="169"/>
     </row>
     <row r="87" spans="2:18">
-      <c r="B87" s="231"/>
-      <c r="C87" s="232"/>
-      <c r="D87" s="214"/>
-      <c r="E87" s="215"/>
-      <c r="F87" s="214"/>
-      <c r="G87" s="215"/>
-      <c r="H87" s="214"/>
-      <c r="I87" s="215"/>
+      <c r="B87" s="286"/>
+      <c r="C87" s="287"/>
+      <c r="D87" s="247"/>
+      <c r="E87" s="249"/>
+      <c r="F87" s="247"/>
+      <c r="G87" s="249"/>
+      <c r="H87" s="247"/>
+      <c r="I87" s="249"/>
       <c r="K87" s="140"/>
       <c r="L87" s="140"/>
       <c r="M87" s="169"/>
@@ -19867,14 +19878,14 @@
       <c r="R87" s="169"/>
     </row>
     <row r="88" spans="2:18">
-      <c r="B88" s="231"/>
-      <c r="C88" s="232"/>
-      <c r="D88" s="214"/>
-      <c r="E88" s="215"/>
-      <c r="F88" s="214"/>
-      <c r="G88" s="215"/>
-      <c r="H88" s="214"/>
-      <c r="I88" s="215"/>
+      <c r="B88" s="286"/>
+      <c r="C88" s="287"/>
+      <c r="D88" s="247"/>
+      <c r="E88" s="249"/>
+      <c r="F88" s="247"/>
+      <c r="G88" s="249"/>
+      <c r="H88" s="247"/>
+      <c r="I88" s="249"/>
       <c r="K88" s="140"/>
       <c r="L88" s="140"/>
       <c r="M88" s="169"/>
@@ -19885,14 +19896,14 @@
       <c r="R88" s="169"/>
     </row>
     <row r="89" spans="2:18" ht="15" customHeight="1">
-      <c r="B89" s="231"/>
-      <c r="C89" s="232"/>
-      <c r="D89" s="214"/>
-      <c r="E89" s="215"/>
-      <c r="F89" s="214"/>
-      <c r="G89" s="215"/>
-      <c r="H89" s="214"/>
-      <c r="I89" s="215"/>
+      <c r="B89" s="286"/>
+      <c r="C89" s="287"/>
+      <c r="D89" s="247"/>
+      <c r="E89" s="249"/>
+      <c r="F89" s="247"/>
+      <c r="G89" s="249"/>
+      <c r="H89" s="247"/>
+      <c r="I89" s="249"/>
       <c r="K89" s="169"/>
       <c r="L89" s="169"/>
       <c r="M89" s="169"/>
@@ -19903,14 +19914,14 @@
       <c r="R89" s="169"/>
     </row>
     <row r="90" spans="2:18">
-      <c r="B90" s="231"/>
-      <c r="C90" s="232"/>
-      <c r="D90" s="214"/>
-      <c r="E90" s="215"/>
-      <c r="F90" s="214"/>
-      <c r="G90" s="215"/>
-      <c r="H90" s="214"/>
-      <c r="I90" s="215"/>
+      <c r="B90" s="286"/>
+      <c r="C90" s="287"/>
+      <c r="D90" s="247"/>
+      <c r="E90" s="249"/>
+      <c r="F90" s="247"/>
+      <c r="G90" s="249"/>
+      <c r="H90" s="247"/>
+      <c r="I90" s="249"/>
       <c r="K90" s="169"/>
       <c r="L90" s="169"/>
       <c r="M90" s="169"/>
@@ -19921,14 +19932,14 @@
       <c r="R90" s="169"/>
     </row>
     <row r="91" spans="2:18">
-      <c r="B91" s="231"/>
-      <c r="C91" s="232"/>
-      <c r="D91" s="214"/>
-      <c r="E91" s="215"/>
-      <c r="F91" s="214"/>
-      <c r="G91" s="215"/>
-      <c r="H91" s="214"/>
-      <c r="I91" s="215"/>
+      <c r="B91" s="286"/>
+      <c r="C91" s="287"/>
+      <c r="D91" s="247"/>
+      <c r="E91" s="249"/>
+      <c r="F91" s="247"/>
+      <c r="G91" s="249"/>
+      <c r="H91" s="247"/>
+      <c r="I91" s="249"/>
       <c r="K91" s="169"/>
       <c r="L91" s="169"/>
       <c r="M91" s="169"/>
@@ -19939,140 +19950,140 @@
       <c r="R91" s="169"/>
     </row>
     <row r="92" spans="2:18">
-      <c r="B92" s="231"/>
-      <c r="C92" s="232"/>
-      <c r="D92" s="214"/>
-      <c r="E92" s="215"/>
-      <c r="F92" s="214"/>
-      <c r="G92" s="215"/>
-      <c r="H92" s="214"/>
-      <c r="I92" s="215"/>
+      <c r="B92" s="286"/>
+      <c r="C92" s="287"/>
+      <c r="D92" s="247"/>
+      <c r="E92" s="249"/>
+      <c r="F92" s="247"/>
+      <c r="G92" s="249"/>
+      <c r="H92" s="247"/>
+      <c r="I92" s="249"/>
     </row>
     <row r="93" spans="2:18" ht="15" customHeight="1">
-      <c r="B93" s="231"/>
-      <c r="C93" s="232"/>
-      <c r="D93" s="214"/>
-      <c r="E93" s="215"/>
-      <c r="F93" s="214"/>
-      <c r="G93" s="215"/>
-      <c r="H93" s="214"/>
-      <c r="I93" s="215"/>
+      <c r="B93" s="286"/>
+      <c r="C93" s="287"/>
+      <c r="D93" s="247"/>
+      <c r="E93" s="249"/>
+      <c r="F93" s="247"/>
+      <c r="G93" s="249"/>
+      <c r="H93" s="247"/>
+      <c r="I93" s="249"/>
       <c r="J93" s="168"/>
     </row>
     <row r="94" spans="2:18" ht="15" customHeight="1">
-      <c r="B94" s="233"/>
-      <c r="C94" s="234"/>
-      <c r="D94" s="216"/>
-      <c r="E94" s="217"/>
-      <c r="F94" s="216"/>
-      <c r="G94" s="217"/>
-      <c r="H94" s="216"/>
-      <c r="I94" s="217"/>
+      <c r="B94" s="288"/>
+      <c r="C94" s="289"/>
+      <c r="D94" s="244"/>
+      <c r="E94" s="245"/>
+      <c r="F94" s="244"/>
+      <c r="G94" s="245"/>
+      <c r="H94" s="244"/>
+      <c r="I94" s="245"/>
       <c r="J94" s="168"/>
     </row>
     <row r="95" spans="2:18" ht="15" customHeight="1">
-      <c r="B95" s="229" t="s">
+      <c r="B95" s="284" t="s">
         <v>239</v>
       </c>
-      <c r="C95" s="230"/>
-      <c r="D95" s="212" t="s">
+      <c r="C95" s="285"/>
+      <c r="D95" s="242" t="s">
         <v>244</v>
       </c>
-      <c r="E95" s="213"/>
-      <c r="F95" s="212" t="s">
+      <c r="E95" s="243"/>
+      <c r="F95" s="242" t="s">
         <v>284</v>
       </c>
-      <c r="G95" s="213"/>
-      <c r="H95" s="212" t="s">
+      <c r="G95" s="243"/>
+      <c r="H95" s="242" t="s">
         <v>287</v>
       </c>
-      <c r="I95" s="213"/>
+      <c r="I95" s="243"/>
       <c r="J95" s="168"/>
     </row>
     <row r="96" spans="2:18">
-      <c r="B96" s="231"/>
-      <c r="C96" s="232"/>
-      <c r="D96" s="214"/>
-      <c r="E96" s="215"/>
-      <c r="F96" s="214"/>
-      <c r="G96" s="215"/>
-      <c r="H96" s="214"/>
-      <c r="I96" s="215"/>
+      <c r="B96" s="286"/>
+      <c r="C96" s="287"/>
+      <c r="D96" s="247"/>
+      <c r="E96" s="249"/>
+      <c r="F96" s="247"/>
+      <c r="G96" s="249"/>
+      <c r="H96" s="247"/>
+      <c r="I96" s="249"/>
       <c r="J96" s="168"/>
     </row>
     <row r="97" spans="2:16" ht="15" customHeight="1">
-      <c r="B97" s="231"/>
-      <c r="C97" s="232"/>
-      <c r="D97" s="214"/>
-      <c r="E97" s="215"/>
-      <c r="F97" s="214"/>
-      <c r="G97" s="215"/>
-      <c r="H97" s="214"/>
-      <c r="I97" s="215"/>
+      <c r="B97" s="286"/>
+      <c r="C97" s="287"/>
+      <c r="D97" s="247"/>
+      <c r="E97" s="249"/>
+      <c r="F97" s="247"/>
+      <c r="G97" s="249"/>
+      <c r="H97" s="247"/>
+      <c r="I97" s="249"/>
       <c r="J97" s="168"/>
     </row>
     <row r="98" spans="2:16">
-      <c r="B98" s="231"/>
-      <c r="C98" s="232"/>
-      <c r="D98" s="214"/>
-      <c r="E98" s="215"/>
-      <c r="F98" s="214"/>
-      <c r="G98" s="215"/>
-      <c r="H98" s="214"/>
-      <c r="I98" s="215"/>
+      <c r="B98" s="286"/>
+      <c r="C98" s="287"/>
+      <c r="D98" s="247"/>
+      <c r="E98" s="249"/>
+      <c r="F98" s="247"/>
+      <c r="G98" s="249"/>
+      <c r="H98" s="247"/>
+      <c r="I98" s="249"/>
       <c r="J98" s="168"/>
     </row>
     <row r="99" spans="2:16">
-      <c r="B99" s="231"/>
-      <c r="C99" s="232"/>
-      <c r="D99" s="214"/>
-      <c r="E99" s="215"/>
-      <c r="F99" s="214"/>
-      <c r="G99" s="215"/>
-      <c r="H99" s="214"/>
-      <c r="I99" s="215"/>
+      <c r="B99" s="286"/>
+      <c r="C99" s="287"/>
+      <c r="D99" s="247"/>
+      <c r="E99" s="249"/>
+      <c r="F99" s="247"/>
+      <c r="G99" s="249"/>
+      <c r="H99" s="247"/>
+      <c r="I99" s="249"/>
       <c r="J99" s="168"/>
     </row>
     <row r="100" spans="2:16">
-      <c r="B100" s="231"/>
-      <c r="C100" s="232"/>
-      <c r="D100" s="214"/>
-      <c r="E100" s="215"/>
-      <c r="F100" s="214"/>
-      <c r="G100" s="215"/>
-      <c r="H100" s="214"/>
-      <c r="I100" s="215"/>
+      <c r="B100" s="286"/>
+      <c r="C100" s="287"/>
+      <c r="D100" s="247"/>
+      <c r="E100" s="249"/>
+      <c r="F100" s="247"/>
+      <c r="G100" s="249"/>
+      <c r="H100" s="247"/>
+      <c r="I100" s="249"/>
       <c r="J100" s="168"/>
     </row>
     <row r="101" spans="2:16">
-      <c r="B101" s="231"/>
-      <c r="C101" s="232"/>
-      <c r="D101" s="214"/>
-      <c r="E101" s="215"/>
-      <c r="F101" s="214"/>
-      <c r="G101" s="215"/>
-      <c r="H101" s="214"/>
-      <c r="I101" s="215"/>
+      <c r="B101" s="286"/>
+      <c r="C101" s="287"/>
+      <c r="D101" s="247"/>
+      <c r="E101" s="249"/>
+      <c r="F101" s="247"/>
+      <c r="G101" s="249"/>
+      <c r="H101" s="247"/>
+      <c r="I101" s="249"/>
     </row>
     <row r="102" spans="2:16">
-      <c r="B102" s="231"/>
-      <c r="C102" s="232"/>
-      <c r="D102" s="214"/>
-      <c r="E102" s="215"/>
-      <c r="F102" s="214"/>
-      <c r="G102" s="215"/>
-      <c r="H102" s="214"/>
-      <c r="I102" s="215"/>
+      <c r="B102" s="286"/>
+      <c r="C102" s="287"/>
+      <c r="D102" s="247"/>
+      <c r="E102" s="249"/>
+      <c r="F102" s="247"/>
+      <c r="G102" s="249"/>
+      <c r="H102" s="247"/>
+      <c r="I102" s="249"/>
     </row>
     <row r="103" spans="2:16">
-      <c r="B103" s="233"/>
-      <c r="C103" s="234"/>
-      <c r="D103" s="216"/>
-      <c r="E103" s="217"/>
-      <c r="F103" s="216"/>
-      <c r="G103" s="217"/>
-      <c r="H103" s="216"/>
-      <c r="I103" s="217"/>
+      <c r="B103" s="288"/>
+      <c r="C103" s="289"/>
+      <c r="D103" s="244"/>
+      <c r="E103" s="245"/>
+      <c r="F103" s="244"/>
+      <c r="G103" s="245"/>
+      <c r="H103" s="244"/>
+      <c r="I103" s="245"/>
       <c r="K103" s="140"/>
       <c r="L103" s="140"/>
       <c r="M103" s="137"/>
@@ -20080,335 +20091,335 @@
       <c r="P103" s="140"/>
     </row>
     <row r="106" spans="2:16" ht="15">
-      <c r="B106" s="235" t="s">
+      <c r="B106" s="264" t="s">
         <v>71</v>
       </c>
-      <c r="C106" s="236"/>
-      <c r="D106" s="236"/>
-      <c r="E106" s="236"/>
-      <c r="F106" s="236"/>
-      <c r="G106" s="236"/>
-      <c r="H106" s="236"/>
-      <c r="I106" s="237"/>
+      <c r="C106" s="265"/>
+      <c r="D106" s="265"/>
+      <c r="E106" s="265"/>
+      <c r="F106" s="265"/>
+      <c r="G106" s="265"/>
+      <c r="H106" s="265"/>
+      <c r="I106" s="266"/>
     </row>
     <row r="107" spans="2:16">
-      <c r="B107" s="227" t="s">
+      <c r="B107" s="253" t="s">
         <v>72</v>
       </c>
-      <c r="C107" s="228"/>
-      <c r="D107" s="227" t="s">
+      <c r="C107" s="254"/>
+      <c r="D107" s="253" t="s">
         <v>73</v>
       </c>
-      <c r="E107" s="242"/>
-      <c r="F107" s="242"/>
-      <c r="G107" s="228"/>
-      <c r="H107" s="227" t="s">
+      <c r="E107" s="267"/>
+      <c r="F107" s="267"/>
+      <c r="G107" s="254"/>
+      <c r="H107" s="253" t="s">
         <v>74</v>
       </c>
-      <c r="I107" s="228"/>
+      <c r="I107" s="254"/>
     </row>
     <row r="108" spans="2:16">
-      <c r="B108" s="212" t="s">
+      <c r="B108" s="242" t="s">
         <v>221</v>
       </c>
-      <c r="C108" s="213"/>
-      <c r="D108" s="212" t="s">
+      <c r="C108" s="243"/>
+      <c r="D108" s="242" t="s">
         <v>245</v>
       </c>
-      <c r="E108" s="218"/>
-      <c r="F108" s="218"/>
-      <c r="G108" s="213"/>
-      <c r="H108" s="221">
+      <c r="E108" s="246"/>
+      <c r="F108" s="246"/>
+      <c r="G108" s="243"/>
+      <c r="H108" s="278">
         <v>43595</v>
       </c>
-      <c r="I108" s="222"/>
+      <c r="I108" s="279"/>
       <c r="N108" s="172"/>
     </row>
     <row r="109" spans="2:16">
-      <c r="B109" s="214"/>
-      <c r="C109" s="215"/>
-      <c r="D109" s="214"/>
-      <c r="E109" s="219"/>
-      <c r="F109" s="219"/>
-      <c r="G109" s="215"/>
-      <c r="H109" s="223"/>
-      <c r="I109" s="224"/>
+      <c r="B109" s="247"/>
+      <c r="C109" s="249"/>
+      <c r="D109" s="247"/>
+      <c r="E109" s="248"/>
+      <c r="F109" s="248"/>
+      <c r="G109" s="249"/>
+      <c r="H109" s="280"/>
+      <c r="I109" s="281"/>
     </row>
     <row r="110" spans="2:16">
-      <c r="B110" s="214"/>
-      <c r="C110" s="215"/>
-      <c r="D110" s="214"/>
-      <c r="E110" s="219"/>
-      <c r="F110" s="219"/>
-      <c r="G110" s="215"/>
-      <c r="H110" s="223"/>
-      <c r="I110" s="224"/>
+      <c r="B110" s="247"/>
+      <c r="C110" s="249"/>
+      <c r="D110" s="247"/>
+      <c r="E110" s="248"/>
+      <c r="F110" s="248"/>
+      <c r="G110" s="249"/>
+      <c r="H110" s="280"/>
+      <c r="I110" s="281"/>
     </row>
     <row r="111" spans="2:16">
-      <c r="B111" s="214"/>
-      <c r="C111" s="215"/>
-      <c r="D111" s="214"/>
-      <c r="E111" s="219"/>
-      <c r="F111" s="219"/>
-      <c r="G111" s="215"/>
-      <c r="H111" s="223"/>
-      <c r="I111" s="224"/>
+      <c r="B111" s="247"/>
+      <c r="C111" s="249"/>
+      <c r="D111" s="247"/>
+      <c r="E111" s="248"/>
+      <c r="F111" s="248"/>
+      <c r="G111" s="249"/>
+      <c r="H111" s="280"/>
+      <c r="I111" s="281"/>
     </row>
     <row r="112" spans="2:16">
-      <c r="B112" s="214"/>
-      <c r="C112" s="215"/>
-      <c r="D112" s="214"/>
-      <c r="E112" s="219"/>
-      <c r="F112" s="219"/>
-      <c r="G112" s="215"/>
-      <c r="H112" s="223"/>
-      <c r="I112" s="224"/>
+      <c r="B112" s="247"/>
+      <c r="C112" s="249"/>
+      <c r="D112" s="247"/>
+      <c r="E112" s="248"/>
+      <c r="F112" s="248"/>
+      <c r="G112" s="249"/>
+      <c r="H112" s="280"/>
+      <c r="I112" s="281"/>
     </row>
     <row r="113" spans="2:9">
-      <c r="B113" s="216"/>
-      <c r="C113" s="217"/>
-      <c r="D113" s="216"/>
-      <c r="E113" s="220"/>
-      <c r="F113" s="220"/>
-      <c r="G113" s="217"/>
-      <c r="H113" s="225"/>
-      <c r="I113" s="226"/>
+      <c r="B113" s="244"/>
+      <c r="C113" s="245"/>
+      <c r="D113" s="244"/>
+      <c r="E113" s="250"/>
+      <c r="F113" s="250"/>
+      <c r="G113" s="245"/>
+      <c r="H113" s="282"/>
+      <c r="I113" s="283"/>
     </row>
     <row r="114" spans="2:9">
-      <c r="B114" s="212" t="s">
+      <c r="B114" s="242" t="s">
         <v>246</v>
       </c>
-      <c r="C114" s="213"/>
-      <c r="D114" s="212" t="s">
+      <c r="C114" s="243"/>
+      <c r="D114" s="242" t="s">
         <v>248</v>
       </c>
-      <c r="E114" s="218"/>
-      <c r="F114" s="218"/>
-      <c r="G114" s="213"/>
-      <c r="H114" s="221">
+      <c r="E114" s="246"/>
+      <c r="F114" s="246"/>
+      <c r="G114" s="243"/>
+      <c r="H114" s="278">
         <v>43596</v>
       </c>
-      <c r="I114" s="222"/>
+      <c r="I114" s="279"/>
     </row>
     <row r="115" spans="2:9">
-      <c r="B115" s="214"/>
-      <c r="C115" s="215"/>
-      <c r="D115" s="214"/>
-      <c r="E115" s="219"/>
-      <c r="F115" s="219"/>
-      <c r="G115" s="215"/>
-      <c r="H115" s="223"/>
-      <c r="I115" s="224"/>
+      <c r="B115" s="247"/>
+      <c r="C115" s="249"/>
+      <c r="D115" s="247"/>
+      <c r="E115" s="248"/>
+      <c r="F115" s="248"/>
+      <c r="G115" s="249"/>
+      <c r="H115" s="280"/>
+      <c r="I115" s="281"/>
     </row>
     <row r="116" spans="2:9">
-      <c r="B116" s="214"/>
-      <c r="C116" s="215"/>
-      <c r="D116" s="214"/>
-      <c r="E116" s="219"/>
-      <c r="F116" s="219"/>
-      <c r="G116" s="215"/>
-      <c r="H116" s="223"/>
-      <c r="I116" s="224"/>
+      <c r="B116" s="247"/>
+      <c r="C116" s="249"/>
+      <c r="D116" s="247"/>
+      <c r="E116" s="248"/>
+      <c r="F116" s="248"/>
+      <c r="G116" s="249"/>
+      <c r="H116" s="280"/>
+      <c r="I116" s="281"/>
     </row>
     <row r="117" spans="2:9">
-      <c r="B117" s="214"/>
-      <c r="C117" s="215"/>
-      <c r="D117" s="214"/>
-      <c r="E117" s="219"/>
-      <c r="F117" s="219"/>
-      <c r="G117" s="215"/>
-      <c r="H117" s="223"/>
-      <c r="I117" s="224"/>
+      <c r="B117" s="247"/>
+      <c r="C117" s="249"/>
+      <c r="D117" s="247"/>
+      <c r="E117" s="248"/>
+      <c r="F117" s="248"/>
+      <c r="G117" s="249"/>
+      <c r="H117" s="280"/>
+      <c r="I117" s="281"/>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="214"/>
-      <c r="C118" s="215"/>
-      <c r="D118" s="214"/>
-      <c r="E118" s="219"/>
-      <c r="F118" s="219"/>
-      <c r="G118" s="215"/>
-      <c r="H118" s="223"/>
-      <c r="I118" s="224"/>
+      <c r="B118" s="247"/>
+      <c r="C118" s="249"/>
+      <c r="D118" s="247"/>
+      <c r="E118" s="248"/>
+      <c r="F118" s="248"/>
+      <c r="G118" s="249"/>
+      <c r="H118" s="280"/>
+      <c r="I118" s="281"/>
     </row>
     <row r="119" spans="2:9">
-      <c r="B119" s="216"/>
-      <c r="C119" s="217"/>
-      <c r="D119" s="216"/>
-      <c r="E119" s="220"/>
-      <c r="F119" s="220"/>
-      <c r="G119" s="217"/>
-      <c r="H119" s="225"/>
-      <c r="I119" s="226"/>
+      <c r="B119" s="244"/>
+      <c r="C119" s="245"/>
+      <c r="D119" s="244"/>
+      <c r="E119" s="250"/>
+      <c r="F119" s="250"/>
+      <c r="G119" s="245"/>
+      <c r="H119" s="282"/>
+      <c r="I119" s="283"/>
     </row>
     <row r="120" spans="2:9">
-      <c r="B120" s="212" t="s">
+      <c r="B120" s="242" t="s">
         <v>188</v>
       </c>
-      <c r="C120" s="213"/>
-      <c r="D120" s="212" t="s">
+      <c r="C120" s="243"/>
+      <c r="D120" s="242" t="s">
         <v>249</v>
       </c>
-      <c r="E120" s="218"/>
-      <c r="F120" s="218"/>
-      <c r="G120" s="213"/>
-      <c r="H120" s="221">
+      <c r="E120" s="246"/>
+      <c r="F120" s="246"/>
+      <c r="G120" s="243"/>
+      <c r="H120" s="278">
         <v>43617</v>
       </c>
-      <c r="I120" s="222"/>
+      <c r="I120" s="279"/>
     </row>
     <row r="121" spans="2:9">
-      <c r="B121" s="214"/>
-      <c r="C121" s="215"/>
-      <c r="D121" s="214"/>
-      <c r="E121" s="219"/>
-      <c r="F121" s="219"/>
-      <c r="G121" s="215"/>
-      <c r="H121" s="223"/>
-      <c r="I121" s="224"/>
+      <c r="B121" s="247"/>
+      <c r="C121" s="249"/>
+      <c r="D121" s="247"/>
+      <c r="E121" s="248"/>
+      <c r="F121" s="248"/>
+      <c r="G121" s="249"/>
+      <c r="H121" s="280"/>
+      <c r="I121" s="281"/>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="214"/>
-      <c r="C122" s="215"/>
-      <c r="D122" s="214"/>
-      <c r="E122" s="219"/>
-      <c r="F122" s="219"/>
-      <c r="G122" s="215"/>
-      <c r="H122" s="223"/>
-      <c r="I122" s="224"/>
+      <c r="B122" s="247"/>
+      <c r="C122" s="249"/>
+      <c r="D122" s="247"/>
+      <c r="E122" s="248"/>
+      <c r="F122" s="248"/>
+      <c r="G122" s="249"/>
+      <c r="H122" s="280"/>
+      <c r="I122" s="281"/>
     </row>
     <row r="123" spans="2:9">
-      <c r="B123" s="214"/>
-      <c r="C123" s="215"/>
-      <c r="D123" s="214"/>
-      <c r="E123" s="219"/>
-      <c r="F123" s="219"/>
-      <c r="G123" s="215"/>
-      <c r="H123" s="223"/>
-      <c r="I123" s="224"/>
+      <c r="B123" s="247"/>
+      <c r="C123" s="249"/>
+      <c r="D123" s="247"/>
+      <c r="E123" s="248"/>
+      <c r="F123" s="248"/>
+      <c r="G123" s="249"/>
+      <c r="H123" s="280"/>
+      <c r="I123" s="281"/>
     </row>
     <row r="124" spans="2:9">
-      <c r="B124" s="214"/>
-      <c r="C124" s="215"/>
-      <c r="D124" s="214"/>
-      <c r="E124" s="219"/>
-      <c r="F124" s="219"/>
-      <c r="G124" s="215"/>
-      <c r="H124" s="223"/>
-      <c r="I124" s="224"/>
+      <c r="B124" s="247"/>
+      <c r="C124" s="249"/>
+      <c r="D124" s="247"/>
+      <c r="E124" s="248"/>
+      <c r="F124" s="248"/>
+      <c r="G124" s="249"/>
+      <c r="H124" s="280"/>
+      <c r="I124" s="281"/>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="216"/>
-      <c r="C125" s="217"/>
-      <c r="D125" s="216"/>
-      <c r="E125" s="220"/>
-      <c r="F125" s="220"/>
-      <c r="G125" s="217"/>
-      <c r="H125" s="225"/>
-      <c r="I125" s="226"/>
+      <c r="B125" s="244"/>
+      <c r="C125" s="245"/>
+      <c r="D125" s="244"/>
+      <c r="E125" s="250"/>
+      <c r="F125" s="250"/>
+      <c r="G125" s="245"/>
+      <c r="H125" s="282"/>
+      <c r="I125" s="283"/>
     </row>
     <row r="126" spans="2:9">
-      <c r="B126" s="212" t="s">
+      <c r="B126" s="242" t="s">
         <v>247</v>
       </c>
-      <c r="C126" s="213"/>
-      <c r="D126" s="212" t="s">
+      <c r="C126" s="243"/>
+      <c r="D126" s="242" t="s">
         <v>250</v>
       </c>
-      <c r="E126" s="218"/>
-      <c r="F126" s="218"/>
-      <c r="G126" s="213"/>
-      <c r="H126" s="221">
+      <c r="E126" s="246"/>
+      <c r="F126" s="246"/>
+      <c r="G126" s="243"/>
+      <c r="H126" s="278">
         <v>43630</v>
       </c>
-      <c r="I126" s="222"/>
+      <c r="I126" s="279"/>
     </row>
     <row r="127" spans="2:9">
-      <c r="B127" s="214"/>
-      <c r="C127" s="215"/>
-      <c r="D127" s="214"/>
-      <c r="E127" s="219"/>
-      <c r="F127" s="219"/>
-      <c r="G127" s="215"/>
-      <c r="H127" s="223"/>
-      <c r="I127" s="224"/>
+      <c r="B127" s="247"/>
+      <c r="C127" s="249"/>
+      <c r="D127" s="247"/>
+      <c r="E127" s="248"/>
+      <c r="F127" s="248"/>
+      <c r="G127" s="249"/>
+      <c r="H127" s="280"/>
+      <c r="I127" s="281"/>
     </row>
     <row r="128" spans="2:9">
-      <c r="B128" s="214"/>
-      <c r="C128" s="215"/>
-      <c r="D128" s="214"/>
-      <c r="E128" s="219"/>
-      <c r="F128" s="219"/>
-      <c r="G128" s="215"/>
-      <c r="H128" s="223"/>
-      <c r="I128" s="224"/>
+      <c r="B128" s="247"/>
+      <c r="C128" s="249"/>
+      <c r="D128" s="247"/>
+      <c r="E128" s="248"/>
+      <c r="F128" s="248"/>
+      <c r="G128" s="249"/>
+      <c r="H128" s="280"/>
+      <c r="I128" s="281"/>
     </row>
     <row r="129" spans="2:9">
-      <c r="B129" s="214"/>
-      <c r="C129" s="215"/>
-      <c r="D129" s="214"/>
-      <c r="E129" s="219"/>
-      <c r="F129" s="219"/>
-      <c r="G129" s="215"/>
-      <c r="H129" s="223"/>
-      <c r="I129" s="224"/>
+      <c r="B129" s="247"/>
+      <c r="C129" s="249"/>
+      <c r="D129" s="247"/>
+      <c r="E129" s="248"/>
+      <c r="F129" s="248"/>
+      <c r="G129" s="249"/>
+      <c r="H129" s="280"/>
+      <c r="I129" s="281"/>
     </row>
     <row r="130" spans="2:9">
-      <c r="B130" s="214"/>
-      <c r="C130" s="215"/>
-      <c r="D130" s="214"/>
-      <c r="E130" s="219"/>
-      <c r="F130" s="219"/>
-      <c r="G130" s="215"/>
-      <c r="H130" s="223"/>
-      <c r="I130" s="224"/>
+      <c r="B130" s="247"/>
+      <c r="C130" s="249"/>
+      <c r="D130" s="247"/>
+      <c r="E130" s="248"/>
+      <c r="F130" s="248"/>
+      <c r="G130" s="249"/>
+      <c r="H130" s="280"/>
+      <c r="I130" s="281"/>
     </row>
     <row r="131" spans="2:9">
-      <c r="B131" s="216"/>
-      <c r="C131" s="217"/>
-      <c r="D131" s="216"/>
-      <c r="E131" s="220"/>
-      <c r="F131" s="220"/>
-      <c r="G131" s="217"/>
-      <c r="H131" s="225"/>
-      <c r="I131" s="226"/>
+      <c r="B131" s="244"/>
+      <c r="C131" s="245"/>
+      <c r="D131" s="244"/>
+      <c r="E131" s="250"/>
+      <c r="F131" s="250"/>
+      <c r="G131" s="245"/>
+      <c r="H131" s="282"/>
+      <c r="I131" s="283"/>
     </row>
     <row r="135" spans="2:9">
-      <c r="B135" s="240" t="s">
+      <c r="B135" s="276" t="s">
         <v>75</v>
       </c>
-      <c r="C135" s="240"/>
-      <c r="D135" s="240"/>
+      <c r="C135" s="276"/>
+      <c r="D135" s="276"/>
       <c r="E135" s="133"/>
-      <c r="G135" s="240" t="s">
+      <c r="G135" s="276" t="s">
         <v>77</v>
       </c>
-      <c r="H135" s="240"/>
-      <c r="I135" s="240"/>
+      <c r="H135" s="276"/>
+      <c r="I135" s="276"/>
     </row>
     <row r="136" spans="2:9">
-      <c r="B136" s="238" t="s">
+      <c r="B136" s="274" t="s">
         <v>76</v>
       </c>
-      <c r="C136" s="238"/>
-      <c r="D136" s="238"/>
+      <c r="C136" s="274"/>
+      <c r="D136" s="274"/>
       <c r="E136" s="133"/>
-      <c r="G136" s="241" t="s">
+      <c r="G136" s="277" t="s">
         <v>78</v>
       </c>
-      <c r="H136" s="241"/>
-      <c r="I136" s="241"/>
+      <c r="H136" s="277"/>
+      <c r="I136" s="277"/>
     </row>
     <row r="137" spans="2:9">
       <c r="B137" s="131"/>
       <c r="C137" s="131"/>
     </row>
     <row r="139" spans="2:9">
-      <c r="B139" s="239" t="s">
+      <c r="B139" s="275" t="s">
         <v>102</v>
       </c>
-      <c r="C139" s="239"/>
-      <c r="D139" s="239"/>
-      <c r="E139" s="239"/>
+      <c r="C139" s="275"/>
+      <c r="D139" s="275"/>
+      <c r="E139" s="275"/>
     </row>
     <row r="141" spans="2:9">
       <c r="B141" s="132"/>
@@ -20427,6 +20438,79 @@
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="F86:G94"/>
+    <mergeCell ref="H86:I94"/>
+    <mergeCell ref="B126:C131"/>
+    <mergeCell ref="D126:G131"/>
+    <mergeCell ref="H126:I131"/>
+    <mergeCell ref="B114:C119"/>
+    <mergeCell ref="D114:G119"/>
+    <mergeCell ref="H114:I119"/>
+    <mergeCell ref="B120:C125"/>
+    <mergeCell ref="D120:G125"/>
+    <mergeCell ref="H120:I125"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="B77:C85"/>
+    <mergeCell ref="B75:I75"/>
+    <mergeCell ref="B106:I106"/>
+    <mergeCell ref="B86:C94"/>
+    <mergeCell ref="B95:C103"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="D95:E103"/>
+    <mergeCell ref="F95:G103"/>
+    <mergeCell ref="H95:I103"/>
+    <mergeCell ref="D77:E85"/>
+    <mergeCell ref="F77:G85"/>
+    <mergeCell ref="H77:I85"/>
+    <mergeCell ref="D86:E94"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="B108:C113"/>
+    <mergeCell ref="D108:G113"/>
+    <mergeCell ref="H108:I113"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B37:E39"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B32:E35"/>
+    <mergeCell ref="F32:I35"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:C49"/>
+    <mergeCell ref="B50:C52"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I27"/>
+    <mergeCell ref="B41:E43"/>
+    <mergeCell ref="F41:I43"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="D47:I49"/>
+    <mergeCell ref="D50:I52"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B69:E73"/>
+    <mergeCell ref="F69:I73"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I64"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="I53:I54"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="H10:I11"/>
     <mergeCell ref="D12:I14"/>
@@ -20443,79 +20527,6 @@
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="F10:G11"/>
     <mergeCell ref="D8:I9"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B69:E73"/>
-    <mergeCell ref="F69:I73"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I64"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:C49"/>
-    <mergeCell ref="B50:C52"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I27"/>
-    <mergeCell ref="B41:E43"/>
-    <mergeCell ref="F41:I43"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="D47:I49"/>
-    <mergeCell ref="D50:I52"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B37:E39"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B32:E35"/>
-    <mergeCell ref="F32:I35"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="B108:C113"/>
-    <mergeCell ref="D108:G113"/>
-    <mergeCell ref="H108:I113"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="B77:C85"/>
-    <mergeCell ref="B75:I75"/>
-    <mergeCell ref="B106:I106"/>
-    <mergeCell ref="B86:C94"/>
-    <mergeCell ref="B95:C103"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="D95:E103"/>
-    <mergeCell ref="F95:G103"/>
-    <mergeCell ref="H95:I103"/>
-    <mergeCell ref="D77:E85"/>
-    <mergeCell ref="F77:G85"/>
-    <mergeCell ref="H77:I85"/>
-    <mergeCell ref="D86:E94"/>
-    <mergeCell ref="F86:G94"/>
-    <mergeCell ref="H86:I94"/>
-    <mergeCell ref="B126:C131"/>
-    <mergeCell ref="D126:G131"/>
-    <mergeCell ref="H126:I131"/>
-    <mergeCell ref="B114:C119"/>
-    <mergeCell ref="D114:G119"/>
-    <mergeCell ref="H114:I119"/>
-    <mergeCell ref="B120:C125"/>
-    <mergeCell ref="D120:G125"/>
-    <mergeCell ref="H120:I125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20575,18 +20586,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="263" t="s">
+      <c r="B2" s="290" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="157" t="s">
@@ -21034,17 +21045,17 @@
   </sheetPr>
   <dimension ref="A3:AP68"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="3" spans="1:42" ht="15" thickBot="1">
-      <c r="B3" s="281"/>
-      <c r="C3" s="281"/>
-      <c r="D3" s="281"/>
-      <c r="E3" s="281"/>
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
       <c r="G3" s="163"/>
       <c r="H3" s="164"/>
       <c r="I3" s="164"/>
@@ -21080,10 +21091,10 @@
       <c r="AM3" s="164"/>
     </row>
     <row r="4" spans="1:42" ht="15" customHeight="1">
-      <c r="B4" s="281"/>
-      <c r="C4" s="281"/>
-      <c r="D4" s="281"/>
-      <c r="E4" s="281"/>
+      <c r="B4" s="291"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
       <c r="F4" s="164"/>
       <c r="G4" s="164"/>
       <c r="H4" s="164"/>
@@ -21106,11 +21117,11 @@
       <c r="Y4" s="164"/>
       <c r="Z4" s="164"/>
       <c r="AA4" s="164"/>
-      <c r="AB4" s="264" t="s">
+      <c r="AB4" s="292" t="s">
         <v>342</v>
       </c>
-      <c r="AC4" s="265"/>
-      <c r="AD4" s="266"/>
+      <c r="AC4" s="293"/>
+      <c r="AD4" s="294"/>
       <c r="AE4" s="163"/>
       <c r="AF4" s="164"/>
       <c r="AG4" s="164"/>
@@ -21149,9 +21160,9 @@
       <c r="Y5" s="164"/>
       <c r="Z5" s="164"/>
       <c r="AA5" s="164"/>
-      <c r="AB5" s="267"/>
-      <c r="AC5" s="268"/>
-      <c r="AD5" s="269"/>
+      <c r="AB5" s="295"/>
+      <c r="AC5" s="296"/>
+      <c r="AD5" s="297"/>
       <c r="AE5" s="163"/>
       <c r="AF5" s="164"/>
       <c r="AG5" s="164"/>
@@ -21190,9 +21201,9 @@
       <c r="Y6" s="164"/>
       <c r="Z6" s="164"/>
       <c r="AA6" s="164"/>
-      <c r="AB6" s="270"/>
-      <c r="AC6" s="271"/>
-      <c r="AD6" s="272"/>
+      <c r="AB6" s="298"/>
+      <c r="AC6" s="299"/>
+      <c r="AD6" s="300"/>
       <c r="AE6" s="164"/>
       <c r="AF6" s="164"/>
       <c r="AG6" s="164"/>
@@ -21210,11 +21221,11 @@
       <c r="D7" s="163"/>
       <c r="E7" s="163"/>
       <c r="F7" s="163"/>
-      <c r="R7" s="264" t="s">
+      <c r="R7" s="292" t="s">
         <v>330</v>
       </c>
-      <c r="S7" s="273"/>
-      <c r="T7" s="274"/>
+      <c r="S7" s="301"/>
+      <c r="T7" s="302"/>
       <c r="AA7" s="164"/>
       <c r="AB7" s="164"/>
       <c r="AC7" s="164"/>
@@ -21236,14 +21247,14 @@
       <c r="D8" s="163"/>
       <c r="E8" s="163"/>
       <c r="F8" s="163"/>
-      <c r="M8" s="264" t="s">
+      <c r="M8" s="292" t="s">
         <v>328</v>
       </c>
-      <c r="N8" s="273"/>
-      <c r="O8" s="274"/>
-      <c r="R8" s="275"/>
-      <c r="S8" s="276"/>
-      <c r="T8" s="277"/>
+      <c r="N8" s="301"/>
+      <c r="O8" s="302"/>
+      <c r="R8" s="303"/>
+      <c r="S8" s="304"/>
+      <c r="T8" s="305"/>
       <c r="AA8" s="164"/>
       <c r="AE8" s="164"/>
       <c r="AF8" s="164"/>
@@ -21262,12 +21273,12 @@
       <c r="D9" s="163"/>
       <c r="E9" s="163"/>
       <c r="F9" s="163"/>
-      <c r="M9" s="275"/>
-      <c r="N9" s="276"/>
-      <c r="O9" s="277"/>
-      <c r="R9" s="278"/>
-      <c r="S9" s="279"/>
-      <c r="T9" s="280"/>
+      <c r="M9" s="303"/>
+      <c r="N9" s="304"/>
+      <c r="O9" s="305"/>
+      <c r="R9" s="306"/>
+      <c r="S9" s="307"/>
+      <c r="T9" s="308"/>
       <c r="AA9" s="164"/>
       <c r="AE9" s="163"/>
       <c r="AF9" s="164"/>
@@ -21286,14 +21297,14 @@
       <c r="D10" s="163"/>
       <c r="E10" s="163"/>
       <c r="F10" s="163"/>
-      <c r="H10" s="264" t="s">
+      <c r="H10" s="292" t="s">
         <v>327</v>
       </c>
-      <c r="I10" s="265"/>
-      <c r="J10" s="266"/>
-      <c r="M10" s="278"/>
-      <c r="N10" s="279"/>
-      <c r="O10" s="280"/>
+      <c r="I10" s="293"/>
+      <c r="J10" s="294"/>
+      <c r="M10" s="306"/>
+      <c r="N10" s="307"/>
+      <c r="O10" s="308"/>
       <c r="AA10" s="164"/>
       <c r="AE10" s="163"/>
       <c r="AF10" s="164"/>
@@ -21309,14 +21320,14 @@
       <c r="A11" s="163"/>
       <c r="B11" s="163"/>
       <c r="C11" s="163"/>
-      <c r="D11" s="264" t="s">
+      <c r="D11" s="292" t="s">
         <v>339</v>
       </c>
-      <c r="E11" s="273"/>
-      <c r="F11" s="274"/>
-      <c r="H11" s="267"/>
-      <c r="I11" s="268"/>
-      <c r="J11" s="269"/>
+      <c r="E11" s="301"/>
+      <c r="F11" s="302"/>
+      <c r="H11" s="295"/>
+      <c r="I11" s="296"/>
+      <c r="J11" s="297"/>
       <c r="AA11" s="164"/>
       <c r="AE11" s="163"/>
       <c r="AF11" s="163"/>
@@ -21332,17 +21343,17 @@
       <c r="A12" s="163"/>
       <c r="B12" s="163"/>
       <c r="C12" s="163"/>
-      <c r="D12" s="275"/>
-      <c r="E12" s="276"/>
-      <c r="F12" s="277"/>
-      <c r="H12" s="270"/>
-      <c r="I12" s="271"/>
-      <c r="J12" s="272"/>
-      <c r="W12" s="264" t="s">
+      <c r="D12" s="303"/>
+      <c r="E12" s="304"/>
+      <c r="F12" s="305"/>
+      <c r="H12" s="298"/>
+      <c r="I12" s="299"/>
+      <c r="J12" s="300"/>
+      <c r="W12" s="292" t="s">
         <v>332</v>
       </c>
-      <c r="X12" s="273"/>
-      <c r="Y12" s="274"/>
+      <c r="X12" s="301"/>
+      <c r="Y12" s="302"/>
       <c r="AA12" s="164"/>
       <c r="AE12" s="163"/>
       <c r="AF12" s="163"/>
@@ -21358,23 +21369,23 @@
       <c r="A13" s="163"/>
       <c r="B13" s="163"/>
       <c r="C13" s="163"/>
-      <c r="D13" s="278"/>
-      <c r="E13" s="279"/>
-      <c r="F13" s="280"/>
-      <c r="M13" s="264" t="s">
+      <c r="D13" s="306"/>
+      <c r="E13" s="307"/>
+      <c r="F13" s="308"/>
+      <c r="M13" s="292" t="s">
         <v>329</v>
       </c>
-      <c r="N13" s="273"/>
-      <c r="O13" s="274"/>
-      <c r="W13" s="275"/>
-      <c r="X13" s="276"/>
-      <c r="Y13" s="277"/>
+      <c r="N13" s="301"/>
+      <c r="O13" s="302"/>
+      <c r="W13" s="303"/>
+      <c r="X13" s="304"/>
+      <c r="Y13" s="305"/>
       <c r="AA13" s="164"/>
-      <c r="AB13" s="264" t="s">
+      <c r="AB13" s="292" t="s">
         <v>326</v>
       </c>
-      <c r="AC13" s="265"/>
-      <c r="AD13" s="266"/>
+      <c r="AC13" s="293"/>
+      <c r="AD13" s="294"/>
       <c r="AE13" s="163"/>
       <c r="AF13" s="163"/>
       <c r="AG13" s="163"/>
@@ -21392,16 +21403,16 @@
       <c r="D14" s="163"/>
       <c r="E14" s="163"/>
       <c r="F14" s="163"/>
-      <c r="M14" s="275"/>
-      <c r="N14" s="276"/>
-      <c r="O14" s="277"/>
-      <c r="W14" s="278"/>
-      <c r="X14" s="279"/>
-      <c r="Y14" s="280"/>
+      <c r="M14" s="303"/>
+      <c r="N14" s="304"/>
+      <c r="O14" s="305"/>
+      <c r="W14" s="306"/>
+      <c r="X14" s="307"/>
+      <c r="Y14" s="308"/>
       <c r="AA14" s="164"/>
-      <c r="AB14" s="267"/>
-      <c r="AC14" s="268"/>
-      <c r="AD14" s="269"/>
+      <c r="AB14" s="295"/>
+      <c r="AC14" s="296"/>
+      <c r="AD14" s="297"/>
       <c r="AE14" s="163"/>
       <c r="AF14" s="164"/>
       <c r="AG14" s="164"/>
@@ -21419,18 +21430,18 @@
       <c r="D15" s="164"/>
       <c r="E15" s="164"/>
       <c r="F15" s="164"/>
-      <c r="M15" s="278"/>
-      <c r="N15" s="279"/>
-      <c r="O15" s="280"/>
-      <c r="R15" s="264" t="s">
+      <c r="M15" s="306"/>
+      <c r="N15" s="307"/>
+      <c r="O15" s="308"/>
+      <c r="R15" s="292" t="s">
         <v>331</v>
       </c>
-      <c r="S15" s="273"/>
-      <c r="T15" s="274"/>
+      <c r="S15" s="301"/>
+      <c r="T15" s="302"/>
       <c r="AA15" s="164"/>
-      <c r="AB15" s="270"/>
-      <c r="AC15" s="271"/>
-      <c r="AD15" s="272"/>
+      <c r="AB15" s="298"/>
+      <c r="AC15" s="299"/>
+      <c r="AD15" s="300"/>
       <c r="AE15" s="163"/>
       <c r="AF15" s="164"/>
       <c r="AG15" s="164"/>
@@ -21448,9 +21459,9 @@
       <c r="D16" s="164"/>
       <c r="E16" s="164"/>
       <c r="F16" s="164"/>
-      <c r="R16" s="275"/>
-      <c r="S16" s="276"/>
-      <c r="T16" s="277"/>
+      <c r="R16" s="303"/>
+      <c r="S16" s="304"/>
+      <c r="T16" s="305"/>
       <c r="AA16" s="164"/>
       <c r="AB16" s="164"/>
       <c r="AC16" s="164"/>
@@ -21469,9 +21480,9 @@
       <c r="D17" s="164"/>
       <c r="E17" s="164"/>
       <c r="F17" s="164"/>
-      <c r="R17" s="278"/>
-      <c r="S17" s="279"/>
-      <c r="T17" s="280"/>
+      <c r="R17" s="306"/>
+      <c r="S17" s="307"/>
+      <c r="T17" s="308"/>
       <c r="AA17" s="164"/>
       <c r="AB17" s="164"/>
       <c r="AC17" s="164"/>
@@ -22030,17 +22041,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB4:AD6"/>
+    <mergeCell ref="W12:Y14"/>
+    <mergeCell ref="R7:T9"/>
+    <mergeCell ref="R15:T17"/>
+    <mergeCell ref="AB13:AD15"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="H10:J12"/>
     <mergeCell ref="M8:O10"/>
     <mergeCell ref="M13:O15"/>
     <mergeCell ref="D11:F13"/>
-    <mergeCell ref="AB4:AD6"/>
-    <mergeCell ref="W12:Y14"/>
-    <mergeCell ref="R7:T9"/>
-    <mergeCell ref="R15:T17"/>
-    <mergeCell ref="AB13:AD15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22055,8 +22066,8 @@
   </sheetPr>
   <dimension ref="A1:EP77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B30"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -22220,476 +22231,476 @@
       <c r="A2" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="327"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328"/>
-      <c r="I2" s="328"/>
-      <c r="J2" s="328"/>
-      <c r="K2" s="328"/>
-      <c r="L2" s="328"/>
-      <c r="M2" s="328"/>
-      <c r="N2" s="328"/>
-      <c r="O2" s="328"/>
-      <c r="P2" s="328"/>
-      <c r="Q2" s="328"/>
-      <c r="R2" s="328"/>
-      <c r="S2" s="328"/>
-      <c r="T2" s="328"/>
-      <c r="U2" s="329"/>
-      <c r="V2" s="330" t="s">
+      <c r="B2" s="399"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="400"/>
+      <c r="P2" s="400"/>
+      <c r="Q2" s="400"/>
+      <c r="R2" s="400"/>
+      <c r="S2" s="400"/>
+      <c r="T2" s="400"/>
+      <c r="U2" s="401"/>
+      <c r="V2" s="402" t="s">
         <v>143</v>
       </c>
-      <c r="W2" s="331"/>
-      <c r="X2" s="331"/>
-      <c r="Y2" s="331"/>
-      <c r="Z2" s="331"/>
-      <c r="AA2" s="331"/>
-      <c r="AB2" s="331"/>
-      <c r="AC2" s="331"/>
-      <c r="AD2" s="331"/>
-      <c r="AE2" s="331"/>
-      <c r="AF2" s="331"/>
-      <c r="AG2" s="331"/>
-      <c r="AH2" s="331"/>
-      <c r="AI2" s="332"/>
-      <c r="AJ2" s="446">
+      <c r="W2" s="403"/>
+      <c r="X2" s="403"/>
+      <c r="Y2" s="403"/>
+      <c r="Z2" s="403"/>
+      <c r="AA2" s="403"/>
+      <c r="AB2" s="403"/>
+      <c r="AC2" s="403"/>
+      <c r="AD2" s="403"/>
+      <c r="AE2" s="403"/>
+      <c r="AF2" s="403"/>
+      <c r="AG2" s="403"/>
+      <c r="AH2" s="403"/>
+      <c r="AI2" s="404"/>
+      <c r="AJ2" s="405">
         <v>43590</v>
       </c>
-      <c r="AK2" s="447"/>
-      <c r="AL2" s="447"/>
-      <c r="AM2" s="447"/>
-      <c r="AN2" s="447"/>
-      <c r="AO2" s="447"/>
-      <c r="AP2" s="447"/>
-      <c r="AQ2" s="447"/>
-      <c r="AR2" s="447"/>
-      <c r="AS2" s="447"/>
-      <c r="AT2" s="448"/>
-      <c r="AU2" s="333"/>
-      <c r="AV2" s="334"/>
-      <c r="AW2" s="334"/>
-      <c r="AX2" s="334"/>
-      <c r="AY2" s="334"/>
-      <c r="AZ2" s="334"/>
-      <c r="BA2" s="334"/>
-      <c r="BB2" s="334"/>
-      <c r="BC2" s="334"/>
-      <c r="BD2" s="334"/>
-      <c r="BE2" s="334"/>
-      <c r="BF2" s="334"/>
-      <c r="BG2" s="335"/>
+      <c r="AK2" s="406"/>
+      <c r="AL2" s="406"/>
+      <c r="AM2" s="406"/>
+      <c r="AN2" s="406"/>
+      <c r="AO2" s="406"/>
+      <c r="AP2" s="406"/>
+      <c r="AQ2" s="406"/>
+      <c r="AR2" s="406"/>
+      <c r="AS2" s="406"/>
+      <c r="AT2" s="407"/>
+      <c r="AU2" s="408"/>
+      <c r="AV2" s="409"/>
+      <c r="AW2" s="409"/>
+      <c r="AX2" s="409"/>
+      <c r="AY2" s="409"/>
+      <c r="AZ2" s="409"/>
+      <c r="BA2" s="409"/>
+      <c r="BB2" s="409"/>
+      <c r="BC2" s="409"/>
+      <c r="BD2" s="409"/>
+      <c r="BE2" s="409"/>
+      <c r="BF2" s="409"/>
+      <c r="BG2" s="410"/>
       <c r="BH2" s="45"/>
       <c r="BI2" s="46"/>
-      <c r="BJ2" s="336" t="s">
+      <c r="BJ2" s="411" t="s">
         <v>146</v>
       </c>
-      <c r="BK2" s="331"/>
-      <c r="BL2" s="331"/>
-      <c r="BM2" s="331"/>
-      <c r="BN2" s="331"/>
-      <c r="BO2" s="331"/>
-      <c r="BP2" s="331"/>
-      <c r="BQ2" s="331"/>
-      <c r="BR2" s="331"/>
-      <c r="BS2" s="331"/>
-      <c r="BT2" s="331"/>
-      <c r="BU2" s="331"/>
-      <c r="BV2" s="331"/>
-      <c r="BW2" s="331"/>
-      <c r="BX2" s="331"/>
-      <c r="BY2" s="331"/>
-      <c r="BZ2" s="331"/>
-      <c r="CA2" s="331"/>
-      <c r="CB2" s="331"/>
-      <c r="CC2" s="331"/>
-      <c r="CD2" s="331"/>
-      <c r="CE2" s="331"/>
-      <c r="CF2" s="331"/>
-      <c r="CG2" s="337"/>
-      <c r="CH2" s="313" t="s">
+      <c r="BK2" s="403"/>
+      <c r="BL2" s="403"/>
+      <c r="BM2" s="403"/>
+      <c r="BN2" s="403"/>
+      <c r="BO2" s="403"/>
+      <c r="BP2" s="403"/>
+      <c r="BQ2" s="403"/>
+      <c r="BR2" s="403"/>
+      <c r="BS2" s="403"/>
+      <c r="BT2" s="403"/>
+      <c r="BU2" s="403"/>
+      <c r="BV2" s="403"/>
+      <c r="BW2" s="403"/>
+      <c r="BX2" s="403"/>
+      <c r="BY2" s="403"/>
+      <c r="BZ2" s="403"/>
+      <c r="CA2" s="403"/>
+      <c r="CB2" s="403"/>
+      <c r="CC2" s="403"/>
+      <c r="CD2" s="403"/>
+      <c r="CE2" s="403"/>
+      <c r="CF2" s="403"/>
+      <c r="CG2" s="412"/>
+      <c r="CH2" s="385" t="s">
         <v>155</v>
       </c>
-      <c r="CI2" s="314"/>
-      <c r="CJ2" s="314"/>
-      <c r="CK2" s="314"/>
-      <c r="CL2" s="314"/>
-      <c r="CM2" s="314"/>
-      <c r="CN2" s="314"/>
-      <c r="CO2" s="314"/>
-      <c r="CP2" s="314"/>
-      <c r="CQ2" s="314"/>
-      <c r="CR2" s="314"/>
-      <c r="CS2" s="314"/>
-      <c r="CT2" s="314"/>
-      <c r="CU2" s="314"/>
-      <c r="CV2" s="314"/>
-      <c r="CW2" s="314"/>
-      <c r="CX2" s="314"/>
-      <c r="CY2" s="314"/>
-      <c r="CZ2" s="314"/>
-      <c r="DA2" s="314"/>
-      <c r="DB2" s="314"/>
-      <c r="DC2" s="314"/>
-      <c r="DD2" s="314"/>
-      <c r="DE2" s="314"/>
-      <c r="DF2" s="315"/>
-      <c r="DG2" s="301"/>
-      <c r="DH2" s="302"/>
-      <c r="DI2" s="302"/>
-      <c r="DJ2" s="302"/>
-      <c r="DK2" s="302"/>
-      <c r="DL2" s="302"/>
-      <c r="DM2" s="302"/>
-      <c r="DN2" s="302"/>
-      <c r="DO2" s="302"/>
-      <c r="DP2" s="302"/>
-      <c r="DQ2" s="302"/>
-      <c r="DR2" s="302"/>
-      <c r="DS2" s="302"/>
-      <c r="DT2" s="302"/>
-      <c r="DU2" s="302"/>
-      <c r="DV2" s="302"/>
-      <c r="DW2" s="302"/>
-      <c r="DX2" s="302"/>
-      <c r="DY2" s="302"/>
-      <c r="DZ2" s="302"/>
-      <c r="EA2" s="302"/>
-      <c r="EB2" s="302"/>
-      <c r="EC2" s="302"/>
-      <c r="ED2" s="302"/>
-      <c r="EE2" s="302"/>
-      <c r="EF2" s="302"/>
-      <c r="EG2" s="302"/>
-      <c r="EH2" s="302"/>
-      <c r="EI2" s="302"/>
-      <c r="EJ2" s="302"/>
-      <c r="EK2" s="302"/>
-      <c r="EL2" s="302"/>
-      <c r="EM2" s="302"/>
-      <c r="EN2" s="302"/>
-      <c r="EO2" s="305"/>
+      <c r="CI2" s="386"/>
+      <c r="CJ2" s="386"/>
+      <c r="CK2" s="386"/>
+      <c r="CL2" s="386"/>
+      <c r="CM2" s="386"/>
+      <c r="CN2" s="386"/>
+      <c r="CO2" s="386"/>
+      <c r="CP2" s="386"/>
+      <c r="CQ2" s="386"/>
+      <c r="CR2" s="386"/>
+      <c r="CS2" s="386"/>
+      <c r="CT2" s="386"/>
+      <c r="CU2" s="386"/>
+      <c r="CV2" s="386"/>
+      <c r="CW2" s="386"/>
+      <c r="CX2" s="386"/>
+      <c r="CY2" s="386"/>
+      <c r="CZ2" s="386"/>
+      <c r="DA2" s="386"/>
+      <c r="DB2" s="386"/>
+      <c r="DC2" s="386"/>
+      <c r="DD2" s="386"/>
+      <c r="DE2" s="386"/>
+      <c r="DF2" s="387"/>
+      <c r="DG2" s="370"/>
+      <c r="DH2" s="371"/>
+      <c r="DI2" s="371"/>
+      <c r="DJ2" s="371"/>
+      <c r="DK2" s="371"/>
+      <c r="DL2" s="371"/>
+      <c r="DM2" s="371"/>
+      <c r="DN2" s="371"/>
+      <c r="DO2" s="371"/>
+      <c r="DP2" s="371"/>
+      <c r="DQ2" s="371"/>
+      <c r="DR2" s="371"/>
+      <c r="DS2" s="371"/>
+      <c r="DT2" s="371"/>
+      <c r="DU2" s="371"/>
+      <c r="DV2" s="371"/>
+      <c r="DW2" s="371"/>
+      <c r="DX2" s="371"/>
+      <c r="DY2" s="371"/>
+      <c r="DZ2" s="371"/>
+      <c r="EA2" s="371"/>
+      <c r="EB2" s="371"/>
+      <c r="EC2" s="371"/>
+      <c r="ED2" s="371"/>
+      <c r="EE2" s="371"/>
+      <c r="EF2" s="371"/>
+      <c r="EG2" s="371"/>
+      <c r="EH2" s="371"/>
+      <c r="EI2" s="371"/>
+      <c r="EJ2" s="371"/>
+      <c r="EK2" s="371"/>
+      <c r="EL2" s="371"/>
+      <c r="EM2" s="371"/>
+      <c r="EN2" s="371"/>
+      <c r="EO2" s="374"/>
       <c r="EP2" s="47"/>
     </row>
     <row r="3" spans="1:146" ht="45.75" customHeight="1" thickBot="1">
       <c r="A3" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="307"/>
-      <c r="C3" s="308"/>
-      <c r="D3" s="308"/>
-      <c r="E3" s="308"/>
-      <c r="F3" s="308"/>
-      <c r="G3" s="308"/>
-      <c r="H3" s="308"/>
-      <c r="I3" s="308"/>
-      <c r="J3" s="308"/>
-      <c r="K3" s="308"/>
-      <c r="L3" s="308"/>
-      <c r="M3" s="308"/>
-      <c r="N3" s="308"/>
-      <c r="O3" s="308"/>
-      <c r="P3" s="308"/>
-      <c r="Q3" s="308"/>
-      <c r="R3" s="308"/>
-      <c r="S3" s="308"/>
-      <c r="T3" s="308"/>
-      <c r="U3" s="309"/>
-      <c r="V3" s="310" t="s">
+      <c r="B3" s="376"/>
+      <c r="C3" s="377"/>
+      <c r="D3" s="377"/>
+      <c r="E3" s="377"/>
+      <c r="F3" s="377"/>
+      <c r="G3" s="377"/>
+      <c r="H3" s="377"/>
+      <c r="I3" s="377"/>
+      <c r="J3" s="377"/>
+      <c r="K3" s="377"/>
+      <c r="L3" s="377"/>
+      <c r="M3" s="377"/>
+      <c r="N3" s="377"/>
+      <c r="O3" s="377"/>
+      <c r="P3" s="377"/>
+      <c r="Q3" s="377"/>
+      <c r="R3" s="377"/>
+      <c r="S3" s="377"/>
+      <c r="T3" s="377"/>
+      <c r="U3" s="378"/>
+      <c r="V3" s="379" t="s">
         <v>144</v>
       </c>
-      <c r="W3" s="311"/>
-      <c r="X3" s="311"/>
-      <c r="Y3" s="311"/>
-      <c r="Z3" s="311"/>
-      <c r="AA3" s="311"/>
-      <c r="AB3" s="311"/>
-      <c r="AC3" s="311"/>
-      <c r="AD3" s="311"/>
-      <c r="AE3" s="311"/>
-      <c r="AF3" s="311"/>
-      <c r="AG3" s="311"/>
-      <c r="AH3" s="311"/>
-      <c r="AI3" s="312"/>
-      <c r="AJ3" s="449" t="s">
+      <c r="W3" s="380"/>
+      <c r="X3" s="380"/>
+      <c r="Y3" s="380"/>
+      <c r="Z3" s="380"/>
+      <c r="AA3" s="380"/>
+      <c r="AB3" s="380"/>
+      <c r="AC3" s="380"/>
+      <c r="AD3" s="380"/>
+      <c r="AE3" s="380"/>
+      <c r="AF3" s="380"/>
+      <c r="AG3" s="380"/>
+      <c r="AH3" s="380"/>
+      <c r="AI3" s="381"/>
+      <c r="AJ3" s="382" t="s">
         <v>343</v>
       </c>
-      <c r="AK3" s="450"/>
-      <c r="AL3" s="450"/>
-      <c r="AM3" s="450"/>
-      <c r="AN3" s="450"/>
-      <c r="AO3" s="450"/>
-      <c r="AP3" s="450"/>
-      <c r="AQ3" s="450"/>
-      <c r="AR3" s="450"/>
-      <c r="AS3" s="450"/>
-      <c r="AT3" s="451"/>
-      <c r="AU3" s="319"/>
-      <c r="AV3" s="320"/>
-      <c r="AW3" s="321" t="s">
+      <c r="AK3" s="383"/>
+      <c r="AL3" s="383"/>
+      <c r="AM3" s="383"/>
+      <c r="AN3" s="383"/>
+      <c r="AO3" s="383"/>
+      <c r="AP3" s="383"/>
+      <c r="AQ3" s="383"/>
+      <c r="AR3" s="383"/>
+      <c r="AS3" s="383"/>
+      <c r="AT3" s="384"/>
+      <c r="AU3" s="391"/>
+      <c r="AV3" s="392"/>
+      <c r="AW3" s="393" t="s">
         <v>145</v>
       </c>
-      <c r="AX3" s="322"/>
-      <c r="AY3" s="322"/>
-      <c r="AZ3" s="322"/>
-      <c r="BA3" s="322"/>
-      <c r="BB3" s="322"/>
-      <c r="BC3" s="322"/>
-      <c r="BD3" s="322"/>
-      <c r="BE3" s="322"/>
-      <c r="BF3" s="322"/>
-      <c r="BG3" s="323"/>
+      <c r="AX3" s="394"/>
+      <c r="AY3" s="394"/>
+      <c r="AZ3" s="394"/>
+      <c r="BA3" s="394"/>
+      <c r="BB3" s="394"/>
+      <c r="BC3" s="394"/>
+      <c r="BD3" s="394"/>
+      <c r="BE3" s="394"/>
+      <c r="BF3" s="394"/>
+      <c r="BG3" s="395"/>
       <c r="BH3" s="49"/>
       <c r="BI3" s="50"/>
-      <c r="BJ3" s="324" t="s">
+      <c r="BJ3" s="396" t="s">
         <v>147</v>
       </c>
-      <c r="BK3" s="325"/>
-      <c r="BL3" s="325"/>
-      <c r="BM3" s="325"/>
-      <c r="BN3" s="325"/>
-      <c r="BO3" s="325"/>
-      <c r="BP3" s="325"/>
-      <c r="BQ3" s="325"/>
-      <c r="BR3" s="325"/>
-      <c r="BS3" s="325"/>
-      <c r="BT3" s="325"/>
-      <c r="BU3" s="325"/>
-      <c r="BV3" s="325"/>
-      <c r="BW3" s="325"/>
-      <c r="BX3" s="325"/>
-      <c r="BY3" s="325"/>
-      <c r="BZ3" s="325"/>
-      <c r="CA3" s="325"/>
-      <c r="CB3" s="325"/>
-      <c r="CC3" s="325"/>
-      <c r="CD3" s="325"/>
-      <c r="CE3" s="325"/>
-      <c r="CF3" s="325"/>
-      <c r="CG3" s="326"/>
-      <c r="CH3" s="316"/>
-      <c r="CI3" s="317"/>
-      <c r="CJ3" s="317"/>
-      <c r="CK3" s="317"/>
-      <c r="CL3" s="317"/>
-      <c r="CM3" s="317"/>
-      <c r="CN3" s="317"/>
-      <c r="CO3" s="317"/>
-      <c r="CP3" s="317"/>
-      <c r="CQ3" s="317"/>
-      <c r="CR3" s="317"/>
-      <c r="CS3" s="317"/>
-      <c r="CT3" s="317"/>
-      <c r="CU3" s="317"/>
-      <c r="CV3" s="317"/>
-      <c r="CW3" s="317"/>
-      <c r="CX3" s="317"/>
-      <c r="CY3" s="317"/>
-      <c r="CZ3" s="317"/>
-      <c r="DA3" s="317"/>
-      <c r="DB3" s="317"/>
-      <c r="DC3" s="317"/>
-      <c r="DD3" s="317"/>
-      <c r="DE3" s="317"/>
-      <c r="DF3" s="318"/>
-      <c r="DG3" s="303"/>
-      <c r="DH3" s="304"/>
-      <c r="DI3" s="304"/>
-      <c r="DJ3" s="304"/>
-      <c r="DK3" s="304"/>
-      <c r="DL3" s="304"/>
-      <c r="DM3" s="304"/>
-      <c r="DN3" s="304"/>
-      <c r="DO3" s="304"/>
-      <c r="DP3" s="304"/>
-      <c r="DQ3" s="304"/>
-      <c r="DR3" s="304"/>
-      <c r="DS3" s="304"/>
-      <c r="DT3" s="304"/>
-      <c r="DU3" s="304"/>
-      <c r="DV3" s="304"/>
-      <c r="DW3" s="304"/>
-      <c r="DX3" s="304"/>
-      <c r="DY3" s="304"/>
-      <c r="DZ3" s="304"/>
-      <c r="EA3" s="304"/>
-      <c r="EB3" s="304"/>
-      <c r="EC3" s="304"/>
-      <c r="ED3" s="304"/>
-      <c r="EE3" s="304"/>
-      <c r="EF3" s="304"/>
-      <c r="EG3" s="304"/>
-      <c r="EH3" s="304"/>
-      <c r="EI3" s="304"/>
-      <c r="EJ3" s="304"/>
-      <c r="EK3" s="304"/>
-      <c r="EL3" s="304"/>
-      <c r="EM3" s="304"/>
-      <c r="EN3" s="304"/>
-      <c r="EO3" s="306"/>
+      <c r="BK3" s="397"/>
+      <c r="BL3" s="397"/>
+      <c r="BM3" s="397"/>
+      <c r="BN3" s="397"/>
+      <c r="BO3" s="397"/>
+      <c r="BP3" s="397"/>
+      <c r="BQ3" s="397"/>
+      <c r="BR3" s="397"/>
+      <c r="BS3" s="397"/>
+      <c r="BT3" s="397"/>
+      <c r="BU3" s="397"/>
+      <c r="BV3" s="397"/>
+      <c r="BW3" s="397"/>
+      <c r="BX3" s="397"/>
+      <c r="BY3" s="397"/>
+      <c r="BZ3" s="397"/>
+      <c r="CA3" s="397"/>
+      <c r="CB3" s="397"/>
+      <c r="CC3" s="397"/>
+      <c r="CD3" s="397"/>
+      <c r="CE3" s="397"/>
+      <c r="CF3" s="397"/>
+      <c r="CG3" s="398"/>
+      <c r="CH3" s="388"/>
+      <c r="CI3" s="389"/>
+      <c r="CJ3" s="389"/>
+      <c r="CK3" s="389"/>
+      <c r="CL3" s="389"/>
+      <c r="CM3" s="389"/>
+      <c r="CN3" s="389"/>
+      <c r="CO3" s="389"/>
+      <c r="CP3" s="389"/>
+      <c r="CQ3" s="389"/>
+      <c r="CR3" s="389"/>
+      <c r="CS3" s="389"/>
+      <c r="CT3" s="389"/>
+      <c r="CU3" s="389"/>
+      <c r="CV3" s="389"/>
+      <c r="CW3" s="389"/>
+      <c r="CX3" s="389"/>
+      <c r="CY3" s="389"/>
+      <c r="CZ3" s="389"/>
+      <c r="DA3" s="389"/>
+      <c r="DB3" s="389"/>
+      <c r="DC3" s="389"/>
+      <c r="DD3" s="389"/>
+      <c r="DE3" s="389"/>
+      <c r="DF3" s="390"/>
+      <c r="DG3" s="372"/>
+      <c r="DH3" s="373"/>
+      <c r="DI3" s="373"/>
+      <c r="DJ3" s="373"/>
+      <c r="DK3" s="373"/>
+      <c r="DL3" s="373"/>
+      <c r="DM3" s="373"/>
+      <c r="DN3" s="373"/>
+      <c r="DO3" s="373"/>
+      <c r="DP3" s="373"/>
+      <c r="DQ3" s="373"/>
+      <c r="DR3" s="373"/>
+      <c r="DS3" s="373"/>
+      <c r="DT3" s="373"/>
+      <c r="DU3" s="373"/>
+      <c r="DV3" s="373"/>
+      <c r="DW3" s="373"/>
+      <c r="DX3" s="373"/>
+      <c r="DY3" s="373"/>
+      <c r="DZ3" s="373"/>
+      <c r="EA3" s="373"/>
+      <c r="EB3" s="373"/>
+      <c r="EC3" s="373"/>
+      <c r="ED3" s="373"/>
+      <c r="EE3" s="373"/>
+      <c r="EF3" s="373"/>
+      <c r="EG3" s="373"/>
+      <c r="EH3" s="373"/>
+      <c r="EI3" s="373"/>
+      <c r="EJ3" s="373"/>
+      <c r="EK3" s="373"/>
+      <c r="EL3" s="373"/>
+      <c r="EM3" s="373"/>
+      <c r="EN3" s="373"/>
+      <c r="EO3" s="375"/>
       <c r="EP3" s="47"/>
     </row>
     <row r="4" spans="1:146" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="282"/>
-      <c r="B4" s="283"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283"/>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283"/>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
-      <c r="M4" s="283"/>
-      <c r="N4" s="283"/>
-      <c r="O4" s="283"/>
-      <c r="P4" s="283"/>
-      <c r="Q4" s="283"/>
-      <c r="R4" s="283"/>
-      <c r="S4" s="283"/>
-      <c r="T4" s="283"/>
-      <c r="U4" s="283"/>
-      <c r="V4" s="283"/>
-      <c r="W4" s="283"/>
-      <c r="X4" s="283"/>
-      <c r="Y4" s="283"/>
-      <c r="Z4" s="283"/>
-      <c r="AA4" s="283"/>
-      <c r="AB4" s="283"/>
-      <c r="AC4" s="283"/>
-      <c r="AD4" s="283"/>
-      <c r="AE4" s="283"/>
-      <c r="AF4" s="283"/>
-      <c r="AG4" s="283"/>
-      <c r="AH4" s="283"/>
-      <c r="AI4" s="283"/>
-      <c r="AJ4" s="283"/>
-      <c r="AK4" s="283"/>
-      <c r="AL4" s="283"/>
-      <c r="AM4" s="283"/>
-      <c r="AN4" s="283"/>
-      <c r="AO4" s="283"/>
-      <c r="AP4" s="283"/>
-      <c r="AQ4" s="283"/>
-      <c r="AR4" s="283"/>
-      <c r="AS4" s="283"/>
-      <c r="AT4" s="283"/>
-      <c r="AU4" s="283"/>
-      <c r="AV4" s="283"/>
-      <c r="AW4" s="283"/>
-      <c r="AX4" s="283"/>
-      <c r="AY4" s="283"/>
-      <c r="AZ4" s="283"/>
-      <c r="BA4" s="283"/>
-      <c r="BB4" s="283"/>
-      <c r="BC4" s="283"/>
-      <c r="BD4" s="283"/>
-      <c r="BE4" s="283"/>
-      <c r="BF4" s="283"/>
-      <c r="BG4" s="283"/>
-      <c r="BH4" s="283"/>
-      <c r="BI4" s="283"/>
-      <c r="BJ4" s="283"/>
-      <c r="BK4" s="283"/>
-      <c r="BL4" s="283"/>
-      <c r="BM4" s="283"/>
-      <c r="BN4" s="283"/>
-      <c r="BO4" s="283"/>
-      <c r="BP4" s="283"/>
-      <c r="BQ4" s="283"/>
-      <c r="BR4" s="283"/>
-      <c r="BS4" s="283"/>
-      <c r="BT4" s="283"/>
-      <c r="BU4" s="283"/>
-      <c r="BV4" s="283"/>
-      <c r="BW4" s="283"/>
-      <c r="BX4" s="283"/>
-      <c r="BY4" s="283"/>
-      <c r="BZ4" s="283"/>
-      <c r="CA4" s="283"/>
-      <c r="CB4" s="283"/>
-      <c r="CC4" s="283"/>
-      <c r="CD4" s="283"/>
-      <c r="CE4" s="283"/>
-      <c r="CF4" s="283"/>
-      <c r="CG4" s="283"/>
-      <c r="CH4" s="283"/>
-      <c r="CI4" s="283"/>
-      <c r="CJ4" s="283"/>
-      <c r="CK4" s="283"/>
-      <c r="CL4" s="283"/>
-      <c r="CM4" s="283"/>
-      <c r="CN4" s="283"/>
-      <c r="CO4" s="283"/>
-      <c r="CP4" s="283"/>
-      <c r="CQ4" s="283"/>
-      <c r="CR4" s="283"/>
-      <c r="CS4" s="283"/>
-      <c r="CT4" s="283"/>
-      <c r="CU4" s="283"/>
-      <c r="CV4" s="283"/>
-      <c r="CW4" s="283"/>
-      <c r="CX4" s="283"/>
-      <c r="CY4" s="283"/>
-      <c r="CZ4" s="283"/>
-      <c r="DA4" s="283"/>
-      <c r="DB4" s="283"/>
-      <c r="DC4" s="283"/>
-      <c r="DD4" s="283"/>
-      <c r="DE4" s="283"/>
-      <c r="DF4" s="284"/>
-      <c r="DG4" s="285"/>
-      <c r="DH4" s="286"/>
-      <c r="DI4" s="286"/>
-      <c r="DJ4" s="286"/>
-      <c r="DK4" s="286"/>
-      <c r="DL4" s="286"/>
-      <c r="DM4" s="286"/>
-      <c r="DN4" s="286"/>
-      <c r="DO4" s="286"/>
-      <c r="DP4" s="286"/>
-      <c r="DQ4" s="286"/>
-      <c r="DR4" s="286"/>
-      <c r="DS4" s="286"/>
-      <c r="DT4" s="286"/>
-      <c r="DU4" s="286"/>
-      <c r="DV4" s="286"/>
-      <c r="DW4" s="286"/>
-      <c r="DX4" s="286"/>
-      <c r="DY4" s="286"/>
-      <c r="DZ4" s="286"/>
-      <c r="EA4" s="286"/>
-      <c r="EB4" s="286"/>
-      <c r="EC4" s="286"/>
-      <c r="ED4" s="286"/>
-      <c r="EE4" s="286"/>
-      <c r="EF4" s="286"/>
-      <c r="EG4" s="286"/>
-      <c r="EH4" s="286"/>
-      <c r="EI4" s="286"/>
-      <c r="EJ4" s="286"/>
-      <c r="EK4" s="286"/>
-      <c r="EL4" s="286"/>
-      <c r="EM4" s="286"/>
-      <c r="EN4" s="286"/>
-      <c r="EO4" s="287"/>
+      <c r="A4" s="351"/>
+      <c r="B4" s="352"/>
+      <c r="C4" s="352"/>
+      <c r="D4" s="352"/>
+      <c r="E4" s="352"/>
+      <c r="F4" s="352"/>
+      <c r="G4" s="352"/>
+      <c r="H4" s="352"/>
+      <c r="I4" s="352"/>
+      <c r="J4" s="352"/>
+      <c r="K4" s="352"/>
+      <c r="L4" s="352"/>
+      <c r="M4" s="352"/>
+      <c r="N4" s="352"/>
+      <c r="O4" s="352"/>
+      <c r="P4" s="352"/>
+      <c r="Q4" s="352"/>
+      <c r="R4" s="352"/>
+      <c r="S4" s="352"/>
+      <c r="T4" s="352"/>
+      <c r="U4" s="352"/>
+      <c r="V4" s="352"/>
+      <c r="W4" s="352"/>
+      <c r="X4" s="352"/>
+      <c r="Y4" s="352"/>
+      <c r="Z4" s="352"/>
+      <c r="AA4" s="352"/>
+      <c r="AB4" s="352"/>
+      <c r="AC4" s="352"/>
+      <c r="AD4" s="352"/>
+      <c r="AE4" s="352"/>
+      <c r="AF4" s="352"/>
+      <c r="AG4" s="352"/>
+      <c r="AH4" s="352"/>
+      <c r="AI4" s="352"/>
+      <c r="AJ4" s="352"/>
+      <c r="AK4" s="352"/>
+      <c r="AL4" s="352"/>
+      <c r="AM4" s="352"/>
+      <c r="AN4" s="352"/>
+      <c r="AO4" s="352"/>
+      <c r="AP4" s="352"/>
+      <c r="AQ4" s="352"/>
+      <c r="AR4" s="352"/>
+      <c r="AS4" s="352"/>
+      <c r="AT4" s="352"/>
+      <c r="AU4" s="352"/>
+      <c r="AV4" s="352"/>
+      <c r="AW4" s="352"/>
+      <c r="AX4" s="352"/>
+      <c r="AY4" s="352"/>
+      <c r="AZ4" s="352"/>
+      <c r="BA4" s="352"/>
+      <c r="BB4" s="352"/>
+      <c r="BC4" s="352"/>
+      <c r="BD4" s="352"/>
+      <c r="BE4" s="352"/>
+      <c r="BF4" s="352"/>
+      <c r="BG4" s="352"/>
+      <c r="BH4" s="352"/>
+      <c r="BI4" s="352"/>
+      <c r="BJ4" s="352"/>
+      <c r="BK4" s="352"/>
+      <c r="BL4" s="352"/>
+      <c r="BM4" s="352"/>
+      <c r="BN4" s="352"/>
+      <c r="BO4" s="352"/>
+      <c r="BP4" s="352"/>
+      <c r="BQ4" s="352"/>
+      <c r="BR4" s="352"/>
+      <c r="BS4" s="352"/>
+      <c r="BT4" s="352"/>
+      <c r="BU4" s="352"/>
+      <c r="BV4" s="352"/>
+      <c r="BW4" s="352"/>
+      <c r="BX4" s="352"/>
+      <c r="BY4" s="352"/>
+      <c r="BZ4" s="352"/>
+      <c r="CA4" s="352"/>
+      <c r="CB4" s="352"/>
+      <c r="CC4" s="352"/>
+      <c r="CD4" s="352"/>
+      <c r="CE4" s="352"/>
+      <c r="CF4" s="352"/>
+      <c r="CG4" s="352"/>
+      <c r="CH4" s="352"/>
+      <c r="CI4" s="352"/>
+      <c r="CJ4" s="352"/>
+      <c r="CK4" s="352"/>
+      <c r="CL4" s="352"/>
+      <c r="CM4" s="352"/>
+      <c r="CN4" s="352"/>
+      <c r="CO4" s="352"/>
+      <c r="CP4" s="352"/>
+      <c r="CQ4" s="352"/>
+      <c r="CR4" s="352"/>
+      <c r="CS4" s="352"/>
+      <c r="CT4" s="352"/>
+      <c r="CU4" s="352"/>
+      <c r="CV4" s="352"/>
+      <c r="CW4" s="352"/>
+      <c r="CX4" s="352"/>
+      <c r="CY4" s="352"/>
+      <c r="CZ4" s="352"/>
+      <c r="DA4" s="352"/>
+      <c r="DB4" s="352"/>
+      <c r="DC4" s="352"/>
+      <c r="DD4" s="352"/>
+      <c r="DE4" s="352"/>
+      <c r="DF4" s="353"/>
+      <c r="DG4" s="354"/>
+      <c r="DH4" s="355"/>
+      <c r="DI4" s="355"/>
+      <c r="DJ4" s="355"/>
+      <c r="DK4" s="355"/>
+      <c r="DL4" s="355"/>
+      <c r="DM4" s="355"/>
+      <c r="DN4" s="355"/>
+      <c r="DO4" s="355"/>
+      <c r="DP4" s="355"/>
+      <c r="DQ4" s="355"/>
+      <c r="DR4" s="355"/>
+      <c r="DS4" s="355"/>
+      <c r="DT4" s="355"/>
+      <c r="DU4" s="355"/>
+      <c r="DV4" s="355"/>
+      <c r="DW4" s="355"/>
+      <c r="DX4" s="355"/>
+      <c r="DY4" s="355"/>
+      <c r="DZ4" s="355"/>
+      <c r="EA4" s="355"/>
+      <c r="EB4" s="355"/>
+      <c r="EC4" s="355"/>
+      <c r="ED4" s="355"/>
+      <c r="EE4" s="355"/>
+      <c r="EF4" s="355"/>
+      <c r="EG4" s="355"/>
+      <c r="EH4" s="355"/>
+      <c r="EI4" s="355"/>
+      <c r="EJ4" s="355"/>
+      <c r="EK4" s="355"/>
+      <c r="EL4" s="355"/>
+      <c r="EM4" s="355"/>
+      <c r="EN4" s="355"/>
+      <c r="EO4" s="356"/>
       <c r="EP4" s="51"/>
     </row>
     <row r="5" spans="1:146" ht="16.2" thickTop="1">
-      <c r="A5" s="288" t="s">
+      <c r="A5" s="357" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="292" t="s">
+      <c r="B5" s="361" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="294"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="363"/>
       <c r="F5" s="52">
         <v>15</v>
       </c>
@@ -22705,10 +22716,10 @@
       <c r="J5" s="54">
         <v>15</v>
       </c>
-      <c r="K5" s="416">
+      <c r="K5" s="194">
         <v>15</v>
       </c>
-      <c r="L5" s="416">
+      <c r="L5" s="194">
         <v>15</v>
       </c>
       <c r="M5" s="56">
@@ -22726,10 +22737,10 @@
       <c r="Q5" s="58">
         <v>16</v>
       </c>
-      <c r="R5" s="416">
+      <c r="R5" s="194">
         <v>16</v>
       </c>
-      <c r="S5" s="416">
+      <c r="S5" s="194">
         <v>16</v>
       </c>
       <c r="T5" s="56">
@@ -22747,10 +22758,10 @@
       <c r="X5" s="58">
         <v>17</v>
       </c>
-      <c r="Y5" s="416">
+      <c r="Y5" s="194">
         <v>17</v>
       </c>
-      <c r="Z5" s="416">
+      <c r="Z5" s="194">
         <v>17</v>
       </c>
       <c r="AA5" s="56">
@@ -22768,10 +22779,10 @@
       <c r="AE5" s="58">
         <v>18</v>
       </c>
-      <c r="AF5" s="416">
+      <c r="AF5" s="194">
         <v>18</v>
       </c>
-      <c r="AG5" s="416">
+      <c r="AG5" s="194">
         <v>18</v>
       </c>
       <c r="AH5" s="56">
@@ -22789,10 +22800,10 @@
       <c r="AL5" s="58">
         <v>19</v>
       </c>
-      <c r="AM5" s="416">
+      <c r="AM5" s="194">
         <v>19</v>
       </c>
-      <c r="AN5" s="416">
+      <c r="AN5" s="194">
         <v>19</v>
       </c>
       <c r="AO5" s="56">
@@ -22810,10 +22821,10 @@
       <c r="AS5" s="58">
         <v>20</v>
       </c>
-      <c r="AT5" s="416">
+      <c r="AT5" s="194">
         <v>20</v>
       </c>
-      <c r="AU5" s="416">
+      <c r="AU5" s="194">
         <v>20</v>
       </c>
       <c r="AV5" s="56">
@@ -22831,10 +22842,10 @@
       <c r="AZ5" s="58">
         <v>21</v>
       </c>
-      <c r="BA5" s="416">
+      <c r="BA5" s="194">
         <v>21</v>
       </c>
-      <c r="BB5" s="416">
+      <c r="BB5" s="194">
         <v>21</v>
       </c>
       <c r="BC5" s="56">
@@ -23113,168 +23124,168 @@
       <c r="EP5" s="60"/>
     </row>
     <row r="6" spans="1:146" ht="15.6">
-      <c r="A6" s="289"/>
-      <c r="B6" s="295" t="s">
+      <c r="A6" s="358"/>
+      <c r="B6" s="364" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="296"/>
-      <c r="D6" s="296"/>
-      <c r="E6" s="297"/>
+      <c r="C6" s="365"/>
+      <c r="D6" s="365"/>
+      <c r="E6" s="366"/>
       <c r="F6" s="61"/>
       <c r="G6" s="62">
         <v>9</v>
       </c>
-      <c r="H6" s="412">
+      <c r="H6" s="190">
         <v>10</v>
       </c>
-      <c r="I6" s="412">
+      <c r="I6" s="190">
         <v>11</v>
       </c>
       <c r="J6" s="64">
         <v>12</v>
       </c>
-      <c r="K6" s="417">
+      <c r="K6" s="195">
         <v>13</v>
       </c>
-      <c r="L6" s="417">
+      <c r="L6" s="195">
         <v>14</v>
       </c>
-      <c r="M6" s="413">
+      <c r="M6" s="191">
         <v>15</v>
       </c>
-      <c r="N6" s="414">
+      <c r="N6" s="192">
         <v>16</v>
       </c>
-      <c r="O6" s="412">
+      <c r="O6" s="190">
         <v>17</v>
       </c>
-      <c r="P6" s="412">
+      <c r="P6" s="190">
         <v>18</v>
       </c>
-      <c r="Q6" s="415">
+      <c r="Q6" s="193">
         <v>19</v>
       </c>
-      <c r="R6" s="417">
+      <c r="R6" s="195">
         <v>20</v>
       </c>
-      <c r="S6" s="417">
+      <c r="S6" s="195">
         <v>21</v>
       </c>
-      <c r="T6" s="413">
+      <c r="T6" s="191">
         <v>22</v>
       </c>
-      <c r="U6" s="414">
+      <c r="U6" s="192">
         <v>23</v>
       </c>
-      <c r="V6" s="412">
+      <c r="V6" s="190">
         <v>24</v>
       </c>
-      <c r="W6" s="412">
+      <c r="W6" s="190">
         <v>25</v>
       </c>
-      <c r="X6" s="415">
+      <c r="X6" s="193">
         <v>26</v>
       </c>
-      <c r="Y6" s="417">
+      <c r="Y6" s="195">
         <v>27</v>
       </c>
-      <c r="Z6" s="417">
+      <c r="Z6" s="195">
         <v>28</v>
       </c>
-      <c r="AA6" s="413">
+      <c r="AA6" s="191">
         <v>29</v>
       </c>
-      <c r="AB6" s="414">
+      <c r="AB6" s="192">
         <v>30</v>
       </c>
-      <c r="AC6" s="412">
+      <c r="AC6" s="190">
         <v>1</v>
       </c>
-      <c r="AD6" s="412">
+      <c r="AD6" s="190">
         <v>2</v>
       </c>
-      <c r="AE6" s="415">
+      <c r="AE6" s="193">
         <v>3</v>
       </c>
-      <c r="AF6" s="417">
+      <c r="AF6" s="195">
         <v>4</v>
       </c>
-      <c r="AG6" s="417">
+      <c r="AG6" s="195">
         <v>5</v>
       </c>
-      <c r="AH6" s="413">
+      <c r="AH6" s="191">
         <v>6</v>
       </c>
-      <c r="AI6" s="414">
+      <c r="AI6" s="192">
         <v>7</v>
       </c>
-      <c r="AJ6" s="412">
+      <c r="AJ6" s="190">
         <v>8</v>
       </c>
-      <c r="AK6" s="412">
+      <c r="AK6" s="190">
         <v>9</v>
       </c>
-      <c r="AL6" s="415">
+      <c r="AL6" s="193">
         <v>10</v>
       </c>
-      <c r="AM6" s="417">
+      <c r="AM6" s="195">
         <v>11</v>
       </c>
-      <c r="AN6" s="417">
+      <c r="AN6" s="195">
         <v>12</v>
       </c>
-      <c r="AO6" s="413">
+      <c r="AO6" s="191">
         <v>13</v>
       </c>
-      <c r="AP6" s="414">
+      <c r="AP6" s="192">
         <v>14</v>
       </c>
-      <c r="AQ6" s="412">
+      <c r="AQ6" s="190">
         <v>15</v>
       </c>
-      <c r="AR6" s="412">
+      <c r="AR6" s="190">
         <v>16</v>
       </c>
-      <c r="AS6" s="415">
+      <c r="AS6" s="193">
         <v>17</v>
       </c>
-      <c r="AT6" s="417">
+      <c r="AT6" s="195">
         <v>18</v>
       </c>
-      <c r="AU6" s="417">
+      <c r="AU6" s="195">
         <v>19</v>
       </c>
-      <c r="AV6" s="413">
+      <c r="AV6" s="191">
         <v>20</v>
       </c>
-      <c r="AW6" s="414">
+      <c r="AW6" s="192">
         <v>21</v>
       </c>
-      <c r="AX6" s="412">
+      <c r="AX6" s="190">
         <v>22</v>
       </c>
-      <c r="AY6" s="412">
+      <c r="AY6" s="190">
         <v>23</v>
       </c>
-      <c r="AZ6" s="415">
+      <c r="AZ6" s="193">
         <v>24</v>
       </c>
-      <c r="BA6" s="417">
+      <c r="BA6" s="195">
         <v>25</v>
       </c>
-      <c r="BB6" s="417">
+      <c r="BB6" s="195">
         <v>26</v>
       </c>
-      <c r="BC6" s="413">
+      <c r="BC6" s="191">
         <v>27</v>
       </c>
-      <c r="BD6" s="414">
+      <c r="BD6" s="192">
         <v>28</v>
       </c>
-      <c r="BE6" s="412">
+      <c r="BE6" s="190">
         <v>29</v>
       </c>
-      <c r="BF6" s="413">
+      <c r="BF6" s="191">
         <v>27</v>
       </c>
       <c r="BG6" s="66">
@@ -23541,13 +23552,13 @@
       <c r="EP6" s="60"/>
     </row>
     <row r="7" spans="1:146" ht="16.2" thickBot="1">
-      <c r="A7" s="290"/>
-      <c r="B7" s="298" t="s">
+      <c r="A7" s="359"/>
+      <c r="B7" s="367" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="299"/>
-      <c r="D7" s="299"/>
-      <c r="E7" s="300"/>
+      <c r="C7" s="368"/>
+      <c r="D7" s="368"/>
+      <c r="E7" s="369"/>
       <c r="F7" s="68" t="s">
         <v>45</v>
       </c>
@@ -23626,10 +23637,10 @@
       <c r="AE7" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="AF7" s="418" t="s">
+      <c r="AF7" s="196" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="418" t="s">
+      <c r="AG7" s="196" t="s">
         <v>47</v>
       </c>
       <c r="AH7" s="68" t="s">
@@ -23971,7 +23982,7 @@
       <c r="EP7" s="60"/>
     </row>
     <row r="8" spans="1:146" ht="16.2" thickBot="1">
-      <c r="A8" s="291"/>
+      <c r="A8" s="360"/>
       <c r="B8" s="71" t="s">
         <v>49</v>
       </c>
@@ -24127,59 +24138,59 @@
       <c r="EP8" s="60"/>
     </row>
     <row r="9" spans="1:146" ht="15" customHeight="1">
-      <c r="A9" s="338" t="s">
+      <c r="A9" s="348" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="340" t="s">
+      <c r="B9" s="335" t="s">
         <v>344</v>
       </c>
-      <c r="C9" s="342"/>
-      <c r="D9" s="344">
+      <c r="C9" s="337"/>
+      <c r="D9" s="339">
         <v>35</v>
       </c>
-      <c r="E9" s="346">
+      <c r="E9" s="341">
         <v>32</v>
       </c>
       <c r="F9" s="79"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="434"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175"/>
-      <c r="M9" s="435"/>
-      <c r="N9" s="176"/>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="176"/>
-      <c r="U9" s="176"/>
-      <c r="V9" s="176"/>
-      <c r="W9" s="176"/>
-      <c r="X9" s="176"/>
-      <c r="Y9" s="175"/>
-      <c r="Z9" s="175"/>
-      <c r="AA9" s="176"/>
-      <c r="AB9" s="176"/>
-      <c r="AC9" s="176"/>
-      <c r="AD9" s="176"/>
-      <c r="AE9" s="176"/>
-      <c r="AF9" s="175"/>
-      <c r="AG9" s="175"/>
-      <c r="AH9" s="176"/>
-      <c r="AI9" s="176"/>
-      <c r="AJ9" s="176"/>
-      <c r="AK9" s="176"/>
-      <c r="AL9" s="176"/>
-      <c r="AM9" s="408"/>
-      <c r="AN9" s="408"/>
-      <c r="AO9" s="409"/>
-      <c r="AP9" s="409"/>
-      <c r="AQ9" s="409"/>
-      <c r="AR9" s="409"/>
-      <c r="AS9" s="409"/>
+      <c r="G9" s="448"/>
+      <c r="H9" s="448"/>
+      <c r="I9" s="448"/>
+      <c r="J9" s="449"/>
+      <c r="K9" s="450"/>
+      <c r="L9" s="450"/>
+      <c r="M9" s="451"/>
+      <c r="N9" s="448"/>
+      <c r="O9" s="448"/>
+      <c r="P9" s="448"/>
+      <c r="Q9" s="448"/>
+      <c r="R9" s="450"/>
+      <c r="S9" s="450"/>
+      <c r="T9" s="448"/>
+      <c r="U9" s="448"/>
+      <c r="V9" s="448"/>
+      <c r="W9" s="448"/>
+      <c r="X9" s="448"/>
+      <c r="Y9" s="450"/>
+      <c r="Z9" s="450"/>
+      <c r="AA9" s="448"/>
+      <c r="AB9" s="448"/>
+      <c r="AC9" s="448"/>
+      <c r="AD9" s="448"/>
+      <c r="AE9" s="448"/>
+      <c r="AF9" s="450"/>
+      <c r="AG9" s="450"/>
+      <c r="AH9" s="448"/>
+      <c r="AI9" s="448"/>
+      <c r="AJ9" s="448"/>
+      <c r="AK9" s="448"/>
+      <c r="AL9" s="448"/>
+      <c r="AM9" s="186"/>
+      <c r="AN9" s="186"/>
+      <c r="AO9" s="187"/>
+      <c r="AP9" s="187"/>
+      <c r="AQ9" s="187"/>
+      <c r="AR9" s="187"/>
+      <c r="AS9" s="187"/>
       <c r="AT9" s="82"/>
       <c r="AU9" s="82"/>
       <c r="AV9" s="80"/>
@@ -24283,51 +24294,51 @@
       <c r="EP9" s="43"/>
     </row>
     <row r="10" spans="1:146" ht="15" customHeight="1">
-      <c r="A10" s="339"/>
-      <c r="B10" s="341"/>
-      <c r="C10" s="343"/>
-      <c r="D10" s="345"/>
-      <c r="E10" s="347"/>
+      <c r="A10" s="325"/>
+      <c r="B10" s="320"/>
+      <c r="C10" s="321"/>
+      <c r="D10" s="322"/>
+      <c r="E10" s="323"/>
       <c r="F10" s="85"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="436"/>
-      <c r="K10" s="177"/>
-      <c r="L10" s="177"/>
-      <c r="M10" s="437"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="178"/>
-      <c r="P10" s="178"/>
-      <c r="Q10" s="178"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="177"/>
-      <c r="T10" s="178"/>
-      <c r="U10" s="178"/>
-      <c r="V10" s="178"/>
-      <c r="W10" s="178"/>
-      <c r="X10" s="178"/>
-      <c r="Y10" s="177"/>
-      <c r="Z10" s="177"/>
-      <c r="AA10" s="178"/>
-      <c r="AB10" s="178"/>
-      <c r="AC10" s="178"/>
-      <c r="AD10" s="178"/>
-      <c r="AE10" s="178"/>
-      <c r="AF10" s="177"/>
-      <c r="AG10" s="177"/>
-      <c r="AH10" s="178"/>
-      <c r="AI10" s="178"/>
-      <c r="AJ10" s="178"/>
-      <c r="AK10" s="178"/>
-      <c r="AL10" s="178"/>
-      <c r="AM10" s="410"/>
-      <c r="AN10" s="410"/>
-      <c r="AO10" s="411"/>
-      <c r="AP10" s="411"/>
-      <c r="AQ10" s="411"/>
-      <c r="AR10" s="411"/>
-      <c r="AS10" s="411"/>
+      <c r="G10" s="452"/>
+      <c r="H10" s="452"/>
+      <c r="I10" s="452"/>
+      <c r="J10" s="453"/>
+      <c r="K10" s="454"/>
+      <c r="L10" s="454"/>
+      <c r="M10" s="455"/>
+      <c r="N10" s="452"/>
+      <c r="O10" s="452"/>
+      <c r="P10" s="452"/>
+      <c r="Q10" s="452"/>
+      <c r="R10" s="454"/>
+      <c r="S10" s="454"/>
+      <c r="T10" s="452"/>
+      <c r="U10" s="452"/>
+      <c r="V10" s="452"/>
+      <c r="W10" s="452"/>
+      <c r="X10" s="452"/>
+      <c r="Y10" s="454"/>
+      <c r="Z10" s="454"/>
+      <c r="AA10" s="452"/>
+      <c r="AB10" s="452"/>
+      <c r="AC10" s="452"/>
+      <c r="AD10" s="452"/>
+      <c r="AE10" s="452"/>
+      <c r="AF10" s="454"/>
+      <c r="AG10" s="454"/>
+      <c r="AH10" s="452"/>
+      <c r="AI10" s="452"/>
+      <c r="AJ10" s="452"/>
+      <c r="AK10" s="452"/>
+      <c r="AL10" s="452"/>
+      <c r="AM10" s="188"/>
+      <c r="AN10" s="188"/>
+      <c r="AO10" s="189"/>
+      <c r="AP10" s="189"/>
+      <c r="AQ10" s="189"/>
+      <c r="AR10" s="189"/>
+      <c r="AS10" s="189"/>
       <c r="AT10" s="88"/>
       <c r="AU10" s="88"/>
       <c r="AV10" s="86"/>
@@ -24431,17 +24442,17 @@
       <c r="EP10" s="43"/>
     </row>
     <row r="11" spans="1:146" ht="15" customHeight="1">
-      <c r="A11" s="430" t="s">
+      <c r="A11" s="349" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="340" t="s">
+      <c r="B11" s="335" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="342"/>
-      <c r="D11" s="344">
+      <c r="C11" s="337"/>
+      <c r="D11" s="339">
         <v>8</v>
       </c>
-      <c r="E11" s="346">
+      <c r="E11" s="341">
         <v>3</v>
       </c>
       <c r="F11" s="79"/>
@@ -24484,13 +24495,13 @@
       <c r="AQ11" s="80"/>
       <c r="AR11" s="80"/>
       <c r="AS11" s="80"/>
-      <c r="AT11" s="419"/>
-      <c r="AU11" s="419"/>
-      <c r="AV11" s="409"/>
-      <c r="AW11" s="409"/>
-      <c r="AX11" s="409"/>
-      <c r="AY11" s="409"/>
-      <c r="AZ11" s="409"/>
+      <c r="AT11" s="197"/>
+      <c r="AU11" s="197"/>
+      <c r="AV11" s="187"/>
+      <c r="AW11" s="187"/>
+      <c r="AX11" s="187"/>
+      <c r="AY11" s="187"/>
+      <c r="AZ11" s="187"/>
       <c r="BA11" s="82"/>
       <c r="BB11" s="82"/>
       <c r="BC11" s="80"/>
@@ -24587,11 +24598,11 @@
       <c r="EP11" s="43"/>
     </row>
     <row r="12" spans="1:146" ht="15" customHeight="1">
-      <c r="A12" s="431"/>
-      <c r="B12" s="341"/>
-      <c r="C12" s="343"/>
-      <c r="D12" s="345"/>
-      <c r="E12" s="347"/>
+      <c r="A12" s="350"/>
+      <c r="B12" s="320"/>
+      <c r="C12" s="321"/>
+      <c r="D12" s="322"/>
+      <c r="E12" s="323"/>
       <c r="F12" s="85"/>
       <c r="G12" s="86"/>
       <c r="H12" s="86"/>
@@ -24632,13 +24643,13 @@
       <c r="AQ12" s="86"/>
       <c r="AR12" s="86"/>
       <c r="AS12" s="86"/>
-      <c r="AT12" s="420"/>
-      <c r="AU12" s="420"/>
-      <c r="AV12" s="411"/>
-      <c r="AW12" s="411"/>
-      <c r="AX12" s="411"/>
-      <c r="AY12" s="411"/>
-      <c r="AZ12" s="411"/>
+      <c r="AT12" s="198"/>
+      <c r="AU12" s="198"/>
+      <c r="AV12" s="189"/>
+      <c r="AW12" s="189"/>
+      <c r="AX12" s="189"/>
+      <c r="AY12" s="189"/>
+      <c r="AZ12" s="189"/>
       <c r="BA12" s="88"/>
       <c r="BB12" s="88"/>
       <c r="BC12" s="86"/>
@@ -24735,17 +24746,17 @@
       <c r="EP12" s="43"/>
     </row>
     <row r="13" spans="1:146" ht="15" customHeight="1">
-      <c r="A13" s="423" t="s">
+      <c r="A13" s="344" t="s">
         <v>275</v>
       </c>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="311" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="350">
+      <c r="C13" s="313"/>
+      <c r="D13" s="315">
         <v>14</v>
       </c>
-      <c r="E13" s="351">
+      <c r="E13" s="317">
         <v>6</v>
       </c>
       <c r="F13" s="91"/>
@@ -24784,17 +24795,17 @@
       <c r="AM13" s="94"/>
       <c r="AN13" s="94"/>
       <c r="AO13" s="92"/>
-      <c r="AP13" s="440"/>
-      <c r="AQ13" s="440"/>
-      <c r="AR13" s="440"/>
-      <c r="AS13" s="440"/>
-      <c r="AT13" s="441"/>
-      <c r="AU13" s="441"/>
-      <c r="AV13" s="421"/>
-      <c r="AW13" s="421"/>
-      <c r="AX13" s="421"/>
-      <c r="AY13" s="421"/>
-      <c r="AZ13" s="421"/>
+      <c r="AP13" s="207"/>
+      <c r="AQ13" s="207"/>
+      <c r="AR13" s="207"/>
+      <c r="AS13" s="207"/>
+      <c r="AT13" s="208"/>
+      <c r="AU13" s="208"/>
+      <c r="AV13" s="199"/>
+      <c r="AW13" s="199"/>
+      <c r="AX13" s="199"/>
+      <c r="AY13" s="199"/>
+      <c r="AZ13" s="199"/>
       <c r="BA13" s="94"/>
       <c r="BB13" s="94"/>
       <c r="BC13" s="92"/>
@@ -24891,11 +24902,11 @@
       <c r="EP13" s="43"/>
     </row>
     <row r="14" spans="1:146" ht="15" customHeight="1">
-      <c r="A14" s="424"/>
-      <c r="B14" s="341"/>
-      <c r="C14" s="343"/>
-      <c r="D14" s="345"/>
-      <c r="E14" s="347"/>
+      <c r="A14" s="345"/>
+      <c r="B14" s="320"/>
+      <c r="C14" s="321"/>
+      <c r="D14" s="322"/>
+      <c r="E14" s="323"/>
       <c r="F14" s="85"/>
       <c r="G14" s="86"/>
       <c r="H14" s="86"/>
@@ -24932,17 +24943,17 @@
       <c r="AM14" s="88"/>
       <c r="AN14" s="88"/>
       <c r="AO14" s="86"/>
-      <c r="AP14" s="442"/>
-      <c r="AQ14" s="442"/>
-      <c r="AR14" s="442"/>
-      <c r="AS14" s="442"/>
-      <c r="AT14" s="443"/>
-      <c r="AU14" s="443"/>
-      <c r="AV14" s="411"/>
-      <c r="AW14" s="411"/>
-      <c r="AX14" s="411"/>
-      <c r="AY14" s="411"/>
-      <c r="AZ14" s="411"/>
+      <c r="AP14" s="209"/>
+      <c r="AQ14" s="209"/>
+      <c r="AR14" s="209"/>
+      <c r="AS14" s="209"/>
+      <c r="AT14" s="210"/>
+      <c r="AU14" s="210"/>
+      <c r="AV14" s="189"/>
+      <c r="AW14" s="189"/>
+      <c r="AX14" s="189"/>
+      <c r="AY14" s="189"/>
+      <c r="AZ14" s="189"/>
       <c r="BA14" s="88"/>
       <c r="BB14" s="88"/>
       <c r="BC14" s="86"/>
@@ -25039,17 +25050,17 @@
       <c r="EP14" s="43"/>
     </row>
     <row r="15" spans="1:146" ht="15" customHeight="1">
-      <c r="A15" s="352" t="s">
+      <c r="A15" s="346" t="s">
         <v>277</v>
       </c>
-      <c r="B15" s="348" t="s">
+      <c r="B15" s="311" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="349"/>
-      <c r="D15" s="350">
+      <c r="C15" s="313"/>
+      <c r="D15" s="315">
         <v>12</v>
       </c>
-      <c r="E15" s="351">
+      <c r="E15" s="317">
         <v>4</v>
       </c>
       <c r="F15" s="91"/>
@@ -25088,17 +25099,17 @@
       <c r="AM15" s="94"/>
       <c r="AN15" s="94"/>
       <c r="AO15" s="92"/>
-      <c r="AP15" s="421"/>
-      <c r="AQ15" s="421"/>
-      <c r="AR15" s="421"/>
-      <c r="AS15" s="421"/>
-      <c r="AT15" s="422"/>
-      <c r="AU15" s="422"/>
-      <c r="AV15" s="444"/>
-      <c r="AW15" s="444"/>
-      <c r="AX15" s="444"/>
-      <c r="AY15" s="444"/>
-      <c r="AZ15" s="421"/>
+      <c r="AP15" s="199"/>
+      <c r="AQ15" s="199"/>
+      <c r="AR15" s="199"/>
+      <c r="AS15" s="199"/>
+      <c r="AT15" s="200"/>
+      <c r="AU15" s="200"/>
+      <c r="AV15" s="211"/>
+      <c r="AW15" s="211"/>
+      <c r="AX15" s="211"/>
+      <c r="AY15" s="211"/>
+      <c r="AZ15" s="199"/>
       <c r="BA15" s="94"/>
       <c r="BB15" s="94"/>
       <c r="BC15" s="92"/>
@@ -25195,11 +25206,11 @@
       <c r="EP15" s="43"/>
     </row>
     <row r="16" spans="1:146" ht="15" customHeight="1">
-      <c r="A16" s="353"/>
-      <c r="B16" s="341"/>
-      <c r="C16" s="343"/>
-      <c r="D16" s="345"/>
-      <c r="E16" s="347"/>
+      <c r="A16" s="347"/>
+      <c r="B16" s="320"/>
+      <c r="C16" s="321"/>
+      <c r="D16" s="322"/>
+      <c r="E16" s="323"/>
       <c r="F16" s="85"/>
       <c r="G16" s="86"/>
       <c r="H16" s="86"/>
@@ -25236,17 +25247,17 @@
       <c r="AM16" s="88"/>
       <c r="AN16" s="88"/>
       <c r="AO16" s="86"/>
-      <c r="AP16" s="411"/>
-      <c r="AQ16" s="411"/>
-      <c r="AR16" s="411"/>
-      <c r="AS16" s="411"/>
-      <c r="AT16" s="420"/>
-      <c r="AU16" s="420"/>
-      <c r="AV16" s="445"/>
-      <c r="AW16" s="445"/>
-      <c r="AX16" s="445"/>
-      <c r="AY16" s="445"/>
-      <c r="AZ16" s="411"/>
+      <c r="AP16" s="189"/>
+      <c r="AQ16" s="189"/>
+      <c r="AR16" s="189"/>
+      <c r="AS16" s="189"/>
+      <c r="AT16" s="198"/>
+      <c r="AU16" s="198"/>
+      <c r="AV16" s="212"/>
+      <c r="AW16" s="212"/>
+      <c r="AX16" s="212"/>
+      <c r="AY16" s="212"/>
+      <c r="AZ16" s="189"/>
       <c r="BA16" s="88"/>
       <c r="BB16" s="88"/>
       <c r="BC16" s="86"/>
@@ -25343,17 +25354,17 @@
       <c r="EP16" s="43"/>
     </row>
     <row r="17" spans="1:146" ht="15" customHeight="1">
-      <c r="A17" s="354" t="s">
+      <c r="A17" s="332" t="s">
         <v>276</v>
       </c>
-      <c r="B17" s="356" t="s">
+      <c r="B17" s="334" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="357"/>
-      <c r="D17" s="358">
+      <c r="C17" s="336"/>
+      <c r="D17" s="338">
         <v>4</v>
       </c>
-      <c r="E17" s="359">
+      <c r="E17" s="340">
         <v>1</v>
       </c>
       <c r="F17" s="91"/>
@@ -25398,25 +25409,25 @@
       <c r="AS17" s="92"/>
       <c r="AT17" s="94"/>
       <c r="AU17" s="94"/>
-      <c r="AV17" s="421"/>
+      <c r="AV17" s="199"/>
       <c r="AW17" s="92"/>
       <c r="AX17" s="92"/>
       <c r="AY17" s="92"/>
-      <c r="AZ17" s="444"/>
-      <c r="BA17" s="422"/>
-      <c r="BB17" s="422"/>
-      <c r="BC17" s="421"/>
-      <c r="BD17" s="421"/>
-      <c r="BE17" s="421"/>
-      <c r="BF17" s="421"/>
-      <c r="BG17" s="421"/>
-      <c r="BH17" s="422"/>
-      <c r="BI17" s="422"/>
-      <c r="BJ17" s="421"/>
-      <c r="BK17" s="421"/>
-      <c r="BL17" s="421"/>
-      <c r="BM17" s="421"/>
-      <c r="BN17" s="421"/>
+      <c r="AZ17" s="211"/>
+      <c r="BA17" s="200"/>
+      <c r="BB17" s="200"/>
+      <c r="BC17" s="199"/>
+      <c r="BD17" s="199"/>
+      <c r="BE17" s="199"/>
+      <c r="BF17" s="199"/>
+      <c r="BG17" s="199"/>
+      <c r="BH17" s="200"/>
+      <c r="BI17" s="200"/>
+      <c r="BJ17" s="199"/>
+      <c r="BK17" s="199"/>
+      <c r="BL17" s="199"/>
+      <c r="BM17" s="199"/>
+      <c r="BN17" s="199"/>
       <c r="BO17" s="94"/>
       <c r="BP17" s="94"/>
       <c r="BQ17" s="92"/>
@@ -25499,11 +25510,11 @@
       <c r="EP17" s="43"/>
     </row>
     <row r="18" spans="1:146" ht="15" customHeight="1">
-      <c r="A18" s="355"/>
-      <c r="B18" s="340"/>
-      <c r="C18" s="342"/>
-      <c r="D18" s="344"/>
-      <c r="E18" s="346"/>
+      <c r="A18" s="333"/>
+      <c r="B18" s="335"/>
+      <c r="C18" s="337"/>
+      <c r="D18" s="339"/>
+      <c r="E18" s="341"/>
       <c r="F18" s="85"/>
       <c r="G18" s="86"/>
       <c r="H18" s="86"/>
@@ -25546,25 +25557,25 @@
       <c r="AS18" s="86"/>
       <c r="AT18" s="88"/>
       <c r="AU18" s="88"/>
-      <c r="AV18" s="411"/>
+      <c r="AV18" s="189"/>
       <c r="AW18" s="86"/>
       <c r="AX18" s="86"/>
       <c r="AY18" s="86"/>
-      <c r="AZ18" s="445"/>
-      <c r="BA18" s="420"/>
-      <c r="BB18" s="420"/>
-      <c r="BC18" s="411"/>
-      <c r="BD18" s="411"/>
-      <c r="BE18" s="411"/>
-      <c r="BF18" s="411"/>
-      <c r="BG18" s="411"/>
-      <c r="BH18" s="420"/>
-      <c r="BI18" s="420"/>
-      <c r="BJ18" s="411"/>
-      <c r="BK18" s="411"/>
-      <c r="BL18" s="411"/>
-      <c r="BM18" s="411"/>
-      <c r="BN18" s="411"/>
+      <c r="AZ18" s="212"/>
+      <c r="BA18" s="198"/>
+      <c r="BB18" s="198"/>
+      <c r="BC18" s="189"/>
+      <c r="BD18" s="189"/>
+      <c r="BE18" s="189"/>
+      <c r="BF18" s="189"/>
+      <c r="BG18" s="189"/>
+      <c r="BH18" s="198"/>
+      <c r="BI18" s="198"/>
+      <c r="BJ18" s="189"/>
+      <c r="BK18" s="189"/>
+      <c r="BL18" s="189"/>
+      <c r="BM18" s="189"/>
+      <c r="BN18" s="189"/>
       <c r="BO18" s="88"/>
       <c r="BP18" s="88"/>
       <c r="BQ18" s="86"/>
@@ -25647,17 +25658,17 @@
       <c r="EP18" s="43"/>
     </row>
     <row r="19" spans="1:146" ht="15" customHeight="1">
-      <c r="A19" s="360" t="s">
+      <c r="A19" s="342" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="348" t="s">
+      <c r="B19" s="311" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="349"/>
-      <c r="D19" s="350">
+      <c r="C19" s="313"/>
+      <c r="D19" s="315">
         <v>3</v>
       </c>
-      <c r="E19" s="351">
+      <c r="E19" s="317">
         <v>1</v>
       </c>
       <c r="F19" s="91"/>
@@ -25703,31 +25714,31 @@
       <c r="AT19" s="94"/>
       <c r="AU19" s="94"/>
       <c r="AV19" s="92"/>
-      <c r="AW19" s="411"/>
+      <c r="AW19" s="189"/>
       <c r="AX19" s="92"/>
       <c r="AY19" s="92"/>
       <c r="AZ19" s="92"/>
-      <c r="BA19" s="439"/>
+      <c r="BA19" s="206"/>
       <c r="BB19" s="94"/>
       <c r="BC19" s="92"/>
       <c r="BD19" s="92"/>
       <c r="BE19" s="92"/>
       <c r="BF19" s="92"/>
       <c r="BG19" s="92"/>
-      <c r="BH19" s="422"/>
-      <c r="BI19" s="422"/>
+      <c r="BH19" s="200"/>
+      <c r="BI19" s="200"/>
       <c r="BJ19" s="92"/>
       <c r="BK19" s="92"/>
       <c r="BL19" s="92"/>
       <c r="BM19" s="92"/>
       <c r="BN19" s="92"/>
-      <c r="BO19" s="422"/>
-      <c r="BP19" s="422"/>
-      <c r="BQ19" s="421"/>
-      <c r="BR19" s="421"/>
-      <c r="BS19" s="421"/>
-      <c r="BT19" s="421"/>
-      <c r="BU19" s="421"/>
+      <c r="BO19" s="200"/>
+      <c r="BP19" s="200"/>
+      <c r="BQ19" s="199"/>
+      <c r="BR19" s="199"/>
+      <c r="BS19" s="199"/>
+      <c r="BT19" s="199"/>
+      <c r="BU19" s="199"/>
       <c r="BV19" s="94"/>
       <c r="BW19" s="94"/>
       <c r="BX19" s="92"/>
@@ -25803,11 +25814,11 @@
       <c r="EP19" s="43"/>
     </row>
     <row r="20" spans="1:146" ht="15" customHeight="1">
-      <c r="A20" s="361"/>
-      <c r="B20" s="341"/>
-      <c r="C20" s="343"/>
-      <c r="D20" s="345"/>
-      <c r="E20" s="347"/>
+      <c r="A20" s="343"/>
+      <c r="B20" s="320"/>
+      <c r="C20" s="321"/>
+      <c r="D20" s="322"/>
+      <c r="E20" s="323"/>
       <c r="F20" s="85"/>
       <c r="G20" s="86"/>
       <c r="H20" s="86"/>
@@ -25851,7 +25862,7 @@
       <c r="AT20" s="88"/>
       <c r="AU20" s="88"/>
       <c r="AV20" s="86"/>
-      <c r="AW20" s="411"/>
+      <c r="AW20" s="189"/>
       <c r="AX20" s="86"/>
       <c r="AY20" s="86"/>
       <c r="AZ20" s="86"/>
@@ -25869,15 +25880,15 @@
       <c r="BL20" s="86"/>
       <c r="BM20" s="86"/>
       <c r="BN20" s="86"/>
-      <c r="BO20" s="420"/>
-      <c r="BP20" s="420"/>
-      <c r="BQ20" s="411"/>
-      <c r="BR20" s="411"/>
-      <c r="BS20" s="411"/>
-      <c r="BT20" s="411"/>
-      <c r="BU20" s="411"/>
-      <c r="BV20" s="420"/>
-      <c r="BW20" s="420"/>
+      <c r="BO20" s="198"/>
+      <c r="BP20" s="198"/>
+      <c r="BQ20" s="189"/>
+      <c r="BR20" s="189"/>
+      <c r="BS20" s="189"/>
+      <c r="BT20" s="189"/>
+      <c r="BU20" s="189"/>
+      <c r="BV20" s="198"/>
+      <c r="BW20" s="198"/>
       <c r="BX20" s="86"/>
       <c r="BY20" s="86"/>
       <c r="BZ20" s="86"/>
@@ -25951,17 +25962,17 @@
       <c r="EP20" s="43"/>
     </row>
     <row r="21" spans="1:146" ht="15" customHeight="1">
-      <c r="A21" s="362" t="s">
+      <c r="A21" s="328" t="s">
         <v>340</v>
       </c>
-      <c r="B21" s="348" t="s">
+      <c r="B21" s="311" t="s">
         <v>345</v>
       </c>
-      <c r="C21" s="349"/>
-      <c r="D21" s="350">
+      <c r="C21" s="313"/>
+      <c r="D21" s="315">
         <v>6</v>
       </c>
-      <c r="E21" s="351">
+      <c r="E21" s="317">
         <v>2</v>
       </c>
       <c r="F21" s="91"/>
@@ -26008,12 +26019,12 @@
       <c r="AU21" s="94"/>
       <c r="AV21" s="92"/>
       <c r="AW21" s="92"/>
-      <c r="AX21" s="421"/>
-      <c r="AY21" s="421"/>
+      <c r="AX21" s="199"/>
+      <c r="AY21" s="199"/>
       <c r="AZ21" s="92"/>
       <c r="BA21" s="94"/>
-      <c r="BB21" s="439"/>
-      <c r="BC21" s="438"/>
+      <c r="BB21" s="206"/>
+      <c r="BC21" s="205"/>
       <c r="BD21" s="92"/>
       <c r="BE21" s="92"/>
       <c r="BF21" s="92"/>
@@ -26032,13 +26043,13 @@
       <c r="BS21" s="92"/>
       <c r="BT21" s="92"/>
       <c r="BU21" s="92"/>
-      <c r="BV21" s="422"/>
-      <c r="BW21" s="422"/>
-      <c r="BX21" s="421"/>
-      <c r="BY21" s="421"/>
-      <c r="BZ21" s="421"/>
-      <c r="CA21" s="421"/>
-      <c r="CB21" s="421"/>
+      <c r="BV21" s="200"/>
+      <c r="BW21" s="200"/>
+      <c r="BX21" s="199"/>
+      <c r="BY21" s="199"/>
+      <c r="BZ21" s="199"/>
+      <c r="CA21" s="199"/>
+      <c r="CB21" s="199"/>
       <c r="CC21" s="94"/>
       <c r="CD21" s="94"/>
       <c r="CE21" s="92"/>
@@ -26107,18 +26118,18 @@
       <c r="EP21" s="43"/>
     </row>
     <row r="22" spans="1:146" ht="15" customHeight="1">
-      <c r="A22" s="363"/>
-      <c r="B22" s="341"/>
-      <c r="C22" s="343"/>
-      <c r="D22" s="345"/>
-      <c r="E22" s="347"/>
+      <c r="A22" s="329"/>
+      <c r="B22" s="320"/>
+      <c r="C22" s="321"/>
+      <c r="D22" s="322"/>
+      <c r="E22" s="323"/>
       <c r="F22" s="85"/>
       <c r="G22" s="86"/>
       <c r="H22" s="86"/>
       <c r="I22" s="86"/>
       <c r="J22" s="87"/>
-      <c r="K22" s="420"/>
-      <c r="L22" s="420"/>
+      <c r="K22" s="198"/>
+      <c r="L22" s="198"/>
       <c r="M22" s="89"/>
       <c r="N22" s="86"/>
       <c r="O22" s="86"/>
@@ -26131,33 +26142,33 @@
       <c r="V22" s="86"/>
       <c r="W22" s="86"/>
       <c r="X22" s="86"/>
-      <c r="Y22" s="420"/>
-      <c r="Z22" s="420"/>
+      <c r="Y22" s="198"/>
+      <c r="Z22" s="198"/>
       <c r="AA22" s="86"/>
       <c r="AB22" s="86"/>
       <c r="AC22" s="86"/>
       <c r="AD22" s="86"/>
       <c r="AE22" s="86"/>
-      <c r="AF22" s="420"/>
-      <c r="AG22" s="420"/>
+      <c r="AF22" s="198"/>
+      <c r="AG22" s="198"/>
       <c r="AH22" s="86"/>
       <c r="AI22" s="86"/>
       <c r="AJ22" s="86"/>
       <c r="AK22" s="86"/>
       <c r="AL22" s="86"/>
-      <c r="AM22" s="420"/>
-      <c r="AN22" s="420"/>
+      <c r="AM22" s="198"/>
+      <c r="AN22" s="198"/>
       <c r="AO22" s="86"/>
       <c r="AP22" s="86"/>
       <c r="AQ22" s="86"/>
       <c r="AR22" s="86"/>
       <c r="AS22" s="86"/>
-      <c r="AT22" s="420"/>
-      <c r="AU22" s="420"/>
+      <c r="AT22" s="198"/>
+      <c r="AU22" s="198"/>
       <c r="AV22" s="86"/>
       <c r="AW22" s="86"/>
-      <c r="AX22" s="411"/>
-      <c r="AY22" s="411"/>
+      <c r="AX22" s="189"/>
+      <c r="AY22" s="189"/>
       <c r="AZ22" s="86"/>
       <c r="BA22" s="88"/>
       <c r="BB22" s="177"/>
@@ -26180,22 +26191,22 @@
       <c r="BS22" s="86"/>
       <c r="BT22" s="86"/>
       <c r="BU22" s="86"/>
-      <c r="BV22" s="420"/>
-      <c r="BW22" s="420"/>
-      <c r="BX22" s="411"/>
-      <c r="BY22" s="411"/>
-      <c r="BZ22" s="411"/>
-      <c r="CA22" s="411"/>
-      <c r="CB22" s="411"/>
-      <c r="CC22" s="420"/>
-      <c r="CD22" s="420"/>
+      <c r="BV22" s="198"/>
+      <c r="BW22" s="198"/>
+      <c r="BX22" s="189"/>
+      <c r="BY22" s="189"/>
+      <c r="BZ22" s="189"/>
+      <c r="CA22" s="189"/>
+      <c r="CB22" s="189"/>
+      <c r="CC22" s="198"/>
+      <c r="CD22" s="198"/>
       <c r="CE22" s="86"/>
       <c r="CF22" s="86"/>
       <c r="CG22" s="86"/>
       <c r="CH22" s="86"/>
       <c r="CI22" s="86"/>
-      <c r="CJ22" s="420"/>
-      <c r="CK22" s="420"/>
+      <c r="CJ22" s="198"/>
+      <c r="CK22" s="198"/>
       <c r="CL22" s="86"/>
       <c r="CM22" s="86"/>
       <c r="CN22" s="86"/>
@@ -26255,108 +26266,108 @@
       <c r="EP22" s="43"/>
     </row>
     <row r="23" spans="1:146" ht="15" customHeight="1">
-      <c r="A23" s="364" t="s">
+      <c r="A23" s="330" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="348" t="s">
+      <c r="B23" s="311" t="s">
         <v>344</v>
       </c>
-      <c r="C23" s="349"/>
-      <c r="D23" s="350">
+      <c r="C23" s="313"/>
+      <c r="D23" s="315">
         <v>25</v>
       </c>
-      <c r="E23" s="351">
+      <c r="E23" s="317">
         <v>10</v>
       </c>
       <c r="F23" s="91"/>
       <c r="G23" s="92"/>
       <c r="H23" s="92"/>
-      <c r="I23" s="421"/>
-      <c r="J23" s="425"/>
-      <c r="K23" s="422"/>
-      <c r="L23" s="422"/>
-      <c r="M23" s="426"/>
-      <c r="N23" s="421"/>
-      <c r="O23" s="421"/>
-      <c r="P23" s="421"/>
-      <c r="Q23" s="421"/>
-      <c r="R23" s="422"/>
-      <c r="S23" s="422"/>
-      <c r="T23" s="421"/>
-      <c r="U23" s="421"/>
-      <c r="V23" s="421"/>
-      <c r="W23" s="421"/>
-      <c r="X23" s="421"/>
-      <c r="Y23" s="422"/>
-      <c r="Z23" s="422"/>
-      <c r="AA23" s="421"/>
-      <c r="AB23" s="421"/>
-      <c r="AC23" s="421"/>
-      <c r="AD23" s="421"/>
-      <c r="AE23" s="421"/>
-      <c r="AF23" s="422"/>
-      <c r="AG23" s="422"/>
-      <c r="AH23" s="421"/>
-      <c r="AI23" s="421"/>
-      <c r="AJ23" s="421"/>
-      <c r="AK23" s="421"/>
-      <c r="AL23" s="421"/>
-      <c r="AM23" s="422"/>
-      <c r="AN23" s="422"/>
-      <c r="AO23" s="421"/>
-      <c r="AP23" s="421"/>
-      <c r="AQ23" s="421"/>
-      <c r="AR23" s="421"/>
-      <c r="AS23" s="421"/>
-      <c r="AT23" s="422"/>
-      <c r="AU23" s="422"/>
-      <c r="AV23" s="421"/>
-      <c r="AW23" s="421"/>
-      <c r="AX23" s="421"/>
-      <c r="AY23" s="421"/>
-      <c r="AZ23" s="421"/>
-      <c r="BA23" s="422"/>
-      <c r="BB23" s="422"/>
-      <c r="BC23" s="421"/>
-      <c r="BD23" s="438"/>
-      <c r="BE23" s="438"/>
-      <c r="BF23" s="438"/>
-      <c r="BG23" s="438"/>
-      <c r="BH23" s="439"/>
-      <c r="BI23" s="439"/>
-      <c r="BJ23" s="438"/>
-      <c r="BK23" s="438"/>
-      <c r="BL23" s="438"/>
-      <c r="BM23" s="438"/>
-      <c r="BN23" s="421"/>
-      <c r="BO23" s="422"/>
-      <c r="BP23" s="422"/>
-      <c r="BQ23" s="421"/>
-      <c r="BR23" s="421"/>
-      <c r="BS23" s="421"/>
-      <c r="BT23" s="421"/>
-      <c r="BU23" s="421"/>
-      <c r="BV23" s="422"/>
-      <c r="BW23" s="422"/>
-      <c r="BX23" s="421"/>
-      <c r="BY23" s="421"/>
-      <c r="BZ23" s="421"/>
-      <c r="CA23" s="421"/>
-      <c r="CB23" s="421"/>
-      <c r="CC23" s="422"/>
-      <c r="CD23" s="422"/>
-      <c r="CE23" s="421"/>
-      <c r="CF23" s="421"/>
-      <c r="CG23" s="421"/>
-      <c r="CH23" s="421"/>
-      <c r="CI23" s="421"/>
-      <c r="CJ23" s="422"/>
-      <c r="CK23" s="422"/>
-      <c r="CL23" s="421"/>
-      <c r="CM23" s="421"/>
-      <c r="CN23" s="421"/>
-      <c r="CO23" s="421"/>
-      <c r="CP23" s="421"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="200"/>
+      <c r="L23" s="200"/>
+      <c r="M23" s="202"/>
+      <c r="N23" s="199"/>
+      <c r="O23" s="199"/>
+      <c r="P23" s="199"/>
+      <c r="Q23" s="199"/>
+      <c r="R23" s="200"/>
+      <c r="S23" s="200"/>
+      <c r="T23" s="199"/>
+      <c r="U23" s="199"/>
+      <c r="V23" s="199"/>
+      <c r="W23" s="199"/>
+      <c r="X23" s="199"/>
+      <c r="Y23" s="200"/>
+      <c r="Z23" s="200"/>
+      <c r="AA23" s="199"/>
+      <c r="AB23" s="199"/>
+      <c r="AC23" s="199"/>
+      <c r="AD23" s="199"/>
+      <c r="AE23" s="199"/>
+      <c r="AF23" s="200"/>
+      <c r="AG23" s="200"/>
+      <c r="AH23" s="199"/>
+      <c r="AI23" s="199"/>
+      <c r="AJ23" s="199"/>
+      <c r="AK23" s="199"/>
+      <c r="AL23" s="199"/>
+      <c r="AM23" s="200"/>
+      <c r="AN23" s="200"/>
+      <c r="AO23" s="199"/>
+      <c r="AP23" s="199"/>
+      <c r="AQ23" s="199"/>
+      <c r="AR23" s="199"/>
+      <c r="AS23" s="199"/>
+      <c r="AT23" s="200"/>
+      <c r="AU23" s="200"/>
+      <c r="AV23" s="199"/>
+      <c r="AW23" s="199"/>
+      <c r="AX23" s="199"/>
+      <c r="AY23" s="199"/>
+      <c r="AZ23" s="199"/>
+      <c r="BA23" s="200"/>
+      <c r="BB23" s="200"/>
+      <c r="BC23" s="199"/>
+      <c r="BD23" s="205"/>
+      <c r="BE23" s="205"/>
+      <c r="BF23" s="205"/>
+      <c r="BG23" s="205"/>
+      <c r="BH23" s="206"/>
+      <c r="BI23" s="206"/>
+      <c r="BJ23" s="205"/>
+      <c r="BK23" s="205"/>
+      <c r="BL23" s="205"/>
+      <c r="BM23" s="205"/>
+      <c r="BN23" s="199"/>
+      <c r="BO23" s="200"/>
+      <c r="BP23" s="200"/>
+      <c r="BQ23" s="199"/>
+      <c r="BR23" s="199"/>
+      <c r="BS23" s="199"/>
+      <c r="BT23" s="199"/>
+      <c r="BU23" s="199"/>
+      <c r="BV23" s="200"/>
+      <c r="BW23" s="200"/>
+      <c r="BX23" s="199"/>
+      <c r="BY23" s="199"/>
+      <c r="BZ23" s="199"/>
+      <c r="CA23" s="199"/>
+      <c r="CB23" s="199"/>
+      <c r="CC23" s="200"/>
+      <c r="CD23" s="200"/>
+      <c r="CE23" s="199"/>
+      <c r="CF23" s="199"/>
+      <c r="CG23" s="199"/>
+      <c r="CH23" s="199"/>
+      <c r="CI23" s="199"/>
+      <c r="CJ23" s="200"/>
+      <c r="CK23" s="200"/>
+      <c r="CL23" s="199"/>
+      <c r="CM23" s="199"/>
+      <c r="CN23" s="199"/>
+      <c r="CO23" s="199"/>
+      <c r="CP23" s="199"/>
       <c r="CQ23" s="94"/>
       <c r="CR23" s="94"/>
       <c r="CS23" s="92"/>
@@ -26411,61 +26422,61 @@
       <c r="EP23" s="43"/>
     </row>
     <row r="24" spans="1:146" ht="15" customHeight="1">
-      <c r="A24" s="365"/>
-      <c r="B24" s="341"/>
-      <c r="C24" s="343"/>
-      <c r="D24" s="345"/>
-      <c r="E24" s="347"/>
+      <c r="A24" s="331"/>
+      <c r="B24" s="320"/>
+      <c r="C24" s="321"/>
+      <c r="D24" s="322"/>
+      <c r="E24" s="323"/>
       <c r="F24" s="85"/>
       <c r="G24" s="86"/>
       <c r="H24" s="86"/>
-      <c r="I24" s="411"/>
-      <c r="J24" s="427"/>
-      <c r="K24" s="420"/>
-      <c r="L24" s="420"/>
-      <c r="M24" s="428"/>
-      <c r="N24" s="411"/>
-      <c r="O24" s="411"/>
-      <c r="P24" s="411"/>
-      <c r="Q24" s="411"/>
-      <c r="R24" s="420"/>
-      <c r="S24" s="420"/>
-      <c r="T24" s="411"/>
-      <c r="U24" s="411"/>
-      <c r="V24" s="411"/>
-      <c r="W24" s="411"/>
-      <c r="X24" s="411"/>
-      <c r="Y24" s="420"/>
-      <c r="Z24" s="420"/>
-      <c r="AA24" s="411"/>
-      <c r="AB24" s="411"/>
-      <c r="AC24" s="411"/>
-      <c r="AD24" s="411"/>
-      <c r="AE24" s="411"/>
-      <c r="AF24" s="420"/>
-      <c r="AG24" s="420"/>
-      <c r="AH24" s="411"/>
-      <c r="AI24" s="411"/>
-      <c r="AJ24" s="411"/>
-      <c r="AK24" s="411"/>
-      <c r="AL24" s="411"/>
-      <c r="AM24" s="420"/>
-      <c r="AN24" s="420"/>
-      <c r="AO24" s="411"/>
-      <c r="AP24" s="411"/>
-      <c r="AQ24" s="411"/>
-      <c r="AR24" s="411"/>
-      <c r="AS24" s="411"/>
-      <c r="AT24" s="420"/>
-      <c r="AU24" s="420"/>
-      <c r="AV24" s="411"/>
-      <c r="AW24" s="411"/>
-      <c r="AX24" s="411"/>
-      <c r="AY24" s="411"/>
-      <c r="AZ24" s="411"/>
-      <c r="BA24" s="420"/>
-      <c r="BB24" s="420"/>
-      <c r="BC24" s="411"/>
+      <c r="I24" s="189"/>
+      <c r="J24" s="203"/>
+      <c r="K24" s="198"/>
+      <c r="L24" s="198"/>
+      <c r="M24" s="204"/>
+      <c r="N24" s="189"/>
+      <c r="O24" s="189"/>
+      <c r="P24" s="189"/>
+      <c r="Q24" s="189"/>
+      <c r="R24" s="198"/>
+      <c r="S24" s="198"/>
+      <c r="T24" s="189"/>
+      <c r="U24" s="189"/>
+      <c r="V24" s="189"/>
+      <c r="W24" s="189"/>
+      <c r="X24" s="189"/>
+      <c r="Y24" s="198"/>
+      <c r="Z24" s="198"/>
+      <c r="AA24" s="189"/>
+      <c r="AB24" s="189"/>
+      <c r="AC24" s="189"/>
+      <c r="AD24" s="189"/>
+      <c r="AE24" s="189"/>
+      <c r="AF24" s="198"/>
+      <c r="AG24" s="198"/>
+      <c r="AH24" s="189"/>
+      <c r="AI24" s="189"/>
+      <c r="AJ24" s="189"/>
+      <c r="AK24" s="189"/>
+      <c r="AL24" s="189"/>
+      <c r="AM24" s="198"/>
+      <c r="AN24" s="198"/>
+      <c r="AO24" s="189"/>
+      <c r="AP24" s="189"/>
+      <c r="AQ24" s="189"/>
+      <c r="AR24" s="189"/>
+      <c r="AS24" s="189"/>
+      <c r="AT24" s="198"/>
+      <c r="AU24" s="198"/>
+      <c r="AV24" s="189"/>
+      <c r="AW24" s="189"/>
+      <c r="AX24" s="189"/>
+      <c r="AY24" s="189"/>
+      <c r="AZ24" s="189"/>
+      <c r="BA24" s="198"/>
+      <c r="BB24" s="198"/>
+      <c r="BC24" s="189"/>
       <c r="BD24" s="178"/>
       <c r="BE24" s="178"/>
       <c r="BF24" s="178"/>
@@ -26476,35 +26487,35 @@
       <c r="BK24" s="178"/>
       <c r="BL24" s="178"/>
       <c r="BM24" s="178"/>
-      <c r="BN24" s="411"/>
-      <c r="BO24" s="420"/>
-      <c r="BP24" s="420"/>
-      <c r="BQ24" s="411"/>
-      <c r="BR24" s="411"/>
-      <c r="BS24" s="411"/>
-      <c r="BT24" s="411"/>
-      <c r="BU24" s="411"/>
-      <c r="BV24" s="420"/>
-      <c r="BW24" s="420"/>
-      <c r="BX24" s="411"/>
-      <c r="BY24" s="411"/>
-      <c r="BZ24" s="411"/>
-      <c r="CA24" s="411"/>
-      <c r="CB24" s="411"/>
-      <c r="CC24" s="420"/>
-      <c r="CD24" s="420"/>
-      <c r="CE24" s="411"/>
-      <c r="CF24" s="411"/>
-      <c r="CG24" s="411"/>
-      <c r="CH24" s="411"/>
-      <c r="CI24" s="411"/>
-      <c r="CJ24" s="420"/>
-      <c r="CK24" s="420"/>
-      <c r="CL24" s="411"/>
-      <c r="CM24" s="411"/>
-      <c r="CN24" s="411"/>
-      <c r="CO24" s="411"/>
-      <c r="CP24" s="411"/>
+      <c r="BN24" s="189"/>
+      <c r="BO24" s="198"/>
+      <c r="BP24" s="198"/>
+      <c r="BQ24" s="189"/>
+      <c r="BR24" s="189"/>
+      <c r="BS24" s="189"/>
+      <c r="BT24" s="189"/>
+      <c r="BU24" s="189"/>
+      <c r="BV24" s="198"/>
+      <c r="BW24" s="198"/>
+      <c r="BX24" s="189"/>
+      <c r="BY24" s="189"/>
+      <c r="BZ24" s="189"/>
+      <c r="CA24" s="189"/>
+      <c r="CB24" s="189"/>
+      <c r="CC24" s="198"/>
+      <c r="CD24" s="198"/>
+      <c r="CE24" s="189"/>
+      <c r="CF24" s="189"/>
+      <c r="CG24" s="189"/>
+      <c r="CH24" s="189"/>
+      <c r="CI24" s="189"/>
+      <c r="CJ24" s="198"/>
+      <c r="CK24" s="198"/>
+      <c r="CL24" s="189"/>
+      <c r="CM24" s="189"/>
+      <c r="CN24" s="189"/>
+      <c r="CO24" s="189"/>
+      <c r="CP24" s="189"/>
       <c r="CQ24" s="88"/>
       <c r="CR24" s="88"/>
       <c r="CS24" s="86"/>
@@ -26559,17 +26570,17 @@
       <c r="EP24" s="43"/>
     </row>
     <row r="25" spans="1:146">
-      <c r="A25" s="429" t="s">
+      <c r="A25" s="324" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="348" t="s">
+      <c r="B25" s="311" t="s">
         <v>212</v>
       </c>
-      <c r="C25" s="349"/>
-      <c r="D25" s="350">
+      <c r="C25" s="313"/>
+      <c r="D25" s="315">
         <v>4</v>
       </c>
-      <c r="E25" s="351">
+      <c r="E25" s="317">
         <v>1</v>
       </c>
       <c r="F25" s="91"/>
@@ -26577,22 +26588,22 @@
       <c r="H25" s="92"/>
       <c r="I25" s="92"/>
       <c r="J25" s="93"/>
-      <c r="K25" s="422"/>
-      <c r="L25" s="422"/>
+      <c r="K25" s="200"/>
+      <c r="L25" s="200"/>
       <c r="M25" s="95"/>
       <c r="N25" s="92"/>
       <c r="O25" s="92"/>
       <c r="P25" s="92"/>
       <c r="Q25" s="92"/>
-      <c r="R25" s="422"/>
-      <c r="S25" s="422"/>
+      <c r="R25" s="200"/>
+      <c r="S25" s="200"/>
       <c r="T25" s="92"/>
       <c r="U25" s="92"/>
       <c r="V25" s="92"/>
       <c r="W25" s="92"/>
       <c r="X25" s="92"/>
-      <c r="Y25" s="422"/>
-      <c r="Z25" s="422"/>
+      <c r="Y25" s="200"/>
+      <c r="Z25" s="200"/>
       <c r="AA25" s="92"/>
       <c r="AB25" s="92"/>
       <c r="AC25" s="92"/>
@@ -26605,15 +26616,15 @@
       <c r="AJ25" s="92"/>
       <c r="AK25" s="92"/>
       <c r="AL25" s="92"/>
-      <c r="AM25" s="422"/>
-      <c r="AN25" s="422"/>
+      <c r="AM25" s="200"/>
+      <c r="AN25" s="200"/>
       <c r="AO25" s="92"/>
       <c r="AP25" s="92"/>
       <c r="AQ25" s="92"/>
       <c r="AR25" s="92"/>
       <c r="AS25" s="92"/>
-      <c r="AT25" s="422"/>
-      <c r="AU25" s="422"/>
+      <c r="AT25" s="200"/>
+      <c r="AU25" s="200"/>
       <c r="AV25" s="92"/>
       <c r="AW25" s="92"/>
       <c r="AX25" s="92"/>
@@ -26628,11 +26639,11 @@
       <c r="BG25" s="92"/>
       <c r="BH25" s="94"/>
       <c r="BI25" s="94"/>
-      <c r="BJ25" s="421"/>
+      <c r="BJ25" s="199"/>
       <c r="BK25" s="92"/>
       <c r="BL25" s="92"/>
       <c r="BM25" s="92"/>
-      <c r="BN25" s="438"/>
+      <c r="BN25" s="205"/>
       <c r="BO25" s="94"/>
       <c r="BP25" s="94"/>
       <c r="BQ25" s="92"/>
@@ -26715,11 +26726,11 @@
       <c r="EP25" s="43"/>
     </row>
     <row r="26" spans="1:146">
-      <c r="A26" s="339"/>
-      <c r="B26" s="341"/>
-      <c r="C26" s="343"/>
-      <c r="D26" s="345"/>
-      <c r="E26" s="347"/>
+      <c r="A26" s="325"/>
+      <c r="B26" s="320"/>
+      <c r="C26" s="321"/>
+      <c r="D26" s="322"/>
+      <c r="E26" s="323"/>
       <c r="F26" s="85"/>
       <c r="G26" s="86"/>
       <c r="H26" s="86"/>
@@ -26753,8 +26764,8 @@
       <c r="AJ26" s="86"/>
       <c r="AK26" s="86"/>
       <c r="AL26" s="86"/>
-      <c r="AM26" s="420"/>
-      <c r="AN26" s="420"/>
+      <c r="AM26" s="198"/>
+      <c r="AN26" s="198"/>
       <c r="AO26" s="86"/>
       <c r="AP26" s="86"/>
       <c r="AQ26" s="86"/>
@@ -26776,7 +26787,7 @@
       <c r="BG26" s="86"/>
       <c r="BH26" s="88"/>
       <c r="BI26" s="88"/>
-      <c r="BJ26" s="411"/>
+      <c r="BJ26" s="189"/>
       <c r="BK26" s="86"/>
       <c r="BL26" s="86"/>
       <c r="BM26" s="86"/>
@@ -26863,17 +26874,17 @@
       <c r="EP26" s="43"/>
     </row>
     <row r="27" spans="1:146">
-      <c r="A27" s="432" t="s">
+      <c r="A27" s="326" t="s">
         <v>341</v>
       </c>
-      <c r="B27" s="348" t="s">
+      <c r="B27" s="311" t="s">
         <v>344</v>
       </c>
-      <c r="C27" s="349"/>
-      <c r="D27" s="350">
+      <c r="C27" s="313"/>
+      <c r="D27" s="315">
         <v>15</v>
       </c>
-      <c r="E27" s="351">
+      <c r="E27" s="317">
         <v>38</v>
       </c>
       <c r="F27" s="91"/>
@@ -26909,44 +26920,44 @@
       <c r="AJ27" s="92"/>
       <c r="AK27" s="92"/>
       <c r="AL27" s="92"/>
-      <c r="AM27" s="439"/>
-      <c r="AN27" s="439"/>
-      <c r="AO27" s="438"/>
-      <c r="AP27" s="438"/>
-      <c r="AQ27" s="438"/>
-      <c r="AR27" s="438"/>
-      <c r="AS27" s="438"/>
-      <c r="AT27" s="439"/>
-      <c r="AU27" s="439"/>
-      <c r="AV27" s="438"/>
-      <c r="AW27" s="438"/>
-      <c r="AX27" s="438"/>
-      <c r="AY27" s="438"/>
-      <c r="AZ27" s="438"/>
-      <c r="BA27" s="439"/>
-      <c r="BB27" s="439"/>
-      <c r="BC27" s="438"/>
-      <c r="BD27" s="438"/>
-      <c r="BE27" s="438"/>
-      <c r="BF27" s="438"/>
-      <c r="BG27" s="438"/>
-      <c r="BH27" s="439"/>
-      <c r="BI27" s="439"/>
-      <c r="BJ27" s="438"/>
-      <c r="BK27" s="438"/>
-      <c r="BL27" s="438"/>
-      <c r="BM27" s="438"/>
-      <c r="BN27" s="438"/>
-      <c r="BO27" s="439"/>
-      <c r="BP27" s="439"/>
-      <c r="BQ27" s="438"/>
-      <c r="BR27" s="438"/>
-      <c r="BS27" s="438"/>
-      <c r="BT27" s="438"/>
-      <c r="BU27" s="438"/>
-      <c r="BV27" s="439"/>
-      <c r="BW27" s="439"/>
-      <c r="BX27" s="438"/>
+      <c r="AM27" s="206"/>
+      <c r="AN27" s="206"/>
+      <c r="AO27" s="205"/>
+      <c r="AP27" s="205"/>
+      <c r="AQ27" s="205"/>
+      <c r="AR27" s="205"/>
+      <c r="AS27" s="205"/>
+      <c r="AT27" s="206"/>
+      <c r="AU27" s="206"/>
+      <c r="AV27" s="205"/>
+      <c r="AW27" s="205"/>
+      <c r="AX27" s="205"/>
+      <c r="AY27" s="205"/>
+      <c r="AZ27" s="205"/>
+      <c r="BA27" s="206"/>
+      <c r="BB27" s="206"/>
+      <c r="BC27" s="205"/>
+      <c r="BD27" s="205"/>
+      <c r="BE27" s="205"/>
+      <c r="BF27" s="205"/>
+      <c r="BG27" s="205"/>
+      <c r="BH27" s="206"/>
+      <c r="BI27" s="206"/>
+      <c r="BJ27" s="205"/>
+      <c r="BK27" s="205"/>
+      <c r="BL27" s="205"/>
+      <c r="BM27" s="205"/>
+      <c r="BN27" s="205"/>
+      <c r="BO27" s="206"/>
+      <c r="BP27" s="206"/>
+      <c r="BQ27" s="205"/>
+      <c r="BR27" s="205"/>
+      <c r="BS27" s="205"/>
+      <c r="BT27" s="205"/>
+      <c r="BU27" s="205"/>
+      <c r="BV27" s="206"/>
+      <c r="BW27" s="206"/>
+      <c r="BX27" s="205"/>
       <c r="BY27" s="92"/>
       <c r="BZ27" s="92"/>
       <c r="CA27" s="92"/>
@@ -27019,11 +27030,11 @@
       <c r="EP27" s="43"/>
     </row>
     <row r="28" spans="1:146">
-      <c r="A28" s="433"/>
-      <c r="B28" s="341"/>
-      <c r="C28" s="343"/>
-      <c r="D28" s="345"/>
-      <c r="E28" s="347"/>
+      <c r="A28" s="327"/>
+      <c r="B28" s="320"/>
+      <c r="C28" s="321"/>
+      <c r="D28" s="322"/>
+      <c r="E28" s="323"/>
       <c r="F28" s="85"/>
       <c r="G28" s="86"/>
       <c r="H28" s="86"/>
@@ -27167,11 +27178,11 @@
       <c r="EP28" s="43"/>
     </row>
     <row r="29" spans="1:146">
-      <c r="A29" s="366"/>
-      <c r="B29" s="348"/>
-      <c r="C29" s="349"/>
-      <c r="D29" s="350"/>
-      <c r="E29" s="351"/>
+      <c r="A29" s="309"/>
+      <c r="B29" s="311"/>
+      <c r="C29" s="313"/>
+      <c r="D29" s="315"/>
+      <c r="E29" s="317"/>
       <c r="F29" s="91"/>
       <c r="G29" s="92"/>
       <c r="H29" s="92"/>
@@ -27315,11 +27326,11 @@
       <c r="EP29" s="43"/>
     </row>
     <row r="30" spans="1:146">
-      <c r="A30" s="367"/>
-      <c r="B30" s="341"/>
-      <c r="C30" s="343"/>
-      <c r="D30" s="345"/>
-      <c r="E30" s="347"/>
+      <c r="A30" s="319"/>
+      <c r="B30" s="320"/>
+      <c r="C30" s="321"/>
+      <c r="D30" s="322"/>
+      <c r="E30" s="323"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
       <c r="H30" s="86"/>
@@ -27463,11 +27474,11 @@
       <c r="EP30" s="43"/>
     </row>
     <row r="31" spans="1:146">
-      <c r="A31" s="366"/>
-      <c r="B31" s="348"/>
-      <c r="C31" s="349"/>
-      <c r="D31" s="350"/>
-      <c r="E31" s="351"/>
+      <c r="A31" s="309"/>
+      <c r="B31" s="311"/>
+      <c r="C31" s="313"/>
+      <c r="D31" s="315"/>
+      <c r="E31" s="317"/>
       <c r="F31" s="91"/>
       <c r="G31" s="92"/>
       <c r="H31" s="92"/>
@@ -27611,11 +27622,11 @@
       <c r="EP31" s="43"/>
     </row>
     <row r="32" spans="1:146">
-      <c r="A32" s="367"/>
-      <c r="B32" s="341"/>
-      <c r="C32" s="343"/>
-      <c r="D32" s="345"/>
-      <c r="E32" s="347"/>
+      <c r="A32" s="319"/>
+      <c r="B32" s="320"/>
+      <c r="C32" s="321"/>
+      <c r="D32" s="322"/>
+      <c r="E32" s="323"/>
       <c r="F32" s="85"/>
       <c r="G32" s="86"/>
       <c r="H32" s="86"/>
@@ -27759,11 +27770,11 @@
       <c r="EP32" s="43"/>
     </row>
     <row r="33" spans="1:146">
-      <c r="A33" s="366"/>
-      <c r="B33" s="348"/>
-      <c r="C33" s="349"/>
-      <c r="D33" s="350"/>
-      <c r="E33" s="351"/>
+      <c r="A33" s="309"/>
+      <c r="B33" s="311"/>
+      <c r="C33" s="313"/>
+      <c r="D33" s="315"/>
+      <c r="E33" s="317"/>
       <c r="F33" s="91"/>
       <c r="G33" s="92"/>
       <c r="H33" s="92"/>
@@ -27907,11 +27918,11 @@
       <c r="EP33" s="43"/>
     </row>
     <row r="34" spans="1:146">
-      <c r="A34" s="367"/>
-      <c r="B34" s="341"/>
-      <c r="C34" s="343"/>
-      <c r="D34" s="345"/>
-      <c r="E34" s="347"/>
+      <c r="A34" s="319"/>
+      <c r="B34" s="320"/>
+      <c r="C34" s="321"/>
+      <c r="D34" s="322"/>
+      <c r="E34" s="323"/>
       <c r="F34" s="85"/>
       <c r="G34" s="86"/>
       <c r="H34" s="86"/>
@@ -28055,11 +28066,11 @@
       <c r="EP34" s="43"/>
     </row>
     <row r="35" spans="1:146">
-      <c r="A35" s="366"/>
-      <c r="B35" s="348"/>
-      <c r="C35" s="349"/>
-      <c r="D35" s="350"/>
-      <c r="E35" s="351"/>
+      <c r="A35" s="309"/>
+      <c r="B35" s="311"/>
+      <c r="C35" s="313"/>
+      <c r="D35" s="315"/>
+      <c r="E35" s="317"/>
       <c r="F35" s="91"/>
       <c r="G35" s="92"/>
       <c r="H35" s="92"/>
@@ -28203,11 +28214,11 @@
       <c r="EP35" s="43"/>
     </row>
     <row r="36" spans="1:146">
-      <c r="A36" s="367"/>
-      <c r="B36" s="341"/>
-      <c r="C36" s="343"/>
-      <c r="D36" s="345"/>
-      <c r="E36" s="347"/>
+      <c r="A36" s="319"/>
+      <c r="B36" s="320"/>
+      <c r="C36" s="321"/>
+      <c r="D36" s="322"/>
+      <c r="E36" s="323"/>
       <c r="F36" s="85"/>
       <c r="G36" s="86"/>
       <c r="H36" s="86"/>
@@ -28351,11 +28362,11 @@
       <c r="EP36" s="43"/>
     </row>
     <row r="37" spans="1:146">
-      <c r="A37" s="366"/>
-      <c r="B37" s="348"/>
-      <c r="C37" s="349"/>
-      <c r="D37" s="350"/>
-      <c r="E37" s="351"/>
+      <c r="A37" s="309"/>
+      <c r="B37" s="311"/>
+      <c r="C37" s="313"/>
+      <c r="D37" s="315"/>
+      <c r="E37" s="317"/>
       <c r="F37" s="91"/>
       <c r="G37" s="92"/>
       <c r="H37" s="92"/>
@@ -28499,11 +28510,11 @@
       <c r="EP37" s="43"/>
     </row>
     <row r="38" spans="1:146">
-      <c r="A38" s="367"/>
-      <c r="B38" s="341"/>
-      <c r="C38" s="343"/>
-      <c r="D38" s="345"/>
-      <c r="E38" s="347"/>
+      <c r="A38" s="319"/>
+      <c r="B38" s="320"/>
+      <c r="C38" s="321"/>
+      <c r="D38" s="322"/>
+      <c r="E38" s="323"/>
       <c r="F38" s="85"/>
       <c r="G38" s="86"/>
       <c r="H38" s="86"/>
@@ -28647,11 +28658,11 @@
       <c r="EP38" s="43"/>
     </row>
     <row r="39" spans="1:146">
-      <c r="A39" s="366"/>
-      <c r="B39" s="348"/>
-      <c r="C39" s="349"/>
-      <c r="D39" s="350"/>
-      <c r="E39" s="351"/>
+      <c r="A39" s="309"/>
+      <c r="B39" s="311"/>
+      <c r="C39" s="313"/>
+      <c r="D39" s="315"/>
+      <c r="E39" s="317"/>
       <c r="F39" s="91"/>
       <c r="G39" s="92"/>
       <c r="H39" s="92"/>
@@ -28795,11 +28806,11 @@
       <c r="EP39" s="43"/>
     </row>
     <row r="40" spans="1:146">
-      <c r="A40" s="367"/>
-      <c r="B40" s="341"/>
-      <c r="C40" s="343"/>
-      <c r="D40" s="345"/>
-      <c r="E40" s="347"/>
+      <c r="A40" s="319"/>
+      <c r="B40" s="320"/>
+      <c r="C40" s="321"/>
+      <c r="D40" s="322"/>
+      <c r="E40" s="323"/>
       <c r="F40" s="85"/>
       <c r="G40" s="86"/>
       <c r="H40" s="86"/>
@@ -28943,11 +28954,11 @@
       <c r="EP40" s="43"/>
     </row>
     <row r="41" spans="1:146">
-      <c r="A41" s="366"/>
-      <c r="B41" s="348"/>
-      <c r="C41" s="349"/>
-      <c r="D41" s="350"/>
-      <c r="E41" s="351"/>
+      <c r="A41" s="309"/>
+      <c r="B41" s="311"/>
+      <c r="C41" s="313"/>
+      <c r="D41" s="315"/>
+      <c r="E41" s="317"/>
       <c r="F41" s="91"/>
       <c r="G41" s="92"/>
       <c r="H41" s="92"/>
@@ -29091,11 +29102,11 @@
       <c r="EP41" s="43"/>
     </row>
     <row r="42" spans="1:146">
-      <c r="A42" s="367"/>
-      <c r="B42" s="341"/>
-      <c r="C42" s="343"/>
-      <c r="D42" s="345"/>
-      <c r="E42" s="347"/>
+      <c r="A42" s="319"/>
+      <c r="B42" s="320"/>
+      <c r="C42" s="321"/>
+      <c r="D42" s="322"/>
+      <c r="E42" s="323"/>
       <c r="F42" s="85"/>
       <c r="G42" s="86"/>
       <c r="H42" s="86"/>
@@ -29239,11 +29250,11 @@
       <c r="EP42" s="43"/>
     </row>
     <row r="43" spans="1:146">
-      <c r="A43" s="366"/>
-      <c r="B43" s="348"/>
-      <c r="C43" s="349"/>
-      <c r="D43" s="350"/>
-      <c r="E43" s="351"/>
+      <c r="A43" s="309"/>
+      <c r="B43" s="311"/>
+      <c r="C43" s="313"/>
+      <c r="D43" s="315"/>
+      <c r="E43" s="317"/>
       <c r="F43" s="91"/>
       <c r="G43" s="92"/>
       <c r="H43" s="92"/>
@@ -29387,11 +29398,11 @@
       <c r="EP43" s="43"/>
     </row>
     <row r="44" spans="1:146">
-      <c r="A44" s="367"/>
-      <c r="B44" s="341"/>
-      <c r="C44" s="343"/>
-      <c r="D44" s="345"/>
-      <c r="E44" s="347"/>
+      <c r="A44" s="319"/>
+      <c r="B44" s="320"/>
+      <c r="C44" s="321"/>
+      <c r="D44" s="322"/>
+      <c r="E44" s="323"/>
       <c r="F44" s="85"/>
       <c r="G44" s="86"/>
       <c r="H44" s="86"/>
@@ -29535,11 +29546,11 @@
       <c r="EP44" s="43"/>
     </row>
     <row r="45" spans="1:146">
-      <c r="A45" s="366"/>
-      <c r="B45" s="348"/>
-      <c r="C45" s="349"/>
-      <c r="D45" s="350"/>
-      <c r="E45" s="351"/>
+      <c r="A45" s="309"/>
+      <c r="B45" s="311"/>
+      <c r="C45" s="313"/>
+      <c r="D45" s="315"/>
+      <c r="E45" s="317"/>
       <c r="F45" s="91"/>
       <c r="G45" s="92"/>
       <c r="H45" s="92"/>
@@ -29683,11 +29694,11 @@
       <c r="EP45" s="43"/>
     </row>
     <row r="46" spans="1:146">
-      <c r="A46" s="367"/>
-      <c r="B46" s="341"/>
-      <c r="C46" s="343"/>
-      <c r="D46" s="345"/>
-      <c r="E46" s="347"/>
+      <c r="A46" s="319"/>
+      <c r="B46" s="320"/>
+      <c r="C46" s="321"/>
+      <c r="D46" s="322"/>
+      <c r="E46" s="323"/>
       <c r="F46" s="85"/>
       <c r="G46" s="86"/>
       <c r="H46" s="86"/>
@@ -29831,11 +29842,11 @@
       <c r="EP46" s="43"/>
     </row>
     <row r="47" spans="1:146">
-      <c r="A47" s="366"/>
-      <c r="B47" s="348"/>
-      <c r="C47" s="349"/>
-      <c r="D47" s="350"/>
-      <c r="E47" s="351"/>
+      <c r="A47" s="309"/>
+      <c r="B47" s="311"/>
+      <c r="C47" s="313"/>
+      <c r="D47" s="315"/>
+      <c r="E47" s="317"/>
       <c r="F47" s="91"/>
       <c r="G47" s="92"/>
       <c r="H47" s="92"/>
@@ -29979,11 +29990,11 @@
       <c r="EP47" s="43"/>
     </row>
     <row r="48" spans="1:146">
-      <c r="A48" s="367"/>
-      <c r="B48" s="341"/>
-      <c r="C48" s="343"/>
-      <c r="D48" s="345"/>
-      <c r="E48" s="347"/>
+      <c r="A48" s="319"/>
+      <c r="B48" s="320"/>
+      <c r="C48" s="321"/>
+      <c r="D48" s="322"/>
+      <c r="E48" s="323"/>
       <c r="F48" s="85"/>
       <c r="G48" s="86"/>
       <c r="H48" s="86"/>
@@ -30127,11 +30138,11 @@
       <c r="EP48" s="43"/>
     </row>
     <row r="49" spans="1:146">
-      <c r="A49" s="366"/>
-      <c r="B49" s="348"/>
-      <c r="C49" s="349"/>
-      <c r="D49" s="350"/>
-      <c r="E49" s="351"/>
+      <c r="A49" s="309"/>
+      <c r="B49" s="311"/>
+      <c r="C49" s="313"/>
+      <c r="D49" s="315"/>
+      <c r="E49" s="317"/>
       <c r="F49" s="91"/>
       <c r="G49" s="92"/>
       <c r="H49" s="92"/>
@@ -30275,11 +30286,11 @@
       <c r="EP49" s="43"/>
     </row>
     <row r="50" spans="1:146">
-      <c r="A50" s="367"/>
-      <c r="B50" s="341"/>
-      <c r="C50" s="343"/>
-      <c r="D50" s="345"/>
-      <c r="E50" s="347"/>
+      <c r="A50" s="319"/>
+      <c r="B50" s="320"/>
+      <c r="C50" s="321"/>
+      <c r="D50" s="322"/>
+      <c r="E50" s="323"/>
       <c r="F50" s="85"/>
       <c r="G50" s="86"/>
       <c r="H50" s="86"/>
@@ -30423,11 +30434,11 @@
       <c r="EP50" s="43"/>
     </row>
     <row r="51" spans="1:146">
-      <c r="A51" s="366"/>
-      <c r="B51" s="348"/>
-      <c r="C51" s="349"/>
-      <c r="D51" s="350"/>
-      <c r="E51" s="351"/>
+      <c r="A51" s="309"/>
+      <c r="B51" s="311"/>
+      <c r="C51" s="313"/>
+      <c r="D51" s="315"/>
+      <c r="E51" s="317"/>
       <c r="F51" s="91"/>
       <c r="G51" s="92"/>
       <c r="H51" s="92"/>
@@ -30571,11 +30582,11 @@
       <c r="EP51" s="43"/>
     </row>
     <row r="52" spans="1:146">
-      <c r="A52" s="367"/>
-      <c r="B52" s="341"/>
-      <c r="C52" s="343"/>
-      <c r="D52" s="345"/>
-      <c r="E52" s="347"/>
+      <c r="A52" s="319"/>
+      <c r="B52" s="320"/>
+      <c r="C52" s="321"/>
+      <c r="D52" s="322"/>
+      <c r="E52" s="323"/>
       <c r="F52" s="85"/>
       <c r="G52" s="86"/>
       <c r="H52" s="86"/>
@@ -30719,11 +30730,11 @@
       <c r="EP52" s="43"/>
     </row>
     <row r="53" spans="1:146">
-      <c r="A53" s="366"/>
-      <c r="B53" s="348"/>
-      <c r="C53" s="349"/>
-      <c r="D53" s="350"/>
-      <c r="E53" s="351"/>
+      <c r="A53" s="309"/>
+      <c r="B53" s="311"/>
+      <c r="C53" s="313"/>
+      <c r="D53" s="315"/>
+      <c r="E53" s="317"/>
       <c r="F53" s="91"/>
       <c r="G53" s="92"/>
       <c r="H53" s="92"/>
@@ -30867,11 +30878,11 @@
       <c r="EP53" s="43"/>
     </row>
     <row r="54" spans="1:146">
-      <c r="A54" s="367"/>
-      <c r="B54" s="341"/>
-      <c r="C54" s="343"/>
-      <c r="D54" s="345"/>
-      <c r="E54" s="347"/>
+      <c r="A54" s="319"/>
+      <c r="B54" s="320"/>
+      <c r="C54" s="321"/>
+      <c r="D54" s="322"/>
+      <c r="E54" s="323"/>
       <c r="F54" s="85"/>
       <c r="G54" s="86"/>
       <c r="H54" s="86"/>
@@ -31015,11 +31026,11 @@
       <c r="EP54" s="43"/>
     </row>
     <row r="55" spans="1:146">
-      <c r="A55" s="366"/>
-      <c r="B55" s="348"/>
-      <c r="C55" s="349"/>
-      <c r="D55" s="350"/>
-      <c r="E55" s="351"/>
+      <c r="A55" s="309"/>
+      <c r="B55" s="311"/>
+      <c r="C55" s="313"/>
+      <c r="D55" s="315"/>
+      <c r="E55" s="317"/>
       <c r="F55" s="91"/>
       <c r="G55" s="92"/>
       <c r="H55" s="92"/>
@@ -31163,11 +31174,11 @@
       <c r="EP55" s="43"/>
     </row>
     <row r="56" spans="1:146">
-      <c r="A56" s="367"/>
-      <c r="B56" s="341"/>
-      <c r="C56" s="343"/>
-      <c r="D56" s="345"/>
-      <c r="E56" s="347"/>
+      <c r="A56" s="319"/>
+      <c r="B56" s="320"/>
+      <c r="C56" s="321"/>
+      <c r="D56" s="322"/>
+      <c r="E56" s="323"/>
       <c r="F56" s="85"/>
       <c r="G56" s="86"/>
       <c r="H56" s="86"/>
@@ -31311,11 +31322,11 @@
       <c r="EP56" s="43"/>
     </row>
     <row r="57" spans="1:146">
-      <c r="A57" s="366"/>
-      <c r="B57" s="348"/>
-      <c r="C57" s="349"/>
-      <c r="D57" s="350"/>
-      <c r="E57" s="351"/>
+      <c r="A57" s="309"/>
+      <c r="B57" s="311"/>
+      <c r="C57" s="313"/>
+      <c r="D57" s="315"/>
+      <c r="E57" s="317"/>
       <c r="F57" s="91"/>
       <c r="G57" s="92"/>
       <c r="H57" s="92"/>
@@ -31459,11 +31470,11 @@
       <c r="EP57" s="43"/>
     </row>
     <row r="58" spans="1:146">
-      <c r="A58" s="367"/>
-      <c r="B58" s="341"/>
-      <c r="C58" s="343"/>
-      <c r="D58" s="345"/>
-      <c r="E58" s="347"/>
+      <c r="A58" s="319"/>
+      <c r="B58" s="320"/>
+      <c r="C58" s="321"/>
+      <c r="D58" s="322"/>
+      <c r="E58" s="323"/>
       <c r="F58" s="85"/>
       <c r="G58" s="86"/>
       <c r="H58" s="86"/>
@@ -31607,11 +31618,11 @@
       <c r="EP58" s="43"/>
     </row>
     <row r="59" spans="1:146">
-      <c r="A59" s="366"/>
-      <c r="B59" s="348"/>
-      <c r="C59" s="349"/>
-      <c r="D59" s="350"/>
-      <c r="E59" s="351"/>
+      <c r="A59" s="309"/>
+      <c r="B59" s="311"/>
+      <c r="C59" s="313"/>
+      <c r="D59" s="315"/>
+      <c r="E59" s="317"/>
       <c r="F59" s="91"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
@@ -31755,11 +31766,11 @@
       <c r="EP59" s="43"/>
     </row>
     <row r="60" spans="1:146">
-      <c r="A60" s="367"/>
-      <c r="B60" s="341"/>
-      <c r="C60" s="343"/>
-      <c r="D60" s="345"/>
-      <c r="E60" s="347"/>
+      <c r="A60" s="319"/>
+      <c r="B60" s="320"/>
+      <c r="C60" s="321"/>
+      <c r="D60" s="322"/>
+      <c r="E60" s="323"/>
       <c r="F60" s="85"/>
       <c r="G60" s="86"/>
       <c r="H60" s="86"/>
@@ -31903,11 +31914,11 @@
       <c r="EP60" s="43"/>
     </row>
     <row r="61" spans="1:146">
-      <c r="A61" s="366"/>
-      <c r="B61" s="348"/>
-      <c r="C61" s="349"/>
-      <c r="D61" s="350"/>
-      <c r="E61" s="351"/>
+      <c r="A61" s="309"/>
+      <c r="B61" s="311"/>
+      <c r="C61" s="313"/>
+      <c r="D61" s="315"/>
+      <c r="E61" s="317"/>
       <c r="F61" s="91"/>
       <c r="G61" s="92"/>
       <c r="H61" s="92"/>
@@ -32051,11 +32062,11 @@
       <c r="EP61" s="43"/>
     </row>
     <row r="62" spans="1:146">
-      <c r="A62" s="367"/>
-      <c r="B62" s="341"/>
-      <c r="C62" s="343"/>
-      <c r="D62" s="345"/>
-      <c r="E62" s="347"/>
+      <c r="A62" s="319"/>
+      <c r="B62" s="320"/>
+      <c r="C62" s="321"/>
+      <c r="D62" s="322"/>
+      <c r="E62" s="323"/>
       <c r="F62" s="85"/>
       <c r="G62" s="86"/>
       <c r="H62" s="86"/>
@@ -32199,11 +32210,11 @@
       <c r="EP62" s="43"/>
     </row>
     <row r="63" spans="1:146">
-      <c r="A63" s="366"/>
-      <c r="B63" s="348"/>
-      <c r="C63" s="349"/>
-      <c r="D63" s="350"/>
-      <c r="E63" s="351"/>
+      <c r="A63" s="309"/>
+      <c r="B63" s="311"/>
+      <c r="C63" s="313"/>
+      <c r="D63" s="315"/>
+      <c r="E63" s="317"/>
       <c r="F63" s="91"/>
       <c r="G63" s="92"/>
       <c r="H63" s="92"/>
@@ -32347,11 +32358,11 @@
       <c r="EP63" s="43"/>
     </row>
     <row r="64" spans="1:146">
-      <c r="A64" s="367"/>
-      <c r="B64" s="341"/>
-      <c r="C64" s="343"/>
-      <c r="D64" s="345"/>
-      <c r="E64" s="347"/>
+      <c r="A64" s="319"/>
+      <c r="B64" s="320"/>
+      <c r="C64" s="321"/>
+      <c r="D64" s="322"/>
+      <c r="E64" s="323"/>
       <c r="F64" s="85"/>
       <c r="G64" s="86"/>
       <c r="H64" s="86"/>
@@ -32495,11 +32506,11 @@
       <c r="EP64" s="43"/>
     </row>
     <row r="65" spans="1:146">
-      <c r="A65" s="366"/>
-      <c r="B65" s="348"/>
-      <c r="C65" s="349"/>
-      <c r="D65" s="350"/>
-      <c r="E65" s="351"/>
+      <c r="A65" s="309"/>
+      <c r="B65" s="311"/>
+      <c r="C65" s="313"/>
+      <c r="D65" s="315"/>
+      <c r="E65" s="317"/>
       <c r="F65" s="91"/>
       <c r="G65" s="92"/>
       <c r="H65" s="92"/>
@@ -32643,11 +32654,11 @@
       <c r="EP65" s="43"/>
     </row>
     <row r="66" spans="1:146" ht="15" thickBot="1">
-      <c r="A66" s="368"/>
-      <c r="B66" s="369"/>
-      <c r="C66" s="370"/>
-      <c r="D66" s="371"/>
-      <c r="E66" s="372"/>
+      <c r="A66" s="310"/>
+      <c r="B66" s="312"/>
+      <c r="C66" s="314"/>
+      <c r="D66" s="316"/>
+      <c r="E66" s="318"/>
       <c r="F66" s="98"/>
       <c r="G66" s="99"/>
       <c r="H66" s="99"/>
@@ -34442,151 +34453,6 @@
     </row>
   </sheetData>
   <mergeCells count="165">
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A4:DF4"/>
     <mergeCell ref="DG4:EO4"/>
     <mergeCell ref="A5:A8"/>
@@ -34607,6 +34473,151 @@
     <mergeCell ref="AJ2:AT2"/>
     <mergeCell ref="AU2:BG2"/>
     <mergeCell ref="BJ2:CG2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34658,39 +34669,39 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="386" t="s">
+      <c r="A3" s="413" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="387"/>
-      <c r="C3" s="388" t="s">
+      <c r="B3" s="414"/>
+      <c r="C3" s="415" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="388"/>
-      <c r="E3" s="389"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="416"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="41.25" customHeight="1">
-      <c r="A4" s="390" t="s">
+      <c r="A4" s="417" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="391"/>
-      <c r="C4" s="392" t="s">
+      <c r="B4" s="418"/>
+      <c r="C4" s="419" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="393"/>
-      <c r="E4" s="394"/>
+      <c r="D4" s="420"/>
+      <c r="E4" s="421"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1">
-      <c r="A5" s="401" t="s">
+      <c r="A5" s="428" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="402"/>
-      <c r="C5" s="399">
+      <c r="B5" s="429"/>
+      <c r="C5" s="426">
         <v>43592</v>
       </c>
-      <c r="D5" s="399"/>
-      <c r="E5" s="400"/>
+      <c r="D5" s="426"/>
+      <c r="E5" s="427"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1">
@@ -34702,34 +34713,34 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A7" s="395" t="s">
+      <c r="A7" s="422" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="397" t="s">
+      <c r="B7" s="424" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="397"/>
+      <c r="C7" s="424"/>
       <c r="D7" s="135" t="s">
         <v>141</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="377" t="s">
+      <c r="F7" s="430" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="378"/>
-      <c r="H7" s="379"/>
-      <c r="I7" s="380" t="s">
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="433" t="s">
         <v>142</v>
       </c>
-      <c r="J7" s="381"/>
-      <c r="K7" s="382"/>
+      <c r="J7" s="434"/>
+      <c r="K7" s="435"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1">
-      <c r="A8" s="396"/>
-      <c r="B8" s="398"/>
-      <c r="C8" s="398"/>
+      <c r="A8" s="423"/>
+      <c r="B8" s="425"/>
+      <c r="C8" s="425"/>
       <c r="D8" s="136" t="s">
         <v>0</v>
       </c>
@@ -34759,10 +34770,10 @@
       <c r="A9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="385" t="s">
+      <c r="B9" s="441" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="385"/>
+      <c r="C9" s="441"/>
       <c r="D9" s="24">
         <v>70</v>
       </c>
@@ -34790,10 +34801,10 @@
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="373" t="s">
+      <c r="B10" s="440" t="s">
         <v>252</v>
       </c>
-      <c r="C10" s="373"/>
+      <c r="C10" s="440"/>
       <c r="D10" s="5">
         <v>2</v>
       </c>
@@ -34821,10 +34832,10 @@
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="373" t="s">
+      <c r="B11" s="440" t="s">
         <v>254</v>
       </c>
-      <c r="C11" s="373"/>
+      <c r="C11" s="440"/>
       <c r="D11" s="5">
         <v>25</v>
       </c>
@@ -34852,10 +34863,10 @@
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="373" t="s">
+      <c r="B12" s="440" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="373"/>
+      <c r="C12" s="440"/>
       <c r="D12" s="5">
         <v>50</v>
       </c>
@@ -34883,10 +34894,10 @@
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="383" t="s">
+      <c r="B13" s="436" t="s">
         <v>300</v>
       </c>
-      <c r="C13" s="384"/>
+      <c r="C13" s="437"/>
       <c r="D13" s="5">
         <v>35</v>
       </c>
@@ -34914,10 +34925,10 @@
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="373" t="s">
+      <c r="B14" s="440" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="373"/>
+      <c r="C14" s="440"/>
       <c r="D14" s="5">
         <v>20</v>
       </c>
@@ -34945,10 +34956,10 @@
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="373" t="s">
+      <c r="B15" s="440" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="373"/>
+      <c r="C15" s="440"/>
       <c r="D15" s="5">
         <v>70</v>
       </c>
@@ -34976,10 +34987,10 @@
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="373" t="s">
+      <c r="B16" s="440" t="s">
         <v>282</v>
       </c>
-      <c r="C16" s="373"/>
+      <c r="C16" s="440"/>
       <c r="D16" s="5">
         <v>85</v>
       </c>
@@ -35007,10 +35018,10 @@
       <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="373" t="s">
+      <c r="B17" s="440" t="s">
         <v>298</v>
       </c>
-      <c r="C17" s="373"/>
+      <c r="C17" s="440"/>
       <c r="D17" s="5">
         <v>20</v>
       </c>
@@ -35038,10 +35049,10 @@
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="383" t="s">
+      <c r="B18" s="436" t="s">
         <v>299</v>
       </c>
-      <c r="C18" s="384"/>
+      <c r="C18" s="437"/>
       <c r="D18" s="5">
         <v>20</v>
       </c>
@@ -35069,8 +35080,8 @@
       <c r="A19" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="383"/>
-      <c r="C19" s="384"/>
+      <c r="B19" s="436"/>
+      <c r="C19" s="437"/>
       <c r="D19" s="5"/>
       <c r="E19" s="134"/>
       <c r="F19" s="12"/>
@@ -35084,8 +35095,8 @@
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="375"/>
-      <c r="C20" s="376"/>
+      <c r="B20" s="438"/>
+      <c r="C20" s="439"/>
       <c r="D20" s="5"/>
       <c r="E20" s="134"/>
       <c r="F20" s="12"/>
@@ -35099,8 +35110,8 @@
       <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="375"/>
-      <c r="C21" s="376"/>
+      <c r="B21" s="438"/>
+      <c r="C21" s="439"/>
       <c r="D21" s="5"/>
       <c r="E21" s="134"/>
       <c r="F21" s="12"/>
@@ -35114,8 +35125,8 @@
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="375"/>
-      <c r="C22" s="376"/>
+      <c r="B22" s="438"/>
+      <c r="C22" s="439"/>
       <c r="D22" s="5"/>
       <c r="E22" s="134"/>
       <c r="F22" s="12"/>
@@ -35129,8 +35140,8 @@
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="373"/>
-      <c r="C23" s="373"/>
+      <c r="B23" s="440"/>
+      <c r="C23" s="440"/>
       <c r="D23" s="5"/>
       <c r="E23" s="134"/>
       <c r="F23" s="12"/>
@@ -35144,8 +35155,8 @@
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="375"/>
-      <c r="C24" s="376"/>
+      <c r="B24" s="438"/>
+      <c r="C24" s="439"/>
       <c r="D24" s="5"/>
       <c r="E24" s="134"/>
       <c r="F24" s="12"/>
@@ -35159,8 +35170,8 @@
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="375"/>
-      <c r="C25" s="376"/>
+      <c r="B25" s="438"/>
+      <c r="C25" s="439"/>
       <c r="D25" s="5"/>
       <c r="E25" s="134"/>
       <c r="F25" s="12"/>
@@ -35174,8 +35185,8 @@
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="375"/>
-      <c r="C26" s="376"/>
+      <c r="B26" s="438"/>
+      <c r="C26" s="439"/>
       <c r="D26" s="5"/>
       <c r="E26" s="134"/>
       <c r="F26" s="12"/>
@@ -35189,8 +35200,8 @@
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="375"/>
-      <c r="C27" s="376"/>
+      <c r="B27" s="438"/>
+      <c r="C27" s="439"/>
       <c r="D27" s="5"/>
       <c r="E27" s="134"/>
       <c r="F27" s="12"/>
@@ -35204,8 +35215,8 @@
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="375"/>
-      <c r="C28" s="376"/>
+      <c r="B28" s="438"/>
+      <c r="C28" s="439"/>
       <c r="D28" s="5"/>
       <c r="E28" s="134"/>
       <c r="F28" s="12"/>
@@ -35219,8 +35230,8 @@
       <c r="A29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="373"/>
-      <c r="C29" s="373"/>
+      <c r="B29" s="440"/>
+      <c r="C29" s="440"/>
       <c r="D29" s="5"/>
       <c r="E29" s="134"/>
       <c r="F29" s="12"/>
@@ -35234,8 +35245,8 @@
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="373"/>
-      <c r="C30" s="373"/>
+      <c r="B30" s="440"/>
+      <c r="C30" s="440"/>
       <c r="D30" s="5"/>
       <c r="E30" s="134"/>
       <c r="F30" s="12"/>
@@ -35249,8 +35260,8 @@
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="373"/>
-      <c r="C31" s="373"/>
+      <c r="B31" s="440"/>
+      <c r="C31" s="440"/>
       <c r="D31" s="5"/>
       <c r="E31" s="134"/>
       <c r="F31" s="12"/>
@@ -35264,8 +35275,8 @@
       <c r="A32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="373"/>
-      <c r="C32" s="373"/>
+      <c r="B32" s="440"/>
+      <c r="C32" s="440"/>
       <c r="D32" s="5"/>
       <c r="E32" s="134"/>
       <c r="F32" s="12"/>
@@ -35279,8 +35290,8 @@
       <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="373"/>
-      <c r="C33" s="373"/>
+      <c r="B33" s="440"/>
+      <c r="C33" s="440"/>
       <c r="D33" s="5"/>
       <c r="E33" s="134"/>
       <c r="F33" s="12"/>
@@ -35294,8 +35305,8 @@
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="373"/>
-      <c r="C34" s="373"/>
+      <c r="B34" s="440"/>
+      <c r="C34" s="440"/>
       <c r="D34" s="5"/>
       <c r="E34" s="134"/>
       <c r="F34" s="12"/>
@@ -35309,8 +35320,8 @@
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="373"/>
-      <c r="C35" s="373"/>
+      <c r="B35" s="440"/>
+      <c r="C35" s="440"/>
       <c r="D35" s="5"/>
       <c r="E35" s="134"/>
       <c r="F35" s="12"/>
@@ -35324,8 +35335,8 @@
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="373"/>
-      <c r="C36" s="373"/>
+      <c r="B36" s="440"/>
+      <c r="C36" s="440"/>
       <c r="D36" s="5"/>
       <c r="E36" s="134"/>
       <c r="F36" s="12"/>
@@ -35339,8 +35350,8 @@
       <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="373"/>
-      <c r="C37" s="373"/>
+      <c r="B37" s="440"/>
+      <c r="C37" s="440"/>
       <c r="D37" s="5"/>
       <c r="E37" s="134"/>
       <c r="F37" s="12"/>
@@ -35354,8 +35365,8 @@
       <c r="A38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="374"/>
-      <c r="C38" s="374"/>
+      <c r="B38" s="442"/>
+      <c r="C38" s="442"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
       <c r="F38" s="13"/>
@@ -35367,14 +35378,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="B18:C18"/>
@@ -35389,24 +35410,14 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>

--- a/Doku/Projektmappe.xlsx
+++ b/Doku/Projektmappe.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{776A3FB2-185C-4872-A929-800708629F32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD42492-BD28-424D-9DF6-2C36B627B8A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="832" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="347">
   <si>
     <t>(0-100%)</t>
   </si>
@@ -1300,6 +1300,10 @@
   </si>
   <si>
     <t>Gutnik, Uthayakumaran</t>
+  </si>
+  <si>
+    <t>Nr 9  Testing
+(10 Tage)</t>
   </si>
 </sst>
 </file>
@@ -4193,11 +4197,58 @@
     <xf numFmtId="0" fontId="49" fillId="42" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4232,58 +4283,16 @@
     <xf numFmtId="0" fontId="30" fillId="26" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4295,96 +4304,11 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4404,6 +4328,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4422,10 +4352,89 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="134" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4479,91 +4488,8 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4729,6 +4655,131 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4780,49 +4831,10 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4831,17 +4843,9 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -15557,13 +15561,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>356827</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>3199</xdr:rowOff>
+      <xdr:rowOff>3201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>702469</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>718457</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>3200</xdr:rowOff>
+      <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15577,9 +15581,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7214827" y="777105"/>
-          <a:ext cx="15585642" cy="1"/>
+        <a:xfrm>
+          <a:off x="5059456" y="765201"/>
+          <a:ext cx="19172144" cy="7685"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15607,16 +15611,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>352085</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>460941</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>117363</xdr:rowOff>
+      <xdr:rowOff>62935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>578304</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>687161</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>56129</xdr:rowOff>
+      <xdr:rowOff>1701</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15631,8 +15635,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23974085" y="1287577"/>
-          <a:ext cx="988219" cy="932088"/>
+          <a:off x="27892941" y="1205935"/>
+          <a:ext cx="1009991" cy="907595"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -15686,16 +15690,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>549232</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>636319</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>176156</xdr:rowOff>
+      <xdr:rowOff>143499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>359334</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>446421</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>176158</xdr:rowOff>
+      <xdr:rowOff>143501</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15710,8 +15714,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="23409232" y="1740977"/>
-          <a:ext cx="572102" cy="2"/>
+          <a:off x="27284548" y="1667499"/>
+          <a:ext cx="593873" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16588,65 +16592,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>753837</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>168731</xdr:rowOff>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>5445</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>195942</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Gerader Verbinder 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="18701660" y="1856015"/>
-          <a:ext cx="2217961" cy="13608"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>742949</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>8166</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:colOff>772886</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16661,64 +16615,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19030949" y="2375809"/>
-          <a:ext cx="781051" cy="5441"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>732063</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>174173</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>751114</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>179614</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="Gerade Verbindung mit Pfeil 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19782063" y="2745923"/>
-          <a:ext cx="781051" cy="5441"/>
+          <a:off x="19659600" y="2231571"/>
+          <a:ext cx="1491343" cy="10886"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16750,72 +16648,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>549729</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>27217</xdr:rowOff>
+      <xdr:colOff>2720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>557894</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>127907</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="Gerader Verbinder 4">
+        <xdr:cNvPr id="77" name="Gerade Verbindung mit Pfeil 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="22465395" y="1747158"/>
-          <a:ext cx="1896833" cy="8165"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>756556</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>185059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>566246</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>185059</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="Gerade Verbindung mit Pfeil 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16823,8 +16671,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22854556" y="960666"/>
-          <a:ext cx="571690" cy="0"/>
+          <a:off x="23515863" y="2231572"/>
+          <a:ext cx="781051" cy="10885"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16855,16 +16703,122 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>759278</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>24495</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>582388</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>568968</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>590553</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>24495</xdr:rowOff>
+      <xdr:rowOff>62593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Gerader Verbinder 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="26313498" y="1641022"/>
+          <a:ext cx="1842404" cy="8165"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>87088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>544475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Gerade Verbindung mit Pfeil 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="26702657" y="849088"/>
+          <a:ext cx="490047" cy="10883"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>43542</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>525424</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>122466</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16879,8 +16833,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22857278" y="2596245"/>
-          <a:ext cx="571690" cy="0"/>
+          <a:off x="26691771" y="2231571"/>
+          <a:ext cx="481882" cy="2724"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -18210,33 +18164,33 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="227" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1">
-      <c r="B4" s="226" t="s">
+      <c r="B4" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="228"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="223"/>
       <c r="H4" s="148"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1">
-      <c r="B5" s="229"/>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
-      <c r="G5" s="231"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="225"/>
+      <c r="E5" s="225"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="226"/>
       <c r="H5" s="148"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1">
@@ -18250,34 +18204,34 @@
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1">
       <c r="B7" s="150"/>
-      <c r="C7" s="215" t="s">
+      <c r="C7" s="236" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="217"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="238"/>
       <c r="G7" s="155"/>
       <c r="H7" s="149"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1">
       <c r="B8" s="150"/>
       <c r="C8" s="150"/>
-      <c r="D8" s="218" t="s">
+      <c r="D8" s="239" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="218"/>
-      <c r="F8" s="219"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="240"/>
       <c r="G8" s="155"/>
       <c r="H8" s="149"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1">
       <c r="B9" s="150"/>
       <c r="C9" s="151"/>
-      <c r="D9" s="213" t="s">
+      <c r="D9" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="213"/>
-      <c r="F9" s="214"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="232"/>
       <c r="G9" s="155"/>
       <c r="H9" s="149"/>
     </row>
@@ -18292,32 +18246,32 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="152"/>
-      <c r="C11" s="220" t="s">
+      <c r="C11" s="241" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="221"/>
-      <c r="E11" s="221"/>
-      <c r="F11" s="222"/>
+      <c r="D11" s="242"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="243"/>
       <c r="G11" s="142"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="152"/>
       <c r="C12" s="152"/>
-      <c r="D12" s="218" t="s">
+      <c r="D12" s="239" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="218"/>
-      <c r="F12" s="219"/>
+      <c r="E12" s="239"/>
+      <c r="F12" s="240"/>
       <c r="G12" s="142"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="152"/>
       <c r="C13" s="153"/>
-      <c r="D13" s="213" t="s">
+      <c r="D13" s="231" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="213"/>
-      <c r="F13" s="214"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="232"/>
       <c r="G13" s="142"/>
     </row>
     <row r="14" spans="2:8">
@@ -18338,32 +18292,32 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="152"/>
-      <c r="C16" s="223" t="s">
+      <c r="C16" s="244" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="224"/>
-      <c r="E16" s="224"/>
-      <c r="F16" s="225"/>
+      <c r="D16" s="245"/>
+      <c r="E16" s="245"/>
+      <c r="F16" s="246"/>
       <c r="G16" s="142"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="152"/>
       <c r="C17" s="152"/>
-      <c r="D17" s="218" t="s">
+      <c r="D17" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="218"/>
-      <c r="F17" s="219"/>
+      <c r="E17" s="239"/>
+      <c r="F17" s="240"/>
       <c r="G17" s="142"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="152"/>
       <c r="C18" s="153"/>
-      <c r="D18" s="213" t="s">
+      <c r="D18" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="213"/>
-      <c r="F18" s="214"/>
+      <c r="E18" s="231"/>
+      <c r="F18" s="232"/>
       <c r="G18" s="142"/>
     </row>
     <row r="19" spans="2:7">
@@ -18384,22 +18338,22 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="152"/>
-      <c r="C21" s="233" t="s">
+      <c r="C21" s="228" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="234"/>
-      <c r="E21" s="234"/>
-      <c r="F21" s="235"/>
+      <c r="D21" s="229"/>
+      <c r="E21" s="229"/>
+      <c r="F21" s="230"/>
       <c r="G21" s="142"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="152"/>
       <c r="C22" s="153"/>
-      <c r="D22" s="213" t="s">
+      <c r="D22" s="231" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="213"/>
-      <c r="F22" s="214"/>
+      <c r="E22" s="231"/>
+      <c r="F22" s="232"/>
       <c r="G22" s="142"/>
     </row>
     <row r="23" spans="2:7">
@@ -18420,22 +18374,22 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="152"/>
-      <c r="C25" s="236" t="s">
+      <c r="C25" s="233" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="237"/>
-      <c r="E25" s="237"/>
-      <c r="F25" s="238"/>
+      <c r="D25" s="234"/>
+      <c r="E25" s="234"/>
+      <c r="F25" s="235"/>
       <c r="G25" s="142"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="152"/>
       <c r="C26" s="153"/>
-      <c r="D26" s="213" t="s">
+      <c r="D26" s="231" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="213"/>
-      <c r="F26" s="214"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="232"/>
       <c r="G26" s="142"/>
     </row>
     <row r="27" spans="2:7">
@@ -18448,11 +18402,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="C25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="D8:F8"/>
@@ -18463,6 +18412,11 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="C25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18488,272 +18442,310 @@
   <sheetData>
     <row r="1" spans="2:11" s="145" customFormat="1"/>
     <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="443" t="s">
+      <c r="B2" s="455" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="443"/>
-      <c r="D2" s="443" t="s">
+      <c r="C2" s="455"/>
+      <c r="D2" s="455" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="443"/>
-      <c r="F2" s="443" t="s">
+      <c r="E2" s="455"/>
+      <c r="F2" s="455" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="443"/>
-      <c r="H2" s="443" t="s">
+      <c r="G2" s="455"/>
+      <c r="H2" s="455" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="443"/>
-      <c r="J2" s="443" t="s">
+      <c r="I2" s="455"/>
+      <c r="J2" s="455" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="443"/>
+      <c r="K2" s="455"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="444">
+      <c r="B3" s="451">
         <v>1</v>
       </c>
-      <c r="C3" s="444"/>
-      <c r="D3" s="444" t="s">
+      <c r="C3" s="451"/>
+      <c r="D3" s="451" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="444"/>
-      <c r="F3" s="444" t="s">
+      <c r="E3" s="451"/>
+      <c r="F3" s="451" t="s">
         <v>320</v>
       </c>
-      <c r="G3" s="444"/>
-      <c r="H3" s="447" t="s">
+      <c r="G3" s="451"/>
+      <c r="H3" s="452" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="447"/>
-      <c r="J3" s="444" t="s">
+      <c r="I3" s="452"/>
+      <c r="J3" s="451" t="s">
         <v>321</v>
       </c>
-      <c r="K3" s="444"/>
+      <c r="K3" s="451"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B4" s="444"/>
-      <c r="C4" s="444"/>
-      <c r="D4" s="444"/>
-      <c r="E4" s="444"/>
-      <c r="F4" s="444"/>
-      <c r="G4" s="444"/>
-      <c r="H4" s="447" t="s">
+      <c r="B4" s="451"/>
+      <c r="C4" s="451"/>
+      <c r="D4" s="451"/>
+      <c r="E4" s="451"/>
+      <c r="F4" s="451"/>
+      <c r="G4" s="451"/>
+      <c r="H4" s="452" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="447"/>
-      <c r="J4" s="444"/>
-      <c r="K4" s="444"/>
+      <c r="I4" s="452"/>
+      <c r="J4" s="451"/>
+      <c r="K4" s="451"/>
     </row>
     <row r="5" spans="2:11" ht="15.6">
-      <c r="B5" s="444"/>
-      <c r="C5" s="444"/>
-      <c r="D5" s="444"/>
-      <c r="E5" s="444"/>
-      <c r="F5" s="444"/>
-      <c r="G5" s="444"/>
-      <c r="H5" s="447" t="s">
+      <c r="B5" s="451"/>
+      <c r="C5" s="451"/>
+      <c r="D5" s="451"/>
+      <c r="E5" s="451"/>
+      <c r="F5" s="451"/>
+      <c r="G5" s="451"/>
+      <c r="H5" s="452" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="447"/>
-      <c r="J5" s="444"/>
-      <c r="K5" s="444"/>
+      <c r="I5" s="452"/>
+      <c r="J5" s="451"/>
+      <c r="K5" s="451"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B6" s="444">
+      <c r="B6" s="451">
         <v>2</v>
       </c>
-      <c r="C6" s="444"/>
-      <c r="D6" s="444" t="s">
+      <c r="C6" s="451"/>
+      <c r="D6" s="451" t="s">
         <v>318</v>
       </c>
-      <c r="E6" s="444"/>
-      <c r="F6" s="445" t="s">
+      <c r="E6" s="451"/>
+      <c r="F6" s="453" t="s">
         <v>322</v>
       </c>
-      <c r="G6" s="446"/>
-      <c r="H6" s="447" t="s">
+      <c r="G6" s="454"/>
+      <c r="H6" s="452" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="447"/>
-      <c r="J6" s="444" t="s">
+      <c r="I6" s="452"/>
+      <c r="J6" s="451" t="s">
         <v>323</v>
       </c>
-      <c r="K6" s="444"/>
+      <c r="K6" s="451"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B7" s="444"/>
-      <c r="C7" s="444"/>
-      <c r="D7" s="444"/>
-      <c r="E7" s="444"/>
-      <c r="F7" s="444"/>
-      <c r="G7" s="444"/>
-      <c r="H7" s="447" t="s">
+      <c r="B7" s="451"/>
+      <c r="C7" s="451"/>
+      <c r="D7" s="451"/>
+      <c r="E7" s="451"/>
+      <c r="F7" s="451"/>
+      <c r="G7" s="451"/>
+      <c r="H7" s="452" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="447"/>
-      <c r="J7" s="444"/>
-      <c r="K7" s="444"/>
+      <c r="I7" s="452"/>
+      <c r="J7" s="451"/>
+      <c r="K7" s="451"/>
     </row>
     <row r="8" spans="2:11" ht="15.6">
-      <c r="B8" s="444"/>
-      <c r="C8" s="444"/>
-      <c r="D8" s="444"/>
-      <c r="E8" s="444"/>
-      <c r="F8" s="444"/>
-      <c r="G8" s="444"/>
-      <c r="H8" s="447" t="s">
+      <c r="B8" s="451"/>
+      <c r="C8" s="451"/>
+      <c r="D8" s="451"/>
+      <c r="E8" s="451"/>
+      <c r="F8" s="451"/>
+      <c r="G8" s="451"/>
+      <c r="H8" s="452" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="447"/>
-      <c r="J8" s="444"/>
-      <c r="K8" s="444"/>
+      <c r="I8" s="452"/>
+      <c r="J8" s="451"/>
+      <c r="K8" s="451"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B9" s="444">
+      <c r="B9" s="451">
         <v>3</v>
       </c>
-      <c r="C9" s="444"/>
-      <c r="D9" s="444" t="s">
+      <c r="C9" s="451"/>
+      <c r="D9" s="451" t="s">
         <v>317</v>
       </c>
-      <c r="E9" s="444"/>
-      <c r="F9" s="444" t="s">
+      <c r="E9" s="451"/>
+      <c r="F9" s="451" t="s">
         <v>324</v>
       </c>
-      <c r="G9" s="444"/>
-      <c r="H9" s="447" t="s">
+      <c r="G9" s="451"/>
+      <c r="H9" s="452" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="447"/>
-      <c r="J9" s="444" t="s">
+      <c r="I9" s="452"/>
+      <c r="J9" s="451" t="s">
         <v>325</v>
       </c>
-      <c r="K9" s="444"/>
+      <c r="K9" s="451"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B10" s="444"/>
-      <c r="C10" s="444"/>
-      <c r="D10" s="444"/>
-      <c r="E10" s="444"/>
-      <c r="F10" s="444"/>
-      <c r="G10" s="444"/>
-      <c r="H10" s="447" t="s">
+      <c r="B10" s="451"/>
+      <c r="C10" s="451"/>
+      <c r="D10" s="451"/>
+      <c r="E10" s="451"/>
+      <c r="F10" s="451"/>
+      <c r="G10" s="451"/>
+      <c r="H10" s="452" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="447"/>
-      <c r="J10" s="444"/>
-      <c r="K10" s="444"/>
+      <c r="I10" s="452"/>
+      <c r="J10" s="451"/>
+      <c r="K10" s="451"/>
     </row>
     <row r="11" spans="2:11" ht="15.6">
-      <c r="B11" s="444"/>
-      <c r="C11" s="444"/>
-      <c r="D11" s="444"/>
-      <c r="E11" s="444"/>
-      <c r="F11" s="444"/>
-      <c r="G11" s="444"/>
-      <c r="H11" s="447" t="s">
+      <c r="B11" s="451"/>
+      <c r="C11" s="451"/>
+      <c r="D11" s="451"/>
+      <c r="E11" s="451"/>
+      <c r="F11" s="451"/>
+      <c r="G11" s="451"/>
+      <c r="H11" s="452" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="447"/>
-      <c r="J11" s="444"/>
-      <c r="K11" s="444"/>
+      <c r="I11" s="452"/>
+      <c r="J11" s="451"/>
+      <c r="K11" s="451"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B12" s="444">
+      <c r="B12" s="451">
         <v>4</v>
       </c>
-      <c r="C12" s="444"/>
-      <c r="D12" s="444"/>
-      <c r="E12" s="444"/>
-      <c r="F12" s="444"/>
-      <c r="G12" s="444"/>
-      <c r="H12" s="447" t="s">
+      <c r="C12" s="451"/>
+      <c r="D12" s="451"/>
+      <c r="E12" s="451"/>
+      <c r="F12" s="451"/>
+      <c r="G12" s="451"/>
+      <c r="H12" s="452" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="447"/>
-      <c r="J12" s="444"/>
-      <c r="K12" s="444"/>
+      <c r="I12" s="452"/>
+      <c r="J12" s="451"/>
+      <c r="K12" s="451"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B13" s="444"/>
-      <c r="C13" s="444"/>
-      <c r="D13" s="444"/>
-      <c r="E13" s="444"/>
-      <c r="F13" s="444"/>
-      <c r="G13" s="444"/>
-      <c r="H13" s="447" t="s">
+      <c r="B13" s="451"/>
+      <c r="C13" s="451"/>
+      <c r="D13" s="451"/>
+      <c r="E13" s="451"/>
+      <c r="F13" s="451"/>
+      <c r="G13" s="451"/>
+      <c r="H13" s="452" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="447"/>
-      <c r="J13" s="444"/>
-      <c r="K13" s="444"/>
+      <c r="I13" s="452"/>
+      <c r="J13" s="451"/>
+      <c r="K13" s="451"/>
     </row>
     <row r="14" spans="2:11" ht="15.6">
-      <c r="B14" s="444"/>
-      <c r="C14" s="444"/>
-      <c r="D14" s="444"/>
-      <c r="E14" s="444"/>
-      <c r="F14" s="444"/>
-      <c r="G14" s="444"/>
-      <c r="H14" s="447" t="s">
+      <c r="B14" s="451"/>
+      <c r="C14" s="451"/>
+      <c r="D14" s="451"/>
+      <c r="E14" s="451"/>
+      <c r="F14" s="451"/>
+      <c r="G14" s="451"/>
+      <c r="H14" s="452" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="447"/>
-      <c r="J14" s="444"/>
-      <c r="K14" s="444"/>
+      <c r="I14" s="452"/>
+      <c r="J14" s="451"/>
+      <c r="K14" s="451"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B15" s="444">
+      <c r="B15" s="451">
         <v>5</v>
       </c>
-      <c r="C15" s="444"/>
-      <c r="D15" s="444"/>
-      <c r="E15" s="444"/>
-      <c r="F15" s="444"/>
-      <c r="G15" s="444"/>
-      <c r="H15" s="447" t="s">
+      <c r="C15" s="451"/>
+      <c r="D15" s="451"/>
+      <c r="E15" s="451"/>
+      <c r="F15" s="451"/>
+      <c r="G15" s="451"/>
+      <c r="H15" s="452" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="447"/>
-      <c r="J15" s="444"/>
-      <c r="K15" s="444"/>
+      <c r="I15" s="452"/>
+      <c r="J15" s="451"/>
+      <c r="K15" s="451"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B16" s="444"/>
-      <c r="C16" s="444"/>
-      <c r="D16" s="444"/>
-      <c r="E16" s="444"/>
-      <c r="F16" s="444"/>
-      <c r="G16" s="444"/>
-      <c r="H16" s="447" t="s">
+      <c r="B16" s="451"/>
+      <c r="C16" s="451"/>
+      <c r="D16" s="451"/>
+      <c r="E16" s="451"/>
+      <c r="F16" s="451"/>
+      <c r="G16" s="451"/>
+      <c r="H16" s="452" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="447"/>
-      <c r="J16" s="444"/>
-      <c r="K16" s="444"/>
+      <c r="I16" s="452"/>
+      <c r="J16" s="451"/>
+      <c r="K16" s="451"/>
     </row>
     <row r="17" spans="2:11" ht="15.6">
-      <c r="B17" s="444"/>
-      <c r="C17" s="444"/>
-      <c r="D17" s="444"/>
-      <c r="E17" s="444"/>
-      <c r="F17" s="444"/>
-      <c r="G17" s="444"/>
-      <c r="H17" s="447" t="s">
+      <c r="B17" s="451"/>
+      <c r="C17" s="451"/>
+      <c r="D17" s="451"/>
+      <c r="E17" s="451"/>
+      <c r="F17" s="451"/>
+      <c r="G17" s="451"/>
+      <c r="H17" s="452" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="447"/>
-      <c r="J17" s="444"/>
-      <c r="K17" s="444"/>
+      <c r="I17" s="452"/>
+      <c r="J17" s="451"/>
+      <c r="K17" s="451"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B15:C17"/>
+    <mergeCell ref="D3:E5"/>
+    <mergeCell ref="D6:E8"/>
+    <mergeCell ref="D9:E11"/>
+    <mergeCell ref="D12:E14"/>
+    <mergeCell ref="D15:E17"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J16:K16"/>
@@ -18766,49 +18758,11 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B15:C17"/>
-    <mergeCell ref="D3:E5"/>
-    <mergeCell ref="D6:E8"/>
-    <mergeCell ref="D9:E11"/>
-    <mergeCell ref="D12:E14"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18916,138 +18870,138 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:9" ht="25.2">
-      <c r="B7" s="239" t="s">
+      <c r="B7" s="292" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
-      <c r="H7" s="240"/>
-      <c r="I7" s="241"/>
+      <c r="C7" s="293"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="293"/>
+      <c r="G7" s="293"/>
+      <c r="H7" s="293"/>
+      <c r="I7" s="294"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="258" t="s">
+      <c r="B8" s="280" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="259"/>
-      <c r="D8" s="242" t="s">
+      <c r="C8" s="281"/>
+      <c r="D8" s="247" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="246"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="243"/>
+      <c r="E8" s="253"/>
+      <c r="F8" s="253"/>
+      <c r="G8" s="253"/>
+      <c r="H8" s="253"/>
+      <c r="I8" s="248"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="260"/>
-      <c r="C9" s="261"/>
-      <c r="D9" s="244"/>
-      <c r="E9" s="250"/>
-      <c r="F9" s="250"/>
-      <c r="G9" s="250"/>
-      <c r="H9" s="250"/>
-      <c r="I9" s="245"/>
+      <c r="B9" s="284"/>
+      <c r="C9" s="285"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="255"/>
+      <c r="F9" s="255"/>
+      <c r="G9" s="255"/>
+      <c r="H9" s="255"/>
+      <c r="I9" s="252"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="258" t="s">
+      <c r="B10" s="280" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="259"/>
-      <c r="D10" s="242" t="s">
+      <c r="C10" s="281"/>
+      <c r="D10" s="247" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="243"/>
-      <c r="F10" s="258" t="s">
+      <c r="E10" s="248"/>
+      <c r="F10" s="280" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="259"/>
-      <c r="H10" s="242" t="s">
+      <c r="G10" s="281"/>
+      <c r="H10" s="247" t="s">
         <v>177</v>
       </c>
-      <c r="I10" s="243"/>
+      <c r="I10" s="248"/>
     </row>
     <row r="11" spans="2:9" ht="43.95" customHeight="1">
-      <c r="B11" s="260"/>
-      <c r="C11" s="261"/>
-      <c r="D11" s="244"/>
-      <c r="E11" s="245"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="261"/>
-      <c r="H11" s="244"/>
-      <c r="I11" s="245"/>
+      <c r="B11" s="284"/>
+      <c r="C11" s="285"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="284"/>
+      <c r="G11" s="285"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="252"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1">
-      <c r="B12" s="258" t="s">
+      <c r="B12" s="280" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="259"/>
-      <c r="D12" s="242" t="s">
+      <c r="C12" s="281"/>
+      <c r="D12" s="247" t="s">
         <v>178</v>
       </c>
-      <c r="E12" s="246"/>
-      <c r="F12" s="246"/>
-      <c r="G12" s="246"/>
-      <c r="H12" s="246"/>
-      <c r="I12" s="243"/>
+      <c r="E12" s="253"/>
+      <c r="F12" s="253"/>
+      <c r="G12" s="253"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="248"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="262"/>
-      <c r="C13" s="263"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="248"/>
-      <c r="F13" s="248"/>
-      <c r="G13" s="248"/>
-      <c r="H13" s="248"/>
-      <c r="I13" s="249"/>
+      <c r="B13" s="282"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="249"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="254"/>
+      <c r="H13" s="254"/>
+      <c r="I13" s="250"/>
     </row>
     <row r="14" spans="2:9" ht="31.95" customHeight="1">
-      <c r="B14" s="260"/>
-      <c r="C14" s="261"/>
-      <c r="D14" s="244"/>
-      <c r="E14" s="250"/>
-      <c r="F14" s="250"/>
-      <c r="G14" s="250"/>
-      <c r="H14" s="250"/>
-      <c r="I14" s="245"/>
+      <c r="B14" s="284"/>
+      <c r="C14" s="285"/>
+      <c r="D14" s="251"/>
+      <c r="E14" s="255"/>
+      <c r="F14" s="255"/>
+      <c r="G14" s="255"/>
+      <c r="H14" s="255"/>
+      <c r="I14" s="252"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="253" t="s">
+      <c r="B15" s="262" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="254"/>
-      <c r="D15" s="251">
+      <c r="C15" s="263"/>
+      <c r="D15" s="278">
         <v>43560</v>
       </c>
-      <c r="E15" s="252"/>
-      <c r="F15" s="253" t="s">
+      <c r="E15" s="279"/>
+      <c r="F15" s="262" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="254"/>
-      <c r="H15" s="255" t="s">
+      <c r="G15" s="263"/>
+      <c r="H15" s="295" t="s">
         <v>290</v>
       </c>
-      <c r="I15" s="256"/>
+      <c r="I15" s="296"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="262" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="254"/>
-      <c r="D16" s="251">
+      <c r="C16" s="263"/>
+      <c r="D16" s="278">
         <v>43630</v>
       </c>
-      <c r="E16" s="252"/>
-      <c r="F16" s="253" t="s">
+      <c r="E16" s="279"/>
+      <c r="F16" s="262" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="254"/>
-      <c r="H16" s="257">
+      <c r="G16" s="263"/>
+      <c r="H16" s="297">
         <v>0</v>
       </c>
-      <c r="I16" s="256"/>
+      <c r="I16" s="296"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="131"/>
@@ -19058,98 +19012,98 @@
       <c r="C18" s="131"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B19" s="264" t="s">
+      <c r="B19" s="270" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="265"/>
-      <c r="D19" s="265"/>
-      <c r="E19" s="265"/>
-      <c r="F19" s="265"/>
-      <c r="G19" s="265"/>
-      <c r="H19" s="265"/>
-      <c r="I19" s="266"/>
+      <c r="C19" s="271"/>
+      <c r="D19" s="271"/>
+      <c r="E19" s="271"/>
+      <c r="F19" s="271"/>
+      <c r="G19" s="271"/>
+      <c r="H19" s="271"/>
+      <c r="I19" s="272"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="247" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="246"/>
-      <c r="D20" s="246"/>
-      <c r="E20" s="246"/>
-      <c r="F20" s="246"/>
-      <c r="G20" s="246"/>
-      <c r="H20" s="246"/>
-      <c r="I20" s="243"/>
+      <c r="C20" s="253"/>
+      <c r="D20" s="253"/>
+      <c r="E20" s="253"/>
+      <c r="F20" s="253"/>
+      <c r="G20" s="253"/>
+      <c r="H20" s="253"/>
+      <c r="I20" s="248"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="247"/>
-      <c r="C21" s="248"/>
-      <c r="D21" s="248"/>
-      <c r="E21" s="248"/>
-      <c r="F21" s="248"/>
-      <c r="G21" s="248"/>
-      <c r="H21" s="248"/>
-      <c r="I21" s="249"/>
+      <c r="B21" s="249"/>
+      <c r="C21" s="254"/>
+      <c r="D21" s="254"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="254"/>
+      <c r="G21" s="254"/>
+      <c r="H21" s="254"/>
+      <c r="I21" s="250"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="247"/>
-      <c r="C22" s="248"/>
-      <c r="D22" s="248"/>
-      <c r="E22" s="248"/>
-      <c r="F22" s="248"/>
-      <c r="G22" s="248"/>
-      <c r="H22" s="248"/>
-      <c r="I22" s="249"/>
+      <c r="B22" s="249"/>
+      <c r="C22" s="254"/>
+      <c r="D22" s="254"/>
+      <c r="E22" s="254"/>
+      <c r="F22" s="254"/>
+      <c r="G22" s="254"/>
+      <c r="H22" s="254"/>
+      <c r="I22" s="250"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="247"/>
-      <c r="C23" s="248"/>
-      <c r="D23" s="248"/>
-      <c r="E23" s="248"/>
-      <c r="F23" s="248"/>
-      <c r="G23" s="248"/>
-      <c r="H23" s="248"/>
-      <c r="I23" s="249"/>
+      <c r="B23" s="249"/>
+      <c r="C23" s="254"/>
+      <c r="D23" s="254"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="254"/>
+      <c r="G23" s="254"/>
+      <c r="H23" s="254"/>
+      <c r="I23" s="250"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="247"/>
-      <c r="C24" s="248"/>
-      <c r="D24" s="248"/>
-      <c r="E24" s="248"/>
-      <c r="F24" s="248"/>
-      <c r="G24" s="248"/>
-      <c r="H24" s="248"/>
-      <c r="I24" s="249"/>
+      <c r="B24" s="249"/>
+      <c r="C24" s="254"/>
+      <c r="D24" s="254"/>
+      <c r="E24" s="254"/>
+      <c r="F24" s="254"/>
+      <c r="G24" s="254"/>
+      <c r="H24" s="254"/>
+      <c r="I24" s="250"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="247"/>
-      <c r="C25" s="248"/>
-      <c r="D25" s="248"/>
-      <c r="E25" s="248"/>
-      <c r="F25" s="248"/>
-      <c r="G25" s="248"/>
-      <c r="H25" s="248"/>
-      <c r="I25" s="249"/>
+      <c r="B25" s="249"/>
+      <c r="C25" s="254"/>
+      <c r="D25" s="254"/>
+      <c r="E25" s="254"/>
+      <c r="F25" s="254"/>
+      <c r="G25" s="254"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="250"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="247"/>
-      <c r="C26" s="248"/>
-      <c r="D26" s="248"/>
-      <c r="E26" s="248"/>
-      <c r="F26" s="248"/>
-      <c r="G26" s="248"/>
-      <c r="H26" s="248"/>
-      <c r="I26" s="249"/>
+      <c r="B26" s="249"/>
+      <c r="C26" s="254"/>
+      <c r="D26" s="254"/>
+      <c r="E26" s="254"/>
+      <c r="F26" s="254"/>
+      <c r="G26" s="254"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="250"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="244"/>
-      <c r="C27" s="250"/>
-      <c r="D27" s="250"/>
-      <c r="E27" s="250"/>
-      <c r="F27" s="250"/>
-      <c r="G27" s="250"/>
-      <c r="H27" s="250"/>
-      <c r="I27" s="245"/>
+      <c r="B27" s="251"/>
+      <c r="C27" s="255"/>
+      <c r="D27" s="255"/>
+      <c r="E27" s="255"/>
+      <c r="F27" s="255"/>
+      <c r="G27" s="255"/>
+      <c r="H27" s="255"/>
+      <c r="I27" s="252"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="138"/>
@@ -19160,170 +19114,170 @@
       <c r="C29" s="138"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B30" s="264" t="s">
+      <c r="B30" s="270" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="265"/>
-      <c r="D30" s="265"/>
-      <c r="E30" s="265"/>
-      <c r="F30" s="265"/>
-      <c r="G30" s="265"/>
-      <c r="H30" s="265"/>
-      <c r="I30" s="266"/>
+      <c r="C30" s="271"/>
+      <c r="D30" s="271"/>
+      <c r="E30" s="271"/>
+      <c r="F30" s="271"/>
+      <c r="G30" s="271"/>
+      <c r="H30" s="271"/>
+      <c r="I30" s="272"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="253" t="s">
+      <c r="B31" s="262" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="267"/>
-      <c r="D31" s="267"/>
-      <c r="E31" s="254"/>
-      <c r="F31" s="253" t="s">
+      <c r="C31" s="277"/>
+      <c r="D31" s="277"/>
+      <c r="E31" s="263"/>
+      <c r="F31" s="262" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="267"/>
-      <c r="H31" s="267"/>
-      <c r="I31" s="254"/>
+      <c r="G31" s="277"/>
+      <c r="H31" s="277"/>
+      <c r="I31" s="263"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="242" t="s">
+      <c r="B32" s="247" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="246"/>
-      <c r="D32" s="246"/>
-      <c r="E32" s="243"/>
-      <c r="F32" s="242" t="s">
+      <c r="C32" s="253"/>
+      <c r="D32" s="253"/>
+      <c r="E32" s="248"/>
+      <c r="F32" s="247" t="s">
         <v>292</v>
       </c>
-      <c r="G32" s="246"/>
-      <c r="H32" s="246"/>
-      <c r="I32" s="243"/>
+      <c r="G32" s="253"/>
+      <c r="H32" s="253"/>
+      <c r="I32" s="248"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="247"/>
-      <c r="C33" s="248"/>
-      <c r="D33" s="248"/>
-      <c r="E33" s="249"/>
-      <c r="F33" s="247"/>
-      <c r="G33" s="248"/>
-      <c r="H33" s="248"/>
-      <c r="I33" s="249"/>
+      <c r="B33" s="249"/>
+      <c r="C33" s="254"/>
+      <c r="D33" s="254"/>
+      <c r="E33" s="250"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="254"/>
+      <c r="H33" s="254"/>
+      <c r="I33" s="250"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="247"/>
-      <c r="C34" s="248"/>
-      <c r="D34" s="248"/>
-      <c r="E34" s="249"/>
-      <c r="F34" s="247"/>
-      <c r="G34" s="248"/>
-      <c r="H34" s="248"/>
-      <c r="I34" s="249"/>
+      <c r="B34" s="249"/>
+      <c r="C34" s="254"/>
+      <c r="D34" s="254"/>
+      <c r="E34" s="250"/>
+      <c r="F34" s="249"/>
+      <c r="G34" s="254"/>
+      <c r="H34" s="254"/>
+      <c r="I34" s="250"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="244"/>
-      <c r="C35" s="250"/>
-      <c r="D35" s="250"/>
-      <c r="E35" s="245"/>
-      <c r="F35" s="244"/>
-      <c r="G35" s="250"/>
-      <c r="H35" s="250"/>
-      <c r="I35" s="245"/>
+      <c r="B35" s="251"/>
+      <c r="C35" s="255"/>
+      <c r="D35" s="255"/>
+      <c r="E35" s="252"/>
+      <c r="F35" s="251"/>
+      <c r="G35" s="255"/>
+      <c r="H35" s="255"/>
+      <c r="I35" s="252"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="253" t="s">
+      <c r="B36" s="262" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="267"/>
-      <c r="D36" s="267"/>
-      <c r="E36" s="254"/>
-      <c r="F36" s="253" t="s">
+      <c r="C36" s="277"/>
+      <c r="D36" s="277"/>
+      <c r="E36" s="263"/>
+      <c r="F36" s="262" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="267"/>
-      <c r="H36" s="267"/>
-      <c r="I36" s="254"/>
+      <c r="G36" s="277"/>
+      <c r="H36" s="277"/>
+      <c r="I36" s="263"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="242" t="s">
+      <c r="B37" s="247" t="s">
         <v>291</v>
       </c>
-      <c r="C37" s="246"/>
-      <c r="D37" s="246"/>
-      <c r="E37" s="243"/>
-      <c r="F37" s="242" t="s">
+      <c r="C37" s="253"/>
+      <c r="D37" s="253"/>
+      <c r="E37" s="248"/>
+      <c r="F37" s="247" t="s">
         <v>234</v>
       </c>
-      <c r="G37" s="246"/>
-      <c r="H37" s="246"/>
-      <c r="I37" s="243"/>
+      <c r="G37" s="253"/>
+      <c r="H37" s="253"/>
+      <c r="I37" s="248"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="247"/>
-      <c r="C38" s="248"/>
-      <c r="D38" s="248"/>
-      <c r="E38" s="249"/>
-      <c r="F38" s="247"/>
-      <c r="G38" s="248"/>
-      <c r="H38" s="248"/>
-      <c r="I38" s="249"/>
+      <c r="B38" s="249"/>
+      <c r="C38" s="254"/>
+      <c r="D38" s="254"/>
+      <c r="E38" s="250"/>
+      <c r="F38" s="249"/>
+      <c r="G38" s="254"/>
+      <c r="H38" s="254"/>
+      <c r="I38" s="250"/>
     </row>
     <row r="39" spans="2:9" ht="100.95" customHeight="1">
-      <c r="B39" s="244"/>
-      <c r="C39" s="250"/>
-      <c r="D39" s="250"/>
-      <c r="E39" s="245"/>
-      <c r="F39" s="244"/>
-      <c r="G39" s="250"/>
-      <c r="H39" s="250"/>
-      <c r="I39" s="245"/>
+      <c r="B39" s="251"/>
+      <c r="C39" s="255"/>
+      <c r="D39" s="255"/>
+      <c r="E39" s="252"/>
+      <c r="F39" s="251"/>
+      <c r="G39" s="255"/>
+      <c r="H39" s="255"/>
+      <c r="I39" s="252"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="253" t="s">
+      <c r="B40" s="262" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="267"/>
-      <c r="D40" s="267"/>
-      <c r="E40" s="254"/>
-      <c r="F40" s="253" t="s">
+      <c r="C40" s="277"/>
+      <c r="D40" s="277"/>
+      <c r="E40" s="263"/>
+      <c r="F40" s="262" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="267"/>
-      <c r="H40" s="267"/>
-      <c r="I40" s="254"/>
+      <c r="G40" s="277"/>
+      <c r="H40" s="277"/>
+      <c r="I40" s="263"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="242" t="s">
+      <c r="B41" s="247" t="s">
         <v>181</v>
       </c>
-      <c r="C41" s="246"/>
-      <c r="D41" s="246"/>
-      <c r="E41" s="243"/>
-      <c r="F41" s="242" t="s">
+      <c r="C41" s="253"/>
+      <c r="D41" s="253"/>
+      <c r="E41" s="248"/>
+      <c r="F41" s="247" t="s">
         <v>237</v>
       </c>
-      <c r="G41" s="246"/>
-      <c r="H41" s="246"/>
-      <c r="I41" s="243"/>
+      <c r="G41" s="253"/>
+      <c r="H41" s="253"/>
+      <c r="I41" s="248"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="247"/>
-      <c r="C42" s="248"/>
-      <c r="D42" s="248"/>
-      <c r="E42" s="249"/>
-      <c r="F42" s="247"/>
-      <c r="G42" s="248"/>
-      <c r="H42" s="248"/>
-      <c r="I42" s="249"/>
+      <c r="B42" s="249"/>
+      <c r="C42" s="254"/>
+      <c r="D42" s="254"/>
+      <c r="E42" s="250"/>
+      <c r="F42" s="249"/>
+      <c r="G42" s="254"/>
+      <c r="H42" s="254"/>
+      <c r="I42" s="250"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="244"/>
-      <c r="C43" s="250"/>
-      <c r="D43" s="250"/>
-      <c r="E43" s="245"/>
-      <c r="F43" s="244"/>
-      <c r="G43" s="250"/>
-      <c r="H43" s="250"/>
-      <c r="I43" s="245"/>
+      <c r="B43" s="251"/>
+      <c r="C43" s="255"/>
+      <c r="D43" s="255"/>
+      <c r="E43" s="252"/>
+      <c r="F43" s="251"/>
+      <c r="G43" s="255"/>
+      <c r="H43" s="255"/>
+      <c r="I43" s="252"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="131"/>
@@ -19334,120 +19288,120 @@
       <c r="C45" s="131"/>
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B46" s="264" t="s">
+      <c r="B46" s="270" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="265"/>
-      <c r="D46" s="265"/>
-      <c r="E46" s="265"/>
-      <c r="F46" s="265"/>
-      <c r="G46" s="265"/>
-      <c r="H46" s="265"/>
-      <c r="I46" s="266"/>
+      <c r="C46" s="271"/>
+      <c r="D46" s="271"/>
+      <c r="E46" s="271"/>
+      <c r="F46" s="271"/>
+      <c r="G46" s="271"/>
+      <c r="H46" s="271"/>
+      <c r="I46" s="272"/>
     </row>
     <row r="47" spans="2:9" ht="15" customHeight="1">
-      <c r="B47" s="258" t="s">
+      <c r="B47" s="280" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="259"/>
-      <c r="D47" s="242" t="s">
+      <c r="C47" s="281"/>
+      <c r="D47" s="247" t="s">
         <v>236</v>
       </c>
-      <c r="E47" s="246"/>
-      <c r="F47" s="246"/>
-      <c r="G47" s="246"/>
-      <c r="H47" s="246"/>
-      <c r="I47" s="243"/>
+      <c r="E47" s="253"/>
+      <c r="F47" s="253"/>
+      <c r="G47" s="253"/>
+      <c r="H47" s="253"/>
+      <c r="I47" s="248"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="262"/>
-      <c r="C48" s="263"/>
-      <c r="D48" s="247"/>
-      <c r="E48" s="248"/>
-      <c r="F48" s="248"/>
-      <c r="G48" s="248"/>
-      <c r="H48" s="248"/>
-      <c r="I48" s="249"/>
+      <c r="B48" s="282"/>
+      <c r="C48" s="283"/>
+      <c r="D48" s="249"/>
+      <c r="E48" s="254"/>
+      <c r="F48" s="254"/>
+      <c r="G48" s="254"/>
+      <c r="H48" s="254"/>
+      <c r="I48" s="250"/>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="260"/>
-      <c r="C49" s="261"/>
-      <c r="D49" s="244"/>
-      <c r="E49" s="250"/>
-      <c r="F49" s="250"/>
-      <c r="G49" s="250"/>
-      <c r="H49" s="250"/>
-      <c r="I49" s="245"/>
+      <c r="B49" s="284"/>
+      <c r="C49" s="285"/>
+      <c r="D49" s="251"/>
+      <c r="E49" s="255"/>
+      <c r="F49" s="255"/>
+      <c r="G49" s="255"/>
+      <c r="H49" s="255"/>
+      <c r="I49" s="252"/>
     </row>
     <row r="50" spans="2:17" ht="15" customHeight="1">
-      <c r="B50" s="258" t="s">
+      <c r="B50" s="280" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="259"/>
-      <c r="D50" s="242" t="s">
+      <c r="C50" s="281"/>
+      <c r="D50" s="247" t="s">
         <v>235</v>
       </c>
-      <c r="E50" s="246"/>
-      <c r="F50" s="246"/>
-      <c r="G50" s="246"/>
-      <c r="H50" s="246"/>
-      <c r="I50" s="243"/>
+      <c r="E50" s="253"/>
+      <c r="F50" s="253"/>
+      <c r="G50" s="253"/>
+      <c r="H50" s="253"/>
+      <c r="I50" s="248"/>
     </row>
     <row r="51" spans="2:17">
-      <c r="B51" s="262"/>
-      <c r="C51" s="263"/>
-      <c r="D51" s="247"/>
-      <c r="E51" s="248"/>
-      <c r="F51" s="248"/>
-      <c r="G51" s="248"/>
-      <c r="H51" s="248"/>
-      <c r="I51" s="249"/>
+      <c r="B51" s="282"/>
+      <c r="C51" s="283"/>
+      <c r="D51" s="249"/>
+      <c r="E51" s="254"/>
+      <c r="F51" s="254"/>
+      <c r="G51" s="254"/>
+      <c r="H51" s="254"/>
+      <c r="I51" s="250"/>
     </row>
     <row r="52" spans="2:17">
-      <c r="B52" s="260"/>
-      <c r="C52" s="261"/>
-      <c r="D52" s="244"/>
-      <c r="E52" s="250"/>
-      <c r="F52" s="250"/>
-      <c r="G52" s="250"/>
-      <c r="H52" s="250"/>
-      <c r="I52" s="245"/>
+      <c r="B52" s="284"/>
+      <c r="C52" s="285"/>
+      <c r="D52" s="251"/>
+      <c r="E52" s="255"/>
+      <c r="F52" s="255"/>
+      <c r="G52" s="255"/>
+      <c r="H52" s="255"/>
+      <c r="I52" s="252"/>
     </row>
     <row r="53" spans="2:17" ht="15" customHeight="1">
-      <c r="B53" s="270" t="s">
+      <c r="B53" s="286" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="271"/>
-      <c r="D53" s="268" t="s">
+      <c r="C53" s="287"/>
+      <c r="D53" s="290" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="268" t="s">
+      <c r="E53" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="F53" s="268" t="s">
+      <c r="F53" s="290" t="s">
         <v>96</v>
       </c>
-      <c r="G53" s="268" t="s">
+      <c r="G53" s="290" t="s">
         <v>281</v>
       </c>
-      <c r="H53" s="268" t="s">
+      <c r="H53" s="290" t="s">
         <v>97</v>
       </c>
-      <c r="I53" s="268" t="s">
+      <c r="I53" s="290" t="s">
         <v>182</v>
       </c>
       <c r="O53" s="172"/>
       <c r="Q53" s="172"/>
     </row>
     <row r="54" spans="2:17" ht="43.2" customHeight="1">
-      <c r="B54" s="272"/>
-      <c r="C54" s="273"/>
-      <c r="D54" s="269"/>
-      <c r="E54" s="269"/>
-      <c r="F54" s="269"/>
-      <c r="G54" s="269"/>
-      <c r="H54" s="269"/>
-      <c r="I54" s="269"/>
+      <c r="B54" s="288"/>
+      <c r="C54" s="289"/>
+      <c r="D54" s="291"/>
+      <c r="E54" s="291"/>
+      <c r="F54" s="291"/>
+      <c r="G54" s="291"/>
+      <c r="H54" s="291"/>
+      <c r="I54" s="291"/>
     </row>
     <row r="55" spans="2:17" ht="15.6">
       <c r="B55" s="139"/>
@@ -19458,88 +19412,88 @@
       <c r="C56" s="139"/>
     </row>
     <row r="57" spans="2:17" ht="15">
-      <c r="B57" s="264" t="s">
+      <c r="B57" s="270" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="265"/>
-      <c r="D57" s="265"/>
-      <c r="E57" s="265"/>
-      <c r="F57" s="265"/>
-      <c r="G57" s="265"/>
-      <c r="H57" s="265"/>
-      <c r="I57" s="266"/>
+      <c r="C57" s="271"/>
+      <c r="D57" s="271"/>
+      <c r="E57" s="271"/>
+      <c r="F57" s="271"/>
+      <c r="G57" s="271"/>
+      <c r="H57" s="271"/>
+      <c r="I57" s="272"/>
     </row>
     <row r="58" spans="2:17">
-      <c r="B58" s="242" t="s">
+      <c r="B58" s="247" t="s">
         <v>293</v>
       </c>
-      <c r="C58" s="246"/>
-      <c r="D58" s="246"/>
-      <c r="E58" s="246"/>
-      <c r="F58" s="246"/>
-      <c r="G58" s="246"/>
-      <c r="H58" s="246"/>
-      <c r="I58" s="243"/>
+      <c r="C58" s="253"/>
+      <c r="D58" s="253"/>
+      <c r="E58" s="253"/>
+      <c r="F58" s="253"/>
+      <c r="G58" s="253"/>
+      <c r="H58" s="253"/>
+      <c r="I58" s="248"/>
     </row>
     <row r="59" spans="2:17">
-      <c r="B59" s="247"/>
-      <c r="C59" s="248"/>
-      <c r="D59" s="248"/>
-      <c r="E59" s="248"/>
-      <c r="F59" s="248"/>
-      <c r="G59" s="248"/>
-      <c r="H59" s="248"/>
-      <c r="I59" s="249"/>
+      <c r="B59" s="249"/>
+      <c r="C59" s="254"/>
+      <c r="D59" s="254"/>
+      <c r="E59" s="254"/>
+      <c r="F59" s="254"/>
+      <c r="G59" s="254"/>
+      <c r="H59" s="254"/>
+      <c r="I59" s="250"/>
     </row>
     <row r="60" spans="2:17">
-      <c r="B60" s="247"/>
-      <c r="C60" s="248"/>
-      <c r="D60" s="248"/>
-      <c r="E60" s="248"/>
-      <c r="F60" s="248"/>
-      <c r="G60" s="248"/>
-      <c r="H60" s="248"/>
-      <c r="I60" s="249"/>
+      <c r="B60" s="249"/>
+      <c r="C60" s="254"/>
+      <c r="D60" s="254"/>
+      <c r="E60" s="254"/>
+      <c r="F60" s="254"/>
+      <c r="G60" s="254"/>
+      <c r="H60" s="254"/>
+      <c r="I60" s="250"/>
     </row>
     <row r="61" spans="2:17">
-      <c r="B61" s="247"/>
-      <c r="C61" s="248"/>
-      <c r="D61" s="248"/>
-      <c r="E61" s="248"/>
-      <c r="F61" s="248"/>
-      <c r="G61" s="248"/>
-      <c r="H61" s="248"/>
-      <c r="I61" s="249"/>
+      <c r="B61" s="249"/>
+      <c r="C61" s="254"/>
+      <c r="D61" s="254"/>
+      <c r="E61" s="254"/>
+      <c r="F61" s="254"/>
+      <c r="G61" s="254"/>
+      <c r="H61" s="254"/>
+      <c r="I61" s="250"/>
     </row>
     <row r="62" spans="2:17">
-      <c r="B62" s="247"/>
-      <c r="C62" s="248"/>
-      <c r="D62" s="248"/>
-      <c r="E62" s="248"/>
-      <c r="F62" s="248"/>
-      <c r="G62" s="248"/>
-      <c r="H62" s="248"/>
-      <c r="I62" s="249"/>
+      <c r="B62" s="249"/>
+      <c r="C62" s="254"/>
+      <c r="D62" s="254"/>
+      <c r="E62" s="254"/>
+      <c r="F62" s="254"/>
+      <c r="G62" s="254"/>
+      <c r="H62" s="254"/>
+      <c r="I62" s="250"/>
     </row>
     <row r="63" spans="2:17">
-      <c r="B63" s="247"/>
-      <c r="C63" s="248"/>
-      <c r="D63" s="248"/>
-      <c r="E63" s="248"/>
-      <c r="F63" s="248"/>
-      <c r="G63" s="248"/>
-      <c r="H63" s="248"/>
-      <c r="I63" s="249"/>
+      <c r="B63" s="249"/>
+      <c r="C63" s="254"/>
+      <c r="D63" s="254"/>
+      <c r="E63" s="254"/>
+      <c r="F63" s="254"/>
+      <c r="G63" s="254"/>
+      <c r="H63" s="254"/>
+      <c r="I63" s="250"/>
     </row>
     <row r="64" spans="2:17">
-      <c r="B64" s="244"/>
-      <c r="C64" s="250"/>
-      <c r="D64" s="250"/>
-      <c r="E64" s="250"/>
-      <c r="F64" s="250"/>
-      <c r="G64" s="250"/>
-      <c r="H64" s="250"/>
-      <c r="I64" s="245"/>
+      <c r="B64" s="251"/>
+      <c r="C64" s="255"/>
+      <c r="D64" s="255"/>
+      <c r="E64" s="255"/>
+      <c r="F64" s="255"/>
+      <c r="G64" s="255"/>
+      <c r="H64" s="255"/>
+      <c r="I64" s="252"/>
     </row>
     <row r="65" spans="2:18">
       <c r="B65" s="131"/>
@@ -19550,136 +19504,136 @@
       <c r="C66" s="131"/>
     </row>
     <row r="67" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B67" s="264" t="s">
+      <c r="B67" s="270" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="265"/>
-      <c r="D67" s="265"/>
-      <c r="E67" s="265"/>
-      <c r="F67" s="265"/>
-      <c r="G67" s="265"/>
-      <c r="H67" s="265"/>
-      <c r="I67" s="266"/>
+      <c r="C67" s="271"/>
+      <c r="D67" s="271"/>
+      <c r="E67" s="271"/>
+      <c r="F67" s="271"/>
+      <c r="G67" s="271"/>
+      <c r="H67" s="271"/>
+      <c r="I67" s="272"/>
     </row>
     <row r="68" spans="2:18">
-      <c r="B68" s="253" t="s">
+      <c r="B68" s="262" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="267"/>
-      <c r="D68" s="267"/>
-      <c r="E68" s="254"/>
-      <c r="F68" s="253" t="s">
+      <c r="C68" s="277"/>
+      <c r="D68" s="277"/>
+      <c r="E68" s="263"/>
+      <c r="F68" s="262" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="267"/>
-      <c r="H68" s="267"/>
-      <c r="I68" s="254"/>
+      <c r="G68" s="277"/>
+      <c r="H68" s="277"/>
+      <c r="I68" s="263"/>
     </row>
     <row r="69" spans="2:18">
-      <c r="B69" s="242" t="s">
+      <c r="B69" s="247" t="s">
         <v>294</v>
       </c>
-      <c r="C69" s="246"/>
-      <c r="D69" s="246"/>
-      <c r="E69" s="243"/>
-      <c r="F69" s="242" t="s">
+      <c r="C69" s="253"/>
+      <c r="D69" s="253"/>
+      <c r="E69" s="248"/>
+      <c r="F69" s="247" t="s">
         <v>295</v>
       </c>
-      <c r="G69" s="246"/>
-      <c r="H69" s="246"/>
-      <c r="I69" s="243"/>
+      <c r="G69" s="253"/>
+      <c r="H69" s="253"/>
+      <c r="I69" s="248"/>
     </row>
     <row r="70" spans="2:18">
-      <c r="B70" s="247"/>
-      <c r="C70" s="248"/>
-      <c r="D70" s="248"/>
-      <c r="E70" s="249"/>
-      <c r="F70" s="247"/>
-      <c r="G70" s="248"/>
-      <c r="H70" s="248"/>
-      <c r="I70" s="249"/>
+      <c r="B70" s="249"/>
+      <c r="C70" s="254"/>
+      <c r="D70" s="254"/>
+      <c r="E70" s="250"/>
+      <c r="F70" s="249"/>
+      <c r="G70" s="254"/>
+      <c r="H70" s="254"/>
+      <c r="I70" s="250"/>
     </row>
     <row r="71" spans="2:18">
-      <c r="B71" s="247"/>
-      <c r="C71" s="248"/>
-      <c r="D71" s="248"/>
-      <c r="E71" s="249"/>
-      <c r="F71" s="247"/>
-      <c r="G71" s="248"/>
-      <c r="H71" s="248"/>
-      <c r="I71" s="249"/>
+      <c r="B71" s="249"/>
+      <c r="C71" s="254"/>
+      <c r="D71" s="254"/>
+      <c r="E71" s="250"/>
+      <c r="F71" s="249"/>
+      <c r="G71" s="254"/>
+      <c r="H71" s="254"/>
+      <c r="I71" s="250"/>
     </row>
     <row r="72" spans="2:18">
-      <c r="B72" s="247"/>
-      <c r="C72" s="248"/>
-      <c r="D72" s="248"/>
-      <c r="E72" s="249"/>
-      <c r="F72" s="247"/>
-      <c r="G72" s="248"/>
-      <c r="H72" s="248"/>
-      <c r="I72" s="249"/>
+      <c r="B72" s="249"/>
+      <c r="C72" s="254"/>
+      <c r="D72" s="254"/>
+      <c r="E72" s="250"/>
+      <c r="F72" s="249"/>
+      <c r="G72" s="254"/>
+      <c r="H72" s="254"/>
+      <c r="I72" s="250"/>
     </row>
     <row r="73" spans="2:18">
-      <c r="B73" s="244"/>
-      <c r="C73" s="250"/>
-      <c r="D73" s="250"/>
-      <c r="E73" s="245"/>
-      <c r="F73" s="244"/>
-      <c r="G73" s="250"/>
-      <c r="H73" s="250"/>
-      <c r="I73" s="245"/>
+      <c r="B73" s="251"/>
+      <c r="C73" s="255"/>
+      <c r="D73" s="255"/>
+      <c r="E73" s="252"/>
+      <c r="F73" s="251"/>
+      <c r="G73" s="255"/>
+      <c r="H73" s="255"/>
+      <c r="I73" s="252"/>
     </row>
     <row r="74" spans="2:18">
       <c r="B74" s="131"/>
       <c r="C74" s="131"/>
     </row>
     <row r="75" spans="2:18" ht="15" customHeight="1">
-      <c r="B75" s="264" t="s">
+      <c r="B75" s="270" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="265"/>
-      <c r="D75" s="265"/>
-      <c r="E75" s="265"/>
-      <c r="F75" s="265"/>
-      <c r="G75" s="265"/>
-      <c r="H75" s="265"/>
-      <c r="I75" s="266"/>
+      <c r="C75" s="271"/>
+      <c r="D75" s="271"/>
+      <c r="E75" s="271"/>
+      <c r="F75" s="271"/>
+      <c r="G75" s="271"/>
+      <c r="H75" s="271"/>
+      <c r="I75" s="272"/>
     </row>
     <row r="76" spans="2:18" ht="29.25" customHeight="1">
-      <c r="B76" s="253" t="s">
+      <c r="B76" s="262" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="254"/>
-      <c r="D76" s="253" t="s">
+      <c r="C76" s="263"/>
+      <c r="D76" s="262" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="254"/>
-      <c r="F76" s="253" t="s">
+      <c r="E76" s="263"/>
+      <c r="F76" s="262" t="s">
         <v>69</v>
       </c>
-      <c r="G76" s="254"/>
-      <c r="H76" s="253" t="s">
+      <c r="G76" s="263"/>
+      <c r="H76" s="262" t="s">
         <v>70</v>
       </c>
-      <c r="I76" s="254"/>
+      <c r="I76" s="263"/>
     </row>
     <row r="77" spans="2:18" ht="15" customHeight="1">
-      <c r="B77" s="284" t="s">
+      <c r="B77" s="264" t="s">
         <v>240</v>
       </c>
-      <c r="C77" s="285"/>
-      <c r="D77" s="242" t="s">
+      <c r="C77" s="265"/>
+      <c r="D77" s="247" t="s">
         <v>243</v>
       </c>
-      <c r="E77" s="243"/>
-      <c r="F77" s="242" t="s">
+      <c r="E77" s="248"/>
+      <c r="F77" s="247" t="s">
         <v>289</v>
       </c>
-      <c r="G77" s="243"/>
-      <c r="H77" s="242" t="s">
+      <c r="G77" s="248"/>
+      <c r="H77" s="247" t="s">
         <v>288</v>
       </c>
-      <c r="I77" s="243"/>
+      <c r="I77" s="248"/>
       <c r="K77" s="169"/>
       <c r="L77" s="169"/>
       <c r="M77" s="169"/>
@@ -19690,14 +19644,14 @@
       <c r="R77" s="169"/>
     </row>
     <row r="78" spans="2:18">
-      <c r="B78" s="286"/>
-      <c r="C78" s="287"/>
-      <c r="D78" s="247"/>
-      <c r="E78" s="249"/>
-      <c r="F78" s="247"/>
-      <c r="G78" s="249"/>
-      <c r="H78" s="247"/>
-      <c r="I78" s="249"/>
+      <c r="B78" s="266"/>
+      <c r="C78" s="267"/>
+      <c r="D78" s="249"/>
+      <c r="E78" s="250"/>
+      <c r="F78" s="249"/>
+      <c r="G78" s="250"/>
+      <c r="H78" s="249"/>
+      <c r="I78" s="250"/>
       <c r="K78" s="169"/>
       <c r="L78" s="169"/>
       <c r="M78" s="169"/>
@@ -19708,14 +19662,14 @@
       <c r="R78" s="169"/>
     </row>
     <row r="79" spans="2:18">
-      <c r="B79" s="286"/>
-      <c r="C79" s="287"/>
-      <c r="D79" s="247"/>
-      <c r="E79" s="249"/>
-      <c r="F79" s="247"/>
-      <c r="G79" s="249"/>
-      <c r="H79" s="247"/>
-      <c r="I79" s="249"/>
+      <c r="B79" s="266"/>
+      <c r="C79" s="267"/>
+      <c r="D79" s="249"/>
+      <c r="E79" s="250"/>
+      <c r="F79" s="249"/>
+      <c r="G79" s="250"/>
+      <c r="H79" s="249"/>
+      <c r="I79" s="250"/>
       <c r="K79" s="169"/>
       <c r="L79" s="169"/>
       <c r="M79" s="169"/>
@@ -19726,14 +19680,14 @@
       <c r="R79" s="169"/>
     </row>
     <row r="80" spans="2:18" ht="15" customHeight="1">
-      <c r="B80" s="286"/>
-      <c r="C80" s="287"/>
-      <c r="D80" s="247"/>
-      <c r="E80" s="249"/>
-      <c r="F80" s="247"/>
-      <c r="G80" s="249"/>
-      <c r="H80" s="247"/>
-      <c r="I80" s="249"/>
+      <c r="B80" s="266"/>
+      <c r="C80" s="267"/>
+      <c r="D80" s="249"/>
+      <c r="E80" s="250"/>
+      <c r="F80" s="249"/>
+      <c r="G80" s="250"/>
+      <c r="H80" s="249"/>
+      <c r="I80" s="250"/>
       <c r="K80" s="140"/>
       <c r="L80" s="140"/>
       <c r="M80" s="169"/>
@@ -19744,14 +19698,14 @@
       <c r="R80" s="169"/>
     </row>
     <row r="81" spans="2:18">
-      <c r="B81" s="286"/>
-      <c r="C81" s="287"/>
-      <c r="D81" s="247"/>
-      <c r="E81" s="249"/>
-      <c r="F81" s="247"/>
-      <c r="G81" s="249"/>
-      <c r="H81" s="247"/>
-      <c r="I81" s="249"/>
+      <c r="B81" s="266"/>
+      <c r="C81" s="267"/>
+      <c r="D81" s="249"/>
+      <c r="E81" s="250"/>
+      <c r="F81" s="249"/>
+      <c r="G81" s="250"/>
+      <c r="H81" s="249"/>
+      <c r="I81" s="250"/>
       <c r="K81" s="140"/>
       <c r="L81" s="140"/>
       <c r="M81" s="169"/>
@@ -19762,14 +19716,14 @@
       <c r="R81" s="169"/>
     </row>
     <row r="82" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B82" s="286"/>
-      <c r="C82" s="287"/>
-      <c r="D82" s="247"/>
-      <c r="E82" s="249"/>
-      <c r="F82" s="247"/>
-      <c r="G82" s="249"/>
-      <c r="H82" s="247"/>
-      <c r="I82" s="249"/>
+      <c r="B82" s="266"/>
+      <c r="C82" s="267"/>
+      <c r="D82" s="249"/>
+      <c r="E82" s="250"/>
+      <c r="F82" s="249"/>
+      <c r="G82" s="250"/>
+      <c r="H82" s="249"/>
+      <c r="I82" s="250"/>
       <c r="K82" s="140"/>
       <c r="L82" s="140"/>
       <c r="M82" s="169"/>
@@ -19780,14 +19734,14 @@
       <c r="R82" s="169"/>
     </row>
     <row r="83" spans="2:18" ht="15" customHeight="1">
-      <c r="B83" s="286"/>
-      <c r="C83" s="287"/>
-      <c r="D83" s="247"/>
-      <c r="E83" s="249"/>
-      <c r="F83" s="247"/>
-      <c r="G83" s="249"/>
-      <c r="H83" s="247"/>
-      <c r="I83" s="249"/>
+      <c r="B83" s="266"/>
+      <c r="C83" s="267"/>
+      <c r="D83" s="249"/>
+      <c r="E83" s="250"/>
+      <c r="F83" s="249"/>
+      <c r="G83" s="250"/>
+      <c r="H83" s="249"/>
+      <c r="I83" s="250"/>
       <c r="K83" s="140"/>
       <c r="L83" s="140"/>
       <c r="M83" s="169"/>
@@ -19798,14 +19752,14 @@
       <c r="R83" s="169"/>
     </row>
     <row r="84" spans="2:18">
-      <c r="B84" s="286"/>
-      <c r="C84" s="287"/>
-      <c r="D84" s="247"/>
-      <c r="E84" s="249"/>
-      <c r="F84" s="247"/>
-      <c r="G84" s="249"/>
-      <c r="H84" s="247"/>
-      <c r="I84" s="249"/>
+      <c r="B84" s="266"/>
+      <c r="C84" s="267"/>
+      <c r="D84" s="249"/>
+      <c r="E84" s="250"/>
+      <c r="F84" s="249"/>
+      <c r="G84" s="250"/>
+      <c r="H84" s="249"/>
+      <c r="I84" s="250"/>
       <c r="K84" s="140"/>
       <c r="L84" s="140"/>
       <c r="M84" s="169"/>
@@ -19816,14 +19770,14 @@
       <c r="R84" s="169"/>
     </row>
     <row r="85" spans="2:18">
-      <c r="B85" s="288"/>
-      <c r="C85" s="289"/>
-      <c r="D85" s="244"/>
-      <c r="E85" s="245"/>
-      <c r="F85" s="244"/>
-      <c r="G85" s="245"/>
-      <c r="H85" s="244"/>
-      <c r="I85" s="245"/>
+      <c r="B85" s="268"/>
+      <c r="C85" s="269"/>
+      <c r="D85" s="251"/>
+      <c r="E85" s="252"/>
+      <c r="F85" s="251"/>
+      <c r="G85" s="252"/>
+      <c r="H85" s="251"/>
+      <c r="I85" s="252"/>
       <c r="K85" s="140"/>
       <c r="L85" s="140"/>
       <c r="M85" s="169"/>
@@ -19834,22 +19788,22 @@
       <c r="R85" s="169"/>
     </row>
     <row r="86" spans="2:18">
-      <c r="B86" s="284" t="s">
+      <c r="B86" s="264" t="s">
         <v>238</v>
       </c>
-      <c r="C86" s="285"/>
-      <c r="D86" s="242" t="s">
+      <c r="C86" s="265"/>
+      <c r="D86" s="247" t="s">
         <v>241</v>
       </c>
-      <c r="E86" s="243"/>
-      <c r="F86" s="242" t="s">
+      <c r="E86" s="248"/>
+      <c r="F86" s="247" t="s">
         <v>285</v>
       </c>
-      <c r="G86" s="243"/>
-      <c r="H86" s="242" t="s">
+      <c r="G86" s="248"/>
+      <c r="H86" s="247" t="s">
         <v>286</v>
       </c>
-      <c r="I86" s="243"/>
+      <c r="I86" s="248"/>
       <c r="K86" s="140"/>
       <c r="L86" s="140"/>
       <c r="M86" s="169"/>
@@ -19860,14 +19814,14 @@
       <c r="R86" s="169"/>
     </row>
     <row r="87" spans="2:18">
-      <c r="B87" s="286"/>
-      <c r="C87" s="287"/>
-      <c r="D87" s="247"/>
-      <c r="E87" s="249"/>
-      <c r="F87" s="247"/>
-      <c r="G87" s="249"/>
-      <c r="H87" s="247"/>
-      <c r="I87" s="249"/>
+      <c r="B87" s="266"/>
+      <c r="C87" s="267"/>
+      <c r="D87" s="249"/>
+      <c r="E87" s="250"/>
+      <c r="F87" s="249"/>
+      <c r="G87" s="250"/>
+      <c r="H87" s="249"/>
+      <c r="I87" s="250"/>
       <c r="K87" s="140"/>
       <c r="L87" s="140"/>
       <c r="M87" s="169"/>
@@ -19878,14 +19832,14 @@
       <c r="R87" s="169"/>
     </row>
     <row r="88" spans="2:18">
-      <c r="B88" s="286"/>
-      <c r="C88" s="287"/>
-      <c r="D88" s="247"/>
-      <c r="E88" s="249"/>
-      <c r="F88" s="247"/>
-      <c r="G88" s="249"/>
-      <c r="H88" s="247"/>
-      <c r="I88" s="249"/>
+      <c r="B88" s="266"/>
+      <c r="C88" s="267"/>
+      <c r="D88" s="249"/>
+      <c r="E88" s="250"/>
+      <c r="F88" s="249"/>
+      <c r="G88" s="250"/>
+      <c r="H88" s="249"/>
+      <c r="I88" s="250"/>
       <c r="K88" s="140"/>
       <c r="L88" s="140"/>
       <c r="M88" s="169"/>
@@ -19896,14 +19850,14 @@
       <c r="R88" s="169"/>
     </row>
     <row r="89" spans="2:18" ht="15" customHeight="1">
-      <c r="B89" s="286"/>
-      <c r="C89" s="287"/>
-      <c r="D89" s="247"/>
-      <c r="E89" s="249"/>
-      <c r="F89" s="247"/>
-      <c r="G89" s="249"/>
-      <c r="H89" s="247"/>
-      <c r="I89" s="249"/>
+      <c r="B89" s="266"/>
+      <c r="C89" s="267"/>
+      <c r="D89" s="249"/>
+      <c r="E89" s="250"/>
+      <c r="F89" s="249"/>
+      <c r="G89" s="250"/>
+      <c r="H89" s="249"/>
+      <c r="I89" s="250"/>
       <c r="K89" s="169"/>
       <c r="L89" s="169"/>
       <c r="M89" s="169"/>
@@ -19914,14 +19868,14 @@
       <c r="R89" s="169"/>
     </row>
     <row r="90" spans="2:18">
-      <c r="B90" s="286"/>
-      <c r="C90" s="287"/>
-      <c r="D90" s="247"/>
-      <c r="E90" s="249"/>
-      <c r="F90" s="247"/>
-      <c r="G90" s="249"/>
-      <c r="H90" s="247"/>
-      <c r="I90" s="249"/>
+      <c r="B90" s="266"/>
+      <c r="C90" s="267"/>
+      <c r="D90" s="249"/>
+      <c r="E90" s="250"/>
+      <c r="F90" s="249"/>
+      <c r="G90" s="250"/>
+      <c r="H90" s="249"/>
+      <c r="I90" s="250"/>
       <c r="K90" s="169"/>
       <c r="L90" s="169"/>
       <c r="M90" s="169"/>
@@ -19932,14 +19886,14 @@
       <c r="R90" s="169"/>
     </row>
     <row r="91" spans="2:18">
-      <c r="B91" s="286"/>
-      <c r="C91" s="287"/>
-      <c r="D91" s="247"/>
-      <c r="E91" s="249"/>
-      <c r="F91" s="247"/>
-      <c r="G91" s="249"/>
-      <c r="H91" s="247"/>
-      <c r="I91" s="249"/>
+      <c r="B91" s="266"/>
+      <c r="C91" s="267"/>
+      <c r="D91" s="249"/>
+      <c r="E91" s="250"/>
+      <c r="F91" s="249"/>
+      <c r="G91" s="250"/>
+      <c r="H91" s="249"/>
+      <c r="I91" s="250"/>
       <c r="K91" s="169"/>
       <c r="L91" s="169"/>
       <c r="M91" s="169"/>
@@ -19950,140 +19904,140 @@
       <c r="R91" s="169"/>
     </row>
     <row r="92" spans="2:18">
-      <c r="B92" s="286"/>
-      <c r="C92" s="287"/>
-      <c r="D92" s="247"/>
-      <c r="E92" s="249"/>
-      <c r="F92" s="247"/>
-      <c r="G92" s="249"/>
-      <c r="H92" s="247"/>
-      <c r="I92" s="249"/>
+      <c r="B92" s="266"/>
+      <c r="C92" s="267"/>
+      <c r="D92" s="249"/>
+      <c r="E92" s="250"/>
+      <c r="F92" s="249"/>
+      <c r="G92" s="250"/>
+      <c r="H92" s="249"/>
+      <c r="I92" s="250"/>
     </row>
     <row r="93" spans="2:18" ht="15" customHeight="1">
-      <c r="B93" s="286"/>
-      <c r="C93" s="287"/>
-      <c r="D93" s="247"/>
-      <c r="E93" s="249"/>
-      <c r="F93" s="247"/>
-      <c r="G93" s="249"/>
-      <c r="H93" s="247"/>
-      <c r="I93" s="249"/>
+      <c r="B93" s="266"/>
+      <c r="C93" s="267"/>
+      <c r="D93" s="249"/>
+      <c r="E93" s="250"/>
+      <c r="F93" s="249"/>
+      <c r="G93" s="250"/>
+      <c r="H93" s="249"/>
+      <c r="I93" s="250"/>
       <c r="J93" s="168"/>
     </row>
     <row r="94" spans="2:18" ht="15" customHeight="1">
-      <c r="B94" s="288"/>
-      <c r="C94" s="289"/>
-      <c r="D94" s="244"/>
-      <c r="E94" s="245"/>
-      <c r="F94" s="244"/>
-      <c r="G94" s="245"/>
-      <c r="H94" s="244"/>
-      <c r="I94" s="245"/>
+      <c r="B94" s="268"/>
+      <c r="C94" s="269"/>
+      <c r="D94" s="251"/>
+      <c r="E94" s="252"/>
+      <c r="F94" s="251"/>
+      <c r="G94" s="252"/>
+      <c r="H94" s="251"/>
+      <c r="I94" s="252"/>
       <c r="J94" s="168"/>
     </row>
     <row r="95" spans="2:18" ht="15" customHeight="1">
-      <c r="B95" s="284" t="s">
+      <c r="B95" s="264" t="s">
         <v>239</v>
       </c>
-      <c r="C95" s="285"/>
-      <c r="D95" s="242" t="s">
+      <c r="C95" s="265"/>
+      <c r="D95" s="247" t="s">
         <v>244</v>
       </c>
-      <c r="E95" s="243"/>
-      <c r="F95" s="242" t="s">
+      <c r="E95" s="248"/>
+      <c r="F95" s="247" t="s">
         <v>284</v>
       </c>
-      <c r="G95" s="243"/>
-      <c r="H95" s="242" t="s">
+      <c r="G95" s="248"/>
+      <c r="H95" s="247" t="s">
         <v>287</v>
       </c>
-      <c r="I95" s="243"/>
+      <c r="I95" s="248"/>
       <c r="J95" s="168"/>
     </row>
     <row r="96" spans="2:18">
-      <c r="B96" s="286"/>
-      <c r="C96" s="287"/>
-      <c r="D96" s="247"/>
-      <c r="E96" s="249"/>
-      <c r="F96" s="247"/>
-      <c r="G96" s="249"/>
-      <c r="H96" s="247"/>
-      <c r="I96" s="249"/>
+      <c r="B96" s="266"/>
+      <c r="C96" s="267"/>
+      <c r="D96" s="249"/>
+      <c r="E96" s="250"/>
+      <c r="F96" s="249"/>
+      <c r="G96" s="250"/>
+      <c r="H96" s="249"/>
+      <c r="I96" s="250"/>
       <c r="J96" s="168"/>
     </row>
     <row r="97" spans="2:16" ht="15" customHeight="1">
-      <c r="B97" s="286"/>
-      <c r="C97" s="287"/>
-      <c r="D97" s="247"/>
-      <c r="E97" s="249"/>
-      <c r="F97" s="247"/>
-      <c r="G97" s="249"/>
-      <c r="H97" s="247"/>
-      <c r="I97" s="249"/>
+      <c r="B97" s="266"/>
+      <c r="C97" s="267"/>
+      <c r="D97" s="249"/>
+      <c r="E97" s="250"/>
+      <c r="F97" s="249"/>
+      <c r="G97" s="250"/>
+      <c r="H97" s="249"/>
+      <c r="I97" s="250"/>
       <c r="J97" s="168"/>
     </row>
     <row r="98" spans="2:16">
-      <c r="B98" s="286"/>
-      <c r="C98" s="287"/>
-      <c r="D98" s="247"/>
-      <c r="E98" s="249"/>
-      <c r="F98" s="247"/>
-      <c r="G98" s="249"/>
-      <c r="H98" s="247"/>
-      <c r="I98" s="249"/>
+      <c r="B98" s="266"/>
+      <c r="C98" s="267"/>
+      <c r="D98" s="249"/>
+      <c r="E98" s="250"/>
+      <c r="F98" s="249"/>
+      <c r="G98" s="250"/>
+      <c r="H98" s="249"/>
+      <c r="I98" s="250"/>
       <c r="J98" s="168"/>
     </row>
     <row r="99" spans="2:16">
-      <c r="B99" s="286"/>
-      <c r="C99" s="287"/>
-      <c r="D99" s="247"/>
-      <c r="E99" s="249"/>
-      <c r="F99" s="247"/>
-      <c r="G99" s="249"/>
-      <c r="H99" s="247"/>
-      <c r="I99" s="249"/>
+      <c r="B99" s="266"/>
+      <c r="C99" s="267"/>
+      <c r="D99" s="249"/>
+      <c r="E99" s="250"/>
+      <c r="F99" s="249"/>
+      <c r="G99" s="250"/>
+      <c r="H99" s="249"/>
+      <c r="I99" s="250"/>
       <c r="J99" s="168"/>
     </row>
     <row r="100" spans="2:16">
-      <c r="B100" s="286"/>
-      <c r="C100" s="287"/>
-      <c r="D100" s="247"/>
-      <c r="E100" s="249"/>
-      <c r="F100" s="247"/>
-      <c r="G100" s="249"/>
-      <c r="H100" s="247"/>
-      <c r="I100" s="249"/>
+      <c r="B100" s="266"/>
+      <c r="C100" s="267"/>
+      <c r="D100" s="249"/>
+      <c r="E100" s="250"/>
+      <c r="F100" s="249"/>
+      <c r="G100" s="250"/>
+      <c r="H100" s="249"/>
+      <c r="I100" s="250"/>
       <c r="J100" s="168"/>
     </row>
     <row r="101" spans="2:16">
-      <c r="B101" s="286"/>
-      <c r="C101" s="287"/>
-      <c r="D101" s="247"/>
-      <c r="E101" s="249"/>
-      <c r="F101" s="247"/>
-      <c r="G101" s="249"/>
-      <c r="H101" s="247"/>
-      <c r="I101" s="249"/>
+      <c r="B101" s="266"/>
+      <c r="C101" s="267"/>
+      <c r="D101" s="249"/>
+      <c r="E101" s="250"/>
+      <c r="F101" s="249"/>
+      <c r="G101" s="250"/>
+      <c r="H101" s="249"/>
+      <c r="I101" s="250"/>
     </row>
     <row r="102" spans="2:16">
-      <c r="B102" s="286"/>
-      <c r="C102" s="287"/>
-      <c r="D102" s="247"/>
-      <c r="E102" s="249"/>
-      <c r="F102" s="247"/>
-      <c r="G102" s="249"/>
-      <c r="H102" s="247"/>
-      <c r="I102" s="249"/>
+      <c r="B102" s="266"/>
+      <c r="C102" s="267"/>
+      <c r="D102" s="249"/>
+      <c r="E102" s="250"/>
+      <c r="F102" s="249"/>
+      <c r="G102" s="250"/>
+      <c r="H102" s="249"/>
+      <c r="I102" s="250"/>
     </row>
     <row r="103" spans="2:16">
-      <c r="B103" s="288"/>
-      <c r="C103" s="289"/>
-      <c r="D103" s="244"/>
-      <c r="E103" s="245"/>
-      <c r="F103" s="244"/>
-      <c r="G103" s="245"/>
-      <c r="H103" s="244"/>
-      <c r="I103" s="245"/>
+      <c r="B103" s="268"/>
+      <c r="C103" s="269"/>
+      <c r="D103" s="251"/>
+      <c r="E103" s="252"/>
+      <c r="F103" s="251"/>
+      <c r="G103" s="252"/>
+      <c r="H103" s="251"/>
+      <c r="I103" s="252"/>
       <c r="K103" s="140"/>
       <c r="L103" s="140"/>
       <c r="M103" s="137"/>
@@ -20091,335 +20045,335 @@
       <c r="P103" s="140"/>
     </row>
     <row r="106" spans="2:16" ht="15">
-      <c r="B106" s="264" t="s">
+      <c r="B106" s="270" t="s">
         <v>71</v>
       </c>
-      <c r="C106" s="265"/>
-      <c r="D106" s="265"/>
-      <c r="E106" s="265"/>
-      <c r="F106" s="265"/>
-      <c r="G106" s="265"/>
-      <c r="H106" s="265"/>
-      <c r="I106" s="266"/>
+      <c r="C106" s="271"/>
+      <c r="D106" s="271"/>
+      <c r="E106" s="271"/>
+      <c r="F106" s="271"/>
+      <c r="G106" s="271"/>
+      <c r="H106" s="271"/>
+      <c r="I106" s="272"/>
     </row>
     <row r="107" spans="2:16">
-      <c r="B107" s="253" t="s">
+      <c r="B107" s="262" t="s">
         <v>72</v>
       </c>
-      <c r="C107" s="254"/>
-      <c r="D107" s="253" t="s">
+      <c r="C107" s="263"/>
+      <c r="D107" s="262" t="s">
         <v>73</v>
       </c>
-      <c r="E107" s="267"/>
-      <c r="F107" s="267"/>
-      <c r="G107" s="254"/>
-      <c r="H107" s="253" t="s">
+      <c r="E107" s="277"/>
+      <c r="F107" s="277"/>
+      <c r="G107" s="263"/>
+      <c r="H107" s="262" t="s">
         <v>74</v>
       </c>
-      <c r="I107" s="254"/>
+      <c r="I107" s="263"/>
     </row>
     <row r="108" spans="2:16">
-      <c r="B108" s="242" t="s">
+      <c r="B108" s="247" t="s">
         <v>221</v>
       </c>
-      <c r="C108" s="243"/>
-      <c r="D108" s="242" t="s">
+      <c r="C108" s="248"/>
+      <c r="D108" s="247" t="s">
         <v>245</v>
       </c>
-      <c r="E108" s="246"/>
-      <c r="F108" s="246"/>
-      <c r="G108" s="243"/>
-      <c r="H108" s="278">
+      <c r="E108" s="253"/>
+      <c r="F108" s="253"/>
+      <c r="G108" s="248"/>
+      <c r="H108" s="256">
         <v>43595</v>
       </c>
-      <c r="I108" s="279"/>
+      <c r="I108" s="257"/>
       <c r="N108" s="172"/>
     </row>
     <row r="109" spans="2:16">
-      <c r="B109" s="247"/>
-      <c r="C109" s="249"/>
-      <c r="D109" s="247"/>
-      <c r="E109" s="248"/>
-      <c r="F109" s="248"/>
-      <c r="G109" s="249"/>
-      <c r="H109" s="280"/>
-      <c r="I109" s="281"/>
+      <c r="B109" s="249"/>
+      <c r="C109" s="250"/>
+      <c r="D109" s="249"/>
+      <c r="E109" s="254"/>
+      <c r="F109" s="254"/>
+      <c r="G109" s="250"/>
+      <c r="H109" s="258"/>
+      <c r="I109" s="259"/>
     </row>
     <row r="110" spans="2:16">
-      <c r="B110" s="247"/>
-      <c r="C110" s="249"/>
-      <c r="D110" s="247"/>
-      <c r="E110" s="248"/>
-      <c r="F110" s="248"/>
-      <c r="G110" s="249"/>
-      <c r="H110" s="280"/>
-      <c r="I110" s="281"/>
+      <c r="B110" s="249"/>
+      <c r="C110" s="250"/>
+      <c r="D110" s="249"/>
+      <c r="E110" s="254"/>
+      <c r="F110" s="254"/>
+      <c r="G110" s="250"/>
+      <c r="H110" s="258"/>
+      <c r="I110" s="259"/>
     </row>
     <row r="111" spans="2:16">
-      <c r="B111" s="247"/>
-      <c r="C111" s="249"/>
-      <c r="D111" s="247"/>
-      <c r="E111" s="248"/>
-      <c r="F111" s="248"/>
-      <c r="G111" s="249"/>
-      <c r="H111" s="280"/>
-      <c r="I111" s="281"/>
+      <c r="B111" s="249"/>
+      <c r="C111" s="250"/>
+      <c r="D111" s="249"/>
+      <c r="E111" s="254"/>
+      <c r="F111" s="254"/>
+      <c r="G111" s="250"/>
+      <c r="H111" s="258"/>
+      <c r="I111" s="259"/>
     </row>
     <row r="112" spans="2:16">
-      <c r="B112" s="247"/>
-      <c r="C112" s="249"/>
-      <c r="D112" s="247"/>
-      <c r="E112" s="248"/>
-      <c r="F112" s="248"/>
-      <c r="G112" s="249"/>
-      <c r="H112" s="280"/>
-      <c r="I112" s="281"/>
+      <c r="B112" s="249"/>
+      <c r="C112" s="250"/>
+      <c r="D112" s="249"/>
+      <c r="E112" s="254"/>
+      <c r="F112" s="254"/>
+      <c r="G112" s="250"/>
+      <c r="H112" s="258"/>
+      <c r="I112" s="259"/>
     </row>
     <row r="113" spans="2:9">
-      <c r="B113" s="244"/>
-      <c r="C113" s="245"/>
-      <c r="D113" s="244"/>
-      <c r="E113" s="250"/>
-      <c r="F113" s="250"/>
-      <c r="G113" s="245"/>
-      <c r="H113" s="282"/>
-      <c r="I113" s="283"/>
+      <c r="B113" s="251"/>
+      <c r="C113" s="252"/>
+      <c r="D113" s="251"/>
+      <c r="E113" s="255"/>
+      <c r="F113" s="255"/>
+      <c r="G113" s="252"/>
+      <c r="H113" s="260"/>
+      <c r="I113" s="261"/>
     </row>
     <row r="114" spans="2:9">
-      <c r="B114" s="242" t="s">
+      <c r="B114" s="247" t="s">
         <v>246</v>
       </c>
-      <c r="C114" s="243"/>
-      <c r="D114" s="242" t="s">
+      <c r="C114" s="248"/>
+      <c r="D114" s="247" t="s">
         <v>248</v>
       </c>
-      <c r="E114" s="246"/>
-      <c r="F114" s="246"/>
-      <c r="G114" s="243"/>
-      <c r="H114" s="278">
+      <c r="E114" s="253"/>
+      <c r="F114" s="253"/>
+      <c r="G114" s="248"/>
+      <c r="H114" s="256">
         <v>43596</v>
       </c>
-      <c r="I114" s="279"/>
+      <c r="I114" s="257"/>
     </row>
     <row r="115" spans="2:9">
-      <c r="B115" s="247"/>
-      <c r="C115" s="249"/>
-      <c r="D115" s="247"/>
-      <c r="E115" s="248"/>
-      <c r="F115" s="248"/>
-      <c r="G115" s="249"/>
-      <c r="H115" s="280"/>
-      <c r="I115" s="281"/>
+      <c r="B115" s="249"/>
+      <c r="C115" s="250"/>
+      <c r="D115" s="249"/>
+      <c r="E115" s="254"/>
+      <c r="F115" s="254"/>
+      <c r="G115" s="250"/>
+      <c r="H115" s="258"/>
+      <c r="I115" s="259"/>
     </row>
     <row r="116" spans="2:9">
-      <c r="B116" s="247"/>
-      <c r="C116" s="249"/>
-      <c r="D116" s="247"/>
-      <c r="E116" s="248"/>
-      <c r="F116" s="248"/>
-      <c r="G116" s="249"/>
-      <c r="H116" s="280"/>
-      <c r="I116" s="281"/>
+      <c r="B116" s="249"/>
+      <c r="C116" s="250"/>
+      <c r="D116" s="249"/>
+      <c r="E116" s="254"/>
+      <c r="F116" s="254"/>
+      <c r="G116" s="250"/>
+      <c r="H116" s="258"/>
+      <c r="I116" s="259"/>
     </row>
     <row r="117" spans="2:9">
-      <c r="B117" s="247"/>
-      <c r="C117" s="249"/>
-      <c r="D117" s="247"/>
-      <c r="E117" s="248"/>
-      <c r="F117" s="248"/>
-      <c r="G117" s="249"/>
-      <c r="H117" s="280"/>
-      <c r="I117" s="281"/>
+      <c r="B117" s="249"/>
+      <c r="C117" s="250"/>
+      <c r="D117" s="249"/>
+      <c r="E117" s="254"/>
+      <c r="F117" s="254"/>
+      <c r="G117" s="250"/>
+      <c r="H117" s="258"/>
+      <c r="I117" s="259"/>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="247"/>
-      <c r="C118" s="249"/>
-      <c r="D118" s="247"/>
-      <c r="E118" s="248"/>
-      <c r="F118" s="248"/>
-      <c r="G118" s="249"/>
-      <c r="H118" s="280"/>
-      <c r="I118" s="281"/>
+      <c r="B118" s="249"/>
+      <c r="C118" s="250"/>
+      <c r="D118" s="249"/>
+      <c r="E118" s="254"/>
+      <c r="F118" s="254"/>
+      <c r="G118" s="250"/>
+      <c r="H118" s="258"/>
+      <c r="I118" s="259"/>
     </row>
     <row r="119" spans="2:9">
-      <c r="B119" s="244"/>
-      <c r="C119" s="245"/>
-      <c r="D119" s="244"/>
-      <c r="E119" s="250"/>
-      <c r="F119" s="250"/>
-      <c r="G119" s="245"/>
-      <c r="H119" s="282"/>
-      <c r="I119" s="283"/>
+      <c r="B119" s="251"/>
+      <c r="C119" s="252"/>
+      <c r="D119" s="251"/>
+      <c r="E119" s="255"/>
+      <c r="F119" s="255"/>
+      <c r="G119" s="252"/>
+      <c r="H119" s="260"/>
+      <c r="I119" s="261"/>
     </row>
     <row r="120" spans="2:9">
-      <c r="B120" s="242" t="s">
+      <c r="B120" s="247" t="s">
         <v>188</v>
       </c>
-      <c r="C120" s="243"/>
-      <c r="D120" s="242" t="s">
+      <c r="C120" s="248"/>
+      <c r="D120" s="247" t="s">
         <v>249</v>
       </c>
-      <c r="E120" s="246"/>
-      <c r="F120" s="246"/>
-      <c r="G120" s="243"/>
-      <c r="H120" s="278">
+      <c r="E120" s="253"/>
+      <c r="F120" s="253"/>
+      <c r="G120" s="248"/>
+      <c r="H120" s="256">
         <v>43617</v>
       </c>
-      <c r="I120" s="279"/>
+      <c r="I120" s="257"/>
     </row>
     <row r="121" spans="2:9">
-      <c r="B121" s="247"/>
-      <c r="C121" s="249"/>
-      <c r="D121" s="247"/>
-      <c r="E121" s="248"/>
-      <c r="F121" s="248"/>
-      <c r="G121" s="249"/>
-      <c r="H121" s="280"/>
-      <c r="I121" s="281"/>
+      <c r="B121" s="249"/>
+      <c r="C121" s="250"/>
+      <c r="D121" s="249"/>
+      <c r="E121" s="254"/>
+      <c r="F121" s="254"/>
+      <c r="G121" s="250"/>
+      <c r="H121" s="258"/>
+      <c r="I121" s="259"/>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="247"/>
-      <c r="C122" s="249"/>
-      <c r="D122" s="247"/>
-      <c r="E122" s="248"/>
-      <c r="F122" s="248"/>
-      <c r="G122" s="249"/>
-      <c r="H122" s="280"/>
-      <c r="I122" s="281"/>
+      <c r="B122" s="249"/>
+      <c r="C122" s="250"/>
+      <c r="D122" s="249"/>
+      <c r="E122" s="254"/>
+      <c r="F122" s="254"/>
+      <c r="G122" s="250"/>
+      <c r="H122" s="258"/>
+      <c r="I122" s="259"/>
     </row>
     <row r="123" spans="2:9">
-      <c r="B123" s="247"/>
-      <c r="C123" s="249"/>
-      <c r="D123" s="247"/>
-      <c r="E123" s="248"/>
-      <c r="F123" s="248"/>
-      <c r="G123" s="249"/>
-      <c r="H123" s="280"/>
-      <c r="I123" s="281"/>
+      <c r="B123" s="249"/>
+      <c r="C123" s="250"/>
+      <c r="D123" s="249"/>
+      <c r="E123" s="254"/>
+      <c r="F123" s="254"/>
+      <c r="G123" s="250"/>
+      <c r="H123" s="258"/>
+      <c r="I123" s="259"/>
     </row>
     <row r="124" spans="2:9">
-      <c r="B124" s="247"/>
-      <c r="C124" s="249"/>
-      <c r="D124" s="247"/>
-      <c r="E124" s="248"/>
-      <c r="F124" s="248"/>
-      <c r="G124" s="249"/>
-      <c r="H124" s="280"/>
-      <c r="I124" s="281"/>
+      <c r="B124" s="249"/>
+      <c r="C124" s="250"/>
+      <c r="D124" s="249"/>
+      <c r="E124" s="254"/>
+      <c r="F124" s="254"/>
+      <c r="G124" s="250"/>
+      <c r="H124" s="258"/>
+      <c r="I124" s="259"/>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="244"/>
-      <c r="C125" s="245"/>
-      <c r="D125" s="244"/>
-      <c r="E125" s="250"/>
-      <c r="F125" s="250"/>
-      <c r="G125" s="245"/>
-      <c r="H125" s="282"/>
-      <c r="I125" s="283"/>
+      <c r="B125" s="251"/>
+      <c r="C125" s="252"/>
+      <c r="D125" s="251"/>
+      <c r="E125" s="255"/>
+      <c r="F125" s="255"/>
+      <c r="G125" s="252"/>
+      <c r="H125" s="260"/>
+      <c r="I125" s="261"/>
     </row>
     <row r="126" spans="2:9">
-      <c r="B126" s="242" t="s">
+      <c r="B126" s="247" t="s">
         <v>247</v>
       </c>
-      <c r="C126" s="243"/>
-      <c r="D126" s="242" t="s">
+      <c r="C126" s="248"/>
+      <c r="D126" s="247" t="s">
         <v>250</v>
       </c>
-      <c r="E126" s="246"/>
-      <c r="F126" s="246"/>
-      <c r="G126" s="243"/>
-      <c r="H126" s="278">
+      <c r="E126" s="253"/>
+      <c r="F126" s="253"/>
+      <c r="G126" s="248"/>
+      <c r="H126" s="256">
         <v>43630</v>
       </c>
-      <c r="I126" s="279"/>
+      <c r="I126" s="257"/>
     </row>
     <row r="127" spans="2:9">
-      <c r="B127" s="247"/>
-      <c r="C127" s="249"/>
-      <c r="D127" s="247"/>
-      <c r="E127" s="248"/>
-      <c r="F127" s="248"/>
-      <c r="G127" s="249"/>
-      <c r="H127" s="280"/>
-      <c r="I127" s="281"/>
+      <c r="B127" s="249"/>
+      <c r="C127" s="250"/>
+      <c r="D127" s="249"/>
+      <c r="E127" s="254"/>
+      <c r="F127" s="254"/>
+      <c r="G127" s="250"/>
+      <c r="H127" s="258"/>
+      <c r="I127" s="259"/>
     </row>
     <row r="128" spans="2:9">
-      <c r="B128" s="247"/>
-      <c r="C128" s="249"/>
-      <c r="D128" s="247"/>
-      <c r="E128" s="248"/>
-      <c r="F128" s="248"/>
-      <c r="G128" s="249"/>
-      <c r="H128" s="280"/>
-      <c r="I128" s="281"/>
+      <c r="B128" s="249"/>
+      <c r="C128" s="250"/>
+      <c r="D128" s="249"/>
+      <c r="E128" s="254"/>
+      <c r="F128" s="254"/>
+      <c r="G128" s="250"/>
+      <c r="H128" s="258"/>
+      <c r="I128" s="259"/>
     </row>
     <row r="129" spans="2:9">
-      <c r="B129" s="247"/>
-      <c r="C129" s="249"/>
-      <c r="D129" s="247"/>
-      <c r="E129" s="248"/>
-      <c r="F129" s="248"/>
-      <c r="G129" s="249"/>
-      <c r="H129" s="280"/>
-      <c r="I129" s="281"/>
+      <c r="B129" s="249"/>
+      <c r="C129" s="250"/>
+      <c r="D129" s="249"/>
+      <c r="E129" s="254"/>
+      <c r="F129" s="254"/>
+      <c r="G129" s="250"/>
+      <c r="H129" s="258"/>
+      <c r="I129" s="259"/>
     </row>
     <row r="130" spans="2:9">
-      <c r="B130" s="247"/>
-      <c r="C130" s="249"/>
-      <c r="D130" s="247"/>
-      <c r="E130" s="248"/>
-      <c r="F130" s="248"/>
-      <c r="G130" s="249"/>
-      <c r="H130" s="280"/>
-      <c r="I130" s="281"/>
+      <c r="B130" s="249"/>
+      <c r="C130" s="250"/>
+      <c r="D130" s="249"/>
+      <c r="E130" s="254"/>
+      <c r="F130" s="254"/>
+      <c r="G130" s="250"/>
+      <c r="H130" s="258"/>
+      <c r="I130" s="259"/>
     </row>
     <row r="131" spans="2:9">
-      <c r="B131" s="244"/>
-      <c r="C131" s="245"/>
-      <c r="D131" s="244"/>
-      <c r="E131" s="250"/>
-      <c r="F131" s="250"/>
-      <c r="G131" s="245"/>
-      <c r="H131" s="282"/>
-      <c r="I131" s="283"/>
+      <c r="B131" s="251"/>
+      <c r="C131" s="252"/>
+      <c r="D131" s="251"/>
+      <c r="E131" s="255"/>
+      <c r="F131" s="255"/>
+      <c r="G131" s="252"/>
+      <c r="H131" s="260"/>
+      <c r="I131" s="261"/>
     </row>
     <row r="135" spans="2:9">
-      <c r="B135" s="276" t="s">
+      <c r="B135" s="275" t="s">
         <v>75</v>
       </c>
-      <c r="C135" s="276"/>
-      <c r="D135" s="276"/>
+      <c r="C135" s="275"/>
+      <c r="D135" s="275"/>
       <c r="E135" s="133"/>
-      <c r="G135" s="276" t="s">
+      <c r="G135" s="275" t="s">
         <v>77</v>
       </c>
-      <c r="H135" s="276"/>
-      <c r="I135" s="276"/>
+      <c r="H135" s="275"/>
+      <c r="I135" s="275"/>
     </row>
     <row r="136" spans="2:9">
-      <c r="B136" s="274" t="s">
+      <c r="B136" s="273" t="s">
         <v>76</v>
       </c>
-      <c r="C136" s="274"/>
-      <c r="D136" s="274"/>
+      <c r="C136" s="273"/>
+      <c r="D136" s="273"/>
       <c r="E136" s="133"/>
-      <c r="G136" s="277" t="s">
+      <c r="G136" s="276" t="s">
         <v>78</v>
       </c>
-      <c r="H136" s="277"/>
-      <c r="I136" s="277"/>
+      <c r="H136" s="276"/>
+      <c r="I136" s="276"/>
     </row>
     <row r="137" spans="2:9">
       <c r="B137" s="131"/>
       <c r="C137" s="131"/>
     </row>
     <row r="139" spans="2:9">
-      <c r="B139" s="275" t="s">
+      <c r="B139" s="274" t="s">
         <v>102</v>
       </c>
-      <c r="C139" s="275"/>
-      <c r="D139" s="275"/>
-      <c r="E139" s="275"/>
+      <c r="C139" s="274"/>
+      <c r="D139" s="274"/>
+      <c r="E139" s="274"/>
     </row>
     <row r="141" spans="2:9">
       <c r="B141" s="132"/>
@@ -20438,17 +20392,68 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="F86:G94"/>
-    <mergeCell ref="H86:I94"/>
-    <mergeCell ref="B126:C131"/>
-    <mergeCell ref="D126:G131"/>
-    <mergeCell ref="H126:I131"/>
-    <mergeCell ref="B114:C119"/>
-    <mergeCell ref="D114:G119"/>
-    <mergeCell ref="H114:I119"/>
-    <mergeCell ref="B120:C125"/>
-    <mergeCell ref="D120:G125"/>
-    <mergeCell ref="H120:I125"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="D12:I14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="D8:I9"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B69:E73"/>
+    <mergeCell ref="F69:I73"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I64"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:C49"/>
+    <mergeCell ref="B50:C52"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I27"/>
+    <mergeCell ref="B41:E43"/>
+    <mergeCell ref="F41:I43"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="D47:I49"/>
+    <mergeCell ref="D50:I52"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B37:E39"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B32:E35"/>
+    <mergeCell ref="F32:I35"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="B108:C113"/>
+    <mergeCell ref="D108:G113"/>
+    <mergeCell ref="H108:I113"/>
+    <mergeCell ref="B135:D135"/>
     <mergeCell ref="H76:I76"/>
     <mergeCell ref="B77:C85"/>
     <mergeCell ref="B75:I75"/>
@@ -20465,68 +20470,17 @@
     <mergeCell ref="F77:G85"/>
     <mergeCell ref="H77:I85"/>
     <mergeCell ref="D86:E94"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="B108:C113"/>
-    <mergeCell ref="D108:G113"/>
-    <mergeCell ref="H108:I113"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B37:E39"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B32:E35"/>
-    <mergeCell ref="F32:I35"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:C49"/>
-    <mergeCell ref="B50:C52"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I27"/>
-    <mergeCell ref="B41:E43"/>
-    <mergeCell ref="F41:I43"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="D47:I49"/>
-    <mergeCell ref="D50:I52"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B69:E73"/>
-    <mergeCell ref="F69:I73"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I64"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="D12:I14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="D8:I9"/>
+    <mergeCell ref="F86:G94"/>
+    <mergeCell ref="H86:I94"/>
+    <mergeCell ref="B126:C131"/>
+    <mergeCell ref="D126:G131"/>
+    <mergeCell ref="H126:I131"/>
+    <mergeCell ref="B114:C119"/>
+    <mergeCell ref="D114:G119"/>
+    <mergeCell ref="H114:I119"/>
+    <mergeCell ref="B120:C125"/>
+    <mergeCell ref="D120:G125"/>
+    <mergeCell ref="H120:I125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20541,7 +20495,7 @@
   </sheetPr>
   <dimension ref="B2:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -20586,18 +20540,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="290" t="s">
+      <c r="B2" s="298" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="298"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="298"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="157" t="s">
@@ -21046,16 +21000,16 @@
   <dimension ref="A3:AP68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="AH26" sqref="AH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="3" spans="1:42" ht="15" thickBot="1">
-      <c r="B3" s="291"/>
-      <c r="C3" s="291"/>
-      <c r="D3" s="291"/>
-      <c r="E3" s="291"/>
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
       <c r="G3" s="163"/>
       <c r="H3" s="164"/>
       <c r="I3" s="164"/>
@@ -21091,10 +21045,10 @@
       <c r="AM3" s="164"/>
     </row>
     <row r="4" spans="1:42" ht="15" customHeight="1">
-      <c r="B4" s="291"/>
-      <c r="C4" s="291"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
+      <c r="B4" s="316"/>
+      <c r="C4" s="316"/>
+      <c r="D4" s="316"/>
+      <c r="E4" s="316"/>
       <c r="F4" s="164"/>
       <c r="G4" s="164"/>
       <c r="H4" s="164"/>
@@ -21117,15 +21071,11 @@
       <c r="Y4" s="164"/>
       <c r="Z4" s="164"/>
       <c r="AA4" s="164"/>
-      <c r="AB4" s="292" t="s">
+      <c r="AF4" s="299" t="s">
         <v>342</v>
       </c>
-      <c r="AC4" s="293"/>
-      <c r="AD4" s="294"/>
-      <c r="AE4" s="163"/>
-      <c r="AF4" s="164"/>
-      <c r="AG4" s="164"/>
-      <c r="AH4" s="164"/>
+      <c r="AG4" s="300"/>
+      <c r="AH4" s="301"/>
       <c r="AI4" s="164"/>
       <c r="AM4" s="164"/>
       <c r="AN4" s="164"/>
@@ -21160,13 +21110,9 @@
       <c r="Y5" s="164"/>
       <c r="Z5" s="164"/>
       <c r="AA5" s="164"/>
-      <c r="AB5" s="295"/>
-      <c r="AC5" s="296"/>
-      <c r="AD5" s="297"/>
-      <c r="AE5" s="163"/>
-      <c r="AF5" s="164"/>
-      <c r="AG5" s="164"/>
-      <c r="AH5" s="164"/>
+      <c r="AF5" s="302"/>
+      <c r="AG5" s="303"/>
+      <c r="AH5" s="304"/>
       <c r="AI5" s="164"/>
       <c r="AM5" s="164"/>
       <c r="AN5" s="164"/>
@@ -21201,13 +21147,9 @@
       <c r="Y6" s="164"/>
       <c r="Z6" s="164"/>
       <c r="AA6" s="164"/>
-      <c r="AB6" s="298"/>
-      <c r="AC6" s="299"/>
-      <c r="AD6" s="300"/>
-      <c r="AE6" s="164"/>
-      <c r="AF6" s="164"/>
-      <c r="AG6" s="164"/>
-      <c r="AH6" s="164"/>
+      <c r="AF6" s="305"/>
+      <c r="AG6" s="306"/>
+      <c r="AH6" s="307"/>
       <c r="AI6" s="164"/>
       <c r="AM6" s="164"/>
       <c r="AN6" s="164"/>
@@ -21221,11 +21163,11 @@
       <c r="D7" s="163"/>
       <c r="E7" s="163"/>
       <c r="F7" s="163"/>
-      <c r="R7" s="292" t="s">
+      <c r="R7" s="299" t="s">
         <v>330</v>
       </c>
-      <c r="S7" s="301"/>
-      <c r="T7" s="302"/>
+      <c r="S7" s="308"/>
+      <c r="T7" s="309"/>
       <c r="AA7" s="164"/>
       <c r="AB7" s="164"/>
       <c r="AC7" s="164"/>
@@ -21247,14 +21189,14 @@
       <c r="D8" s="163"/>
       <c r="E8" s="163"/>
       <c r="F8" s="163"/>
-      <c r="M8" s="292" t="s">
+      <c r="M8" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="N8" s="301"/>
-      <c r="O8" s="302"/>
-      <c r="R8" s="303"/>
-      <c r="S8" s="304"/>
-      <c r="T8" s="305"/>
+      <c r="N8" s="308"/>
+      <c r="O8" s="309"/>
+      <c r="R8" s="310"/>
+      <c r="S8" s="311"/>
+      <c r="T8" s="312"/>
       <c r="AA8" s="164"/>
       <c r="AE8" s="164"/>
       <c r="AF8" s="164"/>
@@ -21273,12 +21215,12 @@
       <c r="D9" s="163"/>
       <c r="E9" s="163"/>
       <c r="F9" s="163"/>
-      <c r="M9" s="303"/>
-      <c r="N9" s="304"/>
-      <c r="O9" s="305"/>
-      <c r="R9" s="306"/>
-      <c r="S9" s="307"/>
-      <c r="T9" s="308"/>
+      <c r="M9" s="310"/>
+      <c r="N9" s="311"/>
+      <c r="O9" s="312"/>
+      <c r="R9" s="313"/>
+      <c r="S9" s="314"/>
+      <c r="T9" s="315"/>
       <c r="AA9" s="164"/>
       <c r="AE9" s="163"/>
       <c r="AF9" s="164"/>
@@ -21297,14 +21239,14 @@
       <c r="D10" s="163"/>
       <c r="E10" s="163"/>
       <c r="F10" s="163"/>
-      <c r="H10" s="292" t="s">
+      <c r="H10" s="299" t="s">
         <v>327</v>
       </c>
-      <c r="I10" s="293"/>
-      <c r="J10" s="294"/>
-      <c r="M10" s="306"/>
-      <c r="N10" s="307"/>
-      <c r="O10" s="308"/>
+      <c r="I10" s="300"/>
+      <c r="J10" s="301"/>
+      <c r="M10" s="313"/>
+      <c r="N10" s="314"/>
+      <c r="O10" s="315"/>
       <c r="AA10" s="164"/>
       <c r="AE10" s="163"/>
       <c r="AF10" s="164"/>
@@ -21320,14 +21262,14 @@
       <c r="A11" s="163"/>
       <c r="B11" s="163"/>
       <c r="C11" s="163"/>
-      <c r="D11" s="292" t="s">
+      <c r="D11" s="299" t="s">
         <v>339</v>
       </c>
-      <c r="E11" s="301"/>
-      <c r="F11" s="302"/>
-      <c r="H11" s="295"/>
-      <c r="I11" s="296"/>
-      <c r="J11" s="297"/>
+      <c r="E11" s="308"/>
+      <c r="F11" s="309"/>
+      <c r="H11" s="302"/>
+      <c r="I11" s="303"/>
+      <c r="J11" s="304"/>
       <c r="AA11" s="164"/>
       <c r="AE11" s="163"/>
       <c r="AF11" s="163"/>
@@ -21343,22 +21285,28 @@
       <c r="A12" s="163"/>
       <c r="B12" s="163"/>
       <c r="C12" s="163"/>
-      <c r="D12" s="303"/>
-      <c r="E12" s="304"/>
-      <c r="F12" s="305"/>
-      <c r="H12" s="298"/>
-      <c r="I12" s="299"/>
-      <c r="J12" s="300"/>
-      <c r="W12" s="292" t="s">
+      <c r="D12" s="310"/>
+      <c r="E12" s="311"/>
+      <c r="F12" s="312"/>
+      <c r="H12" s="305"/>
+      <c r="I12" s="306"/>
+      <c r="J12" s="307"/>
+      <c r="W12" s="299" t="s">
         <v>332</v>
       </c>
-      <c r="X12" s="301"/>
-      <c r="Y12" s="302"/>
+      <c r="X12" s="308"/>
+      <c r="Y12" s="309"/>
       <c r="AA12" s="164"/>
-      <c r="AE12" s="163"/>
-      <c r="AF12" s="163"/>
-      <c r="AG12" s="163"/>
-      <c r="AH12" s="163"/>
+      <c r="AB12" s="299" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC12" s="300"/>
+      <c r="AD12" s="301"/>
+      <c r="AF12" s="299" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG12" s="300"/>
+      <c r="AH12" s="301"/>
       <c r="AI12" s="164"/>
       <c r="AJ12" s="164"/>
       <c r="AK12" s="164"/>
@@ -21369,27 +21317,24 @@
       <c r="A13" s="163"/>
       <c r="B13" s="163"/>
       <c r="C13" s="163"/>
-      <c r="D13" s="306"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="308"/>
-      <c r="M13" s="292" t="s">
+      <c r="D13" s="313"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="315"/>
+      <c r="M13" s="299" t="s">
         <v>329</v>
       </c>
-      <c r="N13" s="301"/>
-      <c r="O13" s="302"/>
-      <c r="W13" s="303"/>
-      <c r="X13" s="304"/>
-      <c r="Y13" s="305"/>
+      <c r="N13" s="308"/>
+      <c r="O13" s="309"/>
+      <c r="W13" s="310"/>
+      <c r="X13" s="311"/>
+      <c r="Y13" s="312"/>
       <c r="AA13" s="164"/>
-      <c r="AB13" s="292" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC13" s="293"/>
-      <c r="AD13" s="294"/>
-      <c r="AE13" s="163"/>
-      <c r="AF13" s="163"/>
-      <c r="AG13" s="163"/>
-      <c r="AH13" s="163"/>
+      <c r="AB13" s="302"/>
+      <c r="AC13" s="303"/>
+      <c r="AD13" s="304"/>
+      <c r="AF13" s="302"/>
+      <c r="AG13" s="303"/>
+      <c r="AH13" s="304"/>
       <c r="AI13" s="164"/>
       <c r="AJ13" s="164"/>
       <c r="AK13" s="164"/>
@@ -21403,20 +21348,19 @@
       <c r="D14" s="163"/>
       <c r="E14" s="163"/>
       <c r="F14" s="163"/>
-      <c r="M14" s="303"/>
-      <c r="N14" s="304"/>
-      <c r="O14" s="305"/>
-      <c r="W14" s="306"/>
-      <c r="X14" s="307"/>
-      <c r="Y14" s="308"/>
+      <c r="M14" s="310"/>
+      <c r="N14" s="311"/>
+      <c r="O14" s="312"/>
+      <c r="W14" s="313"/>
+      <c r="X14" s="314"/>
+      <c r="Y14" s="315"/>
       <c r="AA14" s="164"/>
-      <c r="AB14" s="295"/>
-      <c r="AC14" s="296"/>
-      <c r="AD14" s="297"/>
-      <c r="AE14" s="163"/>
-      <c r="AF14" s="164"/>
-      <c r="AG14" s="164"/>
-      <c r="AH14" s="164"/>
+      <c r="AB14" s="305"/>
+      <c r="AC14" s="306"/>
+      <c r="AD14" s="307"/>
+      <c r="AF14" s="305"/>
+      <c r="AG14" s="306"/>
+      <c r="AH14" s="307"/>
       <c r="AI14" s="164"/>
       <c r="AJ14" s="164"/>
       <c r="AK14" s="164"/>
@@ -21430,18 +21374,15 @@
       <c r="D15" s="164"/>
       <c r="E15" s="164"/>
       <c r="F15" s="164"/>
-      <c r="M15" s="306"/>
-      <c r="N15" s="307"/>
-      <c r="O15" s="308"/>
-      <c r="R15" s="292" t="s">
+      <c r="M15" s="313"/>
+      <c r="N15" s="314"/>
+      <c r="O15" s="315"/>
+      <c r="R15" s="299" t="s">
         <v>331</v>
       </c>
-      <c r="S15" s="301"/>
-      <c r="T15" s="302"/>
+      <c r="S15" s="308"/>
+      <c r="T15" s="309"/>
       <c r="AA15" s="164"/>
-      <c r="AB15" s="298"/>
-      <c r="AC15" s="299"/>
-      <c r="AD15" s="300"/>
       <c r="AE15" s="163"/>
       <c r="AF15" s="164"/>
       <c r="AG15" s="164"/>
@@ -21459,9 +21400,9 @@
       <c r="D16" s="164"/>
       <c r="E16" s="164"/>
       <c r="F16" s="164"/>
-      <c r="R16" s="303"/>
-      <c r="S16" s="304"/>
-      <c r="T16" s="305"/>
+      <c r="R16" s="310"/>
+      <c r="S16" s="311"/>
+      <c r="T16" s="312"/>
       <c r="AA16" s="164"/>
       <c r="AB16" s="164"/>
       <c r="AC16" s="164"/>
@@ -21480,9 +21421,9 @@
       <c r="D17" s="164"/>
       <c r="E17" s="164"/>
       <c r="F17" s="164"/>
-      <c r="R17" s="306"/>
-      <c r="S17" s="307"/>
-      <c r="T17" s="308"/>
+      <c r="R17" s="313"/>
+      <c r="S17" s="314"/>
+      <c r="T17" s="315"/>
       <c r="AA17" s="164"/>
       <c r="AB17" s="164"/>
       <c r="AC17" s="164"/>
@@ -21623,13 +21564,8 @@
     <row r="24" spans="1:39">
       <c r="AB24" s="164"/>
       <c r="AC24" s="164"/>
-      <c r="AD24" s="164"/>
-    </row>
-    <row r="25" spans="1:39">
-      <c r="AB25" s="164"/>
-      <c r="AC25" s="164"/>
-      <c r="AD25" s="164"/>
-    </row>
+    </row>
+    <row r="25" spans="1:39" ht="14.4" customHeight="1"/>
     <row r="26" spans="1:39">
       <c r="A26" s="165"/>
       <c r="B26" s="165"/>
@@ -22040,18 +21976,19 @@
       <c r="P68" s="182"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="AB4:AD6"/>
-    <mergeCell ref="W12:Y14"/>
-    <mergeCell ref="R7:T9"/>
-    <mergeCell ref="R15:T17"/>
-    <mergeCell ref="AB13:AD15"/>
+  <mergeCells count="12">
+    <mergeCell ref="AB12:AD14"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="H10:J12"/>
     <mergeCell ref="M8:O10"/>
     <mergeCell ref="M13:O15"/>
     <mergeCell ref="D11:F13"/>
+    <mergeCell ref="AF4:AH6"/>
+    <mergeCell ref="W12:Y14"/>
+    <mergeCell ref="R7:T9"/>
+    <mergeCell ref="R15:T17"/>
+    <mergeCell ref="AF12:AH14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22067,7 +22004,7 @@
   <dimension ref="A1:EP77"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="D23" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -22231,476 +22168,476 @@
       <c r="A2" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="399"/>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="400"/>
-      <c r="H2" s="400"/>
-      <c r="I2" s="400"/>
-      <c r="J2" s="400"/>
-      <c r="K2" s="400"/>
-      <c r="L2" s="400"/>
-      <c r="M2" s="400"/>
-      <c r="N2" s="400"/>
-      <c r="O2" s="400"/>
-      <c r="P2" s="400"/>
-      <c r="Q2" s="400"/>
-      <c r="R2" s="400"/>
-      <c r="S2" s="400"/>
-      <c r="T2" s="400"/>
-      <c r="U2" s="401"/>
-      <c r="V2" s="402" t="s">
+      <c r="B2" s="365"/>
+      <c r="C2" s="366"/>
+      <c r="D2" s="366"/>
+      <c r="E2" s="366"/>
+      <c r="F2" s="366"/>
+      <c r="G2" s="366"/>
+      <c r="H2" s="366"/>
+      <c r="I2" s="366"/>
+      <c r="J2" s="366"/>
+      <c r="K2" s="366"/>
+      <c r="L2" s="366"/>
+      <c r="M2" s="366"/>
+      <c r="N2" s="366"/>
+      <c r="O2" s="366"/>
+      <c r="P2" s="366"/>
+      <c r="Q2" s="366"/>
+      <c r="R2" s="366"/>
+      <c r="S2" s="366"/>
+      <c r="T2" s="366"/>
+      <c r="U2" s="367"/>
+      <c r="V2" s="368" t="s">
         <v>143</v>
       </c>
-      <c r="W2" s="403"/>
-      <c r="X2" s="403"/>
-      <c r="Y2" s="403"/>
-      <c r="Z2" s="403"/>
-      <c r="AA2" s="403"/>
-      <c r="AB2" s="403"/>
-      <c r="AC2" s="403"/>
-      <c r="AD2" s="403"/>
-      <c r="AE2" s="403"/>
-      <c r="AF2" s="403"/>
-      <c r="AG2" s="403"/>
-      <c r="AH2" s="403"/>
-      <c r="AI2" s="404"/>
-      <c r="AJ2" s="405">
+      <c r="W2" s="369"/>
+      <c r="X2" s="369"/>
+      <c r="Y2" s="369"/>
+      <c r="Z2" s="369"/>
+      <c r="AA2" s="369"/>
+      <c r="AB2" s="369"/>
+      <c r="AC2" s="369"/>
+      <c r="AD2" s="369"/>
+      <c r="AE2" s="369"/>
+      <c r="AF2" s="369"/>
+      <c r="AG2" s="369"/>
+      <c r="AH2" s="369"/>
+      <c r="AI2" s="370"/>
+      <c r="AJ2" s="371">
         <v>43590</v>
       </c>
-      <c r="AK2" s="406"/>
-      <c r="AL2" s="406"/>
-      <c r="AM2" s="406"/>
-      <c r="AN2" s="406"/>
-      <c r="AO2" s="406"/>
-      <c r="AP2" s="406"/>
-      <c r="AQ2" s="406"/>
-      <c r="AR2" s="406"/>
-      <c r="AS2" s="406"/>
-      <c r="AT2" s="407"/>
-      <c r="AU2" s="408"/>
-      <c r="AV2" s="409"/>
-      <c r="AW2" s="409"/>
-      <c r="AX2" s="409"/>
-      <c r="AY2" s="409"/>
-      <c r="AZ2" s="409"/>
-      <c r="BA2" s="409"/>
-      <c r="BB2" s="409"/>
-      <c r="BC2" s="409"/>
-      <c r="BD2" s="409"/>
-      <c r="BE2" s="409"/>
-      <c r="BF2" s="409"/>
-      <c r="BG2" s="410"/>
+      <c r="AK2" s="372"/>
+      <c r="AL2" s="372"/>
+      <c r="AM2" s="372"/>
+      <c r="AN2" s="372"/>
+      <c r="AO2" s="372"/>
+      <c r="AP2" s="372"/>
+      <c r="AQ2" s="372"/>
+      <c r="AR2" s="372"/>
+      <c r="AS2" s="372"/>
+      <c r="AT2" s="373"/>
+      <c r="AU2" s="374"/>
+      <c r="AV2" s="375"/>
+      <c r="AW2" s="375"/>
+      <c r="AX2" s="375"/>
+      <c r="AY2" s="375"/>
+      <c r="AZ2" s="375"/>
+      <c r="BA2" s="375"/>
+      <c r="BB2" s="375"/>
+      <c r="BC2" s="375"/>
+      <c r="BD2" s="375"/>
+      <c r="BE2" s="375"/>
+      <c r="BF2" s="375"/>
+      <c r="BG2" s="376"/>
       <c r="BH2" s="45"/>
       <c r="BI2" s="46"/>
-      <c r="BJ2" s="411" t="s">
+      <c r="BJ2" s="377" t="s">
         <v>146</v>
       </c>
-      <c r="BK2" s="403"/>
-      <c r="BL2" s="403"/>
-      <c r="BM2" s="403"/>
-      <c r="BN2" s="403"/>
-      <c r="BO2" s="403"/>
-      <c r="BP2" s="403"/>
-      <c r="BQ2" s="403"/>
-      <c r="BR2" s="403"/>
-      <c r="BS2" s="403"/>
-      <c r="BT2" s="403"/>
-      <c r="BU2" s="403"/>
-      <c r="BV2" s="403"/>
-      <c r="BW2" s="403"/>
-      <c r="BX2" s="403"/>
-      <c r="BY2" s="403"/>
-      <c r="BZ2" s="403"/>
-      <c r="CA2" s="403"/>
-      <c r="CB2" s="403"/>
-      <c r="CC2" s="403"/>
-      <c r="CD2" s="403"/>
-      <c r="CE2" s="403"/>
-      <c r="CF2" s="403"/>
-      <c r="CG2" s="412"/>
-      <c r="CH2" s="385" t="s">
+      <c r="BK2" s="369"/>
+      <c r="BL2" s="369"/>
+      <c r="BM2" s="369"/>
+      <c r="BN2" s="369"/>
+      <c r="BO2" s="369"/>
+      <c r="BP2" s="369"/>
+      <c r="BQ2" s="369"/>
+      <c r="BR2" s="369"/>
+      <c r="BS2" s="369"/>
+      <c r="BT2" s="369"/>
+      <c r="BU2" s="369"/>
+      <c r="BV2" s="369"/>
+      <c r="BW2" s="369"/>
+      <c r="BX2" s="369"/>
+      <c r="BY2" s="369"/>
+      <c r="BZ2" s="369"/>
+      <c r="CA2" s="369"/>
+      <c r="CB2" s="369"/>
+      <c r="CC2" s="369"/>
+      <c r="CD2" s="369"/>
+      <c r="CE2" s="369"/>
+      <c r="CF2" s="369"/>
+      <c r="CG2" s="378"/>
+      <c r="CH2" s="351" t="s">
         <v>155</v>
       </c>
-      <c r="CI2" s="386"/>
-      <c r="CJ2" s="386"/>
-      <c r="CK2" s="386"/>
-      <c r="CL2" s="386"/>
-      <c r="CM2" s="386"/>
-      <c r="CN2" s="386"/>
-      <c r="CO2" s="386"/>
-      <c r="CP2" s="386"/>
-      <c r="CQ2" s="386"/>
-      <c r="CR2" s="386"/>
-      <c r="CS2" s="386"/>
-      <c r="CT2" s="386"/>
-      <c r="CU2" s="386"/>
-      <c r="CV2" s="386"/>
-      <c r="CW2" s="386"/>
-      <c r="CX2" s="386"/>
-      <c r="CY2" s="386"/>
-      <c r="CZ2" s="386"/>
-      <c r="DA2" s="386"/>
-      <c r="DB2" s="386"/>
-      <c r="DC2" s="386"/>
-      <c r="DD2" s="386"/>
-      <c r="DE2" s="386"/>
-      <c r="DF2" s="387"/>
-      <c r="DG2" s="370"/>
-      <c r="DH2" s="371"/>
-      <c r="DI2" s="371"/>
-      <c r="DJ2" s="371"/>
-      <c r="DK2" s="371"/>
-      <c r="DL2" s="371"/>
-      <c r="DM2" s="371"/>
-      <c r="DN2" s="371"/>
-      <c r="DO2" s="371"/>
-      <c r="DP2" s="371"/>
-      <c r="DQ2" s="371"/>
-      <c r="DR2" s="371"/>
-      <c r="DS2" s="371"/>
-      <c r="DT2" s="371"/>
-      <c r="DU2" s="371"/>
-      <c r="DV2" s="371"/>
-      <c r="DW2" s="371"/>
-      <c r="DX2" s="371"/>
-      <c r="DY2" s="371"/>
-      <c r="DZ2" s="371"/>
-      <c r="EA2" s="371"/>
-      <c r="EB2" s="371"/>
-      <c r="EC2" s="371"/>
-      <c r="ED2" s="371"/>
-      <c r="EE2" s="371"/>
-      <c r="EF2" s="371"/>
-      <c r="EG2" s="371"/>
-      <c r="EH2" s="371"/>
-      <c r="EI2" s="371"/>
-      <c r="EJ2" s="371"/>
-      <c r="EK2" s="371"/>
-      <c r="EL2" s="371"/>
-      <c r="EM2" s="371"/>
-      <c r="EN2" s="371"/>
-      <c r="EO2" s="374"/>
+      <c r="CI2" s="352"/>
+      <c r="CJ2" s="352"/>
+      <c r="CK2" s="352"/>
+      <c r="CL2" s="352"/>
+      <c r="CM2" s="352"/>
+      <c r="CN2" s="352"/>
+      <c r="CO2" s="352"/>
+      <c r="CP2" s="352"/>
+      <c r="CQ2" s="352"/>
+      <c r="CR2" s="352"/>
+      <c r="CS2" s="352"/>
+      <c r="CT2" s="352"/>
+      <c r="CU2" s="352"/>
+      <c r="CV2" s="352"/>
+      <c r="CW2" s="352"/>
+      <c r="CX2" s="352"/>
+      <c r="CY2" s="352"/>
+      <c r="CZ2" s="352"/>
+      <c r="DA2" s="352"/>
+      <c r="DB2" s="352"/>
+      <c r="DC2" s="352"/>
+      <c r="DD2" s="352"/>
+      <c r="DE2" s="352"/>
+      <c r="DF2" s="353"/>
+      <c r="DG2" s="336"/>
+      <c r="DH2" s="337"/>
+      <c r="DI2" s="337"/>
+      <c r="DJ2" s="337"/>
+      <c r="DK2" s="337"/>
+      <c r="DL2" s="337"/>
+      <c r="DM2" s="337"/>
+      <c r="DN2" s="337"/>
+      <c r="DO2" s="337"/>
+      <c r="DP2" s="337"/>
+      <c r="DQ2" s="337"/>
+      <c r="DR2" s="337"/>
+      <c r="DS2" s="337"/>
+      <c r="DT2" s="337"/>
+      <c r="DU2" s="337"/>
+      <c r="DV2" s="337"/>
+      <c r="DW2" s="337"/>
+      <c r="DX2" s="337"/>
+      <c r="DY2" s="337"/>
+      <c r="DZ2" s="337"/>
+      <c r="EA2" s="337"/>
+      <c r="EB2" s="337"/>
+      <c r="EC2" s="337"/>
+      <c r="ED2" s="337"/>
+      <c r="EE2" s="337"/>
+      <c r="EF2" s="337"/>
+      <c r="EG2" s="337"/>
+      <c r="EH2" s="337"/>
+      <c r="EI2" s="337"/>
+      <c r="EJ2" s="337"/>
+      <c r="EK2" s="337"/>
+      <c r="EL2" s="337"/>
+      <c r="EM2" s="337"/>
+      <c r="EN2" s="337"/>
+      <c r="EO2" s="340"/>
       <c r="EP2" s="47"/>
     </row>
     <row r="3" spans="1:146" ht="45.75" customHeight="1" thickBot="1">
       <c r="A3" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="376"/>
-      <c r="C3" s="377"/>
-      <c r="D3" s="377"/>
-      <c r="E3" s="377"/>
-      <c r="F3" s="377"/>
-      <c r="G3" s="377"/>
-      <c r="H3" s="377"/>
-      <c r="I3" s="377"/>
-      <c r="J3" s="377"/>
-      <c r="K3" s="377"/>
-      <c r="L3" s="377"/>
-      <c r="M3" s="377"/>
-      <c r="N3" s="377"/>
-      <c r="O3" s="377"/>
-      <c r="P3" s="377"/>
-      <c r="Q3" s="377"/>
-      <c r="R3" s="377"/>
-      <c r="S3" s="377"/>
-      <c r="T3" s="377"/>
-      <c r="U3" s="378"/>
-      <c r="V3" s="379" t="s">
+      <c r="B3" s="342"/>
+      <c r="C3" s="343"/>
+      <c r="D3" s="343"/>
+      <c r="E3" s="343"/>
+      <c r="F3" s="343"/>
+      <c r="G3" s="343"/>
+      <c r="H3" s="343"/>
+      <c r="I3" s="343"/>
+      <c r="J3" s="343"/>
+      <c r="K3" s="343"/>
+      <c r="L3" s="343"/>
+      <c r="M3" s="343"/>
+      <c r="N3" s="343"/>
+      <c r="O3" s="343"/>
+      <c r="P3" s="343"/>
+      <c r="Q3" s="343"/>
+      <c r="R3" s="343"/>
+      <c r="S3" s="343"/>
+      <c r="T3" s="343"/>
+      <c r="U3" s="344"/>
+      <c r="V3" s="345" t="s">
         <v>144</v>
       </c>
-      <c r="W3" s="380"/>
-      <c r="X3" s="380"/>
-      <c r="Y3" s="380"/>
-      <c r="Z3" s="380"/>
-      <c r="AA3" s="380"/>
-      <c r="AB3" s="380"/>
-      <c r="AC3" s="380"/>
-      <c r="AD3" s="380"/>
-      <c r="AE3" s="380"/>
-      <c r="AF3" s="380"/>
-      <c r="AG3" s="380"/>
-      <c r="AH3" s="380"/>
-      <c r="AI3" s="381"/>
-      <c r="AJ3" s="382" t="s">
+      <c r="W3" s="346"/>
+      <c r="X3" s="346"/>
+      <c r="Y3" s="346"/>
+      <c r="Z3" s="346"/>
+      <c r="AA3" s="346"/>
+      <c r="AB3" s="346"/>
+      <c r="AC3" s="346"/>
+      <c r="AD3" s="346"/>
+      <c r="AE3" s="346"/>
+      <c r="AF3" s="346"/>
+      <c r="AG3" s="346"/>
+      <c r="AH3" s="346"/>
+      <c r="AI3" s="347"/>
+      <c r="AJ3" s="348" t="s">
         <v>343</v>
       </c>
-      <c r="AK3" s="383"/>
-      <c r="AL3" s="383"/>
-      <c r="AM3" s="383"/>
-      <c r="AN3" s="383"/>
-      <c r="AO3" s="383"/>
-      <c r="AP3" s="383"/>
-      <c r="AQ3" s="383"/>
-      <c r="AR3" s="383"/>
-      <c r="AS3" s="383"/>
-      <c r="AT3" s="384"/>
-      <c r="AU3" s="391"/>
-      <c r="AV3" s="392"/>
-      <c r="AW3" s="393" t="s">
+      <c r="AK3" s="349"/>
+      <c r="AL3" s="349"/>
+      <c r="AM3" s="349"/>
+      <c r="AN3" s="349"/>
+      <c r="AO3" s="349"/>
+      <c r="AP3" s="349"/>
+      <c r="AQ3" s="349"/>
+      <c r="AR3" s="349"/>
+      <c r="AS3" s="349"/>
+      <c r="AT3" s="350"/>
+      <c r="AU3" s="357"/>
+      <c r="AV3" s="358"/>
+      <c r="AW3" s="359" t="s">
         <v>145</v>
       </c>
-      <c r="AX3" s="394"/>
-      <c r="AY3" s="394"/>
-      <c r="AZ3" s="394"/>
-      <c r="BA3" s="394"/>
-      <c r="BB3" s="394"/>
-      <c r="BC3" s="394"/>
-      <c r="BD3" s="394"/>
-      <c r="BE3" s="394"/>
-      <c r="BF3" s="394"/>
-      <c r="BG3" s="395"/>
+      <c r="AX3" s="360"/>
+      <c r="AY3" s="360"/>
+      <c r="AZ3" s="360"/>
+      <c r="BA3" s="360"/>
+      <c r="BB3" s="360"/>
+      <c r="BC3" s="360"/>
+      <c r="BD3" s="360"/>
+      <c r="BE3" s="360"/>
+      <c r="BF3" s="360"/>
+      <c r="BG3" s="361"/>
       <c r="BH3" s="49"/>
       <c r="BI3" s="50"/>
-      <c r="BJ3" s="396" t="s">
+      <c r="BJ3" s="362" t="s">
         <v>147</v>
       </c>
-      <c r="BK3" s="397"/>
-      <c r="BL3" s="397"/>
-      <c r="BM3" s="397"/>
-      <c r="BN3" s="397"/>
-      <c r="BO3" s="397"/>
-      <c r="BP3" s="397"/>
-      <c r="BQ3" s="397"/>
-      <c r="BR3" s="397"/>
-      <c r="BS3" s="397"/>
-      <c r="BT3" s="397"/>
-      <c r="BU3" s="397"/>
-      <c r="BV3" s="397"/>
-      <c r="BW3" s="397"/>
-      <c r="BX3" s="397"/>
-      <c r="BY3" s="397"/>
-      <c r="BZ3" s="397"/>
-      <c r="CA3" s="397"/>
-      <c r="CB3" s="397"/>
-      <c r="CC3" s="397"/>
-      <c r="CD3" s="397"/>
-      <c r="CE3" s="397"/>
-      <c r="CF3" s="397"/>
-      <c r="CG3" s="398"/>
-      <c r="CH3" s="388"/>
-      <c r="CI3" s="389"/>
-      <c r="CJ3" s="389"/>
-      <c r="CK3" s="389"/>
-      <c r="CL3" s="389"/>
-      <c r="CM3" s="389"/>
-      <c r="CN3" s="389"/>
-      <c r="CO3" s="389"/>
-      <c r="CP3" s="389"/>
-      <c r="CQ3" s="389"/>
-      <c r="CR3" s="389"/>
-      <c r="CS3" s="389"/>
-      <c r="CT3" s="389"/>
-      <c r="CU3" s="389"/>
-      <c r="CV3" s="389"/>
-      <c r="CW3" s="389"/>
-      <c r="CX3" s="389"/>
-      <c r="CY3" s="389"/>
-      <c r="CZ3" s="389"/>
-      <c r="DA3" s="389"/>
-      <c r="DB3" s="389"/>
-      <c r="DC3" s="389"/>
-      <c r="DD3" s="389"/>
-      <c r="DE3" s="389"/>
-      <c r="DF3" s="390"/>
-      <c r="DG3" s="372"/>
-      <c r="DH3" s="373"/>
-      <c r="DI3" s="373"/>
-      <c r="DJ3" s="373"/>
-      <c r="DK3" s="373"/>
-      <c r="DL3" s="373"/>
-      <c r="DM3" s="373"/>
-      <c r="DN3" s="373"/>
-      <c r="DO3" s="373"/>
-      <c r="DP3" s="373"/>
-      <c r="DQ3" s="373"/>
-      <c r="DR3" s="373"/>
-      <c r="DS3" s="373"/>
-      <c r="DT3" s="373"/>
-      <c r="DU3" s="373"/>
-      <c r="DV3" s="373"/>
-      <c r="DW3" s="373"/>
-      <c r="DX3" s="373"/>
-      <c r="DY3" s="373"/>
-      <c r="DZ3" s="373"/>
-      <c r="EA3" s="373"/>
-      <c r="EB3" s="373"/>
-      <c r="EC3" s="373"/>
-      <c r="ED3" s="373"/>
-      <c r="EE3" s="373"/>
-      <c r="EF3" s="373"/>
-      <c r="EG3" s="373"/>
-      <c r="EH3" s="373"/>
-      <c r="EI3" s="373"/>
-      <c r="EJ3" s="373"/>
-      <c r="EK3" s="373"/>
-      <c r="EL3" s="373"/>
-      <c r="EM3" s="373"/>
-      <c r="EN3" s="373"/>
-      <c r="EO3" s="375"/>
+      <c r="BK3" s="363"/>
+      <c r="BL3" s="363"/>
+      <c r="BM3" s="363"/>
+      <c r="BN3" s="363"/>
+      <c r="BO3" s="363"/>
+      <c r="BP3" s="363"/>
+      <c r="BQ3" s="363"/>
+      <c r="BR3" s="363"/>
+      <c r="BS3" s="363"/>
+      <c r="BT3" s="363"/>
+      <c r="BU3" s="363"/>
+      <c r="BV3" s="363"/>
+      <c r="BW3" s="363"/>
+      <c r="BX3" s="363"/>
+      <c r="BY3" s="363"/>
+      <c r="BZ3" s="363"/>
+      <c r="CA3" s="363"/>
+      <c r="CB3" s="363"/>
+      <c r="CC3" s="363"/>
+      <c r="CD3" s="363"/>
+      <c r="CE3" s="363"/>
+      <c r="CF3" s="363"/>
+      <c r="CG3" s="364"/>
+      <c r="CH3" s="354"/>
+      <c r="CI3" s="355"/>
+      <c r="CJ3" s="355"/>
+      <c r="CK3" s="355"/>
+      <c r="CL3" s="355"/>
+      <c r="CM3" s="355"/>
+      <c r="CN3" s="355"/>
+      <c r="CO3" s="355"/>
+      <c r="CP3" s="355"/>
+      <c r="CQ3" s="355"/>
+      <c r="CR3" s="355"/>
+      <c r="CS3" s="355"/>
+      <c r="CT3" s="355"/>
+      <c r="CU3" s="355"/>
+      <c r="CV3" s="355"/>
+      <c r="CW3" s="355"/>
+      <c r="CX3" s="355"/>
+      <c r="CY3" s="355"/>
+      <c r="CZ3" s="355"/>
+      <c r="DA3" s="355"/>
+      <c r="DB3" s="355"/>
+      <c r="DC3" s="355"/>
+      <c r="DD3" s="355"/>
+      <c r="DE3" s="355"/>
+      <c r="DF3" s="356"/>
+      <c r="DG3" s="338"/>
+      <c r="DH3" s="339"/>
+      <c r="DI3" s="339"/>
+      <c r="DJ3" s="339"/>
+      <c r="DK3" s="339"/>
+      <c r="DL3" s="339"/>
+      <c r="DM3" s="339"/>
+      <c r="DN3" s="339"/>
+      <c r="DO3" s="339"/>
+      <c r="DP3" s="339"/>
+      <c r="DQ3" s="339"/>
+      <c r="DR3" s="339"/>
+      <c r="DS3" s="339"/>
+      <c r="DT3" s="339"/>
+      <c r="DU3" s="339"/>
+      <c r="DV3" s="339"/>
+      <c r="DW3" s="339"/>
+      <c r="DX3" s="339"/>
+      <c r="DY3" s="339"/>
+      <c r="DZ3" s="339"/>
+      <c r="EA3" s="339"/>
+      <c r="EB3" s="339"/>
+      <c r="EC3" s="339"/>
+      <c r="ED3" s="339"/>
+      <c r="EE3" s="339"/>
+      <c r="EF3" s="339"/>
+      <c r="EG3" s="339"/>
+      <c r="EH3" s="339"/>
+      <c r="EI3" s="339"/>
+      <c r="EJ3" s="339"/>
+      <c r="EK3" s="339"/>
+      <c r="EL3" s="339"/>
+      <c r="EM3" s="339"/>
+      <c r="EN3" s="339"/>
+      <c r="EO3" s="341"/>
       <c r="EP3" s="47"/>
     </row>
     <row r="4" spans="1:146" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="351"/>
-      <c r="B4" s="352"/>
-      <c r="C4" s="352"/>
-      <c r="D4" s="352"/>
-      <c r="E4" s="352"/>
-      <c r="F4" s="352"/>
-      <c r="G4" s="352"/>
-      <c r="H4" s="352"/>
-      <c r="I4" s="352"/>
-      <c r="J4" s="352"/>
-      <c r="K4" s="352"/>
-      <c r="L4" s="352"/>
-      <c r="M4" s="352"/>
-      <c r="N4" s="352"/>
-      <c r="O4" s="352"/>
-      <c r="P4" s="352"/>
-      <c r="Q4" s="352"/>
-      <c r="R4" s="352"/>
-      <c r="S4" s="352"/>
-      <c r="T4" s="352"/>
-      <c r="U4" s="352"/>
-      <c r="V4" s="352"/>
-      <c r="W4" s="352"/>
-      <c r="X4" s="352"/>
-      <c r="Y4" s="352"/>
-      <c r="Z4" s="352"/>
-      <c r="AA4" s="352"/>
-      <c r="AB4" s="352"/>
-      <c r="AC4" s="352"/>
-      <c r="AD4" s="352"/>
-      <c r="AE4" s="352"/>
-      <c r="AF4" s="352"/>
-      <c r="AG4" s="352"/>
-      <c r="AH4" s="352"/>
-      <c r="AI4" s="352"/>
-      <c r="AJ4" s="352"/>
-      <c r="AK4" s="352"/>
-      <c r="AL4" s="352"/>
-      <c r="AM4" s="352"/>
-      <c r="AN4" s="352"/>
-      <c r="AO4" s="352"/>
-      <c r="AP4" s="352"/>
-      <c r="AQ4" s="352"/>
-      <c r="AR4" s="352"/>
-      <c r="AS4" s="352"/>
-      <c r="AT4" s="352"/>
-      <c r="AU4" s="352"/>
-      <c r="AV4" s="352"/>
-      <c r="AW4" s="352"/>
-      <c r="AX4" s="352"/>
-      <c r="AY4" s="352"/>
-      <c r="AZ4" s="352"/>
-      <c r="BA4" s="352"/>
-      <c r="BB4" s="352"/>
-      <c r="BC4" s="352"/>
-      <c r="BD4" s="352"/>
-      <c r="BE4" s="352"/>
-      <c r="BF4" s="352"/>
-      <c r="BG4" s="352"/>
-      <c r="BH4" s="352"/>
-      <c r="BI4" s="352"/>
-      <c r="BJ4" s="352"/>
-      <c r="BK4" s="352"/>
-      <c r="BL4" s="352"/>
-      <c r="BM4" s="352"/>
-      <c r="BN4" s="352"/>
-      <c r="BO4" s="352"/>
-      <c r="BP4" s="352"/>
-      <c r="BQ4" s="352"/>
-      <c r="BR4" s="352"/>
-      <c r="BS4" s="352"/>
-      <c r="BT4" s="352"/>
-      <c r="BU4" s="352"/>
-      <c r="BV4" s="352"/>
-      <c r="BW4" s="352"/>
-      <c r="BX4" s="352"/>
-      <c r="BY4" s="352"/>
-      <c r="BZ4" s="352"/>
-      <c r="CA4" s="352"/>
-      <c r="CB4" s="352"/>
-      <c r="CC4" s="352"/>
-      <c r="CD4" s="352"/>
-      <c r="CE4" s="352"/>
-      <c r="CF4" s="352"/>
-      <c r="CG4" s="352"/>
-      <c r="CH4" s="352"/>
-      <c r="CI4" s="352"/>
-      <c r="CJ4" s="352"/>
-      <c r="CK4" s="352"/>
-      <c r="CL4" s="352"/>
-      <c r="CM4" s="352"/>
-      <c r="CN4" s="352"/>
-      <c r="CO4" s="352"/>
-      <c r="CP4" s="352"/>
-      <c r="CQ4" s="352"/>
-      <c r="CR4" s="352"/>
-      <c r="CS4" s="352"/>
-      <c r="CT4" s="352"/>
-      <c r="CU4" s="352"/>
-      <c r="CV4" s="352"/>
-      <c r="CW4" s="352"/>
-      <c r="CX4" s="352"/>
-      <c r="CY4" s="352"/>
-      <c r="CZ4" s="352"/>
-      <c r="DA4" s="352"/>
-      <c r="DB4" s="352"/>
-      <c r="DC4" s="352"/>
-      <c r="DD4" s="352"/>
-      <c r="DE4" s="352"/>
-      <c r="DF4" s="353"/>
-      <c r="DG4" s="354"/>
-      <c r="DH4" s="355"/>
-      <c r="DI4" s="355"/>
-      <c r="DJ4" s="355"/>
-      <c r="DK4" s="355"/>
-      <c r="DL4" s="355"/>
-      <c r="DM4" s="355"/>
-      <c r="DN4" s="355"/>
-      <c r="DO4" s="355"/>
-      <c r="DP4" s="355"/>
-      <c r="DQ4" s="355"/>
-      <c r="DR4" s="355"/>
-      <c r="DS4" s="355"/>
-      <c r="DT4" s="355"/>
-      <c r="DU4" s="355"/>
-      <c r="DV4" s="355"/>
-      <c r="DW4" s="355"/>
-      <c r="DX4" s="355"/>
-      <c r="DY4" s="355"/>
-      <c r="DZ4" s="355"/>
-      <c r="EA4" s="355"/>
-      <c r="EB4" s="355"/>
-      <c r="EC4" s="355"/>
-      <c r="ED4" s="355"/>
-      <c r="EE4" s="355"/>
-      <c r="EF4" s="355"/>
-      <c r="EG4" s="355"/>
-      <c r="EH4" s="355"/>
-      <c r="EI4" s="355"/>
-      <c r="EJ4" s="355"/>
-      <c r="EK4" s="355"/>
-      <c r="EL4" s="355"/>
-      <c r="EM4" s="355"/>
-      <c r="EN4" s="355"/>
-      <c r="EO4" s="356"/>
+      <c r="A4" s="317"/>
+      <c r="B4" s="318"/>
+      <c r="C4" s="318"/>
+      <c r="D4" s="318"/>
+      <c r="E4" s="318"/>
+      <c r="F4" s="318"/>
+      <c r="G4" s="318"/>
+      <c r="H4" s="318"/>
+      <c r="I4" s="318"/>
+      <c r="J4" s="318"/>
+      <c r="K4" s="318"/>
+      <c r="L4" s="318"/>
+      <c r="M4" s="318"/>
+      <c r="N4" s="318"/>
+      <c r="O4" s="318"/>
+      <c r="P4" s="318"/>
+      <c r="Q4" s="318"/>
+      <c r="R4" s="318"/>
+      <c r="S4" s="318"/>
+      <c r="T4" s="318"/>
+      <c r="U4" s="318"/>
+      <c r="V4" s="318"/>
+      <c r="W4" s="318"/>
+      <c r="X4" s="318"/>
+      <c r="Y4" s="318"/>
+      <c r="Z4" s="318"/>
+      <c r="AA4" s="318"/>
+      <c r="AB4" s="318"/>
+      <c r="AC4" s="318"/>
+      <c r="AD4" s="318"/>
+      <c r="AE4" s="318"/>
+      <c r="AF4" s="318"/>
+      <c r="AG4" s="318"/>
+      <c r="AH4" s="318"/>
+      <c r="AI4" s="318"/>
+      <c r="AJ4" s="318"/>
+      <c r="AK4" s="318"/>
+      <c r="AL4" s="318"/>
+      <c r="AM4" s="318"/>
+      <c r="AN4" s="318"/>
+      <c r="AO4" s="318"/>
+      <c r="AP4" s="318"/>
+      <c r="AQ4" s="318"/>
+      <c r="AR4" s="318"/>
+      <c r="AS4" s="318"/>
+      <c r="AT4" s="318"/>
+      <c r="AU4" s="318"/>
+      <c r="AV4" s="318"/>
+      <c r="AW4" s="318"/>
+      <c r="AX4" s="318"/>
+      <c r="AY4" s="318"/>
+      <c r="AZ4" s="318"/>
+      <c r="BA4" s="318"/>
+      <c r="BB4" s="318"/>
+      <c r="BC4" s="318"/>
+      <c r="BD4" s="318"/>
+      <c r="BE4" s="318"/>
+      <c r="BF4" s="318"/>
+      <c r="BG4" s="318"/>
+      <c r="BH4" s="318"/>
+      <c r="BI4" s="318"/>
+      <c r="BJ4" s="318"/>
+      <c r="BK4" s="318"/>
+      <c r="BL4" s="318"/>
+      <c r="BM4" s="318"/>
+      <c r="BN4" s="318"/>
+      <c r="BO4" s="318"/>
+      <c r="BP4" s="318"/>
+      <c r="BQ4" s="318"/>
+      <c r="BR4" s="318"/>
+      <c r="BS4" s="318"/>
+      <c r="BT4" s="318"/>
+      <c r="BU4" s="318"/>
+      <c r="BV4" s="318"/>
+      <c r="BW4" s="318"/>
+      <c r="BX4" s="318"/>
+      <c r="BY4" s="318"/>
+      <c r="BZ4" s="318"/>
+      <c r="CA4" s="318"/>
+      <c r="CB4" s="318"/>
+      <c r="CC4" s="318"/>
+      <c r="CD4" s="318"/>
+      <c r="CE4" s="318"/>
+      <c r="CF4" s="318"/>
+      <c r="CG4" s="318"/>
+      <c r="CH4" s="318"/>
+      <c r="CI4" s="318"/>
+      <c r="CJ4" s="318"/>
+      <c r="CK4" s="318"/>
+      <c r="CL4" s="318"/>
+      <c r="CM4" s="318"/>
+      <c r="CN4" s="318"/>
+      <c r="CO4" s="318"/>
+      <c r="CP4" s="318"/>
+      <c r="CQ4" s="318"/>
+      <c r="CR4" s="318"/>
+      <c r="CS4" s="318"/>
+      <c r="CT4" s="318"/>
+      <c r="CU4" s="318"/>
+      <c r="CV4" s="318"/>
+      <c r="CW4" s="318"/>
+      <c r="CX4" s="318"/>
+      <c r="CY4" s="318"/>
+      <c r="CZ4" s="318"/>
+      <c r="DA4" s="318"/>
+      <c r="DB4" s="318"/>
+      <c r="DC4" s="318"/>
+      <c r="DD4" s="318"/>
+      <c r="DE4" s="318"/>
+      <c r="DF4" s="319"/>
+      <c r="DG4" s="320"/>
+      <c r="DH4" s="321"/>
+      <c r="DI4" s="321"/>
+      <c r="DJ4" s="321"/>
+      <c r="DK4" s="321"/>
+      <c r="DL4" s="321"/>
+      <c r="DM4" s="321"/>
+      <c r="DN4" s="321"/>
+      <c r="DO4" s="321"/>
+      <c r="DP4" s="321"/>
+      <c r="DQ4" s="321"/>
+      <c r="DR4" s="321"/>
+      <c r="DS4" s="321"/>
+      <c r="DT4" s="321"/>
+      <c r="DU4" s="321"/>
+      <c r="DV4" s="321"/>
+      <c r="DW4" s="321"/>
+      <c r="DX4" s="321"/>
+      <c r="DY4" s="321"/>
+      <c r="DZ4" s="321"/>
+      <c r="EA4" s="321"/>
+      <c r="EB4" s="321"/>
+      <c r="EC4" s="321"/>
+      <c r="ED4" s="321"/>
+      <c r="EE4" s="321"/>
+      <c r="EF4" s="321"/>
+      <c r="EG4" s="321"/>
+      <c r="EH4" s="321"/>
+      <c r="EI4" s="321"/>
+      <c r="EJ4" s="321"/>
+      <c r="EK4" s="321"/>
+      <c r="EL4" s="321"/>
+      <c r="EM4" s="321"/>
+      <c r="EN4" s="321"/>
+      <c r="EO4" s="322"/>
       <c r="EP4" s="51"/>
     </row>
     <row r="5" spans="1:146" ht="16.2" thickTop="1">
-      <c r="A5" s="357" t="s">
+      <c r="A5" s="323" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="361" t="s">
+      <c r="B5" s="327" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="362"/>
-      <c r="D5" s="362"/>
-      <c r="E5" s="363"/>
+      <c r="C5" s="328"/>
+      <c r="D5" s="328"/>
+      <c r="E5" s="329"/>
       <c r="F5" s="52">
         <v>15</v>
       </c>
@@ -23124,13 +23061,13 @@
       <c r="EP5" s="60"/>
     </row>
     <row r="6" spans="1:146" ht="15.6">
-      <c r="A6" s="358"/>
-      <c r="B6" s="364" t="s">
+      <c r="A6" s="324"/>
+      <c r="B6" s="330" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="365"/>
-      <c r="D6" s="365"/>
-      <c r="E6" s="366"/>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="332"/>
       <c r="F6" s="61"/>
       <c r="G6" s="62">
         <v>9</v>
@@ -23552,13 +23489,13 @@
       <c r="EP6" s="60"/>
     </row>
     <row r="7" spans="1:146" ht="16.2" thickBot="1">
-      <c r="A7" s="359"/>
-      <c r="B7" s="367" t="s">
+      <c r="A7" s="325"/>
+      <c r="B7" s="333" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="368"/>
-      <c r="D7" s="368"/>
-      <c r="E7" s="369"/>
+      <c r="C7" s="334"/>
+      <c r="D7" s="334"/>
+      <c r="E7" s="335"/>
       <c r="F7" s="68" t="s">
         <v>45</v>
       </c>
@@ -23982,7 +23919,7 @@
       <c r="EP7" s="60"/>
     </row>
     <row r="8" spans="1:146" ht="16.2" thickBot="1">
-      <c r="A8" s="360"/>
+      <c r="A8" s="326"/>
       <c r="B8" s="71" t="s">
         <v>49</v>
       </c>
@@ -24138,52 +24075,52 @@
       <c r="EP8" s="60"/>
     </row>
     <row r="9" spans="1:146" ht="15" customHeight="1">
-      <c r="A9" s="348" t="s">
+      <c r="A9" s="379" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="335" t="s">
+      <c r="B9" s="381" t="s">
         <v>344</v>
       </c>
-      <c r="C9" s="337"/>
-      <c r="D9" s="339">
+      <c r="C9" s="383"/>
+      <c r="D9" s="385">
         <v>35</v>
       </c>
-      <c r="E9" s="341">
+      <c r="E9" s="387">
         <v>32</v>
       </c>
       <c r="F9" s="79"/>
-      <c r="G9" s="448"/>
-      <c r="H9" s="448"/>
-      <c r="I9" s="448"/>
-      <c r="J9" s="449"/>
-      <c r="K9" s="450"/>
-      <c r="L9" s="450"/>
-      <c r="M9" s="451"/>
-      <c r="N9" s="448"/>
-      <c r="O9" s="448"/>
-      <c r="P9" s="448"/>
-      <c r="Q9" s="448"/>
-      <c r="R9" s="450"/>
-      <c r="S9" s="450"/>
-      <c r="T9" s="448"/>
-      <c r="U9" s="448"/>
-      <c r="V9" s="448"/>
-      <c r="W9" s="448"/>
-      <c r="X9" s="448"/>
-      <c r="Y9" s="450"/>
-      <c r="Z9" s="450"/>
-      <c r="AA9" s="448"/>
-      <c r="AB9" s="448"/>
-      <c r="AC9" s="448"/>
-      <c r="AD9" s="448"/>
-      <c r="AE9" s="448"/>
-      <c r="AF9" s="450"/>
-      <c r="AG9" s="450"/>
-      <c r="AH9" s="448"/>
-      <c r="AI9" s="448"/>
-      <c r="AJ9" s="448"/>
-      <c r="AK9" s="448"/>
-      <c r="AL9" s="448"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="215"/>
+      <c r="L9" s="215"/>
+      <c r="M9" s="216"/>
+      <c r="N9" s="213"/>
+      <c r="O9" s="213"/>
+      <c r="P9" s="213"/>
+      <c r="Q9" s="213"/>
+      <c r="R9" s="215"/>
+      <c r="S9" s="215"/>
+      <c r="T9" s="213"/>
+      <c r="U9" s="213"/>
+      <c r="V9" s="213"/>
+      <c r="W9" s="213"/>
+      <c r="X9" s="213"/>
+      <c r="Y9" s="215"/>
+      <c r="Z9" s="215"/>
+      <c r="AA9" s="213"/>
+      <c r="AB9" s="213"/>
+      <c r="AC9" s="213"/>
+      <c r="AD9" s="213"/>
+      <c r="AE9" s="213"/>
+      <c r="AF9" s="215"/>
+      <c r="AG9" s="215"/>
+      <c r="AH9" s="213"/>
+      <c r="AI9" s="213"/>
+      <c r="AJ9" s="213"/>
+      <c r="AK9" s="213"/>
+      <c r="AL9" s="213"/>
       <c r="AM9" s="186"/>
       <c r="AN9" s="186"/>
       <c r="AO9" s="187"/>
@@ -24294,44 +24231,44 @@
       <c r="EP9" s="43"/>
     </row>
     <row r="10" spans="1:146" ht="15" customHeight="1">
-      <c r="A10" s="325"/>
-      <c r="B10" s="320"/>
-      <c r="C10" s="321"/>
-      <c r="D10" s="322"/>
-      <c r="E10" s="323"/>
+      <c r="A10" s="380"/>
+      <c r="B10" s="382"/>
+      <c r="C10" s="384"/>
+      <c r="D10" s="386"/>
+      <c r="E10" s="388"/>
       <c r="F10" s="85"/>
-      <c r="G10" s="452"/>
-      <c r="H10" s="452"/>
-      <c r="I10" s="452"/>
-      <c r="J10" s="453"/>
-      <c r="K10" s="454"/>
-      <c r="L10" s="454"/>
-      <c r="M10" s="455"/>
-      <c r="N10" s="452"/>
-      <c r="O10" s="452"/>
-      <c r="P10" s="452"/>
-      <c r="Q10" s="452"/>
-      <c r="R10" s="454"/>
-      <c r="S10" s="454"/>
-      <c r="T10" s="452"/>
-      <c r="U10" s="452"/>
-      <c r="V10" s="452"/>
-      <c r="W10" s="452"/>
-      <c r="X10" s="452"/>
-      <c r="Y10" s="454"/>
-      <c r="Z10" s="454"/>
-      <c r="AA10" s="452"/>
-      <c r="AB10" s="452"/>
-      <c r="AC10" s="452"/>
-      <c r="AD10" s="452"/>
-      <c r="AE10" s="452"/>
-      <c r="AF10" s="454"/>
-      <c r="AG10" s="454"/>
-      <c r="AH10" s="452"/>
-      <c r="AI10" s="452"/>
-      <c r="AJ10" s="452"/>
-      <c r="AK10" s="452"/>
-      <c r="AL10" s="452"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="219"/>
+      <c r="L10" s="219"/>
+      <c r="M10" s="220"/>
+      <c r="N10" s="217"/>
+      <c r="O10" s="217"/>
+      <c r="P10" s="217"/>
+      <c r="Q10" s="217"/>
+      <c r="R10" s="219"/>
+      <c r="S10" s="219"/>
+      <c r="T10" s="217"/>
+      <c r="U10" s="217"/>
+      <c r="V10" s="217"/>
+      <c r="W10" s="217"/>
+      <c r="X10" s="217"/>
+      <c r="Y10" s="219"/>
+      <c r="Z10" s="219"/>
+      <c r="AA10" s="217"/>
+      <c r="AB10" s="217"/>
+      <c r="AC10" s="217"/>
+      <c r="AD10" s="217"/>
+      <c r="AE10" s="217"/>
+      <c r="AF10" s="219"/>
+      <c r="AG10" s="219"/>
+      <c r="AH10" s="217"/>
+      <c r="AI10" s="217"/>
+      <c r="AJ10" s="217"/>
+      <c r="AK10" s="217"/>
+      <c r="AL10" s="217"/>
       <c r="AM10" s="188"/>
       <c r="AN10" s="188"/>
       <c r="AO10" s="189"/>
@@ -24442,17 +24379,17 @@
       <c r="EP10" s="43"/>
     </row>
     <row r="11" spans="1:146" ht="15" customHeight="1">
-      <c r="A11" s="349" t="s">
+      <c r="A11" s="389" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="335" t="s">
+      <c r="B11" s="381" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="337"/>
-      <c r="D11" s="339">
+      <c r="C11" s="383"/>
+      <c r="D11" s="385">
         <v>8</v>
       </c>
-      <c r="E11" s="341">
+      <c r="E11" s="387">
         <v>3</v>
       </c>
       <c r="F11" s="79"/>
@@ -24598,11 +24535,11 @@
       <c r="EP11" s="43"/>
     </row>
     <row r="12" spans="1:146" ht="15" customHeight="1">
-      <c r="A12" s="350"/>
-      <c r="B12" s="320"/>
-      <c r="C12" s="321"/>
-      <c r="D12" s="322"/>
-      <c r="E12" s="323"/>
+      <c r="A12" s="390"/>
+      <c r="B12" s="382"/>
+      <c r="C12" s="384"/>
+      <c r="D12" s="386"/>
+      <c r="E12" s="388"/>
       <c r="F12" s="85"/>
       <c r="G12" s="86"/>
       <c r="H12" s="86"/>
@@ -24746,17 +24683,17 @@
       <c r="EP12" s="43"/>
     </row>
     <row r="13" spans="1:146" ht="15" customHeight="1">
-      <c r="A13" s="344" t="s">
+      <c r="A13" s="391" t="s">
         <v>275</v>
       </c>
-      <c r="B13" s="311" t="s">
+      <c r="B13" s="393" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="313"/>
-      <c r="D13" s="315">
+      <c r="C13" s="394"/>
+      <c r="D13" s="395">
         <v>14</v>
       </c>
-      <c r="E13" s="317">
+      <c r="E13" s="396">
         <v>6</v>
       </c>
       <c r="F13" s="91"/>
@@ -24902,11 +24839,11 @@
       <c r="EP13" s="43"/>
     </row>
     <row r="14" spans="1:146" ht="15" customHeight="1">
-      <c r="A14" s="345"/>
-      <c r="B14" s="320"/>
-      <c r="C14" s="321"/>
-      <c r="D14" s="322"/>
-      <c r="E14" s="323"/>
+      <c r="A14" s="392"/>
+      <c r="B14" s="382"/>
+      <c r="C14" s="384"/>
+      <c r="D14" s="386"/>
+      <c r="E14" s="388"/>
       <c r="F14" s="85"/>
       <c r="G14" s="86"/>
       <c r="H14" s="86"/>
@@ -25050,17 +24987,17 @@
       <c r="EP14" s="43"/>
     </row>
     <row r="15" spans="1:146" ht="15" customHeight="1">
-      <c r="A15" s="346" t="s">
+      <c r="A15" s="397" t="s">
         <v>277</v>
       </c>
-      <c r="B15" s="311" t="s">
+      <c r="B15" s="393" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="313"/>
-      <c r="D15" s="315">
+      <c r="C15" s="394"/>
+      <c r="D15" s="395">
         <v>12</v>
       </c>
-      <c r="E15" s="317">
+      <c r="E15" s="396">
         <v>4</v>
       </c>
       <c r="F15" s="91"/>
@@ -25206,11 +25143,11 @@
       <c r="EP15" s="43"/>
     </row>
     <row r="16" spans="1:146" ht="15" customHeight="1">
-      <c r="A16" s="347"/>
-      <c r="B16" s="320"/>
-      <c r="C16" s="321"/>
-      <c r="D16" s="322"/>
-      <c r="E16" s="323"/>
+      <c r="A16" s="398"/>
+      <c r="B16" s="382"/>
+      <c r="C16" s="384"/>
+      <c r="D16" s="386"/>
+      <c r="E16" s="388"/>
       <c r="F16" s="85"/>
       <c r="G16" s="86"/>
       <c r="H16" s="86"/>
@@ -25354,17 +25291,17 @@
       <c r="EP16" s="43"/>
     </row>
     <row r="17" spans="1:146" ht="15" customHeight="1">
-      <c r="A17" s="332" t="s">
+      <c r="A17" s="399" t="s">
         <v>276</v>
       </c>
-      <c r="B17" s="334" t="s">
+      <c r="B17" s="401" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="336"/>
-      <c r="D17" s="338">
+      <c r="C17" s="402"/>
+      <c r="D17" s="403">
         <v>4</v>
       </c>
-      <c r="E17" s="340">
+      <c r="E17" s="404">
         <v>1</v>
       </c>
       <c r="F17" s="91"/>
@@ -25510,11 +25447,11 @@
       <c r="EP17" s="43"/>
     </row>
     <row r="18" spans="1:146" ht="15" customHeight="1">
-      <c r="A18" s="333"/>
-      <c r="B18" s="335"/>
-      <c r="C18" s="337"/>
-      <c r="D18" s="339"/>
-      <c r="E18" s="341"/>
+      <c r="A18" s="400"/>
+      <c r="B18" s="381"/>
+      <c r="C18" s="383"/>
+      <c r="D18" s="385"/>
+      <c r="E18" s="387"/>
       <c r="F18" s="85"/>
       <c r="G18" s="86"/>
       <c r="H18" s="86"/>
@@ -25658,17 +25595,17 @@
       <c r="EP18" s="43"/>
     </row>
     <row r="19" spans="1:146" ht="15" customHeight="1">
-      <c r="A19" s="342" t="s">
+      <c r="A19" s="405" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="311" t="s">
+      <c r="B19" s="393" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="313"/>
-      <c r="D19" s="315">
+      <c r="C19" s="394"/>
+      <c r="D19" s="395">
         <v>3</v>
       </c>
-      <c r="E19" s="317">
+      <c r="E19" s="396">
         <v>1</v>
       </c>
       <c r="F19" s="91"/>
@@ -25814,11 +25751,11 @@
       <c r="EP19" s="43"/>
     </row>
     <row r="20" spans="1:146" ht="15" customHeight="1">
-      <c r="A20" s="343"/>
-      <c r="B20" s="320"/>
-      <c r="C20" s="321"/>
-      <c r="D20" s="322"/>
-      <c r="E20" s="323"/>
+      <c r="A20" s="406"/>
+      <c r="B20" s="382"/>
+      <c r="C20" s="384"/>
+      <c r="D20" s="386"/>
+      <c r="E20" s="388"/>
       <c r="F20" s="85"/>
       <c r="G20" s="86"/>
       <c r="H20" s="86"/>
@@ -25962,17 +25899,17 @@
       <c r="EP20" s="43"/>
     </row>
     <row r="21" spans="1:146" ht="15" customHeight="1">
-      <c r="A21" s="328" t="s">
+      <c r="A21" s="407" t="s">
         <v>340</v>
       </c>
-      <c r="B21" s="311" t="s">
+      <c r="B21" s="393" t="s">
         <v>345</v>
       </c>
-      <c r="C21" s="313"/>
-      <c r="D21" s="315">
+      <c r="C21" s="394"/>
+      <c r="D21" s="395">
         <v>6</v>
       </c>
-      <c r="E21" s="317">
+      <c r="E21" s="396">
         <v>2</v>
       </c>
       <c r="F21" s="91"/>
@@ -26118,11 +26055,11 @@
       <c r="EP21" s="43"/>
     </row>
     <row r="22" spans="1:146" ht="15" customHeight="1">
-      <c r="A22" s="329"/>
-      <c r="B22" s="320"/>
-      <c r="C22" s="321"/>
-      <c r="D22" s="322"/>
-      <c r="E22" s="323"/>
+      <c r="A22" s="408"/>
+      <c r="B22" s="382"/>
+      <c r="C22" s="384"/>
+      <c r="D22" s="386"/>
+      <c r="E22" s="388"/>
       <c r="F22" s="85"/>
       <c r="G22" s="86"/>
       <c r="H22" s="86"/>
@@ -26266,17 +26203,17 @@
       <c r="EP22" s="43"/>
     </row>
     <row r="23" spans="1:146" ht="15" customHeight="1">
-      <c r="A23" s="330" t="s">
+      <c r="A23" s="409" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="311" t="s">
+      <c r="B23" s="393" t="s">
         <v>344</v>
       </c>
-      <c r="C23" s="313"/>
-      <c r="D23" s="315">
+      <c r="C23" s="394"/>
+      <c r="D23" s="395">
         <v>25</v>
       </c>
-      <c r="E23" s="317">
+      <c r="E23" s="396">
         <v>10</v>
       </c>
       <c r="F23" s="91"/>
@@ -26422,11 +26359,11 @@
       <c r="EP23" s="43"/>
     </row>
     <row r="24" spans="1:146" ht="15" customHeight="1">
-      <c r="A24" s="331"/>
-      <c r="B24" s="320"/>
-      <c r="C24" s="321"/>
-      <c r="D24" s="322"/>
-      <c r="E24" s="323"/>
+      <c r="A24" s="410"/>
+      <c r="B24" s="382"/>
+      <c r="C24" s="384"/>
+      <c r="D24" s="386"/>
+      <c r="E24" s="388"/>
       <c r="F24" s="85"/>
       <c r="G24" s="86"/>
       <c r="H24" s="86"/>
@@ -26570,17 +26507,17 @@
       <c r="EP24" s="43"/>
     </row>
     <row r="25" spans="1:146">
-      <c r="A25" s="324" t="s">
+      <c r="A25" s="411" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="311" t="s">
+      <c r="B25" s="393" t="s">
         <v>212</v>
       </c>
-      <c r="C25" s="313"/>
-      <c r="D25" s="315">
+      <c r="C25" s="394"/>
+      <c r="D25" s="395">
         <v>4</v>
       </c>
-      <c r="E25" s="317">
+      <c r="E25" s="396">
         <v>1</v>
       </c>
       <c r="F25" s="91"/>
@@ -26726,11 +26663,11 @@
       <c r="EP25" s="43"/>
     </row>
     <row r="26" spans="1:146">
-      <c r="A26" s="325"/>
-      <c r="B26" s="320"/>
-      <c r="C26" s="321"/>
-      <c r="D26" s="322"/>
-      <c r="E26" s="323"/>
+      <c r="A26" s="380"/>
+      <c r="B26" s="382"/>
+      <c r="C26" s="384"/>
+      <c r="D26" s="386"/>
+      <c r="E26" s="388"/>
       <c r="F26" s="85"/>
       <c r="G26" s="86"/>
       <c r="H26" s="86"/>
@@ -26874,17 +26811,17 @@
       <c r="EP26" s="43"/>
     </row>
     <row r="27" spans="1:146">
-      <c r="A27" s="326" t="s">
+      <c r="A27" s="412" t="s">
         <v>341</v>
       </c>
-      <c r="B27" s="311" t="s">
+      <c r="B27" s="393" t="s">
         <v>344</v>
       </c>
-      <c r="C27" s="313"/>
-      <c r="D27" s="315">
+      <c r="C27" s="394"/>
+      <c r="D27" s="395">
         <v>15</v>
       </c>
-      <c r="E27" s="317">
+      <c r="E27" s="396">
         <v>38</v>
       </c>
       <c r="F27" s="91"/>
@@ -27030,11 +26967,11 @@
       <c r="EP27" s="43"/>
     </row>
     <row r="28" spans="1:146">
-      <c r="A28" s="327"/>
-      <c r="B28" s="320"/>
-      <c r="C28" s="321"/>
-      <c r="D28" s="322"/>
-      <c r="E28" s="323"/>
+      <c r="A28" s="413"/>
+      <c r="B28" s="382"/>
+      <c r="C28" s="384"/>
+      <c r="D28" s="386"/>
+      <c r="E28" s="388"/>
       <c r="F28" s="85"/>
       <c r="G28" s="86"/>
       <c r="H28" s="86"/>
@@ -27178,11 +27115,11 @@
       <c r="EP28" s="43"/>
     </row>
     <row r="29" spans="1:146">
-      <c r="A29" s="309"/>
-      <c r="B29" s="311"/>
-      <c r="C29" s="313"/>
-      <c r="D29" s="315"/>
-      <c r="E29" s="317"/>
+      <c r="A29" s="414"/>
+      <c r="B29" s="393"/>
+      <c r="C29" s="394"/>
+      <c r="D29" s="395"/>
+      <c r="E29" s="396"/>
       <c r="F29" s="91"/>
       <c r="G29" s="92"/>
       <c r="H29" s="92"/>
@@ -27326,11 +27263,11 @@
       <c r="EP29" s="43"/>
     </row>
     <row r="30" spans="1:146">
-      <c r="A30" s="319"/>
-      <c r="B30" s="320"/>
-      <c r="C30" s="321"/>
-      <c r="D30" s="322"/>
-      <c r="E30" s="323"/>
+      <c r="A30" s="415"/>
+      <c r="B30" s="382"/>
+      <c r="C30" s="384"/>
+      <c r="D30" s="386"/>
+      <c r="E30" s="388"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
       <c r="H30" s="86"/>
@@ -27474,11 +27411,11 @@
       <c r="EP30" s="43"/>
     </row>
     <row r="31" spans="1:146">
-      <c r="A31" s="309"/>
-      <c r="B31" s="311"/>
-      <c r="C31" s="313"/>
-      <c r="D31" s="315"/>
-      <c r="E31" s="317"/>
+      <c r="A31" s="414"/>
+      <c r="B31" s="393"/>
+      <c r="C31" s="394"/>
+      <c r="D31" s="395"/>
+      <c r="E31" s="396"/>
       <c r="F31" s="91"/>
       <c r="G31" s="92"/>
       <c r="H31" s="92"/>
@@ -27622,11 +27559,11 @@
       <c r="EP31" s="43"/>
     </row>
     <row r="32" spans="1:146">
-      <c r="A32" s="319"/>
-      <c r="B32" s="320"/>
-      <c r="C32" s="321"/>
-      <c r="D32" s="322"/>
-      <c r="E32" s="323"/>
+      <c r="A32" s="415"/>
+      <c r="B32" s="382"/>
+      <c r="C32" s="384"/>
+      <c r="D32" s="386"/>
+      <c r="E32" s="388"/>
       <c r="F32" s="85"/>
       <c r="G32" s="86"/>
       <c r="H32" s="86"/>
@@ -27770,11 +27707,11 @@
       <c r="EP32" s="43"/>
     </row>
     <row r="33" spans="1:146">
-      <c r="A33" s="309"/>
-      <c r="B33" s="311"/>
-      <c r="C33" s="313"/>
-      <c r="D33" s="315"/>
-      <c r="E33" s="317"/>
+      <c r="A33" s="414"/>
+      <c r="B33" s="393"/>
+      <c r="C33" s="394"/>
+      <c r="D33" s="395"/>
+      <c r="E33" s="396"/>
       <c r="F33" s="91"/>
       <c r="G33" s="92"/>
       <c r="H33" s="92"/>
@@ -27918,11 +27855,11 @@
       <c r="EP33" s="43"/>
     </row>
     <row r="34" spans="1:146">
-      <c r="A34" s="319"/>
-      <c r="B34" s="320"/>
-      <c r="C34" s="321"/>
-      <c r="D34" s="322"/>
-      <c r="E34" s="323"/>
+      <c r="A34" s="415"/>
+      <c r="B34" s="382"/>
+      <c r="C34" s="384"/>
+      <c r="D34" s="386"/>
+      <c r="E34" s="388"/>
       <c r="F34" s="85"/>
       <c r="G34" s="86"/>
       <c r="H34" s="86"/>
@@ -28066,11 +28003,11 @@
       <c r="EP34" s="43"/>
     </row>
     <row r="35" spans="1:146">
-      <c r="A35" s="309"/>
-      <c r="B35" s="311"/>
-      <c r="C35" s="313"/>
-      <c r="D35" s="315"/>
-      <c r="E35" s="317"/>
+      <c r="A35" s="414"/>
+      <c r="B35" s="393"/>
+      <c r="C35" s="394"/>
+      <c r="D35" s="395"/>
+      <c r="E35" s="396"/>
       <c r="F35" s="91"/>
       <c r="G35" s="92"/>
       <c r="H35" s="92"/>
@@ -28214,11 +28151,11 @@
       <c r="EP35" s="43"/>
     </row>
     <row r="36" spans="1:146">
-      <c r="A36" s="319"/>
-      <c r="B36" s="320"/>
-      <c r="C36" s="321"/>
-      <c r="D36" s="322"/>
-      <c r="E36" s="323"/>
+      <c r="A36" s="415"/>
+      <c r="B36" s="382"/>
+      <c r="C36" s="384"/>
+      <c r="D36" s="386"/>
+      <c r="E36" s="388"/>
       <c r="F36" s="85"/>
       <c r="G36" s="86"/>
       <c r="H36" s="86"/>
@@ -28362,11 +28299,11 @@
       <c r="EP36" s="43"/>
     </row>
     <row r="37" spans="1:146">
-      <c r="A37" s="309"/>
-      <c r="B37" s="311"/>
-      <c r="C37" s="313"/>
-      <c r="D37" s="315"/>
-      <c r="E37" s="317"/>
+      <c r="A37" s="414"/>
+      <c r="B37" s="393"/>
+      <c r="C37" s="394"/>
+      <c r="D37" s="395"/>
+      <c r="E37" s="396"/>
       <c r="F37" s="91"/>
       <c r="G37" s="92"/>
       <c r="H37" s="92"/>
@@ -28510,11 +28447,11 @@
       <c r="EP37" s="43"/>
     </row>
     <row r="38" spans="1:146">
-      <c r="A38" s="319"/>
-      <c r="B38" s="320"/>
-      <c r="C38" s="321"/>
-      <c r="D38" s="322"/>
-      <c r="E38" s="323"/>
+      <c r="A38" s="415"/>
+      <c r="B38" s="382"/>
+      <c r="C38" s="384"/>
+      <c r="D38" s="386"/>
+      <c r="E38" s="388"/>
       <c r="F38" s="85"/>
       <c r="G38" s="86"/>
       <c r="H38" s="86"/>
@@ -28658,11 +28595,11 @@
       <c r="EP38" s="43"/>
     </row>
     <row r="39" spans="1:146">
-      <c r="A39" s="309"/>
-      <c r="B39" s="311"/>
-      <c r="C39" s="313"/>
-      <c r="D39" s="315"/>
-      <c r="E39" s="317"/>
+      <c r="A39" s="414"/>
+      <c r="B39" s="393"/>
+      <c r="C39" s="394"/>
+      <c r="D39" s="395"/>
+      <c r="E39" s="396"/>
       <c r="F39" s="91"/>
       <c r="G39" s="92"/>
       <c r="H39" s="92"/>
@@ -28806,11 +28743,11 @@
       <c r="EP39" s="43"/>
     </row>
     <row r="40" spans="1:146">
-      <c r="A40" s="319"/>
-      <c r="B40" s="320"/>
-      <c r="C40" s="321"/>
-      <c r="D40" s="322"/>
-      <c r="E40" s="323"/>
+      <c r="A40" s="415"/>
+      <c r="B40" s="382"/>
+      <c r="C40" s="384"/>
+      <c r="D40" s="386"/>
+      <c r="E40" s="388"/>
       <c r="F40" s="85"/>
       <c r="G40" s="86"/>
       <c r="H40" s="86"/>
@@ -28954,11 +28891,11 @@
       <c r="EP40" s="43"/>
     </row>
     <row r="41" spans="1:146">
-      <c r="A41" s="309"/>
-      <c r="B41" s="311"/>
-      <c r="C41" s="313"/>
-      <c r="D41" s="315"/>
-      <c r="E41" s="317"/>
+      <c r="A41" s="414"/>
+      <c r="B41" s="393"/>
+      <c r="C41" s="394"/>
+      <c r="D41" s="395"/>
+      <c r="E41" s="396"/>
       <c r="F41" s="91"/>
       <c r="G41" s="92"/>
       <c r="H41" s="92"/>
@@ -29102,11 +29039,11 @@
       <c r="EP41" s="43"/>
     </row>
     <row r="42" spans="1:146">
-      <c r="A42" s="319"/>
-      <c r="B42" s="320"/>
-      <c r="C42" s="321"/>
-      <c r="D42" s="322"/>
-      <c r="E42" s="323"/>
+      <c r="A42" s="415"/>
+      <c r="B42" s="382"/>
+      <c r="C42" s="384"/>
+      <c r="D42" s="386"/>
+      <c r="E42" s="388"/>
       <c r="F42" s="85"/>
       <c r="G42" s="86"/>
       <c r="H42" s="86"/>
@@ -29250,11 +29187,11 @@
       <c r="EP42" s="43"/>
     </row>
     <row r="43" spans="1:146">
-      <c r="A43" s="309"/>
-      <c r="B43" s="311"/>
-      <c r="C43" s="313"/>
-      <c r="D43" s="315"/>
-      <c r="E43" s="317"/>
+      <c r="A43" s="414"/>
+      <c r="B43" s="393"/>
+      <c r="C43" s="394"/>
+      <c r="D43" s="395"/>
+      <c r="E43" s="396"/>
       <c r="F43" s="91"/>
       <c r="G43" s="92"/>
       <c r="H43" s="92"/>
@@ -29398,11 +29335,11 @@
       <c r="EP43" s="43"/>
     </row>
     <row r="44" spans="1:146">
-      <c r="A44" s="319"/>
-      <c r="B44" s="320"/>
-      <c r="C44" s="321"/>
-      <c r="D44" s="322"/>
-      <c r="E44" s="323"/>
+      <c r="A44" s="415"/>
+      <c r="B44" s="382"/>
+      <c r="C44" s="384"/>
+      <c r="D44" s="386"/>
+      <c r="E44" s="388"/>
       <c r="F44" s="85"/>
       <c r="G44" s="86"/>
       <c r="H44" s="86"/>
@@ -29546,11 +29483,11 @@
       <c r="EP44" s="43"/>
     </row>
     <row r="45" spans="1:146">
-      <c r="A45" s="309"/>
-      <c r="B45" s="311"/>
-      <c r="C45" s="313"/>
-      <c r="D45" s="315"/>
-      <c r="E45" s="317"/>
+      <c r="A45" s="414"/>
+      <c r="B45" s="393"/>
+      <c r="C45" s="394"/>
+      <c r="D45" s="395"/>
+      <c r="E45" s="396"/>
       <c r="F45" s="91"/>
       <c r="G45" s="92"/>
       <c r="H45" s="92"/>
@@ -29694,11 +29631,11 @@
       <c r="EP45" s="43"/>
     </row>
     <row r="46" spans="1:146">
-      <c r="A46" s="319"/>
-      <c r="B46" s="320"/>
-      <c r="C46" s="321"/>
-      <c r="D46" s="322"/>
-      <c r="E46" s="323"/>
+      <c r="A46" s="415"/>
+      <c r="B46" s="382"/>
+      <c r="C46" s="384"/>
+      <c r="D46" s="386"/>
+      <c r="E46" s="388"/>
       <c r="F46" s="85"/>
       <c r="G46" s="86"/>
       <c r="H46" s="86"/>
@@ -29842,11 +29779,11 @@
       <c r="EP46" s="43"/>
     </row>
     <row r="47" spans="1:146">
-      <c r="A47" s="309"/>
-      <c r="B47" s="311"/>
-      <c r="C47" s="313"/>
-      <c r="D47" s="315"/>
-      <c r="E47" s="317"/>
+      <c r="A47" s="414"/>
+      <c r="B47" s="393"/>
+      <c r="C47" s="394"/>
+      <c r="D47" s="395"/>
+      <c r="E47" s="396"/>
       <c r="F47" s="91"/>
       <c r="G47" s="92"/>
       <c r="H47" s="92"/>
@@ -29990,11 +29927,11 @@
       <c r="EP47" s="43"/>
     </row>
     <row r="48" spans="1:146">
-      <c r="A48" s="319"/>
-      <c r="B48" s="320"/>
-      <c r="C48" s="321"/>
-      <c r="D48" s="322"/>
-      <c r="E48" s="323"/>
+      <c r="A48" s="415"/>
+      <c r="B48" s="382"/>
+      <c r="C48" s="384"/>
+      <c r="D48" s="386"/>
+      <c r="E48" s="388"/>
       <c r="F48" s="85"/>
       <c r="G48" s="86"/>
       <c r="H48" s="86"/>
@@ -30138,11 +30075,11 @@
       <c r="EP48" s="43"/>
     </row>
     <row r="49" spans="1:146">
-      <c r="A49" s="309"/>
-      <c r="B49" s="311"/>
-      <c r="C49" s="313"/>
-      <c r="D49" s="315"/>
-      <c r="E49" s="317"/>
+      <c r="A49" s="414"/>
+      <c r="B49" s="393"/>
+      <c r="C49" s="394"/>
+      <c r="D49" s="395"/>
+      <c r="E49" s="396"/>
       <c r="F49" s="91"/>
       <c r="G49" s="92"/>
       <c r="H49" s="92"/>
@@ -30286,11 +30223,11 @@
       <c r="EP49" s="43"/>
     </row>
     <row r="50" spans="1:146">
-      <c r="A50" s="319"/>
-      <c r="B50" s="320"/>
-      <c r="C50" s="321"/>
-      <c r="D50" s="322"/>
-      <c r="E50" s="323"/>
+      <c r="A50" s="415"/>
+      <c r="B50" s="382"/>
+      <c r="C50" s="384"/>
+      <c r="D50" s="386"/>
+      <c r="E50" s="388"/>
       <c r="F50" s="85"/>
       <c r="G50" s="86"/>
       <c r="H50" s="86"/>
@@ -30434,11 +30371,11 @@
       <c r="EP50" s="43"/>
     </row>
     <row r="51" spans="1:146">
-      <c r="A51" s="309"/>
-      <c r="B51" s="311"/>
-      <c r="C51" s="313"/>
-      <c r="D51" s="315"/>
-      <c r="E51" s="317"/>
+      <c r="A51" s="414"/>
+      <c r="B51" s="393"/>
+      <c r="C51" s="394"/>
+      <c r="D51" s="395"/>
+      <c r="E51" s="396"/>
       <c r="F51" s="91"/>
       <c r="G51" s="92"/>
       <c r="H51" s="92"/>
@@ -30582,11 +30519,11 @@
       <c r="EP51" s="43"/>
     </row>
     <row r="52" spans="1:146">
-      <c r="A52" s="319"/>
-      <c r="B52" s="320"/>
-      <c r="C52" s="321"/>
-      <c r="D52" s="322"/>
-      <c r="E52" s="323"/>
+      <c r="A52" s="415"/>
+      <c r="B52" s="382"/>
+      <c r="C52" s="384"/>
+      <c r="D52" s="386"/>
+      <c r="E52" s="388"/>
       <c r="F52" s="85"/>
       <c r="G52" s="86"/>
       <c r="H52" s="86"/>
@@ -30730,11 +30667,11 @@
       <c r="EP52" s="43"/>
     </row>
     <row r="53" spans="1:146">
-      <c r="A53" s="309"/>
-      <c r="B53" s="311"/>
-      <c r="C53" s="313"/>
-      <c r="D53" s="315"/>
-      <c r="E53" s="317"/>
+      <c r="A53" s="414"/>
+      <c r="B53" s="393"/>
+      <c r="C53" s="394"/>
+      <c r="D53" s="395"/>
+      <c r="E53" s="396"/>
       <c r="F53" s="91"/>
       <c r="G53" s="92"/>
       <c r="H53" s="92"/>
@@ -30878,11 +30815,11 @@
       <c r="EP53" s="43"/>
     </row>
     <row r="54" spans="1:146">
-      <c r="A54" s="319"/>
-      <c r="B54" s="320"/>
-      <c r="C54" s="321"/>
-      <c r="D54" s="322"/>
-      <c r="E54" s="323"/>
+      <c r="A54" s="415"/>
+      <c r="B54" s="382"/>
+      <c r="C54" s="384"/>
+      <c r="D54" s="386"/>
+      <c r="E54" s="388"/>
       <c r="F54" s="85"/>
       <c r="G54" s="86"/>
       <c r="H54" s="86"/>
@@ -31026,11 +30963,11 @@
       <c r="EP54" s="43"/>
     </row>
     <row r="55" spans="1:146">
-      <c r="A55" s="309"/>
-      <c r="B55" s="311"/>
-      <c r="C55" s="313"/>
-      <c r="D55" s="315"/>
-      <c r="E55" s="317"/>
+      <c r="A55" s="414"/>
+      <c r="B55" s="393"/>
+      <c r="C55" s="394"/>
+      <c r="D55" s="395"/>
+      <c r="E55" s="396"/>
       <c r="F55" s="91"/>
       <c r="G55" s="92"/>
       <c r="H55" s="92"/>
@@ -31174,11 +31111,11 @@
       <c r="EP55" s="43"/>
     </row>
     <row r="56" spans="1:146">
-      <c r="A56" s="319"/>
-      <c r="B56" s="320"/>
-      <c r="C56" s="321"/>
-      <c r="D56" s="322"/>
-      <c r="E56" s="323"/>
+      <c r="A56" s="415"/>
+      <c r="B56" s="382"/>
+      <c r="C56" s="384"/>
+      <c r="D56" s="386"/>
+      <c r="E56" s="388"/>
       <c r="F56" s="85"/>
       <c r="G56" s="86"/>
       <c r="H56" s="86"/>
@@ -31322,11 +31259,11 @@
       <c r="EP56" s="43"/>
     </row>
     <row r="57" spans="1:146">
-      <c r="A57" s="309"/>
-      <c r="B57" s="311"/>
-      <c r="C57" s="313"/>
-      <c r="D57" s="315"/>
-      <c r="E57" s="317"/>
+      <c r="A57" s="414"/>
+      <c r="B57" s="393"/>
+      <c r="C57" s="394"/>
+      <c r="D57" s="395"/>
+      <c r="E57" s="396"/>
       <c r="F57" s="91"/>
       <c r="G57" s="92"/>
       <c r="H57" s="92"/>
@@ -31470,11 +31407,11 @@
       <c r="EP57" s="43"/>
     </row>
     <row r="58" spans="1:146">
-      <c r="A58" s="319"/>
-      <c r="B58" s="320"/>
-      <c r="C58" s="321"/>
-      <c r="D58" s="322"/>
-      <c r="E58" s="323"/>
+      <c r="A58" s="415"/>
+      <c r="B58" s="382"/>
+      <c r="C58" s="384"/>
+      <c r="D58" s="386"/>
+      <c r="E58" s="388"/>
       <c r="F58" s="85"/>
       <c r="G58" s="86"/>
       <c r="H58" s="86"/>
@@ -31618,11 +31555,11 @@
       <c r="EP58" s="43"/>
     </row>
     <row r="59" spans="1:146">
-      <c r="A59" s="309"/>
-      <c r="B59" s="311"/>
-      <c r="C59" s="313"/>
-      <c r="D59" s="315"/>
-      <c r="E59" s="317"/>
+      <c r="A59" s="414"/>
+      <c r="B59" s="393"/>
+      <c r="C59" s="394"/>
+      <c r="D59" s="395"/>
+      <c r="E59" s="396"/>
       <c r="F59" s="91"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
@@ -31766,11 +31703,11 @@
       <c r="EP59" s="43"/>
     </row>
     <row r="60" spans="1:146">
-      <c r="A60" s="319"/>
-      <c r="B60" s="320"/>
-      <c r="C60" s="321"/>
-      <c r="D60" s="322"/>
-      <c r="E60" s="323"/>
+      <c r="A60" s="415"/>
+      <c r="B60" s="382"/>
+      <c r="C60" s="384"/>
+      <c r="D60" s="386"/>
+      <c r="E60" s="388"/>
       <c r="F60" s="85"/>
       <c r="G60" s="86"/>
       <c r="H60" s="86"/>
@@ -31914,11 +31851,11 @@
       <c r="EP60" s="43"/>
     </row>
     <row r="61" spans="1:146">
-      <c r="A61" s="309"/>
-      <c r="B61" s="311"/>
-      <c r="C61" s="313"/>
-      <c r="D61" s="315"/>
-      <c r="E61" s="317"/>
+      <c r="A61" s="414"/>
+      <c r="B61" s="393"/>
+      <c r="C61" s="394"/>
+      <c r="D61" s="395"/>
+      <c r="E61" s="396"/>
       <c r="F61" s="91"/>
       <c r="G61" s="92"/>
       <c r="H61" s="92"/>
@@ -32062,11 +31999,11 @@
       <c r="EP61" s="43"/>
     </row>
     <row r="62" spans="1:146">
-      <c r="A62" s="319"/>
-      <c r="B62" s="320"/>
-      <c r="C62" s="321"/>
-      <c r="D62" s="322"/>
-      <c r="E62" s="323"/>
+      <c r="A62" s="415"/>
+      <c r="B62" s="382"/>
+      <c r="C62" s="384"/>
+      <c r="D62" s="386"/>
+      <c r="E62" s="388"/>
       <c r="F62" s="85"/>
       <c r="G62" s="86"/>
       <c r="H62" s="86"/>
@@ -32210,11 +32147,11 @@
       <c r="EP62" s="43"/>
     </row>
     <row r="63" spans="1:146">
-      <c r="A63" s="309"/>
-      <c r="B63" s="311"/>
-      <c r="C63" s="313"/>
-      <c r="D63" s="315"/>
-      <c r="E63" s="317"/>
+      <c r="A63" s="414"/>
+      <c r="B63" s="393"/>
+      <c r="C63" s="394"/>
+      <c r="D63" s="395"/>
+      <c r="E63" s="396"/>
       <c r="F63" s="91"/>
       <c r="G63" s="92"/>
       <c r="H63" s="92"/>
@@ -32358,11 +32295,11 @@
       <c r="EP63" s="43"/>
     </row>
     <row r="64" spans="1:146">
-      <c r="A64" s="319"/>
-      <c r="B64" s="320"/>
-      <c r="C64" s="321"/>
-      <c r="D64" s="322"/>
-      <c r="E64" s="323"/>
+      <c r="A64" s="415"/>
+      <c r="B64" s="382"/>
+      <c r="C64" s="384"/>
+      <c r="D64" s="386"/>
+      <c r="E64" s="388"/>
       <c r="F64" s="85"/>
       <c r="G64" s="86"/>
       <c r="H64" s="86"/>
@@ -32506,11 +32443,11 @@
       <c r="EP64" s="43"/>
     </row>
     <row r="65" spans="1:146">
-      <c r="A65" s="309"/>
-      <c r="B65" s="311"/>
-      <c r="C65" s="313"/>
-      <c r="D65" s="315"/>
-      <c r="E65" s="317"/>
+      <c r="A65" s="414"/>
+      <c r="B65" s="393"/>
+      <c r="C65" s="394"/>
+      <c r="D65" s="395"/>
+      <c r="E65" s="396"/>
       <c r="F65" s="91"/>
       <c r="G65" s="92"/>
       <c r="H65" s="92"/>
@@ -32654,11 +32591,11 @@
       <c r="EP65" s="43"/>
     </row>
     <row r="66" spans="1:146" ht="15" thickBot="1">
-      <c r="A66" s="310"/>
-      <c r="B66" s="312"/>
-      <c r="C66" s="314"/>
-      <c r="D66" s="316"/>
-      <c r="E66" s="318"/>
+      <c r="A66" s="416"/>
+      <c r="B66" s="417"/>
+      <c r="C66" s="418"/>
+      <c r="D66" s="419"/>
+      <c r="E66" s="420"/>
       <c r="F66" s="98"/>
       <c r="G66" s="99"/>
       <c r="H66" s="99"/>
@@ -34453,6 +34390,151 @@
     </row>
   </sheetData>
   <mergeCells count="165">
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A4:DF4"/>
     <mergeCell ref="DG4:EO4"/>
     <mergeCell ref="A5:A8"/>
@@ -34473,151 +34555,6 @@
     <mergeCell ref="AJ2:AT2"/>
     <mergeCell ref="AU2:BG2"/>
     <mergeCell ref="BJ2:CG2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34669,39 +34606,39 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="413" t="s">
+      <c r="A3" s="434" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="414"/>
-      <c r="C3" s="415" t="s">
+      <c r="B3" s="435"/>
+      <c r="C3" s="436" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="415"/>
-      <c r="E3" s="416"/>
+      <c r="D3" s="436"/>
+      <c r="E3" s="437"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="41.25" customHeight="1">
-      <c r="A4" s="417" t="s">
+      <c r="A4" s="438" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="418"/>
-      <c r="C4" s="419" t="s">
+      <c r="B4" s="439"/>
+      <c r="C4" s="440" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="420"/>
-      <c r="E4" s="421"/>
+      <c r="D4" s="441"/>
+      <c r="E4" s="442"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1">
-      <c r="A5" s="428" t="s">
+      <c r="A5" s="449" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="429"/>
-      <c r="C5" s="426">
+      <c r="B5" s="450"/>
+      <c r="C5" s="447">
         <v>43592</v>
       </c>
-      <c r="D5" s="426"/>
-      <c r="E5" s="427"/>
+      <c r="D5" s="447"/>
+      <c r="E5" s="448"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1">
@@ -34713,34 +34650,34 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A7" s="422" t="s">
+      <c r="A7" s="443" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="424" t="s">
+      <c r="B7" s="445" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="424"/>
+      <c r="C7" s="445"/>
       <c r="D7" s="135" t="s">
         <v>141</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="430" t="s">
+      <c r="F7" s="425" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="433" t="s">
+      <c r="G7" s="426"/>
+      <c r="H7" s="427"/>
+      <c r="I7" s="428" t="s">
         <v>142</v>
       </c>
-      <c r="J7" s="434"/>
-      <c r="K7" s="435"/>
+      <c r="J7" s="429"/>
+      <c r="K7" s="430"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1">
-      <c r="A8" s="423"/>
-      <c r="B8" s="425"/>
-      <c r="C8" s="425"/>
+      <c r="A8" s="444"/>
+      <c r="B8" s="446"/>
+      <c r="C8" s="446"/>
       <c r="D8" s="136" t="s">
         <v>0</v>
       </c>
@@ -34770,10 +34707,10 @@
       <c r="A9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="441" t="s">
+      <c r="B9" s="433" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="441"/>
+      <c r="C9" s="433"/>
       <c r="D9" s="24">
         <v>70</v>
       </c>
@@ -34801,10 +34738,10 @@
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="440" t="s">
+      <c r="B10" s="421" t="s">
         <v>252</v>
       </c>
-      <c r="C10" s="440"/>
+      <c r="C10" s="421"/>
       <c r="D10" s="5">
         <v>2</v>
       </c>
@@ -34832,10 +34769,10 @@
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="440" t="s">
+      <c r="B11" s="421" t="s">
         <v>254</v>
       </c>
-      <c r="C11" s="440"/>
+      <c r="C11" s="421"/>
       <c r="D11" s="5">
         <v>25</v>
       </c>
@@ -34863,10 +34800,10 @@
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="440" t="s">
+      <c r="B12" s="421" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="440"/>
+      <c r="C12" s="421"/>
       <c r="D12" s="5">
         <v>50</v>
       </c>
@@ -34894,10 +34831,10 @@
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="436" t="s">
+      <c r="B13" s="431" t="s">
         <v>300</v>
       </c>
-      <c r="C13" s="437"/>
+      <c r="C13" s="432"/>
       <c r="D13" s="5">
         <v>35</v>
       </c>
@@ -34925,10 +34862,10 @@
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="440" t="s">
+      <c r="B14" s="421" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="440"/>
+      <c r="C14" s="421"/>
       <c r="D14" s="5">
         <v>20</v>
       </c>
@@ -34956,10 +34893,10 @@
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="440" t="s">
+      <c r="B15" s="421" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="440"/>
+      <c r="C15" s="421"/>
       <c r="D15" s="5">
         <v>70</v>
       </c>
@@ -34987,10 +34924,10 @@
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="440" t="s">
+      <c r="B16" s="421" t="s">
         <v>282</v>
       </c>
-      <c r="C16" s="440"/>
+      <c r="C16" s="421"/>
       <c r="D16" s="5">
         <v>85</v>
       </c>
@@ -35018,10 +34955,10 @@
       <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="440" t="s">
+      <c r="B17" s="421" t="s">
         <v>298</v>
       </c>
-      <c r="C17" s="440"/>
+      <c r="C17" s="421"/>
       <c r="D17" s="5">
         <v>20</v>
       </c>
@@ -35049,10 +34986,10 @@
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="436" t="s">
+      <c r="B18" s="431" t="s">
         <v>299</v>
       </c>
-      <c r="C18" s="437"/>
+      <c r="C18" s="432"/>
       <c r="D18" s="5">
         <v>20</v>
       </c>
@@ -35080,8 +35017,8 @@
       <c r="A19" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="436"/>
-      <c r="C19" s="437"/>
+      <c r="B19" s="431"/>
+      <c r="C19" s="432"/>
       <c r="D19" s="5"/>
       <c r="E19" s="134"/>
       <c r="F19" s="12"/>
@@ -35095,8 +35032,8 @@
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="438"/>
-      <c r="C20" s="439"/>
+      <c r="B20" s="423"/>
+      <c r="C20" s="424"/>
       <c r="D20" s="5"/>
       <c r="E20" s="134"/>
       <c r="F20" s="12"/>
@@ -35110,8 +35047,8 @@
       <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="438"/>
-      <c r="C21" s="439"/>
+      <c r="B21" s="423"/>
+      <c r="C21" s="424"/>
       <c r="D21" s="5"/>
       <c r="E21" s="134"/>
       <c r="F21" s="12"/>
@@ -35125,8 +35062,8 @@
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="438"/>
-      <c r="C22" s="439"/>
+      <c r="B22" s="423"/>
+      <c r="C22" s="424"/>
       <c r="D22" s="5"/>
       <c r="E22" s="134"/>
       <c r="F22" s="12"/>
@@ -35140,8 +35077,8 @@
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="440"/>
-      <c r="C23" s="440"/>
+      <c r="B23" s="421"/>
+      <c r="C23" s="421"/>
       <c r="D23" s="5"/>
       <c r="E23" s="134"/>
       <c r="F23" s="12"/>
@@ -35155,8 +35092,8 @@
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="438"/>
-      <c r="C24" s="439"/>
+      <c r="B24" s="423"/>
+      <c r="C24" s="424"/>
       <c r="D24" s="5"/>
       <c r="E24" s="134"/>
       <c r="F24" s="12"/>
@@ -35170,8 +35107,8 @@
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="438"/>
-      <c r="C25" s="439"/>
+      <c r="B25" s="423"/>
+      <c r="C25" s="424"/>
       <c r="D25" s="5"/>
       <c r="E25" s="134"/>
       <c r="F25" s="12"/>
@@ -35185,8 +35122,8 @@
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="438"/>
-      <c r="C26" s="439"/>
+      <c r="B26" s="423"/>
+      <c r="C26" s="424"/>
       <c r="D26" s="5"/>
       <c r="E26" s="134"/>
       <c r="F26" s="12"/>
@@ -35200,8 +35137,8 @@
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="438"/>
-      <c r="C27" s="439"/>
+      <c r="B27" s="423"/>
+      <c r="C27" s="424"/>
       <c r="D27" s="5"/>
       <c r="E27" s="134"/>
       <c r="F27" s="12"/>
@@ -35215,8 +35152,8 @@
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="438"/>
-      <c r="C28" s="439"/>
+      <c r="B28" s="423"/>
+      <c r="C28" s="424"/>
       <c r="D28" s="5"/>
       <c r="E28" s="134"/>
       <c r="F28" s="12"/>
@@ -35230,8 +35167,8 @@
       <c r="A29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="440"/>
-      <c r="C29" s="440"/>
+      <c r="B29" s="421"/>
+      <c r="C29" s="421"/>
       <c r="D29" s="5"/>
       <c r="E29" s="134"/>
       <c r="F29" s="12"/>
@@ -35245,8 +35182,8 @@
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="440"/>
-      <c r="C30" s="440"/>
+      <c r="B30" s="421"/>
+      <c r="C30" s="421"/>
       <c r="D30" s="5"/>
       <c r="E30" s="134"/>
       <c r="F30" s="12"/>
@@ -35260,8 +35197,8 @@
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="440"/>
-      <c r="C31" s="440"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="421"/>
       <c r="D31" s="5"/>
       <c r="E31" s="134"/>
       <c r="F31" s="12"/>
@@ -35275,8 +35212,8 @@
       <c r="A32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="440"/>
-      <c r="C32" s="440"/>
+      <c r="B32" s="421"/>
+      <c r="C32" s="421"/>
       <c r="D32" s="5"/>
       <c r="E32" s="134"/>
       <c r="F32" s="12"/>
@@ -35290,8 +35227,8 @@
       <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="440"/>
-      <c r="C33" s="440"/>
+      <c r="B33" s="421"/>
+      <c r="C33" s="421"/>
       <c r="D33" s="5"/>
       <c r="E33" s="134"/>
       <c r="F33" s="12"/>
@@ -35305,8 +35242,8 @@
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="440"/>
-      <c r="C34" s="440"/>
+      <c r="B34" s="421"/>
+      <c r="C34" s="421"/>
       <c r="D34" s="5"/>
       <c r="E34" s="134"/>
       <c r="F34" s="12"/>
@@ -35320,8 +35257,8 @@
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="440"/>
-      <c r="C35" s="440"/>
+      <c r="B35" s="421"/>
+      <c r="C35" s="421"/>
       <c r="D35" s="5"/>
       <c r="E35" s="134"/>
       <c r="F35" s="12"/>
@@ -35335,8 +35272,8 @@
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="440"/>
-      <c r="C36" s="440"/>
+      <c r="B36" s="421"/>
+      <c r="C36" s="421"/>
       <c r="D36" s="5"/>
       <c r="E36" s="134"/>
       <c r="F36" s="12"/>
@@ -35350,8 +35287,8 @@
       <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="440"/>
-      <c r="C37" s="440"/>
+      <c r="B37" s="421"/>
+      <c r="C37" s="421"/>
       <c r="D37" s="5"/>
       <c r="E37" s="134"/>
       <c r="F37" s="12"/>
@@ -35365,8 +35302,8 @@
       <c r="A38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="442"/>
-      <c r="C38" s="442"/>
+      <c r="B38" s="422"/>
+      <c r="C38" s="422"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
       <c r="F38" s="13"/>
@@ -35378,24 +35315,14 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="B18:C18"/>
@@ -35410,14 +35337,24 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>

--- a/Doku/Projektmappe.xlsx
+++ b/Doku/Projektmappe.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEA6B4BB-4E63-45EA-8D54-0D404CB37367}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CE2C9D-407E-42D7-96AE-26AC3711A99A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="832" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="832" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inhalt" sheetId="13" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="347">
   <si>
     <t>(0-100%)</t>
   </si>
@@ -1629,7 +1629,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1873,6 +1873,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0DFF5E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3852,7 +3858,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="450">
+  <cellXfs count="454">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4180,56 +4186,17 @@
     <xf numFmtId="0" fontId="16" fillId="37" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="37" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="37" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4264,16 +4231,58 @@
     <xf numFmtId="0" fontId="30" fillId="26" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4285,11 +4294,96 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4309,12 +4403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4333,89 +4421,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="134" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4469,8 +4478,91 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4636,131 +4728,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4812,10 +4779,49 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4824,13 +4830,17 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -4840,6 +4850,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0DFF5E"/>
       <color rgb="FF95B3D7"/>
     </mruColors>
   </colors>
@@ -20364,33 +20375,33 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="230" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1">
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="224" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="213"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="226"/>
       <c r="H4" s="148"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1">
-      <c r="B5" s="214"/>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="216"/>
+      <c r="B5" s="227"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="229"/>
       <c r="H5" s="148"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1">
@@ -20404,34 +20415,34 @@
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1">
       <c r="B7" s="150"/>
-      <c r="C7" s="226" t="s">
+      <c r="C7" s="213" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="227"/>
-      <c r="E7" s="227"/>
-      <c r="F7" s="228"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="215"/>
       <c r="G7" s="155"/>
       <c r="H7" s="149"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1">
       <c r="B8" s="150"/>
       <c r="C8" s="150"/>
-      <c r="D8" s="229" t="s">
+      <c r="D8" s="216" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="229"/>
-      <c r="F8" s="230"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="217"/>
       <c r="G8" s="155"/>
       <c r="H8" s="149"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1">
       <c r="B9" s="150"/>
       <c r="C9" s="151"/>
-      <c r="D9" s="221" t="s">
+      <c r="D9" s="211" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="221"/>
-      <c r="F9" s="222"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="212"/>
       <c r="G9" s="155"/>
       <c r="H9" s="149"/>
     </row>
@@ -20446,32 +20457,32 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="152"/>
-      <c r="C11" s="231" t="s">
+      <c r="C11" s="218" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="232"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="233"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="220"/>
       <c r="G11" s="142"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="152"/>
       <c r="C12" s="152"/>
-      <c r="D12" s="229" t="s">
+      <c r="D12" s="216" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="229"/>
-      <c r="F12" s="230"/>
+      <c r="E12" s="216"/>
+      <c r="F12" s="217"/>
       <c r="G12" s="142"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="152"/>
       <c r="C13" s="153"/>
-      <c r="D13" s="221" t="s">
+      <c r="D13" s="211" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="221"/>
-      <c r="F13" s="222"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="212"/>
       <c r="G13" s="142"/>
     </row>
     <row r="14" spans="2:8">
@@ -20492,32 +20503,32 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="152"/>
-      <c r="C16" s="234" t="s">
+      <c r="C16" s="221" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="235"/>
-      <c r="E16" s="235"/>
-      <c r="F16" s="236"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="223"/>
       <c r="G16" s="142"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="152"/>
       <c r="C17" s="152"/>
-      <c r="D17" s="229" t="s">
+      <c r="D17" s="216" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="229"/>
-      <c r="F17" s="230"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="217"/>
       <c r="G17" s="142"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="152"/>
       <c r="C18" s="153"/>
-      <c r="D18" s="221" t="s">
+      <c r="D18" s="211" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="221"/>
-      <c r="F18" s="222"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="212"/>
       <c r="G18" s="142"/>
     </row>
     <row r="19" spans="2:7">
@@ -20538,22 +20549,22 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="152"/>
-      <c r="C21" s="218" t="s">
+      <c r="C21" s="231" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="219"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="220"/>
+      <c r="D21" s="232"/>
+      <c r="E21" s="232"/>
+      <c r="F21" s="233"/>
       <c r="G21" s="142"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="152"/>
       <c r="C22" s="153"/>
-      <c r="D22" s="221" t="s">
+      <c r="D22" s="211" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="221"/>
-      <c r="F22" s="222"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="212"/>
       <c r="G22" s="142"/>
     </row>
     <row r="23" spans="2:7">
@@ -20574,22 +20585,22 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="152"/>
-      <c r="C25" s="223" t="s">
+      <c r="C25" s="234" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="224"/>
-      <c r="E25" s="224"/>
-      <c r="F25" s="225"/>
+      <c r="D25" s="235"/>
+      <c r="E25" s="235"/>
+      <c r="F25" s="236"/>
       <c r="G25" s="142"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="152"/>
       <c r="C26" s="153"/>
-      <c r="D26" s="221" t="s">
+      <c r="D26" s="211" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="221"/>
-      <c r="F26" s="222"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="212"/>
       <c r="G26" s="142"/>
     </row>
     <row r="27" spans="2:7">
@@ -20602,6 +20613,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="C25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="D8:F8"/>
@@ -20612,11 +20628,6 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="C25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20642,310 +20653,272 @@
   <sheetData>
     <row r="1" spans="2:11" s="145" customFormat="1"/>
     <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="445" t="s">
+      <c r="B2" s="441" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="445"/>
-      <c r="D2" s="445" t="s">
+      <c r="C2" s="441"/>
+      <c r="D2" s="441" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="445"/>
-      <c r="F2" s="445" t="s">
+      <c r="E2" s="441"/>
+      <c r="F2" s="441" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="445"/>
-      <c r="H2" s="445" t="s">
+      <c r="G2" s="441"/>
+      <c r="H2" s="441" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="445"/>
-      <c r="J2" s="445" t="s">
+      <c r="I2" s="441"/>
+      <c r="J2" s="441" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="445"/>
+      <c r="K2" s="441"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="441">
+      <c r="B3" s="442">
         <v>1</v>
       </c>
-      <c r="C3" s="441"/>
-      <c r="D3" s="441" t="s">
+      <c r="C3" s="442"/>
+      <c r="D3" s="442" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="441"/>
-      <c r="F3" s="441" t="s">
+      <c r="E3" s="442"/>
+      <c r="F3" s="442" t="s">
         <v>320</v>
       </c>
-      <c r="G3" s="441"/>
-      <c r="H3" s="442" t="s">
+      <c r="G3" s="442"/>
+      <c r="H3" s="445" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="442"/>
-      <c r="J3" s="441" t="s">
+      <c r="I3" s="445"/>
+      <c r="J3" s="442" t="s">
         <v>321</v>
       </c>
-      <c r="K3" s="441"/>
+      <c r="K3" s="442"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B4" s="441"/>
-      <c r="C4" s="441"/>
-      <c r="D4" s="441"/>
-      <c r="E4" s="441"/>
-      <c r="F4" s="441"/>
-      <c r="G4" s="441"/>
-      <c r="H4" s="442" t="s">
+      <c r="B4" s="442"/>
+      <c r="C4" s="442"/>
+      <c r="D4" s="442"/>
+      <c r="E4" s="442"/>
+      <c r="F4" s="442"/>
+      <c r="G4" s="442"/>
+      <c r="H4" s="445" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="442"/>
-      <c r="J4" s="441"/>
-      <c r="K4" s="441"/>
+      <c r="I4" s="445"/>
+      <c r="J4" s="442"/>
+      <c r="K4" s="442"/>
     </row>
     <row r="5" spans="2:11" ht="15.6">
-      <c r="B5" s="441"/>
-      <c r="C5" s="441"/>
-      <c r="D5" s="441"/>
-      <c r="E5" s="441"/>
-      <c r="F5" s="441"/>
-      <c r="G5" s="441"/>
-      <c r="H5" s="442" t="s">
+      <c r="B5" s="442"/>
+      <c r="C5" s="442"/>
+      <c r="D5" s="442"/>
+      <c r="E5" s="442"/>
+      <c r="F5" s="442"/>
+      <c r="G5" s="442"/>
+      <c r="H5" s="445" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="442"/>
-      <c r="J5" s="441"/>
-      <c r="K5" s="441"/>
+      <c r="I5" s="445"/>
+      <c r="J5" s="442"/>
+      <c r="K5" s="442"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B6" s="441">
+      <c r="B6" s="442">
         <v>2</v>
       </c>
-      <c r="C6" s="441"/>
-      <c r="D6" s="441" t="s">
+      <c r="C6" s="442"/>
+      <c r="D6" s="442" t="s">
         <v>318</v>
       </c>
-      <c r="E6" s="441"/>
+      <c r="E6" s="442"/>
       <c r="F6" s="443" t="s">
         <v>322</v>
       </c>
       <c r="G6" s="444"/>
-      <c r="H6" s="442" t="s">
+      <c r="H6" s="445" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="442"/>
-      <c r="J6" s="441" t="s">
+      <c r="I6" s="445"/>
+      <c r="J6" s="442" t="s">
         <v>323</v>
       </c>
-      <c r="K6" s="441"/>
+      <c r="K6" s="442"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B7" s="441"/>
-      <c r="C7" s="441"/>
-      <c r="D7" s="441"/>
-      <c r="E7" s="441"/>
-      <c r="F7" s="441"/>
-      <c r="G7" s="441"/>
-      <c r="H7" s="442" t="s">
+      <c r="B7" s="442"/>
+      <c r="C7" s="442"/>
+      <c r="D7" s="442"/>
+      <c r="E7" s="442"/>
+      <c r="F7" s="442"/>
+      <c r="G7" s="442"/>
+      <c r="H7" s="445" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="442"/>
-      <c r="J7" s="441"/>
-      <c r="K7" s="441"/>
+      <c r="I7" s="445"/>
+      <c r="J7" s="442"/>
+      <c r="K7" s="442"/>
     </row>
     <row r="8" spans="2:11" ht="15.6">
-      <c r="B8" s="441"/>
-      <c r="C8" s="441"/>
-      <c r="D8" s="441"/>
-      <c r="E8" s="441"/>
-      <c r="F8" s="441"/>
-      <c r="G8" s="441"/>
-      <c r="H8" s="442" t="s">
+      <c r="B8" s="442"/>
+      <c r="C8" s="442"/>
+      <c r="D8" s="442"/>
+      <c r="E8" s="442"/>
+      <c r="F8" s="442"/>
+      <c r="G8" s="442"/>
+      <c r="H8" s="445" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="442"/>
-      <c r="J8" s="441"/>
-      <c r="K8" s="441"/>
+      <c r="I8" s="445"/>
+      <c r="J8" s="442"/>
+      <c r="K8" s="442"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B9" s="441">
+      <c r="B9" s="442">
         <v>3</v>
       </c>
-      <c r="C9" s="441"/>
-      <c r="D9" s="441" t="s">
+      <c r="C9" s="442"/>
+      <c r="D9" s="442" t="s">
         <v>317</v>
       </c>
-      <c r="E9" s="441"/>
-      <c r="F9" s="441" t="s">
+      <c r="E9" s="442"/>
+      <c r="F9" s="442" t="s">
         <v>324</v>
       </c>
-      <c r="G9" s="441"/>
-      <c r="H9" s="442" t="s">
+      <c r="G9" s="442"/>
+      <c r="H9" s="445" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="442"/>
-      <c r="J9" s="441" t="s">
+      <c r="I9" s="445"/>
+      <c r="J9" s="442" t="s">
         <v>325</v>
       </c>
-      <c r="K9" s="441"/>
+      <c r="K9" s="442"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B10" s="441"/>
-      <c r="C10" s="441"/>
-      <c r="D10" s="441"/>
-      <c r="E10" s="441"/>
-      <c r="F10" s="441"/>
-      <c r="G10" s="441"/>
-      <c r="H10" s="442" t="s">
+      <c r="B10" s="442"/>
+      <c r="C10" s="442"/>
+      <c r="D10" s="442"/>
+      <c r="E10" s="442"/>
+      <c r="F10" s="442"/>
+      <c r="G10" s="442"/>
+      <c r="H10" s="445" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="442"/>
-      <c r="J10" s="441"/>
-      <c r="K10" s="441"/>
+      <c r="I10" s="445"/>
+      <c r="J10" s="442"/>
+      <c r="K10" s="442"/>
     </row>
     <row r="11" spans="2:11" ht="15.6">
-      <c r="B11" s="441"/>
-      <c r="C11" s="441"/>
-      <c r="D11" s="441"/>
-      <c r="E11" s="441"/>
-      <c r="F11" s="441"/>
-      <c r="G11" s="441"/>
-      <c r="H11" s="442" t="s">
+      <c r="B11" s="442"/>
+      <c r="C11" s="442"/>
+      <c r="D11" s="442"/>
+      <c r="E11" s="442"/>
+      <c r="F11" s="442"/>
+      <c r="G11" s="442"/>
+      <c r="H11" s="445" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="442"/>
-      <c r="J11" s="441"/>
-      <c r="K11" s="441"/>
+      <c r="I11" s="445"/>
+      <c r="J11" s="442"/>
+      <c r="K11" s="442"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B12" s="441">
+      <c r="B12" s="442">
         <v>4</v>
       </c>
-      <c r="C12" s="441"/>
-      <c r="D12" s="441"/>
-      <c r="E12" s="441"/>
-      <c r="F12" s="441"/>
-      <c r="G12" s="441"/>
-      <c r="H12" s="442" t="s">
+      <c r="C12" s="442"/>
+      <c r="D12" s="442"/>
+      <c r="E12" s="442"/>
+      <c r="F12" s="442"/>
+      <c r="G12" s="442"/>
+      <c r="H12" s="445" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="442"/>
-      <c r="J12" s="441"/>
-      <c r="K12" s="441"/>
+      <c r="I12" s="445"/>
+      <c r="J12" s="442"/>
+      <c r="K12" s="442"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B13" s="441"/>
-      <c r="C13" s="441"/>
-      <c r="D13" s="441"/>
-      <c r="E13" s="441"/>
-      <c r="F13" s="441"/>
-      <c r="G13" s="441"/>
-      <c r="H13" s="442" t="s">
+      <c r="B13" s="442"/>
+      <c r="C13" s="442"/>
+      <c r="D13" s="442"/>
+      <c r="E13" s="442"/>
+      <c r="F13" s="442"/>
+      <c r="G13" s="442"/>
+      <c r="H13" s="445" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="442"/>
-      <c r="J13" s="441"/>
-      <c r="K13" s="441"/>
+      <c r="I13" s="445"/>
+      <c r="J13" s="442"/>
+      <c r="K13" s="442"/>
     </row>
     <row r="14" spans="2:11" ht="15.6">
-      <c r="B14" s="441"/>
-      <c r="C14" s="441"/>
-      <c r="D14" s="441"/>
-      <c r="E14" s="441"/>
-      <c r="F14" s="441"/>
-      <c r="G14" s="441"/>
-      <c r="H14" s="442" t="s">
+      <c r="B14" s="442"/>
+      <c r="C14" s="442"/>
+      <c r="D14" s="442"/>
+      <c r="E14" s="442"/>
+      <c r="F14" s="442"/>
+      <c r="G14" s="442"/>
+      <c r="H14" s="445" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="442"/>
-      <c r="J14" s="441"/>
-      <c r="K14" s="441"/>
+      <c r="I14" s="445"/>
+      <c r="J14" s="442"/>
+      <c r="K14" s="442"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B15" s="441">
+      <c r="B15" s="442">
         <v>5</v>
       </c>
-      <c r="C15" s="441"/>
-      <c r="D15" s="441"/>
-      <c r="E15" s="441"/>
-      <c r="F15" s="441"/>
-      <c r="G15" s="441"/>
-      <c r="H15" s="442" t="s">
+      <c r="C15" s="442"/>
+      <c r="D15" s="442"/>
+      <c r="E15" s="442"/>
+      <c r="F15" s="442"/>
+      <c r="G15" s="442"/>
+      <c r="H15" s="445" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="442"/>
-      <c r="J15" s="441"/>
-      <c r="K15" s="441"/>
+      <c r="I15" s="445"/>
+      <c r="J15" s="442"/>
+      <c r="K15" s="442"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B16" s="441"/>
-      <c r="C16" s="441"/>
-      <c r="D16" s="441"/>
-      <c r="E16" s="441"/>
-      <c r="F16" s="441"/>
-      <c r="G16" s="441"/>
-      <c r="H16" s="442" t="s">
+      <c r="B16" s="442"/>
+      <c r="C16" s="442"/>
+      <c r="D16" s="442"/>
+      <c r="E16" s="442"/>
+      <c r="F16" s="442"/>
+      <c r="G16" s="442"/>
+      <c r="H16" s="445" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="442"/>
-      <c r="J16" s="441"/>
-      <c r="K16" s="441"/>
+      <c r="I16" s="445"/>
+      <c r="J16" s="442"/>
+      <c r="K16" s="442"/>
     </row>
     <row r="17" spans="2:11" ht="15.6">
-      <c r="B17" s="441"/>
-      <c r="C17" s="441"/>
-      <c r="D17" s="441"/>
-      <c r="E17" s="441"/>
-      <c r="F17" s="441"/>
-      <c r="G17" s="441"/>
-      <c r="H17" s="442" t="s">
+      <c r="B17" s="442"/>
+      <c r="C17" s="442"/>
+      <c r="D17" s="442"/>
+      <c r="E17" s="442"/>
+      <c r="F17" s="442"/>
+      <c r="G17" s="442"/>
+      <c r="H17" s="445" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="442"/>
-      <c r="J17" s="441"/>
-      <c r="K17" s="441"/>
+      <c r="I17" s="445"/>
+      <c r="J17" s="442"/>
+      <c r="K17" s="442"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B15:C17"/>
-    <mergeCell ref="D3:E5"/>
-    <mergeCell ref="D6:E8"/>
-    <mergeCell ref="D9:E11"/>
-    <mergeCell ref="D12:E14"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J16:K16"/>
@@ -20958,11 +20931,49 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B15:C17"/>
+    <mergeCell ref="D3:E5"/>
+    <mergeCell ref="D6:E8"/>
+    <mergeCell ref="D9:E11"/>
+    <mergeCell ref="D12:E14"/>
+    <mergeCell ref="D15:E17"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21070,138 +21081,138 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:9" ht="25.2">
-      <c r="B7" s="282" t="s">
+      <c r="B7" s="237" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="283"/>
-      <c r="D7" s="283"/>
-      <c r="E7" s="283"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="283"/>
-      <c r="I7" s="284"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="238"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="239"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="270" t="s">
+      <c r="B8" s="256" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="271"/>
-      <c r="D8" s="237" t="s">
+      <c r="C8" s="257"/>
+      <c r="D8" s="240" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
-      <c r="G8" s="243"/>
-      <c r="H8" s="243"/>
-      <c r="I8" s="238"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="241"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="274"/>
-      <c r="C9" s="275"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="242"/>
+      <c r="B9" s="258"/>
+      <c r="C9" s="259"/>
+      <c r="D9" s="242"/>
+      <c r="E9" s="248"/>
+      <c r="F9" s="248"/>
+      <c r="G9" s="248"/>
+      <c r="H9" s="248"/>
+      <c r="I9" s="243"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="270" t="s">
+      <c r="B10" s="256" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="271"/>
-      <c r="D10" s="237" t="s">
+      <c r="C10" s="257"/>
+      <c r="D10" s="240" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="238"/>
-      <c r="F10" s="270" t="s">
+      <c r="E10" s="241"/>
+      <c r="F10" s="256" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="271"/>
-      <c r="H10" s="237" t="s">
+      <c r="G10" s="257"/>
+      <c r="H10" s="240" t="s">
         <v>177</v>
       </c>
-      <c r="I10" s="238"/>
+      <c r="I10" s="241"/>
     </row>
     <row r="11" spans="2:9" ht="43.95" customHeight="1">
-      <c r="B11" s="274"/>
-      <c r="C11" s="275"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="242"/>
-      <c r="F11" s="274"/>
-      <c r="G11" s="275"/>
-      <c r="H11" s="241"/>
-      <c r="I11" s="242"/>
+      <c r="B11" s="258"/>
+      <c r="C11" s="259"/>
+      <c r="D11" s="242"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="258"/>
+      <c r="G11" s="259"/>
+      <c r="H11" s="242"/>
+      <c r="I11" s="243"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1">
-      <c r="B12" s="270" t="s">
+      <c r="B12" s="256" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="271"/>
-      <c r="D12" s="237" t="s">
+      <c r="C12" s="257"/>
+      <c r="D12" s="240" t="s">
         <v>178</v>
       </c>
-      <c r="E12" s="243"/>
-      <c r="F12" s="243"/>
-      <c r="G12" s="243"/>
-      <c r="H12" s="243"/>
-      <c r="I12" s="238"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="244"/>
+      <c r="H12" s="244"/>
+      <c r="I12" s="241"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="272"/>
-      <c r="C13" s="273"/>
-      <c r="D13" s="239"/>
-      <c r="E13" s="244"/>
-      <c r="F13" s="244"/>
-      <c r="G13" s="244"/>
-      <c r="H13" s="244"/>
-      <c r="I13" s="240"/>
+      <c r="B13" s="260"/>
+      <c r="C13" s="261"/>
+      <c r="D13" s="245"/>
+      <c r="E13" s="246"/>
+      <c r="F13" s="246"/>
+      <c r="G13" s="246"/>
+      <c r="H13" s="246"/>
+      <c r="I13" s="247"/>
     </row>
     <row r="14" spans="2:9" ht="31.95" customHeight="1">
-      <c r="B14" s="274"/>
-      <c r="C14" s="275"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="245"/>
-      <c r="F14" s="245"/>
-      <c r="G14" s="245"/>
-      <c r="H14" s="245"/>
-      <c r="I14" s="242"/>
+      <c r="B14" s="258"/>
+      <c r="C14" s="259"/>
+      <c r="D14" s="242"/>
+      <c r="E14" s="248"/>
+      <c r="F14" s="248"/>
+      <c r="G14" s="248"/>
+      <c r="H14" s="248"/>
+      <c r="I14" s="243"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="252" t="s">
+      <c r="B15" s="251" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="253"/>
-      <c r="D15" s="268">
+      <c r="C15" s="252"/>
+      <c r="D15" s="249">
         <v>43560</v>
       </c>
-      <c r="E15" s="269"/>
-      <c r="F15" s="252" t="s">
+      <c r="E15" s="250"/>
+      <c r="F15" s="251" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="253"/>
-      <c r="H15" s="285" t="s">
+      <c r="G15" s="252"/>
+      <c r="H15" s="253" t="s">
         <v>290</v>
       </c>
-      <c r="I15" s="286"/>
+      <c r="I15" s="254"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="252" t="s">
+      <c r="B16" s="251" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="253"/>
-      <c r="D16" s="268">
+      <c r="C16" s="252"/>
+      <c r="D16" s="249">
         <v>43630</v>
       </c>
-      <c r="E16" s="269"/>
-      <c r="F16" s="252" t="s">
+      <c r="E16" s="250"/>
+      <c r="F16" s="251" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="253"/>
-      <c r="H16" s="287">
+      <c r="G16" s="252"/>
+      <c r="H16" s="255">
         <v>0</v>
       </c>
-      <c r="I16" s="286"/>
+      <c r="I16" s="254"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="131"/>
@@ -21212,98 +21223,98 @@
       <c r="C18" s="131"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B19" s="260" t="s">
+      <c r="B19" s="262" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="261"/>
-      <c r="D19" s="261"/>
-      <c r="E19" s="261"/>
-      <c r="F19" s="261"/>
-      <c r="G19" s="261"/>
-      <c r="H19" s="261"/>
-      <c r="I19" s="262"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="263"/>
+      <c r="E19" s="263"/>
+      <c r="F19" s="263"/>
+      <c r="G19" s="263"/>
+      <c r="H19" s="263"/>
+      <c r="I19" s="264"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="237" t="s">
+      <c r="B20" s="240" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="243"/>
-      <c r="D20" s="243"/>
-      <c r="E20" s="243"/>
-      <c r="F20" s="243"/>
-      <c r="G20" s="243"/>
-      <c r="H20" s="243"/>
-      <c r="I20" s="238"/>
+      <c r="C20" s="244"/>
+      <c r="D20" s="244"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="244"/>
+      <c r="G20" s="244"/>
+      <c r="H20" s="244"/>
+      <c r="I20" s="241"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="239"/>
-      <c r="C21" s="244"/>
-      <c r="D21" s="244"/>
-      <c r="E21" s="244"/>
-      <c r="F21" s="244"/>
-      <c r="G21" s="244"/>
-      <c r="H21" s="244"/>
-      <c r="I21" s="240"/>
+      <c r="B21" s="245"/>
+      <c r="C21" s="246"/>
+      <c r="D21" s="246"/>
+      <c r="E21" s="246"/>
+      <c r="F21" s="246"/>
+      <c r="G21" s="246"/>
+      <c r="H21" s="246"/>
+      <c r="I21" s="247"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="239"/>
-      <c r="C22" s="244"/>
-      <c r="D22" s="244"/>
-      <c r="E22" s="244"/>
-      <c r="F22" s="244"/>
-      <c r="G22" s="244"/>
-      <c r="H22" s="244"/>
-      <c r="I22" s="240"/>
+      <c r="B22" s="245"/>
+      <c r="C22" s="246"/>
+      <c r="D22" s="246"/>
+      <c r="E22" s="246"/>
+      <c r="F22" s="246"/>
+      <c r="G22" s="246"/>
+      <c r="H22" s="246"/>
+      <c r="I22" s="247"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="239"/>
-      <c r="C23" s="244"/>
-      <c r="D23" s="244"/>
-      <c r="E23" s="244"/>
-      <c r="F23" s="244"/>
-      <c r="G23" s="244"/>
-      <c r="H23" s="244"/>
-      <c r="I23" s="240"/>
+      <c r="B23" s="245"/>
+      <c r="C23" s="246"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="246"/>
+      <c r="F23" s="246"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="246"/>
+      <c r="I23" s="247"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="239"/>
-      <c r="C24" s="244"/>
-      <c r="D24" s="244"/>
-      <c r="E24" s="244"/>
-      <c r="F24" s="244"/>
-      <c r="G24" s="244"/>
-      <c r="H24" s="244"/>
-      <c r="I24" s="240"/>
+      <c r="B24" s="245"/>
+      <c r="C24" s="246"/>
+      <c r="D24" s="246"/>
+      <c r="E24" s="246"/>
+      <c r="F24" s="246"/>
+      <c r="G24" s="246"/>
+      <c r="H24" s="246"/>
+      <c r="I24" s="247"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="239"/>
-      <c r="C25" s="244"/>
-      <c r="D25" s="244"/>
-      <c r="E25" s="244"/>
-      <c r="F25" s="244"/>
-      <c r="G25" s="244"/>
-      <c r="H25" s="244"/>
-      <c r="I25" s="240"/>
+      <c r="B25" s="245"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="246"/>
+      <c r="E25" s="246"/>
+      <c r="F25" s="246"/>
+      <c r="G25" s="246"/>
+      <c r="H25" s="246"/>
+      <c r="I25" s="247"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="239"/>
-      <c r="C26" s="244"/>
-      <c r="D26" s="244"/>
-      <c r="E26" s="244"/>
-      <c r="F26" s="244"/>
-      <c r="G26" s="244"/>
-      <c r="H26" s="244"/>
-      <c r="I26" s="240"/>
+      <c r="B26" s="245"/>
+      <c r="C26" s="246"/>
+      <c r="D26" s="246"/>
+      <c r="E26" s="246"/>
+      <c r="F26" s="246"/>
+      <c r="G26" s="246"/>
+      <c r="H26" s="246"/>
+      <c r="I26" s="247"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="241"/>
-      <c r="C27" s="245"/>
-      <c r="D27" s="245"/>
-      <c r="E27" s="245"/>
-      <c r="F27" s="245"/>
-      <c r="G27" s="245"/>
-      <c r="H27" s="245"/>
-      <c r="I27" s="242"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="248"/>
+      <c r="D27" s="248"/>
+      <c r="E27" s="248"/>
+      <c r="F27" s="248"/>
+      <c r="G27" s="248"/>
+      <c r="H27" s="248"/>
+      <c r="I27" s="243"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="138"/>
@@ -21314,170 +21325,170 @@
       <c r="C29" s="138"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B30" s="260" t="s">
+      <c r="B30" s="262" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="261"/>
-      <c r="D30" s="261"/>
-      <c r="E30" s="261"/>
-      <c r="F30" s="261"/>
-      <c r="G30" s="261"/>
-      <c r="H30" s="261"/>
-      <c r="I30" s="262"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="263"/>
+      <c r="E30" s="263"/>
+      <c r="F30" s="263"/>
+      <c r="G30" s="263"/>
+      <c r="H30" s="263"/>
+      <c r="I30" s="264"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="252" t="s">
+      <c r="B31" s="251" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="267"/>
-      <c r="D31" s="267"/>
-      <c r="E31" s="253"/>
-      <c r="F31" s="252" t="s">
+      <c r="C31" s="265"/>
+      <c r="D31" s="265"/>
+      <c r="E31" s="252"/>
+      <c r="F31" s="251" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="267"/>
-      <c r="H31" s="267"/>
-      <c r="I31" s="253"/>
+      <c r="G31" s="265"/>
+      <c r="H31" s="265"/>
+      <c r="I31" s="252"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="237" t="s">
+      <c r="B32" s="240" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="243"/>
-      <c r="D32" s="243"/>
-      <c r="E32" s="238"/>
-      <c r="F32" s="237" t="s">
+      <c r="C32" s="244"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="241"/>
+      <c r="F32" s="240" t="s">
         <v>292</v>
       </c>
-      <c r="G32" s="243"/>
-      <c r="H32" s="243"/>
-      <c r="I32" s="238"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
+      <c r="I32" s="241"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="239"/>
-      <c r="C33" s="244"/>
-      <c r="D33" s="244"/>
-      <c r="E33" s="240"/>
-      <c r="F33" s="239"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="244"/>
-      <c r="I33" s="240"/>
+      <c r="B33" s="245"/>
+      <c r="C33" s="246"/>
+      <c r="D33" s="246"/>
+      <c r="E33" s="247"/>
+      <c r="F33" s="245"/>
+      <c r="G33" s="246"/>
+      <c r="H33" s="246"/>
+      <c r="I33" s="247"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="239"/>
-      <c r="C34" s="244"/>
-      <c r="D34" s="244"/>
-      <c r="E34" s="240"/>
-      <c r="F34" s="239"/>
-      <c r="G34" s="244"/>
-      <c r="H34" s="244"/>
-      <c r="I34" s="240"/>
+      <c r="B34" s="245"/>
+      <c r="C34" s="246"/>
+      <c r="D34" s="246"/>
+      <c r="E34" s="247"/>
+      <c r="F34" s="245"/>
+      <c r="G34" s="246"/>
+      <c r="H34" s="246"/>
+      <c r="I34" s="247"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="241"/>
-      <c r="C35" s="245"/>
-      <c r="D35" s="245"/>
-      <c r="E35" s="242"/>
-      <c r="F35" s="241"/>
-      <c r="G35" s="245"/>
-      <c r="H35" s="245"/>
-      <c r="I35" s="242"/>
+      <c r="B35" s="242"/>
+      <c r="C35" s="248"/>
+      <c r="D35" s="248"/>
+      <c r="E35" s="243"/>
+      <c r="F35" s="242"/>
+      <c r="G35" s="248"/>
+      <c r="H35" s="248"/>
+      <c r="I35" s="243"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="252" t="s">
+      <c r="B36" s="251" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="267"/>
-      <c r="D36" s="267"/>
-      <c r="E36" s="253"/>
-      <c r="F36" s="252" t="s">
+      <c r="C36" s="265"/>
+      <c r="D36" s="265"/>
+      <c r="E36" s="252"/>
+      <c r="F36" s="251" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="267"/>
-      <c r="H36" s="267"/>
-      <c r="I36" s="253"/>
+      <c r="G36" s="265"/>
+      <c r="H36" s="265"/>
+      <c r="I36" s="252"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="237" t="s">
+      <c r="B37" s="240" t="s">
         <v>291</v>
       </c>
-      <c r="C37" s="243"/>
-      <c r="D37" s="243"/>
-      <c r="E37" s="238"/>
-      <c r="F37" s="237" t="s">
+      <c r="C37" s="244"/>
+      <c r="D37" s="244"/>
+      <c r="E37" s="241"/>
+      <c r="F37" s="240" t="s">
         <v>234</v>
       </c>
-      <c r="G37" s="243"/>
-      <c r="H37" s="243"/>
-      <c r="I37" s="238"/>
+      <c r="G37" s="244"/>
+      <c r="H37" s="244"/>
+      <c r="I37" s="241"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="239"/>
-      <c r="C38" s="244"/>
-      <c r="D38" s="244"/>
-      <c r="E38" s="240"/>
-      <c r="F38" s="239"/>
-      <c r="G38" s="244"/>
-      <c r="H38" s="244"/>
-      <c r="I38" s="240"/>
+      <c r="B38" s="245"/>
+      <c r="C38" s="246"/>
+      <c r="D38" s="246"/>
+      <c r="E38" s="247"/>
+      <c r="F38" s="245"/>
+      <c r="G38" s="246"/>
+      <c r="H38" s="246"/>
+      <c r="I38" s="247"/>
     </row>
     <row r="39" spans="2:9" ht="100.95" customHeight="1">
-      <c r="B39" s="241"/>
-      <c r="C39" s="245"/>
-      <c r="D39" s="245"/>
-      <c r="E39" s="242"/>
-      <c r="F39" s="241"/>
-      <c r="G39" s="245"/>
-      <c r="H39" s="245"/>
-      <c r="I39" s="242"/>
+      <c r="B39" s="242"/>
+      <c r="C39" s="248"/>
+      <c r="D39" s="248"/>
+      <c r="E39" s="243"/>
+      <c r="F39" s="242"/>
+      <c r="G39" s="248"/>
+      <c r="H39" s="248"/>
+      <c r="I39" s="243"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="252" t="s">
+      <c r="B40" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="267"/>
-      <c r="D40" s="267"/>
-      <c r="E40" s="253"/>
-      <c r="F40" s="252" t="s">
+      <c r="C40" s="265"/>
+      <c r="D40" s="265"/>
+      <c r="E40" s="252"/>
+      <c r="F40" s="251" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="267"/>
-      <c r="H40" s="267"/>
-      <c r="I40" s="253"/>
+      <c r="G40" s="265"/>
+      <c r="H40" s="265"/>
+      <c r="I40" s="252"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="237" t="s">
+      <c r="B41" s="240" t="s">
         <v>181</v>
       </c>
-      <c r="C41" s="243"/>
-      <c r="D41" s="243"/>
-      <c r="E41" s="238"/>
-      <c r="F41" s="237" t="s">
+      <c r="C41" s="244"/>
+      <c r="D41" s="244"/>
+      <c r="E41" s="241"/>
+      <c r="F41" s="240" t="s">
         <v>237</v>
       </c>
-      <c r="G41" s="243"/>
-      <c r="H41" s="243"/>
-      <c r="I41" s="238"/>
+      <c r="G41" s="244"/>
+      <c r="H41" s="244"/>
+      <c r="I41" s="241"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="239"/>
-      <c r="C42" s="244"/>
-      <c r="D42" s="244"/>
-      <c r="E42" s="240"/>
-      <c r="F42" s="239"/>
-      <c r="G42" s="244"/>
-      <c r="H42" s="244"/>
-      <c r="I42" s="240"/>
+      <c r="B42" s="245"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="246"/>
+      <c r="E42" s="247"/>
+      <c r="F42" s="245"/>
+      <c r="G42" s="246"/>
+      <c r="H42" s="246"/>
+      <c r="I42" s="247"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="241"/>
-      <c r="C43" s="245"/>
-      <c r="D43" s="245"/>
-      <c r="E43" s="242"/>
-      <c r="F43" s="241"/>
-      <c r="G43" s="245"/>
-      <c r="H43" s="245"/>
-      <c r="I43" s="242"/>
+      <c r="B43" s="242"/>
+      <c r="C43" s="248"/>
+      <c r="D43" s="248"/>
+      <c r="E43" s="243"/>
+      <c r="F43" s="242"/>
+      <c r="G43" s="248"/>
+      <c r="H43" s="248"/>
+      <c r="I43" s="243"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="131"/>
@@ -21488,120 +21499,120 @@
       <c r="C45" s="131"/>
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B46" s="260" t="s">
+      <c r="B46" s="262" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="261"/>
-      <c r="D46" s="261"/>
-      <c r="E46" s="261"/>
-      <c r="F46" s="261"/>
-      <c r="G46" s="261"/>
-      <c r="H46" s="261"/>
-      <c r="I46" s="262"/>
+      <c r="C46" s="263"/>
+      <c r="D46" s="263"/>
+      <c r="E46" s="263"/>
+      <c r="F46" s="263"/>
+      <c r="G46" s="263"/>
+      <c r="H46" s="263"/>
+      <c r="I46" s="264"/>
     </row>
     <row r="47" spans="2:9" ht="15" customHeight="1">
-      <c r="B47" s="270" t="s">
+      <c r="B47" s="256" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="271"/>
-      <c r="D47" s="237" t="s">
+      <c r="C47" s="257"/>
+      <c r="D47" s="240" t="s">
         <v>236</v>
       </c>
-      <c r="E47" s="243"/>
-      <c r="F47" s="243"/>
-      <c r="G47" s="243"/>
-      <c r="H47" s="243"/>
-      <c r="I47" s="238"/>
+      <c r="E47" s="244"/>
+      <c r="F47" s="244"/>
+      <c r="G47" s="244"/>
+      <c r="H47" s="244"/>
+      <c r="I47" s="241"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="272"/>
-      <c r="C48" s="273"/>
-      <c r="D48" s="239"/>
-      <c r="E48" s="244"/>
-      <c r="F48" s="244"/>
-      <c r="G48" s="244"/>
-      <c r="H48" s="244"/>
-      <c r="I48" s="240"/>
+      <c r="B48" s="260"/>
+      <c r="C48" s="261"/>
+      <c r="D48" s="245"/>
+      <c r="E48" s="246"/>
+      <c r="F48" s="246"/>
+      <c r="G48" s="246"/>
+      <c r="H48" s="246"/>
+      <c r="I48" s="247"/>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="274"/>
-      <c r="C49" s="275"/>
-      <c r="D49" s="241"/>
-      <c r="E49" s="245"/>
-      <c r="F49" s="245"/>
-      <c r="G49" s="245"/>
-      <c r="H49" s="245"/>
-      <c r="I49" s="242"/>
+      <c r="B49" s="258"/>
+      <c r="C49" s="259"/>
+      <c r="D49" s="242"/>
+      <c r="E49" s="248"/>
+      <c r="F49" s="248"/>
+      <c r="G49" s="248"/>
+      <c r="H49" s="248"/>
+      <c r="I49" s="243"/>
     </row>
     <row r="50" spans="2:17" ht="15" customHeight="1">
-      <c r="B50" s="270" t="s">
+      <c r="B50" s="256" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="271"/>
-      <c r="D50" s="237" t="s">
+      <c r="C50" s="257"/>
+      <c r="D50" s="240" t="s">
         <v>235</v>
       </c>
-      <c r="E50" s="243"/>
-      <c r="F50" s="243"/>
-      <c r="G50" s="243"/>
-      <c r="H50" s="243"/>
-      <c r="I50" s="238"/>
+      <c r="E50" s="244"/>
+      <c r="F50" s="244"/>
+      <c r="G50" s="244"/>
+      <c r="H50" s="244"/>
+      <c r="I50" s="241"/>
     </row>
     <row r="51" spans="2:17">
-      <c r="B51" s="272"/>
-      <c r="C51" s="273"/>
-      <c r="D51" s="239"/>
-      <c r="E51" s="244"/>
-      <c r="F51" s="244"/>
-      <c r="G51" s="244"/>
-      <c r="H51" s="244"/>
-      <c r="I51" s="240"/>
+      <c r="B51" s="260"/>
+      <c r="C51" s="261"/>
+      <c r="D51" s="245"/>
+      <c r="E51" s="246"/>
+      <c r="F51" s="246"/>
+      <c r="G51" s="246"/>
+      <c r="H51" s="246"/>
+      <c r="I51" s="247"/>
     </row>
     <row r="52" spans="2:17">
-      <c r="B52" s="274"/>
-      <c r="C52" s="275"/>
-      <c r="D52" s="241"/>
-      <c r="E52" s="245"/>
-      <c r="F52" s="245"/>
-      <c r="G52" s="245"/>
-      <c r="H52" s="245"/>
-      <c r="I52" s="242"/>
+      <c r="B52" s="258"/>
+      <c r="C52" s="259"/>
+      <c r="D52" s="242"/>
+      <c r="E52" s="248"/>
+      <c r="F52" s="248"/>
+      <c r="G52" s="248"/>
+      <c r="H52" s="248"/>
+      <c r="I52" s="243"/>
     </row>
     <row r="53" spans="2:17" ht="15" customHeight="1">
-      <c r="B53" s="276" t="s">
+      <c r="B53" s="268" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="277"/>
-      <c r="D53" s="280" t="s">
+      <c r="C53" s="269"/>
+      <c r="D53" s="266" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="280" t="s">
+      <c r="E53" s="266" t="s">
         <v>283</v>
       </c>
-      <c r="F53" s="280" t="s">
+      <c r="F53" s="266" t="s">
         <v>96</v>
       </c>
-      <c r="G53" s="280" t="s">
+      <c r="G53" s="266" t="s">
         <v>281</v>
       </c>
-      <c r="H53" s="280" t="s">
+      <c r="H53" s="266" t="s">
         <v>97</v>
       </c>
-      <c r="I53" s="280" t="s">
+      <c r="I53" s="266" t="s">
         <v>182</v>
       </c>
       <c r="O53" s="172"/>
       <c r="Q53" s="172"/>
     </row>
     <row r="54" spans="2:17" ht="43.2" customHeight="1">
-      <c r="B54" s="278"/>
-      <c r="C54" s="279"/>
-      <c r="D54" s="281"/>
-      <c r="E54" s="281"/>
-      <c r="F54" s="281"/>
-      <c r="G54" s="281"/>
-      <c r="H54" s="281"/>
-      <c r="I54" s="281"/>
+      <c r="B54" s="270"/>
+      <c r="C54" s="271"/>
+      <c r="D54" s="267"/>
+      <c r="E54" s="267"/>
+      <c r="F54" s="267"/>
+      <c r="G54" s="267"/>
+      <c r="H54" s="267"/>
+      <c r="I54" s="267"/>
     </row>
     <row r="55" spans="2:17" ht="15.6">
       <c r="B55" s="139"/>
@@ -21612,88 +21623,88 @@
       <c r="C56" s="139"/>
     </row>
     <row r="57" spans="2:17" ht="15">
-      <c r="B57" s="260" t="s">
+      <c r="B57" s="262" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="261"/>
-      <c r="D57" s="261"/>
-      <c r="E57" s="261"/>
-      <c r="F57" s="261"/>
-      <c r="G57" s="261"/>
-      <c r="H57" s="261"/>
-      <c r="I57" s="262"/>
+      <c r="C57" s="263"/>
+      <c r="D57" s="263"/>
+      <c r="E57" s="263"/>
+      <c r="F57" s="263"/>
+      <c r="G57" s="263"/>
+      <c r="H57" s="263"/>
+      <c r="I57" s="264"/>
     </row>
     <row r="58" spans="2:17">
-      <c r="B58" s="237" t="s">
+      <c r="B58" s="240" t="s">
         <v>293</v>
       </c>
-      <c r="C58" s="243"/>
-      <c r="D58" s="243"/>
-      <c r="E58" s="243"/>
-      <c r="F58" s="243"/>
-      <c r="G58" s="243"/>
-      <c r="H58" s="243"/>
-      <c r="I58" s="238"/>
+      <c r="C58" s="244"/>
+      <c r="D58" s="244"/>
+      <c r="E58" s="244"/>
+      <c r="F58" s="244"/>
+      <c r="G58" s="244"/>
+      <c r="H58" s="244"/>
+      <c r="I58" s="241"/>
     </row>
     <row r="59" spans="2:17">
-      <c r="B59" s="239"/>
-      <c r="C59" s="244"/>
-      <c r="D59" s="244"/>
-      <c r="E59" s="244"/>
-      <c r="F59" s="244"/>
-      <c r="G59" s="244"/>
-      <c r="H59" s="244"/>
-      <c r="I59" s="240"/>
+      <c r="B59" s="245"/>
+      <c r="C59" s="246"/>
+      <c r="D59" s="246"/>
+      <c r="E59" s="246"/>
+      <c r="F59" s="246"/>
+      <c r="G59" s="246"/>
+      <c r="H59" s="246"/>
+      <c r="I59" s="247"/>
     </row>
     <row r="60" spans="2:17">
-      <c r="B60" s="239"/>
-      <c r="C60" s="244"/>
-      <c r="D60" s="244"/>
-      <c r="E60" s="244"/>
-      <c r="F60" s="244"/>
-      <c r="G60" s="244"/>
-      <c r="H60" s="244"/>
-      <c r="I60" s="240"/>
+      <c r="B60" s="245"/>
+      <c r="C60" s="246"/>
+      <c r="D60" s="246"/>
+      <c r="E60" s="246"/>
+      <c r="F60" s="246"/>
+      <c r="G60" s="246"/>
+      <c r="H60" s="246"/>
+      <c r="I60" s="247"/>
     </row>
     <row r="61" spans="2:17">
-      <c r="B61" s="239"/>
-      <c r="C61" s="244"/>
-      <c r="D61" s="244"/>
-      <c r="E61" s="244"/>
-      <c r="F61" s="244"/>
-      <c r="G61" s="244"/>
-      <c r="H61" s="244"/>
-      <c r="I61" s="240"/>
+      <c r="B61" s="245"/>
+      <c r="C61" s="246"/>
+      <c r="D61" s="246"/>
+      <c r="E61" s="246"/>
+      <c r="F61" s="246"/>
+      <c r="G61" s="246"/>
+      <c r="H61" s="246"/>
+      <c r="I61" s="247"/>
     </row>
     <row r="62" spans="2:17">
-      <c r="B62" s="239"/>
-      <c r="C62" s="244"/>
-      <c r="D62" s="244"/>
-      <c r="E62" s="244"/>
-      <c r="F62" s="244"/>
-      <c r="G62" s="244"/>
-      <c r="H62" s="244"/>
-      <c r="I62" s="240"/>
+      <c r="B62" s="245"/>
+      <c r="C62" s="246"/>
+      <c r="D62" s="246"/>
+      <c r="E62" s="246"/>
+      <c r="F62" s="246"/>
+      <c r="G62" s="246"/>
+      <c r="H62" s="246"/>
+      <c r="I62" s="247"/>
     </row>
     <row r="63" spans="2:17">
-      <c r="B63" s="239"/>
-      <c r="C63" s="244"/>
-      <c r="D63" s="244"/>
-      <c r="E63" s="244"/>
-      <c r="F63" s="244"/>
-      <c r="G63" s="244"/>
-      <c r="H63" s="244"/>
-      <c r="I63" s="240"/>
+      <c r="B63" s="245"/>
+      <c r="C63" s="246"/>
+      <c r="D63" s="246"/>
+      <c r="E63" s="246"/>
+      <c r="F63" s="246"/>
+      <c r="G63" s="246"/>
+      <c r="H63" s="246"/>
+      <c r="I63" s="247"/>
     </row>
     <row r="64" spans="2:17">
-      <c r="B64" s="241"/>
-      <c r="C64" s="245"/>
-      <c r="D64" s="245"/>
-      <c r="E64" s="245"/>
-      <c r="F64" s="245"/>
-      <c r="G64" s="245"/>
-      <c r="H64" s="245"/>
-      <c r="I64" s="242"/>
+      <c r="B64" s="242"/>
+      <c r="C64" s="248"/>
+      <c r="D64" s="248"/>
+      <c r="E64" s="248"/>
+      <c r="F64" s="248"/>
+      <c r="G64" s="248"/>
+      <c r="H64" s="248"/>
+      <c r="I64" s="243"/>
     </row>
     <row r="65" spans="2:18">
       <c r="B65" s="131"/>
@@ -21704,136 +21715,136 @@
       <c r="C66" s="131"/>
     </row>
     <row r="67" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B67" s="260" t="s">
+      <c r="B67" s="262" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="261"/>
-      <c r="D67" s="261"/>
-      <c r="E67" s="261"/>
-      <c r="F67" s="261"/>
-      <c r="G67" s="261"/>
-      <c r="H67" s="261"/>
-      <c r="I67" s="262"/>
+      <c r="C67" s="263"/>
+      <c r="D67" s="263"/>
+      <c r="E67" s="263"/>
+      <c r="F67" s="263"/>
+      <c r="G67" s="263"/>
+      <c r="H67" s="263"/>
+      <c r="I67" s="264"/>
     </row>
     <row r="68" spans="2:18">
-      <c r="B68" s="252" t="s">
+      <c r="B68" s="251" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="267"/>
-      <c r="D68" s="267"/>
-      <c r="E68" s="253"/>
-      <c r="F68" s="252" t="s">
+      <c r="C68" s="265"/>
+      <c r="D68" s="265"/>
+      <c r="E68" s="252"/>
+      <c r="F68" s="251" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="267"/>
-      <c r="H68" s="267"/>
-      <c r="I68" s="253"/>
+      <c r="G68" s="265"/>
+      <c r="H68" s="265"/>
+      <c r="I68" s="252"/>
     </row>
     <row r="69" spans="2:18">
-      <c r="B69" s="237" t="s">
+      <c r="B69" s="240" t="s">
         <v>294</v>
       </c>
-      <c r="C69" s="243"/>
-      <c r="D69" s="243"/>
-      <c r="E69" s="238"/>
-      <c r="F69" s="237" t="s">
+      <c r="C69" s="244"/>
+      <c r="D69" s="244"/>
+      <c r="E69" s="241"/>
+      <c r="F69" s="240" t="s">
         <v>295</v>
       </c>
-      <c r="G69" s="243"/>
-      <c r="H69" s="243"/>
-      <c r="I69" s="238"/>
+      <c r="G69" s="244"/>
+      <c r="H69" s="244"/>
+      <c r="I69" s="241"/>
     </row>
     <row r="70" spans="2:18">
-      <c r="B70" s="239"/>
-      <c r="C70" s="244"/>
-      <c r="D70" s="244"/>
-      <c r="E70" s="240"/>
-      <c r="F70" s="239"/>
-      <c r="G70" s="244"/>
-      <c r="H70" s="244"/>
-      <c r="I70" s="240"/>
+      <c r="B70" s="245"/>
+      <c r="C70" s="246"/>
+      <c r="D70" s="246"/>
+      <c r="E70" s="247"/>
+      <c r="F70" s="245"/>
+      <c r="G70" s="246"/>
+      <c r="H70" s="246"/>
+      <c r="I70" s="247"/>
     </row>
     <row r="71" spans="2:18">
-      <c r="B71" s="239"/>
-      <c r="C71" s="244"/>
-      <c r="D71" s="244"/>
-      <c r="E71" s="240"/>
-      <c r="F71" s="239"/>
-      <c r="G71" s="244"/>
-      <c r="H71" s="244"/>
-      <c r="I71" s="240"/>
+      <c r="B71" s="245"/>
+      <c r="C71" s="246"/>
+      <c r="D71" s="246"/>
+      <c r="E71" s="247"/>
+      <c r="F71" s="245"/>
+      <c r="G71" s="246"/>
+      <c r="H71" s="246"/>
+      <c r="I71" s="247"/>
     </row>
     <row r="72" spans="2:18">
-      <c r="B72" s="239"/>
-      <c r="C72" s="244"/>
-      <c r="D72" s="244"/>
-      <c r="E72" s="240"/>
-      <c r="F72" s="239"/>
-      <c r="G72" s="244"/>
-      <c r="H72" s="244"/>
-      <c r="I72" s="240"/>
+      <c r="B72" s="245"/>
+      <c r="C72" s="246"/>
+      <c r="D72" s="246"/>
+      <c r="E72" s="247"/>
+      <c r="F72" s="245"/>
+      <c r="G72" s="246"/>
+      <c r="H72" s="246"/>
+      <c r="I72" s="247"/>
     </row>
     <row r="73" spans="2:18">
-      <c r="B73" s="241"/>
-      <c r="C73" s="245"/>
-      <c r="D73" s="245"/>
-      <c r="E73" s="242"/>
-      <c r="F73" s="241"/>
-      <c r="G73" s="245"/>
-      <c r="H73" s="245"/>
-      <c r="I73" s="242"/>
+      <c r="B73" s="242"/>
+      <c r="C73" s="248"/>
+      <c r="D73" s="248"/>
+      <c r="E73" s="243"/>
+      <c r="F73" s="242"/>
+      <c r="G73" s="248"/>
+      <c r="H73" s="248"/>
+      <c r="I73" s="243"/>
     </row>
     <row r="74" spans="2:18">
       <c r="B74" s="131"/>
       <c r="C74" s="131"/>
     </row>
     <row r="75" spans="2:18" ht="15" customHeight="1">
-      <c r="B75" s="260" t="s">
+      <c r="B75" s="262" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="261"/>
-      <c r="D75" s="261"/>
-      <c r="E75" s="261"/>
-      <c r="F75" s="261"/>
-      <c r="G75" s="261"/>
-      <c r="H75" s="261"/>
-      <c r="I75" s="262"/>
+      <c r="C75" s="263"/>
+      <c r="D75" s="263"/>
+      <c r="E75" s="263"/>
+      <c r="F75" s="263"/>
+      <c r="G75" s="263"/>
+      <c r="H75" s="263"/>
+      <c r="I75" s="264"/>
     </row>
     <row r="76" spans="2:18" ht="29.25" customHeight="1">
-      <c r="B76" s="252" t="s">
+      <c r="B76" s="251" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="253"/>
-      <c r="D76" s="252" t="s">
+      <c r="C76" s="252"/>
+      <c r="D76" s="251" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="253"/>
-      <c r="F76" s="252" t="s">
+      <c r="E76" s="252"/>
+      <c r="F76" s="251" t="s">
         <v>69</v>
       </c>
-      <c r="G76" s="253"/>
-      <c r="H76" s="252" t="s">
+      <c r="G76" s="252"/>
+      <c r="H76" s="251" t="s">
         <v>70</v>
       </c>
-      <c r="I76" s="253"/>
+      <c r="I76" s="252"/>
     </row>
     <row r="77" spans="2:18" ht="15" customHeight="1">
-      <c r="B77" s="254" t="s">
+      <c r="B77" s="282" t="s">
         <v>240</v>
       </c>
-      <c r="C77" s="255"/>
-      <c r="D77" s="237" t="s">
+      <c r="C77" s="283"/>
+      <c r="D77" s="240" t="s">
         <v>243</v>
       </c>
-      <c r="E77" s="238"/>
-      <c r="F77" s="237" t="s">
+      <c r="E77" s="241"/>
+      <c r="F77" s="240" t="s">
         <v>289</v>
       </c>
-      <c r="G77" s="238"/>
-      <c r="H77" s="237" t="s">
+      <c r="G77" s="241"/>
+      <c r="H77" s="240" t="s">
         <v>288</v>
       </c>
-      <c r="I77" s="238"/>
+      <c r="I77" s="241"/>
       <c r="K77" s="169"/>
       <c r="L77" s="169"/>
       <c r="M77" s="169"/>
@@ -21844,14 +21855,14 @@
       <c r="R77" s="169"/>
     </row>
     <row r="78" spans="2:18">
-      <c r="B78" s="256"/>
-      <c r="C78" s="257"/>
-      <c r="D78" s="239"/>
-      <c r="E78" s="240"/>
-      <c r="F78" s="239"/>
-      <c r="G78" s="240"/>
-      <c r="H78" s="239"/>
-      <c r="I78" s="240"/>
+      <c r="B78" s="284"/>
+      <c r="C78" s="285"/>
+      <c r="D78" s="245"/>
+      <c r="E78" s="247"/>
+      <c r="F78" s="245"/>
+      <c r="G78" s="247"/>
+      <c r="H78" s="245"/>
+      <c r="I78" s="247"/>
       <c r="K78" s="169"/>
       <c r="L78" s="169"/>
       <c r="M78" s="169"/>
@@ -21862,14 +21873,14 @@
       <c r="R78" s="169"/>
     </row>
     <row r="79" spans="2:18">
-      <c r="B79" s="256"/>
-      <c r="C79" s="257"/>
-      <c r="D79" s="239"/>
-      <c r="E79" s="240"/>
-      <c r="F79" s="239"/>
-      <c r="G79" s="240"/>
-      <c r="H79" s="239"/>
-      <c r="I79" s="240"/>
+      <c r="B79" s="284"/>
+      <c r="C79" s="285"/>
+      <c r="D79" s="245"/>
+      <c r="E79" s="247"/>
+      <c r="F79" s="245"/>
+      <c r="G79" s="247"/>
+      <c r="H79" s="245"/>
+      <c r="I79" s="247"/>
       <c r="K79" s="169"/>
       <c r="L79" s="169"/>
       <c r="M79" s="169"/>
@@ -21880,14 +21891,14 @@
       <c r="R79" s="169"/>
     </row>
     <row r="80" spans="2:18" ht="15" customHeight="1">
-      <c r="B80" s="256"/>
-      <c r="C80" s="257"/>
-      <c r="D80" s="239"/>
-      <c r="E80" s="240"/>
-      <c r="F80" s="239"/>
-      <c r="G80" s="240"/>
-      <c r="H80" s="239"/>
-      <c r="I80" s="240"/>
+      <c r="B80" s="284"/>
+      <c r="C80" s="285"/>
+      <c r="D80" s="245"/>
+      <c r="E80" s="247"/>
+      <c r="F80" s="245"/>
+      <c r="G80" s="247"/>
+      <c r="H80" s="245"/>
+      <c r="I80" s="247"/>
       <c r="K80" s="140"/>
       <c r="L80" s="140"/>
       <c r="M80" s="169"/>
@@ -21898,14 +21909,14 @@
       <c r="R80" s="169"/>
     </row>
     <row r="81" spans="2:18">
-      <c r="B81" s="256"/>
-      <c r="C81" s="257"/>
-      <c r="D81" s="239"/>
-      <c r="E81" s="240"/>
-      <c r="F81" s="239"/>
-      <c r="G81" s="240"/>
-      <c r="H81" s="239"/>
-      <c r="I81" s="240"/>
+      <c r="B81" s="284"/>
+      <c r="C81" s="285"/>
+      <c r="D81" s="245"/>
+      <c r="E81" s="247"/>
+      <c r="F81" s="245"/>
+      <c r="G81" s="247"/>
+      <c r="H81" s="245"/>
+      <c r="I81" s="247"/>
       <c r="K81" s="140"/>
       <c r="L81" s="140"/>
       <c r="M81" s="169"/>
@@ -21916,14 +21927,14 @@
       <c r="R81" s="169"/>
     </row>
     <row r="82" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B82" s="256"/>
-      <c r="C82" s="257"/>
-      <c r="D82" s="239"/>
-      <c r="E82" s="240"/>
-      <c r="F82" s="239"/>
-      <c r="G82" s="240"/>
-      <c r="H82" s="239"/>
-      <c r="I82" s="240"/>
+      <c r="B82" s="284"/>
+      <c r="C82" s="285"/>
+      <c r="D82" s="245"/>
+      <c r="E82" s="247"/>
+      <c r="F82" s="245"/>
+      <c r="G82" s="247"/>
+      <c r="H82" s="245"/>
+      <c r="I82" s="247"/>
       <c r="K82" s="140"/>
       <c r="L82" s="140"/>
       <c r="M82" s="169"/>
@@ -21934,14 +21945,14 @@
       <c r="R82" s="169"/>
     </row>
     <row r="83" spans="2:18" ht="15" customHeight="1">
-      <c r="B83" s="256"/>
-      <c r="C83" s="257"/>
-      <c r="D83" s="239"/>
-      <c r="E83" s="240"/>
-      <c r="F83" s="239"/>
-      <c r="G83" s="240"/>
-      <c r="H83" s="239"/>
-      <c r="I83" s="240"/>
+      <c r="B83" s="284"/>
+      <c r="C83" s="285"/>
+      <c r="D83" s="245"/>
+      <c r="E83" s="247"/>
+      <c r="F83" s="245"/>
+      <c r="G83" s="247"/>
+      <c r="H83" s="245"/>
+      <c r="I83" s="247"/>
       <c r="K83" s="140"/>
       <c r="L83" s="140"/>
       <c r="M83" s="169"/>
@@ -21952,14 +21963,14 @@
       <c r="R83" s="169"/>
     </row>
     <row r="84" spans="2:18">
-      <c r="B84" s="256"/>
-      <c r="C84" s="257"/>
-      <c r="D84" s="239"/>
-      <c r="E84" s="240"/>
-      <c r="F84" s="239"/>
-      <c r="G84" s="240"/>
-      <c r="H84" s="239"/>
-      <c r="I84" s="240"/>
+      <c r="B84" s="284"/>
+      <c r="C84" s="285"/>
+      <c r="D84" s="245"/>
+      <c r="E84" s="247"/>
+      <c r="F84" s="245"/>
+      <c r="G84" s="247"/>
+      <c r="H84" s="245"/>
+      <c r="I84" s="247"/>
       <c r="K84" s="140"/>
       <c r="L84" s="140"/>
       <c r="M84" s="169"/>
@@ -21970,14 +21981,14 @@
       <c r="R84" s="169"/>
     </row>
     <row r="85" spans="2:18">
-      <c r="B85" s="258"/>
-      <c r="C85" s="259"/>
-      <c r="D85" s="241"/>
-      <c r="E85" s="242"/>
-      <c r="F85" s="241"/>
-      <c r="G85" s="242"/>
-      <c r="H85" s="241"/>
-      <c r="I85" s="242"/>
+      <c r="B85" s="286"/>
+      <c r="C85" s="287"/>
+      <c r="D85" s="242"/>
+      <c r="E85" s="243"/>
+      <c r="F85" s="242"/>
+      <c r="G85" s="243"/>
+      <c r="H85" s="242"/>
+      <c r="I85" s="243"/>
       <c r="K85" s="140"/>
       <c r="L85" s="140"/>
       <c r="M85" s="169"/>
@@ -21988,22 +21999,22 @@
       <c r="R85" s="169"/>
     </row>
     <row r="86" spans="2:18">
-      <c r="B86" s="254" t="s">
+      <c r="B86" s="282" t="s">
         <v>238</v>
       </c>
-      <c r="C86" s="255"/>
-      <c r="D86" s="237" t="s">
+      <c r="C86" s="283"/>
+      <c r="D86" s="240" t="s">
         <v>241</v>
       </c>
-      <c r="E86" s="238"/>
-      <c r="F86" s="237" t="s">
+      <c r="E86" s="241"/>
+      <c r="F86" s="240" t="s">
         <v>285</v>
       </c>
-      <c r="G86" s="238"/>
-      <c r="H86" s="237" t="s">
+      <c r="G86" s="241"/>
+      <c r="H86" s="240" t="s">
         <v>286</v>
       </c>
-      <c r="I86" s="238"/>
+      <c r="I86" s="241"/>
       <c r="K86" s="140"/>
       <c r="L86" s="140"/>
       <c r="M86" s="169"/>
@@ -22014,14 +22025,14 @@
       <c r="R86" s="169"/>
     </row>
     <row r="87" spans="2:18">
-      <c r="B87" s="256"/>
-      <c r="C87" s="257"/>
-      <c r="D87" s="239"/>
-      <c r="E87" s="240"/>
-      <c r="F87" s="239"/>
-      <c r="G87" s="240"/>
-      <c r="H87" s="239"/>
-      <c r="I87" s="240"/>
+      <c r="B87" s="284"/>
+      <c r="C87" s="285"/>
+      <c r="D87" s="245"/>
+      <c r="E87" s="247"/>
+      <c r="F87" s="245"/>
+      <c r="G87" s="247"/>
+      <c r="H87" s="245"/>
+      <c r="I87" s="247"/>
       <c r="K87" s="140"/>
       <c r="L87" s="140"/>
       <c r="M87" s="169"/>
@@ -22032,14 +22043,14 @@
       <c r="R87" s="169"/>
     </row>
     <row r="88" spans="2:18">
-      <c r="B88" s="256"/>
-      <c r="C88" s="257"/>
-      <c r="D88" s="239"/>
-      <c r="E88" s="240"/>
-      <c r="F88" s="239"/>
-      <c r="G88" s="240"/>
-      <c r="H88" s="239"/>
-      <c r="I88" s="240"/>
+      <c r="B88" s="284"/>
+      <c r="C88" s="285"/>
+      <c r="D88" s="245"/>
+      <c r="E88" s="247"/>
+      <c r="F88" s="245"/>
+      <c r="G88" s="247"/>
+      <c r="H88" s="245"/>
+      <c r="I88" s="247"/>
       <c r="K88" s="140"/>
       <c r="L88" s="140"/>
       <c r="M88" s="169"/>
@@ -22050,14 +22061,14 @@
       <c r="R88" s="169"/>
     </row>
     <row r="89" spans="2:18" ht="15" customHeight="1">
-      <c r="B89" s="256"/>
-      <c r="C89" s="257"/>
-      <c r="D89" s="239"/>
-      <c r="E89" s="240"/>
-      <c r="F89" s="239"/>
-      <c r="G89" s="240"/>
-      <c r="H89" s="239"/>
-      <c r="I89" s="240"/>
+      <c r="B89" s="284"/>
+      <c r="C89" s="285"/>
+      <c r="D89" s="245"/>
+      <c r="E89" s="247"/>
+      <c r="F89" s="245"/>
+      <c r="G89" s="247"/>
+      <c r="H89" s="245"/>
+      <c r="I89" s="247"/>
       <c r="K89" s="169"/>
       <c r="L89" s="169"/>
       <c r="M89" s="169"/>
@@ -22068,14 +22079,14 @@
       <c r="R89" s="169"/>
     </row>
     <row r="90" spans="2:18">
-      <c r="B90" s="256"/>
-      <c r="C90" s="257"/>
-      <c r="D90" s="239"/>
-      <c r="E90" s="240"/>
-      <c r="F90" s="239"/>
-      <c r="G90" s="240"/>
-      <c r="H90" s="239"/>
-      <c r="I90" s="240"/>
+      <c r="B90" s="284"/>
+      <c r="C90" s="285"/>
+      <c r="D90" s="245"/>
+      <c r="E90" s="247"/>
+      <c r="F90" s="245"/>
+      <c r="G90" s="247"/>
+      <c r="H90" s="245"/>
+      <c r="I90" s="247"/>
       <c r="K90" s="169"/>
       <c r="L90" s="169"/>
       <c r="M90" s="169"/>
@@ -22086,14 +22097,14 @@
       <c r="R90" s="169"/>
     </row>
     <row r="91" spans="2:18">
-      <c r="B91" s="256"/>
-      <c r="C91" s="257"/>
-      <c r="D91" s="239"/>
-      <c r="E91" s="240"/>
-      <c r="F91" s="239"/>
-      <c r="G91" s="240"/>
-      <c r="H91" s="239"/>
-      <c r="I91" s="240"/>
+      <c r="B91" s="284"/>
+      <c r="C91" s="285"/>
+      <c r="D91" s="245"/>
+      <c r="E91" s="247"/>
+      <c r="F91" s="245"/>
+      <c r="G91" s="247"/>
+      <c r="H91" s="245"/>
+      <c r="I91" s="247"/>
       <c r="K91" s="169"/>
       <c r="L91" s="169"/>
       <c r="M91" s="169"/>
@@ -22104,140 +22115,140 @@
       <c r="R91" s="169"/>
     </row>
     <row r="92" spans="2:18">
-      <c r="B92" s="256"/>
-      <c r="C92" s="257"/>
-      <c r="D92" s="239"/>
-      <c r="E92" s="240"/>
-      <c r="F92" s="239"/>
-      <c r="G92" s="240"/>
-      <c r="H92" s="239"/>
-      <c r="I92" s="240"/>
+      <c r="B92" s="284"/>
+      <c r="C92" s="285"/>
+      <c r="D92" s="245"/>
+      <c r="E92" s="247"/>
+      <c r="F92" s="245"/>
+      <c r="G92" s="247"/>
+      <c r="H92" s="245"/>
+      <c r="I92" s="247"/>
     </row>
     <row r="93" spans="2:18" ht="15" customHeight="1">
-      <c r="B93" s="256"/>
-      <c r="C93" s="257"/>
-      <c r="D93" s="239"/>
-      <c r="E93" s="240"/>
-      <c r="F93" s="239"/>
-      <c r="G93" s="240"/>
-      <c r="H93" s="239"/>
-      <c r="I93" s="240"/>
+      <c r="B93" s="284"/>
+      <c r="C93" s="285"/>
+      <c r="D93" s="245"/>
+      <c r="E93" s="247"/>
+      <c r="F93" s="245"/>
+      <c r="G93" s="247"/>
+      <c r="H93" s="245"/>
+      <c r="I93" s="247"/>
       <c r="J93" s="168"/>
     </row>
     <row r="94" spans="2:18" ht="15" customHeight="1">
-      <c r="B94" s="258"/>
-      <c r="C94" s="259"/>
-      <c r="D94" s="241"/>
-      <c r="E94" s="242"/>
-      <c r="F94" s="241"/>
-      <c r="G94" s="242"/>
-      <c r="H94" s="241"/>
-      <c r="I94" s="242"/>
+      <c r="B94" s="286"/>
+      <c r="C94" s="287"/>
+      <c r="D94" s="242"/>
+      <c r="E94" s="243"/>
+      <c r="F94" s="242"/>
+      <c r="G94" s="243"/>
+      <c r="H94" s="242"/>
+      <c r="I94" s="243"/>
       <c r="J94" s="168"/>
     </row>
     <row r="95" spans="2:18" ht="15" customHeight="1">
-      <c r="B95" s="254" t="s">
+      <c r="B95" s="282" t="s">
         <v>239</v>
       </c>
-      <c r="C95" s="255"/>
-      <c r="D95" s="237" t="s">
+      <c r="C95" s="283"/>
+      <c r="D95" s="240" t="s">
         <v>244</v>
       </c>
-      <c r="E95" s="238"/>
-      <c r="F95" s="237" t="s">
+      <c r="E95" s="241"/>
+      <c r="F95" s="240" t="s">
         <v>284</v>
       </c>
-      <c r="G95" s="238"/>
-      <c r="H95" s="237" t="s">
+      <c r="G95" s="241"/>
+      <c r="H95" s="240" t="s">
         <v>287</v>
       </c>
-      <c r="I95" s="238"/>
+      <c r="I95" s="241"/>
       <c r="J95" s="168"/>
     </row>
     <row r="96" spans="2:18">
-      <c r="B96" s="256"/>
-      <c r="C96" s="257"/>
-      <c r="D96" s="239"/>
-      <c r="E96" s="240"/>
-      <c r="F96" s="239"/>
-      <c r="G96" s="240"/>
-      <c r="H96" s="239"/>
-      <c r="I96" s="240"/>
+      <c r="B96" s="284"/>
+      <c r="C96" s="285"/>
+      <c r="D96" s="245"/>
+      <c r="E96" s="247"/>
+      <c r="F96" s="245"/>
+      <c r="G96" s="247"/>
+      <c r="H96" s="245"/>
+      <c r="I96" s="247"/>
       <c r="J96" s="168"/>
     </row>
     <row r="97" spans="2:16" ht="15" customHeight="1">
-      <c r="B97" s="256"/>
-      <c r="C97" s="257"/>
-      <c r="D97" s="239"/>
-      <c r="E97" s="240"/>
-      <c r="F97" s="239"/>
-      <c r="G97" s="240"/>
-      <c r="H97" s="239"/>
-      <c r="I97" s="240"/>
+      <c r="B97" s="284"/>
+      <c r="C97" s="285"/>
+      <c r="D97" s="245"/>
+      <c r="E97" s="247"/>
+      <c r="F97" s="245"/>
+      <c r="G97" s="247"/>
+      <c r="H97" s="245"/>
+      <c r="I97" s="247"/>
       <c r="J97" s="168"/>
     </row>
     <row r="98" spans="2:16">
-      <c r="B98" s="256"/>
-      <c r="C98" s="257"/>
-      <c r="D98" s="239"/>
-      <c r="E98" s="240"/>
-      <c r="F98" s="239"/>
-      <c r="G98" s="240"/>
-      <c r="H98" s="239"/>
-      <c r="I98" s="240"/>
+      <c r="B98" s="284"/>
+      <c r="C98" s="285"/>
+      <c r="D98" s="245"/>
+      <c r="E98" s="247"/>
+      <c r="F98" s="245"/>
+      <c r="G98" s="247"/>
+      <c r="H98" s="245"/>
+      <c r="I98" s="247"/>
       <c r="J98" s="168"/>
     </row>
     <row r="99" spans="2:16">
-      <c r="B99" s="256"/>
-      <c r="C99" s="257"/>
-      <c r="D99" s="239"/>
-      <c r="E99" s="240"/>
-      <c r="F99" s="239"/>
-      <c r="G99" s="240"/>
-      <c r="H99" s="239"/>
-      <c r="I99" s="240"/>
+      <c r="B99" s="284"/>
+      <c r="C99" s="285"/>
+      <c r="D99" s="245"/>
+      <c r="E99" s="247"/>
+      <c r="F99" s="245"/>
+      <c r="G99" s="247"/>
+      <c r="H99" s="245"/>
+      <c r="I99" s="247"/>
       <c r="J99" s="168"/>
     </row>
     <row r="100" spans="2:16">
-      <c r="B100" s="256"/>
-      <c r="C100" s="257"/>
-      <c r="D100" s="239"/>
-      <c r="E100" s="240"/>
-      <c r="F100" s="239"/>
-      <c r="G100" s="240"/>
-      <c r="H100" s="239"/>
-      <c r="I100" s="240"/>
+      <c r="B100" s="284"/>
+      <c r="C100" s="285"/>
+      <c r="D100" s="245"/>
+      <c r="E100" s="247"/>
+      <c r="F100" s="245"/>
+      <c r="G100" s="247"/>
+      <c r="H100" s="245"/>
+      <c r="I100" s="247"/>
       <c r="J100" s="168"/>
     </row>
     <row r="101" spans="2:16">
-      <c r="B101" s="256"/>
-      <c r="C101" s="257"/>
-      <c r="D101" s="239"/>
-      <c r="E101" s="240"/>
-      <c r="F101" s="239"/>
-      <c r="G101" s="240"/>
-      <c r="H101" s="239"/>
-      <c r="I101" s="240"/>
+      <c r="B101" s="284"/>
+      <c r="C101" s="285"/>
+      <c r="D101" s="245"/>
+      <c r="E101" s="247"/>
+      <c r="F101" s="245"/>
+      <c r="G101" s="247"/>
+      <c r="H101" s="245"/>
+      <c r="I101" s="247"/>
     </row>
     <row r="102" spans="2:16">
-      <c r="B102" s="256"/>
-      <c r="C102" s="257"/>
-      <c r="D102" s="239"/>
-      <c r="E102" s="240"/>
-      <c r="F102" s="239"/>
-      <c r="G102" s="240"/>
-      <c r="H102" s="239"/>
-      <c r="I102" s="240"/>
+      <c r="B102" s="284"/>
+      <c r="C102" s="285"/>
+      <c r="D102" s="245"/>
+      <c r="E102" s="247"/>
+      <c r="F102" s="245"/>
+      <c r="G102" s="247"/>
+      <c r="H102" s="245"/>
+      <c r="I102" s="247"/>
     </row>
     <row r="103" spans="2:16">
-      <c r="B103" s="258"/>
-      <c r="C103" s="259"/>
-      <c r="D103" s="241"/>
-      <c r="E103" s="242"/>
-      <c r="F103" s="241"/>
-      <c r="G103" s="242"/>
-      <c r="H103" s="241"/>
-      <c r="I103" s="242"/>
+      <c r="B103" s="286"/>
+      <c r="C103" s="287"/>
+      <c r="D103" s="242"/>
+      <c r="E103" s="243"/>
+      <c r="F103" s="242"/>
+      <c r="G103" s="243"/>
+      <c r="H103" s="242"/>
+      <c r="I103" s="243"/>
       <c r="K103" s="140"/>
       <c r="L103" s="140"/>
       <c r="M103" s="137"/>
@@ -22245,335 +22256,335 @@
       <c r="P103" s="140"/>
     </row>
     <row r="106" spans="2:16" ht="15">
-      <c r="B106" s="260" t="s">
+      <c r="B106" s="262" t="s">
         <v>71</v>
       </c>
-      <c r="C106" s="261"/>
-      <c r="D106" s="261"/>
-      <c r="E106" s="261"/>
-      <c r="F106" s="261"/>
-      <c r="G106" s="261"/>
-      <c r="H106" s="261"/>
-      <c r="I106" s="262"/>
+      <c r="C106" s="263"/>
+      <c r="D106" s="263"/>
+      <c r="E106" s="263"/>
+      <c r="F106" s="263"/>
+      <c r="G106" s="263"/>
+      <c r="H106" s="263"/>
+      <c r="I106" s="264"/>
     </row>
     <row r="107" spans="2:16">
-      <c r="B107" s="252" t="s">
+      <c r="B107" s="251" t="s">
         <v>72</v>
       </c>
-      <c r="C107" s="253"/>
-      <c r="D107" s="252" t="s">
+      <c r="C107" s="252"/>
+      <c r="D107" s="251" t="s">
         <v>73</v>
       </c>
-      <c r="E107" s="267"/>
-      <c r="F107" s="267"/>
-      <c r="G107" s="253"/>
-      <c r="H107" s="252" t="s">
+      <c r="E107" s="265"/>
+      <c r="F107" s="265"/>
+      <c r="G107" s="252"/>
+      <c r="H107" s="251" t="s">
         <v>74</v>
       </c>
-      <c r="I107" s="253"/>
+      <c r="I107" s="252"/>
     </row>
     <row r="108" spans="2:16">
-      <c r="B108" s="237" t="s">
+      <c r="B108" s="240" t="s">
         <v>221</v>
       </c>
-      <c r="C108" s="238"/>
-      <c r="D108" s="237" t="s">
+      <c r="C108" s="241"/>
+      <c r="D108" s="240" t="s">
         <v>245</v>
       </c>
-      <c r="E108" s="243"/>
-      <c r="F108" s="243"/>
-      <c r="G108" s="238"/>
-      <c r="H108" s="246">
+      <c r="E108" s="244"/>
+      <c r="F108" s="244"/>
+      <c r="G108" s="241"/>
+      <c r="H108" s="276">
         <v>43595</v>
       </c>
-      <c r="I108" s="247"/>
+      <c r="I108" s="277"/>
       <c r="N108" s="172"/>
     </row>
     <row r="109" spans="2:16">
-      <c r="B109" s="239"/>
-      <c r="C109" s="240"/>
-      <c r="D109" s="239"/>
-      <c r="E109" s="244"/>
-      <c r="F109" s="244"/>
-      <c r="G109" s="240"/>
-      <c r="H109" s="248"/>
-      <c r="I109" s="249"/>
+      <c r="B109" s="245"/>
+      <c r="C109" s="247"/>
+      <c r="D109" s="245"/>
+      <c r="E109" s="246"/>
+      <c r="F109" s="246"/>
+      <c r="G109" s="247"/>
+      <c r="H109" s="278"/>
+      <c r="I109" s="279"/>
     </row>
     <row r="110" spans="2:16">
-      <c r="B110" s="239"/>
-      <c r="C110" s="240"/>
-      <c r="D110" s="239"/>
-      <c r="E110" s="244"/>
-      <c r="F110" s="244"/>
-      <c r="G110" s="240"/>
-      <c r="H110" s="248"/>
-      <c r="I110" s="249"/>
+      <c r="B110" s="245"/>
+      <c r="C110" s="247"/>
+      <c r="D110" s="245"/>
+      <c r="E110" s="246"/>
+      <c r="F110" s="246"/>
+      <c r="G110" s="247"/>
+      <c r="H110" s="278"/>
+      <c r="I110" s="279"/>
     </row>
     <row r="111" spans="2:16">
-      <c r="B111" s="239"/>
-      <c r="C111" s="240"/>
-      <c r="D111" s="239"/>
-      <c r="E111" s="244"/>
-      <c r="F111" s="244"/>
-      <c r="G111" s="240"/>
-      <c r="H111" s="248"/>
-      <c r="I111" s="249"/>
+      <c r="B111" s="245"/>
+      <c r="C111" s="247"/>
+      <c r="D111" s="245"/>
+      <c r="E111" s="246"/>
+      <c r="F111" s="246"/>
+      <c r="G111" s="247"/>
+      <c r="H111" s="278"/>
+      <c r="I111" s="279"/>
     </row>
     <row r="112" spans="2:16">
-      <c r="B112" s="239"/>
-      <c r="C112" s="240"/>
-      <c r="D112" s="239"/>
-      <c r="E112" s="244"/>
-      <c r="F112" s="244"/>
-      <c r="G112" s="240"/>
-      <c r="H112" s="248"/>
-      <c r="I112" s="249"/>
+      <c r="B112" s="245"/>
+      <c r="C112" s="247"/>
+      <c r="D112" s="245"/>
+      <c r="E112" s="246"/>
+      <c r="F112" s="246"/>
+      <c r="G112" s="247"/>
+      <c r="H112" s="278"/>
+      <c r="I112" s="279"/>
     </row>
     <row r="113" spans="2:9">
-      <c r="B113" s="241"/>
-      <c r="C113" s="242"/>
-      <c r="D113" s="241"/>
-      <c r="E113" s="245"/>
-      <c r="F113" s="245"/>
-      <c r="G113" s="242"/>
-      <c r="H113" s="250"/>
-      <c r="I113" s="251"/>
+      <c r="B113" s="242"/>
+      <c r="C113" s="243"/>
+      <c r="D113" s="242"/>
+      <c r="E113" s="248"/>
+      <c r="F113" s="248"/>
+      <c r="G113" s="243"/>
+      <c r="H113" s="280"/>
+      <c r="I113" s="281"/>
     </row>
     <row r="114" spans="2:9">
-      <c r="B114" s="237" t="s">
+      <c r="B114" s="240" t="s">
         <v>246</v>
       </c>
-      <c r="C114" s="238"/>
-      <c r="D114" s="237" t="s">
+      <c r="C114" s="241"/>
+      <c r="D114" s="240" t="s">
         <v>248</v>
       </c>
-      <c r="E114" s="243"/>
-      <c r="F114" s="243"/>
-      <c r="G114" s="238"/>
-      <c r="H114" s="246">
+      <c r="E114" s="244"/>
+      <c r="F114" s="244"/>
+      <c r="G114" s="241"/>
+      <c r="H114" s="276">
         <v>43596</v>
       </c>
-      <c r="I114" s="247"/>
+      <c r="I114" s="277"/>
     </row>
     <row r="115" spans="2:9">
-      <c r="B115" s="239"/>
-      <c r="C115" s="240"/>
-      <c r="D115" s="239"/>
-      <c r="E115" s="244"/>
-      <c r="F115" s="244"/>
-      <c r="G115" s="240"/>
-      <c r="H115" s="248"/>
-      <c r="I115" s="249"/>
+      <c r="B115" s="245"/>
+      <c r="C115" s="247"/>
+      <c r="D115" s="245"/>
+      <c r="E115" s="246"/>
+      <c r="F115" s="246"/>
+      <c r="G115" s="247"/>
+      <c r="H115" s="278"/>
+      <c r="I115" s="279"/>
     </row>
     <row r="116" spans="2:9">
-      <c r="B116" s="239"/>
-      <c r="C116" s="240"/>
-      <c r="D116" s="239"/>
-      <c r="E116" s="244"/>
-      <c r="F116" s="244"/>
-      <c r="G116" s="240"/>
-      <c r="H116" s="248"/>
-      <c r="I116" s="249"/>
+      <c r="B116" s="245"/>
+      <c r="C116" s="247"/>
+      <c r="D116" s="245"/>
+      <c r="E116" s="246"/>
+      <c r="F116" s="246"/>
+      <c r="G116" s="247"/>
+      <c r="H116" s="278"/>
+      <c r="I116" s="279"/>
     </row>
     <row r="117" spans="2:9">
-      <c r="B117" s="239"/>
-      <c r="C117" s="240"/>
-      <c r="D117" s="239"/>
-      <c r="E117" s="244"/>
-      <c r="F117" s="244"/>
-      <c r="G117" s="240"/>
-      <c r="H117" s="248"/>
-      <c r="I117" s="249"/>
+      <c r="B117" s="245"/>
+      <c r="C117" s="247"/>
+      <c r="D117" s="245"/>
+      <c r="E117" s="246"/>
+      <c r="F117" s="246"/>
+      <c r="G117" s="247"/>
+      <c r="H117" s="278"/>
+      <c r="I117" s="279"/>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="239"/>
-      <c r="C118" s="240"/>
-      <c r="D118" s="239"/>
-      <c r="E118" s="244"/>
-      <c r="F118" s="244"/>
-      <c r="G118" s="240"/>
-      <c r="H118" s="248"/>
-      <c r="I118" s="249"/>
+      <c r="B118" s="245"/>
+      <c r="C118" s="247"/>
+      <c r="D118" s="245"/>
+      <c r="E118" s="246"/>
+      <c r="F118" s="246"/>
+      <c r="G118" s="247"/>
+      <c r="H118" s="278"/>
+      <c r="I118" s="279"/>
     </row>
     <row r="119" spans="2:9">
-      <c r="B119" s="241"/>
-      <c r="C119" s="242"/>
-      <c r="D119" s="241"/>
-      <c r="E119" s="245"/>
-      <c r="F119" s="245"/>
-      <c r="G119" s="242"/>
-      <c r="H119" s="250"/>
-      <c r="I119" s="251"/>
+      <c r="B119" s="242"/>
+      <c r="C119" s="243"/>
+      <c r="D119" s="242"/>
+      <c r="E119" s="248"/>
+      <c r="F119" s="248"/>
+      <c r="G119" s="243"/>
+      <c r="H119" s="280"/>
+      <c r="I119" s="281"/>
     </row>
     <row r="120" spans="2:9">
-      <c r="B120" s="237" t="s">
+      <c r="B120" s="240" t="s">
         <v>188</v>
       </c>
-      <c r="C120" s="238"/>
-      <c r="D120" s="237" t="s">
+      <c r="C120" s="241"/>
+      <c r="D120" s="240" t="s">
         <v>249</v>
       </c>
-      <c r="E120" s="243"/>
-      <c r="F120" s="243"/>
-      <c r="G120" s="238"/>
-      <c r="H120" s="246">
+      <c r="E120" s="244"/>
+      <c r="F120" s="244"/>
+      <c r="G120" s="241"/>
+      <c r="H120" s="276">
         <v>43617</v>
       </c>
-      <c r="I120" s="247"/>
+      <c r="I120" s="277"/>
     </row>
     <row r="121" spans="2:9">
-      <c r="B121" s="239"/>
-      <c r="C121" s="240"/>
-      <c r="D121" s="239"/>
-      <c r="E121" s="244"/>
-      <c r="F121" s="244"/>
-      <c r="G121" s="240"/>
-      <c r="H121" s="248"/>
-      <c r="I121" s="249"/>
+      <c r="B121" s="245"/>
+      <c r="C121" s="247"/>
+      <c r="D121" s="245"/>
+      <c r="E121" s="246"/>
+      <c r="F121" s="246"/>
+      <c r="G121" s="247"/>
+      <c r="H121" s="278"/>
+      <c r="I121" s="279"/>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="239"/>
-      <c r="C122" s="240"/>
-      <c r="D122" s="239"/>
-      <c r="E122" s="244"/>
-      <c r="F122" s="244"/>
-      <c r="G122" s="240"/>
-      <c r="H122" s="248"/>
-      <c r="I122" s="249"/>
+      <c r="B122" s="245"/>
+      <c r="C122" s="247"/>
+      <c r="D122" s="245"/>
+      <c r="E122" s="246"/>
+      <c r="F122" s="246"/>
+      <c r="G122" s="247"/>
+      <c r="H122" s="278"/>
+      <c r="I122" s="279"/>
     </row>
     <row r="123" spans="2:9">
-      <c r="B123" s="239"/>
-      <c r="C123" s="240"/>
-      <c r="D123" s="239"/>
-      <c r="E123" s="244"/>
-      <c r="F123" s="244"/>
-      <c r="G123" s="240"/>
-      <c r="H123" s="248"/>
-      <c r="I123" s="249"/>
+      <c r="B123" s="245"/>
+      <c r="C123" s="247"/>
+      <c r="D123" s="245"/>
+      <c r="E123" s="246"/>
+      <c r="F123" s="246"/>
+      <c r="G123" s="247"/>
+      <c r="H123" s="278"/>
+      <c r="I123" s="279"/>
     </row>
     <row r="124" spans="2:9">
-      <c r="B124" s="239"/>
-      <c r="C124" s="240"/>
-      <c r="D124" s="239"/>
-      <c r="E124" s="244"/>
-      <c r="F124" s="244"/>
-      <c r="G124" s="240"/>
-      <c r="H124" s="248"/>
-      <c r="I124" s="249"/>
+      <c r="B124" s="245"/>
+      <c r="C124" s="247"/>
+      <c r="D124" s="245"/>
+      <c r="E124" s="246"/>
+      <c r="F124" s="246"/>
+      <c r="G124" s="247"/>
+      <c r="H124" s="278"/>
+      <c r="I124" s="279"/>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="241"/>
-      <c r="C125" s="242"/>
-      <c r="D125" s="241"/>
-      <c r="E125" s="245"/>
-      <c r="F125" s="245"/>
-      <c r="G125" s="242"/>
-      <c r="H125" s="250"/>
-      <c r="I125" s="251"/>
+      <c r="B125" s="242"/>
+      <c r="C125" s="243"/>
+      <c r="D125" s="242"/>
+      <c r="E125" s="248"/>
+      <c r="F125" s="248"/>
+      <c r="G125" s="243"/>
+      <c r="H125" s="280"/>
+      <c r="I125" s="281"/>
     </row>
     <row r="126" spans="2:9">
-      <c r="B126" s="237" t="s">
+      <c r="B126" s="240" t="s">
         <v>247</v>
       </c>
-      <c r="C126" s="238"/>
-      <c r="D126" s="237" t="s">
+      <c r="C126" s="241"/>
+      <c r="D126" s="240" t="s">
         <v>250</v>
       </c>
-      <c r="E126" s="243"/>
-      <c r="F126" s="243"/>
-      <c r="G126" s="238"/>
-      <c r="H126" s="246">
+      <c r="E126" s="244"/>
+      <c r="F126" s="244"/>
+      <c r="G126" s="241"/>
+      <c r="H126" s="276">
         <v>43630</v>
       </c>
-      <c r="I126" s="247"/>
+      <c r="I126" s="277"/>
     </row>
     <row r="127" spans="2:9">
-      <c r="B127" s="239"/>
-      <c r="C127" s="240"/>
-      <c r="D127" s="239"/>
-      <c r="E127" s="244"/>
-      <c r="F127" s="244"/>
-      <c r="G127" s="240"/>
-      <c r="H127" s="248"/>
-      <c r="I127" s="249"/>
+      <c r="B127" s="245"/>
+      <c r="C127" s="247"/>
+      <c r="D127" s="245"/>
+      <c r="E127" s="246"/>
+      <c r="F127" s="246"/>
+      <c r="G127" s="247"/>
+      <c r="H127" s="278"/>
+      <c r="I127" s="279"/>
     </row>
     <row r="128" spans="2:9">
-      <c r="B128" s="239"/>
-      <c r="C128" s="240"/>
-      <c r="D128" s="239"/>
-      <c r="E128" s="244"/>
-      <c r="F128" s="244"/>
-      <c r="G128" s="240"/>
-      <c r="H128" s="248"/>
-      <c r="I128" s="249"/>
+      <c r="B128" s="245"/>
+      <c r="C128" s="247"/>
+      <c r="D128" s="245"/>
+      <c r="E128" s="246"/>
+      <c r="F128" s="246"/>
+      <c r="G128" s="247"/>
+      <c r="H128" s="278"/>
+      <c r="I128" s="279"/>
     </row>
     <row r="129" spans="2:9">
-      <c r="B129" s="239"/>
-      <c r="C129" s="240"/>
-      <c r="D129" s="239"/>
-      <c r="E129" s="244"/>
-      <c r="F129" s="244"/>
-      <c r="G129" s="240"/>
-      <c r="H129" s="248"/>
-      <c r="I129" s="249"/>
+      <c r="B129" s="245"/>
+      <c r="C129" s="247"/>
+      <c r="D129" s="245"/>
+      <c r="E129" s="246"/>
+      <c r="F129" s="246"/>
+      <c r="G129" s="247"/>
+      <c r="H129" s="278"/>
+      <c r="I129" s="279"/>
     </row>
     <row r="130" spans="2:9">
-      <c r="B130" s="239"/>
-      <c r="C130" s="240"/>
-      <c r="D130" s="239"/>
-      <c r="E130" s="244"/>
-      <c r="F130" s="244"/>
-      <c r="G130" s="240"/>
-      <c r="H130" s="248"/>
-      <c r="I130" s="249"/>
+      <c r="B130" s="245"/>
+      <c r="C130" s="247"/>
+      <c r="D130" s="245"/>
+      <c r="E130" s="246"/>
+      <c r="F130" s="246"/>
+      <c r="G130" s="247"/>
+      <c r="H130" s="278"/>
+      <c r="I130" s="279"/>
     </row>
     <row r="131" spans="2:9">
-      <c r="B131" s="241"/>
-      <c r="C131" s="242"/>
-      <c r="D131" s="241"/>
-      <c r="E131" s="245"/>
-      <c r="F131" s="245"/>
-      <c r="G131" s="242"/>
-      <c r="H131" s="250"/>
-      <c r="I131" s="251"/>
+      <c r="B131" s="242"/>
+      <c r="C131" s="243"/>
+      <c r="D131" s="242"/>
+      <c r="E131" s="248"/>
+      <c r="F131" s="248"/>
+      <c r="G131" s="243"/>
+      <c r="H131" s="280"/>
+      <c r="I131" s="281"/>
     </row>
     <row r="135" spans="2:9">
-      <c r="B135" s="265" t="s">
+      <c r="B135" s="274" t="s">
         <v>75</v>
       </c>
-      <c r="C135" s="265"/>
-      <c r="D135" s="265"/>
+      <c r="C135" s="274"/>
+      <c r="D135" s="274"/>
       <c r="E135" s="133"/>
-      <c r="G135" s="265" t="s">
+      <c r="G135" s="274" t="s">
         <v>77</v>
       </c>
-      <c r="H135" s="265"/>
-      <c r="I135" s="265"/>
+      <c r="H135" s="274"/>
+      <c r="I135" s="274"/>
     </row>
     <row r="136" spans="2:9">
-      <c r="B136" s="263" t="s">
+      <c r="B136" s="272" t="s">
         <v>76</v>
       </c>
-      <c r="C136" s="263"/>
-      <c r="D136" s="263"/>
+      <c r="C136" s="272"/>
+      <c r="D136" s="272"/>
       <c r="E136" s="133"/>
-      <c r="G136" s="266" t="s">
+      <c r="G136" s="275" t="s">
         <v>78</v>
       </c>
-      <c r="H136" s="266"/>
-      <c r="I136" s="266"/>
+      <c r="H136" s="275"/>
+      <c r="I136" s="275"/>
     </row>
     <row r="137" spans="2:9">
       <c r="B137" s="131"/>
       <c r="C137" s="131"/>
     </row>
     <row r="139" spans="2:9">
-      <c r="B139" s="264" t="s">
+      <c r="B139" s="273" t="s">
         <v>102</v>
       </c>
-      <c r="C139" s="264"/>
-      <c r="D139" s="264"/>
-      <c r="E139" s="264"/>
+      <c r="C139" s="273"/>
+      <c r="D139" s="273"/>
+      <c r="E139" s="273"/>
     </row>
     <row r="141" spans="2:9">
       <c r="B141" s="132"/>
@@ -22592,6 +22603,79 @@
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="F86:G94"/>
+    <mergeCell ref="H86:I94"/>
+    <mergeCell ref="B126:C131"/>
+    <mergeCell ref="D126:G131"/>
+    <mergeCell ref="H126:I131"/>
+    <mergeCell ref="B114:C119"/>
+    <mergeCell ref="D114:G119"/>
+    <mergeCell ref="H114:I119"/>
+    <mergeCell ref="B120:C125"/>
+    <mergeCell ref="D120:G125"/>
+    <mergeCell ref="H120:I125"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="B77:C85"/>
+    <mergeCell ref="B75:I75"/>
+    <mergeCell ref="B106:I106"/>
+    <mergeCell ref="B86:C94"/>
+    <mergeCell ref="B95:C103"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="D95:E103"/>
+    <mergeCell ref="F95:G103"/>
+    <mergeCell ref="H95:I103"/>
+    <mergeCell ref="D77:E85"/>
+    <mergeCell ref="F77:G85"/>
+    <mergeCell ref="H77:I85"/>
+    <mergeCell ref="D86:E94"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="B108:C113"/>
+    <mergeCell ref="D108:G113"/>
+    <mergeCell ref="H108:I113"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B37:E39"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B32:E35"/>
+    <mergeCell ref="F32:I35"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:C49"/>
+    <mergeCell ref="B50:C52"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I27"/>
+    <mergeCell ref="B41:E43"/>
+    <mergeCell ref="F41:I43"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="D47:I49"/>
+    <mergeCell ref="D50:I52"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B69:E73"/>
+    <mergeCell ref="F69:I73"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I64"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="I53:I54"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="H10:I11"/>
     <mergeCell ref="D12:I14"/>
@@ -22608,79 +22692,6 @@
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="F10:G11"/>
     <mergeCell ref="D8:I9"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B69:E73"/>
-    <mergeCell ref="F69:I73"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I64"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:C49"/>
-    <mergeCell ref="B50:C52"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I27"/>
-    <mergeCell ref="B41:E43"/>
-    <mergeCell ref="F41:I43"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="D47:I49"/>
-    <mergeCell ref="D50:I52"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B37:E39"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B32:E35"/>
-    <mergeCell ref="F32:I35"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="B108:C113"/>
-    <mergeCell ref="D108:G113"/>
-    <mergeCell ref="H108:I113"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="B77:C85"/>
-    <mergeCell ref="B75:I75"/>
-    <mergeCell ref="B106:I106"/>
-    <mergeCell ref="B86:C94"/>
-    <mergeCell ref="B95:C103"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="D95:E103"/>
-    <mergeCell ref="F95:G103"/>
-    <mergeCell ref="H95:I103"/>
-    <mergeCell ref="D77:E85"/>
-    <mergeCell ref="F77:G85"/>
-    <mergeCell ref="H77:I85"/>
-    <mergeCell ref="D86:E94"/>
-    <mergeCell ref="F86:G94"/>
-    <mergeCell ref="H86:I94"/>
-    <mergeCell ref="B126:C131"/>
-    <mergeCell ref="D126:G131"/>
-    <mergeCell ref="H126:I131"/>
-    <mergeCell ref="B114:C119"/>
-    <mergeCell ref="D114:G119"/>
-    <mergeCell ref="H114:I119"/>
-    <mergeCell ref="B120:C125"/>
-    <mergeCell ref="D120:G125"/>
-    <mergeCell ref="H120:I125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23199,17 +23210,17 @@
   </sheetPr>
   <dimension ref="A3:AP68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="3" spans="1:42" ht="15" thickBot="1">
-      <c r="B3" s="306"/>
-      <c r="C3" s="306"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="306"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
       <c r="G3" s="163"/>
       <c r="H3" s="164"/>
       <c r="I3" s="164"/>
@@ -23245,10 +23256,10 @@
       <c r="AM3" s="164"/>
     </row>
     <row r="4" spans="1:42" ht="15" customHeight="1">
-      <c r="B4" s="306"/>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
+      <c r="B4" s="289"/>
+      <c r="C4" s="289"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
       <c r="F4" s="164"/>
       <c r="G4" s="164"/>
       <c r="H4" s="164"/>
@@ -23271,11 +23282,11 @@
       <c r="Y4" s="164"/>
       <c r="Z4" s="164"/>
       <c r="AA4" s="164"/>
-      <c r="AF4" s="289" t="s">
+      <c r="AF4" s="290" t="s">
         <v>342</v>
       </c>
-      <c r="AG4" s="290"/>
-      <c r="AH4" s="291"/>
+      <c r="AG4" s="291"/>
+      <c r="AH4" s="292"/>
       <c r="AI4" s="164"/>
       <c r="AM4" s="164"/>
       <c r="AN4" s="164"/>
@@ -23310,9 +23321,9 @@
       <c r="Y5" s="164"/>
       <c r="Z5" s="164"/>
       <c r="AA5" s="164"/>
-      <c r="AF5" s="292"/>
-      <c r="AG5" s="293"/>
-      <c r="AH5" s="294"/>
+      <c r="AF5" s="293"/>
+      <c r="AG5" s="294"/>
+      <c r="AH5" s="295"/>
       <c r="AI5" s="164"/>
       <c r="AM5" s="164"/>
       <c r="AN5" s="164"/>
@@ -23348,9 +23359,9 @@
       <c r="Z6" s="164"/>
       <c r="AA6" s="164"/>
       <c r="AC6" s="164"/>
-      <c r="AF6" s="295"/>
-      <c r="AG6" s="296"/>
-      <c r="AH6" s="297"/>
+      <c r="AF6" s="296"/>
+      <c r="AG6" s="297"/>
+      <c r="AH6" s="298"/>
       <c r="AI6" s="164"/>
       <c r="AM6" s="164"/>
       <c r="AN6" s="164"/>
@@ -23364,11 +23375,11 @@
       <c r="D7" s="163"/>
       <c r="E7" s="163"/>
       <c r="F7" s="163"/>
-      <c r="R7" s="289" t="s">
+      <c r="R7" s="290" t="s">
         <v>330</v>
       </c>
-      <c r="S7" s="298"/>
-      <c r="T7" s="299"/>
+      <c r="S7" s="299"/>
+      <c r="T7" s="300"/>
       <c r="AA7" s="164"/>
       <c r="AB7" s="164"/>
       <c r="AD7" s="164"/>
@@ -23389,14 +23400,14 @@
       <c r="D8" s="163"/>
       <c r="E8" s="163"/>
       <c r="F8" s="163"/>
-      <c r="M8" s="289" t="s">
+      <c r="M8" s="290" t="s">
         <v>328</v>
       </c>
-      <c r="N8" s="298"/>
-      <c r="O8" s="299"/>
-      <c r="R8" s="300"/>
-      <c r="S8" s="301"/>
-      <c r="T8" s="302"/>
+      <c r="N8" s="299"/>
+      <c r="O8" s="300"/>
+      <c r="R8" s="301"/>
+      <c r="S8" s="302"/>
+      <c r="T8" s="303"/>
       <c r="AA8" s="164"/>
       <c r="AI8" s="164"/>
       <c r="AJ8" s="164"/>
@@ -23411,12 +23422,12 @@
       <c r="D9" s="163"/>
       <c r="E9" s="163"/>
       <c r="F9" s="163"/>
-      <c r="M9" s="300"/>
-      <c r="N9" s="301"/>
-      <c r="O9" s="302"/>
-      <c r="R9" s="303"/>
-      <c r="S9" s="304"/>
-      <c r="T9" s="305"/>
+      <c r="M9" s="301"/>
+      <c r="N9" s="302"/>
+      <c r="O9" s="303"/>
+      <c r="R9" s="304"/>
+      <c r="S9" s="305"/>
+      <c r="T9" s="306"/>
       <c r="AA9" s="164"/>
       <c r="AI9" s="164"/>
       <c r="AJ9" s="164"/>
@@ -23431,14 +23442,14 @@
       <c r="D10" s="163"/>
       <c r="E10" s="163"/>
       <c r="F10" s="163"/>
-      <c r="H10" s="289" t="s">
+      <c r="H10" s="290" t="s">
         <v>327</v>
       </c>
-      <c r="I10" s="290"/>
-      <c r="J10" s="291"/>
-      <c r="M10" s="303"/>
-      <c r="N10" s="304"/>
-      <c r="O10" s="305"/>
+      <c r="I10" s="291"/>
+      <c r="J10" s="292"/>
+      <c r="M10" s="304"/>
+      <c r="N10" s="305"/>
+      <c r="O10" s="306"/>
       <c r="AA10" s="164"/>
       <c r="AI10" s="164"/>
       <c r="AJ10" s="164"/>
@@ -23450,14 +23461,14 @@
       <c r="A11" s="163"/>
       <c r="B11" s="163"/>
       <c r="C11" s="163"/>
-      <c r="D11" s="289" t="s">
+      <c r="D11" s="290" t="s">
         <v>339</v>
       </c>
-      <c r="E11" s="298"/>
-      <c r="F11" s="299"/>
-      <c r="H11" s="292"/>
-      <c r="I11" s="293"/>
-      <c r="J11" s="294"/>
+      <c r="E11" s="299"/>
+      <c r="F11" s="300"/>
+      <c r="H11" s="293"/>
+      <c r="I11" s="294"/>
+      <c r="J11" s="295"/>
       <c r="AA11" s="164"/>
       <c r="AE11" s="163"/>
       <c r="AF11" s="163"/>
@@ -23473,29 +23484,29 @@
       <c r="A12" s="163"/>
       <c r="B12" s="163"/>
       <c r="C12" s="163"/>
-      <c r="D12" s="300"/>
-      <c r="E12" s="301"/>
-      <c r="F12" s="302"/>
-      <c r="H12" s="295"/>
-      <c r="I12" s="296"/>
-      <c r="J12" s="297"/>
-      <c r="W12" s="289" t="s">
+      <c r="D12" s="301"/>
+      <c r="E12" s="302"/>
+      <c r="F12" s="303"/>
+      <c r="H12" s="296"/>
+      <c r="I12" s="297"/>
+      <c r="J12" s="298"/>
+      <c r="W12" s="290" t="s">
         <v>332</v>
       </c>
-      <c r="X12" s="298"/>
-      <c r="Y12" s="299"/>
+      <c r="X12" s="299"/>
+      <c r="Y12" s="300"/>
       <c r="AA12" s="164"/>
-      <c r="AB12" s="289" t="s">
+      <c r="AB12" s="290" t="s">
         <v>346</v>
       </c>
-      <c r="AC12" s="290"/>
-      <c r="AD12" s="291"/>
+      <c r="AC12" s="291"/>
+      <c r="AD12" s="292"/>
       <c r="AE12" s="163"/>
-      <c r="AF12" s="289" t="s">
+      <c r="AF12" s="290" t="s">
         <v>326</v>
       </c>
-      <c r="AG12" s="290"/>
-      <c r="AH12" s="291"/>
+      <c r="AG12" s="291"/>
+      <c r="AH12" s="292"/>
       <c r="AI12" s="164"/>
       <c r="AJ12" s="164"/>
       <c r="AK12" s="164"/>
@@ -23506,24 +23517,24 @@
       <c r="A13" s="163"/>
       <c r="B13" s="163"/>
       <c r="C13" s="163"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="305"/>
-      <c r="M13" s="289" t="s">
+      <c r="D13" s="304"/>
+      <c r="E13" s="305"/>
+      <c r="F13" s="306"/>
+      <c r="M13" s="290" t="s">
         <v>329</v>
       </c>
-      <c r="N13" s="298"/>
-      <c r="O13" s="299"/>
-      <c r="W13" s="300"/>
-      <c r="X13" s="301"/>
-      <c r="Y13" s="302"/>
+      <c r="N13" s="299"/>
+      <c r="O13" s="300"/>
+      <c r="W13" s="301"/>
+      <c r="X13" s="302"/>
+      <c r="Y13" s="303"/>
       <c r="AA13" s="164"/>
-      <c r="AB13" s="292"/>
-      <c r="AC13" s="293"/>
-      <c r="AD13" s="294"/>
-      <c r="AF13" s="292"/>
-      <c r="AG13" s="293"/>
-      <c r="AH13" s="294"/>
+      <c r="AB13" s="293"/>
+      <c r="AC13" s="294"/>
+      <c r="AD13" s="295"/>
+      <c r="AF13" s="293"/>
+      <c r="AG13" s="294"/>
+      <c r="AH13" s="295"/>
       <c r="AI13" s="164"/>
       <c r="AJ13" s="164"/>
       <c r="AK13" s="164"/>
@@ -23537,19 +23548,19 @@
       <c r="D14" s="163"/>
       <c r="E14" s="163"/>
       <c r="F14" s="163"/>
-      <c r="M14" s="300"/>
-      <c r="N14" s="301"/>
-      <c r="O14" s="302"/>
-      <c r="W14" s="303"/>
-      <c r="X14" s="304"/>
-      <c r="Y14" s="305"/>
+      <c r="M14" s="301"/>
+      <c r="N14" s="302"/>
+      <c r="O14" s="303"/>
+      <c r="W14" s="304"/>
+      <c r="X14" s="305"/>
+      <c r="Y14" s="306"/>
       <c r="AA14" s="164"/>
-      <c r="AB14" s="295"/>
-      <c r="AC14" s="296"/>
-      <c r="AD14" s="297"/>
-      <c r="AF14" s="295"/>
-      <c r="AG14" s="296"/>
-      <c r="AH14" s="297"/>
+      <c r="AB14" s="296"/>
+      <c r="AC14" s="297"/>
+      <c r="AD14" s="298"/>
+      <c r="AF14" s="296"/>
+      <c r="AG14" s="297"/>
+      <c r="AH14" s="298"/>
       <c r="AI14" s="164"/>
       <c r="AJ14" s="164"/>
       <c r="AK14" s="164"/>
@@ -23563,14 +23574,14 @@
       <c r="D15" s="164"/>
       <c r="E15" s="164"/>
       <c r="F15" s="164"/>
-      <c r="M15" s="303"/>
-      <c r="N15" s="304"/>
-      <c r="O15" s="305"/>
-      <c r="R15" s="289" t="s">
+      <c r="M15" s="304"/>
+      <c r="N15" s="305"/>
+      <c r="O15" s="306"/>
+      <c r="R15" s="290" t="s">
         <v>331</v>
       </c>
-      <c r="S15" s="298"/>
-      <c r="T15" s="299"/>
+      <c r="S15" s="299"/>
+      <c r="T15" s="300"/>
       <c r="AA15" s="164"/>
       <c r="AH15" s="164"/>
       <c r="AI15" s="164"/>
@@ -23586,9 +23597,9 @@
       <c r="D16" s="164"/>
       <c r="E16" s="164"/>
       <c r="F16" s="164"/>
-      <c r="R16" s="300"/>
-      <c r="S16" s="301"/>
-      <c r="T16" s="302"/>
+      <c r="R16" s="301"/>
+      <c r="S16" s="302"/>
+      <c r="T16" s="303"/>
       <c r="AA16" s="164"/>
       <c r="AE16" s="163"/>
       <c r="AF16" s="164"/>
@@ -23604,9 +23615,9 @@
       <c r="D17" s="164"/>
       <c r="E17" s="164"/>
       <c r="F17" s="164"/>
-      <c r="R17" s="303"/>
-      <c r="S17" s="304"/>
-      <c r="T17" s="305"/>
+      <c r="R17" s="304"/>
+      <c r="S17" s="305"/>
+      <c r="T17" s="306"/>
       <c r="AA17" s="164"/>
       <c r="AE17" s="163"/>
       <c r="AI17" s="164"/>
@@ -24153,18 +24164,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AF4:AH6"/>
+    <mergeCell ref="W12:Y14"/>
+    <mergeCell ref="R7:T9"/>
+    <mergeCell ref="R15:T17"/>
+    <mergeCell ref="AF12:AH14"/>
+    <mergeCell ref="AB12:AD14"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="H10:J12"/>
     <mergeCell ref="M8:O10"/>
     <mergeCell ref="M13:O15"/>
     <mergeCell ref="D11:F13"/>
-    <mergeCell ref="AF4:AH6"/>
-    <mergeCell ref="W12:Y14"/>
-    <mergeCell ref="R7:T9"/>
-    <mergeCell ref="R15:T17"/>
-    <mergeCell ref="AF12:AH14"/>
-    <mergeCell ref="AB12:AD14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24179,8 +24190,8 @@
   </sheetPr>
   <dimension ref="A1:EP77"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="CJ38" sqref="CF38:CJ44"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -24344,476 +24355,476 @@
       <c r="A2" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="355"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
-      <c r="F2" s="356"/>
-      <c r="G2" s="356"/>
-      <c r="H2" s="356"/>
-      <c r="I2" s="356"/>
-      <c r="J2" s="356"/>
-      <c r="K2" s="356"/>
-      <c r="L2" s="356"/>
-      <c r="M2" s="356"/>
-      <c r="N2" s="356"/>
-      <c r="O2" s="356"/>
-      <c r="P2" s="356"/>
-      <c r="Q2" s="356"/>
-      <c r="R2" s="356"/>
-      <c r="S2" s="356"/>
-      <c r="T2" s="356"/>
-      <c r="U2" s="357"/>
-      <c r="V2" s="358" t="s">
+      <c r="B2" s="397"/>
+      <c r="C2" s="398"/>
+      <c r="D2" s="398"/>
+      <c r="E2" s="398"/>
+      <c r="F2" s="398"/>
+      <c r="G2" s="398"/>
+      <c r="H2" s="398"/>
+      <c r="I2" s="398"/>
+      <c r="J2" s="398"/>
+      <c r="K2" s="398"/>
+      <c r="L2" s="398"/>
+      <c r="M2" s="398"/>
+      <c r="N2" s="398"/>
+      <c r="O2" s="398"/>
+      <c r="P2" s="398"/>
+      <c r="Q2" s="398"/>
+      <c r="R2" s="398"/>
+      <c r="S2" s="398"/>
+      <c r="T2" s="398"/>
+      <c r="U2" s="399"/>
+      <c r="V2" s="400" t="s">
         <v>143</v>
       </c>
-      <c r="W2" s="359"/>
-      <c r="X2" s="359"/>
-      <c r="Y2" s="359"/>
-      <c r="Z2" s="359"/>
-      <c r="AA2" s="359"/>
-      <c r="AB2" s="359"/>
-      <c r="AC2" s="359"/>
-      <c r="AD2" s="359"/>
-      <c r="AE2" s="359"/>
-      <c r="AF2" s="359"/>
-      <c r="AG2" s="359"/>
-      <c r="AH2" s="359"/>
-      <c r="AI2" s="360"/>
-      <c r="AJ2" s="361">
+      <c r="W2" s="401"/>
+      <c r="X2" s="401"/>
+      <c r="Y2" s="401"/>
+      <c r="Z2" s="401"/>
+      <c r="AA2" s="401"/>
+      <c r="AB2" s="401"/>
+      <c r="AC2" s="401"/>
+      <c r="AD2" s="401"/>
+      <c r="AE2" s="401"/>
+      <c r="AF2" s="401"/>
+      <c r="AG2" s="401"/>
+      <c r="AH2" s="401"/>
+      <c r="AI2" s="402"/>
+      <c r="AJ2" s="403">
         <v>43590</v>
       </c>
-      <c r="AK2" s="362"/>
-      <c r="AL2" s="362"/>
-      <c r="AM2" s="362"/>
-      <c r="AN2" s="362"/>
-      <c r="AO2" s="362"/>
-      <c r="AP2" s="362"/>
-      <c r="AQ2" s="362"/>
-      <c r="AR2" s="362"/>
-      <c r="AS2" s="362"/>
-      <c r="AT2" s="363"/>
-      <c r="AU2" s="364"/>
-      <c r="AV2" s="365"/>
-      <c r="AW2" s="365"/>
-      <c r="AX2" s="365"/>
-      <c r="AY2" s="365"/>
-      <c r="AZ2" s="365"/>
-      <c r="BA2" s="365"/>
-      <c r="BB2" s="365"/>
-      <c r="BC2" s="365"/>
-      <c r="BD2" s="365"/>
-      <c r="BE2" s="365"/>
-      <c r="BF2" s="365"/>
-      <c r="BG2" s="366"/>
+      <c r="AK2" s="404"/>
+      <c r="AL2" s="404"/>
+      <c r="AM2" s="404"/>
+      <c r="AN2" s="404"/>
+      <c r="AO2" s="404"/>
+      <c r="AP2" s="404"/>
+      <c r="AQ2" s="404"/>
+      <c r="AR2" s="404"/>
+      <c r="AS2" s="404"/>
+      <c r="AT2" s="405"/>
+      <c r="AU2" s="406"/>
+      <c r="AV2" s="407"/>
+      <c r="AW2" s="407"/>
+      <c r="AX2" s="407"/>
+      <c r="AY2" s="407"/>
+      <c r="AZ2" s="407"/>
+      <c r="BA2" s="407"/>
+      <c r="BB2" s="407"/>
+      <c r="BC2" s="407"/>
+      <c r="BD2" s="407"/>
+      <c r="BE2" s="407"/>
+      <c r="BF2" s="407"/>
+      <c r="BG2" s="408"/>
       <c r="BH2" s="45"/>
       <c r="BI2" s="46"/>
-      <c r="BJ2" s="367" t="s">
+      <c r="BJ2" s="409" t="s">
         <v>146</v>
       </c>
-      <c r="BK2" s="359"/>
-      <c r="BL2" s="359"/>
-      <c r="BM2" s="359"/>
-      <c r="BN2" s="359"/>
-      <c r="BO2" s="359"/>
-      <c r="BP2" s="359"/>
-      <c r="BQ2" s="359"/>
-      <c r="BR2" s="359"/>
-      <c r="BS2" s="359"/>
-      <c r="BT2" s="359"/>
-      <c r="BU2" s="359"/>
-      <c r="BV2" s="359"/>
-      <c r="BW2" s="359"/>
-      <c r="BX2" s="359"/>
-      <c r="BY2" s="359"/>
-      <c r="BZ2" s="359"/>
-      <c r="CA2" s="359"/>
-      <c r="CB2" s="359"/>
-      <c r="CC2" s="359"/>
-      <c r="CD2" s="359"/>
-      <c r="CE2" s="359"/>
-      <c r="CF2" s="359"/>
-      <c r="CG2" s="368"/>
-      <c r="CH2" s="341" t="s">
+      <c r="BK2" s="401"/>
+      <c r="BL2" s="401"/>
+      <c r="BM2" s="401"/>
+      <c r="BN2" s="401"/>
+      <c r="BO2" s="401"/>
+      <c r="BP2" s="401"/>
+      <c r="BQ2" s="401"/>
+      <c r="BR2" s="401"/>
+      <c r="BS2" s="401"/>
+      <c r="BT2" s="401"/>
+      <c r="BU2" s="401"/>
+      <c r="BV2" s="401"/>
+      <c r="BW2" s="401"/>
+      <c r="BX2" s="401"/>
+      <c r="BY2" s="401"/>
+      <c r="BZ2" s="401"/>
+      <c r="CA2" s="401"/>
+      <c r="CB2" s="401"/>
+      <c r="CC2" s="401"/>
+      <c r="CD2" s="401"/>
+      <c r="CE2" s="401"/>
+      <c r="CF2" s="401"/>
+      <c r="CG2" s="410"/>
+      <c r="CH2" s="383" t="s">
         <v>155</v>
       </c>
-      <c r="CI2" s="342"/>
-      <c r="CJ2" s="342"/>
-      <c r="CK2" s="342"/>
-      <c r="CL2" s="342"/>
-      <c r="CM2" s="342"/>
-      <c r="CN2" s="342"/>
-      <c r="CO2" s="342"/>
-      <c r="CP2" s="342"/>
-      <c r="CQ2" s="342"/>
-      <c r="CR2" s="342"/>
-      <c r="CS2" s="342"/>
-      <c r="CT2" s="342"/>
-      <c r="CU2" s="342"/>
-      <c r="CV2" s="342"/>
-      <c r="CW2" s="342"/>
-      <c r="CX2" s="342"/>
-      <c r="CY2" s="342"/>
-      <c r="CZ2" s="342"/>
-      <c r="DA2" s="342"/>
-      <c r="DB2" s="342"/>
-      <c r="DC2" s="342"/>
-      <c r="DD2" s="342"/>
-      <c r="DE2" s="342"/>
-      <c r="DF2" s="343"/>
-      <c r="DG2" s="326"/>
-      <c r="DH2" s="327"/>
-      <c r="DI2" s="327"/>
-      <c r="DJ2" s="327"/>
-      <c r="DK2" s="327"/>
-      <c r="DL2" s="327"/>
-      <c r="DM2" s="327"/>
-      <c r="DN2" s="327"/>
-      <c r="DO2" s="327"/>
-      <c r="DP2" s="327"/>
-      <c r="DQ2" s="327"/>
-      <c r="DR2" s="327"/>
-      <c r="DS2" s="327"/>
-      <c r="DT2" s="327"/>
-      <c r="DU2" s="327"/>
-      <c r="DV2" s="327"/>
-      <c r="DW2" s="327"/>
-      <c r="DX2" s="327"/>
-      <c r="DY2" s="327"/>
-      <c r="DZ2" s="327"/>
-      <c r="EA2" s="327"/>
-      <c r="EB2" s="327"/>
-      <c r="EC2" s="327"/>
-      <c r="ED2" s="327"/>
-      <c r="EE2" s="327"/>
-      <c r="EF2" s="327"/>
-      <c r="EG2" s="327"/>
-      <c r="EH2" s="327"/>
-      <c r="EI2" s="327"/>
-      <c r="EJ2" s="327"/>
-      <c r="EK2" s="327"/>
-      <c r="EL2" s="327"/>
-      <c r="EM2" s="327"/>
-      <c r="EN2" s="327"/>
-      <c r="EO2" s="330"/>
+      <c r="CI2" s="384"/>
+      <c r="CJ2" s="384"/>
+      <c r="CK2" s="384"/>
+      <c r="CL2" s="384"/>
+      <c r="CM2" s="384"/>
+      <c r="CN2" s="384"/>
+      <c r="CO2" s="384"/>
+      <c r="CP2" s="384"/>
+      <c r="CQ2" s="384"/>
+      <c r="CR2" s="384"/>
+      <c r="CS2" s="384"/>
+      <c r="CT2" s="384"/>
+      <c r="CU2" s="384"/>
+      <c r="CV2" s="384"/>
+      <c r="CW2" s="384"/>
+      <c r="CX2" s="384"/>
+      <c r="CY2" s="384"/>
+      <c r="CZ2" s="384"/>
+      <c r="DA2" s="384"/>
+      <c r="DB2" s="384"/>
+      <c r="DC2" s="384"/>
+      <c r="DD2" s="384"/>
+      <c r="DE2" s="384"/>
+      <c r="DF2" s="385"/>
+      <c r="DG2" s="368"/>
+      <c r="DH2" s="369"/>
+      <c r="DI2" s="369"/>
+      <c r="DJ2" s="369"/>
+      <c r="DK2" s="369"/>
+      <c r="DL2" s="369"/>
+      <c r="DM2" s="369"/>
+      <c r="DN2" s="369"/>
+      <c r="DO2" s="369"/>
+      <c r="DP2" s="369"/>
+      <c r="DQ2" s="369"/>
+      <c r="DR2" s="369"/>
+      <c r="DS2" s="369"/>
+      <c r="DT2" s="369"/>
+      <c r="DU2" s="369"/>
+      <c r="DV2" s="369"/>
+      <c r="DW2" s="369"/>
+      <c r="DX2" s="369"/>
+      <c r="DY2" s="369"/>
+      <c r="DZ2" s="369"/>
+      <c r="EA2" s="369"/>
+      <c r="EB2" s="369"/>
+      <c r="EC2" s="369"/>
+      <c r="ED2" s="369"/>
+      <c r="EE2" s="369"/>
+      <c r="EF2" s="369"/>
+      <c r="EG2" s="369"/>
+      <c r="EH2" s="369"/>
+      <c r="EI2" s="369"/>
+      <c r="EJ2" s="369"/>
+      <c r="EK2" s="369"/>
+      <c r="EL2" s="369"/>
+      <c r="EM2" s="369"/>
+      <c r="EN2" s="369"/>
+      <c r="EO2" s="372"/>
       <c r="EP2" s="47"/>
     </row>
     <row r="3" spans="1:146" ht="45.75" customHeight="1" thickBot="1">
       <c r="A3" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="332"/>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="333"/>
-      <c r="I3" s="333"/>
-      <c r="J3" s="333"/>
-      <c r="K3" s="333"/>
-      <c r="L3" s="333"/>
-      <c r="M3" s="333"/>
-      <c r="N3" s="333"/>
-      <c r="O3" s="333"/>
-      <c r="P3" s="333"/>
-      <c r="Q3" s="333"/>
-      <c r="R3" s="333"/>
-      <c r="S3" s="333"/>
-      <c r="T3" s="333"/>
-      <c r="U3" s="334"/>
-      <c r="V3" s="335" t="s">
+      <c r="B3" s="374"/>
+      <c r="C3" s="375"/>
+      <c r="D3" s="375"/>
+      <c r="E3" s="375"/>
+      <c r="F3" s="375"/>
+      <c r="G3" s="375"/>
+      <c r="H3" s="375"/>
+      <c r="I3" s="375"/>
+      <c r="J3" s="375"/>
+      <c r="K3" s="375"/>
+      <c r="L3" s="375"/>
+      <c r="M3" s="375"/>
+      <c r="N3" s="375"/>
+      <c r="O3" s="375"/>
+      <c r="P3" s="375"/>
+      <c r="Q3" s="375"/>
+      <c r="R3" s="375"/>
+      <c r="S3" s="375"/>
+      <c r="T3" s="375"/>
+      <c r="U3" s="376"/>
+      <c r="V3" s="377" t="s">
         <v>144</v>
       </c>
-      <c r="W3" s="336"/>
-      <c r="X3" s="336"/>
-      <c r="Y3" s="336"/>
-      <c r="Z3" s="336"/>
-      <c r="AA3" s="336"/>
-      <c r="AB3" s="336"/>
-      <c r="AC3" s="336"/>
-      <c r="AD3" s="336"/>
-      <c r="AE3" s="336"/>
-      <c r="AF3" s="336"/>
-      <c r="AG3" s="336"/>
-      <c r="AH3" s="336"/>
-      <c r="AI3" s="337"/>
-      <c r="AJ3" s="338" t="s">
+      <c r="W3" s="378"/>
+      <c r="X3" s="378"/>
+      <c r="Y3" s="378"/>
+      <c r="Z3" s="378"/>
+      <c r="AA3" s="378"/>
+      <c r="AB3" s="378"/>
+      <c r="AC3" s="378"/>
+      <c r="AD3" s="378"/>
+      <c r="AE3" s="378"/>
+      <c r="AF3" s="378"/>
+      <c r="AG3" s="378"/>
+      <c r="AH3" s="378"/>
+      <c r="AI3" s="379"/>
+      <c r="AJ3" s="380" t="s">
         <v>343</v>
       </c>
-      <c r="AK3" s="339"/>
-      <c r="AL3" s="339"/>
-      <c r="AM3" s="339"/>
-      <c r="AN3" s="339"/>
-      <c r="AO3" s="339"/>
-      <c r="AP3" s="339"/>
-      <c r="AQ3" s="339"/>
-      <c r="AR3" s="339"/>
-      <c r="AS3" s="339"/>
-      <c r="AT3" s="340"/>
-      <c r="AU3" s="347"/>
-      <c r="AV3" s="348"/>
-      <c r="AW3" s="349" t="s">
+      <c r="AK3" s="381"/>
+      <c r="AL3" s="381"/>
+      <c r="AM3" s="381"/>
+      <c r="AN3" s="381"/>
+      <c r="AO3" s="381"/>
+      <c r="AP3" s="381"/>
+      <c r="AQ3" s="381"/>
+      <c r="AR3" s="381"/>
+      <c r="AS3" s="381"/>
+      <c r="AT3" s="382"/>
+      <c r="AU3" s="389"/>
+      <c r="AV3" s="390"/>
+      <c r="AW3" s="391" t="s">
         <v>145</v>
       </c>
-      <c r="AX3" s="350"/>
-      <c r="AY3" s="350"/>
-      <c r="AZ3" s="350"/>
-      <c r="BA3" s="350"/>
-      <c r="BB3" s="350"/>
-      <c r="BC3" s="350"/>
-      <c r="BD3" s="350"/>
-      <c r="BE3" s="350"/>
-      <c r="BF3" s="350"/>
-      <c r="BG3" s="351"/>
+      <c r="AX3" s="392"/>
+      <c r="AY3" s="392"/>
+      <c r="AZ3" s="392"/>
+      <c r="BA3" s="392"/>
+      <c r="BB3" s="392"/>
+      <c r="BC3" s="392"/>
+      <c r="BD3" s="392"/>
+      <c r="BE3" s="392"/>
+      <c r="BF3" s="392"/>
+      <c r="BG3" s="393"/>
       <c r="BH3" s="49"/>
       <c r="BI3" s="50"/>
-      <c r="BJ3" s="352" t="s">
+      <c r="BJ3" s="394" t="s">
         <v>147</v>
       </c>
-      <c r="BK3" s="353"/>
-      <c r="BL3" s="353"/>
-      <c r="BM3" s="353"/>
-      <c r="BN3" s="353"/>
-      <c r="BO3" s="353"/>
-      <c r="BP3" s="353"/>
-      <c r="BQ3" s="353"/>
-      <c r="BR3" s="353"/>
-      <c r="BS3" s="353"/>
-      <c r="BT3" s="353"/>
-      <c r="BU3" s="353"/>
-      <c r="BV3" s="353"/>
-      <c r="BW3" s="353"/>
-      <c r="BX3" s="353"/>
-      <c r="BY3" s="353"/>
-      <c r="BZ3" s="353"/>
-      <c r="CA3" s="353"/>
-      <c r="CB3" s="353"/>
-      <c r="CC3" s="353"/>
-      <c r="CD3" s="353"/>
-      <c r="CE3" s="353"/>
-      <c r="CF3" s="353"/>
-      <c r="CG3" s="354"/>
-      <c r="CH3" s="344"/>
-      <c r="CI3" s="345"/>
-      <c r="CJ3" s="345"/>
-      <c r="CK3" s="345"/>
-      <c r="CL3" s="345"/>
-      <c r="CM3" s="345"/>
-      <c r="CN3" s="345"/>
-      <c r="CO3" s="345"/>
-      <c r="CP3" s="345"/>
-      <c r="CQ3" s="345"/>
-      <c r="CR3" s="345"/>
-      <c r="CS3" s="345"/>
-      <c r="CT3" s="345"/>
-      <c r="CU3" s="345"/>
-      <c r="CV3" s="345"/>
-      <c r="CW3" s="345"/>
-      <c r="CX3" s="345"/>
-      <c r="CY3" s="345"/>
-      <c r="CZ3" s="345"/>
-      <c r="DA3" s="345"/>
-      <c r="DB3" s="345"/>
-      <c r="DC3" s="345"/>
-      <c r="DD3" s="345"/>
-      <c r="DE3" s="345"/>
-      <c r="DF3" s="346"/>
-      <c r="DG3" s="328"/>
-      <c r="DH3" s="329"/>
-      <c r="DI3" s="329"/>
-      <c r="DJ3" s="329"/>
-      <c r="DK3" s="329"/>
-      <c r="DL3" s="329"/>
-      <c r="DM3" s="329"/>
-      <c r="DN3" s="329"/>
-      <c r="DO3" s="329"/>
-      <c r="DP3" s="329"/>
-      <c r="DQ3" s="329"/>
-      <c r="DR3" s="329"/>
-      <c r="DS3" s="329"/>
-      <c r="DT3" s="329"/>
-      <c r="DU3" s="329"/>
-      <c r="DV3" s="329"/>
-      <c r="DW3" s="329"/>
-      <c r="DX3" s="329"/>
-      <c r="DY3" s="329"/>
-      <c r="DZ3" s="329"/>
-      <c r="EA3" s="329"/>
-      <c r="EB3" s="329"/>
-      <c r="EC3" s="329"/>
-      <c r="ED3" s="329"/>
-      <c r="EE3" s="329"/>
-      <c r="EF3" s="329"/>
-      <c r="EG3" s="329"/>
-      <c r="EH3" s="329"/>
-      <c r="EI3" s="329"/>
-      <c r="EJ3" s="329"/>
-      <c r="EK3" s="329"/>
-      <c r="EL3" s="329"/>
-      <c r="EM3" s="329"/>
-      <c r="EN3" s="329"/>
-      <c r="EO3" s="331"/>
+      <c r="BK3" s="395"/>
+      <c r="BL3" s="395"/>
+      <c r="BM3" s="395"/>
+      <c r="BN3" s="395"/>
+      <c r="BO3" s="395"/>
+      <c r="BP3" s="395"/>
+      <c r="BQ3" s="395"/>
+      <c r="BR3" s="395"/>
+      <c r="BS3" s="395"/>
+      <c r="BT3" s="395"/>
+      <c r="BU3" s="395"/>
+      <c r="BV3" s="395"/>
+      <c r="BW3" s="395"/>
+      <c r="BX3" s="395"/>
+      <c r="BY3" s="395"/>
+      <c r="BZ3" s="395"/>
+      <c r="CA3" s="395"/>
+      <c r="CB3" s="395"/>
+      <c r="CC3" s="395"/>
+      <c r="CD3" s="395"/>
+      <c r="CE3" s="395"/>
+      <c r="CF3" s="395"/>
+      <c r="CG3" s="396"/>
+      <c r="CH3" s="386"/>
+      <c r="CI3" s="387"/>
+      <c r="CJ3" s="387"/>
+      <c r="CK3" s="387"/>
+      <c r="CL3" s="387"/>
+      <c r="CM3" s="387"/>
+      <c r="CN3" s="387"/>
+      <c r="CO3" s="387"/>
+      <c r="CP3" s="387"/>
+      <c r="CQ3" s="387"/>
+      <c r="CR3" s="387"/>
+      <c r="CS3" s="387"/>
+      <c r="CT3" s="387"/>
+      <c r="CU3" s="387"/>
+      <c r="CV3" s="387"/>
+      <c r="CW3" s="387"/>
+      <c r="CX3" s="387"/>
+      <c r="CY3" s="387"/>
+      <c r="CZ3" s="387"/>
+      <c r="DA3" s="387"/>
+      <c r="DB3" s="387"/>
+      <c r="DC3" s="387"/>
+      <c r="DD3" s="387"/>
+      <c r="DE3" s="387"/>
+      <c r="DF3" s="388"/>
+      <c r="DG3" s="370"/>
+      <c r="DH3" s="371"/>
+      <c r="DI3" s="371"/>
+      <c r="DJ3" s="371"/>
+      <c r="DK3" s="371"/>
+      <c r="DL3" s="371"/>
+      <c r="DM3" s="371"/>
+      <c r="DN3" s="371"/>
+      <c r="DO3" s="371"/>
+      <c r="DP3" s="371"/>
+      <c r="DQ3" s="371"/>
+      <c r="DR3" s="371"/>
+      <c r="DS3" s="371"/>
+      <c r="DT3" s="371"/>
+      <c r="DU3" s="371"/>
+      <c r="DV3" s="371"/>
+      <c r="DW3" s="371"/>
+      <c r="DX3" s="371"/>
+      <c r="DY3" s="371"/>
+      <c r="DZ3" s="371"/>
+      <c r="EA3" s="371"/>
+      <c r="EB3" s="371"/>
+      <c r="EC3" s="371"/>
+      <c r="ED3" s="371"/>
+      <c r="EE3" s="371"/>
+      <c r="EF3" s="371"/>
+      <c r="EG3" s="371"/>
+      <c r="EH3" s="371"/>
+      <c r="EI3" s="371"/>
+      <c r="EJ3" s="371"/>
+      <c r="EK3" s="371"/>
+      <c r="EL3" s="371"/>
+      <c r="EM3" s="371"/>
+      <c r="EN3" s="371"/>
+      <c r="EO3" s="373"/>
       <c r="EP3" s="47"/>
     </row>
     <row r="4" spans="1:146" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="307"/>
-      <c r="B4" s="308"/>
-      <c r="C4" s="308"/>
-      <c r="D4" s="308"/>
-      <c r="E4" s="308"/>
-      <c r="F4" s="308"/>
-      <c r="G4" s="308"/>
-      <c r="H4" s="308"/>
-      <c r="I4" s="308"/>
-      <c r="J4" s="308"/>
-      <c r="K4" s="308"/>
-      <c r="L4" s="308"/>
-      <c r="M4" s="308"/>
-      <c r="N4" s="308"/>
-      <c r="O4" s="308"/>
-      <c r="P4" s="308"/>
-      <c r="Q4" s="308"/>
-      <c r="R4" s="308"/>
-      <c r="S4" s="308"/>
-      <c r="T4" s="308"/>
-      <c r="U4" s="308"/>
-      <c r="V4" s="308"/>
-      <c r="W4" s="308"/>
-      <c r="X4" s="308"/>
-      <c r="Y4" s="308"/>
-      <c r="Z4" s="308"/>
-      <c r="AA4" s="308"/>
-      <c r="AB4" s="308"/>
-      <c r="AC4" s="308"/>
-      <c r="AD4" s="308"/>
-      <c r="AE4" s="308"/>
-      <c r="AF4" s="308"/>
-      <c r="AG4" s="308"/>
-      <c r="AH4" s="308"/>
-      <c r="AI4" s="308"/>
-      <c r="AJ4" s="308"/>
-      <c r="AK4" s="308"/>
-      <c r="AL4" s="308"/>
-      <c r="AM4" s="308"/>
-      <c r="AN4" s="308"/>
-      <c r="AO4" s="308"/>
-      <c r="AP4" s="308"/>
-      <c r="AQ4" s="308"/>
-      <c r="AR4" s="308"/>
-      <c r="AS4" s="308"/>
-      <c r="AT4" s="308"/>
-      <c r="AU4" s="308"/>
-      <c r="AV4" s="308"/>
-      <c r="AW4" s="308"/>
-      <c r="AX4" s="308"/>
-      <c r="AY4" s="308"/>
-      <c r="AZ4" s="308"/>
-      <c r="BA4" s="308"/>
-      <c r="BB4" s="308"/>
-      <c r="BC4" s="308"/>
-      <c r="BD4" s="308"/>
-      <c r="BE4" s="308"/>
-      <c r="BF4" s="308"/>
-      <c r="BG4" s="308"/>
-      <c r="BH4" s="308"/>
-      <c r="BI4" s="308"/>
-      <c r="BJ4" s="308"/>
-      <c r="BK4" s="308"/>
-      <c r="BL4" s="308"/>
-      <c r="BM4" s="308"/>
-      <c r="BN4" s="308"/>
-      <c r="BO4" s="308"/>
-      <c r="BP4" s="308"/>
-      <c r="BQ4" s="308"/>
-      <c r="BR4" s="308"/>
-      <c r="BS4" s="308"/>
-      <c r="BT4" s="308"/>
-      <c r="BU4" s="308"/>
-      <c r="BV4" s="308"/>
-      <c r="BW4" s="308"/>
-      <c r="BX4" s="308"/>
-      <c r="BY4" s="308"/>
-      <c r="BZ4" s="308"/>
-      <c r="CA4" s="308"/>
-      <c r="CB4" s="308"/>
-      <c r="CC4" s="308"/>
-      <c r="CD4" s="308"/>
-      <c r="CE4" s="308"/>
-      <c r="CF4" s="308"/>
-      <c r="CG4" s="308"/>
-      <c r="CH4" s="308"/>
-      <c r="CI4" s="308"/>
-      <c r="CJ4" s="308"/>
-      <c r="CK4" s="308"/>
-      <c r="CL4" s="308"/>
-      <c r="CM4" s="308"/>
-      <c r="CN4" s="308"/>
-      <c r="CO4" s="308"/>
-      <c r="CP4" s="308"/>
-      <c r="CQ4" s="308"/>
-      <c r="CR4" s="308"/>
-      <c r="CS4" s="308"/>
-      <c r="CT4" s="308"/>
-      <c r="CU4" s="308"/>
-      <c r="CV4" s="308"/>
-      <c r="CW4" s="308"/>
-      <c r="CX4" s="308"/>
-      <c r="CY4" s="308"/>
-      <c r="CZ4" s="308"/>
-      <c r="DA4" s="308"/>
-      <c r="DB4" s="308"/>
-      <c r="DC4" s="308"/>
-      <c r="DD4" s="308"/>
-      <c r="DE4" s="308"/>
-      <c r="DF4" s="309"/>
-      <c r="DG4" s="310"/>
-      <c r="DH4" s="311"/>
-      <c r="DI4" s="311"/>
-      <c r="DJ4" s="311"/>
-      <c r="DK4" s="311"/>
-      <c r="DL4" s="311"/>
-      <c r="DM4" s="311"/>
-      <c r="DN4" s="311"/>
-      <c r="DO4" s="311"/>
-      <c r="DP4" s="311"/>
-      <c r="DQ4" s="311"/>
-      <c r="DR4" s="311"/>
-      <c r="DS4" s="311"/>
-      <c r="DT4" s="311"/>
-      <c r="DU4" s="311"/>
-      <c r="DV4" s="311"/>
-      <c r="DW4" s="311"/>
-      <c r="DX4" s="311"/>
-      <c r="DY4" s="311"/>
-      <c r="DZ4" s="311"/>
-      <c r="EA4" s="311"/>
-      <c r="EB4" s="311"/>
-      <c r="EC4" s="311"/>
-      <c r="ED4" s="311"/>
-      <c r="EE4" s="311"/>
-      <c r="EF4" s="311"/>
-      <c r="EG4" s="311"/>
-      <c r="EH4" s="311"/>
-      <c r="EI4" s="311"/>
-      <c r="EJ4" s="311"/>
-      <c r="EK4" s="311"/>
-      <c r="EL4" s="311"/>
-      <c r="EM4" s="311"/>
-      <c r="EN4" s="311"/>
-      <c r="EO4" s="312"/>
+      <c r="A4" s="349"/>
+      <c r="B4" s="350"/>
+      <c r="C4" s="350"/>
+      <c r="D4" s="350"/>
+      <c r="E4" s="350"/>
+      <c r="F4" s="350"/>
+      <c r="G4" s="350"/>
+      <c r="H4" s="350"/>
+      <c r="I4" s="350"/>
+      <c r="J4" s="350"/>
+      <c r="K4" s="350"/>
+      <c r="L4" s="350"/>
+      <c r="M4" s="350"/>
+      <c r="N4" s="350"/>
+      <c r="O4" s="350"/>
+      <c r="P4" s="350"/>
+      <c r="Q4" s="350"/>
+      <c r="R4" s="350"/>
+      <c r="S4" s="350"/>
+      <c r="T4" s="350"/>
+      <c r="U4" s="350"/>
+      <c r="V4" s="350"/>
+      <c r="W4" s="350"/>
+      <c r="X4" s="350"/>
+      <c r="Y4" s="350"/>
+      <c r="Z4" s="350"/>
+      <c r="AA4" s="350"/>
+      <c r="AB4" s="350"/>
+      <c r="AC4" s="350"/>
+      <c r="AD4" s="350"/>
+      <c r="AE4" s="350"/>
+      <c r="AF4" s="350"/>
+      <c r="AG4" s="350"/>
+      <c r="AH4" s="350"/>
+      <c r="AI4" s="350"/>
+      <c r="AJ4" s="350"/>
+      <c r="AK4" s="350"/>
+      <c r="AL4" s="350"/>
+      <c r="AM4" s="350"/>
+      <c r="AN4" s="350"/>
+      <c r="AO4" s="350"/>
+      <c r="AP4" s="350"/>
+      <c r="AQ4" s="350"/>
+      <c r="AR4" s="350"/>
+      <c r="AS4" s="350"/>
+      <c r="AT4" s="350"/>
+      <c r="AU4" s="350"/>
+      <c r="AV4" s="350"/>
+      <c r="AW4" s="350"/>
+      <c r="AX4" s="350"/>
+      <c r="AY4" s="350"/>
+      <c r="AZ4" s="350"/>
+      <c r="BA4" s="350"/>
+      <c r="BB4" s="350"/>
+      <c r="BC4" s="350"/>
+      <c r="BD4" s="350"/>
+      <c r="BE4" s="350"/>
+      <c r="BF4" s="350"/>
+      <c r="BG4" s="350"/>
+      <c r="BH4" s="350"/>
+      <c r="BI4" s="350"/>
+      <c r="BJ4" s="350"/>
+      <c r="BK4" s="350"/>
+      <c r="BL4" s="350"/>
+      <c r="BM4" s="350"/>
+      <c r="BN4" s="350"/>
+      <c r="BO4" s="350"/>
+      <c r="BP4" s="350"/>
+      <c r="BQ4" s="350"/>
+      <c r="BR4" s="350"/>
+      <c r="BS4" s="350"/>
+      <c r="BT4" s="350"/>
+      <c r="BU4" s="350"/>
+      <c r="BV4" s="350"/>
+      <c r="BW4" s="350"/>
+      <c r="BX4" s="350"/>
+      <c r="BY4" s="350"/>
+      <c r="BZ4" s="350"/>
+      <c r="CA4" s="350"/>
+      <c r="CB4" s="350"/>
+      <c r="CC4" s="350"/>
+      <c r="CD4" s="350"/>
+      <c r="CE4" s="350"/>
+      <c r="CF4" s="350"/>
+      <c r="CG4" s="350"/>
+      <c r="CH4" s="350"/>
+      <c r="CI4" s="350"/>
+      <c r="CJ4" s="350"/>
+      <c r="CK4" s="350"/>
+      <c r="CL4" s="350"/>
+      <c r="CM4" s="350"/>
+      <c r="CN4" s="350"/>
+      <c r="CO4" s="350"/>
+      <c r="CP4" s="350"/>
+      <c r="CQ4" s="350"/>
+      <c r="CR4" s="350"/>
+      <c r="CS4" s="350"/>
+      <c r="CT4" s="350"/>
+      <c r="CU4" s="350"/>
+      <c r="CV4" s="350"/>
+      <c r="CW4" s="350"/>
+      <c r="CX4" s="350"/>
+      <c r="CY4" s="350"/>
+      <c r="CZ4" s="350"/>
+      <c r="DA4" s="350"/>
+      <c r="DB4" s="350"/>
+      <c r="DC4" s="350"/>
+      <c r="DD4" s="350"/>
+      <c r="DE4" s="350"/>
+      <c r="DF4" s="351"/>
+      <c r="DG4" s="352"/>
+      <c r="DH4" s="353"/>
+      <c r="DI4" s="353"/>
+      <c r="DJ4" s="353"/>
+      <c r="DK4" s="353"/>
+      <c r="DL4" s="353"/>
+      <c r="DM4" s="353"/>
+      <c r="DN4" s="353"/>
+      <c r="DO4" s="353"/>
+      <c r="DP4" s="353"/>
+      <c r="DQ4" s="353"/>
+      <c r="DR4" s="353"/>
+      <c r="DS4" s="353"/>
+      <c r="DT4" s="353"/>
+      <c r="DU4" s="353"/>
+      <c r="DV4" s="353"/>
+      <c r="DW4" s="353"/>
+      <c r="DX4" s="353"/>
+      <c r="DY4" s="353"/>
+      <c r="DZ4" s="353"/>
+      <c r="EA4" s="353"/>
+      <c r="EB4" s="353"/>
+      <c r="EC4" s="353"/>
+      <c r="ED4" s="353"/>
+      <c r="EE4" s="353"/>
+      <c r="EF4" s="353"/>
+      <c r="EG4" s="353"/>
+      <c r="EH4" s="353"/>
+      <c r="EI4" s="353"/>
+      <c r="EJ4" s="353"/>
+      <c r="EK4" s="353"/>
+      <c r="EL4" s="353"/>
+      <c r="EM4" s="353"/>
+      <c r="EN4" s="353"/>
+      <c r="EO4" s="354"/>
       <c r="EP4" s="51"/>
     </row>
     <row r="5" spans="1:146" ht="16.2" thickTop="1">
-      <c r="A5" s="313" t="s">
+      <c r="A5" s="355" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="317" t="s">
+      <c r="B5" s="359" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="318"/>
-      <c r="D5" s="318"/>
-      <c r="E5" s="319"/>
+      <c r="C5" s="360"/>
+      <c r="D5" s="360"/>
+      <c r="E5" s="361"/>
       <c r="F5" s="52">
         <v>15</v>
       </c>
@@ -25237,13 +25248,13 @@
       <c r="EP5" s="60"/>
     </row>
     <row r="6" spans="1:146" ht="15.6">
-      <c r="A6" s="314"/>
-      <c r="B6" s="320" t="s">
+      <c r="A6" s="356"/>
+      <c r="B6" s="362" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="321"/>
-      <c r="D6" s="321"/>
-      <c r="E6" s="322"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="364"/>
       <c r="F6" s="61"/>
       <c r="G6" s="62">
         <v>9</v>
@@ -25665,13 +25676,13 @@
       <c r="EP6" s="60"/>
     </row>
     <row r="7" spans="1:146" ht="16.2" thickBot="1">
-      <c r="A7" s="315"/>
-      <c r="B7" s="323" t="s">
+      <c r="A7" s="357"/>
+      <c r="B7" s="365" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="324"/>
-      <c r="D7" s="324"/>
-      <c r="E7" s="325"/>
+      <c r="C7" s="366"/>
+      <c r="D7" s="366"/>
+      <c r="E7" s="367"/>
       <c r="F7" s="68" t="s">
         <v>45</v>
       </c>
@@ -26095,7 +26106,7 @@
       <c r="EP7" s="60"/>
     </row>
     <row r="8" spans="1:146" ht="16.2" thickBot="1">
-      <c r="A8" s="316"/>
+      <c r="A8" s="358"/>
       <c r="B8" s="71" t="s">
         <v>49</v>
       </c>
@@ -26251,52 +26262,52 @@
       <c r="EP8" s="60"/>
     </row>
     <row r="9" spans="1:146" ht="15" customHeight="1">
-      <c r="A9" s="369" t="s">
+      <c r="A9" s="346" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="371" t="s">
+      <c r="B9" s="333" t="s">
         <v>344</v>
       </c>
-      <c r="C9" s="373"/>
-      <c r="D9" s="375">
+      <c r="C9" s="335"/>
+      <c r="D9" s="337">
         <v>35</v>
       </c>
-      <c r="E9" s="377">
+      <c r="E9" s="339">
         <v>32</v>
       </c>
       <c r="F9" s="79"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175"/>
-      <c r="M9" s="206"/>
-      <c r="N9" s="176"/>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="176"/>
-      <c r="U9" s="176"/>
-      <c r="V9" s="176"/>
-      <c r="W9" s="176"/>
-      <c r="X9" s="176"/>
-      <c r="Y9" s="175"/>
-      <c r="Z9" s="175"/>
-      <c r="AA9" s="176"/>
-      <c r="AB9" s="176"/>
-      <c r="AC9" s="176"/>
-      <c r="AD9" s="176"/>
-      <c r="AE9" s="176"/>
-      <c r="AF9" s="175"/>
-      <c r="AG9" s="175"/>
-      <c r="AH9" s="176"/>
-      <c r="AI9" s="176"/>
-      <c r="AJ9" s="176"/>
-      <c r="AK9" s="176"/>
-      <c r="AL9" s="176"/>
+      <c r="G9" s="446"/>
+      <c r="H9" s="446"/>
+      <c r="I9" s="446"/>
+      <c r="J9" s="447"/>
+      <c r="K9" s="448"/>
+      <c r="L9" s="448"/>
+      <c r="M9" s="449"/>
+      <c r="N9" s="446"/>
+      <c r="O9" s="446"/>
+      <c r="P9" s="446"/>
+      <c r="Q9" s="446"/>
+      <c r="R9" s="448"/>
+      <c r="S9" s="448"/>
+      <c r="T9" s="446"/>
+      <c r="U9" s="446"/>
+      <c r="V9" s="446"/>
+      <c r="W9" s="446"/>
+      <c r="X9" s="446"/>
+      <c r="Y9" s="448"/>
+      <c r="Z9" s="448"/>
+      <c r="AA9" s="446"/>
+      <c r="AB9" s="446"/>
+      <c r="AC9" s="446"/>
+      <c r="AD9" s="446"/>
+      <c r="AE9" s="446"/>
+      <c r="AF9" s="448"/>
+      <c r="AG9" s="448"/>
+      <c r="AH9" s="446"/>
+      <c r="AI9" s="446"/>
+      <c r="AJ9" s="446"/>
+      <c r="AK9" s="446"/>
+      <c r="AL9" s="446"/>
       <c r="AM9" s="186"/>
       <c r="AN9" s="186"/>
       <c r="AO9" s="187"/>
@@ -26407,44 +26418,44 @@
       <c r="EP9" s="43"/>
     </row>
     <row r="10" spans="1:146" ht="15" customHeight="1">
-      <c r="A10" s="370"/>
-      <c r="B10" s="372"/>
-      <c r="C10" s="374"/>
-      <c r="D10" s="376"/>
-      <c r="E10" s="378"/>
+      <c r="A10" s="323"/>
+      <c r="B10" s="318"/>
+      <c r="C10" s="319"/>
+      <c r="D10" s="320"/>
+      <c r="E10" s="321"/>
       <c r="F10" s="85"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="207"/>
-      <c r="K10" s="177"/>
-      <c r="L10" s="177"/>
-      <c r="M10" s="208"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="178"/>
-      <c r="P10" s="178"/>
-      <c r="Q10" s="178"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="177"/>
-      <c r="T10" s="178"/>
-      <c r="U10" s="178"/>
-      <c r="V10" s="178"/>
-      <c r="W10" s="178"/>
-      <c r="X10" s="178"/>
-      <c r="Y10" s="177"/>
-      <c r="Z10" s="177"/>
-      <c r="AA10" s="178"/>
-      <c r="AB10" s="178"/>
-      <c r="AC10" s="178"/>
-      <c r="AD10" s="178"/>
-      <c r="AE10" s="178"/>
-      <c r="AF10" s="177"/>
-      <c r="AG10" s="177"/>
-      <c r="AH10" s="178"/>
-      <c r="AI10" s="178"/>
-      <c r="AJ10" s="178"/>
-      <c r="AK10" s="178"/>
-      <c r="AL10" s="178"/>
+      <c r="G10" s="450"/>
+      <c r="H10" s="450"/>
+      <c r="I10" s="450"/>
+      <c r="J10" s="451"/>
+      <c r="K10" s="452"/>
+      <c r="L10" s="452"/>
+      <c r="M10" s="453"/>
+      <c r="N10" s="450"/>
+      <c r="O10" s="450"/>
+      <c r="P10" s="450"/>
+      <c r="Q10" s="450"/>
+      <c r="R10" s="452"/>
+      <c r="S10" s="452"/>
+      <c r="T10" s="450"/>
+      <c r="U10" s="450"/>
+      <c r="V10" s="450"/>
+      <c r="W10" s="450"/>
+      <c r="X10" s="450"/>
+      <c r="Y10" s="452"/>
+      <c r="Z10" s="452"/>
+      <c r="AA10" s="450"/>
+      <c r="AB10" s="450"/>
+      <c r="AC10" s="450"/>
+      <c r="AD10" s="450"/>
+      <c r="AE10" s="450"/>
+      <c r="AF10" s="452"/>
+      <c r="AG10" s="452"/>
+      <c r="AH10" s="450"/>
+      <c r="AI10" s="450"/>
+      <c r="AJ10" s="450"/>
+      <c r="AK10" s="450"/>
+      <c r="AL10" s="450"/>
       <c r="AM10" s="188"/>
       <c r="AN10" s="188"/>
       <c r="AO10" s="189"/>
@@ -26555,17 +26566,17 @@
       <c r="EP10" s="43"/>
     </row>
     <row r="11" spans="1:146" ht="15" customHeight="1">
-      <c r="A11" s="379" t="s">
+      <c r="A11" s="347" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="371" t="s">
+      <c r="B11" s="333" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="373"/>
-      <c r="D11" s="375">
+      <c r="C11" s="335"/>
+      <c r="D11" s="337">
         <v>8</v>
       </c>
-      <c r="E11" s="377">
+      <c r="E11" s="339">
         <v>3</v>
       </c>
       <c r="F11" s="79"/>
@@ -26711,11 +26722,11 @@
       <c r="EP11" s="43"/>
     </row>
     <row r="12" spans="1:146" ht="15" customHeight="1">
-      <c r="A12" s="380"/>
-      <c r="B12" s="372"/>
-      <c r="C12" s="374"/>
-      <c r="D12" s="376"/>
-      <c r="E12" s="378"/>
+      <c r="A12" s="348"/>
+      <c r="B12" s="318"/>
+      <c r="C12" s="319"/>
+      <c r="D12" s="320"/>
+      <c r="E12" s="321"/>
       <c r="F12" s="85"/>
       <c r="G12" s="86"/>
       <c r="H12" s="86"/>
@@ -26859,17 +26870,17 @@
       <c r="EP12" s="43"/>
     </row>
     <row r="13" spans="1:146" ht="15" customHeight="1">
-      <c r="A13" s="381" t="s">
+      <c r="A13" s="342" t="s">
         <v>275</v>
       </c>
-      <c r="B13" s="383" t="s">
+      <c r="B13" s="309" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="384"/>
-      <c r="D13" s="385">
+      <c r="C13" s="311"/>
+      <c r="D13" s="313">
         <v>14</v>
       </c>
-      <c r="E13" s="386">
+      <c r="E13" s="315">
         <v>6</v>
       </c>
       <c r="F13" s="91"/>
@@ -26908,12 +26919,12 @@
       <c r="AM13" s="94"/>
       <c r="AN13" s="94"/>
       <c r="AO13" s="92"/>
-      <c r="AP13" s="446"/>
-      <c r="AQ13" s="446"/>
-      <c r="AR13" s="446"/>
-      <c r="AS13" s="446"/>
-      <c r="AT13" s="447"/>
-      <c r="AU13" s="447"/>
+      <c r="AP13" s="207"/>
+      <c r="AQ13" s="207"/>
+      <c r="AR13" s="207"/>
+      <c r="AS13" s="207"/>
+      <c r="AT13" s="208"/>
+      <c r="AU13" s="208"/>
       <c r="AV13" s="199"/>
       <c r="AW13" s="199"/>
       <c r="AX13" s="199"/>
@@ -27015,11 +27026,11 @@
       <c r="EP13" s="43"/>
     </row>
     <row r="14" spans="1:146" ht="15" customHeight="1">
-      <c r="A14" s="382"/>
-      <c r="B14" s="372"/>
-      <c r="C14" s="374"/>
-      <c r="D14" s="376"/>
-      <c r="E14" s="378"/>
+      <c r="A14" s="343"/>
+      <c r="B14" s="318"/>
+      <c r="C14" s="319"/>
+      <c r="D14" s="320"/>
+      <c r="E14" s="321"/>
       <c r="F14" s="85"/>
       <c r="G14" s="86"/>
       <c r="H14" s="86"/>
@@ -27056,12 +27067,12 @@
       <c r="AM14" s="88"/>
       <c r="AN14" s="88"/>
       <c r="AO14" s="86"/>
-      <c r="AP14" s="448"/>
-      <c r="AQ14" s="448"/>
-      <c r="AR14" s="448"/>
-      <c r="AS14" s="448"/>
-      <c r="AT14" s="449"/>
-      <c r="AU14" s="449"/>
+      <c r="AP14" s="209"/>
+      <c r="AQ14" s="209"/>
+      <c r="AR14" s="209"/>
+      <c r="AS14" s="209"/>
+      <c r="AT14" s="210"/>
+      <c r="AU14" s="210"/>
       <c r="AV14" s="189"/>
       <c r="AW14" s="189"/>
       <c r="AX14" s="189"/>
@@ -27163,17 +27174,17 @@
       <c r="EP14" s="43"/>
     </row>
     <row r="15" spans="1:146" ht="15" customHeight="1">
-      <c r="A15" s="387" t="s">
+      <c r="A15" s="344" t="s">
         <v>277</v>
       </c>
-      <c r="B15" s="383" t="s">
+      <c r="B15" s="309" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="384"/>
-      <c r="D15" s="385">
+      <c r="C15" s="311"/>
+      <c r="D15" s="313">
         <v>12</v>
       </c>
-      <c r="E15" s="386">
+      <c r="E15" s="315">
         <v>4</v>
       </c>
       <c r="F15" s="91"/>
@@ -27218,10 +27229,10 @@
       <c r="AS15" s="199"/>
       <c r="AT15" s="200"/>
       <c r="AU15" s="200"/>
-      <c r="AV15" s="209"/>
-      <c r="AW15" s="209"/>
-      <c r="AX15" s="209"/>
-      <c r="AY15" s="209"/>
+      <c r="AV15" s="205"/>
+      <c r="AW15" s="205"/>
+      <c r="AX15" s="205"/>
+      <c r="AY15" s="205"/>
       <c r="AZ15" s="199"/>
       <c r="BA15" s="94"/>
       <c r="BB15" s="94"/>
@@ -27319,11 +27330,11 @@
       <c r="EP15" s="43"/>
     </row>
     <row r="16" spans="1:146" ht="15" customHeight="1">
-      <c r="A16" s="388"/>
-      <c r="B16" s="372"/>
-      <c r="C16" s="374"/>
-      <c r="D16" s="376"/>
-      <c r="E16" s="378"/>
+      <c r="A16" s="345"/>
+      <c r="B16" s="318"/>
+      <c r="C16" s="319"/>
+      <c r="D16" s="320"/>
+      <c r="E16" s="321"/>
       <c r="F16" s="85"/>
       <c r="G16" s="86"/>
       <c r="H16" s="86"/>
@@ -27467,17 +27478,17 @@
       <c r="EP16" s="43"/>
     </row>
     <row r="17" spans="1:146" ht="15" customHeight="1">
-      <c r="A17" s="389" t="s">
+      <c r="A17" s="330" t="s">
         <v>276</v>
       </c>
-      <c r="B17" s="391" t="s">
+      <c r="B17" s="332" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="392"/>
-      <c r="D17" s="393">
+      <c r="C17" s="334"/>
+      <c r="D17" s="336">
         <v>4</v>
       </c>
-      <c r="E17" s="394">
+      <c r="E17" s="338">
         <v>1</v>
       </c>
       <c r="F17" s="91"/>
@@ -27526,7 +27537,7 @@
       <c r="AW17" s="92"/>
       <c r="AX17" s="92"/>
       <c r="AY17" s="92"/>
-      <c r="AZ17" s="209"/>
+      <c r="AZ17" s="205"/>
       <c r="BA17" s="200"/>
       <c r="BB17" s="200"/>
       <c r="BC17" s="199"/>
@@ -27623,11 +27634,11 @@
       <c r="EP17" s="43"/>
     </row>
     <row r="18" spans="1:146" ht="15" customHeight="1">
-      <c r="A18" s="390"/>
-      <c r="B18" s="371"/>
-      <c r="C18" s="373"/>
-      <c r="D18" s="375"/>
-      <c r="E18" s="377"/>
+      <c r="A18" s="331"/>
+      <c r="B18" s="333"/>
+      <c r="C18" s="335"/>
+      <c r="D18" s="337"/>
+      <c r="E18" s="339"/>
       <c r="F18" s="85"/>
       <c r="G18" s="86"/>
       <c r="H18" s="86"/>
@@ -27771,17 +27782,17 @@
       <c r="EP18" s="43"/>
     </row>
     <row r="19" spans="1:146" ht="15" customHeight="1">
-      <c r="A19" s="395" t="s">
+      <c r="A19" s="340" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="383" t="s">
+      <c r="B19" s="309" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="384"/>
-      <c r="D19" s="385">
+      <c r="C19" s="311"/>
+      <c r="D19" s="313">
         <v>3</v>
       </c>
-      <c r="E19" s="386">
+      <c r="E19" s="315">
         <v>1</v>
       </c>
       <c r="F19" s="91"/>
@@ -27831,7 +27842,7 @@
       <c r="AX19" s="92"/>
       <c r="AY19" s="92"/>
       <c r="AZ19" s="92"/>
-      <c r="BA19" s="210"/>
+      <c r="BA19" s="206"/>
       <c r="BB19" s="94"/>
       <c r="BC19" s="92"/>
       <c r="BD19" s="92"/>
@@ -27927,11 +27938,11 @@
       <c r="EP19" s="43"/>
     </row>
     <row r="20" spans="1:146" ht="15" customHeight="1">
-      <c r="A20" s="396"/>
-      <c r="B20" s="372"/>
-      <c r="C20" s="374"/>
-      <c r="D20" s="376"/>
-      <c r="E20" s="378"/>
+      <c r="A20" s="341"/>
+      <c r="B20" s="318"/>
+      <c r="C20" s="319"/>
+      <c r="D20" s="320"/>
+      <c r="E20" s="321"/>
       <c r="F20" s="85"/>
       <c r="G20" s="86"/>
       <c r="H20" s="86"/>
@@ -28075,17 +28086,17 @@
       <c r="EP20" s="43"/>
     </row>
     <row r="21" spans="1:146" ht="15" customHeight="1">
-      <c r="A21" s="397" t="s">
+      <c r="A21" s="326" t="s">
         <v>340</v>
       </c>
-      <c r="B21" s="383" t="s">
+      <c r="B21" s="309" t="s">
         <v>345</v>
       </c>
-      <c r="C21" s="384"/>
-      <c r="D21" s="385">
+      <c r="C21" s="311"/>
+      <c r="D21" s="313">
         <v>6</v>
       </c>
-      <c r="E21" s="386">
+      <c r="E21" s="315">
         <v>2</v>
       </c>
       <c r="F21" s="91"/>
@@ -28136,8 +28147,8 @@
       <c r="AY21" s="199"/>
       <c r="AZ21" s="92"/>
       <c r="BA21" s="94"/>
-      <c r="BB21" s="210"/>
-      <c r="BC21" s="209"/>
+      <c r="BB21" s="206"/>
+      <c r="BC21" s="205"/>
       <c r="BD21" s="92"/>
       <c r="BE21" s="92"/>
       <c r="BF21" s="92"/>
@@ -28231,11 +28242,11 @@
       <c r="EP21" s="43"/>
     </row>
     <row r="22" spans="1:146" ht="15" customHeight="1">
-      <c r="A22" s="398"/>
-      <c r="B22" s="372"/>
-      <c r="C22" s="374"/>
-      <c r="D22" s="376"/>
-      <c r="E22" s="378"/>
+      <c r="A22" s="327"/>
+      <c r="B22" s="318"/>
+      <c r="C22" s="319"/>
+      <c r="D22" s="320"/>
+      <c r="E22" s="321"/>
       <c r="F22" s="85"/>
       <c r="G22" s="86"/>
       <c r="H22" s="86"/>
@@ -28379,17 +28390,17 @@
       <c r="EP22" s="43"/>
     </row>
     <row r="23" spans="1:146" ht="15" customHeight="1">
-      <c r="A23" s="399" t="s">
+      <c r="A23" s="328" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="383" t="s">
+      <c r="B23" s="309" t="s">
         <v>344</v>
       </c>
-      <c r="C23" s="384"/>
-      <c r="D23" s="385">
+      <c r="C23" s="311"/>
+      <c r="D23" s="313">
         <v>25</v>
       </c>
-      <c r="E23" s="386">
+      <c r="E23" s="315">
         <v>10</v>
       </c>
       <c r="F23" s="91"/>
@@ -28442,16 +28453,16 @@
       <c r="BA23" s="200"/>
       <c r="BB23" s="200"/>
       <c r="BC23" s="199"/>
-      <c r="BD23" s="209"/>
-      <c r="BE23" s="209"/>
-      <c r="BF23" s="209"/>
-      <c r="BG23" s="209"/>
-      <c r="BH23" s="210"/>
-      <c r="BI23" s="210"/>
-      <c r="BJ23" s="209"/>
-      <c r="BK23" s="209"/>
-      <c r="BL23" s="209"/>
-      <c r="BM23" s="209"/>
+      <c r="BD23" s="205"/>
+      <c r="BE23" s="205"/>
+      <c r="BF23" s="205"/>
+      <c r="BG23" s="205"/>
+      <c r="BH23" s="206"/>
+      <c r="BI23" s="206"/>
+      <c r="BJ23" s="205"/>
+      <c r="BK23" s="205"/>
+      <c r="BL23" s="205"/>
+      <c r="BM23" s="205"/>
       <c r="BN23" s="199"/>
       <c r="BO23" s="200"/>
       <c r="BP23" s="200"/>
@@ -28535,11 +28546,11 @@
       <c r="EP23" s="43"/>
     </row>
     <row r="24" spans="1:146" ht="15" customHeight="1">
-      <c r="A24" s="400"/>
-      <c r="B24" s="372"/>
-      <c r="C24" s="374"/>
-      <c r="D24" s="376"/>
-      <c r="E24" s="378"/>
+      <c r="A24" s="329"/>
+      <c r="B24" s="318"/>
+      <c r="C24" s="319"/>
+      <c r="D24" s="320"/>
+      <c r="E24" s="321"/>
       <c r="F24" s="85"/>
       <c r="G24" s="86"/>
       <c r="H24" s="86"/>
@@ -28683,17 +28694,17 @@
       <c r="EP24" s="43"/>
     </row>
     <row r="25" spans="1:146">
-      <c r="A25" s="401" t="s">
+      <c r="A25" s="322" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="383" t="s">
+      <c r="B25" s="309" t="s">
         <v>212</v>
       </c>
-      <c r="C25" s="384"/>
-      <c r="D25" s="385">
+      <c r="C25" s="311"/>
+      <c r="D25" s="313">
         <v>4</v>
       </c>
-      <c r="E25" s="386">
+      <c r="E25" s="315">
         <v>1</v>
       </c>
       <c r="F25" s="91"/>
@@ -28756,7 +28767,7 @@
       <c r="BK25" s="92"/>
       <c r="BL25" s="92"/>
       <c r="BM25" s="92"/>
-      <c r="BN25" s="209"/>
+      <c r="BN25" s="205"/>
       <c r="BO25" s="94"/>
       <c r="BP25" s="94"/>
       <c r="BQ25" s="92"/>
@@ -28839,11 +28850,11 @@
       <c r="EP25" s="43"/>
     </row>
     <row r="26" spans="1:146">
-      <c r="A26" s="370"/>
-      <c r="B26" s="372"/>
-      <c r="C26" s="374"/>
-      <c r="D26" s="376"/>
-      <c r="E26" s="378"/>
+      <c r="A26" s="323"/>
+      <c r="B26" s="318"/>
+      <c r="C26" s="319"/>
+      <c r="D26" s="320"/>
+      <c r="E26" s="321"/>
       <c r="F26" s="85"/>
       <c r="G26" s="86"/>
       <c r="H26" s="86"/>
@@ -28987,17 +28998,17 @@
       <c r="EP26" s="43"/>
     </row>
     <row r="27" spans="1:146">
-      <c r="A27" s="402" t="s">
+      <c r="A27" s="324" t="s">
         <v>341</v>
       </c>
-      <c r="B27" s="383" t="s">
+      <c r="B27" s="309" t="s">
         <v>344</v>
       </c>
-      <c r="C27" s="384"/>
-      <c r="D27" s="385">
+      <c r="C27" s="311"/>
+      <c r="D27" s="313">
         <v>15</v>
       </c>
-      <c r="E27" s="386">
+      <c r="E27" s="315">
         <v>38</v>
       </c>
       <c r="F27" s="91"/>
@@ -29033,44 +29044,44 @@
       <c r="AJ27" s="92"/>
       <c r="AK27" s="92"/>
       <c r="AL27" s="92"/>
-      <c r="AM27" s="210"/>
-      <c r="AN27" s="210"/>
-      <c r="AO27" s="209"/>
-      <c r="AP27" s="209"/>
-      <c r="AQ27" s="209"/>
-      <c r="AR27" s="209"/>
-      <c r="AS27" s="209"/>
-      <c r="AT27" s="210"/>
-      <c r="AU27" s="210"/>
-      <c r="AV27" s="209"/>
-      <c r="AW27" s="209"/>
-      <c r="AX27" s="209"/>
-      <c r="AY27" s="209"/>
-      <c r="AZ27" s="209"/>
-      <c r="BA27" s="210"/>
-      <c r="BB27" s="210"/>
-      <c r="BC27" s="209"/>
-      <c r="BD27" s="209"/>
-      <c r="BE27" s="209"/>
-      <c r="BF27" s="209"/>
-      <c r="BG27" s="209"/>
-      <c r="BH27" s="210"/>
-      <c r="BI27" s="210"/>
-      <c r="BJ27" s="209"/>
-      <c r="BK27" s="209"/>
-      <c r="BL27" s="209"/>
-      <c r="BM27" s="209"/>
-      <c r="BN27" s="209"/>
-      <c r="BO27" s="210"/>
-      <c r="BP27" s="210"/>
-      <c r="BQ27" s="209"/>
-      <c r="BR27" s="209"/>
-      <c r="BS27" s="209"/>
-      <c r="BT27" s="209"/>
-      <c r="BU27" s="209"/>
-      <c r="BV27" s="210"/>
-      <c r="BW27" s="210"/>
-      <c r="BX27" s="209"/>
+      <c r="AM27" s="206"/>
+      <c r="AN27" s="206"/>
+      <c r="AO27" s="205"/>
+      <c r="AP27" s="205"/>
+      <c r="AQ27" s="205"/>
+      <c r="AR27" s="205"/>
+      <c r="AS27" s="205"/>
+      <c r="AT27" s="206"/>
+      <c r="AU27" s="206"/>
+      <c r="AV27" s="205"/>
+      <c r="AW27" s="205"/>
+      <c r="AX27" s="205"/>
+      <c r="AY27" s="205"/>
+      <c r="AZ27" s="205"/>
+      <c r="BA27" s="206"/>
+      <c r="BB27" s="206"/>
+      <c r="BC27" s="205"/>
+      <c r="BD27" s="205"/>
+      <c r="BE27" s="205"/>
+      <c r="BF27" s="205"/>
+      <c r="BG27" s="205"/>
+      <c r="BH27" s="206"/>
+      <c r="BI27" s="206"/>
+      <c r="BJ27" s="205"/>
+      <c r="BK27" s="205"/>
+      <c r="BL27" s="205"/>
+      <c r="BM27" s="205"/>
+      <c r="BN27" s="205"/>
+      <c r="BO27" s="206"/>
+      <c r="BP27" s="206"/>
+      <c r="BQ27" s="205"/>
+      <c r="BR27" s="205"/>
+      <c r="BS27" s="205"/>
+      <c r="BT27" s="205"/>
+      <c r="BU27" s="205"/>
+      <c r="BV27" s="206"/>
+      <c r="BW27" s="206"/>
+      <c r="BX27" s="205"/>
       <c r="BY27" s="92"/>
       <c r="BZ27" s="92"/>
       <c r="CA27" s="92"/>
@@ -29143,11 +29154,11 @@
       <c r="EP27" s="43"/>
     </row>
     <row r="28" spans="1:146">
-      <c r="A28" s="403"/>
-      <c r="B28" s="372"/>
-      <c r="C28" s="374"/>
-      <c r="D28" s="376"/>
-      <c r="E28" s="378"/>
+      <c r="A28" s="325"/>
+      <c r="B28" s="318"/>
+      <c r="C28" s="319"/>
+      <c r="D28" s="320"/>
+      <c r="E28" s="321"/>
       <c r="F28" s="85"/>
       <c r="G28" s="86"/>
       <c r="H28" s="86"/>
@@ -29291,11 +29302,11 @@
       <c r="EP28" s="43"/>
     </row>
     <row r="29" spans="1:146">
-      <c r="A29" s="404"/>
-      <c r="B29" s="383"/>
-      <c r="C29" s="384"/>
-      <c r="D29" s="385"/>
-      <c r="E29" s="386"/>
+      <c r="A29" s="307"/>
+      <c r="B29" s="309"/>
+      <c r="C29" s="311"/>
+      <c r="D29" s="313"/>
+      <c r="E29" s="315"/>
       <c r="F29" s="91"/>
       <c r="G29" s="92"/>
       <c r="H29" s="92"/>
@@ -29439,11 +29450,11 @@
       <c r="EP29" s="43"/>
     </row>
     <row r="30" spans="1:146">
-      <c r="A30" s="405"/>
-      <c r="B30" s="372"/>
-      <c r="C30" s="374"/>
-      <c r="D30" s="376"/>
-      <c r="E30" s="378"/>
+      <c r="A30" s="317"/>
+      <c r="B30" s="318"/>
+      <c r="C30" s="319"/>
+      <c r="D30" s="320"/>
+      <c r="E30" s="321"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
       <c r="H30" s="86"/>
@@ -29587,11 +29598,11 @@
       <c r="EP30" s="43"/>
     </row>
     <row r="31" spans="1:146">
-      <c r="A31" s="404"/>
-      <c r="B31" s="383"/>
-      <c r="C31" s="384"/>
-      <c r="D31" s="385"/>
-      <c r="E31" s="386"/>
+      <c r="A31" s="307"/>
+      <c r="B31" s="309"/>
+      <c r="C31" s="311"/>
+      <c r="D31" s="313"/>
+      <c r="E31" s="315"/>
       <c r="F31" s="91"/>
       <c r="G31" s="92"/>
       <c r="H31" s="92"/>
@@ -29735,11 +29746,11 @@
       <c r="EP31" s="43"/>
     </row>
     <row r="32" spans="1:146">
-      <c r="A32" s="405"/>
-      <c r="B32" s="372"/>
-      <c r="C32" s="374"/>
-      <c r="D32" s="376"/>
-      <c r="E32" s="378"/>
+      <c r="A32" s="317"/>
+      <c r="B32" s="318"/>
+      <c r="C32" s="319"/>
+      <c r="D32" s="320"/>
+      <c r="E32" s="321"/>
       <c r="F32" s="85"/>
       <c r="G32" s="86"/>
       <c r="H32" s="86"/>
@@ -29883,11 +29894,11 @@
       <c r="EP32" s="43"/>
     </row>
     <row r="33" spans="1:146">
-      <c r="A33" s="404"/>
-      <c r="B33" s="383"/>
-      <c r="C33" s="384"/>
-      <c r="D33" s="385"/>
-      <c r="E33" s="386"/>
+      <c r="A33" s="307"/>
+      <c r="B33" s="309"/>
+      <c r="C33" s="311"/>
+      <c r="D33" s="313"/>
+      <c r="E33" s="315"/>
       <c r="F33" s="91"/>
       <c r="G33" s="92"/>
       <c r="H33" s="92"/>
@@ -30031,11 +30042,11 @@
       <c r="EP33" s="43"/>
     </row>
     <row r="34" spans="1:146">
-      <c r="A34" s="405"/>
-      <c r="B34" s="372"/>
-      <c r="C34" s="374"/>
-      <c r="D34" s="376"/>
-      <c r="E34" s="378"/>
+      <c r="A34" s="317"/>
+      <c r="B34" s="318"/>
+      <c r="C34" s="319"/>
+      <c r="D34" s="320"/>
+      <c r="E34" s="321"/>
       <c r="F34" s="85"/>
       <c r="G34" s="86"/>
       <c r="H34" s="86"/>
@@ -30179,11 +30190,11 @@
       <c r="EP34" s="43"/>
     </row>
     <row r="35" spans="1:146">
-      <c r="A35" s="404"/>
-      <c r="B35" s="383"/>
-      <c r="C35" s="384"/>
-      <c r="D35" s="385"/>
-      <c r="E35" s="386"/>
+      <c r="A35" s="307"/>
+      <c r="B35" s="309"/>
+      <c r="C35" s="311"/>
+      <c r="D35" s="313"/>
+      <c r="E35" s="315"/>
       <c r="F35" s="91"/>
       <c r="G35" s="92"/>
       <c r="H35" s="92"/>
@@ -30327,11 +30338,11 @@
       <c r="EP35" s="43"/>
     </row>
     <row r="36" spans="1:146">
-      <c r="A36" s="405"/>
-      <c r="B36" s="372"/>
-      <c r="C36" s="374"/>
-      <c r="D36" s="376"/>
-      <c r="E36" s="378"/>
+      <c r="A36" s="317"/>
+      <c r="B36" s="318"/>
+      <c r="C36" s="319"/>
+      <c r="D36" s="320"/>
+      <c r="E36" s="321"/>
       <c r="F36" s="85"/>
       <c r="G36" s="86"/>
       <c r="H36" s="86"/>
@@ -30475,11 +30486,11 @@
       <c r="EP36" s="43"/>
     </row>
     <row r="37" spans="1:146">
-      <c r="A37" s="404"/>
-      <c r="B37" s="383"/>
-      <c r="C37" s="384"/>
-      <c r="D37" s="385"/>
-      <c r="E37" s="386"/>
+      <c r="A37" s="307"/>
+      <c r="B37" s="309"/>
+      <c r="C37" s="311"/>
+      <c r="D37" s="313"/>
+      <c r="E37" s="315"/>
       <c r="F37" s="91"/>
       <c r="G37" s="92"/>
       <c r="H37" s="92"/>
@@ -30623,11 +30634,11 @@
       <c r="EP37" s="43"/>
     </row>
     <row r="38" spans="1:146">
-      <c r="A38" s="405"/>
-      <c r="B38" s="372"/>
-      <c r="C38" s="374"/>
-      <c r="D38" s="376"/>
-      <c r="E38" s="378"/>
+      <c r="A38" s="317"/>
+      <c r="B38" s="318"/>
+      <c r="C38" s="319"/>
+      <c r="D38" s="320"/>
+      <c r="E38" s="321"/>
       <c r="F38" s="85"/>
       <c r="G38" s="86"/>
       <c r="H38" s="86"/>
@@ -30771,11 +30782,11 @@
       <c r="EP38" s="43"/>
     </row>
     <row r="39" spans="1:146">
-      <c r="A39" s="404"/>
-      <c r="B39" s="383"/>
-      <c r="C39" s="384"/>
-      <c r="D39" s="385"/>
-      <c r="E39" s="386"/>
+      <c r="A39" s="307"/>
+      <c r="B39" s="309"/>
+      <c r="C39" s="311"/>
+      <c r="D39" s="313"/>
+      <c r="E39" s="315"/>
       <c r="F39" s="91"/>
       <c r="G39" s="92"/>
       <c r="H39" s="92"/>
@@ -30919,11 +30930,11 @@
       <c r="EP39" s="43"/>
     </row>
     <row r="40" spans="1:146">
-      <c r="A40" s="405"/>
-      <c r="B40" s="372"/>
-      <c r="C40" s="374"/>
-      <c r="D40" s="376"/>
-      <c r="E40" s="378"/>
+      <c r="A40" s="317"/>
+      <c r="B40" s="318"/>
+      <c r="C40" s="319"/>
+      <c r="D40" s="320"/>
+      <c r="E40" s="321"/>
       <c r="F40" s="85"/>
       <c r="G40" s="86"/>
       <c r="H40" s="86"/>
@@ -31067,11 +31078,11 @@
       <c r="EP40" s="43"/>
     </row>
     <row r="41" spans="1:146">
-      <c r="A41" s="404"/>
-      <c r="B41" s="383"/>
-      <c r="C41" s="384"/>
-      <c r="D41" s="385"/>
-      <c r="E41" s="386"/>
+      <c r="A41" s="307"/>
+      <c r="B41" s="309"/>
+      <c r="C41" s="311"/>
+      <c r="D41" s="313"/>
+      <c r="E41" s="315"/>
       <c r="F41" s="91"/>
       <c r="G41" s="92"/>
       <c r="H41" s="92"/>
@@ -31215,11 +31226,11 @@
       <c r="EP41" s="43"/>
     </row>
     <row r="42" spans="1:146">
-      <c r="A42" s="405"/>
-      <c r="B42" s="372"/>
-      <c r="C42" s="374"/>
-      <c r="D42" s="376"/>
-      <c r="E42" s="378"/>
+      <c r="A42" s="317"/>
+      <c r="B42" s="318"/>
+      <c r="C42" s="319"/>
+      <c r="D42" s="320"/>
+      <c r="E42" s="321"/>
       <c r="F42" s="85"/>
       <c r="G42" s="86"/>
       <c r="H42" s="86"/>
@@ -31363,11 +31374,11 @@
       <c r="EP42" s="43"/>
     </row>
     <row r="43" spans="1:146">
-      <c r="A43" s="404"/>
-      <c r="B43" s="383"/>
-      <c r="C43" s="384"/>
-      <c r="D43" s="385"/>
-      <c r="E43" s="386"/>
+      <c r="A43" s="307"/>
+      <c r="B43" s="309"/>
+      <c r="C43" s="311"/>
+      <c r="D43" s="313"/>
+      <c r="E43" s="315"/>
       <c r="F43" s="91"/>
       <c r="G43" s="92"/>
       <c r="H43" s="92"/>
@@ -31511,11 +31522,11 @@
       <c r="EP43" s="43"/>
     </row>
     <row r="44" spans="1:146">
-      <c r="A44" s="405"/>
-      <c r="B44" s="372"/>
-      <c r="C44" s="374"/>
-      <c r="D44" s="376"/>
-      <c r="E44" s="378"/>
+      <c r="A44" s="317"/>
+      <c r="B44" s="318"/>
+      <c r="C44" s="319"/>
+      <c r="D44" s="320"/>
+      <c r="E44" s="321"/>
       <c r="F44" s="85"/>
       <c r="G44" s="86"/>
       <c r="H44" s="86"/>
@@ -31659,11 +31670,11 @@
       <c r="EP44" s="43"/>
     </row>
     <row r="45" spans="1:146">
-      <c r="A45" s="404"/>
-      <c r="B45" s="383"/>
-      <c r="C45" s="384"/>
-      <c r="D45" s="385"/>
-      <c r="E45" s="386"/>
+      <c r="A45" s="307"/>
+      <c r="B45" s="309"/>
+      <c r="C45" s="311"/>
+      <c r="D45" s="313"/>
+      <c r="E45" s="315"/>
       <c r="F45" s="91"/>
       <c r="G45" s="92"/>
       <c r="H45" s="92"/>
@@ -31807,11 +31818,11 @@
       <c r="EP45" s="43"/>
     </row>
     <row r="46" spans="1:146">
-      <c r="A46" s="405"/>
-      <c r="B46" s="372"/>
-      <c r="C46" s="374"/>
-      <c r="D46" s="376"/>
-      <c r="E46" s="378"/>
+      <c r="A46" s="317"/>
+      <c r="B46" s="318"/>
+      <c r="C46" s="319"/>
+      <c r="D46" s="320"/>
+      <c r="E46" s="321"/>
       <c r="F46" s="85"/>
       <c r="G46" s="86"/>
       <c r="H46" s="86"/>
@@ -31955,11 +31966,11 @@
       <c r="EP46" s="43"/>
     </row>
     <row r="47" spans="1:146">
-      <c r="A47" s="404"/>
-      <c r="B47" s="383"/>
-      <c r="C47" s="384"/>
-      <c r="D47" s="385"/>
-      <c r="E47" s="386"/>
+      <c r="A47" s="307"/>
+      <c r="B47" s="309"/>
+      <c r="C47" s="311"/>
+      <c r="D47" s="313"/>
+      <c r="E47" s="315"/>
       <c r="F47" s="91"/>
       <c r="G47" s="92"/>
       <c r="H47" s="92"/>
@@ -32103,11 +32114,11 @@
       <c r="EP47" s="43"/>
     </row>
     <row r="48" spans="1:146">
-      <c r="A48" s="405"/>
-      <c r="B48" s="372"/>
-      <c r="C48" s="374"/>
-      <c r="D48" s="376"/>
-      <c r="E48" s="378"/>
+      <c r="A48" s="317"/>
+      <c r="B48" s="318"/>
+      <c r="C48" s="319"/>
+      <c r="D48" s="320"/>
+      <c r="E48" s="321"/>
       <c r="F48" s="85"/>
       <c r="G48" s="86"/>
       <c r="H48" s="86"/>
@@ -32251,11 +32262,11 @@
       <c r="EP48" s="43"/>
     </row>
     <row r="49" spans="1:146">
-      <c r="A49" s="404"/>
-      <c r="B49" s="383"/>
-      <c r="C49" s="384"/>
-      <c r="D49" s="385"/>
-      <c r="E49" s="386"/>
+      <c r="A49" s="307"/>
+      <c r="B49" s="309"/>
+      <c r="C49" s="311"/>
+      <c r="D49" s="313"/>
+      <c r="E49" s="315"/>
       <c r="F49" s="91"/>
       <c r="G49" s="92"/>
       <c r="H49" s="92"/>
@@ -32399,11 +32410,11 @@
       <c r="EP49" s="43"/>
     </row>
     <row r="50" spans="1:146">
-      <c r="A50" s="405"/>
-      <c r="B50" s="372"/>
-      <c r="C50" s="374"/>
-      <c r="D50" s="376"/>
-      <c r="E50" s="378"/>
+      <c r="A50" s="317"/>
+      <c r="B50" s="318"/>
+      <c r="C50" s="319"/>
+      <c r="D50" s="320"/>
+      <c r="E50" s="321"/>
       <c r="F50" s="85"/>
       <c r="G50" s="86"/>
       <c r="H50" s="86"/>
@@ -32547,11 +32558,11 @@
       <c r="EP50" s="43"/>
     </row>
     <row r="51" spans="1:146">
-      <c r="A51" s="404"/>
-      <c r="B51" s="383"/>
-      <c r="C51" s="384"/>
-      <c r="D51" s="385"/>
-      <c r="E51" s="386"/>
+      <c r="A51" s="307"/>
+      <c r="B51" s="309"/>
+      <c r="C51" s="311"/>
+      <c r="D51" s="313"/>
+      <c r="E51" s="315"/>
       <c r="F51" s="91"/>
       <c r="G51" s="92"/>
       <c r="H51" s="92"/>
@@ -32695,11 +32706,11 @@
       <c r="EP51" s="43"/>
     </row>
     <row r="52" spans="1:146">
-      <c r="A52" s="405"/>
-      <c r="B52" s="372"/>
-      <c r="C52" s="374"/>
-      <c r="D52" s="376"/>
-      <c r="E52" s="378"/>
+      <c r="A52" s="317"/>
+      <c r="B52" s="318"/>
+      <c r="C52" s="319"/>
+      <c r="D52" s="320"/>
+      <c r="E52" s="321"/>
       <c r="F52" s="85"/>
       <c r="G52" s="86"/>
       <c r="H52" s="86"/>
@@ -32843,11 +32854,11 @@
       <c r="EP52" s="43"/>
     </row>
     <row r="53" spans="1:146">
-      <c r="A53" s="404"/>
-      <c r="B53" s="383"/>
-      <c r="C53" s="384"/>
-      <c r="D53" s="385"/>
-      <c r="E53" s="386"/>
+      <c r="A53" s="307"/>
+      <c r="B53" s="309"/>
+      <c r="C53" s="311"/>
+      <c r="D53" s="313"/>
+      <c r="E53" s="315"/>
       <c r="F53" s="91"/>
       <c r="G53" s="92"/>
       <c r="H53" s="92"/>
@@ -32991,11 +33002,11 @@
       <c r="EP53" s="43"/>
     </row>
     <row r="54" spans="1:146">
-      <c r="A54" s="405"/>
-      <c r="B54" s="372"/>
-      <c r="C54" s="374"/>
-      <c r="D54" s="376"/>
-      <c r="E54" s="378"/>
+      <c r="A54" s="317"/>
+      <c r="B54" s="318"/>
+      <c r="C54" s="319"/>
+      <c r="D54" s="320"/>
+      <c r="E54" s="321"/>
       <c r="F54" s="85"/>
       <c r="G54" s="86"/>
       <c r="H54" s="86"/>
@@ -33139,11 +33150,11 @@
       <c r="EP54" s="43"/>
     </row>
     <row r="55" spans="1:146">
-      <c r="A55" s="404"/>
-      <c r="B55" s="383"/>
-      <c r="C55" s="384"/>
-      <c r="D55" s="385"/>
-      <c r="E55" s="386"/>
+      <c r="A55" s="307"/>
+      <c r="B55" s="309"/>
+      <c r="C55" s="311"/>
+      <c r="D55" s="313"/>
+      <c r="E55" s="315"/>
       <c r="F55" s="91"/>
       <c r="G55" s="92"/>
       <c r="H55" s="92"/>
@@ -33287,11 +33298,11 @@
       <c r="EP55" s="43"/>
     </row>
     <row r="56" spans="1:146">
-      <c r="A56" s="405"/>
-      <c r="B56" s="372"/>
-      <c r="C56" s="374"/>
-      <c r="D56" s="376"/>
-      <c r="E56" s="378"/>
+      <c r="A56" s="317"/>
+      <c r="B56" s="318"/>
+      <c r="C56" s="319"/>
+      <c r="D56" s="320"/>
+      <c r="E56" s="321"/>
       <c r="F56" s="85"/>
       <c r="G56" s="86"/>
       <c r="H56" s="86"/>
@@ -33435,11 +33446,11 @@
       <c r="EP56" s="43"/>
     </row>
     <row r="57" spans="1:146">
-      <c r="A57" s="404"/>
-      <c r="B57" s="383"/>
-      <c r="C57" s="384"/>
-      <c r="D57" s="385"/>
-      <c r="E57" s="386"/>
+      <c r="A57" s="307"/>
+      <c r="B57" s="309"/>
+      <c r="C57" s="311"/>
+      <c r="D57" s="313"/>
+      <c r="E57" s="315"/>
       <c r="F57" s="91"/>
       <c r="G57" s="92"/>
       <c r="H57" s="92"/>
@@ -33583,11 +33594,11 @@
       <c r="EP57" s="43"/>
     </row>
     <row r="58" spans="1:146">
-      <c r="A58" s="405"/>
-      <c r="B58" s="372"/>
-      <c r="C58" s="374"/>
-      <c r="D58" s="376"/>
-      <c r="E58" s="378"/>
+      <c r="A58" s="317"/>
+      <c r="B58" s="318"/>
+      <c r="C58" s="319"/>
+      <c r="D58" s="320"/>
+      <c r="E58" s="321"/>
       <c r="F58" s="85"/>
       <c r="G58" s="86"/>
       <c r="H58" s="86"/>
@@ -33731,11 +33742,11 @@
       <c r="EP58" s="43"/>
     </row>
     <row r="59" spans="1:146">
-      <c r="A59" s="404"/>
-      <c r="B59" s="383"/>
-      <c r="C59" s="384"/>
-      <c r="D59" s="385"/>
-      <c r="E59" s="386"/>
+      <c r="A59" s="307"/>
+      <c r="B59" s="309"/>
+      <c r="C59" s="311"/>
+      <c r="D59" s="313"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="91"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
@@ -33879,11 +33890,11 @@
       <c r="EP59" s="43"/>
     </row>
     <row r="60" spans="1:146">
-      <c r="A60" s="405"/>
-      <c r="B60" s="372"/>
-      <c r="C60" s="374"/>
-      <c r="D60" s="376"/>
-      <c r="E60" s="378"/>
+      <c r="A60" s="317"/>
+      <c r="B60" s="318"/>
+      <c r="C60" s="319"/>
+      <c r="D60" s="320"/>
+      <c r="E60" s="321"/>
       <c r="F60" s="85"/>
       <c r="G60" s="86"/>
       <c r="H60" s="86"/>
@@ -34027,11 +34038,11 @@
       <c r="EP60" s="43"/>
     </row>
     <row r="61" spans="1:146">
-      <c r="A61" s="404"/>
-      <c r="B61" s="383"/>
-      <c r="C61" s="384"/>
-      <c r="D61" s="385"/>
-      <c r="E61" s="386"/>
+      <c r="A61" s="307"/>
+      <c r="B61" s="309"/>
+      <c r="C61" s="311"/>
+      <c r="D61" s="313"/>
+      <c r="E61" s="315"/>
       <c r="F61" s="91"/>
       <c r="G61" s="92"/>
       <c r="H61" s="92"/>
@@ -34175,11 +34186,11 @@
       <c r="EP61" s="43"/>
     </row>
     <row r="62" spans="1:146">
-      <c r="A62" s="405"/>
-      <c r="B62" s="372"/>
-      <c r="C62" s="374"/>
-      <c r="D62" s="376"/>
-      <c r="E62" s="378"/>
+      <c r="A62" s="317"/>
+      <c r="B62" s="318"/>
+      <c r="C62" s="319"/>
+      <c r="D62" s="320"/>
+      <c r="E62" s="321"/>
       <c r="F62" s="85"/>
       <c r="G62" s="86"/>
       <c r="H62" s="86"/>
@@ -34323,11 +34334,11 @@
       <c r="EP62" s="43"/>
     </row>
     <row r="63" spans="1:146">
-      <c r="A63" s="404"/>
-      <c r="B63" s="383"/>
-      <c r="C63" s="384"/>
-      <c r="D63" s="385"/>
-      <c r="E63" s="386"/>
+      <c r="A63" s="307"/>
+      <c r="B63" s="309"/>
+      <c r="C63" s="311"/>
+      <c r="D63" s="313"/>
+      <c r="E63" s="315"/>
       <c r="F63" s="91"/>
       <c r="G63" s="92"/>
       <c r="H63" s="92"/>
@@ -34471,11 +34482,11 @@
       <c r="EP63" s="43"/>
     </row>
     <row r="64" spans="1:146">
-      <c r="A64" s="405"/>
-      <c r="B64" s="372"/>
-      <c r="C64" s="374"/>
-      <c r="D64" s="376"/>
-      <c r="E64" s="378"/>
+      <c r="A64" s="317"/>
+      <c r="B64" s="318"/>
+      <c r="C64" s="319"/>
+      <c r="D64" s="320"/>
+      <c r="E64" s="321"/>
       <c r="F64" s="85"/>
       <c r="G64" s="86"/>
       <c r="H64" s="86"/>
@@ -34619,11 +34630,11 @@
       <c r="EP64" s="43"/>
     </row>
     <row r="65" spans="1:146">
-      <c r="A65" s="404"/>
-      <c r="B65" s="383"/>
-      <c r="C65" s="384"/>
-      <c r="D65" s="385"/>
-      <c r="E65" s="386"/>
+      <c r="A65" s="307"/>
+      <c r="B65" s="309"/>
+      <c r="C65" s="311"/>
+      <c r="D65" s="313"/>
+      <c r="E65" s="315"/>
       <c r="F65" s="91"/>
       <c r="G65" s="92"/>
       <c r="H65" s="92"/>
@@ -34767,11 +34778,11 @@
       <c r="EP65" s="43"/>
     </row>
     <row r="66" spans="1:146" ht="15" thickBot="1">
-      <c r="A66" s="406"/>
-      <c r="B66" s="407"/>
-      <c r="C66" s="408"/>
-      <c r="D66" s="409"/>
-      <c r="E66" s="410"/>
+      <c r="A66" s="308"/>
+      <c r="B66" s="310"/>
+      <c r="C66" s="312"/>
+      <c r="D66" s="314"/>
+      <c r="E66" s="316"/>
       <c r="F66" s="98"/>
       <c r="G66" s="99"/>
       <c r="H66" s="99"/>
@@ -36566,151 +36577,6 @@
     </row>
   </sheetData>
   <mergeCells count="165">
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A4:DF4"/>
     <mergeCell ref="DG4:EO4"/>
     <mergeCell ref="A5:A8"/>
@@ -36731,6 +36597,151 @@
     <mergeCell ref="AJ2:AT2"/>
     <mergeCell ref="AU2:BG2"/>
     <mergeCell ref="BJ2:CG2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -36782,39 +36793,39 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="424" t="s">
+      <c r="A3" s="411" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="425"/>
-      <c r="C3" s="426" t="s">
+      <c r="B3" s="412"/>
+      <c r="C3" s="413" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="426"/>
-      <c r="E3" s="427"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="414"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="41.25" customHeight="1">
-      <c r="A4" s="428" t="s">
+      <c r="A4" s="415" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="429"/>
-      <c r="C4" s="430" t="s">
+      <c r="B4" s="416"/>
+      <c r="C4" s="417" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="431"/>
-      <c r="E4" s="432"/>
+      <c r="D4" s="418"/>
+      <c r="E4" s="419"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1">
-      <c r="A5" s="439" t="s">
+      <c r="A5" s="426" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="440"/>
-      <c r="C5" s="437">
+      <c r="B5" s="427"/>
+      <c r="C5" s="424">
         <v>43592</v>
       </c>
-      <c r="D5" s="437"/>
-      <c r="E5" s="438"/>
+      <c r="D5" s="424"/>
+      <c r="E5" s="425"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1">
@@ -36826,34 +36837,34 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A7" s="433" t="s">
+      <c r="A7" s="420" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="435" t="s">
+      <c r="B7" s="422" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="435"/>
+      <c r="C7" s="422"/>
       <c r="D7" s="135" t="s">
         <v>141</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="415" t="s">
+      <c r="F7" s="428" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="416"/>
-      <c r="H7" s="417"/>
-      <c r="I7" s="418" t="s">
+      <c r="G7" s="429"/>
+      <c r="H7" s="430"/>
+      <c r="I7" s="431" t="s">
         <v>142</v>
       </c>
-      <c r="J7" s="419"/>
-      <c r="K7" s="420"/>
+      <c r="J7" s="432"/>
+      <c r="K7" s="433"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1">
-      <c r="A8" s="434"/>
-      <c r="B8" s="436"/>
-      <c r="C8" s="436"/>
+      <c r="A8" s="421"/>
+      <c r="B8" s="423"/>
+      <c r="C8" s="423"/>
       <c r="D8" s="136" t="s">
         <v>0</v>
       </c>
@@ -36883,10 +36894,10 @@
       <c r="A9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="423" t="s">
+      <c r="B9" s="439" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="423"/>
+      <c r="C9" s="439"/>
       <c r="D9" s="24">
         <v>70</v>
       </c>
@@ -36914,10 +36925,10 @@
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="411" t="s">
+      <c r="B10" s="438" t="s">
         <v>252</v>
       </c>
-      <c r="C10" s="411"/>
+      <c r="C10" s="438"/>
       <c r="D10" s="5">
         <v>2</v>
       </c>
@@ -36945,10 +36956,10 @@
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="411" t="s">
+      <c r="B11" s="438" t="s">
         <v>254</v>
       </c>
-      <c r="C11" s="411"/>
+      <c r="C11" s="438"/>
       <c r="D11" s="5">
         <v>25</v>
       </c>
@@ -36976,10 +36987,10 @@
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="411" t="s">
+      <c r="B12" s="438" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="411"/>
+      <c r="C12" s="438"/>
       <c r="D12" s="5">
         <v>50</v>
       </c>
@@ -37007,10 +37018,10 @@
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="421" t="s">
+      <c r="B13" s="434" t="s">
         <v>300</v>
       </c>
-      <c r="C13" s="422"/>
+      <c r="C13" s="435"/>
       <c r="D13" s="5">
         <v>35</v>
       </c>
@@ -37038,10 +37049,10 @@
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="411" t="s">
+      <c r="B14" s="438" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="411"/>
+      <c r="C14" s="438"/>
       <c r="D14" s="5">
         <v>20</v>
       </c>
@@ -37069,10 +37080,10 @@
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="411" t="s">
+      <c r="B15" s="438" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="411"/>
+      <c r="C15" s="438"/>
       <c r="D15" s="5">
         <v>70</v>
       </c>
@@ -37100,10 +37111,10 @@
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="411" t="s">
+      <c r="B16" s="438" t="s">
         <v>282</v>
       </c>
-      <c r="C16" s="411"/>
+      <c r="C16" s="438"/>
       <c r="D16" s="5">
         <v>85</v>
       </c>
@@ -37131,10 +37142,10 @@
       <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="411" t="s">
+      <c r="B17" s="438" t="s">
         <v>298</v>
       </c>
-      <c r="C17" s="411"/>
+      <c r="C17" s="438"/>
       <c r="D17" s="5">
         <v>20</v>
       </c>
@@ -37162,10 +37173,10 @@
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="421" t="s">
+      <c r="B18" s="434" t="s">
         <v>299</v>
       </c>
-      <c r="C18" s="422"/>
+      <c r="C18" s="435"/>
       <c r="D18" s="5">
         <v>20</v>
       </c>
@@ -37193,8 +37204,8 @@
       <c r="A19" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="421"/>
-      <c r="C19" s="422"/>
+      <c r="B19" s="434"/>
+      <c r="C19" s="435"/>
       <c r="D19" s="5"/>
       <c r="E19" s="134"/>
       <c r="F19" s="12"/>
@@ -37208,8 +37219,8 @@
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="413"/>
-      <c r="C20" s="414"/>
+      <c r="B20" s="436"/>
+      <c r="C20" s="437"/>
       <c r="D20" s="5"/>
       <c r="E20" s="134"/>
       <c r="F20" s="12"/>
@@ -37223,8 +37234,8 @@
       <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="413"/>
-      <c r="C21" s="414"/>
+      <c r="B21" s="436"/>
+      <c r="C21" s="437"/>
       <c r="D21" s="5"/>
       <c r="E21" s="134"/>
       <c r="F21" s="12"/>
@@ -37238,8 +37249,8 @@
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="413"/>
-      <c r="C22" s="414"/>
+      <c r="B22" s="436"/>
+      <c r="C22" s="437"/>
       <c r="D22" s="5"/>
       <c r="E22" s="134"/>
       <c r="F22" s="12"/>
@@ -37253,8 +37264,8 @@
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="411"/>
-      <c r="C23" s="411"/>
+      <c r="B23" s="438"/>
+      <c r="C23" s="438"/>
       <c r="D23" s="5"/>
       <c r="E23" s="134"/>
       <c r="F23" s="12"/>
@@ -37268,8 +37279,8 @@
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="413"/>
-      <c r="C24" s="414"/>
+      <c r="B24" s="436"/>
+      <c r="C24" s="437"/>
       <c r="D24" s="5"/>
       <c r="E24" s="134"/>
       <c r="F24" s="12"/>
@@ -37283,8 +37294,8 @@
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="413"/>
-      <c r="C25" s="414"/>
+      <c r="B25" s="436"/>
+      <c r="C25" s="437"/>
       <c r="D25" s="5"/>
       <c r="E25" s="134"/>
       <c r="F25" s="12"/>
@@ -37298,8 +37309,8 @@
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="413"/>
-      <c r="C26" s="414"/>
+      <c r="B26" s="436"/>
+      <c r="C26" s="437"/>
       <c r="D26" s="5"/>
       <c r="E26" s="134"/>
       <c r="F26" s="12"/>
@@ -37313,8 +37324,8 @@
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="413"/>
-      <c r="C27" s="414"/>
+      <c r="B27" s="436"/>
+      <c r="C27" s="437"/>
       <c r="D27" s="5"/>
       <c r="E27" s="134"/>
       <c r="F27" s="12"/>
@@ -37328,8 +37339,8 @@
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="413"/>
-      <c r="C28" s="414"/>
+      <c r="B28" s="436"/>
+      <c r="C28" s="437"/>
       <c r="D28" s="5"/>
       <c r="E28" s="134"/>
       <c r="F28" s="12"/>
@@ -37343,8 +37354,8 @@
       <c r="A29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="411"/>
-      <c r="C29" s="411"/>
+      <c r="B29" s="438"/>
+      <c r="C29" s="438"/>
       <c r="D29" s="5"/>
       <c r="E29" s="134"/>
       <c r="F29" s="12"/>
@@ -37358,8 +37369,8 @@
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="411"/>
-      <c r="C30" s="411"/>
+      <c r="B30" s="438"/>
+      <c r="C30" s="438"/>
       <c r="D30" s="5"/>
       <c r="E30" s="134"/>
       <c r="F30" s="12"/>
@@ -37373,8 +37384,8 @@
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="411"/>
-      <c r="C31" s="411"/>
+      <c r="B31" s="438"/>
+      <c r="C31" s="438"/>
       <c r="D31" s="5"/>
       <c r="E31" s="134"/>
       <c r="F31" s="12"/>
@@ -37388,8 +37399,8 @@
       <c r="A32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="411"/>
-      <c r="C32" s="411"/>
+      <c r="B32" s="438"/>
+      <c r="C32" s="438"/>
       <c r="D32" s="5"/>
       <c r="E32" s="134"/>
       <c r="F32" s="12"/>
@@ -37403,8 +37414,8 @@
       <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="411"/>
-      <c r="C33" s="411"/>
+      <c r="B33" s="438"/>
+      <c r="C33" s="438"/>
       <c r="D33" s="5"/>
       <c r="E33" s="134"/>
       <c r="F33" s="12"/>
@@ -37418,8 +37429,8 @@
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="411"/>
-      <c r="C34" s="411"/>
+      <c r="B34" s="438"/>
+      <c r="C34" s="438"/>
       <c r="D34" s="5"/>
       <c r="E34" s="134"/>
       <c r="F34" s="12"/>
@@ -37433,8 +37444,8 @@
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="411"/>
-      <c r="C35" s="411"/>
+      <c r="B35" s="438"/>
+      <c r="C35" s="438"/>
       <c r="D35" s="5"/>
       <c r="E35" s="134"/>
       <c r="F35" s="12"/>
@@ -37448,8 +37459,8 @@
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="411"/>
-      <c r="C36" s="411"/>
+      <c r="B36" s="438"/>
+      <c r="C36" s="438"/>
       <c r="D36" s="5"/>
       <c r="E36" s="134"/>
       <c r="F36" s="12"/>
@@ -37463,8 +37474,8 @@
       <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="411"/>
-      <c r="C37" s="411"/>
+      <c r="B37" s="438"/>
+      <c r="C37" s="438"/>
       <c r="D37" s="5"/>
       <c r="E37" s="134"/>
       <c r="F37" s="12"/>
@@ -37478,8 +37489,8 @@
       <c r="A38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="412"/>
-      <c r="C38" s="412"/>
+      <c r="B38" s="440"/>
+      <c r="C38" s="440"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
       <c r="F38" s="13"/>
@@ -37491,14 +37502,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="B18:C18"/>
@@ -37513,24 +37534,14 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
